--- a/RMD/input/insight.xlsx
+++ b/RMD/input/insight.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leah\Documents\DailyReport\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leah\Documents\DailyReport\RMD\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A936FD6C-CC33-4A06-9EDC-A9C132A1CAC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A2F417-B1B8-47C4-8889-C4EEBF780216}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
   <si>
     <t>content</t>
   </si>
@@ -250,7 +250,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -271,17 +271,6 @@
       <bottom style="thin">
         <color indexed="10"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -310,7 +299,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -324,9 +313,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1498,7 +1484,7 @@
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.33203125" defaultRowHeight="19.899999999999999" customHeight="1"/>
@@ -1514,37 +1500,39 @@
       </c>
     </row>
     <row r="2" spans="1:1" ht="20.100000000000001" customHeight="1">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="14.75" customHeight="1">
-      <c r="A5" s="3"/>
+      <c r="A5" s="5" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:1" ht="14.75" customHeight="1">
-      <c r="A6" s="4"/>
+      <c r="A6" s="3"/>
     </row>
     <row r="7" spans="1:1" ht="14.75" customHeight="1">
-      <c r="A7" s="4"/>
+      <c r="A7" s="3"/>
     </row>
     <row r="8" spans="1:1" ht="14.75" customHeight="1">
-      <c r="A8" s="4"/>
+      <c r="A8" s="3"/>
     </row>
     <row r="9" spans="1:1" ht="14.75" customHeight="1">
-      <c r="A9" s="4"/>
+      <c r="A9" s="3"/>
     </row>
     <row r="10" spans="1:1" ht="14.75" customHeight="1">
-      <c r="A10" s="5"/>
+      <c r="A10" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/RMD/input/insight.xlsx
+++ b/RMD/input/insight.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leah\Documents\DailyReport\RMD\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lidazhang/Downloads/DailyReport-master/RMD/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A2F417-B1B8-47C4-8889-C4EEBF780216}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A9E3C55-C974-9C4C-A513-223689AE0F78}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20720" windowHeight="13280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表 1 - test" sheetId="1" r:id="rId1"/>
@@ -20,196 +20,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>content</t>
   </si>
   <si>
-    <t>从累计死亡病例数（表2）来看，全球累计死亡病例数前十国家位次不变。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t> 截止北京时间4月3日早5:00，全球累计确诊病例超过100万人(1,075,777)，累计死亡52,772例。由图1所示，确诊病例全球分布广泛，主要集中在美国、亚洲、欧洲以及中东地区，在南美、澳大利亚以及非洲部分地区也有散在分布。由表1所示，累计确诊人数前三位的国家仍然为美国，意大利和西班牙。德国首次超过中国成为第四位。粗发病率最高的国家是西班牙和瑞士，均在200/10万人以上。此外，澳大利亚、加拿大累计确诊数均已超过1万人。</t>
   </si>
   <si>
-    <r>
-      <t>截止北京时间</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>28</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>日早</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>6:00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，全球累计</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>591,802</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>例确诊病例。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>    从表2和图2来看，美国新增病例数居全球首位，连续三天每日新增病例数稳定在约两万五千人。德国新增病例数近三日有小幅升高的趋势。法国新增病例数于3月31日达到近期峰值（7,657），近两日每日减少约2500人，疫情有趋稳的迹象。加拿大新增病例数进入前十位。此外，南美洲的巴西近三日新增病例数达到千人以上，南亚的印度新增病例数由3月31号之前的200人以下升高至500人以上。
+    从累计死亡病例数（表3和图3）来看，多数国家新增死亡病例数及病死率稳定。法国新增死亡病例数较昨日（+511人）升高幅度明显增加，病死率由7%升高到9%。美国和西班牙新增死亡数较昨日升高约300人，但病死率升高幅度不大（+0.3%）。</t>
   </si>
   <si>
-    <r>
-      <t>截至北京时间3月28</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Helvetica Neue"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>日</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>早</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>6:00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>美国共</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>101,567</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>例累计确诊病例，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>1,581</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>例累计死亡病例。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t xml:space="preserve"> 截至北京时间4月3日早5:00， 美国累计确诊病例数已达到238,820例，共 5,758例死亡病例。从州疫情分布图（图4，图5）来看，确诊病例主要集中于沿海地区，对比前几日数据可见逐步向中部蔓延，有全国爆发趋势。
+ 纽约州(NY)粗发病率达到475/10万人，累计确诊数占全美39%，较昨日有所降低（41%），日新增确诊数较昨日小幅提高，但占全美比例较昨日（44%）有所下降，提示其他州的疫情有进一步恶化的趋势。密歇根州、加利福尼亚州累计确诊人数均已超过1万人。路易斯安纳州（LA）新增确诊病例数进一步上升，由昨日的1187人升至2697人。密歇根州（MI）、宾夕法尼亚州（PA）以及佛罗里达州（FL）新增确诊病例数均超过一千人，提示疫情在美国迅速蔓延趋势。</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 从表6来看，全美累计阳性率前四位阳性率均为接近40%及以上，提示有大量轻症及无症状感染者未被检出，感染人数远超报告数字，疫情严峻。全美共检测126.7万人，累计检测人数最多的三个州是纽约州（23.9万人）、佛罗里达州（7.7万人）及华盛顿州（7.5万人），其中佛罗里达州及华盛顿州阳性率均在10%以下，提示疫情控较好。从表7全国累计死亡人数来看，各州死亡人数继续增高，病死率较昨日较为稳定。其中纽约州的累计死亡病例最多，病死率为2.6%，略高于全国平均病死率。华盛顿州、密歇根州及路易斯安娜州的病死率也均明显高于全国平均。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -222,17 +56,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
+      <sz val="13.95"/>
       <color rgb="FF000000"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
+      <name val="SimSun"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -315,8 +141,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1484,39 +1310,39 @@
   <dimension ref="A1:A10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.33203125" defaultRowHeight="19.899999999999999" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="147.86328125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="147.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.33203125" style="1" customWidth="1"/>
     <col min="3" max="16384" width="8.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:1" ht="20" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:1" ht="20" customHeight="1">
       <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="20" customHeight="1">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="1:1" ht="20" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="14.75" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="14.75" customHeight="1">

--- a/RMD/input/insight.xlsx
+++ b/RMD/input/insight.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lidazhang/Downloads/DailyReport-master/RMD/input/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A9E3C55-C974-9C4C-A513-223689AE0F78}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="20720" windowHeight="13280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="20715" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="工作表 1 - test" sheetId="1" r:id="rId1"/>
@@ -20,29 +14,46 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>content</t>
   </si>
   <si>
-    <t> 截止北京时间4月3日早5:00，全球累计确诊病例超过100万人(1,075,777)，累计死亡52,772例。由图1所示，确诊病例全球分布广泛，主要集中在美国、亚洲、欧洲以及中东地区，在南美、澳大利亚以及非洲部分地区也有散在分布。由表1所示，累计确诊人数前三位的国家仍然为美国，意大利和西班牙。德国首次超过中国成为第四位。粗发病率最高的国家是西班牙和瑞士，均在200/10万人以上。此外，澳大利亚、加拿大累计确诊数均已超过1万人。</t>
+    <t>section</t>
   </si>
   <si>
-    <t>    从表2和图2来看，美国新增病例数居全球首位，连续三天每日新增病例数稳定在约两万五千人。德国新增病例数近三日有小幅升高的趋势。法国新增病例数于3月31日达到近期峰值（7,657），近两日每日减少约2500人，疫情有趋稳的迹象。加拿大新增病例数进入前十位。此外，南美洲的巴西近三日新增病例数达到千人以上，南亚的印度新增病例数由3月31号之前的200人以下升高至500人以上。
-    从累计死亡病例数（表3和图3）来看，多数国家新增死亡病例数及病死率稳定。法国新增死亡病例数较昨日（+511人）升高幅度明显增加，病死率由7%升高到9%。美国和西班牙新增死亡数较昨日升高约300人，但病死率升高幅度不大（+0.3%）。</t>
+    <t>page2</t>
   </si>
   <si>
-    <t xml:space="preserve"> 截至北京时间4月3日早5:00， 美国累计确诊病例数已达到238,820例，共 5,758例死亡病例。从州疫情分布图（图4，图5）来看，确诊病例主要集中于沿海地区，对比前几日数据可见逐步向中部蔓延，有全国爆发趋势。
- 纽约州(NY)粗发病率达到475/10万人，累计确诊数占全美39%，较昨日有所降低（41%），日新增确诊数较昨日小幅提高，但占全美比例较昨日（44%）有所下降，提示其他州的疫情有进一步恶化的趋势。密歇根州、加利福尼亚州累计确诊人数均已超过1万人。路易斯安纳州（LA）新增确诊病例数进一步上升，由昨日的1187人升至2697人。密歇根州（MI）、宾夕法尼亚州（PA）以及佛罗里达州（FL）新增确诊病例数均超过一千人，提示疫情在美国迅速蔓延趋势。</t>
+    <t>page3</t>
   </si>
   <si>
-    <t xml:space="preserve"> 从表6来看，全美累计阳性率前四位阳性率均为接近40%及以上，提示有大量轻症及无症状感染者未被检出，感染人数远超报告数字，疫情严峻。全美共检测126.7万人，累计检测人数最多的三个州是纽约州（23.9万人）、佛罗里达州（7.7万人）及华盛顿州（7.5万人），其中佛罗里达州及华盛顿州阳性率均在10%以下，提示疫情控较好。从表7全国累计死亡人数来看，各州死亡人数继续增高，病死率较昨日较为稳定。其中纽约州的累计死亡病例最多，病死率为2.6%，略高于全国平均病死率。华盛顿州、密歇根州及路易斯安娜州的病死率也均明显高于全国平均。</t>
+    <t>page4</t>
+  </si>
+  <si>
+    <t>page5</t>
+  </si>
+  <si>
+    <t>  截止北京时间4月3日早5:00，全球累计确诊病例超过100万人(1,075,777)，累计死亡52,772例。由图1所示，确诊病例全球分布广泛，主要集中在美国、亚洲、欧洲以及中东地区，在南美、澳大利亚以及非洲部分地区也有散在分布。由表1所示，累计确诊人数前三位的国家仍然为美国，意大利和西班牙。德国首次超过中国成为第四位。粗发病率最高的国家是西班牙和瑞士，均在200/10万人以上。此外，澳大利亚、加拿大累计确诊数均已超过1万人。
+  XXXXXXX。</t>
+  </si>
+  <si>
+    <t>  从表2和图2来看，美国新增病例数居全球首位，连续三天每日新增病例数稳定在约两万五千人。德国新增病例数近三日有小幅升高的趋势。法国新增病例数于3月31日达到近期峰值（7,657），近两日每日减少约2500人，疫情有趋稳的迹象。加拿大新增病例数进入前十位。此外，南美洲的巴西近三日新增病例数达到千人以上，南亚的印度新增病例数由3月31号之前的200人以下升高至500人以上。
+  从累计死亡病例数（表3和图3）来看，多数国家新增死亡病例数及病死率稳定。法国新增死亡病例数较昨日（+511人）升高幅度明显增加，病死率由7%升高到9%。美国和西班牙新增死亡数较昨日升高约300人，但病死率升高幅度不大（+0.3%）。</t>
+  </si>
+  <si>
+    <t>  截至北京时间4月3日早5:00， 美国累计确诊病例数已达到238,820例，共 5,758例死亡病例。从州疫情分布图（图4，图5）来看，确诊病例主要集中于沿海地区，对比前几日数据可见逐步向中部蔓延，有全国爆发趋势。
+  纽约州(NY)粗发病率达到475/10万人，累计确诊数占全美39%，较昨日有所降低（41%），日新增确诊数较昨日小幅提高，但占全美比例较昨日（44%）有所下降，提示其他州的疫情有进一步恶化的趋势。密歇根州、加利福尼亚州累计确诊人数均已超过1万人。路易斯安纳州（LA）新增确诊病例数进一步上升，由昨日的1187人升至2697人。密歇根州（MI）、宾夕法尼亚州（PA）以及佛罗里达州（FL）新增确诊病例数均超过一千人，提示疫情在美国迅速蔓延趋势。</t>
+  </si>
+  <si>
+    <t>  从表6来看，全美累计阳性率前四位阳性率均为接近40%及以上，提示有大量轻症及无症状感染者未被检出，感染人数远超报告数字，疫情严峻。全美共检测126.7万人，累计检测人数最多的三个州是纽约州（23.9万人）、佛罗里达州（7.7万人）及华盛顿州（7.5万人），其中佛罗里达州及华盛顿州阳性率均在10%以下，提示疫情控较好。从表7全国累计死亡人数来看，各州死亡人数继续增高，病死率较昨日较为稳定。其中纽约州的累计死亡病例最多，病死率为2.6%，略高于全国平均病死率。华盛顿州、密歇根州及路易斯安娜州的病死率也均明显高于全国平均。
+  XXXXXXX.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3">
     <font>
       <sz val="10"/>
@@ -56,10 +67,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="13.95"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="SimSun"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -76,7 +86,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -86,36 +96,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="13"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -129,19 +119,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1303,62 +1293,78 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.28515625" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="147.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.33203125" style="1"/>
+    <col min="1" max="1" width="8.28515625" style="1"/>
+    <col min="2" max="2" width="147.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.28515625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="20" customHeight="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:2" ht="20.100000000000001" customHeight="1">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="20" customHeight="1">
-      <c r="A2" s="5" t="s">
-        <v>1</v>
+    <row r="2" spans="1:2" ht="99.95" customHeight="1">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="20" customHeight="1">
-      <c r="A3" s="5" t="s">
-        <v>2</v>
+    <row r="3" spans="1:2" ht="99.95" customHeight="1">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="20" customHeight="1">
-      <c r="A4" s="5" t="s">
-        <v>3</v>
+    <row r="4" spans="1:2" ht="99.95" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="14.75" customHeight="1">
-      <c r="A5" s="5" t="s">
-        <v>4</v>
+    <row r="5" spans="1:2" ht="99.95" customHeight="1">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="14.75" customHeight="1">
-      <c r="A6" s="3"/>
+    <row r="6" spans="1:2" ht="14.85" customHeight="1">
+      <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:1" ht="14.75" customHeight="1">
-      <c r="A7" s="3"/>
+    <row r="7" spans="1:2" ht="14.85" customHeight="1">
+      <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:1" ht="14.75" customHeight="1">
-      <c r="A8" s="3"/>
+    <row r="8" spans="1:2" ht="14.85" customHeight="1">
+      <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:1" ht="14.75" customHeight="1">
-      <c r="A9" s="3"/>
+    <row r="9" spans="1:2" ht="14.85" customHeight="1">
+      <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:1" ht="14.75" customHeight="1">
-      <c r="A10" s="4"/>
+    <row r="10" spans="1:2" ht="14.85" customHeight="1">
+      <c r="B10" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/RMD/input/insight.xlsx
+++ b/RMD/input/insight.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lidazhang/Documents/Git/DailyReport/RMD/新冠早报测试/input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phan5\OneDrive - Johns Hopkins\covid-19\github\DailyReport\RMD\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98BDF968-17EE-C946-AE2C-5ADFE41344CA}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表 1 - test" sheetId="1" r:id="rId1"/>
@@ -45,27 +44,26 @@
     <t>page5</t>
   </si>
   <si>
-    <t xml:space="preserve">   $\quad$截至北京时间4月8日早6:30，全球累计确诊病例已经达到1,414,738例，累计死亡81,259 例。在180多个出现确诊病例的国家或地区中，有17个国家累计确诊超万人。目前，主要病例集中在亚洲、欧洲及北美洲。发展中国家和地区的疫情发展也不可忽视：拉丁美洲国家的确诊病例数快速增长，非洲国家累计确诊病例已逾一万例。表1显示，法国确诊病例首次超过德国成为欧洲第三，中国确诊病例数已下降至第六位。</t>
+    <t>$\quad$美国新增病例数仍居全球首位，已连续十六天日新增病例数超过两万五千人。意大利日新增病例数已经连续三日下降，西班牙和德国的日新增病例较昨日翻倍。值得注意的是，俄罗斯、巴西和比利时的病例较前日增长很快，这三个国家的累计确诊人数已突破两万例。提示欧洲、北美和南美疫情发展迅速 (表2和图2）。 
+$\quad$美国的日新增死亡病例已经接近2,500（2,494例），从4月4日至今一直为前十位国家中首位，病死率已经上升到4.5%，疫情发展不容乐观。法国的日新增死亡病例数波动较大。今日较昨日翻倍，成为日新增死亡病例数仅次于美国的国家（1,440）例。法国病死率持续上升（12.5%），提示该国医疗系统正面临巨大压力。意大利和西班牙的日新增死亡病例数呈波动下降趋势。英国新增死亡病例数波动上升，还有待进一步观察 （表3和图3）。</t>
   </si>
   <si>
-    <t>$\quad$表2和图2显示，美国新增病例数仍居全球首位，已连续八天日新增病例数超过两万人。西班牙与意大利日新增病例数连续下降，意大利昨日新增病例首次跌出日新增国家前五。值得注意的是，法国的日新增病例较昨日翻倍，已突破一万例。同时，土耳其单日确诊病例连续五天增加，提示该地区疫情发展迅速。巴西日新增病例首次进入前十，表明疫情在南美洲有蔓延趋势。 
-$\quad$表3和图3显示，美国的日新增死亡病例再登新高（1,508例），从4月4日至今一直为前十位国家中首位，疫情发展不容乐观。法国的日新增死亡病例数迅速上升，昨日新增死亡病例数仅次于美国，高达1,417例，病死率持续上升，提示该国医疗系统正面临巨大压力。意大利和西班牙的日新增死亡病例数呈下降趋势。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$\quad$截至北京时间4月8日早6:30， 美国累计确诊病例数已达到387,547例，共 12,291 死亡病例。从州疫情分布图（图4，图5）来看，东西海岸，五大湖及南部地区疫情严重，中部地区疫情呈快速蔓延趋势。
-$\quad$从表4来看，纽约州(NY)、新泽西州(NJ)和密歇根州(MI)仍为美国疫情最严重的三个州。纽约州粗发病率持续位居全美第一位，高达714/10万人，检测率同为全美最高，达1,748/10万人，而阳性率为全国平均阳性率的2.15倍（41%），提示该州病人数量巨大，医疗资源持续面临巨大压力。
-$\quad$值得注意的是，佐治亚州(GA)累计确诊病例首次进入全美前十，取代华盛顿州(WA)。在累计检测人数较少的情况下，佐治亚州的阳性率为26%，超过美国平均阳性率(19%)，提示该州疫情不容乐观。
+    <t xml:space="preserve">$\quad$截至北京时间4月16日早7:00， 美国累计确诊病例数已达到636,350例，共28,326 死亡病例。从州疫情分布图（图4，图5）来看，美国各州疫情严重，前十州都超过一万五千人。中部地区疫情呈快速蔓延趋势。
+$\quad$纽约州(NY)、新泽西州(NJ)和马萨诸塞州(MA)为美国疫情最严重的三个州。纽约州和新泽西州检测的阳性率仍然居高不下（40%以上）提示两个州病人数量巨大，医疗资源持续面临巨大压力 （表4）。密歇根州（MI）的阳性率下降至31% （表4），提示该州的检测范围扩大，检测能力增强。
 </t>
   </si>
   <si>
-    <t>$\quad$从表5新增确诊人数来看，纽约州、新泽西州的新增确诊数仍高居前二，宾夕法尼亚州，佐治亚州，路易斯安那州、和佛罗里达州的日新增确诊病例数均超过1,000人。值得注意的是，佐治亚州的日新增确诊首次进入前五，超1,500例；印第安纳州和佛吉尼亚州日新增确诊也首次进入全美前十。鉴于这些州的人均检测率均低于全美平均值（印第安纳州：427/10万人；佛吉尼亚州：336/10万人），显示这些地区疫情存在恶化的风险。
-$\quad$从表6来看，美国累计死亡病例已突破一万二千例。纽约州的病死率已上升至4%，提示纽约州的医疗系统已严重超过负荷。同时，纽约州日新增确诊病例已连续4日下降（图5），可能与居家隔离措施与扩大检测规模有关。值得注意的是，佐治亚州的病死率上升迅速（从4月7日3.1%到4月8日3.7%），提示该地区医疗系统正面临巨大挑战。</t>
+    <t>$\quad$纽约州、新泽西州的新增确诊数仍高居前二，其中纽约州较前日增加大约5,000例（表5）。美国共有7个州当日新增病例超过1,000人, 除纽约州外，其余几个州的确诊病例人数近日都在波动 （图5）。
+$\quad$美国累计死亡病例已突破二万五千例（表6）。纽约州日新增死亡人数近日以来较为稳定，新泽西州，马萨诸塞州和康涅狄格州的日新增死亡人数上升趋势明显（图6）。其他州的日新增死亡人数近日都在波动上升，提示美国疫情仍在恶化。</t>
+  </si>
+  <si>
+    <t>$\quad$截至北京时间4月16日早7：00，全球累计确诊病例已经达到2,056,055例，累计死亡134,178 例。在180多个出现确诊病例的国家或地区中，已有23个国家累计确诊超万人。除欧洲和美国以外，拉美和亚州的发展中国家的病例快速增长：印度和秘鲁确诊人数已经超过万人。非洲国家累计确诊病例已逾一万六千例。英国确诊病例已经超过中国，成为世界第六位 （表1）。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3">
     <font>
       <sz val="10"/>
@@ -367,21 +365,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" customWidth="1"/>
-    <col min="2" max="2" width="147.83203125" customWidth="1"/>
-    <col min="3" max="26" width="8.33203125" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" customWidth="1"/>
+    <col min="2" max="2" width="147.85546875" customWidth="1"/>
+    <col min="3" max="26" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="19.5" customHeight="1">
@@ -421,7 +419,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -453,7 +451,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -485,7 +483,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -517,7 +515,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -28407,7 +28405,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0" footer="0"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C000000&amp;P</oddFooter>
   </headerFooter>

--- a/RMD/input/insight.xlsx
+++ b/RMD/input/insight.xlsx
@@ -1,23 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phan5\OneDrive - Johns Hopkins\covid-19\github\DailyReport\RMD\input\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16500"/>
-  </bookViews>
   <sheets>
-    <sheet name="工作表 1 - test" sheetId="1" r:id="rId1"/>
+    <sheet state="visible" name="工作表 1 - test" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7midIcyg9QjGOyu8nCuwNMXVbHqmTw=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mhG7279+7IMkhQxtSq6S8s0o2v4BA=="/>
     </ext>
   </extLst>
 </workbook>
@@ -35,53 +27,45 @@
     <t>page2</t>
   </si>
   <si>
+    <t>$\quad$截至北京时间4月29日早7：00，全球累计确诊病例已经达到3,111,730例，累计死亡216,857例。25个国家累计确诊病例超过15,000例。总体来看，欧洲与北美仍是累计确诊病例数最多的地区。英国的累计确诊数突破十六万，超过德国进入世界前五位。爱尔兰的累计确诊病例接近两万（19,877），粗发病率达403/10万人，已经超过意大利与瑞士，疫情正在迅速恶化。俄罗斯的累计确诊病例数超过伊朗，跃升至世界第八位。 中东地区除伊朗外，沙特阿拉伯累计确诊病例超过两万，以色列，巴基斯坦，卡塔尔与阿联酋的累计确诊均已超过一万例。东欧地区白俄罗斯病例增长迅速（累计确诊12,208例），较上周（4月22日）接近翻倍，粗发病率到达129/10万，超过湖北。中东及东欧各国变化表明，疫情在欧亚大陆自西向东多点扩散。（表1）</t>
+  </si>
+  <si>
     <t>page3</t>
+  </si>
+  <si>
+    <t>$\quad$从日新增病例数来看，美国与俄罗斯仍就占据世界前二，值得注意的是，俄罗斯的日新增病例呈明显上升趋势，该国疫情发展不容乐观。巴西日新增突破4000例，首次进入世界前三；秘鲁日新增接近2500例，两国日新增较上周均接近翻倍（4月22日：巴西2678例，秘鲁1413例），显示疫情在南美洲呈爆发性增长趋势。 白俄罗斯的单日新增919例，疫情在该国发展需要进一步关注。另一方面，西班牙与意大利的日新增病例持续下降，表明疫情逐步得到较好控制。(表2和图2）
+$\quad$从死亡病例数来看，美国仍是累计死亡病例最多的国家，虽日新增死亡呈现波动下降趋势。巴西累计死亡病例突破5000例，超过中国，日新增死亡也呈逐日上升态势。此外，意大利、西班牙、法国、德国等欧洲国家日新增死亡病例数呈现下降趋势，提示疫情在欧洲逐步缓解。 （表3和图3）</t>
   </si>
   <si>
     <t>page4</t>
   </si>
   <si>
+    <t xml:space="preserve">$\quad$截至北京时间4月29日早7:00， 美国累计确诊病例数超过101万例（1,011,600），共58,343 死亡病例。从分布来看，疫情主要集中在东西海岸和五大湖地区，全美19个州累计病例数超过一万人。除中部地区以外，东海岸地区疫情也在迅速扩散。罗得岛州累计确诊接近8000例，而粗发病率为全美第四（748/10万人）。（图4）
+$\quad$纽约州、新泽西州和马萨诸塞州为美国疫情最严重的三个州。纽约州检测率超过4300/10万人，而阳性率下降至35%，提示疫情逐步得到控制。此外，特拉华州，科罗拉多州与华盛顿特区阳性率均为22%左右，超过伊利诺伊州，而检测在2000/10万人左右，略低于新泽西州，显示这些州对于检测的需求仍然十分庞大。（表4）
+</t>
+  </si>
+  <si>
     <t>page5</t>
   </si>
   <si>
-    <t>$\quad$美国新增病例数仍居全球首位，已连续十六天日新增病例数超过两万五千人。意大利日新增病例数已经连续三日下降，西班牙和德国的日新增病例较昨日翻倍。值得注意的是，俄罗斯、巴西和比利时的病例较前日增长很快，这三个国家的累计确诊人数已突破两万例。提示欧洲、北美和南美疫情发展迅速 (表2和图2）。 
-$\quad$美国的日新增死亡病例已经接近2,500（2,494例），从4月4日至今一直为前十位国家中首位，病死率已经上升到4.5%，疫情发展不容乐观。法国的日新增死亡病例数波动较大。今日较昨日翻倍，成为日新增死亡病例数仅次于美国的国家（1,440）例。法国病死率持续上升（12.5%），提示该国医疗系统正面临巨大压力。意大利和西班牙的日新增死亡病例数呈波动下降趋势。英国新增死亡病例数波动上升，还有待进一步观察 （表3和图3）。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$\quad$截至北京时间4月16日早7:00， 美国累计确诊病例数已达到636,350例，共28,326 死亡病例。从州疫情分布图（图4，图5）来看，美国各州疫情严重，前十州都超过一万五千人。中部地区疫情呈快速蔓延趋势。
-$\quad$纽约州(NY)、新泽西州(NJ)和马萨诸塞州(MA)为美国疫情最严重的三个州。纽约州和新泽西州检测的阳性率仍然居高不下（40%以上）提示两个州病人数量巨大，医疗资源持续面临巨大压力 （表4）。密歇根州（MI）的阳性率下降至31% （表4），提示该州的检测范围扩大，检测能力增强。
-</t>
-  </si>
-  <si>
-    <t>$\quad$纽约州、新泽西州的新增确诊数仍高居前二，其中纽约州较前日增加大约5,000例（表5）。美国共有7个州当日新增病例超过1,000人, 除纽约州外，其余几个州的确诊病例人数近日都在波动 （图5）。
-$\quad$美国累计死亡病例已突破二万五千例（表6）。纽约州日新增死亡人数近日以来较为稳定，新泽西州，马萨诸塞州和康涅狄格州的日新增死亡人数上升趋势明显（图6）。其他州的日新增死亡人数近日都在波动上升，提示美国疫情仍在恶化。</t>
-  </si>
-  <si>
-    <t>$\quad$截至北京时间4月16日早7：00，全球累计确诊病例已经达到2,056,055例，累计死亡134,178 例。在180多个出现确诊病例的国家或地区中，已有23个国家累计确诊超万人。除欧洲和美国以外，拉美和亚州的发展中国家的病例快速增长：印度和秘鲁确诊人数已经超过万人。非洲国家累计确诊病例已逾一万六千例。英国确诊病例已经超过中国，成为世界第六位 （表1）。</t>
+    <t>$\quad$从日新增确诊来看，纽约州单日新增连续多日下降，较昨日再次下降800例左右，提示疫情好转。伊利诺伊州日新增病例逐步上升，需要进一步关注。（表5和图5）
+$\quad$从死亡病例数来看，密歇根州病死率超过9%，为全美最高。纽约州与马萨诸塞州日新增死亡呈明显波动下降趋势，提示医疗资源压力得到缓解。值得注意的是，罗得岛州病死率为3%，略低于佛罗里达州，但其累计病例只有佛罗里达州的1/4（佛罗里达州：32,848例）,提示该州存在医疗资源紧张的风险。（表6和图6）</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <fonts count="2">
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="SimSun"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -89,7 +73,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -99,13 +83,7 @@
     </fill>
   </fills>
   <borders count="3">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -119,57 +97,50 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf borderId="1" fillId="2" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf borderId="2" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -359,30 +330,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" customWidth="1"/>
-    <col min="2" max="2" width="147.85546875" customWidth="1"/>
-    <col min="3" max="26" width="8.28515625" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="8.29"/>
+    <col customWidth="1" min="2" max="2" width="147.86"/>
+    <col customWidth="1" min="3" max="26" width="8.29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="19.5" customHeight="1">
+    <row r="1" ht="19.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -414,12 +380,12 @@
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
     </row>
-    <row r="2" spans="1:26" ht="99.75" customHeight="1">
+    <row r="2" ht="99.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>9</v>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -446,12 +412,12 @@
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
     </row>
-    <row r="3" spans="1:26" ht="99.75" customHeight="1">
+    <row r="3" ht="99.75" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>6</v>
+      <c r="B3" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -478,11 +444,11 @@
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
     </row>
-    <row r="4" spans="1:26" ht="99.75" customHeight="1">
+    <row r="4" ht="99.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="3"/>
@@ -510,12 +476,12 @@
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
     </row>
-    <row r="5" spans="1:26" ht="99.75" customHeight="1">
+    <row r="5" ht="99.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>8</v>
+      <c r="B5" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -542,9 +508,9 @@
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
     </row>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1">
+    <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="3"/>
-      <c r="B6" s="4"/>
+      <c r="B6" s="5"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -570,9 +536,9 @@
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
     </row>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1">
+    <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
+      <c r="B7" s="5"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -598,9 +564,9 @@
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
     </row>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1">
+    <row r="8" ht="14.25" customHeight="1">
       <c r="A8" s="3"/>
-      <c r="B8" s="4"/>
+      <c r="B8" s="5"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -626,9 +592,9 @@
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
     </row>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1">
+    <row r="9" ht="14.25" customHeight="1">
       <c r="A9" s="3"/>
-      <c r="B9" s="4"/>
+      <c r="B9" s="5"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -654,9 +620,9 @@
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
     </row>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1">
+    <row r="10" ht="14.25" customHeight="1">
       <c r="A10" s="3"/>
-      <c r="B10" s="4"/>
+      <c r="B10" s="5"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -682,7 +648,7 @@
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
     </row>
-    <row r="11" spans="1:26" ht="19.5" customHeight="1">
+    <row r="11" ht="19.5" customHeight="1">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -710,7 +676,7 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
     </row>
-    <row r="12" spans="1:26" ht="19.5" customHeight="1">
+    <row r="12" ht="19.5" customHeight="1">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -738,7 +704,7 @@
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
     </row>
-    <row r="13" spans="1:26" ht="19.5" customHeight="1">
+    <row r="13" ht="19.5" customHeight="1">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -766,7 +732,7 @@
       <c r="Y13" s="3"/>
       <c r="Z13" s="3"/>
     </row>
-    <row r="14" spans="1:26" ht="19.5" customHeight="1">
+    <row r="14" ht="19.5" customHeight="1">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -794,7 +760,7 @@
       <c r="Y14" s="3"/>
       <c r="Z14" s="3"/>
     </row>
-    <row r="15" spans="1:26" ht="19.5" customHeight="1">
+    <row r="15" ht="19.5" customHeight="1">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -822,7 +788,7 @@
       <c r="Y15" s="3"/>
       <c r="Z15" s="3"/>
     </row>
-    <row r="16" spans="1:26" ht="19.5" customHeight="1">
+    <row r="16" ht="19.5" customHeight="1">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -850,7 +816,7 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
     </row>
-    <row r="17" spans="1:26" ht="19.5" customHeight="1">
+    <row r="17" ht="19.5" customHeight="1">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -878,7 +844,7 @@
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
     </row>
-    <row r="18" spans="1:26" ht="19.5" customHeight="1">
+    <row r="18" ht="19.5" customHeight="1">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -906,7 +872,7 @@
       <c r="Y18" s="3"/>
       <c r="Z18" s="3"/>
     </row>
-    <row r="19" spans="1:26" ht="19.5" customHeight="1">
+    <row r="19" ht="19.5" customHeight="1">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -934,7 +900,7 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
     </row>
-    <row r="20" spans="1:26" ht="19.5" customHeight="1">
+    <row r="20" ht="19.5" customHeight="1">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -962,7 +928,7 @@
       <c r="Y20" s="3"/>
       <c r="Z20" s="3"/>
     </row>
-    <row r="21" spans="1:26" ht="19.5" customHeight="1">
+    <row r="21" ht="19.5" customHeight="1">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -990,7 +956,7 @@
       <c r="Y21" s="3"/>
       <c r="Z21" s="3"/>
     </row>
-    <row r="22" spans="1:26" ht="19.5" customHeight="1">
+    <row r="22" ht="19.5" customHeight="1">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1018,7 +984,7 @@
       <c r="Y22" s="3"/>
       <c r="Z22" s="3"/>
     </row>
-    <row r="23" spans="1:26" ht="19.5" customHeight="1">
+    <row r="23" ht="19.5" customHeight="1">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1046,7 +1012,7 @@
       <c r="Y23" s="3"/>
       <c r="Z23" s="3"/>
     </row>
-    <row r="24" spans="1:26" ht="19.5" customHeight="1">
+    <row r="24" ht="19.5" customHeight="1">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1074,7 +1040,7 @@
       <c r="Y24" s="3"/>
       <c r="Z24" s="3"/>
     </row>
-    <row r="25" spans="1:26" ht="19.5" customHeight="1">
+    <row r="25" ht="19.5" customHeight="1">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1102,7 +1068,7 @@
       <c r="Y25" s="3"/>
       <c r="Z25" s="3"/>
     </row>
-    <row r="26" spans="1:26" ht="19.5" customHeight="1">
+    <row r="26" ht="19.5" customHeight="1">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1130,7 +1096,7 @@
       <c r="Y26" s="3"/>
       <c r="Z26" s="3"/>
     </row>
-    <row r="27" spans="1:26" ht="19.5" customHeight="1">
+    <row r="27" ht="19.5" customHeight="1">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1158,7 +1124,7 @@
       <c r="Y27" s="3"/>
       <c r="Z27" s="3"/>
     </row>
-    <row r="28" spans="1:26" ht="19.5" customHeight="1">
+    <row r="28" ht="19.5" customHeight="1">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1186,7 +1152,7 @@
       <c r="Y28" s="3"/>
       <c r="Z28" s="3"/>
     </row>
-    <row r="29" spans="1:26" ht="19.5" customHeight="1">
+    <row r="29" ht="19.5" customHeight="1">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1214,7 +1180,7 @@
       <c r="Y29" s="3"/>
       <c r="Z29" s="3"/>
     </row>
-    <row r="30" spans="1:26" ht="19.5" customHeight="1">
+    <row r="30" ht="19.5" customHeight="1">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1242,7 +1208,7 @@
       <c r="Y30" s="3"/>
       <c r="Z30" s="3"/>
     </row>
-    <row r="31" spans="1:26" ht="19.5" customHeight="1">
+    <row r="31" ht="19.5" customHeight="1">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1270,7 +1236,7 @@
       <c r="Y31" s="3"/>
       <c r="Z31" s="3"/>
     </row>
-    <row r="32" spans="1:26" ht="19.5" customHeight="1">
+    <row r="32" ht="19.5" customHeight="1">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -1298,7 +1264,7 @@
       <c r="Y32" s="3"/>
       <c r="Z32" s="3"/>
     </row>
-    <row r="33" spans="1:26" ht="19.5" customHeight="1">
+    <row r="33" ht="19.5" customHeight="1">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -1326,7 +1292,7 @@
       <c r="Y33" s="3"/>
       <c r="Z33" s="3"/>
     </row>
-    <row r="34" spans="1:26" ht="19.5" customHeight="1">
+    <row r="34" ht="19.5" customHeight="1">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -1354,7 +1320,7 @@
       <c r="Y34" s="3"/>
       <c r="Z34" s="3"/>
     </row>
-    <row r="35" spans="1:26" ht="19.5" customHeight="1">
+    <row r="35" ht="19.5" customHeight="1">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -1382,7 +1348,7 @@
       <c r="Y35" s="3"/>
       <c r="Z35" s="3"/>
     </row>
-    <row r="36" spans="1:26" ht="19.5" customHeight="1">
+    <row r="36" ht="19.5" customHeight="1">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -1410,7 +1376,7 @@
       <c r="Y36" s="3"/>
       <c r="Z36" s="3"/>
     </row>
-    <row r="37" spans="1:26" ht="19.5" customHeight="1">
+    <row r="37" ht="19.5" customHeight="1">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -1438,7 +1404,7 @@
       <c r="Y37" s="3"/>
       <c r="Z37" s="3"/>
     </row>
-    <row r="38" spans="1:26" ht="19.5" customHeight="1">
+    <row r="38" ht="19.5" customHeight="1">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -1466,7 +1432,7 @@
       <c r="Y38" s="3"/>
       <c r="Z38" s="3"/>
     </row>
-    <row r="39" spans="1:26" ht="19.5" customHeight="1">
+    <row r="39" ht="19.5" customHeight="1">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -1494,7 +1460,7 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
     </row>
-    <row r="40" spans="1:26" ht="19.5" customHeight="1">
+    <row r="40" ht="19.5" customHeight="1">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -1522,7 +1488,7 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
     </row>
-    <row r="41" spans="1:26" ht="19.5" customHeight="1">
+    <row r="41" ht="19.5" customHeight="1">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -1550,7 +1516,7 @@
       <c r="Y41" s="3"/>
       <c r="Z41" s="3"/>
     </row>
-    <row r="42" spans="1:26" ht="19.5" customHeight="1">
+    <row r="42" ht="19.5" customHeight="1">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -1578,7 +1544,7 @@
       <c r="Y42" s="3"/>
       <c r="Z42" s="3"/>
     </row>
-    <row r="43" spans="1:26" ht="19.5" customHeight="1">
+    <row r="43" ht="19.5" customHeight="1">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -1606,7 +1572,7 @@
       <c r="Y43" s="3"/>
       <c r="Z43" s="3"/>
     </row>
-    <row r="44" spans="1:26" ht="19.5" customHeight="1">
+    <row r="44" ht="19.5" customHeight="1">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -1634,7 +1600,7 @@
       <c r="Y44" s="3"/>
       <c r="Z44" s="3"/>
     </row>
-    <row r="45" spans="1:26" ht="19.5" customHeight="1">
+    <row r="45" ht="19.5" customHeight="1">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -1662,7 +1628,7 @@
       <c r="Y45" s="3"/>
       <c r="Z45" s="3"/>
     </row>
-    <row r="46" spans="1:26" ht="19.5" customHeight="1">
+    <row r="46" ht="19.5" customHeight="1">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -1690,7 +1656,7 @@
       <c r="Y46" s="3"/>
       <c r="Z46" s="3"/>
     </row>
-    <row r="47" spans="1:26" ht="19.5" customHeight="1">
+    <row r="47" ht="19.5" customHeight="1">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -1718,7 +1684,7 @@
       <c r="Y47" s="3"/>
       <c r="Z47" s="3"/>
     </row>
-    <row r="48" spans="1:26" ht="19.5" customHeight="1">
+    <row r="48" ht="19.5" customHeight="1">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -1746,7 +1712,7 @@
       <c r="Y48" s="3"/>
       <c r="Z48" s="3"/>
     </row>
-    <row r="49" spans="1:26" ht="19.5" customHeight="1">
+    <row r="49" ht="19.5" customHeight="1">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -1774,7 +1740,7 @@
       <c r="Y49" s="3"/>
       <c r="Z49" s="3"/>
     </row>
-    <row r="50" spans="1:26" ht="19.5" customHeight="1">
+    <row r="50" ht="19.5" customHeight="1">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -1802,7 +1768,7 @@
       <c r="Y50" s="3"/>
       <c r="Z50" s="3"/>
     </row>
-    <row r="51" spans="1:26" ht="19.5" customHeight="1">
+    <row r="51" ht="19.5" customHeight="1">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -1830,7 +1796,7 @@
       <c r="Y51" s="3"/>
       <c r="Z51" s="3"/>
     </row>
-    <row r="52" spans="1:26" ht="19.5" customHeight="1">
+    <row r="52" ht="19.5" customHeight="1">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -1858,7 +1824,7 @@
       <c r="Y52" s="3"/>
       <c r="Z52" s="3"/>
     </row>
-    <row r="53" spans="1:26" ht="19.5" customHeight="1">
+    <row r="53" ht="19.5" customHeight="1">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -1886,7 +1852,7 @@
       <c r="Y53" s="3"/>
       <c r="Z53" s="3"/>
     </row>
-    <row r="54" spans="1:26" ht="19.5" customHeight="1">
+    <row r="54" ht="19.5" customHeight="1">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -1914,7 +1880,7 @@
       <c r="Y54" s="3"/>
       <c r="Z54" s="3"/>
     </row>
-    <row r="55" spans="1:26" ht="19.5" customHeight="1">
+    <row r="55" ht="19.5" customHeight="1">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -1942,7 +1908,7 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
     </row>
-    <row r="56" spans="1:26" ht="19.5" customHeight="1">
+    <row r="56" ht="19.5" customHeight="1">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -1970,7 +1936,7 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
     </row>
-    <row r="57" spans="1:26" ht="19.5" customHeight="1">
+    <row r="57" ht="19.5" customHeight="1">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -1998,7 +1964,7 @@
       <c r="Y57" s="3"/>
       <c r="Z57" s="3"/>
     </row>
-    <row r="58" spans="1:26" ht="19.5" customHeight="1">
+    <row r="58" ht="19.5" customHeight="1">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -2026,7 +1992,7 @@
       <c r="Y58" s="3"/>
       <c r="Z58" s="3"/>
     </row>
-    <row r="59" spans="1:26" ht="19.5" customHeight="1">
+    <row r="59" ht="19.5" customHeight="1">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -2054,7 +2020,7 @@
       <c r="Y59" s="3"/>
       <c r="Z59" s="3"/>
     </row>
-    <row r="60" spans="1:26" ht="19.5" customHeight="1">
+    <row r="60" ht="19.5" customHeight="1">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -2082,7 +2048,7 @@
       <c r="Y60" s="3"/>
       <c r="Z60" s="3"/>
     </row>
-    <row r="61" spans="1:26" ht="19.5" customHeight="1">
+    <row r="61" ht="19.5" customHeight="1">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -2110,7 +2076,7 @@
       <c r="Y61" s="3"/>
       <c r="Z61" s="3"/>
     </row>
-    <row r="62" spans="1:26" ht="19.5" customHeight="1">
+    <row r="62" ht="19.5" customHeight="1">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -2138,7 +2104,7 @@
       <c r="Y62" s="3"/>
       <c r="Z62" s="3"/>
     </row>
-    <row r="63" spans="1:26" ht="19.5" customHeight="1">
+    <row r="63" ht="19.5" customHeight="1">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -2166,7 +2132,7 @@
       <c r="Y63" s="3"/>
       <c r="Z63" s="3"/>
     </row>
-    <row r="64" spans="1:26" ht="19.5" customHeight="1">
+    <row r="64" ht="19.5" customHeight="1">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -2194,7 +2160,7 @@
       <c r="Y64" s="3"/>
       <c r="Z64" s="3"/>
     </row>
-    <row r="65" spans="1:26" ht="19.5" customHeight="1">
+    <row r="65" ht="19.5" customHeight="1">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -2222,7 +2188,7 @@
       <c r="Y65" s="3"/>
       <c r="Z65" s="3"/>
     </row>
-    <row r="66" spans="1:26" ht="19.5" customHeight="1">
+    <row r="66" ht="19.5" customHeight="1">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -2250,7 +2216,7 @@
       <c r="Y66" s="3"/>
       <c r="Z66" s="3"/>
     </row>
-    <row r="67" spans="1:26" ht="19.5" customHeight="1">
+    <row r="67" ht="19.5" customHeight="1">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -2278,7 +2244,7 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
     </row>
-    <row r="68" spans="1:26" ht="19.5" customHeight="1">
+    <row r="68" ht="19.5" customHeight="1">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -2306,7 +2272,7 @@
       <c r="Y68" s="3"/>
       <c r="Z68" s="3"/>
     </row>
-    <row r="69" spans="1:26" ht="19.5" customHeight="1">
+    <row r="69" ht="19.5" customHeight="1">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -2334,7 +2300,7 @@
       <c r="Y69" s="3"/>
       <c r="Z69" s="3"/>
     </row>
-    <row r="70" spans="1:26" ht="19.5" customHeight="1">
+    <row r="70" ht="19.5" customHeight="1">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -2362,7 +2328,7 @@
       <c r="Y70" s="3"/>
       <c r="Z70" s="3"/>
     </row>
-    <row r="71" spans="1:26" ht="19.5" customHeight="1">
+    <row r="71" ht="19.5" customHeight="1">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -2390,7 +2356,7 @@
       <c r="Y71" s="3"/>
       <c r="Z71" s="3"/>
     </row>
-    <row r="72" spans="1:26" ht="19.5" customHeight="1">
+    <row r="72" ht="19.5" customHeight="1">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -2418,7 +2384,7 @@
       <c r="Y72" s="3"/>
       <c r="Z72" s="3"/>
     </row>
-    <row r="73" spans="1:26" ht="19.5" customHeight="1">
+    <row r="73" ht="19.5" customHeight="1">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -2446,7 +2412,7 @@
       <c r="Y73" s="3"/>
       <c r="Z73" s="3"/>
     </row>
-    <row r="74" spans="1:26" ht="19.5" customHeight="1">
+    <row r="74" ht="19.5" customHeight="1">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -2474,7 +2440,7 @@
       <c r="Y74" s="3"/>
       <c r="Z74" s="3"/>
     </row>
-    <row r="75" spans="1:26" ht="19.5" customHeight="1">
+    <row r="75" ht="19.5" customHeight="1">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -2502,7 +2468,7 @@
       <c r="Y75" s="3"/>
       <c r="Z75" s="3"/>
     </row>
-    <row r="76" spans="1:26" ht="19.5" customHeight="1">
+    <row r="76" ht="19.5" customHeight="1">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -2530,7 +2496,7 @@
       <c r="Y76" s="3"/>
       <c r="Z76" s="3"/>
     </row>
-    <row r="77" spans="1:26" ht="19.5" customHeight="1">
+    <row r="77" ht="19.5" customHeight="1">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -2558,7 +2524,7 @@
       <c r="Y77" s="3"/>
       <c r="Z77" s="3"/>
     </row>
-    <row r="78" spans="1:26" ht="19.5" customHeight="1">
+    <row r="78" ht="19.5" customHeight="1">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -2586,7 +2552,7 @@
       <c r="Y78" s="3"/>
       <c r="Z78" s="3"/>
     </row>
-    <row r="79" spans="1:26" ht="19.5" customHeight="1">
+    <row r="79" ht="19.5" customHeight="1">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -2614,7 +2580,7 @@
       <c r="Y79" s="3"/>
       <c r="Z79" s="3"/>
     </row>
-    <row r="80" spans="1:26" ht="19.5" customHeight="1">
+    <row r="80" ht="19.5" customHeight="1">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -2642,7 +2608,7 @@
       <c r="Y80" s="3"/>
       <c r="Z80" s="3"/>
     </row>
-    <row r="81" spans="1:26" ht="19.5" customHeight="1">
+    <row r="81" ht="19.5" customHeight="1">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -2670,7 +2636,7 @@
       <c r="Y81" s="3"/>
       <c r="Z81" s="3"/>
     </row>
-    <row r="82" spans="1:26" ht="19.5" customHeight="1">
+    <row r="82" ht="19.5" customHeight="1">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -2698,7 +2664,7 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
     </row>
-    <row r="83" spans="1:26" ht="19.5" customHeight="1">
+    <row r="83" ht="19.5" customHeight="1">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -2726,7 +2692,7 @@
       <c r="Y83" s="3"/>
       <c r="Z83" s="3"/>
     </row>
-    <row r="84" spans="1:26" ht="19.5" customHeight="1">
+    <row r="84" ht="19.5" customHeight="1">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -2754,7 +2720,7 @@
       <c r="Y84" s="3"/>
       <c r="Z84" s="3"/>
     </row>
-    <row r="85" spans="1:26" ht="19.5" customHeight="1">
+    <row r="85" ht="19.5" customHeight="1">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -2782,7 +2748,7 @@
       <c r="Y85" s="3"/>
       <c r="Z85" s="3"/>
     </row>
-    <row r="86" spans="1:26" ht="19.5" customHeight="1">
+    <row r="86" ht="19.5" customHeight="1">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -2810,7 +2776,7 @@
       <c r="Y86" s="3"/>
       <c r="Z86" s="3"/>
     </row>
-    <row r="87" spans="1:26" ht="19.5" customHeight="1">
+    <row r="87" ht="19.5" customHeight="1">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -2838,7 +2804,7 @@
       <c r="Y87" s="3"/>
       <c r="Z87" s="3"/>
     </row>
-    <row r="88" spans="1:26" ht="19.5" customHeight="1">
+    <row r="88" ht="19.5" customHeight="1">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -2866,7 +2832,7 @@
       <c r="Y88" s="3"/>
       <c r="Z88" s="3"/>
     </row>
-    <row r="89" spans="1:26" ht="19.5" customHeight="1">
+    <row r="89" ht="19.5" customHeight="1">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -2894,7 +2860,7 @@
       <c r="Y89" s="3"/>
       <c r="Z89" s="3"/>
     </row>
-    <row r="90" spans="1:26" ht="19.5" customHeight="1">
+    <row r="90" ht="19.5" customHeight="1">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -2922,7 +2888,7 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
     </row>
-    <row r="91" spans="1:26" ht="19.5" customHeight="1">
+    <row r="91" ht="19.5" customHeight="1">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -2950,7 +2916,7 @@
       <c r="Y91" s="3"/>
       <c r="Z91" s="3"/>
     </row>
-    <row r="92" spans="1:26" ht="19.5" customHeight="1">
+    <row r="92" ht="19.5" customHeight="1">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -2978,7 +2944,7 @@
       <c r="Y92" s="3"/>
       <c r="Z92" s="3"/>
     </row>
-    <row r="93" spans="1:26" ht="19.5" customHeight="1">
+    <row r="93" ht="19.5" customHeight="1">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -3006,7 +2972,7 @@
       <c r="Y93" s="3"/>
       <c r="Z93" s="3"/>
     </row>
-    <row r="94" spans="1:26" ht="19.5" customHeight="1">
+    <row r="94" ht="19.5" customHeight="1">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -3034,7 +3000,7 @@
       <c r="Y94" s="3"/>
       <c r="Z94" s="3"/>
     </row>
-    <row r="95" spans="1:26" ht="19.5" customHeight="1">
+    <row r="95" ht="19.5" customHeight="1">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -3062,7 +3028,7 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
     </row>
-    <row r="96" spans="1:26" ht="19.5" customHeight="1">
+    <row r="96" ht="19.5" customHeight="1">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -3090,7 +3056,7 @@
       <c r="Y96" s="3"/>
       <c r="Z96" s="3"/>
     </row>
-    <row r="97" spans="1:26" ht="19.5" customHeight="1">
+    <row r="97" ht="19.5" customHeight="1">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -3118,7 +3084,7 @@
       <c r="Y97" s="3"/>
       <c r="Z97" s="3"/>
     </row>
-    <row r="98" spans="1:26" ht="19.5" customHeight="1">
+    <row r="98" ht="19.5" customHeight="1">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -3146,7 +3112,7 @@
       <c r="Y98" s="3"/>
       <c r="Z98" s="3"/>
     </row>
-    <row r="99" spans="1:26" ht="19.5" customHeight="1">
+    <row r="99" ht="19.5" customHeight="1">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -3174,7 +3140,7 @@
       <c r="Y99" s="3"/>
       <c r="Z99" s="3"/>
     </row>
-    <row r="100" spans="1:26" ht="19.5" customHeight="1">
+    <row r="100" ht="19.5" customHeight="1">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -3202,7 +3168,7 @@
       <c r="Y100" s="3"/>
       <c r="Z100" s="3"/>
     </row>
-    <row r="101" spans="1:26" ht="19.5" customHeight="1">
+    <row r="101" ht="19.5" customHeight="1">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -3230,7 +3196,7 @@
       <c r="Y101" s="3"/>
       <c r="Z101" s="3"/>
     </row>
-    <row r="102" spans="1:26" ht="19.5" customHeight="1">
+    <row r="102" ht="19.5" customHeight="1">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -3258,7 +3224,7 @@
       <c r="Y102" s="3"/>
       <c r="Z102" s="3"/>
     </row>
-    <row r="103" spans="1:26" ht="19.5" customHeight="1">
+    <row r="103" ht="19.5" customHeight="1">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -3286,7 +3252,7 @@
       <c r="Y103" s="3"/>
       <c r="Z103" s="3"/>
     </row>
-    <row r="104" spans="1:26" ht="19.5" customHeight="1">
+    <row r="104" ht="19.5" customHeight="1">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -3314,7 +3280,7 @@
       <c r="Y104" s="3"/>
       <c r="Z104" s="3"/>
     </row>
-    <row r="105" spans="1:26" ht="19.5" customHeight="1">
+    <row r="105" ht="19.5" customHeight="1">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -3342,7 +3308,7 @@
       <c r="Y105" s="3"/>
       <c r="Z105" s="3"/>
     </row>
-    <row r="106" spans="1:26" ht="19.5" customHeight="1">
+    <row r="106" ht="19.5" customHeight="1">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -3370,7 +3336,7 @@
       <c r="Y106" s="3"/>
       <c r="Z106" s="3"/>
     </row>
-    <row r="107" spans="1:26" ht="19.5" customHeight="1">
+    <row r="107" ht="19.5" customHeight="1">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -3398,7 +3364,7 @@
       <c r="Y107" s="3"/>
       <c r="Z107" s="3"/>
     </row>
-    <row r="108" spans="1:26" ht="19.5" customHeight="1">
+    <row r="108" ht="19.5" customHeight="1">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -3426,7 +3392,7 @@
       <c r="Y108" s="3"/>
       <c r="Z108" s="3"/>
     </row>
-    <row r="109" spans="1:26" ht="19.5" customHeight="1">
+    <row r="109" ht="19.5" customHeight="1">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -3454,7 +3420,7 @@
       <c r="Y109" s="3"/>
       <c r="Z109" s="3"/>
     </row>
-    <row r="110" spans="1:26" ht="19.5" customHeight="1">
+    <row r="110" ht="19.5" customHeight="1">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -3482,7 +3448,7 @@
       <c r="Y110" s="3"/>
       <c r="Z110" s="3"/>
     </row>
-    <row r="111" spans="1:26" ht="19.5" customHeight="1">
+    <row r="111" ht="19.5" customHeight="1">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -3510,7 +3476,7 @@
       <c r="Y111" s="3"/>
       <c r="Z111" s="3"/>
     </row>
-    <row r="112" spans="1:26" ht="19.5" customHeight="1">
+    <row r="112" ht="19.5" customHeight="1">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -3538,7 +3504,7 @@
       <c r="Y112" s="3"/>
       <c r="Z112" s="3"/>
     </row>
-    <row r="113" spans="1:26" ht="19.5" customHeight="1">
+    <row r="113" ht="19.5" customHeight="1">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -3566,7 +3532,7 @@
       <c r="Y113" s="3"/>
       <c r="Z113" s="3"/>
     </row>
-    <row r="114" spans="1:26" ht="19.5" customHeight="1">
+    <row r="114" ht="19.5" customHeight="1">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -3594,7 +3560,7 @@
       <c r="Y114" s="3"/>
       <c r="Z114" s="3"/>
     </row>
-    <row r="115" spans="1:26" ht="19.5" customHeight="1">
+    <row r="115" ht="19.5" customHeight="1">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -3622,7 +3588,7 @@
       <c r="Y115" s="3"/>
       <c r="Z115" s="3"/>
     </row>
-    <row r="116" spans="1:26" ht="19.5" customHeight="1">
+    <row r="116" ht="19.5" customHeight="1">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -3650,7 +3616,7 @@
       <c r="Y116" s="3"/>
       <c r="Z116" s="3"/>
     </row>
-    <row r="117" spans="1:26" ht="19.5" customHeight="1">
+    <row r="117" ht="19.5" customHeight="1">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -3678,7 +3644,7 @@
       <c r="Y117" s="3"/>
       <c r="Z117" s="3"/>
     </row>
-    <row r="118" spans="1:26" ht="19.5" customHeight="1">
+    <row r="118" ht="19.5" customHeight="1">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -3706,7 +3672,7 @@
       <c r="Y118" s="3"/>
       <c r="Z118" s="3"/>
     </row>
-    <row r="119" spans="1:26" ht="19.5" customHeight="1">
+    <row r="119" ht="19.5" customHeight="1">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -3734,7 +3700,7 @@
       <c r="Y119" s="3"/>
       <c r="Z119" s="3"/>
     </row>
-    <row r="120" spans="1:26" ht="19.5" customHeight="1">
+    <row r="120" ht="19.5" customHeight="1">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -3762,7 +3728,7 @@
       <c r="Y120" s="3"/>
       <c r="Z120" s="3"/>
     </row>
-    <row r="121" spans="1:26" ht="19.5" customHeight="1">
+    <row r="121" ht="19.5" customHeight="1">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -3790,7 +3756,7 @@
       <c r="Y121" s="3"/>
       <c r="Z121" s="3"/>
     </row>
-    <row r="122" spans="1:26" ht="19.5" customHeight="1">
+    <row r="122" ht="19.5" customHeight="1">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -3818,7 +3784,7 @@
       <c r="Y122" s="3"/>
       <c r="Z122" s="3"/>
     </row>
-    <row r="123" spans="1:26" ht="19.5" customHeight="1">
+    <row r="123" ht="19.5" customHeight="1">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -3846,7 +3812,7 @@
       <c r="Y123" s="3"/>
       <c r="Z123" s="3"/>
     </row>
-    <row r="124" spans="1:26" ht="19.5" customHeight="1">
+    <row r="124" ht="19.5" customHeight="1">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -3874,7 +3840,7 @@
       <c r="Y124" s="3"/>
       <c r="Z124" s="3"/>
     </row>
-    <row r="125" spans="1:26" ht="19.5" customHeight="1">
+    <row r="125" ht="19.5" customHeight="1">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -3902,7 +3868,7 @@
       <c r="Y125" s="3"/>
       <c r="Z125" s="3"/>
     </row>
-    <row r="126" spans="1:26" ht="19.5" customHeight="1">
+    <row r="126" ht="19.5" customHeight="1">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -3930,7 +3896,7 @@
       <c r="Y126" s="3"/>
       <c r="Z126" s="3"/>
     </row>
-    <row r="127" spans="1:26" ht="19.5" customHeight="1">
+    <row r="127" ht="19.5" customHeight="1">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -3958,7 +3924,7 @@
       <c r="Y127" s="3"/>
       <c r="Z127" s="3"/>
     </row>
-    <row r="128" spans="1:26" ht="19.5" customHeight="1">
+    <row r="128" ht="19.5" customHeight="1">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -3986,7 +3952,7 @@
       <c r="Y128" s="3"/>
       <c r="Z128" s="3"/>
     </row>
-    <row r="129" spans="1:26" ht="19.5" customHeight="1">
+    <row r="129" ht="19.5" customHeight="1">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -4014,7 +3980,7 @@
       <c r="Y129" s="3"/>
       <c r="Z129" s="3"/>
     </row>
-    <row r="130" spans="1:26" ht="19.5" customHeight="1">
+    <row r="130" ht="19.5" customHeight="1">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -4042,7 +4008,7 @@
       <c r="Y130" s="3"/>
       <c r="Z130" s="3"/>
     </row>
-    <row r="131" spans="1:26" ht="19.5" customHeight="1">
+    <row r="131" ht="19.5" customHeight="1">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -4070,7 +4036,7 @@
       <c r="Y131" s="3"/>
       <c r="Z131" s="3"/>
     </row>
-    <row r="132" spans="1:26" ht="19.5" customHeight="1">
+    <row r="132" ht="19.5" customHeight="1">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -4098,7 +4064,7 @@
       <c r="Y132" s="3"/>
       <c r="Z132" s="3"/>
     </row>
-    <row r="133" spans="1:26" ht="19.5" customHeight="1">
+    <row r="133" ht="19.5" customHeight="1">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -4126,7 +4092,7 @@
       <c r="Y133" s="3"/>
       <c r="Z133" s="3"/>
     </row>
-    <row r="134" spans="1:26" ht="19.5" customHeight="1">
+    <row r="134" ht="19.5" customHeight="1">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
@@ -4154,7 +4120,7 @@
       <c r="Y134" s="3"/>
       <c r="Z134" s="3"/>
     </row>
-    <row r="135" spans="1:26" ht="19.5" customHeight="1">
+    <row r="135" ht="19.5" customHeight="1">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -4182,7 +4148,7 @@
       <c r="Y135" s="3"/>
       <c r="Z135" s="3"/>
     </row>
-    <row r="136" spans="1:26" ht="19.5" customHeight="1">
+    <row r="136" ht="19.5" customHeight="1">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -4210,7 +4176,7 @@
       <c r="Y136" s="3"/>
       <c r="Z136" s="3"/>
     </row>
-    <row r="137" spans="1:26" ht="19.5" customHeight="1">
+    <row r="137" ht="19.5" customHeight="1">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
@@ -4238,7 +4204,7 @@
       <c r="Y137" s="3"/>
       <c r="Z137" s="3"/>
     </row>
-    <row r="138" spans="1:26" ht="19.5" customHeight="1">
+    <row r="138" ht="19.5" customHeight="1">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
@@ -4266,7 +4232,7 @@
       <c r="Y138" s="3"/>
       <c r="Z138" s="3"/>
     </row>
-    <row r="139" spans="1:26" ht="19.5" customHeight="1">
+    <row r="139" ht="19.5" customHeight="1">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
@@ -4294,7 +4260,7 @@
       <c r="Y139" s="3"/>
       <c r="Z139" s="3"/>
     </row>
-    <row r="140" spans="1:26" ht="19.5" customHeight="1">
+    <row r="140" ht="19.5" customHeight="1">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -4322,7 +4288,7 @@
       <c r="Y140" s="3"/>
       <c r="Z140" s="3"/>
     </row>
-    <row r="141" spans="1:26" ht="19.5" customHeight="1">
+    <row r="141" ht="19.5" customHeight="1">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
@@ -4350,7 +4316,7 @@
       <c r="Y141" s="3"/>
       <c r="Z141" s="3"/>
     </row>
-    <row r="142" spans="1:26" ht="19.5" customHeight="1">
+    <row r="142" ht="19.5" customHeight="1">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -4378,7 +4344,7 @@
       <c r="Y142" s="3"/>
       <c r="Z142" s="3"/>
     </row>
-    <row r="143" spans="1:26" ht="19.5" customHeight="1">
+    <row r="143" ht="19.5" customHeight="1">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
@@ -4406,7 +4372,7 @@
       <c r="Y143" s="3"/>
       <c r="Z143" s="3"/>
     </row>
-    <row r="144" spans="1:26" ht="19.5" customHeight="1">
+    <row r="144" ht="19.5" customHeight="1">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
@@ -4434,7 +4400,7 @@
       <c r="Y144" s="3"/>
       <c r="Z144" s="3"/>
     </row>
-    <row r="145" spans="1:26" ht="19.5" customHeight="1">
+    <row r="145" ht="19.5" customHeight="1">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
@@ -4462,7 +4428,7 @@
       <c r="Y145" s="3"/>
       <c r="Z145" s="3"/>
     </row>
-    <row r="146" spans="1:26" ht="19.5" customHeight="1">
+    <row r="146" ht="19.5" customHeight="1">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
@@ -4490,7 +4456,7 @@
       <c r="Y146" s="3"/>
       <c r="Z146" s="3"/>
     </row>
-    <row r="147" spans="1:26" ht="19.5" customHeight="1">
+    <row r="147" ht="19.5" customHeight="1">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
@@ -4518,7 +4484,7 @@
       <c r="Y147" s="3"/>
       <c r="Z147" s="3"/>
     </row>
-    <row r="148" spans="1:26" ht="19.5" customHeight="1">
+    <row r="148" ht="19.5" customHeight="1">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
@@ -4546,7 +4512,7 @@
       <c r="Y148" s="3"/>
       <c r="Z148" s="3"/>
     </row>
-    <row r="149" spans="1:26" ht="19.5" customHeight="1">
+    <row r="149" ht="19.5" customHeight="1">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
@@ -4574,7 +4540,7 @@
       <c r="Y149" s="3"/>
       <c r="Z149" s="3"/>
     </row>
-    <row r="150" spans="1:26" ht="19.5" customHeight="1">
+    <row r="150" ht="19.5" customHeight="1">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
@@ -4602,7 +4568,7 @@
       <c r="Y150" s="3"/>
       <c r="Z150" s="3"/>
     </row>
-    <row r="151" spans="1:26" ht="19.5" customHeight="1">
+    <row r="151" ht="19.5" customHeight="1">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
@@ -4630,7 +4596,7 @@
       <c r="Y151" s="3"/>
       <c r="Z151" s="3"/>
     </row>
-    <row r="152" spans="1:26" ht="19.5" customHeight="1">
+    <row r="152" ht="19.5" customHeight="1">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -4658,7 +4624,7 @@
       <c r="Y152" s="3"/>
       <c r="Z152" s="3"/>
     </row>
-    <row r="153" spans="1:26" ht="19.5" customHeight="1">
+    <row r="153" ht="19.5" customHeight="1">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
@@ -4686,7 +4652,7 @@
       <c r="Y153" s="3"/>
       <c r="Z153" s="3"/>
     </row>
-    <row r="154" spans="1:26" ht="19.5" customHeight="1">
+    <row r="154" ht="19.5" customHeight="1">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
@@ -4714,7 +4680,7 @@
       <c r="Y154" s="3"/>
       <c r="Z154" s="3"/>
     </row>
-    <row r="155" spans="1:26" ht="19.5" customHeight="1">
+    <row r="155" ht="19.5" customHeight="1">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
@@ -4742,7 +4708,7 @@
       <c r="Y155" s="3"/>
       <c r="Z155" s="3"/>
     </row>
-    <row r="156" spans="1:26" ht="19.5" customHeight="1">
+    <row r="156" ht="19.5" customHeight="1">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
@@ -4770,7 +4736,7 @@
       <c r="Y156" s="3"/>
       <c r="Z156" s="3"/>
     </row>
-    <row r="157" spans="1:26" ht="19.5" customHeight="1">
+    <row r="157" ht="19.5" customHeight="1">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
@@ -4798,7 +4764,7 @@
       <c r="Y157" s="3"/>
       <c r="Z157" s="3"/>
     </row>
-    <row r="158" spans="1:26" ht="19.5" customHeight="1">
+    <row r="158" ht="19.5" customHeight="1">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -4826,7 +4792,7 @@
       <c r="Y158" s="3"/>
       <c r="Z158" s="3"/>
     </row>
-    <row r="159" spans="1:26" ht="19.5" customHeight="1">
+    <row r="159" ht="19.5" customHeight="1">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -4854,7 +4820,7 @@
       <c r="Y159" s="3"/>
       <c r="Z159" s="3"/>
     </row>
-    <row r="160" spans="1:26" ht="19.5" customHeight="1">
+    <row r="160" ht="19.5" customHeight="1">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
@@ -4882,7 +4848,7 @@
       <c r="Y160" s="3"/>
       <c r="Z160" s="3"/>
     </row>
-    <row r="161" spans="1:26" ht="19.5" customHeight="1">
+    <row r="161" ht="19.5" customHeight="1">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
@@ -4910,7 +4876,7 @@
       <c r="Y161" s="3"/>
       <c r="Z161" s="3"/>
     </row>
-    <row r="162" spans="1:26" ht="19.5" customHeight="1">
+    <row r="162" ht="19.5" customHeight="1">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
@@ -4938,7 +4904,7 @@
       <c r="Y162" s="3"/>
       <c r="Z162" s="3"/>
     </row>
-    <row r="163" spans="1:26" ht="19.5" customHeight="1">
+    <row r="163" ht="19.5" customHeight="1">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
@@ -4966,7 +4932,7 @@
       <c r="Y163" s="3"/>
       <c r="Z163" s="3"/>
     </row>
-    <row r="164" spans="1:26" ht="19.5" customHeight="1">
+    <row r="164" ht="19.5" customHeight="1">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
@@ -4994,7 +4960,7 @@
       <c r="Y164" s="3"/>
       <c r="Z164" s="3"/>
     </row>
-    <row r="165" spans="1:26" ht="19.5" customHeight="1">
+    <row r="165" ht="19.5" customHeight="1">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
@@ -5022,7 +4988,7 @@
       <c r="Y165" s="3"/>
       <c r="Z165" s="3"/>
     </row>
-    <row r="166" spans="1:26" ht="19.5" customHeight="1">
+    <row r="166" ht="19.5" customHeight="1">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
@@ -5050,7 +5016,7 @@
       <c r="Y166" s="3"/>
       <c r="Z166" s="3"/>
     </row>
-    <row r="167" spans="1:26" ht="19.5" customHeight="1">
+    <row r="167" ht="19.5" customHeight="1">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
@@ -5078,7 +5044,7 @@
       <c r="Y167" s="3"/>
       <c r="Z167" s="3"/>
     </row>
-    <row r="168" spans="1:26" ht="19.5" customHeight="1">
+    <row r="168" ht="19.5" customHeight="1">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
@@ -5106,7 +5072,7 @@
       <c r="Y168" s="3"/>
       <c r="Z168" s="3"/>
     </row>
-    <row r="169" spans="1:26" ht="19.5" customHeight="1">
+    <row r="169" ht="19.5" customHeight="1">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
@@ -5134,7 +5100,7 @@
       <c r="Y169" s="3"/>
       <c r="Z169" s="3"/>
     </row>
-    <row r="170" spans="1:26" ht="19.5" customHeight="1">
+    <row r="170" ht="19.5" customHeight="1">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
@@ -5162,7 +5128,7 @@
       <c r="Y170" s="3"/>
       <c r="Z170" s="3"/>
     </row>
-    <row r="171" spans="1:26" ht="19.5" customHeight="1">
+    <row r="171" ht="19.5" customHeight="1">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
@@ -5190,7 +5156,7 @@
       <c r="Y171" s="3"/>
       <c r="Z171" s="3"/>
     </row>
-    <row r="172" spans="1:26" ht="19.5" customHeight="1">
+    <row r="172" ht="19.5" customHeight="1">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
@@ -5218,7 +5184,7 @@
       <c r="Y172" s="3"/>
       <c r="Z172" s="3"/>
     </row>
-    <row r="173" spans="1:26" ht="19.5" customHeight="1">
+    <row r="173" ht="19.5" customHeight="1">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
@@ -5246,7 +5212,7 @@
       <c r="Y173" s="3"/>
       <c r="Z173" s="3"/>
     </row>
-    <row r="174" spans="1:26" ht="19.5" customHeight="1">
+    <row r="174" ht="19.5" customHeight="1">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
@@ -5274,7 +5240,7 @@
       <c r="Y174" s="3"/>
       <c r="Z174" s="3"/>
     </row>
-    <row r="175" spans="1:26" ht="19.5" customHeight="1">
+    <row r="175" ht="19.5" customHeight="1">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
@@ -5302,7 +5268,7 @@
       <c r="Y175" s="3"/>
       <c r="Z175" s="3"/>
     </row>
-    <row r="176" spans="1:26" ht="19.5" customHeight="1">
+    <row r="176" ht="19.5" customHeight="1">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
@@ -5330,7 +5296,7 @@
       <c r="Y176" s="3"/>
       <c r="Z176" s="3"/>
     </row>
-    <row r="177" spans="1:26" ht="19.5" customHeight="1">
+    <row r="177" ht="19.5" customHeight="1">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
@@ -5358,7 +5324,7 @@
       <c r="Y177" s="3"/>
       <c r="Z177" s="3"/>
     </row>
-    <row r="178" spans="1:26" ht="19.5" customHeight="1">
+    <row r="178" ht="19.5" customHeight="1">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
@@ -5386,7 +5352,7 @@
       <c r="Y178" s="3"/>
       <c r="Z178" s="3"/>
     </row>
-    <row r="179" spans="1:26" ht="19.5" customHeight="1">
+    <row r="179" ht="19.5" customHeight="1">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
@@ -5414,7 +5380,7 @@
       <c r="Y179" s="3"/>
       <c r="Z179" s="3"/>
     </row>
-    <row r="180" spans="1:26" ht="19.5" customHeight="1">
+    <row r="180" ht="19.5" customHeight="1">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
@@ -5442,7 +5408,7 @@
       <c r="Y180" s="3"/>
       <c r="Z180" s="3"/>
     </row>
-    <row r="181" spans="1:26" ht="19.5" customHeight="1">
+    <row r="181" ht="19.5" customHeight="1">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
@@ -5470,7 +5436,7 @@
       <c r="Y181" s="3"/>
       <c r="Z181" s="3"/>
     </row>
-    <row r="182" spans="1:26" ht="19.5" customHeight="1">
+    <row r="182" ht="19.5" customHeight="1">
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
@@ -5498,7 +5464,7 @@
       <c r="Y182" s="3"/>
       <c r="Z182" s="3"/>
     </row>
-    <row r="183" spans="1:26" ht="19.5" customHeight="1">
+    <row r="183" ht="19.5" customHeight="1">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
@@ -5526,7 +5492,7 @@
       <c r="Y183" s="3"/>
       <c r="Z183" s="3"/>
     </row>
-    <row r="184" spans="1:26" ht="19.5" customHeight="1">
+    <row r="184" ht="19.5" customHeight="1">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
@@ -5554,7 +5520,7 @@
       <c r="Y184" s="3"/>
       <c r="Z184" s="3"/>
     </row>
-    <row r="185" spans="1:26" ht="19.5" customHeight="1">
+    <row r="185" ht="19.5" customHeight="1">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
@@ -5582,7 +5548,7 @@
       <c r="Y185" s="3"/>
       <c r="Z185" s="3"/>
     </row>
-    <row r="186" spans="1:26" ht="19.5" customHeight="1">
+    <row r="186" ht="19.5" customHeight="1">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
@@ -5610,7 +5576,7 @@
       <c r="Y186" s="3"/>
       <c r="Z186" s="3"/>
     </row>
-    <row r="187" spans="1:26" ht="19.5" customHeight="1">
+    <row r="187" ht="19.5" customHeight="1">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
@@ -5638,7 +5604,7 @@
       <c r="Y187" s="3"/>
       <c r="Z187" s="3"/>
     </row>
-    <row r="188" spans="1:26" ht="19.5" customHeight="1">
+    <row r="188" ht="19.5" customHeight="1">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
@@ -5666,7 +5632,7 @@
       <c r="Y188" s="3"/>
       <c r="Z188" s="3"/>
     </row>
-    <row r="189" spans="1:26" ht="19.5" customHeight="1">
+    <row r="189" ht="19.5" customHeight="1">
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
@@ -5694,7 +5660,7 @@
       <c r="Y189" s="3"/>
       <c r="Z189" s="3"/>
     </row>
-    <row r="190" spans="1:26" ht="19.5" customHeight="1">
+    <row r="190" ht="19.5" customHeight="1">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
@@ -5722,7 +5688,7 @@
       <c r="Y190" s="3"/>
       <c r="Z190" s="3"/>
     </row>
-    <row r="191" spans="1:26" ht="19.5" customHeight="1">
+    <row r="191" ht="19.5" customHeight="1">
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
@@ -5750,7 +5716,7 @@
       <c r="Y191" s="3"/>
       <c r="Z191" s="3"/>
     </row>
-    <row r="192" spans="1:26" ht="19.5" customHeight="1">
+    <row r="192" ht="19.5" customHeight="1">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
@@ -5778,7 +5744,7 @@
       <c r="Y192" s="3"/>
       <c r="Z192" s="3"/>
     </row>
-    <row r="193" spans="1:26" ht="19.5" customHeight="1">
+    <row r="193" ht="19.5" customHeight="1">
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
@@ -5806,7 +5772,7 @@
       <c r="Y193" s="3"/>
       <c r="Z193" s="3"/>
     </row>
-    <row r="194" spans="1:26" ht="19.5" customHeight="1">
+    <row r="194" ht="19.5" customHeight="1">
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
@@ -5834,7 +5800,7 @@
       <c r="Y194" s="3"/>
       <c r="Z194" s="3"/>
     </row>
-    <row r="195" spans="1:26" ht="19.5" customHeight="1">
+    <row r="195" ht="19.5" customHeight="1">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
@@ -5862,7 +5828,7 @@
       <c r="Y195" s="3"/>
       <c r="Z195" s="3"/>
     </row>
-    <row r="196" spans="1:26" ht="19.5" customHeight="1">
+    <row r="196" ht="19.5" customHeight="1">
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
@@ -5890,7 +5856,7 @@
       <c r="Y196" s="3"/>
       <c r="Z196" s="3"/>
     </row>
-    <row r="197" spans="1:26" ht="19.5" customHeight="1">
+    <row r="197" ht="19.5" customHeight="1">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
@@ -5918,7 +5884,7 @@
       <c r="Y197" s="3"/>
       <c r="Z197" s="3"/>
     </row>
-    <row r="198" spans="1:26" ht="19.5" customHeight="1">
+    <row r="198" ht="19.5" customHeight="1">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
@@ -5946,7 +5912,7 @@
       <c r="Y198" s="3"/>
       <c r="Z198" s="3"/>
     </row>
-    <row r="199" spans="1:26" ht="19.5" customHeight="1">
+    <row r="199" ht="19.5" customHeight="1">
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
@@ -5974,7 +5940,7 @@
       <c r="Y199" s="3"/>
       <c r="Z199" s="3"/>
     </row>
-    <row r="200" spans="1:26" ht="19.5" customHeight="1">
+    <row r="200" ht="19.5" customHeight="1">
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
@@ -6002,7 +5968,7 @@
       <c r="Y200" s="3"/>
       <c r="Z200" s="3"/>
     </row>
-    <row r="201" spans="1:26" ht="19.5" customHeight="1">
+    <row r="201" ht="19.5" customHeight="1">
       <c r="A201" s="3"/>
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
@@ -6030,7 +5996,7 @@
       <c r="Y201" s="3"/>
       <c r="Z201" s="3"/>
     </row>
-    <row r="202" spans="1:26" ht="19.5" customHeight="1">
+    <row r="202" ht="19.5" customHeight="1">
       <c r="A202" s="3"/>
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
@@ -6058,7 +6024,7 @@
       <c r="Y202" s="3"/>
       <c r="Z202" s="3"/>
     </row>
-    <row r="203" spans="1:26" ht="19.5" customHeight="1">
+    <row r="203" ht="19.5" customHeight="1">
       <c r="A203" s="3"/>
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
@@ -6086,7 +6052,7 @@
       <c r="Y203" s="3"/>
       <c r="Z203" s="3"/>
     </row>
-    <row r="204" spans="1:26" ht="19.5" customHeight="1">
+    <row r="204" ht="19.5" customHeight="1">
       <c r="A204" s="3"/>
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
@@ -6114,7 +6080,7 @@
       <c r="Y204" s="3"/>
       <c r="Z204" s="3"/>
     </row>
-    <row r="205" spans="1:26" ht="19.5" customHeight="1">
+    <row r="205" ht="19.5" customHeight="1">
       <c r="A205" s="3"/>
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
@@ -6142,7 +6108,7 @@
       <c r="Y205" s="3"/>
       <c r="Z205" s="3"/>
     </row>
-    <row r="206" spans="1:26" ht="19.5" customHeight="1">
+    <row r="206" ht="19.5" customHeight="1">
       <c r="A206" s="3"/>
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
@@ -6170,7 +6136,7 @@
       <c r="Y206" s="3"/>
       <c r="Z206" s="3"/>
     </row>
-    <row r="207" spans="1:26" ht="19.5" customHeight="1">
+    <row r="207" ht="19.5" customHeight="1">
       <c r="A207" s="3"/>
       <c r="B207" s="3"/>
       <c r="C207" s="3"/>
@@ -6198,7 +6164,7 @@
       <c r="Y207" s="3"/>
       <c r="Z207" s="3"/>
     </row>
-    <row r="208" spans="1:26" ht="19.5" customHeight="1">
+    <row r="208" ht="19.5" customHeight="1">
       <c r="A208" s="3"/>
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
@@ -6226,7 +6192,7 @@
       <c r="Y208" s="3"/>
       <c r="Z208" s="3"/>
     </row>
-    <row r="209" spans="1:26" ht="19.5" customHeight="1">
+    <row r="209" ht="19.5" customHeight="1">
       <c r="A209" s="3"/>
       <c r="B209" s="3"/>
       <c r="C209" s="3"/>
@@ -6254,7 +6220,7 @@
       <c r="Y209" s="3"/>
       <c r="Z209" s="3"/>
     </row>
-    <row r="210" spans="1:26" ht="19.5" customHeight="1">
+    <row r="210" ht="19.5" customHeight="1">
       <c r="A210" s="3"/>
       <c r="B210" s="3"/>
       <c r="C210" s="3"/>
@@ -6282,7 +6248,7 @@
       <c r="Y210" s="3"/>
       <c r="Z210" s="3"/>
     </row>
-    <row r="211" spans="1:26" ht="19.5" customHeight="1">
+    <row r="211" ht="19.5" customHeight="1">
       <c r="A211" s="3"/>
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
@@ -6310,7 +6276,7 @@
       <c r="Y211" s="3"/>
       <c r="Z211" s="3"/>
     </row>
-    <row r="212" spans="1:26" ht="19.5" customHeight="1">
+    <row r="212" ht="19.5" customHeight="1">
       <c r="A212" s="3"/>
       <c r="B212" s="3"/>
       <c r="C212" s="3"/>
@@ -6338,7 +6304,7 @@
       <c r="Y212" s="3"/>
       <c r="Z212" s="3"/>
     </row>
-    <row r="213" spans="1:26" ht="19.5" customHeight="1">
+    <row r="213" ht="19.5" customHeight="1">
       <c r="A213" s="3"/>
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
@@ -6366,7 +6332,7 @@
       <c r="Y213" s="3"/>
       <c r="Z213" s="3"/>
     </row>
-    <row r="214" spans="1:26" ht="19.5" customHeight="1">
+    <row r="214" ht="19.5" customHeight="1">
       <c r="A214" s="3"/>
       <c r="B214" s="3"/>
       <c r="C214" s="3"/>
@@ -6394,7 +6360,7 @@
       <c r="Y214" s="3"/>
       <c r="Z214" s="3"/>
     </row>
-    <row r="215" spans="1:26" ht="19.5" customHeight="1">
+    <row r="215" ht="19.5" customHeight="1">
       <c r="A215" s="3"/>
       <c r="B215" s="3"/>
       <c r="C215" s="3"/>
@@ -6422,7 +6388,7 @@
       <c r="Y215" s="3"/>
       <c r="Z215" s="3"/>
     </row>
-    <row r="216" spans="1:26" ht="19.5" customHeight="1">
+    <row r="216" ht="19.5" customHeight="1">
       <c r="A216" s="3"/>
       <c r="B216" s="3"/>
       <c r="C216" s="3"/>
@@ -6450,7 +6416,7 @@
       <c r="Y216" s="3"/>
       <c r="Z216" s="3"/>
     </row>
-    <row r="217" spans="1:26" ht="19.5" customHeight="1">
+    <row r="217" ht="19.5" customHeight="1">
       <c r="A217" s="3"/>
       <c r="B217" s="3"/>
       <c r="C217" s="3"/>
@@ -6478,7 +6444,7 @@
       <c r="Y217" s="3"/>
       <c r="Z217" s="3"/>
     </row>
-    <row r="218" spans="1:26" ht="19.5" customHeight="1">
+    <row r="218" ht="19.5" customHeight="1">
       <c r="A218" s="3"/>
       <c r="B218" s="3"/>
       <c r="C218" s="3"/>
@@ -6506,7 +6472,7 @@
       <c r="Y218" s="3"/>
       <c r="Z218" s="3"/>
     </row>
-    <row r="219" spans="1:26" ht="19.5" customHeight="1">
+    <row r="219" ht="19.5" customHeight="1">
       <c r="A219" s="3"/>
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
@@ -6534,7 +6500,7 @@
       <c r="Y219" s="3"/>
       <c r="Z219" s="3"/>
     </row>
-    <row r="220" spans="1:26" ht="19.5" customHeight="1">
+    <row r="220" ht="19.5" customHeight="1">
       <c r="A220" s="3"/>
       <c r="B220" s="3"/>
       <c r="C220" s="3"/>
@@ -6562,7 +6528,7 @@
       <c r="Y220" s="3"/>
       <c r="Z220" s="3"/>
     </row>
-    <row r="221" spans="1:26" ht="19.5" customHeight="1">
+    <row r="221" ht="19.5" customHeight="1">
       <c r="A221" s="3"/>
       <c r="B221" s="3"/>
       <c r="C221" s="3"/>
@@ -6590,7 +6556,7 @@
       <c r="Y221" s="3"/>
       <c r="Z221" s="3"/>
     </row>
-    <row r="222" spans="1:26" ht="19.5" customHeight="1">
+    <row r="222" ht="19.5" customHeight="1">
       <c r="A222" s="3"/>
       <c r="B222" s="3"/>
       <c r="C222" s="3"/>
@@ -6618,7 +6584,7 @@
       <c r="Y222" s="3"/>
       <c r="Z222" s="3"/>
     </row>
-    <row r="223" spans="1:26" ht="19.5" customHeight="1">
+    <row r="223" ht="19.5" customHeight="1">
       <c r="A223" s="3"/>
       <c r="B223" s="3"/>
       <c r="C223" s="3"/>
@@ -6646,7 +6612,7 @@
       <c r="Y223" s="3"/>
       <c r="Z223" s="3"/>
     </row>
-    <row r="224" spans="1:26" ht="19.5" customHeight="1">
+    <row r="224" ht="19.5" customHeight="1">
       <c r="A224" s="3"/>
       <c r="B224" s="3"/>
       <c r="C224" s="3"/>
@@ -6674,7 +6640,7 @@
       <c r="Y224" s="3"/>
       <c r="Z224" s="3"/>
     </row>
-    <row r="225" spans="1:26" ht="19.5" customHeight="1">
+    <row r="225" ht="19.5" customHeight="1">
       <c r="A225" s="3"/>
       <c r="B225" s="3"/>
       <c r="C225" s="3"/>
@@ -6702,7 +6668,7 @@
       <c r="Y225" s="3"/>
       <c r="Z225" s="3"/>
     </row>
-    <row r="226" spans="1:26" ht="19.5" customHeight="1">
+    <row r="226" ht="19.5" customHeight="1">
       <c r="A226" s="3"/>
       <c r="B226" s="3"/>
       <c r="C226" s="3"/>
@@ -6730,7 +6696,7 @@
       <c r="Y226" s="3"/>
       <c r="Z226" s="3"/>
     </row>
-    <row r="227" spans="1:26" ht="19.5" customHeight="1">
+    <row r="227" ht="19.5" customHeight="1">
       <c r="A227" s="3"/>
       <c r="B227" s="3"/>
       <c r="C227" s="3"/>
@@ -6758,7 +6724,7 @@
       <c r="Y227" s="3"/>
       <c r="Z227" s="3"/>
     </row>
-    <row r="228" spans="1:26" ht="19.5" customHeight="1">
+    <row r="228" ht="19.5" customHeight="1">
       <c r="A228" s="3"/>
       <c r="B228" s="3"/>
       <c r="C228" s="3"/>
@@ -6786,7 +6752,7 @@
       <c r="Y228" s="3"/>
       <c r="Z228" s="3"/>
     </row>
-    <row r="229" spans="1:26" ht="19.5" customHeight="1">
+    <row r="229" ht="19.5" customHeight="1">
       <c r="A229" s="3"/>
       <c r="B229" s="3"/>
       <c r="C229" s="3"/>
@@ -6814,7 +6780,7 @@
       <c r="Y229" s="3"/>
       <c r="Z229" s="3"/>
     </row>
-    <row r="230" spans="1:26" ht="19.5" customHeight="1">
+    <row r="230" ht="19.5" customHeight="1">
       <c r="A230" s="3"/>
       <c r="B230" s="3"/>
       <c r="C230" s="3"/>
@@ -6842,7 +6808,7 @@
       <c r="Y230" s="3"/>
       <c r="Z230" s="3"/>
     </row>
-    <row r="231" spans="1:26" ht="19.5" customHeight="1">
+    <row r="231" ht="19.5" customHeight="1">
       <c r="A231" s="3"/>
       <c r="B231" s="3"/>
       <c r="C231" s="3"/>
@@ -6870,7 +6836,7 @@
       <c r="Y231" s="3"/>
       <c r="Z231" s="3"/>
     </row>
-    <row r="232" spans="1:26" ht="19.5" customHeight="1">
+    <row r="232" ht="19.5" customHeight="1">
       <c r="A232" s="3"/>
       <c r="B232" s="3"/>
       <c r="C232" s="3"/>
@@ -6898,7 +6864,7 @@
       <c r="Y232" s="3"/>
       <c r="Z232" s="3"/>
     </row>
-    <row r="233" spans="1:26" ht="19.5" customHeight="1">
+    <row r="233" ht="19.5" customHeight="1">
       <c r="A233" s="3"/>
       <c r="B233" s="3"/>
       <c r="C233" s="3"/>
@@ -6926,7 +6892,7 @@
       <c r="Y233" s="3"/>
       <c r="Z233" s="3"/>
     </row>
-    <row r="234" spans="1:26" ht="19.5" customHeight="1">
+    <row r="234" ht="19.5" customHeight="1">
       <c r="A234" s="3"/>
       <c r="B234" s="3"/>
       <c r="C234" s="3"/>
@@ -6954,7 +6920,7 @@
       <c r="Y234" s="3"/>
       <c r="Z234" s="3"/>
     </row>
-    <row r="235" spans="1:26" ht="19.5" customHeight="1">
+    <row r="235" ht="19.5" customHeight="1">
       <c r="A235" s="3"/>
       <c r="B235" s="3"/>
       <c r="C235" s="3"/>
@@ -6982,7 +6948,7 @@
       <c r="Y235" s="3"/>
       <c r="Z235" s="3"/>
     </row>
-    <row r="236" spans="1:26" ht="19.5" customHeight="1">
+    <row r="236" ht="19.5" customHeight="1">
       <c r="A236" s="3"/>
       <c r="B236" s="3"/>
       <c r="C236" s="3"/>
@@ -7010,7 +6976,7 @@
       <c r="Y236" s="3"/>
       <c r="Z236" s="3"/>
     </row>
-    <row r="237" spans="1:26" ht="19.5" customHeight="1">
+    <row r="237" ht="19.5" customHeight="1">
       <c r="A237" s="3"/>
       <c r="B237" s="3"/>
       <c r="C237" s="3"/>
@@ -7038,7 +7004,7 @@
       <c r="Y237" s="3"/>
       <c r="Z237" s="3"/>
     </row>
-    <row r="238" spans="1:26" ht="19.5" customHeight="1">
+    <row r="238" ht="19.5" customHeight="1">
       <c r="A238" s="3"/>
       <c r="B238" s="3"/>
       <c r="C238" s="3"/>
@@ -7066,7 +7032,7 @@
       <c r="Y238" s="3"/>
       <c r="Z238" s="3"/>
     </row>
-    <row r="239" spans="1:26" ht="19.5" customHeight="1">
+    <row r="239" ht="19.5" customHeight="1">
       <c r="A239" s="3"/>
       <c r="B239" s="3"/>
       <c r="C239" s="3"/>
@@ -7094,7 +7060,7 @@
       <c r="Y239" s="3"/>
       <c r="Z239" s="3"/>
     </row>
-    <row r="240" spans="1:26" ht="19.5" customHeight="1">
+    <row r="240" ht="19.5" customHeight="1">
       <c r="A240" s="3"/>
       <c r="B240" s="3"/>
       <c r="C240" s="3"/>
@@ -7122,7 +7088,7 @@
       <c r="Y240" s="3"/>
       <c r="Z240" s="3"/>
     </row>
-    <row r="241" spans="1:26" ht="19.5" customHeight="1">
+    <row r="241" ht="19.5" customHeight="1">
       <c r="A241" s="3"/>
       <c r="B241" s="3"/>
       <c r="C241" s="3"/>
@@ -7150,7 +7116,7 @@
       <c r="Y241" s="3"/>
       <c r="Z241" s="3"/>
     </row>
-    <row r="242" spans="1:26" ht="19.5" customHeight="1">
+    <row r="242" ht="19.5" customHeight="1">
       <c r="A242" s="3"/>
       <c r="B242" s="3"/>
       <c r="C242" s="3"/>
@@ -7178,7 +7144,7 @@
       <c r="Y242" s="3"/>
       <c r="Z242" s="3"/>
     </row>
-    <row r="243" spans="1:26" ht="19.5" customHeight="1">
+    <row r="243" ht="19.5" customHeight="1">
       <c r="A243" s="3"/>
       <c r="B243" s="3"/>
       <c r="C243" s="3"/>
@@ -7206,7 +7172,7 @@
       <c r="Y243" s="3"/>
       <c r="Z243" s="3"/>
     </row>
-    <row r="244" spans="1:26" ht="19.5" customHeight="1">
+    <row r="244" ht="19.5" customHeight="1">
       <c r="A244" s="3"/>
       <c r="B244" s="3"/>
       <c r="C244" s="3"/>
@@ -7234,7 +7200,7 @@
       <c r="Y244" s="3"/>
       <c r="Z244" s="3"/>
     </row>
-    <row r="245" spans="1:26" ht="19.5" customHeight="1">
+    <row r="245" ht="19.5" customHeight="1">
       <c r="A245" s="3"/>
       <c r="B245" s="3"/>
       <c r="C245" s="3"/>
@@ -7262,7 +7228,7 @@
       <c r="Y245" s="3"/>
       <c r="Z245" s="3"/>
     </row>
-    <row r="246" spans="1:26" ht="19.5" customHeight="1">
+    <row r="246" ht="19.5" customHeight="1">
       <c r="A246" s="3"/>
       <c r="B246" s="3"/>
       <c r="C246" s="3"/>
@@ -7290,7 +7256,7 @@
       <c r="Y246" s="3"/>
       <c r="Z246" s="3"/>
     </row>
-    <row r="247" spans="1:26" ht="19.5" customHeight="1">
+    <row r="247" ht="19.5" customHeight="1">
       <c r="A247" s="3"/>
       <c r="B247" s="3"/>
       <c r="C247" s="3"/>
@@ -7318,7 +7284,7 @@
       <c r="Y247" s="3"/>
       <c r="Z247" s="3"/>
     </row>
-    <row r="248" spans="1:26" ht="19.5" customHeight="1">
+    <row r="248" ht="19.5" customHeight="1">
       <c r="A248" s="3"/>
       <c r="B248" s="3"/>
       <c r="C248" s="3"/>
@@ -7346,7 +7312,7 @@
       <c r="Y248" s="3"/>
       <c r="Z248" s="3"/>
     </row>
-    <row r="249" spans="1:26" ht="19.5" customHeight="1">
+    <row r="249" ht="19.5" customHeight="1">
       <c r="A249" s="3"/>
       <c r="B249" s="3"/>
       <c r="C249" s="3"/>
@@ -7374,7 +7340,7 @@
       <c r="Y249" s="3"/>
       <c r="Z249" s="3"/>
     </row>
-    <row r="250" spans="1:26" ht="19.5" customHeight="1">
+    <row r="250" ht="19.5" customHeight="1">
       <c r="A250" s="3"/>
       <c r="B250" s="3"/>
       <c r="C250" s="3"/>
@@ -7402,7 +7368,7 @@
       <c r="Y250" s="3"/>
       <c r="Z250" s="3"/>
     </row>
-    <row r="251" spans="1:26" ht="19.5" customHeight="1">
+    <row r="251" ht="19.5" customHeight="1">
       <c r="A251" s="3"/>
       <c r="B251" s="3"/>
       <c r="C251" s="3"/>
@@ -7430,7 +7396,7 @@
       <c r="Y251" s="3"/>
       <c r="Z251" s="3"/>
     </row>
-    <row r="252" spans="1:26" ht="19.5" customHeight="1">
+    <row r="252" ht="19.5" customHeight="1">
       <c r="A252" s="3"/>
       <c r="B252" s="3"/>
       <c r="C252" s="3"/>
@@ -7458,7 +7424,7 @@
       <c r="Y252" s="3"/>
       <c r="Z252" s="3"/>
     </row>
-    <row r="253" spans="1:26" ht="19.5" customHeight="1">
+    <row r="253" ht="19.5" customHeight="1">
       <c r="A253" s="3"/>
       <c r="B253" s="3"/>
       <c r="C253" s="3"/>
@@ -7486,7 +7452,7 @@
       <c r="Y253" s="3"/>
       <c r="Z253" s="3"/>
     </row>
-    <row r="254" spans="1:26" ht="19.5" customHeight="1">
+    <row r="254" ht="19.5" customHeight="1">
       <c r="A254" s="3"/>
       <c r="B254" s="3"/>
       <c r="C254" s="3"/>
@@ -7514,7 +7480,7 @@
       <c r="Y254" s="3"/>
       <c r="Z254" s="3"/>
     </row>
-    <row r="255" spans="1:26" ht="19.5" customHeight="1">
+    <row r="255" ht="19.5" customHeight="1">
       <c r="A255" s="3"/>
       <c r="B255" s="3"/>
       <c r="C255" s="3"/>
@@ -7542,7 +7508,7 @@
       <c r="Y255" s="3"/>
       <c r="Z255" s="3"/>
     </row>
-    <row r="256" spans="1:26" ht="19.5" customHeight="1">
+    <row r="256" ht="19.5" customHeight="1">
       <c r="A256" s="3"/>
       <c r="B256" s="3"/>
       <c r="C256" s="3"/>
@@ -7570,7 +7536,7 @@
       <c r="Y256" s="3"/>
       <c r="Z256" s="3"/>
     </row>
-    <row r="257" spans="1:26" ht="19.5" customHeight="1">
+    <row r="257" ht="19.5" customHeight="1">
       <c r="A257" s="3"/>
       <c r="B257" s="3"/>
       <c r="C257" s="3"/>
@@ -7598,7 +7564,7 @@
       <c r="Y257" s="3"/>
       <c r="Z257" s="3"/>
     </row>
-    <row r="258" spans="1:26" ht="19.5" customHeight="1">
+    <row r="258" ht="19.5" customHeight="1">
       <c r="A258" s="3"/>
       <c r="B258" s="3"/>
       <c r="C258" s="3"/>
@@ -7626,7 +7592,7 @@
       <c r="Y258" s="3"/>
       <c r="Z258" s="3"/>
     </row>
-    <row r="259" spans="1:26" ht="19.5" customHeight="1">
+    <row r="259" ht="19.5" customHeight="1">
       <c r="A259" s="3"/>
       <c r="B259" s="3"/>
       <c r="C259" s="3"/>
@@ -7654,7 +7620,7 @@
       <c r="Y259" s="3"/>
       <c r="Z259" s="3"/>
     </row>
-    <row r="260" spans="1:26" ht="19.5" customHeight="1">
+    <row r="260" ht="19.5" customHeight="1">
       <c r="A260" s="3"/>
       <c r="B260" s="3"/>
       <c r="C260" s="3"/>
@@ -7682,7 +7648,7 @@
       <c r="Y260" s="3"/>
       <c r="Z260" s="3"/>
     </row>
-    <row r="261" spans="1:26" ht="19.5" customHeight="1">
+    <row r="261" ht="19.5" customHeight="1">
       <c r="A261" s="3"/>
       <c r="B261" s="3"/>
       <c r="C261" s="3"/>
@@ -7710,7 +7676,7 @@
       <c r="Y261" s="3"/>
       <c r="Z261" s="3"/>
     </row>
-    <row r="262" spans="1:26" ht="19.5" customHeight="1">
+    <row r="262" ht="19.5" customHeight="1">
       <c r="A262" s="3"/>
       <c r="B262" s="3"/>
       <c r="C262" s="3"/>
@@ -7738,7 +7704,7 @@
       <c r="Y262" s="3"/>
       <c r="Z262" s="3"/>
     </row>
-    <row r="263" spans="1:26" ht="19.5" customHeight="1">
+    <row r="263" ht="19.5" customHeight="1">
       <c r="A263" s="3"/>
       <c r="B263" s="3"/>
       <c r="C263" s="3"/>
@@ -7766,7 +7732,7 @@
       <c r="Y263" s="3"/>
       <c r="Z263" s="3"/>
     </row>
-    <row r="264" spans="1:26" ht="19.5" customHeight="1">
+    <row r="264" ht="19.5" customHeight="1">
       <c r="A264" s="3"/>
       <c r="B264" s="3"/>
       <c r="C264" s="3"/>
@@ -7794,7 +7760,7 @@
       <c r="Y264" s="3"/>
       <c r="Z264" s="3"/>
     </row>
-    <row r="265" spans="1:26" ht="19.5" customHeight="1">
+    <row r="265" ht="19.5" customHeight="1">
       <c r="A265" s="3"/>
       <c r="B265" s="3"/>
       <c r="C265" s="3"/>
@@ -7822,7 +7788,7 @@
       <c r="Y265" s="3"/>
       <c r="Z265" s="3"/>
     </row>
-    <row r="266" spans="1:26" ht="19.5" customHeight="1">
+    <row r="266" ht="19.5" customHeight="1">
       <c r="A266" s="3"/>
       <c r="B266" s="3"/>
       <c r="C266" s="3"/>
@@ -7850,7 +7816,7 @@
       <c r="Y266" s="3"/>
       <c r="Z266" s="3"/>
     </row>
-    <row r="267" spans="1:26" ht="19.5" customHeight="1">
+    <row r="267" ht="19.5" customHeight="1">
       <c r="A267" s="3"/>
       <c r="B267" s="3"/>
       <c r="C267" s="3"/>
@@ -7878,7 +7844,7 @@
       <c r="Y267" s="3"/>
       <c r="Z267" s="3"/>
     </row>
-    <row r="268" spans="1:26" ht="19.5" customHeight="1">
+    <row r="268" ht="19.5" customHeight="1">
       <c r="A268" s="3"/>
       <c r="B268" s="3"/>
       <c r="C268" s="3"/>
@@ -7906,7 +7872,7 @@
       <c r="Y268" s="3"/>
       <c r="Z268" s="3"/>
     </row>
-    <row r="269" spans="1:26" ht="19.5" customHeight="1">
+    <row r="269" ht="19.5" customHeight="1">
       <c r="A269" s="3"/>
       <c r="B269" s="3"/>
       <c r="C269" s="3"/>
@@ -7934,7 +7900,7 @@
       <c r="Y269" s="3"/>
       <c r="Z269" s="3"/>
     </row>
-    <row r="270" spans="1:26" ht="19.5" customHeight="1">
+    <row r="270" ht="19.5" customHeight="1">
       <c r="A270" s="3"/>
       <c r="B270" s="3"/>
       <c r="C270" s="3"/>
@@ -7962,7 +7928,7 @@
       <c r="Y270" s="3"/>
       <c r="Z270" s="3"/>
     </row>
-    <row r="271" spans="1:26" ht="19.5" customHeight="1">
+    <row r="271" ht="19.5" customHeight="1">
       <c r="A271" s="3"/>
       <c r="B271" s="3"/>
       <c r="C271" s="3"/>
@@ -7990,7 +7956,7 @@
       <c r="Y271" s="3"/>
       <c r="Z271" s="3"/>
     </row>
-    <row r="272" spans="1:26" ht="19.5" customHeight="1">
+    <row r="272" ht="19.5" customHeight="1">
       <c r="A272" s="3"/>
       <c r="B272" s="3"/>
       <c r="C272" s="3"/>
@@ -8018,7 +7984,7 @@
       <c r="Y272" s="3"/>
       <c r="Z272" s="3"/>
     </row>
-    <row r="273" spans="1:26" ht="19.5" customHeight="1">
+    <row r="273" ht="19.5" customHeight="1">
       <c r="A273" s="3"/>
       <c r="B273" s="3"/>
       <c r="C273" s="3"/>
@@ -8046,7 +8012,7 @@
       <c r="Y273" s="3"/>
       <c r="Z273" s="3"/>
     </row>
-    <row r="274" spans="1:26" ht="19.5" customHeight="1">
+    <row r="274" ht="19.5" customHeight="1">
       <c r="A274" s="3"/>
       <c r="B274" s="3"/>
       <c r="C274" s="3"/>
@@ -8074,7 +8040,7 @@
       <c r="Y274" s="3"/>
       <c r="Z274" s="3"/>
     </row>
-    <row r="275" spans="1:26" ht="19.5" customHeight="1">
+    <row r="275" ht="19.5" customHeight="1">
       <c r="A275" s="3"/>
       <c r="B275" s="3"/>
       <c r="C275" s="3"/>
@@ -8102,7 +8068,7 @@
       <c r="Y275" s="3"/>
       <c r="Z275" s="3"/>
     </row>
-    <row r="276" spans="1:26" ht="19.5" customHeight="1">
+    <row r="276" ht="19.5" customHeight="1">
       <c r="A276" s="3"/>
       <c r="B276" s="3"/>
       <c r="C276" s="3"/>
@@ -8130,7 +8096,7 @@
       <c r="Y276" s="3"/>
       <c r="Z276" s="3"/>
     </row>
-    <row r="277" spans="1:26" ht="19.5" customHeight="1">
+    <row r="277" ht="19.5" customHeight="1">
       <c r="A277" s="3"/>
       <c r="B277" s="3"/>
       <c r="C277" s="3"/>
@@ -8158,7 +8124,7 @@
       <c r="Y277" s="3"/>
       <c r="Z277" s="3"/>
     </row>
-    <row r="278" spans="1:26" ht="19.5" customHeight="1">
+    <row r="278" ht="19.5" customHeight="1">
       <c r="A278" s="3"/>
       <c r="B278" s="3"/>
       <c r="C278" s="3"/>
@@ -8186,7 +8152,7 @@
       <c r="Y278" s="3"/>
       <c r="Z278" s="3"/>
     </row>
-    <row r="279" spans="1:26" ht="19.5" customHeight="1">
+    <row r="279" ht="19.5" customHeight="1">
       <c r="A279" s="3"/>
       <c r="B279" s="3"/>
       <c r="C279" s="3"/>
@@ -8214,7 +8180,7 @@
       <c r="Y279" s="3"/>
       <c r="Z279" s="3"/>
     </row>
-    <row r="280" spans="1:26" ht="19.5" customHeight="1">
+    <row r="280" ht="19.5" customHeight="1">
       <c r="A280" s="3"/>
       <c r="B280" s="3"/>
       <c r="C280" s="3"/>
@@ -8242,7 +8208,7 @@
       <c r="Y280" s="3"/>
       <c r="Z280" s="3"/>
     </row>
-    <row r="281" spans="1:26" ht="19.5" customHeight="1">
+    <row r="281" ht="19.5" customHeight="1">
       <c r="A281" s="3"/>
       <c r="B281" s="3"/>
       <c r="C281" s="3"/>
@@ -8270,7 +8236,7 @@
       <c r="Y281" s="3"/>
       <c r="Z281" s="3"/>
     </row>
-    <row r="282" spans="1:26" ht="19.5" customHeight="1">
+    <row r="282" ht="19.5" customHeight="1">
       <c r="A282" s="3"/>
       <c r="B282" s="3"/>
       <c r="C282" s="3"/>
@@ -8298,7 +8264,7 @@
       <c r="Y282" s="3"/>
       <c r="Z282" s="3"/>
     </row>
-    <row r="283" spans="1:26" ht="19.5" customHeight="1">
+    <row r="283" ht="19.5" customHeight="1">
       <c r="A283" s="3"/>
       <c r="B283" s="3"/>
       <c r="C283" s="3"/>
@@ -8326,7 +8292,7 @@
       <c r="Y283" s="3"/>
       <c r="Z283" s="3"/>
     </row>
-    <row r="284" spans="1:26" ht="19.5" customHeight="1">
+    <row r="284" ht="19.5" customHeight="1">
       <c r="A284" s="3"/>
       <c r="B284" s="3"/>
       <c r="C284" s="3"/>
@@ -8354,7 +8320,7 @@
       <c r="Y284" s="3"/>
       <c r="Z284" s="3"/>
     </row>
-    <row r="285" spans="1:26" ht="19.5" customHeight="1">
+    <row r="285" ht="19.5" customHeight="1">
       <c r="A285" s="3"/>
       <c r="B285" s="3"/>
       <c r="C285" s="3"/>
@@ -8382,7 +8348,7 @@
       <c r="Y285" s="3"/>
       <c r="Z285" s="3"/>
     </row>
-    <row r="286" spans="1:26" ht="19.5" customHeight="1">
+    <row r="286" ht="19.5" customHeight="1">
       <c r="A286" s="3"/>
       <c r="B286" s="3"/>
       <c r="C286" s="3"/>
@@ -8410,7 +8376,7 @@
       <c r="Y286" s="3"/>
       <c r="Z286" s="3"/>
     </row>
-    <row r="287" spans="1:26" ht="19.5" customHeight="1">
+    <row r="287" ht="19.5" customHeight="1">
       <c r="A287" s="3"/>
       <c r="B287" s="3"/>
       <c r="C287" s="3"/>
@@ -8438,7 +8404,7 @@
       <c r="Y287" s="3"/>
       <c r="Z287" s="3"/>
     </row>
-    <row r="288" spans="1:26" ht="19.5" customHeight="1">
+    <row r="288" ht="19.5" customHeight="1">
       <c r="A288" s="3"/>
       <c r="B288" s="3"/>
       <c r="C288" s="3"/>
@@ -8466,7 +8432,7 @@
       <c r="Y288" s="3"/>
       <c r="Z288" s="3"/>
     </row>
-    <row r="289" spans="1:26" ht="19.5" customHeight="1">
+    <row r="289" ht="19.5" customHeight="1">
       <c r="A289" s="3"/>
       <c r="B289" s="3"/>
       <c r="C289" s="3"/>
@@ -8494,7 +8460,7 @@
       <c r="Y289" s="3"/>
       <c r="Z289" s="3"/>
     </row>
-    <row r="290" spans="1:26" ht="19.5" customHeight="1">
+    <row r="290" ht="19.5" customHeight="1">
       <c r="A290" s="3"/>
       <c r="B290" s="3"/>
       <c r="C290" s="3"/>
@@ -8522,7 +8488,7 @@
       <c r="Y290" s="3"/>
       <c r="Z290" s="3"/>
     </row>
-    <row r="291" spans="1:26" ht="19.5" customHeight="1">
+    <row r="291" ht="19.5" customHeight="1">
       <c r="A291" s="3"/>
       <c r="B291" s="3"/>
       <c r="C291" s="3"/>
@@ -8550,7 +8516,7 @@
       <c r="Y291" s="3"/>
       <c r="Z291" s="3"/>
     </row>
-    <row r="292" spans="1:26" ht="19.5" customHeight="1">
+    <row r="292" ht="19.5" customHeight="1">
       <c r="A292" s="3"/>
       <c r="B292" s="3"/>
       <c r="C292" s="3"/>
@@ -8578,7 +8544,7 @@
       <c r="Y292" s="3"/>
       <c r="Z292" s="3"/>
     </row>
-    <row r="293" spans="1:26" ht="19.5" customHeight="1">
+    <row r="293" ht="19.5" customHeight="1">
       <c r="A293" s="3"/>
       <c r="B293" s="3"/>
       <c r="C293" s="3"/>
@@ -8606,7 +8572,7 @@
       <c r="Y293" s="3"/>
       <c r="Z293" s="3"/>
     </row>
-    <row r="294" spans="1:26" ht="19.5" customHeight="1">
+    <row r="294" ht="19.5" customHeight="1">
       <c r="A294" s="3"/>
       <c r="B294" s="3"/>
       <c r="C294" s="3"/>
@@ -8634,7 +8600,7 @@
       <c r="Y294" s="3"/>
       <c r="Z294" s="3"/>
     </row>
-    <row r="295" spans="1:26" ht="19.5" customHeight="1">
+    <row r="295" ht="19.5" customHeight="1">
       <c r="A295" s="3"/>
       <c r="B295" s="3"/>
       <c r="C295" s="3"/>
@@ -8662,7 +8628,7 @@
       <c r="Y295" s="3"/>
       <c r="Z295" s="3"/>
     </row>
-    <row r="296" spans="1:26" ht="19.5" customHeight="1">
+    <row r="296" ht="19.5" customHeight="1">
       <c r="A296" s="3"/>
       <c r="B296" s="3"/>
       <c r="C296" s="3"/>
@@ -8690,7 +8656,7 @@
       <c r="Y296" s="3"/>
       <c r="Z296" s="3"/>
     </row>
-    <row r="297" spans="1:26" ht="19.5" customHeight="1">
+    <row r="297" ht="19.5" customHeight="1">
       <c r="A297" s="3"/>
       <c r="B297" s="3"/>
       <c r="C297" s="3"/>
@@ -8718,7 +8684,7 @@
       <c r="Y297" s="3"/>
       <c r="Z297" s="3"/>
     </row>
-    <row r="298" spans="1:26" ht="19.5" customHeight="1">
+    <row r="298" ht="19.5" customHeight="1">
       <c r="A298" s="3"/>
       <c r="B298" s="3"/>
       <c r="C298" s="3"/>
@@ -8746,7 +8712,7 @@
       <c r="Y298" s="3"/>
       <c r="Z298" s="3"/>
     </row>
-    <row r="299" spans="1:26" ht="19.5" customHeight="1">
+    <row r="299" ht="19.5" customHeight="1">
       <c r="A299" s="3"/>
       <c r="B299" s="3"/>
       <c r="C299" s="3"/>
@@ -8774,7 +8740,7 @@
       <c r="Y299" s="3"/>
       <c r="Z299" s="3"/>
     </row>
-    <row r="300" spans="1:26" ht="19.5" customHeight="1">
+    <row r="300" ht="19.5" customHeight="1">
       <c r="A300" s="3"/>
       <c r="B300" s="3"/>
       <c r="C300" s="3"/>
@@ -8802,7 +8768,7 @@
       <c r="Y300" s="3"/>
       <c r="Z300" s="3"/>
     </row>
-    <row r="301" spans="1:26" ht="19.5" customHeight="1">
+    <row r="301" ht="19.5" customHeight="1">
       <c r="A301" s="3"/>
       <c r="B301" s="3"/>
       <c r="C301" s="3"/>
@@ -8830,7 +8796,7 @@
       <c r="Y301" s="3"/>
       <c r="Z301" s="3"/>
     </row>
-    <row r="302" spans="1:26" ht="19.5" customHeight="1">
+    <row r="302" ht="19.5" customHeight="1">
       <c r="A302" s="3"/>
       <c r="B302" s="3"/>
       <c r="C302" s="3"/>
@@ -8858,7 +8824,7 @@
       <c r="Y302" s="3"/>
       <c r="Z302" s="3"/>
     </row>
-    <row r="303" spans="1:26" ht="19.5" customHeight="1">
+    <row r="303" ht="19.5" customHeight="1">
       <c r="A303" s="3"/>
       <c r="B303" s="3"/>
       <c r="C303" s="3"/>
@@ -8886,7 +8852,7 @@
       <c r="Y303" s="3"/>
       <c r="Z303" s="3"/>
     </row>
-    <row r="304" spans="1:26" ht="19.5" customHeight="1">
+    <row r="304" ht="19.5" customHeight="1">
       <c r="A304" s="3"/>
       <c r="B304" s="3"/>
       <c r="C304" s="3"/>
@@ -8914,7 +8880,7 @@
       <c r="Y304" s="3"/>
       <c r="Z304" s="3"/>
     </row>
-    <row r="305" spans="1:26" ht="19.5" customHeight="1">
+    <row r="305" ht="19.5" customHeight="1">
       <c r="A305" s="3"/>
       <c r="B305" s="3"/>
       <c r="C305" s="3"/>
@@ -8942,7 +8908,7 @@
       <c r="Y305" s="3"/>
       <c r="Z305" s="3"/>
     </row>
-    <row r="306" spans="1:26" ht="19.5" customHeight="1">
+    <row r="306" ht="19.5" customHeight="1">
       <c r="A306" s="3"/>
       <c r="B306" s="3"/>
       <c r="C306" s="3"/>
@@ -8970,7 +8936,7 @@
       <c r="Y306" s="3"/>
       <c r="Z306" s="3"/>
     </row>
-    <row r="307" spans="1:26" ht="19.5" customHeight="1">
+    <row r="307" ht="19.5" customHeight="1">
       <c r="A307" s="3"/>
       <c r="B307" s="3"/>
       <c r="C307" s="3"/>
@@ -8998,7 +8964,7 @@
       <c r="Y307" s="3"/>
       <c r="Z307" s="3"/>
     </row>
-    <row r="308" spans="1:26" ht="19.5" customHeight="1">
+    <row r="308" ht="19.5" customHeight="1">
       <c r="A308" s="3"/>
       <c r="B308" s="3"/>
       <c r="C308" s="3"/>
@@ -9026,7 +8992,7 @@
       <c r="Y308" s="3"/>
       <c r="Z308" s="3"/>
     </row>
-    <row r="309" spans="1:26" ht="19.5" customHeight="1">
+    <row r="309" ht="19.5" customHeight="1">
       <c r="A309" s="3"/>
       <c r="B309" s="3"/>
       <c r="C309" s="3"/>
@@ -9054,7 +9020,7 @@
       <c r="Y309" s="3"/>
       <c r="Z309" s="3"/>
     </row>
-    <row r="310" spans="1:26" ht="19.5" customHeight="1">
+    <row r="310" ht="19.5" customHeight="1">
       <c r="A310" s="3"/>
       <c r="B310" s="3"/>
       <c r="C310" s="3"/>
@@ -9082,7 +9048,7 @@
       <c r="Y310" s="3"/>
       <c r="Z310" s="3"/>
     </row>
-    <row r="311" spans="1:26" ht="19.5" customHeight="1">
+    <row r="311" ht="19.5" customHeight="1">
       <c r="A311" s="3"/>
       <c r="B311" s="3"/>
       <c r="C311" s="3"/>
@@ -9110,7 +9076,7 @@
       <c r="Y311" s="3"/>
       <c r="Z311" s="3"/>
     </row>
-    <row r="312" spans="1:26" ht="19.5" customHeight="1">
+    <row r="312" ht="19.5" customHeight="1">
       <c r="A312" s="3"/>
       <c r="B312" s="3"/>
       <c r="C312" s="3"/>
@@ -9138,7 +9104,7 @@
       <c r="Y312" s="3"/>
       <c r="Z312" s="3"/>
     </row>
-    <row r="313" spans="1:26" ht="19.5" customHeight="1">
+    <row r="313" ht="19.5" customHeight="1">
       <c r="A313" s="3"/>
       <c r="B313" s="3"/>
       <c r="C313" s="3"/>
@@ -9166,7 +9132,7 @@
       <c r="Y313" s="3"/>
       <c r="Z313" s="3"/>
     </row>
-    <row r="314" spans="1:26" ht="19.5" customHeight="1">
+    <row r="314" ht="19.5" customHeight="1">
       <c r="A314" s="3"/>
       <c r="B314" s="3"/>
       <c r="C314" s="3"/>
@@ -9194,7 +9160,7 @@
       <c r="Y314" s="3"/>
       <c r="Z314" s="3"/>
     </row>
-    <row r="315" spans="1:26" ht="19.5" customHeight="1">
+    <row r="315" ht="19.5" customHeight="1">
       <c r="A315" s="3"/>
       <c r="B315" s="3"/>
       <c r="C315" s="3"/>
@@ -9222,7 +9188,7 @@
       <c r="Y315" s="3"/>
       <c r="Z315" s="3"/>
     </row>
-    <row r="316" spans="1:26" ht="19.5" customHeight="1">
+    <row r="316" ht="19.5" customHeight="1">
       <c r="A316" s="3"/>
       <c r="B316" s="3"/>
       <c r="C316" s="3"/>
@@ -9250,7 +9216,7 @@
       <c r="Y316" s="3"/>
       <c r="Z316" s="3"/>
     </row>
-    <row r="317" spans="1:26" ht="19.5" customHeight="1">
+    <row r="317" ht="19.5" customHeight="1">
       <c r="A317" s="3"/>
       <c r="B317" s="3"/>
       <c r="C317" s="3"/>
@@ -9278,7 +9244,7 @@
       <c r="Y317" s="3"/>
       <c r="Z317" s="3"/>
     </row>
-    <row r="318" spans="1:26" ht="19.5" customHeight="1">
+    <row r="318" ht="19.5" customHeight="1">
       <c r="A318" s="3"/>
       <c r="B318" s="3"/>
       <c r="C318" s="3"/>
@@ -9306,7 +9272,7 @@
       <c r="Y318" s="3"/>
       <c r="Z318" s="3"/>
     </row>
-    <row r="319" spans="1:26" ht="19.5" customHeight="1">
+    <row r="319" ht="19.5" customHeight="1">
       <c r="A319" s="3"/>
       <c r="B319" s="3"/>
       <c r="C319" s="3"/>
@@ -9334,7 +9300,7 @@
       <c r="Y319" s="3"/>
       <c r="Z319" s="3"/>
     </row>
-    <row r="320" spans="1:26" ht="19.5" customHeight="1">
+    <row r="320" ht="19.5" customHeight="1">
       <c r="A320" s="3"/>
       <c r="B320" s="3"/>
       <c r="C320" s="3"/>
@@ -9362,7 +9328,7 @@
       <c r="Y320" s="3"/>
       <c r="Z320" s="3"/>
     </row>
-    <row r="321" spans="1:26" ht="19.5" customHeight="1">
+    <row r="321" ht="19.5" customHeight="1">
       <c r="A321" s="3"/>
       <c r="B321" s="3"/>
       <c r="C321" s="3"/>
@@ -9390,7 +9356,7 @@
       <c r="Y321" s="3"/>
       <c r="Z321" s="3"/>
     </row>
-    <row r="322" spans="1:26" ht="19.5" customHeight="1">
+    <row r="322" ht="19.5" customHeight="1">
       <c r="A322" s="3"/>
       <c r="B322" s="3"/>
       <c r="C322" s="3"/>
@@ -9418,7 +9384,7 @@
       <c r="Y322" s="3"/>
       <c r="Z322" s="3"/>
     </row>
-    <row r="323" spans="1:26" ht="19.5" customHeight="1">
+    <row r="323" ht="19.5" customHeight="1">
       <c r="A323" s="3"/>
       <c r="B323" s="3"/>
       <c r="C323" s="3"/>
@@ -9446,7 +9412,7 @@
       <c r="Y323" s="3"/>
       <c r="Z323" s="3"/>
     </row>
-    <row r="324" spans="1:26" ht="19.5" customHeight="1">
+    <row r="324" ht="19.5" customHeight="1">
       <c r="A324" s="3"/>
       <c r="B324" s="3"/>
       <c r="C324" s="3"/>
@@ -9474,7 +9440,7 @@
       <c r="Y324" s="3"/>
       <c r="Z324" s="3"/>
     </row>
-    <row r="325" spans="1:26" ht="19.5" customHeight="1">
+    <row r="325" ht="19.5" customHeight="1">
       <c r="A325" s="3"/>
       <c r="B325" s="3"/>
       <c r="C325" s="3"/>
@@ -9502,7 +9468,7 @@
       <c r="Y325" s="3"/>
       <c r="Z325" s="3"/>
     </row>
-    <row r="326" spans="1:26" ht="19.5" customHeight="1">
+    <row r="326" ht="19.5" customHeight="1">
       <c r="A326" s="3"/>
       <c r="B326" s="3"/>
       <c r="C326" s="3"/>
@@ -9530,7 +9496,7 @@
       <c r="Y326" s="3"/>
       <c r="Z326" s="3"/>
     </row>
-    <row r="327" spans="1:26" ht="19.5" customHeight="1">
+    <row r="327" ht="19.5" customHeight="1">
       <c r="A327" s="3"/>
       <c r="B327" s="3"/>
       <c r="C327" s="3"/>
@@ -9558,7 +9524,7 @@
       <c r="Y327" s="3"/>
       <c r="Z327" s="3"/>
     </row>
-    <row r="328" spans="1:26" ht="19.5" customHeight="1">
+    <row r="328" ht="19.5" customHeight="1">
       <c r="A328" s="3"/>
       <c r="B328" s="3"/>
       <c r="C328" s="3"/>
@@ -9586,7 +9552,7 @@
       <c r="Y328" s="3"/>
       <c r="Z328" s="3"/>
     </row>
-    <row r="329" spans="1:26" ht="19.5" customHeight="1">
+    <row r="329" ht="19.5" customHeight="1">
       <c r="A329" s="3"/>
       <c r="B329" s="3"/>
       <c r="C329" s="3"/>
@@ -9614,7 +9580,7 @@
       <c r="Y329" s="3"/>
       <c r="Z329" s="3"/>
     </row>
-    <row r="330" spans="1:26" ht="19.5" customHeight="1">
+    <row r="330" ht="19.5" customHeight="1">
       <c r="A330" s="3"/>
       <c r="B330" s="3"/>
       <c r="C330" s="3"/>
@@ -9642,7 +9608,7 @@
       <c r="Y330" s="3"/>
       <c r="Z330" s="3"/>
     </row>
-    <row r="331" spans="1:26" ht="19.5" customHeight="1">
+    <row r="331" ht="19.5" customHeight="1">
       <c r="A331" s="3"/>
       <c r="B331" s="3"/>
       <c r="C331" s="3"/>
@@ -9670,7 +9636,7 @@
       <c r="Y331" s="3"/>
       <c r="Z331" s="3"/>
     </row>
-    <row r="332" spans="1:26" ht="19.5" customHeight="1">
+    <row r="332" ht="19.5" customHeight="1">
       <c r="A332" s="3"/>
       <c r="B332" s="3"/>
       <c r="C332" s="3"/>
@@ -9698,7 +9664,7 @@
       <c r="Y332" s="3"/>
       <c r="Z332" s="3"/>
     </row>
-    <row r="333" spans="1:26" ht="19.5" customHeight="1">
+    <row r="333" ht="19.5" customHeight="1">
       <c r="A333" s="3"/>
       <c r="B333" s="3"/>
       <c r="C333" s="3"/>
@@ -9726,7 +9692,7 @@
       <c r="Y333" s="3"/>
       <c r="Z333" s="3"/>
     </row>
-    <row r="334" spans="1:26" ht="19.5" customHeight="1">
+    <row r="334" ht="19.5" customHeight="1">
       <c r="A334" s="3"/>
       <c r="B334" s="3"/>
       <c r="C334" s="3"/>
@@ -9754,7 +9720,7 @@
       <c r="Y334" s="3"/>
       <c r="Z334" s="3"/>
     </row>
-    <row r="335" spans="1:26" ht="19.5" customHeight="1">
+    <row r="335" ht="19.5" customHeight="1">
       <c r="A335" s="3"/>
       <c r="B335" s="3"/>
       <c r="C335" s="3"/>
@@ -9782,7 +9748,7 @@
       <c r="Y335" s="3"/>
       <c r="Z335" s="3"/>
     </row>
-    <row r="336" spans="1:26" ht="19.5" customHeight="1">
+    <row r="336" ht="19.5" customHeight="1">
       <c r="A336" s="3"/>
       <c r="B336" s="3"/>
       <c r="C336" s="3"/>
@@ -9810,7 +9776,7 @@
       <c r="Y336" s="3"/>
       <c r="Z336" s="3"/>
     </row>
-    <row r="337" spans="1:26" ht="19.5" customHeight="1">
+    <row r="337" ht="19.5" customHeight="1">
       <c r="A337" s="3"/>
       <c r="B337" s="3"/>
       <c r="C337" s="3"/>
@@ -9838,7 +9804,7 @@
       <c r="Y337" s="3"/>
       <c r="Z337" s="3"/>
     </row>
-    <row r="338" spans="1:26" ht="19.5" customHeight="1">
+    <row r="338" ht="19.5" customHeight="1">
       <c r="A338" s="3"/>
       <c r="B338" s="3"/>
       <c r="C338" s="3"/>
@@ -9866,7 +9832,7 @@
       <c r="Y338" s="3"/>
       <c r="Z338" s="3"/>
     </row>
-    <row r="339" spans="1:26" ht="19.5" customHeight="1">
+    <row r="339" ht="19.5" customHeight="1">
       <c r="A339" s="3"/>
       <c r="B339" s="3"/>
       <c r="C339" s="3"/>
@@ -9894,7 +9860,7 @@
       <c r="Y339" s="3"/>
       <c r="Z339" s="3"/>
     </row>
-    <row r="340" spans="1:26" ht="19.5" customHeight="1">
+    <row r="340" ht="19.5" customHeight="1">
       <c r="A340" s="3"/>
       <c r="B340" s="3"/>
       <c r="C340" s="3"/>
@@ -9922,7 +9888,7 @@
       <c r="Y340" s="3"/>
       <c r="Z340" s="3"/>
     </row>
-    <row r="341" spans="1:26" ht="19.5" customHeight="1">
+    <row r="341" ht="19.5" customHeight="1">
       <c r="A341" s="3"/>
       <c r="B341" s="3"/>
       <c r="C341" s="3"/>
@@ -9950,7 +9916,7 @@
       <c r="Y341" s="3"/>
       <c r="Z341" s="3"/>
     </row>
-    <row r="342" spans="1:26" ht="19.5" customHeight="1">
+    <row r="342" ht="19.5" customHeight="1">
       <c r="A342" s="3"/>
       <c r="B342" s="3"/>
       <c r="C342" s="3"/>
@@ -9978,7 +9944,7 @@
       <c r="Y342" s="3"/>
       <c r="Z342" s="3"/>
     </row>
-    <row r="343" spans="1:26" ht="19.5" customHeight="1">
+    <row r="343" ht="19.5" customHeight="1">
       <c r="A343" s="3"/>
       <c r="B343" s="3"/>
       <c r="C343" s="3"/>
@@ -10006,7 +9972,7 @@
       <c r="Y343" s="3"/>
       <c r="Z343" s="3"/>
     </row>
-    <row r="344" spans="1:26" ht="19.5" customHeight="1">
+    <row r="344" ht="19.5" customHeight="1">
       <c r="A344" s="3"/>
       <c r="B344" s="3"/>
       <c r="C344" s="3"/>
@@ -10034,7 +10000,7 @@
       <c r="Y344" s="3"/>
       <c r="Z344" s="3"/>
     </row>
-    <row r="345" spans="1:26" ht="19.5" customHeight="1">
+    <row r="345" ht="19.5" customHeight="1">
       <c r="A345" s="3"/>
       <c r="B345" s="3"/>
       <c r="C345" s="3"/>
@@ -10062,7 +10028,7 @@
       <c r="Y345" s="3"/>
       <c r="Z345" s="3"/>
     </row>
-    <row r="346" spans="1:26" ht="19.5" customHeight="1">
+    <row r="346" ht="19.5" customHeight="1">
       <c r="A346" s="3"/>
       <c r="B346" s="3"/>
       <c r="C346" s="3"/>
@@ -10090,7 +10056,7 @@
       <c r="Y346" s="3"/>
       <c r="Z346" s="3"/>
     </row>
-    <row r="347" spans="1:26" ht="19.5" customHeight="1">
+    <row r="347" ht="19.5" customHeight="1">
       <c r="A347" s="3"/>
       <c r="B347" s="3"/>
       <c r="C347" s="3"/>
@@ -10118,7 +10084,7 @@
       <c r="Y347" s="3"/>
       <c r="Z347" s="3"/>
     </row>
-    <row r="348" spans="1:26" ht="19.5" customHeight="1">
+    <row r="348" ht="19.5" customHeight="1">
       <c r="A348" s="3"/>
       <c r="B348" s="3"/>
       <c r="C348" s="3"/>
@@ -10146,7 +10112,7 @@
       <c r="Y348" s="3"/>
       <c r="Z348" s="3"/>
     </row>
-    <row r="349" spans="1:26" ht="19.5" customHeight="1">
+    <row r="349" ht="19.5" customHeight="1">
       <c r="A349" s="3"/>
       <c r="B349" s="3"/>
       <c r="C349" s="3"/>
@@ -10174,7 +10140,7 @@
       <c r="Y349" s="3"/>
       <c r="Z349" s="3"/>
     </row>
-    <row r="350" spans="1:26" ht="19.5" customHeight="1">
+    <row r="350" ht="19.5" customHeight="1">
       <c r="A350" s="3"/>
       <c r="B350" s="3"/>
       <c r="C350" s="3"/>
@@ -10202,7 +10168,7 @@
       <c r="Y350" s="3"/>
       <c r="Z350" s="3"/>
     </row>
-    <row r="351" spans="1:26" ht="19.5" customHeight="1">
+    <row r="351" ht="19.5" customHeight="1">
       <c r="A351" s="3"/>
       <c r="B351" s="3"/>
       <c r="C351" s="3"/>
@@ -10230,7 +10196,7 @@
       <c r="Y351" s="3"/>
       <c r="Z351" s="3"/>
     </row>
-    <row r="352" spans="1:26" ht="19.5" customHeight="1">
+    <row r="352" ht="19.5" customHeight="1">
       <c r="A352" s="3"/>
       <c r="B352" s="3"/>
       <c r="C352" s="3"/>
@@ -10258,7 +10224,7 @@
       <c r="Y352" s="3"/>
       <c r="Z352" s="3"/>
     </row>
-    <row r="353" spans="1:26" ht="19.5" customHeight="1">
+    <row r="353" ht="19.5" customHeight="1">
       <c r="A353" s="3"/>
       <c r="B353" s="3"/>
       <c r="C353" s="3"/>
@@ -10286,7 +10252,7 @@
       <c r="Y353" s="3"/>
       <c r="Z353" s="3"/>
     </row>
-    <row r="354" spans="1:26" ht="19.5" customHeight="1">
+    <row r="354" ht="19.5" customHeight="1">
       <c r="A354" s="3"/>
       <c r="B354" s="3"/>
       <c r="C354" s="3"/>
@@ -10314,7 +10280,7 @@
       <c r="Y354" s="3"/>
       <c r="Z354" s="3"/>
     </row>
-    <row r="355" spans="1:26" ht="19.5" customHeight="1">
+    <row r="355" ht="19.5" customHeight="1">
       <c r="A355" s="3"/>
       <c r="B355" s="3"/>
       <c r="C355" s="3"/>
@@ -10342,7 +10308,7 @@
       <c r="Y355" s="3"/>
       <c r="Z355" s="3"/>
     </row>
-    <row r="356" spans="1:26" ht="19.5" customHeight="1">
+    <row r="356" ht="19.5" customHeight="1">
       <c r="A356" s="3"/>
       <c r="B356" s="3"/>
       <c r="C356" s="3"/>
@@ -10370,7 +10336,7 @@
       <c r="Y356" s="3"/>
       <c r="Z356" s="3"/>
     </row>
-    <row r="357" spans="1:26" ht="19.5" customHeight="1">
+    <row r="357" ht="19.5" customHeight="1">
       <c r="A357" s="3"/>
       <c r="B357" s="3"/>
       <c r="C357" s="3"/>
@@ -10398,7 +10364,7 @@
       <c r="Y357" s="3"/>
       <c r="Z357" s="3"/>
     </row>
-    <row r="358" spans="1:26" ht="19.5" customHeight="1">
+    <row r="358" ht="19.5" customHeight="1">
       <c r="A358" s="3"/>
       <c r="B358" s="3"/>
       <c r="C358" s="3"/>
@@ -10426,7 +10392,7 @@
       <c r="Y358" s="3"/>
       <c r="Z358" s="3"/>
     </row>
-    <row r="359" spans="1:26" ht="19.5" customHeight="1">
+    <row r="359" ht="19.5" customHeight="1">
       <c r="A359" s="3"/>
       <c r="B359" s="3"/>
       <c r="C359" s="3"/>
@@ -10454,7 +10420,7 @@
       <c r="Y359" s="3"/>
       <c r="Z359" s="3"/>
     </row>
-    <row r="360" spans="1:26" ht="19.5" customHeight="1">
+    <row r="360" ht="19.5" customHeight="1">
       <c r="A360" s="3"/>
       <c r="B360" s="3"/>
       <c r="C360" s="3"/>
@@ -10482,7 +10448,7 @@
       <c r="Y360" s="3"/>
       <c r="Z360" s="3"/>
     </row>
-    <row r="361" spans="1:26" ht="19.5" customHeight="1">
+    <row r="361" ht="19.5" customHeight="1">
       <c r="A361" s="3"/>
       <c r="B361" s="3"/>
       <c r="C361" s="3"/>
@@ -10510,7 +10476,7 @@
       <c r="Y361" s="3"/>
       <c r="Z361" s="3"/>
     </row>
-    <row r="362" spans="1:26" ht="19.5" customHeight="1">
+    <row r="362" ht="19.5" customHeight="1">
       <c r="A362" s="3"/>
       <c r="B362" s="3"/>
       <c r="C362" s="3"/>
@@ -10538,7 +10504,7 @@
       <c r="Y362" s="3"/>
       <c r="Z362" s="3"/>
     </row>
-    <row r="363" spans="1:26" ht="19.5" customHeight="1">
+    <row r="363" ht="19.5" customHeight="1">
       <c r="A363" s="3"/>
       <c r="B363" s="3"/>
       <c r="C363" s="3"/>
@@ -10566,7 +10532,7 @@
       <c r="Y363" s="3"/>
       <c r="Z363" s="3"/>
     </row>
-    <row r="364" spans="1:26" ht="19.5" customHeight="1">
+    <row r="364" ht="19.5" customHeight="1">
       <c r="A364" s="3"/>
       <c r="B364" s="3"/>
       <c r="C364" s="3"/>
@@ -10594,7 +10560,7 @@
       <c r="Y364" s="3"/>
       <c r="Z364" s="3"/>
     </row>
-    <row r="365" spans="1:26" ht="19.5" customHeight="1">
+    <row r="365" ht="19.5" customHeight="1">
       <c r="A365" s="3"/>
       <c r="B365" s="3"/>
       <c r="C365" s="3"/>
@@ -10622,7 +10588,7 @@
       <c r="Y365" s="3"/>
       <c r="Z365" s="3"/>
     </row>
-    <row r="366" spans="1:26" ht="19.5" customHeight="1">
+    <row r="366" ht="19.5" customHeight="1">
       <c r="A366" s="3"/>
       <c r="B366" s="3"/>
       <c r="C366" s="3"/>
@@ -10650,7 +10616,7 @@
       <c r="Y366" s="3"/>
       <c r="Z366" s="3"/>
     </row>
-    <row r="367" spans="1:26" ht="19.5" customHeight="1">
+    <row r="367" ht="19.5" customHeight="1">
       <c r="A367" s="3"/>
       <c r="B367" s="3"/>
       <c r="C367" s="3"/>
@@ -10678,7 +10644,7 @@
       <c r="Y367" s="3"/>
       <c r="Z367" s="3"/>
     </row>
-    <row r="368" spans="1:26" ht="19.5" customHeight="1">
+    <row r="368" ht="19.5" customHeight="1">
       <c r="A368" s="3"/>
       <c r="B368" s="3"/>
       <c r="C368" s="3"/>
@@ -10706,7 +10672,7 @@
       <c r="Y368" s="3"/>
       <c r="Z368" s="3"/>
     </row>
-    <row r="369" spans="1:26" ht="19.5" customHeight="1">
+    <row r="369" ht="19.5" customHeight="1">
       <c r="A369" s="3"/>
       <c r="B369" s="3"/>
       <c r="C369" s="3"/>
@@ -10734,7 +10700,7 @@
       <c r="Y369" s="3"/>
       <c r="Z369" s="3"/>
     </row>
-    <row r="370" spans="1:26" ht="19.5" customHeight="1">
+    <row r="370" ht="19.5" customHeight="1">
       <c r="A370" s="3"/>
       <c r="B370" s="3"/>
       <c r="C370" s="3"/>
@@ -10762,7 +10728,7 @@
       <c r="Y370" s="3"/>
       <c r="Z370" s="3"/>
     </row>
-    <row r="371" spans="1:26" ht="19.5" customHeight="1">
+    <row r="371" ht="19.5" customHeight="1">
       <c r="A371" s="3"/>
       <c r="B371" s="3"/>
       <c r="C371" s="3"/>
@@ -10790,7 +10756,7 @@
       <c r="Y371" s="3"/>
       <c r="Z371" s="3"/>
     </row>
-    <row r="372" spans="1:26" ht="19.5" customHeight="1">
+    <row r="372" ht="19.5" customHeight="1">
       <c r="A372" s="3"/>
       <c r="B372" s="3"/>
       <c r="C372" s="3"/>
@@ -10818,7 +10784,7 @@
       <c r="Y372" s="3"/>
       <c r="Z372" s="3"/>
     </row>
-    <row r="373" spans="1:26" ht="19.5" customHeight="1">
+    <row r="373" ht="19.5" customHeight="1">
       <c r="A373" s="3"/>
       <c r="B373" s="3"/>
       <c r="C373" s="3"/>
@@ -10846,7 +10812,7 @@
       <c r="Y373" s="3"/>
       <c r="Z373" s="3"/>
     </row>
-    <row r="374" spans="1:26" ht="19.5" customHeight="1">
+    <row r="374" ht="19.5" customHeight="1">
       <c r="A374" s="3"/>
       <c r="B374" s="3"/>
       <c r="C374" s="3"/>
@@ -10874,7 +10840,7 @@
       <c r="Y374" s="3"/>
       <c r="Z374" s="3"/>
     </row>
-    <row r="375" spans="1:26" ht="19.5" customHeight="1">
+    <row r="375" ht="19.5" customHeight="1">
       <c r="A375" s="3"/>
       <c r="B375" s="3"/>
       <c r="C375" s="3"/>
@@ -10902,7 +10868,7 @@
       <c r="Y375" s="3"/>
       <c r="Z375" s="3"/>
     </row>
-    <row r="376" spans="1:26" ht="19.5" customHeight="1">
+    <row r="376" ht="19.5" customHeight="1">
       <c r="A376" s="3"/>
       <c r="B376" s="3"/>
       <c r="C376" s="3"/>
@@ -10930,7 +10896,7 @@
       <c r="Y376" s="3"/>
       <c r="Z376" s="3"/>
     </row>
-    <row r="377" spans="1:26" ht="19.5" customHeight="1">
+    <row r="377" ht="19.5" customHeight="1">
       <c r="A377" s="3"/>
       <c r="B377" s="3"/>
       <c r="C377" s="3"/>
@@ -10958,7 +10924,7 @@
       <c r="Y377" s="3"/>
       <c r="Z377" s="3"/>
     </row>
-    <row r="378" spans="1:26" ht="19.5" customHeight="1">
+    <row r="378" ht="19.5" customHeight="1">
       <c r="A378" s="3"/>
       <c r="B378" s="3"/>
       <c r="C378" s="3"/>
@@ -10986,7 +10952,7 @@
       <c r="Y378" s="3"/>
       <c r="Z378" s="3"/>
     </row>
-    <row r="379" spans="1:26" ht="19.5" customHeight="1">
+    <row r="379" ht="19.5" customHeight="1">
       <c r="A379" s="3"/>
       <c r="B379" s="3"/>
       <c r="C379" s="3"/>
@@ -11014,7 +10980,7 @@
       <c r="Y379" s="3"/>
       <c r="Z379" s="3"/>
     </row>
-    <row r="380" spans="1:26" ht="19.5" customHeight="1">
+    <row r="380" ht="19.5" customHeight="1">
       <c r="A380" s="3"/>
       <c r="B380" s="3"/>
       <c r="C380" s="3"/>
@@ -11042,7 +11008,7 @@
       <c r="Y380" s="3"/>
       <c r="Z380" s="3"/>
     </row>
-    <row r="381" spans="1:26" ht="19.5" customHeight="1">
+    <row r="381" ht="19.5" customHeight="1">
       <c r="A381" s="3"/>
       <c r="B381" s="3"/>
       <c r="C381" s="3"/>
@@ -11070,7 +11036,7 @@
       <c r="Y381" s="3"/>
       <c r="Z381" s="3"/>
     </row>
-    <row r="382" spans="1:26" ht="19.5" customHeight="1">
+    <row r="382" ht="19.5" customHeight="1">
       <c r="A382" s="3"/>
       <c r="B382" s="3"/>
       <c r="C382" s="3"/>
@@ -11098,7 +11064,7 @@
       <c r="Y382" s="3"/>
       <c r="Z382" s="3"/>
     </row>
-    <row r="383" spans="1:26" ht="19.5" customHeight="1">
+    <row r="383" ht="19.5" customHeight="1">
       <c r="A383" s="3"/>
       <c r="B383" s="3"/>
       <c r="C383" s="3"/>
@@ -11126,7 +11092,7 @@
       <c r="Y383" s="3"/>
       <c r="Z383" s="3"/>
     </row>
-    <row r="384" spans="1:26" ht="19.5" customHeight="1">
+    <row r="384" ht="19.5" customHeight="1">
       <c r="A384" s="3"/>
       <c r="B384" s="3"/>
       <c r="C384" s="3"/>
@@ -11154,7 +11120,7 @@
       <c r="Y384" s="3"/>
       <c r="Z384" s="3"/>
     </row>
-    <row r="385" spans="1:26" ht="19.5" customHeight="1">
+    <row r="385" ht="19.5" customHeight="1">
       <c r="A385" s="3"/>
       <c r="B385" s="3"/>
       <c r="C385" s="3"/>
@@ -11182,7 +11148,7 @@
       <c r="Y385" s="3"/>
       <c r="Z385" s="3"/>
     </row>
-    <row r="386" spans="1:26" ht="19.5" customHeight="1">
+    <row r="386" ht="19.5" customHeight="1">
       <c r="A386" s="3"/>
       <c r="B386" s="3"/>
       <c r="C386" s="3"/>
@@ -11210,7 +11176,7 @@
       <c r="Y386" s="3"/>
       <c r="Z386" s="3"/>
     </row>
-    <row r="387" spans="1:26" ht="19.5" customHeight="1">
+    <row r="387" ht="19.5" customHeight="1">
       <c r="A387" s="3"/>
       <c r="B387" s="3"/>
       <c r="C387" s="3"/>
@@ -11238,7 +11204,7 @@
       <c r="Y387" s="3"/>
       <c r="Z387" s="3"/>
     </row>
-    <row r="388" spans="1:26" ht="19.5" customHeight="1">
+    <row r="388" ht="19.5" customHeight="1">
       <c r="A388" s="3"/>
       <c r="B388" s="3"/>
       <c r="C388" s="3"/>
@@ -11266,7 +11232,7 @@
       <c r="Y388" s="3"/>
       <c r="Z388" s="3"/>
     </row>
-    <row r="389" spans="1:26" ht="19.5" customHeight="1">
+    <row r="389" ht="19.5" customHeight="1">
       <c r="A389" s="3"/>
       <c r="B389" s="3"/>
       <c r="C389" s="3"/>
@@ -11294,7 +11260,7 @@
       <c r="Y389" s="3"/>
       <c r="Z389" s="3"/>
     </row>
-    <row r="390" spans="1:26" ht="19.5" customHeight="1">
+    <row r="390" ht="19.5" customHeight="1">
       <c r="A390" s="3"/>
       <c r="B390" s="3"/>
       <c r="C390" s="3"/>
@@ -11322,7 +11288,7 @@
       <c r="Y390" s="3"/>
       <c r="Z390" s="3"/>
     </row>
-    <row r="391" spans="1:26" ht="19.5" customHeight="1">
+    <row r="391" ht="19.5" customHeight="1">
       <c r="A391" s="3"/>
       <c r="B391" s="3"/>
       <c r="C391" s="3"/>
@@ -11350,7 +11316,7 @@
       <c r="Y391" s="3"/>
       <c r="Z391" s="3"/>
     </row>
-    <row r="392" spans="1:26" ht="19.5" customHeight="1">
+    <row r="392" ht="19.5" customHeight="1">
       <c r="A392" s="3"/>
       <c r="B392" s="3"/>
       <c r="C392" s="3"/>
@@ -11378,7 +11344,7 @@
       <c r="Y392" s="3"/>
       <c r="Z392" s="3"/>
     </row>
-    <row r="393" spans="1:26" ht="19.5" customHeight="1">
+    <row r="393" ht="19.5" customHeight="1">
       <c r="A393" s="3"/>
       <c r="B393" s="3"/>
       <c r="C393" s="3"/>
@@ -11406,7 +11372,7 @@
       <c r="Y393" s="3"/>
       <c r="Z393" s="3"/>
     </row>
-    <row r="394" spans="1:26" ht="19.5" customHeight="1">
+    <row r="394" ht="19.5" customHeight="1">
       <c r="A394" s="3"/>
       <c r="B394" s="3"/>
       <c r="C394" s="3"/>
@@ -11434,7 +11400,7 @@
       <c r="Y394" s="3"/>
       <c r="Z394" s="3"/>
     </row>
-    <row r="395" spans="1:26" ht="19.5" customHeight="1">
+    <row r="395" ht="19.5" customHeight="1">
       <c r="A395" s="3"/>
       <c r="B395" s="3"/>
       <c r="C395" s="3"/>
@@ -11462,7 +11428,7 @@
       <c r="Y395" s="3"/>
       <c r="Z395" s="3"/>
     </row>
-    <row r="396" spans="1:26" ht="19.5" customHeight="1">
+    <row r="396" ht="19.5" customHeight="1">
       <c r="A396" s="3"/>
       <c r="B396" s="3"/>
       <c r="C396" s="3"/>
@@ -11490,7 +11456,7 @@
       <c r="Y396" s="3"/>
       <c r="Z396" s="3"/>
     </row>
-    <row r="397" spans="1:26" ht="19.5" customHeight="1">
+    <row r="397" ht="19.5" customHeight="1">
       <c r="A397" s="3"/>
       <c r="B397" s="3"/>
       <c r="C397" s="3"/>
@@ -11518,7 +11484,7 @@
       <c r="Y397" s="3"/>
       <c r="Z397" s="3"/>
     </row>
-    <row r="398" spans="1:26" ht="19.5" customHeight="1">
+    <row r="398" ht="19.5" customHeight="1">
       <c r="A398" s="3"/>
       <c r="B398" s="3"/>
       <c r="C398" s="3"/>
@@ -11546,7 +11512,7 @@
       <c r="Y398" s="3"/>
       <c r="Z398" s="3"/>
     </row>
-    <row r="399" spans="1:26" ht="19.5" customHeight="1">
+    <row r="399" ht="19.5" customHeight="1">
       <c r="A399" s="3"/>
       <c r="B399" s="3"/>
       <c r="C399" s="3"/>
@@ -11574,7 +11540,7 @@
       <c r="Y399" s="3"/>
       <c r="Z399" s="3"/>
     </row>
-    <row r="400" spans="1:26" ht="19.5" customHeight="1">
+    <row r="400" ht="19.5" customHeight="1">
       <c r="A400" s="3"/>
       <c r="B400" s="3"/>
       <c r="C400" s="3"/>
@@ -11602,7 +11568,7 @@
       <c r="Y400" s="3"/>
       <c r="Z400" s="3"/>
     </row>
-    <row r="401" spans="1:26" ht="19.5" customHeight="1">
+    <row r="401" ht="19.5" customHeight="1">
       <c r="A401" s="3"/>
       <c r="B401" s="3"/>
       <c r="C401" s="3"/>
@@ -11630,7 +11596,7 @@
       <c r="Y401" s="3"/>
       <c r="Z401" s="3"/>
     </row>
-    <row r="402" spans="1:26" ht="19.5" customHeight="1">
+    <row r="402" ht="19.5" customHeight="1">
       <c r="A402" s="3"/>
       <c r="B402" s="3"/>
       <c r="C402" s="3"/>
@@ -11658,7 +11624,7 @@
       <c r="Y402" s="3"/>
       <c r="Z402" s="3"/>
     </row>
-    <row r="403" spans="1:26" ht="19.5" customHeight="1">
+    <row r="403" ht="19.5" customHeight="1">
       <c r="A403" s="3"/>
       <c r="B403" s="3"/>
       <c r="C403" s="3"/>
@@ -11686,7 +11652,7 @@
       <c r="Y403" s="3"/>
       <c r="Z403" s="3"/>
     </row>
-    <row r="404" spans="1:26" ht="19.5" customHeight="1">
+    <row r="404" ht="19.5" customHeight="1">
       <c r="A404" s="3"/>
       <c r="B404" s="3"/>
       <c r="C404" s="3"/>
@@ -11714,7 +11680,7 @@
       <c r="Y404" s="3"/>
       <c r="Z404" s="3"/>
     </row>
-    <row r="405" spans="1:26" ht="19.5" customHeight="1">
+    <row r="405" ht="19.5" customHeight="1">
       <c r="A405" s="3"/>
       <c r="B405" s="3"/>
       <c r="C405" s="3"/>
@@ -11742,7 +11708,7 @@
       <c r="Y405" s="3"/>
       <c r="Z405" s="3"/>
     </row>
-    <row r="406" spans="1:26" ht="19.5" customHeight="1">
+    <row r="406" ht="19.5" customHeight="1">
       <c r="A406" s="3"/>
       <c r="B406" s="3"/>
       <c r="C406" s="3"/>
@@ -11770,7 +11736,7 @@
       <c r="Y406" s="3"/>
       <c r="Z406" s="3"/>
     </row>
-    <row r="407" spans="1:26" ht="19.5" customHeight="1">
+    <row r="407" ht="19.5" customHeight="1">
       <c r="A407" s="3"/>
       <c r="B407" s="3"/>
       <c r="C407" s="3"/>
@@ -11798,7 +11764,7 @@
       <c r="Y407" s="3"/>
       <c r="Z407" s="3"/>
     </row>
-    <row r="408" spans="1:26" ht="19.5" customHeight="1">
+    <row r="408" ht="19.5" customHeight="1">
       <c r="A408" s="3"/>
       <c r="B408" s="3"/>
       <c r="C408" s="3"/>
@@ -11826,7 +11792,7 @@
       <c r="Y408" s="3"/>
       <c r="Z408" s="3"/>
     </row>
-    <row r="409" spans="1:26" ht="19.5" customHeight="1">
+    <row r="409" ht="19.5" customHeight="1">
       <c r="A409" s="3"/>
       <c r="B409" s="3"/>
       <c r="C409" s="3"/>
@@ -11854,7 +11820,7 @@
       <c r="Y409" s="3"/>
       <c r="Z409" s="3"/>
     </row>
-    <row r="410" spans="1:26" ht="19.5" customHeight="1">
+    <row r="410" ht="19.5" customHeight="1">
       <c r="A410" s="3"/>
       <c r="B410" s="3"/>
       <c r="C410" s="3"/>
@@ -11882,7 +11848,7 @@
       <c r="Y410" s="3"/>
       <c r="Z410" s="3"/>
     </row>
-    <row r="411" spans="1:26" ht="19.5" customHeight="1">
+    <row r="411" ht="19.5" customHeight="1">
       <c r="A411" s="3"/>
       <c r="B411" s="3"/>
       <c r="C411" s="3"/>
@@ -11910,7 +11876,7 @@
       <c r="Y411" s="3"/>
       <c r="Z411" s="3"/>
     </row>
-    <row r="412" spans="1:26" ht="19.5" customHeight="1">
+    <row r="412" ht="19.5" customHeight="1">
       <c r="A412" s="3"/>
       <c r="B412" s="3"/>
       <c r="C412" s="3"/>
@@ -11938,7 +11904,7 @@
       <c r="Y412" s="3"/>
       <c r="Z412" s="3"/>
     </row>
-    <row r="413" spans="1:26" ht="19.5" customHeight="1">
+    <row r="413" ht="19.5" customHeight="1">
       <c r="A413" s="3"/>
       <c r="B413" s="3"/>
       <c r="C413" s="3"/>
@@ -11966,7 +11932,7 @@
       <c r="Y413" s="3"/>
       <c r="Z413" s="3"/>
     </row>
-    <row r="414" spans="1:26" ht="19.5" customHeight="1">
+    <row r="414" ht="19.5" customHeight="1">
       <c r="A414" s="3"/>
       <c r="B414" s="3"/>
       <c r="C414" s="3"/>
@@ -11994,7 +11960,7 @@
       <c r="Y414" s="3"/>
       <c r="Z414" s="3"/>
     </row>
-    <row r="415" spans="1:26" ht="19.5" customHeight="1">
+    <row r="415" ht="19.5" customHeight="1">
       <c r="A415" s="3"/>
       <c r="B415" s="3"/>
       <c r="C415" s="3"/>
@@ -12022,7 +11988,7 @@
       <c r="Y415" s="3"/>
       <c r="Z415" s="3"/>
     </row>
-    <row r="416" spans="1:26" ht="19.5" customHeight="1">
+    <row r="416" ht="19.5" customHeight="1">
       <c r="A416" s="3"/>
       <c r="B416" s="3"/>
       <c r="C416" s="3"/>
@@ -12050,7 +12016,7 @@
       <c r="Y416" s="3"/>
       <c r="Z416" s="3"/>
     </row>
-    <row r="417" spans="1:26" ht="19.5" customHeight="1">
+    <row r="417" ht="19.5" customHeight="1">
       <c r="A417" s="3"/>
       <c r="B417" s="3"/>
       <c r="C417" s="3"/>
@@ -12078,7 +12044,7 @@
       <c r="Y417" s="3"/>
       <c r="Z417" s="3"/>
     </row>
-    <row r="418" spans="1:26" ht="19.5" customHeight="1">
+    <row r="418" ht="19.5" customHeight="1">
       <c r="A418" s="3"/>
       <c r="B418" s="3"/>
       <c r="C418" s="3"/>
@@ -12106,7 +12072,7 @@
       <c r="Y418" s="3"/>
       <c r="Z418" s="3"/>
     </row>
-    <row r="419" spans="1:26" ht="19.5" customHeight="1">
+    <row r="419" ht="19.5" customHeight="1">
       <c r="A419" s="3"/>
       <c r="B419" s="3"/>
       <c r="C419" s="3"/>
@@ -12134,7 +12100,7 @@
       <c r="Y419" s="3"/>
       <c r="Z419" s="3"/>
     </row>
-    <row r="420" spans="1:26" ht="19.5" customHeight="1">
+    <row r="420" ht="19.5" customHeight="1">
       <c r="A420" s="3"/>
       <c r="B420" s="3"/>
       <c r="C420" s="3"/>
@@ -12162,7 +12128,7 @@
       <c r="Y420" s="3"/>
       <c r="Z420" s="3"/>
     </row>
-    <row r="421" spans="1:26" ht="19.5" customHeight="1">
+    <row r="421" ht="19.5" customHeight="1">
       <c r="A421" s="3"/>
       <c r="B421" s="3"/>
       <c r="C421" s="3"/>
@@ -12190,7 +12156,7 @@
       <c r="Y421" s="3"/>
       <c r="Z421" s="3"/>
     </row>
-    <row r="422" spans="1:26" ht="19.5" customHeight="1">
+    <row r="422" ht="19.5" customHeight="1">
       <c r="A422" s="3"/>
       <c r="B422" s="3"/>
       <c r="C422" s="3"/>
@@ -12218,7 +12184,7 @@
       <c r="Y422" s="3"/>
       <c r="Z422" s="3"/>
     </row>
-    <row r="423" spans="1:26" ht="19.5" customHeight="1">
+    <row r="423" ht="19.5" customHeight="1">
       <c r="A423" s="3"/>
       <c r="B423" s="3"/>
       <c r="C423" s="3"/>
@@ -12246,7 +12212,7 @@
       <c r="Y423" s="3"/>
       <c r="Z423" s="3"/>
     </row>
-    <row r="424" spans="1:26" ht="19.5" customHeight="1">
+    <row r="424" ht="19.5" customHeight="1">
       <c r="A424" s="3"/>
       <c r="B424" s="3"/>
       <c r="C424" s="3"/>
@@ -12274,7 +12240,7 @@
       <c r="Y424" s="3"/>
       <c r="Z424" s="3"/>
     </row>
-    <row r="425" spans="1:26" ht="19.5" customHeight="1">
+    <row r="425" ht="19.5" customHeight="1">
       <c r="A425" s="3"/>
       <c r="B425" s="3"/>
       <c r="C425" s="3"/>
@@ -12302,7 +12268,7 @@
       <c r="Y425" s="3"/>
       <c r="Z425" s="3"/>
     </row>
-    <row r="426" spans="1:26" ht="19.5" customHeight="1">
+    <row r="426" ht="19.5" customHeight="1">
       <c r="A426" s="3"/>
       <c r="B426" s="3"/>
       <c r="C426" s="3"/>
@@ -12330,7 +12296,7 @@
       <c r="Y426" s="3"/>
       <c r="Z426" s="3"/>
     </row>
-    <row r="427" spans="1:26" ht="19.5" customHeight="1">
+    <row r="427" ht="19.5" customHeight="1">
       <c r="A427" s="3"/>
       <c r="B427" s="3"/>
       <c r="C427" s="3"/>
@@ -12358,7 +12324,7 @@
       <c r="Y427" s="3"/>
       <c r="Z427" s="3"/>
     </row>
-    <row r="428" spans="1:26" ht="19.5" customHeight="1">
+    <row r="428" ht="19.5" customHeight="1">
       <c r="A428" s="3"/>
       <c r="B428" s="3"/>
       <c r="C428" s="3"/>
@@ -12386,7 +12352,7 @@
       <c r="Y428" s="3"/>
       <c r="Z428" s="3"/>
     </row>
-    <row r="429" spans="1:26" ht="19.5" customHeight="1">
+    <row r="429" ht="19.5" customHeight="1">
       <c r="A429" s="3"/>
       <c r="B429" s="3"/>
       <c r="C429" s="3"/>
@@ -12414,7 +12380,7 @@
       <c r="Y429" s="3"/>
       <c r="Z429" s="3"/>
     </row>
-    <row r="430" spans="1:26" ht="19.5" customHeight="1">
+    <row r="430" ht="19.5" customHeight="1">
       <c r="A430" s="3"/>
       <c r="B430" s="3"/>
       <c r="C430" s="3"/>
@@ -12442,7 +12408,7 @@
       <c r="Y430" s="3"/>
       <c r="Z430" s="3"/>
     </row>
-    <row r="431" spans="1:26" ht="19.5" customHeight="1">
+    <row r="431" ht="19.5" customHeight="1">
       <c r="A431" s="3"/>
       <c r="B431" s="3"/>
       <c r="C431" s="3"/>
@@ -12470,7 +12436,7 @@
       <c r="Y431" s="3"/>
       <c r="Z431" s="3"/>
     </row>
-    <row r="432" spans="1:26" ht="19.5" customHeight="1">
+    <row r="432" ht="19.5" customHeight="1">
       <c r="A432" s="3"/>
       <c r="B432" s="3"/>
       <c r="C432" s="3"/>
@@ -12498,7 +12464,7 @@
       <c r="Y432" s="3"/>
       <c r="Z432" s="3"/>
     </row>
-    <row r="433" spans="1:26" ht="19.5" customHeight="1">
+    <row r="433" ht="19.5" customHeight="1">
       <c r="A433" s="3"/>
       <c r="B433" s="3"/>
       <c r="C433" s="3"/>
@@ -12526,7 +12492,7 @@
       <c r="Y433" s="3"/>
       <c r="Z433" s="3"/>
     </row>
-    <row r="434" spans="1:26" ht="19.5" customHeight="1">
+    <row r="434" ht="19.5" customHeight="1">
       <c r="A434" s="3"/>
       <c r="B434" s="3"/>
       <c r="C434" s="3"/>
@@ -12554,7 +12520,7 @@
       <c r="Y434" s="3"/>
       <c r="Z434" s="3"/>
     </row>
-    <row r="435" spans="1:26" ht="19.5" customHeight="1">
+    <row r="435" ht="19.5" customHeight="1">
       <c r="A435" s="3"/>
       <c r="B435" s="3"/>
       <c r="C435" s="3"/>
@@ -12582,7 +12548,7 @@
       <c r="Y435" s="3"/>
       <c r="Z435" s="3"/>
     </row>
-    <row r="436" spans="1:26" ht="19.5" customHeight="1">
+    <row r="436" ht="19.5" customHeight="1">
       <c r="A436" s="3"/>
       <c r="B436" s="3"/>
       <c r="C436" s="3"/>
@@ -12610,7 +12576,7 @@
       <c r="Y436" s="3"/>
       <c r="Z436" s="3"/>
     </row>
-    <row r="437" spans="1:26" ht="19.5" customHeight="1">
+    <row r="437" ht="19.5" customHeight="1">
       <c r="A437" s="3"/>
       <c r="B437" s="3"/>
       <c r="C437" s="3"/>
@@ -12638,7 +12604,7 @@
       <c r="Y437" s="3"/>
       <c r="Z437" s="3"/>
     </row>
-    <row r="438" spans="1:26" ht="19.5" customHeight="1">
+    <row r="438" ht="19.5" customHeight="1">
       <c r="A438" s="3"/>
       <c r="B438" s="3"/>
       <c r="C438" s="3"/>
@@ -12666,7 +12632,7 @@
       <c r="Y438" s="3"/>
       <c r="Z438" s="3"/>
     </row>
-    <row r="439" spans="1:26" ht="19.5" customHeight="1">
+    <row r="439" ht="19.5" customHeight="1">
       <c r="A439" s="3"/>
       <c r="B439" s="3"/>
       <c r="C439" s="3"/>
@@ -12694,7 +12660,7 @@
       <c r="Y439" s="3"/>
       <c r="Z439" s="3"/>
     </row>
-    <row r="440" spans="1:26" ht="19.5" customHeight="1">
+    <row r="440" ht="19.5" customHeight="1">
       <c r="A440" s="3"/>
       <c r="B440" s="3"/>
       <c r="C440" s="3"/>
@@ -12722,7 +12688,7 @@
       <c r="Y440" s="3"/>
       <c r="Z440" s="3"/>
     </row>
-    <row r="441" spans="1:26" ht="19.5" customHeight="1">
+    <row r="441" ht="19.5" customHeight="1">
       <c r="A441" s="3"/>
       <c r="B441" s="3"/>
       <c r="C441" s="3"/>
@@ -12750,7 +12716,7 @@
       <c r="Y441" s="3"/>
       <c r="Z441" s="3"/>
     </row>
-    <row r="442" spans="1:26" ht="19.5" customHeight="1">
+    <row r="442" ht="19.5" customHeight="1">
       <c r="A442" s="3"/>
       <c r="B442" s="3"/>
       <c r="C442" s="3"/>
@@ -12778,7 +12744,7 @@
       <c r="Y442" s="3"/>
       <c r="Z442" s="3"/>
     </row>
-    <row r="443" spans="1:26" ht="19.5" customHeight="1">
+    <row r="443" ht="19.5" customHeight="1">
       <c r="A443" s="3"/>
       <c r="B443" s="3"/>
       <c r="C443" s="3"/>
@@ -12806,7 +12772,7 @@
       <c r="Y443" s="3"/>
       <c r="Z443" s="3"/>
     </row>
-    <row r="444" spans="1:26" ht="19.5" customHeight="1">
+    <row r="444" ht="19.5" customHeight="1">
       <c r="A444" s="3"/>
       <c r="B444" s="3"/>
       <c r="C444" s="3"/>
@@ -12834,7 +12800,7 @@
       <c r="Y444" s="3"/>
       <c r="Z444" s="3"/>
     </row>
-    <row r="445" spans="1:26" ht="19.5" customHeight="1">
+    <row r="445" ht="19.5" customHeight="1">
       <c r="A445" s="3"/>
       <c r="B445" s="3"/>
       <c r="C445" s="3"/>
@@ -12862,7 +12828,7 @@
       <c r="Y445" s="3"/>
       <c r="Z445" s="3"/>
     </row>
-    <row r="446" spans="1:26" ht="19.5" customHeight="1">
+    <row r="446" ht="19.5" customHeight="1">
       <c r="A446" s="3"/>
       <c r="B446" s="3"/>
       <c r="C446" s="3"/>
@@ -12890,7 +12856,7 @@
       <c r="Y446" s="3"/>
       <c r="Z446" s="3"/>
     </row>
-    <row r="447" spans="1:26" ht="19.5" customHeight="1">
+    <row r="447" ht="19.5" customHeight="1">
       <c r="A447" s="3"/>
       <c r="B447" s="3"/>
       <c r="C447" s="3"/>
@@ -12918,7 +12884,7 @@
       <c r="Y447" s="3"/>
       <c r="Z447" s="3"/>
     </row>
-    <row r="448" spans="1:26" ht="19.5" customHeight="1">
+    <row r="448" ht="19.5" customHeight="1">
       <c r="A448" s="3"/>
       <c r="B448" s="3"/>
       <c r="C448" s="3"/>
@@ -12946,7 +12912,7 @@
       <c r="Y448" s="3"/>
       <c r="Z448" s="3"/>
     </row>
-    <row r="449" spans="1:26" ht="19.5" customHeight="1">
+    <row r="449" ht="19.5" customHeight="1">
       <c r="A449" s="3"/>
       <c r="B449" s="3"/>
       <c r="C449" s="3"/>
@@ -12974,7 +12940,7 @@
       <c r="Y449" s="3"/>
       <c r="Z449" s="3"/>
     </row>
-    <row r="450" spans="1:26" ht="19.5" customHeight="1">
+    <row r="450" ht="19.5" customHeight="1">
       <c r="A450" s="3"/>
       <c r="B450" s="3"/>
       <c r="C450" s="3"/>
@@ -13002,7 +12968,7 @@
       <c r="Y450" s="3"/>
       <c r="Z450" s="3"/>
     </row>
-    <row r="451" spans="1:26" ht="19.5" customHeight="1">
+    <row r="451" ht="19.5" customHeight="1">
       <c r="A451" s="3"/>
       <c r="B451" s="3"/>
       <c r="C451" s="3"/>
@@ -13030,7 +12996,7 @@
       <c r="Y451" s="3"/>
       <c r="Z451" s="3"/>
     </row>
-    <row r="452" spans="1:26" ht="19.5" customHeight="1">
+    <row r="452" ht="19.5" customHeight="1">
       <c r="A452" s="3"/>
       <c r="B452" s="3"/>
       <c r="C452" s="3"/>
@@ -13058,7 +13024,7 @@
       <c r="Y452" s="3"/>
       <c r="Z452" s="3"/>
     </row>
-    <row r="453" spans="1:26" ht="19.5" customHeight="1">
+    <row r="453" ht="19.5" customHeight="1">
       <c r="A453" s="3"/>
       <c r="B453" s="3"/>
       <c r="C453" s="3"/>
@@ -13086,7 +13052,7 @@
       <c r="Y453" s="3"/>
       <c r="Z453" s="3"/>
     </row>
-    <row r="454" spans="1:26" ht="19.5" customHeight="1">
+    <row r="454" ht="19.5" customHeight="1">
       <c r="A454" s="3"/>
       <c r="B454" s="3"/>
       <c r="C454" s="3"/>
@@ -13114,7 +13080,7 @@
       <c r="Y454" s="3"/>
       <c r="Z454" s="3"/>
     </row>
-    <row r="455" spans="1:26" ht="19.5" customHeight="1">
+    <row r="455" ht="19.5" customHeight="1">
       <c r="A455" s="3"/>
       <c r="B455" s="3"/>
       <c r="C455" s="3"/>
@@ -13142,7 +13108,7 @@
       <c r="Y455" s="3"/>
       <c r="Z455" s="3"/>
     </row>
-    <row r="456" spans="1:26" ht="19.5" customHeight="1">
+    <row r="456" ht="19.5" customHeight="1">
       <c r="A456" s="3"/>
       <c r="B456" s="3"/>
       <c r="C456" s="3"/>
@@ -13170,7 +13136,7 @@
       <c r="Y456" s="3"/>
       <c r="Z456" s="3"/>
     </row>
-    <row r="457" spans="1:26" ht="19.5" customHeight="1">
+    <row r="457" ht="19.5" customHeight="1">
       <c r="A457" s="3"/>
       <c r="B457" s="3"/>
       <c r="C457" s="3"/>
@@ -13198,7 +13164,7 @@
       <c r="Y457" s="3"/>
       <c r="Z457" s="3"/>
     </row>
-    <row r="458" spans="1:26" ht="19.5" customHeight="1">
+    <row r="458" ht="19.5" customHeight="1">
       <c r="A458" s="3"/>
       <c r="B458" s="3"/>
       <c r="C458" s="3"/>
@@ -13226,7 +13192,7 @@
       <c r="Y458" s="3"/>
       <c r="Z458" s="3"/>
     </row>
-    <row r="459" spans="1:26" ht="19.5" customHeight="1">
+    <row r="459" ht="19.5" customHeight="1">
       <c r="A459" s="3"/>
       <c r="B459" s="3"/>
       <c r="C459" s="3"/>
@@ -13254,7 +13220,7 @@
       <c r="Y459" s="3"/>
       <c r="Z459" s="3"/>
     </row>
-    <row r="460" spans="1:26" ht="19.5" customHeight="1">
+    <row r="460" ht="19.5" customHeight="1">
       <c r="A460" s="3"/>
       <c r="B460" s="3"/>
       <c r="C460" s="3"/>
@@ -13282,7 +13248,7 @@
       <c r="Y460" s="3"/>
       <c r="Z460" s="3"/>
     </row>
-    <row r="461" spans="1:26" ht="19.5" customHeight="1">
+    <row r="461" ht="19.5" customHeight="1">
       <c r="A461" s="3"/>
       <c r="B461" s="3"/>
       <c r="C461" s="3"/>
@@ -13310,7 +13276,7 @@
       <c r="Y461" s="3"/>
       <c r="Z461" s="3"/>
     </row>
-    <row r="462" spans="1:26" ht="19.5" customHeight="1">
+    <row r="462" ht="19.5" customHeight="1">
       <c r="A462" s="3"/>
       <c r="B462" s="3"/>
       <c r="C462" s="3"/>
@@ -13338,7 +13304,7 @@
       <c r="Y462" s="3"/>
       <c r="Z462" s="3"/>
     </row>
-    <row r="463" spans="1:26" ht="19.5" customHeight="1">
+    <row r="463" ht="19.5" customHeight="1">
       <c r="A463" s="3"/>
       <c r="B463" s="3"/>
       <c r="C463" s="3"/>
@@ -13366,7 +13332,7 @@
       <c r="Y463" s="3"/>
       <c r="Z463" s="3"/>
     </row>
-    <row r="464" spans="1:26" ht="19.5" customHeight="1">
+    <row r="464" ht="19.5" customHeight="1">
       <c r="A464" s="3"/>
       <c r="B464" s="3"/>
       <c r="C464" s="3"/>
@@ -13394,7 +13360,7 @@
       <c r="Y464" s="3"/>
       <c r="Z464" s="3"/>
     </row>
-    <row r="465" spans="1:26" ht="19.5" customHeight="1">
+    <row r="465" ht="19.5" customHeight="1">
       <c r="A465" s="3"/>
       <c r="B465" s="3"/>
       <c r="C465" s="3"/>
@@ -13422,7 +13388,7 @@
       <c r="Y465" s="3"/>
       <c r="Z465" s="3"/>
     </row>
-    <row r="466" spans="1:26" ht="19.5" customHeight="1">
+    <row r="466" ht="19.5" customHeight="1">
       <c r="A466" s="3"/>
       <c r="B466" s="3"/>
       <c r="C466" s="3"/>
@@ -13450,7 +13416,7 @@
       <c r="Y466" s="3"/>
       <c r="Z466" s="3"/>
     </row>
-    <row r="467" spans="1:26" ht="19.5" customHeight="1">
+    <row r="467" ht="19.5" customHeight="1">
       <c r="A467" s="3"/>
       <c r="B467" s="3"/>
       <c r="C467" s="3"/>
@@ -13478,7 +13444,7 @@
       <c r="Y467" s="3"/>
       <c r="Z467" s="3"/>
     </row>
-    <row r="468" spans="1:26" ht="19.5" customHeight="1">
+    <row r="468" ht="19.5" customHeight="1">
       <c r="A468" s="3"/>
       <c r="B468" s="3"/>
       <c r="C468" s="3"/>
@@ -13506,7 +13472,7 @@
       <c r="Y468" s="3"/>
       <c r="Z468" s="3"/>
     </row>
-    <row r="469" spans="1:26" ht="19.5" customHeight="1">
+    <row r="469" ht="19.5" customHeight="1">
       <c r="A469" s="3"/>
       <c r="B469" s="3"/>
       <c r="C469" s="3"/>
@@ -13534,7 +13500,7 @@
       <c r="Y469" s="3"/>
       <c r="Z469" s="3"/>
     </row>
-    <row r="470" spans="1:26" ht="19.5" customHeight="1">
+    <row r="470" ht="19.5" customHeight="1">
       <c r="A470" s="3"/>
       <c r="B470" s="3"/>
       <c r="C470" s="3"/>
@@ -13562,7 +13528,7 @@
       <c r="Y470" s="3"/>
       <c r="Z470" s="3"/>
     </row>
-    <row r="471" spans="1:26" ht="19.5" customHeight="1">
+    <row r="471" ht="19.5" customHeight="1">
       <c r="A471" s="3"/>
       <c r="B471" s="3"/>
       <c r="C471" s="3"/>
@@ -13590,7 +13556,7 @@
       <c r="Y471" s="3"/>
       <c r="Z471" s="3"/>
     </row>
-    <row r="472" spans="1:26" ht="19.5" customHeight="1">
+    <row r="472" ht="19.5" customHeight="1">
       <c r="A472" s="3"/>
       <c r="B472" s="3"/>
       <c r="C472" s="3"/>
@@ -13618,7 +13584,7 @@
       <c r="Y472" s="3"/>
       <c r="Z472" s="3"/>
     </row>
-    <row r="473" spans="1:26" ht="19.5" customHeight="1">
+    <row r="473" ht="19.5" customHeight="1">
       <c r="A473" s="3"/>
       <c r="B473" s="3"/>
       <c r="C473" s="3"/>
@@ -13646,7 +13612,7 @@
       <c r="Y473" s="3"/>
       <c r="Z473" s="3"/>
     </row>
-    <row r="474" spans="1:26" ht="19.5" customHeight="1">
+    <row r="474" ht="19.5" customHeight="1">
       <c r="A474" s="3"/>
       <c r="B474" s="3"/>
       <c r="C474" s="3"/>
@@ -13674,7 +13640,7 @@
       <c r="Y474" s="3"/>
       <c r="Z474" s="3"/>
     </row>
-    <row r="475" spans="1:26" ht="19.5" customHeight="1">
+    <row r="475" ht="19.5" customHeight="1">
       <c r="A475" s="3"/>
       <c r="B475" s="3"/>
       <c r="C475" s="3"/>
@@ -13702,7 +13668,7 @@
       <c r="Y475" s="3"/>
       <c r="Z475" s="3"/>
     </row>
-    <row r="476" spans="1:26" ht="19.5" customHeight="1">
+    <row r="476" ht="19.5" customHeight="1">
       <c r="A476" s="3"/>
       <c r="B476" s="3"/>
       <c r="C476" s="3"/>
@@ -13730,7 +13696,7 @@
       <c r="Y476" s="3"/>
       <c r="Z476" s="3"/>
     </row>
-    <row r="477" spans="1:26" ht="19.5" customHeight="1">
+    <row r="477" ht="19.5" customHeight="1">
       <c r="A477" s="3"/>
       <c r="B477" s="3"/>
       <c r="C477" s="3"/>
@@ -13758,7 +13724,7 @@
       <c r="Y477" s="3"/>
       <c r="Z477" s="3"/>
     </row>
-    <row r="478" spans="1:26" ht="19.5" customHeight="1">
+    <row r="478" ht="19.5" customHeight="1">
       <c r="A478" s="3"/>
       <c r="B478" s="3"/>
       <c r="C478" s="3"/>
@@ -13786,7 +13752,7 @@
       <c r="Y478" s="3"/>
       <c r="Z478" s="3"/>
     </row>
-    <row r="479" spans="1:26" ht="19.5" customHeight="1">
+    <row r="479" ht="19.5" customHeight="1">
       <c r="A479" s="3"/>
       <c r="B479" s="3"/>
       <c r="C479" s="3"/>
@@ -13814,7 +13780,7 @@
       <c r="Y479" s="3"/>
       <c r="Z479" s="3"/>
     </row>
-    <row r="480" spans="1:26" ht="19.5" customHeight="1">
+    <row r="480" ht="19.5" customHeight="1">
       <c r="A480" s="3"/>
       <c r="B480" s="3"/>
       <c r="C480" s="3"/>
@@ -13842,7 +13808,7 @@
       <c r="Y480" s="3"/>
       <c r="Z480" s="3"/>
     </row>
-    <row r="481" spans="1:26" ht="19.5" customHeight="1">
+    <row r="481" ht="19.5" customHeight="1">
       <c r="A481" s="3"/>
       <c r="B481" s="3"/>
       <c r="C481" s="3"/>
@@ -13870,7 +13836,7 @@
       <c r="Y481" s="3"/>
       <c r="Z481" s="3"/>
     </row>
-    <row r="482" spans="1:26" ht="19.5" customHeight="1">
+    <row r="482" ht="19.5" customHeight="1">
       <c r="A482" s="3"/>
       <c r="B482" s="3"/>
       <c r="C482" s="3"/>
@@ -13898,7 +13864,7 @@
       <c r="Y482" s="3"/>
       <c r="Z482" s="3"/>
     </row>
-    <row r="483" spans="1:26" ht="19.5" customHeight="1">
+    <row r="483" ht="19.5" customHeight="1">
       <c r="A483" s="3"/>
       <c r="B483" s="3"/>
       <c r="C483" s="3"/>
@@ -13926,7 +13892,7 @@
       <c r="Y483" s="3"/>
       <c r="Z483" s="3"/>
     </row>
-    <row r="484" spans="1:26" ht="19.5" customHeight="1">
+    <row r="484" ht="19.5" customHeight="1">
       <c r="A484" s="3"/>
       <c r="B484" s="3"/>
       <c r="C484" s="3"/>
@@ -13954,7 +13920,7 @@
       <c r="Y484" s="3"/>
       <c r="Z484" s="3"/>
     </row>
-    <row r="485" spans="1:26" ht="19.5" customHeight="1">
+    <row r="485" ht="19.5" customHeight="1">
       <c r="A485" s="3"/>
       <c r="B485" s="3"/>
       <c r="C485" s="3"/>
@@ -13982,7 +13948,7 @@
       <c r="Y485" s="3"/>
       <c r="Z485" s="3"/>
     </row>
-    <row r="486" spans="1:26" ht="19.5" customHeight="1">
+    <row r="486" ht="19.5" customHeight="1">
       <c r="A486" s="3"/>
       <c r="B486" s="3"/>
       <c r="C486" s="3"/>
@@ -14010,7 +13976,7 @@
       <c r="Y486" s="3"/>
       <c r="Z486" s="3"/>
     </row>
-    <row r="487" spans="1:26" ht="19.5" customHeight="1">
+    <row r="487" ht="19.5" customHeight="1">
       <c r="A487" s="3"/>
       <c r="B487" s="3"/>
       <c r="C487" s="3"/>
@@ -14038,7 +14004,7 @@
       <c r="Y487" s="3"/>
       <c r="Z487" s="3"/>
     </row>
-    <row r="488" spans="1:26" ht="19.5" customHeight="1">
+    <row r="488" ht="19.5" customHeight="1">
       <c r="A488" s="3"/>
       <c r="B488" s="3"/>
       <c r="C488" s="3"/>
@@ -14066,7 +14032,7 @@
       <c r="Y488" s="3"/>
       <c r="Z488" s="3"/>
     </row>
-    <row r="489" spans="1:26" ht="19.5" customHeight="1">
+    <row r="489" ht="19.5" customHeight="1">
       <c r="A489" s="3"/>
       <c r="B489" s="3"/>
       <c r="C489" s="3"/>
@@ -14094,7 +14060,7 @@
       <c r="Y489" s="3"/>
       <c r="Z489" s="3"/>
     </row>
-    <row r="490" spans="1:26" ht="19.5" customHeight="1">
+    <row r="490" ht="19.5" customHeight="1">
       <c r="A490" s="3"/>
       <c r="B490" s="3"/>
       <c r="C490" s="3"/>
@@ -14122,7 +14088,7 @@
       <c r="Y490" s="3"/>
       <c r="Z490" s="3"/>
     </row>
-    <row r="491" spans="1:26" ht="19.5" customHeight="1">
+    <row r="491" ht="19.5" customHeight="1">
       <c r="A491" s="3"/>
       <c r="B491" s="3"/>
       <c r="C491" s="3"/>
@@ -14150,7 +14116,7 @@
       <c r="Y491" s="3"/>
       <c r="Z491" s="3"/>
     </row>
-    <row r="492" spans="1:26" ht="19.5" customHeight="1">
+    <row r="492" ht="19.5" customHeight="1">
       <c r="A492" s="3"/>
       <c r="B492" s="3"/>
       <c r="C492" s="3"/>
@@ -14178,7 +14144,7 @@
       <c r="Y492" s="3"/>
       <c r="Z492" s="3"/>
     </row>
-    <row r="493" spans="1:26" ht="19.5" customHeight="1">
+    <row r="493" ht="19.5" customHeight="1">
       <c r="A493" s="3"/>
       <c r="B493" s="3"/>
       <c r="C493" s="3"/>
@@ -14206,7 +14172,7 @@
       <c r="Y493" s="3"/>
       <c r="Z493" s="3"/>
     </row>
-    <row r="494" spans="1:26" ht="19.5" customHeight="1">
+    <row r="494" ht="19.5" customHeight="1">
       <c r="A494" s="3"/>
       <c r="B494" s="3"/>
       <c r="C494" s="3"/>
@@ -14234,7 +14200,7 @@
       <c r="Y494" s="3"/>
       <c r="Z494" s="3"/>
     </row>
-    <row r="495" spans="1:26" ht="19.5" customHeight="1">
+    <row r="495" ht="19.5" customHeight="1">
       <c r="A495" s="3"/>
       <c r="B495" s="3"/>
       <c r="C495" s="3"/>
@@ -14262,7 +14228,7 @@
       <c r="Y495" s="3"/>
       <c r="Z495" s="3"/>
     </row>
-    <row r="496" spans="1:26" ht="19.5" customHeight="1">
+    <row r="496" ht="19.5" customHeight="1">
       <c r="A496" s="3"/>
       <c r="B496" s="3"/>
       <c r="C496" s="3"/>
@@ -14290,7 +14256,7 @@
       <c r="Y496" s="3"/>
       <c r="Z496" s="3"/>
     </row>
-    <row r="497" spans="1:26" ht="19.5" customHeight="1">
+    <row r="497" ht="19.5" customHeight="1">
       <c r="A497" s="3"/>
       <c r="B497" s="3"/>
       <c r="C497" s="3"/>
@@ -14318,7 +14284,7 @@
       <c r="Y497" s="3"/>
       <c r="Z497" s="3"/>
     </row>
-    <row r="498" spans="1:26" ht="19.5" customHeight="1">
+    <row r="498" ht="19.5" customHeight="1">
       <c r="A498" s="3"/>
       <c r="B498" s="3"/>
       <c r="C498" s="3"/>
@@ -14346,7 +14312,7 @@
       <c r="Y498" s="3"/>
       <c r="Z498" s="3"/>
     </row>
-    <row r="499" spans="1:26" ht="19.5" customHeight="1">
+    <row r="499" ht="19.5" customHeight="1">
       <c r="A499" s="3"/>
       <c r="B499" s="3"/>
       <c r="C499" s="3"/>
@@ -14374,7 +14340,7 @@
       <c r="Y499" s="3"/>
       <c r="Z499" s="3"/>
     </row>
-    <row r="500" spans="1:26" ht="19.5" customHeight="1">
+    <row r="500" ht="19.5" customHeight="1">
       <c r="A500" s="3"/>
       <c r="B500" s="3"/>
       <c r="C500" s="3"/>
@@ -14402,7 +14368,7 @@
       <c r="Y500" s="3"/>
       <c r="Z500" s="3"/>
     </row>
-    <row r="501" spans="1:26" ht="19.5" customHeight="1">
+    <row r="501" ht="19.5" customHeight="1">
       <c r="A501" s="3"/>
       <c r="B501" s="3"/>
       <c r="C501" s="3"/>
@@ -14430,7 +14396,7 @@
       <c r="Y501" s="3"/>
       <c r="Z501" s="3"/>
     </row>
-    <row r="502" spans="1:26" ht="19.5" customHeight="1">
+    <row r="502" ht="19.5" customHeight="1">
       <c r="A502" s="3"/>
       <c r="B502" s="3"/>
       <c r="C502" s="3"/>
@@ -14458,7 +14424,7 @@
       <c r="Y502" s="3"/>
       <c r="Z502" s="3"/>
     </row>
-    <row r="503" spans="1:26" ht="19.5" customHeight="1">
+    <row r="503" ht="19.5" customHeight="1">
       <c r="A503" s="3"/>
       <c r="B503" s="3"/>
       <c r="C503" s="3"/>
@@ -14486,7 +14452,7 @@
       <c r="Y503" s="3"/>
       <c r="Z503" s="3"/>
     </row>
-    <row r="504" spans="1:26" ht="19.5" customHeight="1">
+    <row r="504" ht="19.5" customHeight="1">
       <c r="A504" s="3"/>
       <c r="B504" s="3"/>
       <c r="C504" s="3"/>
@@ -14514,7 +14480,7 @@
       <c r="Y504" s="3"/>
       <c r="Z504" s="3"/>
     </row>
-    <row r="505" spans="1:26" ht="19.5" customHeight="1">
+    <row r="505" ht="19.5" customHeight="1">
       <c r="A505" s="3"/>
       <c r="B505" s="3"/>
       <c r="C505" s="3"/>
@@ -14542,7 +14508,7 @@
       <c r="Y505" s="3"/>
       <c r="Z505" s="3"/>
     </row>
-    <row r="506" spans="1:26" ht="19.5" customHeight="1">
+    <row r="506" ht="19.5" customHeight="1">
       <c r="A506" s="3"/>
       <c r="B506" s="3"/>
       <c r="C506" s="3"/>
@@ -14570,7 +14536,7 @@
       <c r="Y506" s="3"/>
       <c r="Z506" s="3"/>
     </row>
-    <row r="507" spans="1:26" ht="19.5" customHeight="1">
+    <row r="507" ht="19.5" customHeight="1">
       <c r="A507" s="3"/>
       <c r="B507" s="3"/>
       <c r="C507" s="3"/>
@@ -14598,7 +14564,7 @@
       <c r="Y507" s="3"/>
       <c r="Z507" s="3"/>
     </row>
-    <row r="508" spans="1:26" ht="19.5" customHeight="1">
+    <row r="508" ht="19.5" customHeight="1">
       <c r="A508" s="3"/>
       <c r="B508" s="3"/>
       <c r="C508" s="3"/>
@@ -14626,7 +14592,7 @@
       <c r="Y508" s="3"/>
       <c r="Z508" s="3"/>
     </row>
-    <row r="509" spans="1:26" ht="19.5" customHeight="1">
+    <row r="509" ht="19.5" customHeight="1">
       <c r="A509" s="3"/>
       <c r="B509" s="3"/>
       <c r="C509" s="3"/>
@@ -14654,7 +14620,7 @@
       <c r="Y509" s="3"/>
       <c r="Z509" s="3"/>
     </row>
-    <row r="510" spans="1:26" ht="19.5" customHeight="1">
+    <row r="510" ht="19.5" customHeight="1">
       <c r="A510" s="3"/>
       <c r="B510" s="3"/>
       <c r="C510" s="3"/>
@@ -14682,7 +14648,7 @@
       <c r="Y510" s="3"/>
       <c r="Z510" s="3"/>
     </row>
-    <row r="511" spans="1:26" ht="19.5" customHeight="1">
+    <row r="511" ht="19.5" customHeight="1">
       <c r="A511" s="3"/>
       <c r="B511" s="3"/>
       <c r="C511" s="3"/>
@@ -14710,7 +14676,7 @@
       <c r="Y511" s="3"/>
       <c r="Z511" s="3"/>
     </row>
-    <row r="512" spans="1:26" ht="19.5" customHeight="1">
+    <row r="512" ht="19.5" customHeight="1">
       <c r="A512" s="3"/>
       <c r="B512" s="3"/>
       <c r="C512" s="3"/>
@@ -14738,7 +14704,7 @@
       <c r="Y512" s="3"/>
       <c r="Z512" s="3"/>
     </row>
-    <row r="513" spans="1:26" ht="19.5" customHeight="1">
+    <row r="513" ht="19.5" customHeight="1">
       <c r="A513" s="3"/>
       <c r="B513" s="3"/>
       <c r="C513" s="3"/>
@@ -14766,7 +14732,7 @@
       <c r="Y513" s="3"/>
       <c r="Z513" s="3"/>
     </row>
-    <row r="514" spans="1:26" ht="19.5" customHeight="1">
+    <row r="514" ht="19.5" customHeight="1">
       <c r="A514" s="3"/>
       <c r="B514" s="3"/>
       <c r="C514" s="3"/>
@@ -14794,7 +14760,7 @@
       <c r="Y514" s="3"/>
       <c r="Z514" s="3"/>
     </row>
-    <row r="515" spans="1:26" ht="19.5" customHeight="1">
+    <row r="515" ht="19.5" customHeight="1">
       <c r="A515" s="3"/>
       <c r="B515" s="3"/>
       <c r="C515" s="3"/>
@@ -14822,7 +14788,7 @@
       <c r="Y515" s="3"/>
       <c r="Z515" s="3"/>
     </row>
-    <row r="516" spans="1:26" ht="19.5" customHeight="1">
+    <row r="516" ht="19.5" customHeight="1">
       <c r="A516" s="3"/>
       <c r="B516" s="3"/>
       <c r="C516" s="3"/>
@@ -14850,7 +14816,7 @@
       <c r="Y516" s="3"/>
       <c r="Z516" s="3"/>
     </row>
-    <row r="517" spans="1:26" ht="19.5" customHeight="1">
+    <row r="517" ht="19.5" customHeight="1">
       <c r="A517" s="3"/>
       <c r="B517" s="3"/>
       <c r="C517" s="3"/>
@@ -14878,7 +14844,7 @@
       <c r="Y517" s="3"/>
       <c r="Z517" s="3"/>
     </row>
-    <row r="518" spans="1:26" ht="19.5" customHeight="1">
+    <row r="518" ht="19.5" customHeight="1">
       <c r="A518" s="3"/>
       <c r="B518" s="3"/>
       <c r="C518" s="3"/>
@@ -14906,7 +14872,7 @@
       <c r="Y518" s="3"/>
       <c r="Z518" s="3"/>
     </row>
-    <row r="519" spans="1:26" ht="19.5" customHeight="1">
+    <row r="519" ht="19.5" customHeight="1">
       <c r="A519" s="3"/>
       <c r="B519" s="3"/>
       <c r="C519" s="3"/>
@@ -14934,7 +14900,7 @@
       <c r="Y519" s="3"/>
       <c r="Z519" s="3"/>
     </row>
-    <row r="520" spans="1:26" ht="19.5" customHeight="1">
+    <row r="520" ht="19.5" customHeight="1">
       <c r="A520" s="3"/>
       <c r="B520" s="3"/>
       <c r="C520" s="3"/>
@@ -14962,7 +14928,7 @@
       <c r="Y520" s="3"/>
       <c r="Z520" s="3"/>
     </row>
-    <row r="521" spans="1:26" ht="19.5" customHeight="1">
+    <row r="521" ht="19.5" customHeight="1">
       <c r="A521" s="3"/>
       <c r="B521" s="3"/>
       <c r="C521" s="3"/>
@@ -14990,7 +14956,7 @@
       <c r="Y521" s="3"/>
       <c r="Z521" s="3"/>
     </row>
-    <row r="522" spans="1:26" ht="19.5" customHeight="1">
+    <row r="522" ht="19.5" customHeight="1">
       <c r="A522" s="3"/>
       <c r="B522" s="3"/>
       <c r="C522" s="3"/>
@@ -15018,7 +14984,7 @@
       <c r="Y522" s="3"/>
       <c r="Z522" s="3"/>
     </row>
-    <row r="523" spans="1:26" ht="19.5" customHeight="1">
+    <row r="523" ht="19.5" customHeight="1">
       <c r="A523" s="3"/>
       <c r="B523" s="3"/>
       <c r="C523" s="3"/>
@@ -15046,7 +15012,7 @@
       <c r="Y523" s="3"/>
       <c r="Z523" s="3"/>
     </row>
-    <row r="524" spans="1:26" ht="19.5" customHeight="1">
+    <row r="524" ht="19.5" customHeight="1">
       <c r="A524" s="3"/>
       <c r="B524" s="3"/>
       <c r="C524" s="3"/>
@@ -15074,7 +15040,7 @@
       <c r="Y524" s="3"/>
       <c r="Z524" s="3"/>
     </row>
-    <row r="525" spans="1:26" ht="19.5" customHeight="1">
+    <row r="525" ht="19.5" customHeight="1">
       <c r="A525" s="3"/>
       <c r="B525" s="3"/>
       <c r="C525" s="3"/>
@@ -15102,7 +15068,7 @@
       <c r="Y525" s="3"/>
       <c r="Z525" s="3"/>
     </row>
-    <row r="526" spans="1:26" ht="19.5" customHeight="1">
+    <row r="526" ht="19.5" customHeight="1">
       <c r="A526" s="3"/>
       <c r="B526" s="3"/>
       <c r="C526" s="3"/>
@@ -15130,7 +15096,7 @@
       <c r="Y526" s="3"/>
       <c r="Z526" s="3"/>
     </row>
-    <row r="527" spans="1:26" ht="19.5" customHeight="1">
+    <row r="527" ht="19.5" customHeight="1">
       <c r="A527" s="3"/>
       <c r="B527" s="3"/>
       <c r="C527" s="3"/>
@@ -15158,7 +15124,7 @@
       <c r="Y527" s="3"/>
       <c r="Z527" s="3"/>
     </row>
-    <row r="528" spans="1:26" ht="19.5" customHeight="1">
+    <row r="528" ht="19.5" customHeight="1">
       <c r="A528" s="3"/>
       <c r="B528" s="3"/>
       <c r="C528" s="3"/>
@@ -15186,7 +15152,7 @@
       <c r="Y528" s="3"/>
       <c r="Z528" s="3"/>
     </row>
-    <row r="529" spans="1:26" ht="19.5" customHeight="1">
+    <row r="529" ht="19.5" customHeight="1">
       <c r="A529" s="3"/>
       <c r="B529" s="3"/>
       <c r="C529" s="3"/>
@@ -15214,7 +15180,7 @@
       <c r="Y529" s="3"/>
       <c r="Z529" s="3"/>
     </row>
-    <row r="530" spans="1:26" ht="19.5" customHeight="1">
+    <row r="530" ht="19.5" customHeight="1">
       <c r="A530" s="3"/>
       <c r="B530" s="3"/>
       <c r="C530" s="3"/>
@@ -15242,7 +15208,7 @@
       <c r="Y530" s="3"/>
       <c r="Z530" s="3"/>
     </row>
-    <row r="531" spans="1:26" ht="19.5" customHeight="1">
+    <row r="531" ht="19.5" customHeight="1">
       <c r="A531" s="3"/>
       <c r="B531" s="3"/>
       <c r="C531" s="3"/>
@@ -15270,7 +15236,7 @@
       <c r="Y531" s="3"/>
       <c r="Z531" s="3"/>
     </row>
-    <row r="532" spans="1:26" ht="19.5" customHeight="1">
+    <row r="532" ht="19.5" customHeight="1">
       <c r="A532" s="3"/>
       <c r="B532" s="3"/>
       <c r="C532" s="3"/>
@@ -15298,7 +15264,7 @@
       <c r="Y532" s="3"/>
       <c r="Z532" s="3"/>
     </row>
-    <row r="533" spans="1:26" ht="19.5" customHeight="1">
+    <row r="533" ht="19.5" customHeight="1">
       <c r="A533" s="3"/>
       <c r="B533" s="3"/>
       <c r="C533" s="3"/>
@@ -15326,7 +15292,7 @@
       <c r="Y533" s="3"/>
       <c r="Z533" s="3"/>
     </row>
-    <row r="534" spans="1:26" ht="19.5" customHeight="1">
+    <row r="534" ht="19.5" customHeight="1">
       <c r="A534" s="3"/>
       <c r="B534" s="3"/>
       <c r="C534" s="3"/>
@@ -15354,7 +15320,7 @@
       <c r="Y534" s="3"/>
       <c r="Z534" s="3"/>
     </row>
-    <row r="535" spans="1:26" ht="19.5" customHeight="1">
+    <row r="535" ht="19.5" customHeight="1">
       <c r="A535" s="3"/>
       <c r="B535" s="3"/>
       <c r="C535" s="3"/>
@@ -15382,7 +15348,7 @@
       <c r="Y535" s="3"/>
       <c r="Z535" s="3"/>
     </row>
-    <row r="536" spans="1:26" ht="19.5" customHeight="1">
+    <row r="536" ht="19.5" customHeight="1">
       <c r="A536" s="3"/>
       <c r="B536" s="3"/>
       <c r="C536" s="3"/>
@@ -15410,7 +15376,7 @@
       <c r="Y536" s="3"/>
       <c r="Z536" s="3"/>
     </row>
-    <row r="537" spans="1:26" ht="19.5" customHeight="1">
+    <row r="537" ht="19.5" customHeight="1">
       <c r="A537" s="3"/>
       <c r="B537" s="3"/>
       <c r="C537" s="3"/>
@@ -15438,7 +15404,7 @@
       <c r="Y537" s="3"/>
       <c r="Z537" s="3"/>
     </row>
-    <row r="538" spans="1:26" ht="19.5" customHeight="1">
+    <row r="538" ht="19.5" customHeight="1">
       <c r="A538" s="3"/>
       <c r="B538" s="3"/>
       <c r="C538" s="3"/>
@@ -15466,7 +15432,7 @@
       <c r="Y538" s="3"/>
       <c r="Z538" s="3"/>
     </row>
-    <row r="539" spans="1:26" ht="19.5" customHeight="1">
+    <row r="539" ht="19.5" customHeight="1">
       <c r="A539" s="3"/>
       <c r="B539" s="3"/>
       <c r="C539" s="3"/>
@@ -15494,7 +15460,7 @@
       <c r="Y539" s="3"/>
       <c r="Z539" s="3"/>
     </row>
-    <row r="540" spans="1:26" ht="19.5" customHeight="1">
+    <row r="540" ht="19.5" customHeight="1">
       <c r="A540" s="3"/>
       <c r="B540" s="3"/>
       <c r="C540" s="3"/>
@@ -15522,7 +15488,7 @@
       <c r="Y540" s="3"/>
       <c r="Z540" s="3"/>
     </row>
-    <row r="541" spans="1:26" ht="19.5" customHeight="1">
+    <row r="541" ht="19.5" customHeight="1">
       <c r="A541" s="3"/>
       <c r="B541" s="3"/>
       <c r="C541" s="3"/>
@@ -15550,7 +15516,7 @@
       <c r="Y541" s="3"/>
       <c r="Z541" s="3"/>
     </row>
-    <row r="542" spans="1:26" ht="19.5" customHeight="1">
+    <row r="542" ht="19.5" customHeight="1">
       <c r="A542" s="3"/>
       <c r="B542" s="3"/>
       <c r="C542" s="3"/>
@@ -15578,7 +15544,7 @@
       <c r="Y542" s="3"/>
       <c r="Z542" s="3"/>
     </row>
-    <row r="543" spans="1:26" ht="19.5" customHeight="1">
+    <row r="543" ht="19.5" customHeight="1">
       <c r="A543" s="3"/>
       <c r="B543" s="3"/>
       <c r="C543" s="3"/>
@@ -15606,7 +15572,7 @@
       <c r="Y543" s="3"/>
       <c r="Z543" s="3"/>
     </row>
-    <row r="544" spans="1:26" ht="19.5" customHeight="1">
+    <row r="544" ht="19.5" customHeight="1">
       <c r="A544" s="3"/>
       <c r="B544" s="3"/>
       <c r="C544" s="3"/>
@@ -15634,7 +15600,7 @@
       <c r="Y544" s="3"/>
       <c r="Z544" s="3"/>
     </row>
-    <row r="545" spans="1:26" ht="19.5" customHeight="1">
+    <row r="545" ht="19.5" customHeight="1">
       <c r="A545" s="3"/>
       <c r="B545" s="3"/>
       <c r="C545" s="3"/>
@@ -15662,7 +15628,7 @@
       <c r="Y545" s="3"/>
       <c r="Z545" s="3"/>
     </row>
-    <row r="546" spans="1:26" ht="19.5" customHeight="1">
+    <row r="546" ht="19.5" customHeight="1">
       <c r="A546" s="3"/>
       <c r="B546" s="3"/>
       <c r="C546" s="3"/>
@@ -15690,7 +15656,7 @@
       <c r="Y546" s="3"/>
       <c r="Z546" s="3"/>
     </row>
-    <row r="547" spans="1:26" ht="19.5" customHeight="1">
+    <row r="547" ht="19.5" customHeight="1">
       <c r="A547" s="3"/>
       <c r="B547" s="3"/>
       <c r="C547" s="3"/>
@@ -15718,7 +15684,7 @@
       <c r="Y547" s="3"/>
       <c r="Z547" s="3"/>
     </row>
-    <row r="548" spans="1:26" ht="19.5" customHeight="1">
+    <row r="548" ht="19.5" customHeight="1">
       <c r="A548" s="3"/>
       <c r="B548" s="3"/>
       <c r="C548" s="3"/>
@@ -15746,7 +15712,7 @@
       <c r="Y548" s="3"/>
       <c r="Z548" s="3"/>
     </row>
-    <row r="549" spans="1:26" ht="19.5" customHeight="1">
+    <row r="549" ht="19.5" customHeight="1">
       <c r="A549" s="3"/>
       <c r="B549" s="3"/>
       <c r="C549" s="3"/>
@@ -15774,7 +15740,7 @@
       <c r="Y549" s="3"/>
       <c r="Z549" s="3"/>
     </row>
-    <row r="550" spans="1:26" ht="19.5" customHeight="1">
+    <row r="550" ht="19.5" customHeight="1">
       <c r="A550" s="3"/>
       <c r="B550" s="3"/>
       <c r="C550" s="3"/>
@@ -15802,7 +15768,7 @@
       <c r="Y550" s="3"/>
       <c r="Z550" s="3"/>
     </row>
-    <row r="551" spans="1:26" ht="19.5" customHeight="1">
+    <row r="551" ht="19.5" customHeight="1">
       <c r="A551" s="3"/>
       <c r="B551" s="3"/>
       <c r="C551" s="3"/>
@@ -15830,7 +15796,7 @@
       <c r="Y551" s="3"/>
       <c r="Z551" s="3"/>
     </row>
-    <row r="552" spans="1:26" ht="19.5" customHeight="1">
+    <row r="552" ht="19.5" customHeight="1">
       <c r="A552" s="3"/>
       <c r="B552" s="3"/>
       <c r="C552" s="3"/>
@@ -15858,7 +15824,7 @@
       <c r="Y552" s="3"/>
       <c r="Z552" s="3"/>
     </row>
-    <row r="553" spans="1:26" ht="19.5" customHeight="1">
+    <row r="553" ht="19.5" customHeight="1">
       <c r="A553" s="3"/>
       <c r="B553" s="3"/>
       <c r="C553" s="3"/>
@@ -15886,7 +15852,7 @@
       <c r="Y553" s="3"/>
       <c r="Z553" s="3"/>
     </row>
-    <row r="554" spans="1:26" ht="19.5" customHeight="1">
+    <row r="554" ht="19.5" customHeight="1">
       <c r="A554" s="3"/>
       <c r="B554" s="3"/>
       <c r="C554" s="3"/>
@@ -15914,7 +15880,7 @@
       <c r="Y554" s="3"/>
       <c r="Z554" s="3"/>
     </row>
-    <row r="555" spans="1:26" ht="19.5" customHeight="1">
+    <row r="555" ht="19.5" customHeight="1">
       <c r="A555" s="3"/>
       <c r="B555" s="3"/>
       <c r="C555" s="3"/>
@@ -15942,7 +15908,7 @@
       <c r="Y555" s="3"/>
       <c r="Z555" s="3"/>
     </row>
-    <row r="556" spans="1:26" ht="19.5" customHeight="1">
+    <row r="556" ht="19.5" customHeight="1">
       <c r="A556" s="3"/>
       <c r="B556" s="3"/>
       <c r="C556" s="3"/>
@@ -15970,7 +15936,7 @@
       <c r="Y556" s="3"/>
       <c r="Z556" s="3"/>
     </row>
-    <row r="557" spans="1:26" ht="19.5" customHeight="1">
+    <row r="557" ht="19.5" customHeight="1">
       <c r="A557" s="3"/>
       <c r="B557" s="3"/>
       <c r="C557" s="3"/>
@@ -15998,7 +15964,7 @@
       <c r="Y557" s="3"/>
       <c r="Z557" s="3"/>
     </row>
-    <row r="558" spans="1:26" ht="19.5" customHeight="1">
+    <row r="558" ht="19.5" customHeight="1">
       <c r="A558" s="3"/>
       <c r="B558" s="3"/>
       <c r="C558" s="3"/>
@@ -16026,7 +15992,7 @@
       <c r="Y558" s="3"/>
       <c r="Z558" s="3"/>
     </row>
-    <row r="559" spans="1:26" ht="19.5" customHeight="1">
+    <row r="559" ht="19.5" customHeight="1">
       <c r="A559" s="3"/>
       <c r="B559" s="3"/>
       <c r="C559" s="3"/>
@@ -16054,7 +16020,7 @@
       <c r="Y559" s="3"/>
       <c r="Z559" s="3"/>
     </row>
-    <row r="560" spans="1:26" ht="19.5" customHeight="1">
+    <row r="560" ht="19.5" customHeight="1">
       <c r="A560" s="3"/>
       <c r="B560" s="3"/>
       <c r="C560" s="3"/>
@@ -16082,7 +16048,7 @@
       <c r="Y560" s="3"/>
       <c r="Z560" s="3"/>
     </row>
-    <row r="561" spans="1:26" ht="19.5" customHeight="1">
+    <row r="561" ht="19.5" customHeight="1">
       <c r="A561" s="3"/>
       <c r="B561" s="3"/>
       <c r="C561" s="3"/>
@@ -16110,7 +16076,7 @@
       <c r="Y561" s="3"/>
       <c r="Z561" s="3"/>
     </row>
-    <row r="562" spans="1:26" ht="19.5" customHeight="1">
+    <row r="562" ht="19.5" customHeight="1">
       <c r="A562" s="3"/>
       <c r="B562" s="3"/>
       <c r="C562" s="3"/>
@@ -16138,7 +16104,7 @@
       <c r="Y562" s="3"/>
       <c r="Z562" s="3"/>
     </row>
-    <row r="563" spans="1:26" ht="19.5" customHeight="1">
+    <row r="563" ht="19.5" customHeight="1">
       <c r="A563" s="3"/>
       <c r="B563" s="3"/>
       <c r="C563" s="3"/>
@@ -16166,7 +16132,7 @@
       <c r="Y563" s="3"/>
       <c r="Z563" s="3"/>
     </row>
-    <row r="564" spans="1:26" ht="19.5" customHeight="1">
+    <row r="564" ht="19.5" customHeight="1">
       <c r="A564" s="3"/>
       <c r="B564" s="3"/>
       <c r="C564" s="3"/>
@@ -16194,7 +16160,7 @@
       <c r="Y564" s="3"/>
       <c r="Z564" s="3"/>
     </row>
-    <row r="565" spans="1:26" ht="19.5" customHeight="1">
+    <row r="565" ht="19.5" customHeight="1">
       <c r="A565" s="3"/>
       <c r="B565" s="3"/>
       <c r="C565" s="3"/>
@@ -16222,7 +16188,7 @@
       <c r="Y565" s="3"/>
       <c r="Z565" s="3"/>
     </row>
-    <row r="566" spans="1:26" ht="19.5" customHeight="1">
+    <row r="566" ht="19.5" customHeight="1">
       <c r="A566" s="3"/>
       <c r="B566" s="3"/>
       <c r="C566" s="3"/>
@@ -16250,7 +16216,7 @@
       <c r="Y566" s="3"/>
       <c r="Z566" s="3"/>
     </row>
-    <row r="567" spans="1:26" ht="19.5" customHeight="1">
+    <row r="567" ht="19.5" customHeight="1">
       <c r="A567" s="3"/>
       <c r="B567" s="3"/>
       <c r="C567" s="3"/>
@@ -16278,7 +16244,7 @@
       <c r="Y567" s="3"/>
       <c r="Z567" s="3"/>
     </row>
-    <row r="568" spans="1:26" ht="19.5" customHeight="1">
+    <row r="568" ht="19.5" customHeight="1">
       <c r="A568" s="3"/>
       <c r="B568" s="3"/>
       <c r="C568" s="3"/>
@@ -16306,7 +16272,7 @@
       <c r="Y568" s="3"/>
       <c r="Z568" s="3"/>
     </row>
-    <row r="569" spans="1:26" ht="19.5" customHeight="1">
+    <row r="569" ht="19.5" customHeight="1">
       <c r="A569" s="3"/>
       <c r="B569" s="3"/>
       <c r="C569" s="3"/>
@@ -16334,7 +16300,7 @@
       <c r="Y569" s="3"/>
       <c r="Z569" s="3"/>
     </row>
-    <row r="570" spans="1:26" ht="19.5" customHeight="1">
+    <row r="570" ht="19.5" customHeight="1">
       <c r="A570" s="3"/>
       <c r="B570" s="3"/>
       <c r="C570" s="3"/>
@@ -16362,7 +16328,7 @@
       <c r="Y570" s="3"/>
       <c r="Z570" s="3"/>
     </row>
-    <row r="571" spans="1:26" ht="19.5" customHeight="1">
+    <row r="571" ht="19.5" customHeight="1">
       <c r="A571" s="3"/>
       <c r="B571" s="3"/>
       <c r="C571" s="3"/>
@@ -16390,7 +16356,7 @@
       <c r="Y571" s="3"/>
       <c r="Z571" s="3"/>
     </row>
-    <row r="572" spans="1:26" ht="19.5" customHeight="1">
+    <row r="572" ht="19.5" customHeight="1">
       <c r="A572" s="3"/>
       <c r="B572" s="3"/>
       <c r="C572" s="3"/>
@@ -16418,7 +16384,7 @@
       <c r="Y572" s="3"/>
       <c r="Z572" s="3"/>
     </row>
-    <row r="573" spans="1:26" ht="19.5" customHeight="1">
+    <row r="573" ht="19.5" customHeight="1">
       <c r="A573" s="3"/>
       <c r="B573" s="3"/>
       <c r="C573" s="3"/>
@@ -16446,7 +16412,7 @@
       <c r="Y573" s="3"/>
       <c r="Z573" s="3"/>
     </row>
-    <row r="574" spans="1:26" ht="19.5" customHeight="1">
+    <row r="574" ht="19.5" customHeight="1">
       <c r="A574" s="3"/>
       <c r="B574" s="3"/>
       <c r="C574" s="3"/>
@@ -16474,7 +16440,7 @@
       <c r="Y574" s="3"/>
       <c r="Z574" s="3"/>
     </row>
-    <row r="575" spans="1:26" ht="19.5" customHeight="1">
+    <row r="575" ht="19.5" customHeight="1">
       <c r="A575" s="3"/>
       <c r="B575" s="3"/>
       <c r="C575" s="3"/>
@@ -16502,7 +16468,7 @@
       <c r="Y575" s="3"/>
       <c r="Z575" s="3"/>
     </row>
-    <row r="576" spans="1:26" ht="19.5" customHeight="1">
+    <row r="576" ht="19.5" customHeight="1">
       <c r="A576" s="3"/>
       <c r="B576" s="3"/>
       <c r="C576" s="3"/>
@@ -16530,7 +16496,7 @@
       <c r="Y576" s="3"/>
       <c r="Z576" s="3"/>
     </row>
-    <row r="577" spans="1:26" ht="19.5" customHeight="1">
+    <row r="577" ht="19.5" customHeight="1">
       <c r="A577" s="3"/>
       <c r="B577" s="3"/>
       <c r="C577" s="3"/>
@@ -16558,7 +16524,7 @@
       <c r="Y577" s="3"/>
       <c r="Z577" s="3"/>
     </row>
-    <row r="578" spans="1:26" ht="19.5" customHeight="1">
+    <row r="578" ht="19.5" customHeight="1">
       <c r="A578" s="3"/>
       <c r="B578" s="3"/>
       <c r="C578" s="3"/>
@@ -16586,7 +16552,7 @@
       <c r="Y578" s="3"/>
       <c r="Z578" s="3"/>
     </row>
-    <row r="579" spans="1:26" ht="19.5" customHeight="1">
+    <row r="579" ht="19.5" customHeight="1">
       <c r="A579" s="3"/>
       <c r="B579" s="3"/>
       <c r="C579" s="3"/>
@@ -16614,7 +16580,7 @@
       <c r="Y579" s="3"/>
       <c r="Z579" s="3"/>
     </row>
-    <row r="580" spans="1:26" ht="19.5" customHeight="1">
+    <row r="580" ht="19.5" customHeight="1">
       <c r="A580" s="3"/>
       <c r="B580" s="3"/>
       <c r="C580" s="3"/>
@@ -16642,7 +16608,7 @@
       <c r="Y580" s="3"/>
       <c r="Z580" s="3"/>
     </row>
-    <row r="581" spans="1:26" ht="19.5" customHeight="1">
+    <row r="581" ht="19.5" customHeight="1">
       <c r="A581" s="3"/>
       <c r="B581" s="3"/>
       <c r="C581" s="3"/>
@@ -16670,7 +16636,7 @@
       <c r="Y581" s="3"/>
       <c r="Z581" s="3"/>
     </row>
-    <row r="582" spans="1:26" ht="19.5" customHeight="1">
+    <row r="582" ht="19.5" customHeight="1">
       <c r="A582" s="3"/>
       <c r="B582" s="3"/>
       <c r="C582" s="3"/>
@@ -16698,7 +16664,7 @@
       <c r="Y582" s="3"/>
       <c r="Z582" s="3"/>
     </row>
-    <row r="583" spans="1:26" ht="19.5" customHeight="1">
+    <row r="583" ht="19.5" customHeight="1">
       <c r="A583" s="3"/>
       <c r="B583" s="3"/>
       <c r="C583" s="3"/>
@@ -16726,7 +16692,7 @@
       <c r="Y583" s="3"/>
       <c r="Z583" s="3"/>
     </row>
-    <row r="584" spans="1:26" ht="19.5" customHeight="1">
+    <row r="584" ht="19.5" customHeight="1">
       <c r="A584" s="3"/>
       <c r="B584" s="3"/>
       <c r="C584" s="3"/>
@@ -16754,7 +16720,7 @@
       <c r="Y584" s="3"/>
       <c r="Z584" s="3"/>
     </row>
-    <row r="585" spans="1:26" ht="19.5" customHeight="1">
+    <row r="585" ht="19.5" customHeight="1">
       <c r="A585" s="3"/>
       <c r="B585" s="3"/>
       <c r="C585" s="3"/>
@@ -16782,7 +16748,7 @@
       <c r="Y585" s="3"/>
       <c r="Z585" s="3"/>
     </row>
-    <row r="586" spans="1:26" ht="19.5" customHeight="1">
+    <row r="586" ht="19.5" customHeight="1">
       <c r="A586" s="3"/>
       <c r="B586" s="3"/>
       <c r="C586" s="3"/>
@@ -16810,7 +16776,7 @@
       <c r="Y586" s="3"/>
       <c r="Z586" s="3"/>
     </row>
-    <row r="587" spans="1:26" ht="19.5" customHeight="1">
+    <row r="587" ht="19.5" customHeight="1">
       <c r="A587" s="3"/>
       <c r="B587" s="3"/>
       <c r="C587" s="3"/>
@@ -16838,7 +16804,7 @@
       <c r="Y587" s="3"/>
       <c r="Z587" s="3"/>
     </row>
-    <row r="588" spans="1:26" ht="19.5" customHeight="1">
+    <row r="588" ht="19.5" customHeight="1">
       <c r="A588" s="3"/>
       <c r="B588" s="3"/>
       <c r="C588" s="3"/>
@@ -16866,7 +16832,7 @@
       <c r="Y588" s="3"/>
       <c r="Z588" s="3"/>
     </row>
-    <row r="589" spans="1:26" ht="19.5" customHeight="1">
+    <row r="589" ht="19.5" customHeight="1">
       <c r="A589" s="3"/>
       <c r="B589" s="3"/>
       <c r="C589" s="3"/>
@@ -16894,7 +16860,7 @@
       <c r="Y589" s="3"/>
       <c r="Z589" s="3"/>
     </row>
-    <row r="590" spans="1:26" ht="19.5" customHeight="1">
+    <row r="590" ht="19.5" customHeight="1">
       <c r="A590" s="3"/>
       <c r="B590" s="3"/>
       <c r="C590" s="3"/>
@@ -16922,7 +16888,7 @@
       <c r="Y590" s="3"/>
       <c r="Z590" s="3"/>
     </row>
-    <row r="591" spans="1:26" ht="19.5" customHeight="1">
+    <row r="591" ht="19.5" customHeight="1">
       <c r="A591" s="3"/>
       <c r="B591" s="3"/>
       <c r="C591" s="3"/>
@@ -16950,7 +16916,7 @@
       <c r="Y591" s="3"/>
       <c r="Z591" s="3"/>
     </row>
-    <row r="592" spans="1:26" ht="19.5" customHeight="1">
+    <row r="592" ht="19.5" customHeight="1">
       <c r="A592" s="3"/>
       <c r="B592" s="3"/>
       <c r="C592" s="3"/>
@@ -16978,7 +16944,7 @@
       <c r="Y592" s="3"/>
       <c r="Z592" s="3"/>
     </row>
-    <row r="593" spans="1:26" ht="19.5" customHeight="1">
+    <row r="593" ht="19.5" customHeight="1">
       <c r="A593" s="3"/>
       <c r="B593" s="3"/>
       <c r="C593" s="3"/>
@@ -17006,7 +16972,7 @@
       <c r="Y593" s="3"/>
       <c r="Z593" s="3"/>
     </row>
-    <row r="594" spans="1:26" ht="19.5" customHeight="1">
+    <row r="594" ht="19.5" customHeight="1">
       <c r="A594" s="3"/>
       <c r="B594" s="3"/>
       <c r="C594" s="3"/>
@@ -17034,7 +17000,7 @@
       <c r="Y594" s="3"/>
       <c r="Z594" s="3"/>
     </row>
-    <row r="595" spans="1:26" ht="19.5" customHeight="1">
+    <row r="595" ht="19.5" customHeight="1">
       <c r="A595" s="3"/>
       <c r="B595" s="3"/>
       <c r="C595" s="3"/>
@@ -17062,7 +17028,7 @@
       <c r="Y595" s="3"/>
       <c r="Z595" s="3"/>
     </row>
-    <row r="596" spans="1:26" ht="19.5" customHeight="1">
+    <row r="596" ht="19.5" customHeight="1">
       <c r="A596" s="3"/>
       <c r="B596" s="3"/>
       <c r="C596" s="3"/>
@@ -17090,7 +17056,7 @@
       <c r="Y596" s="3"/>
       <c r="Z596" s="3"/>
     </row>
-    <row r="597" spans="1:26" ht="19.5" customHeight="1">
+    <row r="597" ht="19.5" customHeight="1">
       <c r="A597" s="3"/>
       <c r="B597" s="3"/>
       <c r="C597" s="3"/>
@@ -17118,7 +17084,7 @@
       <c r="Y597" s="3"/>
       <c r="Z597" s="3"/>
     </row>
-    <row r="598" spans="1:26" ht="19.5" customHeight="1">
+    <row r="598" ht="19.5" customHeight="1">
       <c r="A598" s="3"/>
       <c r="B598" s="3"/>
       <c r="C598" s="3"/>
@@ -17146,7 +17112,7 @@
       <c r="Y598" s="3"/>
       <c r="Z598" s="3"/>
     </row>
-    <row r="599" spans="1:26" ht="19.5" customHeight="1">
+    <row r="599" ht="19.5" customHeight="1">
       <c r="A599" s="3"/>
       <c r="B599" s="3"/>
       <c r="C599" s="3"/>
@@ -17174,7 +17140,7 @@
       <c r="Y599" s="3"/>
       <c r="Z599" s="3"/>
     </row>
-    <row r="600" spans="1:26" ht="19.5" customHeight="1">
+    <row r="600" ht="19.5" customHeight="1">
       <c r="A600" s="3"/>
       <c r="B600" s="3"/>
       <c r="C600" s="3"/>
@@ -17202,7 +17168,7 @@
       <c r="Y600" s="3"/>
       <c r="Z600" s="3"/>
     </row>
-    <row r="601" spans="1:26" ht="19.5" customHeight="1">
+    <row r="601" ht="19.5" customHeight="1">
       <c r="A601" s="3"/>
       <c r="B601" s="3"/>
       <c r="C601" s="3"/>
@@ -17230,7 +17196,7 @@
       <c r="Y601" s="3"/>
       <c r="Z601" s="3"/>
     </row>
-    <row r="602" spans="1:26" ht="19.5" customHeight="1">
+    <row r="602" ht="19.5" customHeight="1">
       <c r="A602" s="3"/>
       <c r="B602" s="3"/>
       <c r="C602" s="3"/>
@@ -17258,7 +17224,7 @@
       <c r="Y602" s="3"/>
       <c r="Z602" s="3"/>
     </row>
-    <row r="603" spans="1:26" ht="19.5" customHeight="1">
+    <row r="603" ht="19.5" customHeight="1">
       <c r="A603" s="3"/>
       <c r="B603" s="3"/>
       <c r="C603" s="3"/>
@@ -17286,7 +17252,7 @@
       <c r="Y603" s="3"/>
       <c r="Z603" s="3"/>
     </row>
-    <row r="604" spans="1:26" ht="19.5" customHeight="1">
+    <row r="604" ht="19.5" customHeight="1">
       <c r="A604" s="3"/>
       <c r="B604" s="3"/>
       <c r="C604" s="3"/>
@@ -17314,7 +17280,7 @@
       <c r="Y604" s="3"/>
       <c r="Z604" s="3"/>
     </row>
-    <row r="605" spans="1:26" ht="19.5" customHeight="1">
+    <row r="605" ht="19.5" customHeight="1">
       <c r="A605" s="3"/>
       <c r="B605" s="3"/>
       <c r="C605" s="3"/>
@@ -17342,7 +17308,7 @@
       <c r="Y605" s="3"/>
       <c r="Z605" s="3"/>
     </row>
-    <row r="606" spans="1:26" ht="19.5" customHeight="1">
+    <row r="606" ht="19.5" customHeight="1">
       <c r="A606" s="3"/>
       <c r="B606" s="3"/>
       <c r="C606" s="3"/>
@@ -17370,7 +17336,7 @@
       <c r="Y606" s="3"/>
       <c r="Z606" s="3"/>
     </row>
-    <row r="607" spans="1:26" ht="19.5" customHeight="1">
+    <row r="607" ht="19.5" customHeight="1">
       <c r="A607" s="3"/>
       <c r="B607" s="3"/>
       <c r="C607" s="3"/>
@@ -17398,7 +17364,7 @@
       <c r="Y607" s="3"/>
       <c r="Z607" s="3"/>
     </row>
-    <row r="608" spans="1:26" ht="19.5" customHeight="1">
+    <row r="608" ht="19.5" customHeight="1">
       <c r="A608" s="3"/>
       <c r="B608" s="3"/>
       <c r="C608" s="3"/>
@@ -17426,7 +17392,7 @@
       <c r="Y608" s="3"/>
       <c r="Z608" s="3"/>
     </row>
-    <row r="609" spans="1:26" ht="19.5" customHeight="1">
+    <row r="609" ht="19.5" customHeight="1">
       <c r="A609" s="3"/>
       <c r="B609" s="3"/>
       <c r="C609" s="3"/>
@@ -17454,7 +17420,7 @@
       <c r="Y609" s="3"/>
       <c r="Z609" s="3"/>
     </row>
-    <row r="610" spans="1:26" ht="19.5" customHeight="1">
+    <row r="610" ht="19.5" customHeight="1">
       <c r="A610" s="3"/>
       <c r="B610" s="3"/>
       <c r="C610" s="3"/>
@@ -17482,7 +17448,7 @@
       <c r="Y610" s="3"/>
       <c r="Z610" s="3"/>
     </row>
-    <row r="611" spans="1:26" ht="19.5" customHeight="1">
+    <row r="611" ht="19.5" customHeight="1">
       <c r="A611" s="3"/>
       <c r="B611" s="3"/>
       <c r="C611" s="3"/>
@@ -17510,7 +17476,7 @@
       <c r="Y611" s="3"/>
       <c r="Z611" s="3"/>
     </row>
-    <row r="612" spans="1:26" ht="19.5" customHeight="1">
+    <row r="612" ht="19.5" customHeight="1">
       <c r="A612" s="3"/>
       <c r="B612" s="3"/>
       <c r="C612" s="3"/>
@@ -17538,7 +17504,7 @@
       <c r="Y612" s="3"/>
       <c r="Z612" s="3"/>
     </row>
-    <row r="613" spans="1:26" ht="19.5" customHeight="1">
+    <row r="613" ht="19.5" customHeight="1">
       <c r="A613" s="3"/>
       <c r="B613" s="3"/>
       <c r="C613" s="3"/>
@@ -17566,7 +17532,7 @@
       <c r="Y613" s="3"/>
       <c r="Z613" s="3"/>
     </row>
-    <row r="614" spans="1:26" ht="19.5" customHeight="1">
+    <row r="614" ht="19.5" customHeight="1">
       <c r="A614" s="3"/>
       <c r="B614" s="3"/>
       <c r="C614" s="3"/>
@@ -17594,7 +17560,7 @@
       <c r="Y614" s="3"/>
       <c r="Z614" s="3"/>
     </row>
-    <row r="615" spans="1:26" ht="19.5" customHeight="1">
+    <row r="615" ht="19.5" customHeight="1">
       <c r="A615" s="3"/>
       <c r="B615" s="3"/>
       <c r="C615" s="3"/>
@@ -17622,7 +17588,7 @@
       <c r="Y615" s="3"/>
       <c r="Z615" s="3"/>
     </row>
-    <row r="616" spans="1:26" ht="19.5" customHeight="1">
+    <row r="616" ht="19.5" customHeight="1">
       <c r="A616" s="3"/>
       <c r="B616" s="3"/>
       <c r="C616" s="3"/>
@@ -17650,7 +17616,7 @@
       <c r="Y616" s="3"/>
       <c r="Z616" s="3"/>
     </row>
-    <row r="617" spans="1:26" ht="19.5" customHeight="1">
+    <row r="617" ht="19.5" customHeight="1">
       <c r="A617" s="3"/>
       <c r="B617" s="3"/>
       <c r="C617" s="3"/>
@@ -17678,7 +17644,7 @@
       <c r="Y617" s="3"/>
       <c r="Z617" s="3"/>
     </row>
-    <row r="618" spans="1:26" ht="19.5" customHeight="1">
+    <row r="618" ht="19.5" customHeight="1">
       <c r="A618" s="3"/>
       <c r="B618" s="3"/>
       <c r="C618" s="3"/>
@@ -17706,7 +17672,7 @@
       <c r="Y618" s="3"/>
       <c r="Z618" s="3"/>
     </row>
-    <row r="619" spans="1:26" ht="19.5" customHeight="1">
+    <row r="619" ht="19.5" customHeight="1">
       <c r="A619" s="3"/>
       <c r="B619" s="3"/>
       <c r="C619" s="3"/>
@@ -17734,7 +17700,7 @@
       <c r="Y619" s="3"/>
       <c r="Z619" s="3"/>
     </row>
-    <row r="620" spans="1:26" ht="19.5" customHeight="1">
+    <row r="620" ht="19.5" customHeight="1">
       <c r="A620" s="3"/>
       <c r="B620" s="3"/>
       <c r="C620" s="3"/>
@@ -17762,7 +17728,7 @@
       <c r="Y620" s="3"/>
       <c r="Z620" s="3"/>
     </row>
-    <row r="621" spans="1:26" ht="19.5" customHeight="1">
+    <row r="621" ht="19.5" customHeight="1">
       <c r="A621" s="3"/>
       <c r="B621" s="3"/>
       <c r="C621" s="3"/>
@@ -17790,7 +17756,7 @@
       <c r="Y621" s="3"/>
       <c r="Z621" s="3"/>
     </row>
-    <row r="622" spans="1:26" ht="19.5" customHeight="1">
+    <row r="622" ht="19.5" customHeight="1">
       <c r="A622" s="3"/>
       <c r="B622" s="3"/>
       <c r="C622" s="3"/>
@@ -17818,7 +17784,7 @@
       <c r="Y622" s="3"/>
       <c r="Z622" s="3"/>
     </row>
-    <row r="623" spans="1:26" ht="19.5" customHeight="1">
+    <row r="623" ht="19.5" customHeight="1">
       <c r="A623" s="3"/>
       <c r="B623" s="3"/>
       <c r="C623" s="3"/>
@@ -17846,7 +17812,7 @@
       <c r="Y623" s="3"/>
       <c r="Z623" s="3"/>
     </row>
-    <row r="624" spans="1:26" ht="19.5" customHeight="1">
+    <row r="624" ht="19.5" customHeight="1">
       <c r="A624" s="3"/>
       <c r="B624" s="3"/>
       <c r="C624" s="3"/>
@@ -17874,7 +17840,7 @@
       <c r="Y624" s="3"/>
       <c r="Z624" s="3"/>
     </row>
-    <row r="625" spans="1:26" ht="19.5" customHeight="1">
+    <row r="625" ht="19.5" customHeight="1">
       <c r="A625" s="3"/>
       <c r="B625" s="3"/>
       <c r="C625" s="3"/>
@@ -17902,7 +17868,7 @@
       <c r="Y625" s="3"/>
       <c r="Z625" s="3"/>
     </row>
-    <row r="626" spans="1:26" ht="19.5" customHeight="1">
+    <row r="626" ht="19.5" customHeight="1">
       <c r="A626" s="3"/>
       <c r="B626" s="3"/>
       <c r="C626" s="3"/>
@@ -17930,7 +17896,7 @@
       <c r="Y626" s="3"/>
       <c r="Z626" s="3"/>
     </row>
-    <row r="627" spans="1:26" ht="19.5" customHeight="1">
+    <row r="627" ht="19.5" customHeight="1">
       <c r="A627" s="3"/>
       <c r="B627" s="3"/>
       <c r="C627" s="3"/>
@@ -17958,7 +17924,7 @@
       <c r="Y627" s="3"/>
       <c r="Z627" s="3"/>
     </row>
-    <row r="628" spans="1:26" ht="19.5" customHeight="1">
+    <row r="628" ht="19.5" customHeight="1">
       <c r="A628" s="3"/>
       <c r="B628" s="3"/>
       <c r="C628" s="3"/>
@@ -17986,7 +17952,7 @@
       <c r="Y628" s="3"/>
       <c r="Z628" s="3"/>
     </row>
-    <row r="629" spans="1:26" ht="19.5" customHeight="1">
+    <row r="629" ht="19.5" customHeight="1">
       <c r="A629" s="3"/>
       <c r="B629" s="3"/>
       <c r="C629" s="3"/>
@@ -18014,7 +17980,7 @@
       <c r="Y629" s="3"/>
       <c r="Z629" s="3"/>
     </row>
-    <row r="630" spans="1:26" ht="19.5" customHeight="1">
+    <row r="630" ht="19.5" customHeight="1">
       <c r="A630" s="3"/>
       <c r="B630" s="3"/>
       <c r="C630" s="3"/>
@@ -18042,7 +18008,7 @@
       <c r="Y630" s="3"/>
       <c r="Z630" s="3"/>
     </row>
-    <row r="631" spans="1:26" ht="19.5" customHeight="1">
+    <row r="631" ht="19.5" customHeight="1">
       <c r="A631" s="3"/>
       <c r="B631" s="3"/>
       <c r="C631" s="3"/>
@@ -18070,7 +18036,7 @@
       <c r="Y631" s="3"/>
       <c r="Z631" s="3"/>
     </row>
-    <row r="632" spans="1:26" ht="19.5" customHeight="1">
+    <row r="632" ht="19.5" customHeight="1">
       <c r="A632" s="3"/>
       <c r="B632" s="3"/>
       <c r="C632" s="3"/>
@@ -18098,7 +18064,7 @@
       <c r="Y632" s="3"/>
       <c r="Z632" s="3"/>
     </row>
-    <row r="633" spans="1:26" ht="19.5" customHeight="1">
+    <row r="633" ht="19.5" customHeight="1">
       <c r="A633" s="3"/>
       <c r="B633" s="3"/>
       <c r="C633" s="3"/>
@@ -18126,7 +18092,7 @@
       <c r="Y633" s="3"/>
       <c r="Z633" s="3"/>
     </row>
-    <row r="634" spans="1:26" ht="19.5" customHeight="1">
+    <row r="634" ht="19.5" customHeight="1">
       <c r="A634" s="3"/>
       <c r="B634" s="3"/>
       <c r="C634" s="3"/>
@@ -18154,7 +18120,7 @@
       <c r="Y634" s="3"/>
       <c r="Z634" s="3"/>
     </row>
-    <row r="635" spans="1:26" ht="19.5" customHeight="1">
+    <row r="635" ht="19.5" customHeight="1">
       <c r="A635" s="3"/>
       <c r="B635" s="3"/>
       <c r="C635" s="3"/>
@@ -18182,7 +18148,7 @@
       <c r="Y635" s="3"/>
       <c r="Z635" s="3"/>
     </row>
-    <row r="636" spans="1:26" ht="19.5" customHeight="1">
+    <row r="636" ht="19.5" customHeight="1">
       <c r="A636" s="3"/>
       <c r="B636" s="3"/>
       <c r="C636" s="3"/>
@@ -18210,7 +18176,7 @@
       <c r="Y636" s="3"/>
       <c r="Z636" s="3"/>
     </row>
-    <row r="637" spans="1:26" ht="19.5" customHeight="1">
+    <row r="637" ht="19.5" customHeight="1">
       <c r="A637" s="3"/>
       <c r="B637" s="3"/>
       <c r="C637" s="3"/>
@@ -18238,7 +18204,7 @@
       <c r="Y637" s="3"/>
       <c r="Z637" s="3"/>
     </row>
-    <row r="638" spans="1:26" ht="19.5" customHeight="1">
+    <row r="638" ht="19.5" customHeight="1">
       <c r="A638" s="3"/>
       <c r="B638" s="3"/>
       <c r="C638" s="3"/>
@@ -18266,7 +18232,7 @@
       <c r="Y638" s="3"/>
       <c r="Z638" s="3"/>
     </row>
-    <row r="639" spans="1:26" ht="19.5" customHeight="1">
+    <row r="639" ht="19.5" customHeight="1">
       <c r="A639" s="3"/>
       <c r="B639" s="3"/>
       <c r="C639" s="3"/>
@@ -18294,7 +18260,7 @@
       <c r="Y639" s="3"/>
       <c r="Z639" s="3"/>
     </row>
-    <row r="640" spans="1:26" ht="19.5" customHeight="1">
+    <row r="640" ht="19.5" customHeight="1">
       <c r="A640" s="3"/>
       <c r="B640" s="3"/>
       <c r="C640" s="3"/>
@@ -18322,7 +18288,7 @@
       <c r="Y640" s="3"/>
       <c r="Z640" s="3"/>
     </row>
-    <row r="641" spans="1:26" ht="19.5" customHeight="1">
+    <row r="641" ht="19.5" customHeight="1">
       <c r="A641" s="3"/>
       <c r="B641" s="3"/>
       <c r="C641" s="3"/>
@@ -18350,7 +18316,7 @@
       <c r="Y641" s="3"/>
       <c r="Z641" s="3"/>
     </row>
-    <row r="642" spans="1:26" ht="19.5" customHeight="1">
+    <row r="642" ht="19.5" customHeight="1">
       <c r="A642" s="3"/>
       <c r="B642" s="3"/>
       <c r="C642" s="3"/>
@@ -18378,7 +18344,7 @@
       <c r="Y642" s="3"/>
       <c r="Z642" s="3"/>
     </row>
-    <row r="643" spans="1:26" ht="19.5" customHeight="1">
+    <row r="643" ht="19.5" customHeight="1">
       <c r="A643" s="3"/>
       <c r="B643" s="3"/>
       <c r="C643" s="3"/>
@@ -18406,7 +18372,7 @@
       <c r="Y643" s="3"/>
       <c r="Z643" s="3"/>
     </row>
-    <row r="644" spans="1:26" ht="19.5" customHeight="1">
+    <row r="644" ht="19.5" customHeight="1">
       <c r="A644" s="3"/>
       <c r="B644" s="3"/>
       <c r="C644" s="3"/>
@@ -18434,7 +18400,7 @@
       <c r="Y644" s="3"/>
       <c r="Z644" s="3"/>
     </row>
-    <row r="645" spans="1:26" ht="19.5" customHeight="1">
+    <row r="645" ht="19.5" customHeight="1">
       <c r="A645" s="3"/>
       <c r="B645" s="3"/>
       <c r="C645" s="3"/>
@@ -18462,7 +18428,7 @@
       <c r="Y645" s="3"/>
       <c r="Z645" s="3"/>
     </row>
-    <row r="646" spans="1:26" ht="19.5" customHeight="1">
+    <row r="646" ht="19.5" customHeight="1">
       <c r="A646" s="3"/>
       <c r="B646" s="3"/>
       <c r="C646" s="3"/>
@@ -18490,7 +18456,7 @@
       <c r="Y646" s="3"/>
       <c r="Z646" s="3"/>
     </row>
-    <row r="647" spans="1:26" ht="19.5" customHeight="1">
+    <row r="647" ht="19.5" customHeight="1">
       <c r="A647" s="3"/>
       <c r="B647" s="3"/>
       <c r="C647" s="3"/>
@@ -18518,7 +18484,7 @@
       <c r="Y647" s="3"/>
       <c r="Z647" s="3"/>
     </row>
-    <row r="648" spans="1:26" ht="19.5" customHeight="1">
+    <row r="648" ht="19.5" customHeight="1">
       <c r="A648" s="3"/>
       <c r="B648" s="3"/>
       <c r="C648" s="3"/>
@@ -18546,7 +18512,7 @@
       <c r="Y648" s="3"/>
       <c r="Z648" s="3"/>
     </row>
-    <row r="649" spans="1:26" ht="19.5" customHeight="1">
+    <row r="649" ht="19.5" customHeight="1">
       <c r="A649" s="3"/>
       <c r="B649" s="3"/>
       <c r="C649" s="3"/>
@@ -18574,7 +18540,7 @@
       <c r="Y649" s="3"/>
       <c r="Z649" s="3"/>
     </row>
-    <row r="650" spans="1:26" ht="19.5" customHeight="1">
+    <row r="650" ht="19.5" customHeight="1">
       <c r="A650" s="3"/>
       <c r="B650" s="3"/>
       <c r="C650" s="3"/>
@@ -18602,7 +18568,7 @@
       <c r="Y650" s="3"/>
       <c r="Z650" s="3"/>
     </row>
-    <row r="651" spans="1:26" ht="19.5" customHeight="1">
+    <row r="651" ht="19.5" customHeight="1">
       <c r="A651" s="3"/>
       <c r="B651" s="3"/>
       <c r="C651" s="3"/>
@@ -18630,7 +18596,7 @@
       <c r="Y651" s="3"/>
       <c r="Z651" s="3"/>
     </row>
-    <row r="652" spans="1:26" ht="19.5" customHeight="1">
+    <row r="652" ht="19.5" customHeight="1">
       <c r="A652" s="3"/>
       <c r="B652" s="3"/>
       <c r="C652" s="3"/>
@@ -18658,7 +18624,7 @@
       <c r="Y652" s="3"/>
       <c r="Z652" s="3"/>
     </row>
-    <row r="653" spans="1:26" ht="19.5" customHeight="1">
+    <row r="653" ht="19.5" customHeight="1">
       <c r="A653" s="3"/>
       <c r="B653" s="3"/>
       <c r="C653" s="3"/>
@@ -18686,7 +18652,7 @@
       <c r="Y653" s="3"/>
       <c r="Z653" s="3"/>
     </row>
-    <row r="654" spans="1:26" ht="19.5" customHeight="1">
+    <row r="654" ht="19.5" customHeight="1">
       <c r="A654" s="3"/>
       <c r="B654" s="3"/>
       <c r="C654" s="3"/>
@@ -18714,7 +18680,7 @@
       <c r="Y654" s="3"/>
       <c r="Z654" s="3"/>
     </row>
-    <row r="655" spans="1:26" ht="19.5" customHeight="1">
+    <row r="655" ht="19.5" customHeight="1">
       <c r="A655" s="3"/>
       <c r="B655" s="3"/>
       <c r="C655" s="3"/>
@@ -18742,7 +18708,7 @@
       <c r="Y655" s="3"/>
       <c r="Z655" s="3"/>
     </row>
-    <row r="656" spans="1:26" ht="19.5" customHeight="1">
+    <row r="656" ht="19.5" customHeight="1">
       <c r="A656" s="3"/>
       <c r="B656" s="3"/>
       <c r="C656" s="3"/>
@@ -18770,7 +18736,7 @@
       <c r="Y656" s="3"/>
       <c r="Z656" s="3"/>
     </row>
-    <row r="657" spans="1:26" ht="19.5" customHeight="1">
+    <row r="657" ht="19.5" customHeight="1">
       <c r="A657" s="3"/>
       <c r="B657" s="3"/>
       <c r="C657" s="3"/>
@@ -18798,7 +18764,7 @@
       <c r="Y657" s="3"/>
       <c r="Z657" s="3"/>
     </row>
-    <row r="658" spans="1:26" ht="19.5" customHeight="1">
+    <row r="658" ht="19.5" customHeight="1">
       <c r="A658" s="3"/>
       <c r="B658" s="3"/>
       <c r="C658" s="3"/>
@@ -18826,7 +18792,7 @@
       <c r="Y658" s="3"/>
       <c r="Z658" s="3"/>
     </row>
-    <row r="659" spans="1:26" ht="19.5" customHeight="1">
+    <row r="659" ht="19.5" customHeight="1">
       <c r="A659" s="3"/>
       <c r="B659" s="3"/>
       <c r="C659" s="3"/>
@@ -18854,7 +18820,7 @@
       <c r="Y659" s="3"/>
       <c r="Z659" s="3"/>
     </row>
-    <row r="660" spans="1:26" ht="19.5" customHeight="1">
+    <row r="660" ht="19.5" customHeight="1">
       <c r="A660" s="3"/>
       <c r="B660" s="3"/>
       <c r="C660" s="3"/>
@@ -18882,7 +18848,7 @@
       <c r="Y660" s="3"/>
       <c r="Z660" s="3"/>
     </row>
-    <row r="661" spans="1:26" ht="19.5" customHeight="1">
+    <row r="661" ht="19.5" customHeight="1">
       <c r="A661" s="3"/>
       <c r="B661" s="3"/>
       <c r="C661" s="3"/>
@@ -18910,7 +18876,7 @@
       <c r="Y661" s="3"/>
       <c r="Z661" s="3"/>
     </row>
-    <row r="662" spans="1:26" ht="19.5" customHeight="1">
+    <row r="662" ht="19.5" customHeight="1">
       <c r="A662" s="3"/>
       <c r="B662" s="3"/>
       <c r="C662" s="3"/>
@@ -18938,7 +18904,7 @@
       <c r="Y662" s="3"/>
       <c r="Z662" s="3"/>
     </row>
-    <row r="663" spans="1:26" ht="19.5" customHeight="1">
+    <row r="663" ht="19.5" customHeight="1">
       <c r="A663" s="3"/>
       <c r="B663" s="3"/>
       <c r="C663" s="3"/>
@@ -18966,7 +18932,7 @@
       <c r="Y663" s="3"/>
       <c r="Z663" s="3"/>
     </row>
-    <row r="664" spans="1:26" ht="19.5" customHeight="1">
+    <row r="664" ht="19.5" customHeight="1">
       <c r="A664" s="3"/>
       <c r="B664" s="3"/>
       <c r="C664" s="3"/>
@@ -18994,7 +18960,7 @@
       <c r="Y664" s="3"/>
       <c r="Z664" s="3"/>
     </row>
-    <row r="665" spans="1:26" ht="19.5" customHeight="1">
+    <row r="665" ht="19.5" customHeight="1">
       <c r="A665" s="3"/>
       <c r="B665" s="3"/>
       <c r="C665" s="3"/>
@@ -19022,7 +18988,7 @@
       <c r="Y665" s="3"/>
       <c r="Z665" s="3"/>
     </row>
-    <row r="666" spans="1:26" ht="19.5" customHeight="1">
+    <row r="666" ht="19.5" customHeight="1">
       <c r="A666" s="3"/>
       <c r="B666" s="3"/>
       <c r="C666" s="3"/>
@@ -19050,7 +19016,7 @@
       <c r="Y666" s="3"/>
       <c r="Z666" s="3"/>
     </row>
-    <row r="667" spans="1:26" ht="19.5" customHeight="1">
+    <row r="667" ht="19.5" customHeight="1">
       <c r="A667" s="3"/>
       <c r="B667" s="3"/>
       <c r="C667" s="3"/>
@@ -19078,7 +19044,7 @@
       <c r="Y667" s="3"/>
       <c r="Z667" s="3"/>
     </row>
-    <row r="668" spans="1:26" ht="19.5" customHeight="1">
+    <row r="668" ht="19.5" customHeight="1">
       <c r="A668" s="3"/>
       <c r="B668" s="3"/>
       <c r="C668" s="3"/>
@@ -19106,7 +19072,7 @@
       <c r="Y668" s="3"/>
       <c r="Z668" s="3"/>
     </row>
-    <row r="669" spans="1:26" ht="19.5" customHeight="1">
+    <row r="669" ht="19.5" customHeight="1">
       <c r="A669" s="3"/>
       <c r="B669" s="3"/>
       <c r="C669" s="3"/>
@@ -19134,7 +19100,7 @@
       <c r="Y669" s="3"/>
       <c r="Z669" s="3"/>
     </row>
-    <row r="670" spans="1:26" ht="19.5" customHeight="1">
+    <row r="670" ht="19.5" customHeight="1">
       <c r="A670" s="3"/>
       <c r="B670" s="3"/>
       <c r="C670" s="3"/>
@@ -19162,7 +19128,7 @@
       <c r="Y670" s="3"/>
       <c r="Z670" s="3"/>
     </row>
-    <row r="671" spans="1:26" ht="19.5" customHeight="1">
+    <row r="671" ht="19.5" customHeight="1">
       <c r="A671" s="3"/>
       <c r="B671" s="3"/>
       <c r="C671" s="3"/>
@@ -19190,7 +19156,7 @@
       <c r="Y671" s="3"/>
       <c r="Z671" s="3"/>
     </row>
-    <row r="672" spans="1:26" ht="19.5" customHeight="1">
+    <row r="672" ht="19.5" customHeight="1">
       <c r="A672" s="3"/>
       <c r="B672" s="3"/>
       <c r="C672" s="3"/>
@@ -19218,7 +19184,7 @@
       <c r="Y672" s="3"/>
       <c r="Z672" s="3"/>
     </row>
-    <row r="673" spans="1:26" ht="19.5" customHeight="1">
+    <row r="673" ht="19.5" customHeight="1">
       <c r="A673" s="3"/>
       <c r="B673" s="3"/>
       <c r="C673" s="3"/>
@@ -19246,7 +19212,7 @@
       <c r="Y673" s="3"/>
       <c r="Z673" s="3"/>
     </row>
-    <row r="674" spans="1:26" ht="19.5" customHeight="1">
+    <row r="674" ht="19.5" customHeight="1">
       <c r="A674" s="3"/>
       <c r="B674" s="3"/>
       <c r="C674" s="3"/>
@@ -19274,7 +19240,7 @@
       <c r="Y674" s="3"/>
       <c r="Z674" s="3"/>
     </row>
-    <row r="675" spans="1:26" ht="19.5" customHeight="1">
+    <row r="675" ht="19.5" customHeight="1">
       <c r="A675" s="3"/>
       <c r="B675" s="3"/>
       <c r="C675" s="3"/>
@@ -19302,7 +19268,7 @@
       <c r="Y675" s="3"/>
       <c r="Z675" s="3"/>
     </row>
-    <row r="676" spans="1:26" ht="19.5" customHeight="1">
+    <row r="676" ht="19.5" customHeight="1">
       <c r="A676" s="3"/>
       <c r="B676" s="3"/>
       <c r="C676" s="3"/>
@@ -19330,7 +19296,7 @@
       <c r="Y676" s="3"/>
       <c r="Z676" s="3"/>
     </row>
-    <row r="677" spans="1:26" ht="19.5" customHeight="1">
+    <row r="677" ht="19.5" customHeight="1">
       <c r="A677" s="3"/>
       <c r="B677" s="3"/>
       <c r="C677" s="3"/>
@@ -19358,7 +19324,7 @@
       <c r="Y677" s="3"/>
       <c r="Z677" s="3"/>
     </row>
-    <row r="678" spans="1:26" ht="19.5" customHeight="1">
+    <row r="678" ht="19.5" customHeight="1">
       <c r="A678" s="3"/>
       <c r="B678" s="3"/>
       <c r="C678" s="3"/>
@@ -19386,7 +19352,7 @@
       <c r="Y678" s="3"/>
       <c r="Z678" s="3"/>
     </row>
-    <row r="679" spans="1:26" ht="19.5" customHeight="1">
+    <row r="679" ht="19.5" customHeight="1">
       <c r="A679" s="3"/>
       <c r="B679" s="3"/>
       <c r="C679" s="3"/>
@@ -19414,7 +19380,7 @@
       <c r="Y679" s="3"/>
       <c r="Z679" s="3"/>
     </row>
-    <row r="680" spans="1:26" ht="19.5" customHeight="1">
+    <row r="680" ht="19.5" customHeight="1">
       <c r="A680" s="3"/>
       <c r="B680" s="3"/>
       <c r="C680" s="3"/>
@@ -19442,7 +19408,7 @@
       <c r="Y680" s="3"/>
       <c r="Z680" s="3"/>
     </row>
-    <row r="681" spans="1:26" ht="19.5" customHeight="1">
+    <row r="681" ht="19.5" customHeight="1">
       <c r="A681" s="3"/>
       <c r="B681" s="3"/>
       <c r="C681" s="3"/>
@@ -19470,7 +19436,7 @@
       <c r="Y681" s="3"/>
       <c r="Z681" s="3"/>
     </row>
-    <row r="682" spans="1:26" ht="19.5" customHeight="1">
+    <row r="682" ht="19.5" customHeight="1">
       <c r="A682" s="3"/>
       <c r="B682" s="3"/>
       <c r="C682" s="3"/>
@@ -19498,7 +19464,7 @@
       <c r="Y682" s="3"/>
       <c r="Z682" s="3"/>
     </row>
-    <row r="683" spans="1:26" ht="19.5" customHeight="1">
+    <row r="683" ht="19.5" customHeight="1">
       <c r="A683" s="3"/>
       <c r="B683" s="3"/>
       <c r="C683" s="3"/>
@@ -19526,7 +19492,7 @@
       <c r="Y683" s="3"/>
       <c r="Z683" s="3"/>
     </row>
-    <row r="684" spans="1:26" ht="19.5" customHeight="1">
+    <row r="684" ht="19.5" customHeight="1">
       <c r="A684" s="3"/>
       <c r="B684" s="3"/>
       <c r="C684" s="3"/>
@@ -19554,7 +19520,7 @@
       <c r="Y684" s="3"/>
       <c r="Z684" s="3"/>
     </row>
-    <row r="685" spans="1:26" ht="19.5" customHeight="1">
+    <row r="685" ht="19.5" customHeight="1">
       <c r="A685" s="3"/>
       <c r="B685" s="3"/>
       <c r="C685" s="3"/>
@@ -19582,7 +19548,7 @@
       <c r="Y685" s="3"/>
       <c r="Z685" s="3"/>
     </row>
-    <row r="686" spans="1:26" ht="19.5" customHeight="1">
+    <row r="686" ht="19.5" customHeight="1">
       <c r="A686" s="3"/>
       <c r="B686" s="3"/>
       <c r="C686" s="3"/>
@@ -19610,7 +19576,7 @@
       <c r="Y686" s="3"/>
       <c r="Z686" s="3"/>
     </row>
-    <row r="687" spans="1:26" ht="19.5" customHeight="1">
+    <row r="687" ht="19.5" customHeight="1">
       <c r="A687" s="3"/>
       <c r="B687" s="3"/>
       <c r="C687" s="3"/>
@@ -19638,7 +19604,7 @@
       <c r="Y687" s="3"/>
       <c r="Z687" s="3"/>
     </row>
-    <row r="688" spans="1:26" ht="19.5" customHeight="1">
+    <row r="688" ht="19.5" customHeight="1">
       <c r="A688" s="3"/>
       <c r="B688" s="3"/>
       <c r="C688" s="3"/>
@@ -19666,7 +19632,7 @@
       <c r="Y688" s="3"/>
       <c r="Z688" s="3"/>
     </row>
-    <row r="689" spans="1:26" ht="19.5" customHeight="1">
+    <row r="689" ht="19.5" customHeight="1">
       <c r="A689" s="3"/>
       <c r="B689" s="3"/>
       <c r="C689" s="3"/>
@@ -19694,7 +19660,7 @@
       <c r="Y689" s="3"/>
       <c r="Z689" s="3"/>
     </row>
-    <row r="690" spans="1:26" ht="19.5" customHeight="1">
+    <row r="690" ht="19.5" customHeight="1">
       <c r="A690" s="3"/>
       <c r="B690" s="3"/>
       <c r="C690" s="3"/>
@@ -19722,7 +19688,7 @@
       <c r="Y690" s="3"/>
       <c r="Z690" s="3"/>
     </row>
-    <row r="691" spans="1:26" ht="19.5" customHeight="1">
+    <row r="691" ht="19.5" customHeight="1">
       <c r="A691" s="3"/>
       <c r="B691" s="3"/>
       <c r="C691" s="3"/>
@@ -19750,7 +19716,7 @@
       <c r="Y691" s="3"/>
       <c r="Z691" s="3"/>
     </row>
-    <row r="692" spans="1:26" ht="19.5" customHeight="1">
+    <row r="692" ht="19.5" customHeight="1">
       <c r="A692" s="3"/>
       <c r="B692" s="3"/>
       <c r="C692" s="3"/>
@@ -19778,7 +19744,7 @@
       <c r="Y692" s="3"/>
       <c r="Z692" s="3"/>
     </row>
-    <row r="693" spans="1:26" ht="19.5" customHeight="1">
+    <row r="693" ht="19.5" customHeight="1">
       <c r="A693" s="3"/>
       <c r="B693" s="3"/>
       <c r="C693" s="3"/>
@@ -19806,7 +19772,7 @@
       <c r="Y693" s="3"/>
       <c r="Z693" s="3"/>
     </row>
-    <row r="694" spans="1:26" ht="19.5" customHeight="1">
+    <row r="694" ht="19.5" customHeight="1">
       <c r="A694" s="3"/>
       <c r="B694" s="3"/>
       <c r="C694" s="3"/>
@@ -19834,7 +19800,7 @@
       <c r="Y694" s="3"/>
       <c r="Z694" s="3"/>
     </row>
-    <row r="695" spans="1:26" ht="19.5" customHeight="1">
+    <row r="695" ht="19.5" customHeight="1">
       <c r="A695" s="3"/>
       <c r="B695" s="3"/>
       <c r="C695" s="3"/>
@@ -19862,7 +19828,7 @@
       <c r="Y695" s="3"/>
       <c r="Z695" s="3"/>
     </row>
-    <row r="696" spans="1:26" ht="19.5" customHeight="1">
+    <row r="696" ht="19.5" customHeight="1">
       <c r="A696" s="3"/>
       <c r="B696" s="3"/>
       <c r="C696" s="3"/>
@@ -19890,7 +19856,7 @@
       <c r="Y696" s="3"/>
       <c r="Z696" s="3"/>
     </row>
-    <row r="697" spans="1:26" ht="19.5" customHeight="1">
+    <row r="697" ht="19.5" customHeight="1">
       <c r="A697" s="3"/>
       <c r="B697" s="3"/>
       <c r="C697" s="3"/>
@@ -19918,7 +19884,7 @@
       <c r="Y697" s="3"/>
       <c r="Z697" s="3"/>
     </row>
-    <row r="698" spans="1:26" ht="19.5" customHeight="1">
+    <row r="698" ht="19.5" customHeight="1">
       <c r="A698" s="3"/>
       <c r="B698" s="3"/>
       <c r="C698" s="3"/>
@@ -19946,7 +19912,7 @@
       <c r="Y698" s="3"/>
       <c r="Z698" s="3"/>
     </row>
-    <row r="699" spans="1:26" ht="19.5" customHeight="1">
+    <row r="699" ht="19.5" customHeight="1">
       <c r="A699" s="3"/>
       <c r="B699" s="3"/>
       <c r="C699" s="3"/>
@@ -19974,7 +19940,7 @@
       <c r="Y699" s="3"/>
       <c r="Z699" s="3"/>
     </row>
-    <row r="700" spans="1:26" ht="19.5" customHeight="1">
+    <row r="700" ht="19.5" customHeight="1">
       <c r="A700" s="3"/>
       <c r="B700" s="3"/>
       <c r="C700" s="3"/>
@@ -20002,7 +19968,7 @@
       <c r="Y700" s="3"/>
       <c r="Z700" s="3"/>
     </row>
-    <row r="701" spans="1:26" ht="19.5" customHeight="1">
+    <row r="701" ht="19.5" customHeight="1">
       <c r="A701" s="3"/>
       <c r="B701" s="3"/>
       <c r="C701" s="3"/>
@@ -20030,7 +19996,7 @@
       <c r="Y701" s="3"/>
       <c r="Z701" s="3"/>
     </row>
-    <row r="702" spans="1:26" ht="19.5" customHeight="1">
+    <row r="702" ht="19.5" customHeight="1">
       <c r="A702" s="3"/>
       <c r="B702" s="3"/>
       <c r="C702" s="3"/>
@@ -20058,7 +20024,7 @@
       <c r="Y702" s="3"/>
       <c r="Z702" s="3"/>
     </row>
-    <row r="703" spans="1:26" ht="19.5" customHeight="1">
+    <row r="703" ht="19.5" customHeight="1">
       <c r="A703" s="3"/>
       <c r="B703" s="3"/>
       <c r="C703" s="3"/>
@@ -20086,7 +20052,7 @@
       <c r="Y703" s="3"/>
       <c r="Z703" s="3"/>
     </row>
-    <row r="704" spans="1:26" ht="19.5" customHeight="1">
+    <row r="704" ht="19.5" customHeight="1">
       <c r="A704" s="3"/>
       <c r="B704" s="3"/>
       <c r="C704" s="3"/>
@@ -20114,7 +20080,7 @@
       <c r="Y704" s="3"/>
       <c r="Z704" s="3"/>
     </row>
-    <row r="705" spans="1:26" ht="19.5" customHeight="1">
+    <row r="705" ht="19.5" customHeight="1">
       <c r="A705" s="3"/>
       <c r="B705" s="3"/>
       <c r="C705" s="3"/>
@@ -20142,7 +20108,7 @@
       <c r="Y705" s="3"/>
       <c r="Z705" s="3"/>
     </row>
-    <row r="706" spans="1:26" ht="19.5" customHeight="1">
+    <row r="706" ht="19.5" customHeight="1">
       <c r="A706" s="3"/>
       <c r="B706" s="3"/>
       <c r="C706" s="3"/>
@@ -20170,7 +20136,7 @@
       <c r="Y706" s="3"/>
       <c r="Z706" s="3"/>
     </row>
-    <row r="707" spans="1:26" ht="19.5" customHeight="1">
+    <row r="707" ht="19.5" customHeight="1">
       <c r="A707" s="3"/>
       <c r="B707" s="3"/>
       <c r="C707" s="3"/>
@@ -20198,7 +20164,7 @@
       <c r="Y707" s="3"/>
       <c r="Z707" s="3"/>
     </row>
-    <row r="708" spans="1:26" ht="19.5" customHeight="1">
+    <row r="708" ht="19.5" customHeight="1">
       <c r="A708" s="3"/>
       <c r="B708" s="3"/>
       <c r="C708" s="3"/>
@@ -20226,7 +20192,7 @@
       <c r="Y708" s="3"/>
       <c r="Z708" s="3"/>
     </row>
-    <row r="709" spans="1:26" ht="19.5" customHeight="1">
+    <row r="709" ht="19.5" customHeight="1">
       <c r="A709" s="3"/>
       <c r="B709" s="3"/>
       <c r="C709" s="3"/>
@@ -20254,7 +20220,7 @@
       <c r="Y709" s="3"/>
       <c r="Z709" s="3"/>
     </row>
-    <row r="710" spans="1:26" ht="19.5" customHeight="1">
+    <row r="710" ht="19.5" customHeight="1">
       <c r="A710" s="3"/>
       <c r="B710" s="3"/>
       <c r="C710" s="3"/>
@@ -20282,7 +20248,7 @@
       <c r="Y710" s="3"/>
       <c r="Z710" s="3"/>
     </row>
-    <row r="711" spans="1:26" ht="19.5" customHeight="1">
+    <row r="711" ht="19.5" customHeight="1">
       <c r="A711" s="3"/>
       <c r="B711" s="3"/>
       <c r="C711" s="3"/>
@@ -20310,7 +20276,7 @@
       <c r="Y711" s="3"/>
       <c r="Z711" s="3"/>
     </row>
-    <row r="712" spans="1:26" ht="19.5" customHeight="1">
+    <row r="712" ht="19.5" customHeight="1">
       <c r="A712" s="3"/>
       <c r="B712" s="3"/>
       <c r="C712" s="3"/>
@@ -20338,7 +20304,7 @@
       <c r="Y712" s="3"/>
       <c r="Z712" s="3"/>
     </row>
-    <row r="713" spans="1:26" ht="19.5" customHeight="1">
+    <row r="713" ht="19.5" customHeight="1">
       <c r="A713" s="3"/>
       <c r="B713" s="3"/>
       <c r="C713" s="3"/>
@@ -20366,7 +20332,7 @@
       <c r="Y713" s="3"/>
       <c r="Z713" s="3"/>
     </row>
-    <row r="714" spans="1:26" ht="19.5" customHeight="1">
+    <row r="714" ht="19.5" customHeight="1">
       <c r="A714" s="3"/>
       <c r="B714" s="3"/>
       <c r="C714" s="3"/>
@@ -20394,7 +20360,7 @@
       <c r="Y714" s="3"/>
       <c r="Z714" s="3"/>
     </row>
-    <row r="715" spans="1:26" ht="19.5" customHeight="1">
+    <row r="715" ht="19.5" customHeight="1">
       <c r="A715" s="3"/>
       <c r="B715" s="3"/>
       <c r="C715" s="3"/>
@@ -20422,7 +20388,7 @@
       <c r="Y715" s="3"/>
       <c r="Z715" s="3"/>
     </row>
-    <row r="716" spans="1:26" ht="19.5" customHeight="1">
+    <row r="716" ht="19.5" customHeight="1">
       <c r="A716" s="3"/>
       <c r="B716" s="3"/>
       <c r="C716" s="3"/>
@@ -20450,7 +20416,7 @@
       <c r="Y716" s="3"/>
       <c r="Z716" s="3"/>
     </row>
-    <row r="717" spans="1:26" ht="19.5" customHeight="1">
+    <row r="717" ht="19.5" customHeight="1">
       <c r="A717" s="3"/>
       <c r="B717" s="3"/>
       <c r="C717" s="3"/>
@@ -20478,7 +20444,7 @@
       <c r="Y717" s="3"/>
       <c r="Z717" s="3"/>
     </row>
-    <row r="718" spans="1:26" ht="19.5" customHeight="1">
+    <row r="718" ht="19.5" customHeight="1">
       <c r="A718" s="3"/>
       <c r="B718" s="3"/>
       <c r="C718" s="3"/>
@@ -20506,7 +20472,7 @@
       <c r="Y718" s="3"/>
       <c r="Z718" s="3"/>
     </row>
-    <row r="719" spans="1:26" ht="19.5" customHeight="1">
+    <row r="719" ht="19.5" customHeight="1">
       <c r="A719" s="3"/>
       <c r="B719" s="3"/>
       <c r="C719" s="3"/>
@@ -20534,7 +20500,7 @@
       <c r="Y719" s="3"/>
       <c r="Z719" s="3"/>
     </row>
-    <row r="720" spans="1:26" ht="19.5" customHeight="1">
+    <row r="720" ht="19.5" customHeight="1">
       <c r="A720" s="3"/>
       <c r="B720" s="3"/>
       <c r="C720" s="3"/>
@@ -20562,7 +20528,7 @@
       <c r="Y720" s="3"/>
       <c r="Z720" s="3"/>
     </row>
-    <row r="721" spans="1:26" ht="19.5" customHeight="1">
+    <row r="721" ht="19.5" customHeight="1">
       <c r="A721" s="3"/>
       <c r="B721" s="3"/>
       <c r="C721" s="3"/>
@@ -20590,7 +20556,7 @@
       <c r="Y721" s="3"/>
       <c r="Z721" s="3"/>
     </row>
-    <row r="722" spans="1:26" ht="19.5" customHeight="1">
+    <row r="722" ht="19.5" customHeight="1">
       <c r="A722" s="3"/>
       <c r="B722" s="3"/>
       <c r="C722" s="3"/>
@@ -20618,7 +20584,7 @@
       <c r="Y722" s="3"/>
       <c r="Z722" s="3"/>
     </row>
-    <row r="723" spans="1:26" ht="19.5" customHeight="1">
+    <row r="723" ht="19.5" customHeight="1">
       <c r="A723" s="3"/>
       <c r="B723" s="3"/>
       <c r="C723" s="3"/>
@@ -20646,7 +20612,7 @@
       <c r="Y723" s="3"/>
       <c r="Z723" s="3"/>
     </row>
-    <row r="724" spans="1:26" ht="19.5" customHeight="1">
+    <row r="724" ht="19.5" customHeight="1">
       <c r="A724" s="3"/>
       <c r="B724" s="3"/>
       <c r="C724" s="3"/>
@@ -20674,7 +20640,7 @@
       <c r="Y724" s="3"/>
       <c r="Z724" s="3"/>
     </row>
-    <row r="725" spans="1:26" ht="19.5" customHeight="1">
+    <row r="725" ht="19.5" customHeight="1">
       <c r="A725" s="3"/>
       <c r="B725" s="3"/>
       <c r="C725" s="3"/>
@@ -20702,7 +20668,7 @@
       <c r="Y725" s="3"/>
       <c r="Z725" s="3"/>
     </row>
-    <row r="726" spans="1:26" ht="19.5" customHeight="1">
+    <row r="726" ht="19.5" customHeight="1">
       <c r="A726" s="3"/>
       <c r="B726" s="3"/>
       <c r="C726" s="3"/>
@@ -20730,7 +20696,7 @@
       <c r="Y726" s="3"/>
       <c r="Z726" s="3"/>
     </row>
-    <row r="727" spans="1:26" ht="19.5" customHeight="1">
+    <row r="727" ht="19.5" customHeight="1">
       <c r="A727" s="3"/>
       <c r="B727" s="3"/>
       <c r="C727" s="3"/>
@@ -20758,7 +20724,7 @@
       <c r="Y727" s="3"/>
       <c r="Z727" s="3"/>
     </row>
-    <row r="728" spans="1:26" ht="19.5" customHeight="1">
+    <row r="728" ht="19.5" customHeight="1">
       <c r="A728" s="3"/>
       <c r="B728" s="3"/>
       <c r="C728" s="3"/>
@@ -20786,7 +20752,7 @@
       <c r="Y728" s="3"/>
       <c r="Z728" s="3"/>
     </row>
-    <row r="729" spans="1:26" ht="19.5" customHeight="1">
+    <row r="729" ht="19.5" customHeight="1">
       <c r="A729" s="3"/>
       <c r="B729" s="3"/>
       <c r="C729" s="3"/>
@@ -20814,7 +20780,7 @@
       <c r="Y729" s="3"/>
       <c r="Z729" s="3"/>
     </row>
-    <row r="730" spans="1:26" ht="19.5" customHeight="1">
+    <row r="730" ht="19.5" customHeight="1">
       <c r="A730" s="3"/>
       <c r="B730" s="3"/>
       <c r="C730" s="3"/>
@@ -20842,7 +20808,7 @@
       <c r="Y730" s="3"/>
       <c r="Z730" s="3"/>
     </row>
-    <row r="731" spans="1:26" ht="19.5" customHeight="1">
+    <row r="731" ht="19.5" customHeight="1">
       <c r="A731" s="3"/>
       <c r="B731" s="3"/>
       <c r="C731" s="3"/>
@@ -20870,7 +20836,7 @@
       <c r="Y731" s="3"/>
       <c r="Z731" s="3"/>
     </row>
-    <row r="732" spans="1:26" ht="19.5" customHeight="1">
+    <row r="732" ht="19.5" customHeight="1">
       <c r="A732" s="3"/>
       <c r="B732" s="3"/>
       <c r="C732" s="3"/>
@@ -20898,7 +20864,7 @@
       <c r="Y732" s="3"/>
       <c r="Z732" s="3"/>
     </row>
-    <row r="733" spans="1:26" ht="19.5" customHeight="1">
+    <row r="733" ht="19.5" customHeight="1">
       <c r="A733" s="3"/>
       <c r="B733" s="3"/>
       <c r="C733" s="3"/>
@@ -20926,7 +20892,7 @@
       <c r="Y733" s="3"/>
       <c r="Z733" s="3"/>
     </row>
-    <row r="734" spans="1:26" ht="19.5" customHeight="1">
+    <row r="734" ht="19.5" customHeight="1">
       <c r="A734" s="3"/>
       <c r="B734" s="3"/>
       <c r="C734" s="3"/>
@@ -20954,7 +20920,7 @@
       <c r="Y734" s="3"/>
       <c r="Z734" s="3"/>
     </row>
-    <row r="735" spans="1:26" ht="19.5" customHeight="1">
+    <row r="735" ht="19.5" customHeight="1">
       <c r="A735" s="3"/>
       <c r="B735" s="3"/>
       <c r="C735" s="3"/>
@@ -20982,7 +20948,7 @@
       <c r="Y735" s="3"/>
       <c r="Z735" s="3"/>
     </row>
-    <row r="736" spans="1:26" ht="19.5" customHeight="1">
+    <row r="736" ht="19.5" customHeight="1">
       <c r="A736" s="3"/>
       <c r="B736" s="3"/>
       <c r="C736" s="3"/>
@@ -21010,7 +20976,7 @@
       <c r="Y736" s="3"/>
       <c r="Z736" s="3"/>
     </row>
-    <row r="737" spans="1:26" ht="19.5" customHeight="1">
+    <row r="737" ht="19.5" customHeight="1">
       <c r="A737" s="3"/>
       <c r="B737" s="3"/>
       <c r="C737" s="3"/>
@@ -21038,7 +21004,7 @@
       <c r="Y737" s="3"/>
       <c r="Z737" s="3"/>
     </row>
-    <row r="738" spans="1:26" ht="19.5" customHeight="1">
+    <row r="738" ht="19.5" customHeight="1">
       <c r="A738" s="3"/>
       <c r="B738" s="3"/>
       <c r="C738" s="3"/>
@@ -21066,7 +21032,7 @@
       <c r="Y738" s="3"/>
       <c r="Z738" s="3"/>
     </row>
-    <row r="739" spans="1:26" ht="19.5" customHeight="1">
+    <row r="739" ht="19.5" customHeight="1">
       <c r="A739" s="3"/>
       <c r="B739" s="3"/>
       <c r="C739" s="3"/>
@@ -21094,7 +21060,7 @@
       <c r="Y739" s="3"/>
       <c r="Z739" s="3"/>
     </row>
-    <row r="740" spans="1:26" ht="19.5" customHeight="1">
+    <row r="740" ht="19.5" customHeight="1">
       <c r="A740" s="3"/>
       <c r="B740" s="3"/>
       <c r="C740" s="3"/>
@@ -21122,7 +21088,7 @@
       <c r="Y740" s="3"/>
       <c r="Z740" s="3"/>
     </row>
-    <row r="741" spans="1:26" ht="19.5" customHeight="1">
+    <row r="741" ht="19.5" customHeight="1">
       <c r="A741" s="3"/>
       <c r="B741" s="3"/>
       <c r="C741" s="3"/>
@@ -21150,7 +21116,7 @@
       <c r="Y741" s="3"/>
       <c r="Z741" s="3"/>
     </row>
-    <row r="742" spans="1:26" ht="19.5" customHeight="1">
+    <row r="742" ht="19.5" customHeight="1">
       <c r="A742" s="3"/>
       <c r="B742" s="3"/>
       <c r="C742" s="3"/>
@@ -21178,7 +21144,7 @@
       <c r="Y742" s="3"/>
       <c r="Z742" s="3"/>
     </row>
-    <row r="743" spans="1:26" ht="19.5" customHeight="1">
+    <row r="743" ht="19.5" customHeight="1">
       <c r="A743" s="3"/>
       <c r="B743" s="3"/>
       <c r="C743" s="3"/>
@@ -21206,7 +21172,7 @@
       <c r="Y743" s="3"/>
       <c r="Z743" s="3"/>
     </row>
-    <row r="744" spans="1:26" ht="19.5" customHeight="1">
+    <row r="744" ht="19.5" customHeight="1">
       <c r="A744" s="3"/>
       <c r="B744" s="3"/>
       <c r="C744" s="3"/>
@@ -21234,7 +21200,7 @@
       <c r="Y744" s="3"/>
       <c r="Z744" s="3"/>
     </row>
-    <row r="745" spans="1:26" ht="19.5" customHeight="1">
+    <row r="745" ht="19.5" customHeight="1">
       <c r="A745" s="3"/>
       <c r="B745" s="3"/>
       <c r="C745" s="3"/>
@@ -21262,7 +21228,7 @@
       <c r="Y745" s="3"/>
       <c r="Z745" s="3"/>
     </row>
-    <row r="746" spans="1:26" ht="19.5" customHeight="1">
+    <row r="746" ht="19.5" customHeight="1">
       <c r="A746" s="3"/>
       <c r="B746" s="3"/>
       <c r="C746" s="3"/>
@@ -21290,7 +21256,7 @@
       <c r="Y746" s="3"/>
       <c r="Z746" s="3"/>
     </row>
-    <row r="747" spans="1:26" ht="19.5" customHeight="1">
+    <row r="747" ht="19.5" customHeight="1">
       <c r="A747" s="3"/>
       <c r="B747" s="3"/>
       <c r="C747" s="3"/>
@@ -21318,7 +21284,7 @@
       <c r="Y747" s="3"/>
       <c r="Z747" s="3"/>
     </row>
-    <row r="748" spans="1:26" ht="19.5" customHeight="1">
+    <row r="748" ht="19.5" customHeight="1">
       <c r="A748" s="3"/>
       <c r="B748" s="3"/>
       <c r="C748" s="3"/>
@@ -21346,7 +21312,7 @@
       <c r="Y748" s="3"/>
       <c r="Z748" s="3"/>
     </row>
-    <row r="749" spans="1:26" ht="19.5" customHeight="1">
+    <row r="749" ht="19.5" customHeight="1">
       <c r="A749" s="3"/>
       <c r="B749" s="3"/>
       <c r="C749" s="3"/>
@@ -21374,7 +21340,7 @@
       <c r="Y749" s="3"/>
       <c r="Z749" s="3"/>
     </row>
-    <row r="750" spans="1:26" ht="19.5" customHeight="1">
+    <row r="750" ht="19.5" customHeight="1">
       <c r="A750" s="3"/>
       <c r="B750" s="3"/>
       <c r="C750" s="3"/>
@@ -21402,7 +21368,7 @@
       <c r="Y750" s="3"/>
       <c r="Z750" s="3"/>
     </row>
-    <row r="751" spans="1:26" ht="19.5" customHeight="1">
+    <row r="751" ht="19.5" customHeight="1">
       <c r="A751" s="3"/>
       <c r="B751" s="3"/>
       <c r="C751" s="3"/>
@@ -21430,7 +21396,7 @@
       <c r="Y751" s="3"/>
       <c r="Z751" s="3"/>
     </row>
-    <row r="752" spans="1:26" ht="19.5" customHeight="1">
+    <row r="752" ht="19.5" customHeight="1">
       <c r="A752" s="3"/>
       <c r="B752" s="3"/>
       <c r="C752" s="3"/>
@@ -21458,7 +21424,7 @@
       <c r="Y752" s="3"/>
       <c r="Z752" s="3"/>
     </row>
-    <row r="753" spans="1:26" ht="19.5" customHeight="1">
+    <row r="753" ht="19.5" customHeight="1">
       <c r="A753" s="3"/>
       <c r="B753" s="3"/>
       <c r="C753" s="3"/>
@@ -21486,7 +21452,7 @@
       <c r="Y753" s="3"/>
       <c r="Z753" s="3"/>
     </row>
-    <row r="754" spans="1:26" ht="19.5" customHeight="1">
+    <row r="754" ht="19.5" customHeight="1">
       <c r="A754" s="3"/>
       <c r="B754" s="3"/>
       <c r="C754" s="3"/>
@@ -21514,7 +21480,7 @@
       <c r="Y754" s="3"/>
       <c r="Z754" s="3"/>
     </row>
-    <row r="755" spans="1:26" ht="19.5" customHeight="1">
+    <row r="755" ht="19.5" customHeight="1">
       <c r="A755" s="3"/>
       <c r="B755" s="3"/>
       <c r="C755" s="3"/>
@@ -21542,7 +21508,7 @@
       <c r="Y755" s="3"/>
       <c r="Z755" s="3"/>
     </row>
-    <row r="756" spans="1:26" ht="19.5" customHeight="1">
+    <row r="756" ht="19.5" customHeight="1">
       <c r="A756" s="3"/>
       <c r="B756" s="3"/>
       <c r="C756" s="3"/>
@@ -21570,7 +21536,7 @@
       <c r="Y756" s="3"/>
       <c r="Z756" s="3"/>
     </row>
-    <row r="757" spans="1:26" ht="19.5" customHeight="1">
+    <row r="757" ht="19.5" customHeight="1">
       <c r="A757" s="3"/>
       <c r="B757" s="3"/>
       <c r="C757" s="3"/>
@@ -21598,7 +21564,7 @@
       <c r="Y757" s="3"/>
       <c r="Z757" s="3"/>
     </row>
-    <row r="758" spans="1:26" ht="19.5" customHeight="1">
+    <row r="758" ht="19.5" customHeight="1">
       <c r="A758" s="3"/>
       <c r="B758" s="3"/>
       <c r="C758" s="3"/>
@@ -21626,7 +21592,7 @@
       <c r="Y758" s="3"/>
       <c r="Z758" s="3"/>
     </row>
-    <row r="759" spans="1:26" ht="19.5" customHeight="1">
+    <row r="759" ht="19.5" customHeight="1">
       <c r="A759" s="3"/>
       <c r="B759" s="3"/>
       <c r="C759" s="3"/>
@@ -21654,7 +21620,7 @@
       <c r="Y759" s="3"/>
       <c r="Z759" s="3"/>
     </row>
-    <row r="760" spans="1:26" ht="19.5" customHeight="1">
+    <row r="760" ht="19.5" customHeight="1">
       <c r="A760" s="3"/>
       <c r="B760" s="3"/>
       <c r="C760" s="3"/>
@@ -21682,7 +21648,7 @@
       <c r="Y760" s="3"/>
       <c r="Z760" s="3"/>
     </row>
-    <row r="761" spans="1:26" ht="19.5" customHeight="1">
+    <row r="761" ht="19.5" customHeight="1">
       <c r="A761" s="3"/>
       <c r="B761" s="3"/>
       <c r="C761" s="3"/>
@@ -21710,7 +21676,7 @@
       <c r="Y761" s="3"/>
       <c r="Z761" s="3"/>
     </row>
-    <row r="762" spans="1:26" ht="19.5" customHeight="1">
+    <row r="762" ht="19.5" customHeight="1">
       <c r="A762" s="3"/>
       <c r="B762" s="3"/>
       <c r="C762" s="3"/>
@@ -21738,7 +21704,7 @@
       <c r="Y762" s="3"/>
       <c r="Z762" s="3"/>
     </row>
-    <row r="763" spans="1:26" ht="19.5" customHeight="1">
+    <row r="763" ht="19.5" customHeight="1">
       <c r="A763" s="3"/>
       <c r="B763" s="3"/>
       <c r="C763" s="3"/>
@@ -21766,7 +21732,7 @@
       <c r="Y763" s="3"/>
       <c r="Z763" s="3"/>
     </row>
-    <row r="764" spans="1:26" ht="19.5" customHeight="1">
+    <row r="764" ht="19.5" customHeight="1">
       <c r="A764" s="3"/>
       <c r="B764" s="3"/>
       <c r="C764" s="3"/>
@@ -21794,7 +21760,7 @@
       <c r="Y764" s="3"/>
       <c r="Z764" s="3"/>
     </row>
-    <row r="765" spans="1:26" ht="19.5" customHeight="1">
+    <row r="765" ht="19.5" customHeight="1">
       <c r="A765" s="3"/>
       <c r="B765" s="3"/>
       <c r="C765" s="3"/>
@@ -21822,7 +21788,7 @@
       <c r="Y765" s="3"/>
       <c r="Z765" s="3"/>
     </row>
-    <row r="766" spans="1:26" ht="19.5" customHeight="1">
+    <row r="766" ht="19.5" customHeight="1">
       <c r="A766" s="3"/>
       <c r="B766" s="3"/>
       <c r="C766" s="3"/>
@@ -21850,7 +21816,7 @@
       <c r="Y766" s="3"/>
       <c r="Z766" s="3"/>
     </row>
-    <row r="767" spans="1:26" ht="19.5" customHeight="1">
+    <row r="767" ht="19.5" customHeight="1">
       <c r="A767" s="3"/>
       <c r="B767" s="3"/>
       <c r="C767" s="3"/>
@@ -21878,7 +21844,7 @@
       <c r="Y767" s="3"/>
       <c r="Z767" s="3"/>
     </row>
-    <row r="768" spans="1:26" ht="19.5" customHeight="1">
+    <row r="768" ht="19.5" customHeight="1">
       <c r="A768" s="3"/>
       <c r="B768" s="3"/>
       <c r="C768" s="3"/>
@@ -21906,7 +21872,7 @@
       <c r="Y768" s="3"/>
       <c r="Z768" s="3"/>
     </row>
-    <row r="769" spans="1:26" ht="19.5" customHeight="1">
+    <row r="769" ht="19.5" customHeight="1">
       <c r="A769" s="3"/>
       <c r="B769" s="3"/>
       <c r="C769" s="3"/>
@@ -21934,7 +21900,7 @@
       <c r="Y769" s="3"/>
       <c r="Z769" s="3"/>
     </row>
-    <row r="770" spans="1:26" ht="19.5" customHeight="1">
+    <row r="770" ht="19.5" customHeight="1">
       <c r="A770" s="3"/>
       <c r="B770" s="3"/>
       <c r="C770" s="3"/>
@@ -21962,7 +21928,7 @@
       <c r="Y770" s="3"/>
       <c r="Z770" s="3"/>
     </row>
-    <row r="771" spans="1:26" ht="19.5" customHeight="1">
+    <row r="771" ht="19.5" customHeight="1">
       <c r="A771" s="3"/>
       <c r="B771" s="3"/>
       <c r="C771" s="3"/>
@@ -21990,7 +21956,7 @@
       <c r="Y771" s="3"/>
       <c r="Z771" s="3"/>
     </row>
-    <row r="772" spans="1:26" ht="19.5" customHeight="1">
+    <row r="772" ht="19.5" customHeight="1">
       <c r="A772" s="3"/>
       <c r="B772" s="3"/>
       <c r="C772" s="3"/>
@@ -22018,7 +21984,7 @@
       <c r="Y772" s="3"/>
       <c r="Z772" s="3"/>
     </row>
-    <row r="773" spans="1:26" ht="19.5" customHeight="1">
+    <row r="773" ht="19.5" customHeight="1">
       <c r="A773" s="3"/>
       <c r="B773" s="3"/>
       <c r="C773" s="3"/>
@@ -22046,7 +22012,7 @@
       <c r="Y773" s="3"/>
       <c r="Z773" s="3"/>
     </row>
-    <row r="774" spans="1:26" ht="19.5" customHeight="1">
+    <row r="774" ht="19.5" customHeight="1">
       <c r="A774" s="3"/>
       <c r="B774" s="3"/>
       <c r="C774" s="3"/>
@@ -22074,7 +22040,7 @@
       <c r="Y774" s="3"/>
       <c r="Z774" s="3"/>
     </row>
-    <row r="775" spans="1:26" ht="19.5" customHeight="1">
+    <row r="775" ht="19.5" customHeight="1">
       <c r="A775" s="3"/>
       <c r="B775" s="3"/>
       <c r="C775" s="3"/>
@@ -22102,7 +22068,7 @@
       <c r="Y775" s="3"/>
       <c r="Z775" s="3"/>
     </row>
-    <row r="776" spans="1:26" ht="19.5" customHeight="1">
+    <row r="776" ht="19.5" customHeight="1">
       <c r="A776" s="3"/>
       <c r="B776" s="3"/>
       <c r="C776" s="3"/>
@@ -22130,7 +22096,7 @@
       <c r="Y776" s="3"/>
       <c r="Z776" s="3"/>
     </row>
-    <row r="777" spans="1:26" ht="19.5" customHeight="1">
+    <row r="777" ht="19.5" customHeight="1">
       <c r="A777" s="3"/>
       <c r="B777" s="3"/>
       <c r="C777" s="3"/>
@@ -22158,7 +22124,7 @@
       <c r="Y777" s="3"/>
       <c r="Z777" s="3"/>
     </row>
-    <row r="778" spans="1:26" ht="19.5" customHeight="1">
+    <row r="778" ht="19.5" customHeight="1">
       <c r="A778" s="3"/>
       <c r="B778" s="3"/>
       <c r="C778" s="3"/>
@@ -22186,7 +22152,7 @@
       <c r="Y778" s="3"/>
       <c r="Z778" s="3"/>
     </row>
-    <row r="779" spans="1:26" ht="19.5" customHeight="1">
+    <row r="779" ht="19.5" customHeight="1">
       <c r="A779" s="3"/>
       <c r="B779" s="3"/>
       <c r="C779" s="3"/>
@@ -22214,7 +22180,7 @@
       <c r="Y779" s="3"/>
       <c r="Z779" s="3"/>
     </row>
-    <row r="780" spans="1:26" ht="19.5" customHeight="1">
+    <row r="780" ht="19.5" customHeight="1">
       <c r="A780" s="3"/>
       <c r="B780" s="3"/>
       <c r="C780" s="3"/>
@@ -22242,7 +22208,7 @@
       <c r="Y780" s="3"/>
       <c r="Z780" s="3"/>
     </row>
-    <row r="781" spans="1:26" ht="19.5" customHeight="1">
+    <row r="781" ht="19.5" customHeight="1">
       <c r="A781" s="3"/>
       <c r="B781" s="3"/>
       <c r="C781" s="3"/>
@@ -22270,7 +22236,7 @@
       <c r="Y781" s="3"/>
       <c r="Z781" s="3"/>
     </row>
-    <row r="782" spans="1:26" ht="19.5" customHeight="1">
+    <row r="782" ht="19.5" customHeight="1">
       <c r="A782" s="3"/>
       <c r="B782" s="3"/>
       <c r="C782" s="3"/>
@@ -22298,7 +22264,7 @@
       <c r="Y782" s="3"/>
       <c r="Z782" s="3"/>
     </row>
-    <row r="783" spans="1:26" ht="19.5" customHeight="1">
+    <row r="783" ht="19.5" customHeight="1">
       <c r="A783" s="3"/>
       <c r="B783" s="3"/>
       <c r="C783" s="3"/>
@@ -22326,7 +22292,7 @@
       <c r="Y783" s="3"/>
       <c r="Z783" s="3"/>
     </row>
-    <row r="784" spans="1:26" ht="19.5" customHeight="1">
+    <row r="784" ht="19.5" customHeight="1">
       <c r="A784" s="3"/>
       <c r="B784" s="3"/>
       <c r="C784" s="3"/>
@@ -22354,7 +22320,7 @@
       <c r="Y784" s="3"/>
       <c r="Z784" s="3"/>
     </row>
-    <row r="785" spans="1:26" ht="19.5" customHeight="1">
+    <row r="785" ht="19.5" customHeight="1">
       <c r="A785" s="3"/>
       <c r="B785" s="3"/>
       <c r="C785" s="3"/>
@@ -22382,7 +22348,7 @@
       <c r="Y785" s="3"/>
       <c r="Z785" s="3"/>
     </row>
-    <row r="786" spans="1:26" ht="19.5" customHeight="1">
+    <row r="786" ht="19.5" customHeight="1">
       <c r="A786" s="3"/>
       <c r="B786" s="3"/>
       <c r="C786" s="3"/>
@@ -22410,7 +22376,7 @@
       <c r="Y786" s="3"/>
       <c r="Z786" s="3"/>
     </row>
-    <row r="787" spans="1:26" ht="19.5" customHeight="1">
+    <row r="787" ht="19.5" customHeight="1">
       <c r="A787" s="3"/>
       <c r="B787" s="3"/>
       <c r="C787" s="3"/>
@@ -22438,7 +22404,7 @@
       <c r="Y787" s="3"/>
       <c r="Z787" s="3"/>
     </row>
-    <row r="788" spans="1:26" ht="19.5" customHeight="1">
+    <row r="788" ht="19.5" customHeight="1">
       <c r="A788" s="3"/>
       <c r="B788" s="3"/>
       <c r="C788" s="3"/>
@@ -22466,7 +22432,7 @@
       <c r="Y788" s="3"/>
       <c r="Z788" s="3"/>
     </row>
-    <row r="789" spans="1:26" ht="19.5" customHeight="1">
+    <row r="789" ht="19.5" customHeight="1">
       <c r="A789" s="3"/>
       <c r="B789" s="3"/>
       <c r="C789" s="3"/>
@@ -22494,7 +22460,7 @@
       <c r="Y789" s="3"/>
       <c r="Z789" s="3"/>
     </row>
-    <row r="790" spans="1:26" ht="19.5" customHeight="1">
+    <row r="790" ht="19.5" customHeight="1">
       <c r="A790" s="3"/>
       <c r="B790" s="3"/>
       <c r="C790" s="3"/>
@@ -22522,7 +22488,7 @@
       <c r="Y790" s="3"/>
       <c r="Z790" s="3"/>
     </row>
-    <row r="791" spans="1:26" ht="19.5" customHeight="1">
+    <row r="791" ht="19.5" customHeight="1">
       <c r="A791" s="3"/>
       <c r="B791" s="3"/>
       <c r="C791" s="3"/>
@@ -22550,7 +22516,7 @@
       <c r="Y791" s="3"/>
       <c r="Z791" s="3"/>
     </row>
-    <row r="792" spans="1:26" ht="19.5" customHeight="1">
+    <row r="792" ht="19.5" customHeight="1">
       <c r="A792" s="3"/>
       <c r="B792" s="3"/>
       <c r="C792" s="3"/>
@@ -22578,7 +22544,7 @@
       <c r="Y792" s="3"/>
       <c r="Z792" s="3"/>
     </row>
-    <row r="793" spans="1:26" ht="19.5" customHeight="1">
+    <row r="793" ht="19.5" customHeight="1">
       <c r="A793" s="3"/>
       <c r="B793" s="3"/>
       <c r="C793" s="3"/>
@@ -22606,7 +22572,7 @@
       <c r="Y793" s="3"/>
       <c r="Z793" s="3"/>
     </row>
-    <row r="794" spans="1:26" ht="19.5" customHeight="1">
+    <row r="794" ht="19.5" customHeight="1">
       <c r="A794" s="3"/>
       <c r="B794" s="3"/>
       <c r="C794" s="3"/>
@@ -22634,7 +22600,7 @@
       <c r="Y794" s="3"/>
       <c r="Z794" s="3"/>
     </row>
-    <row r="795" spans="1:26" ht="19.5" customHeight="1">
+    <row r="795" ht="19.5" customHeight="1">
       <c r="A795" s="3"/>
       <c r="B795" s="3"/>
       <c r="C795" s="3"/>
@@ -22662,7 +22628,7 @@
       <c r="Y795" s="3"/>
       <c r="Z795" s="3"/>
     </row>
-    <row r="796" spans="1:26" ht="19.5" customHeight="1">
+    <row r="796" ht="19.5" customHeight="1">
       <c r="A796" s="3"/>
       <c r="B796" s="3"/>
       <c r="C796" s="3"/>
@@ -22690,7 +22656,7 @@
       <c r="Y796" s="3"/>
       <c r="Z796" s="3"/>
     </row>
-    <row r="797" spans="1:26" ht="19.5" customHeight="1">
+    <row r="797" ht="19.5" customHeight="1">
       <c r="A797" s="3"/>
       <c r="B797" s="3"/>
       <c r="C797" s="3"/>
@@ -22718,7 +22684,7 @@
       <c r="Y797" s="3"/>
       <c r="Z797" s="3"/>
     </row>
-    <row r="798" spans="1:26" ht="19.5" customHeight="1">
+    <row r="798" ht="19.5" customHeight="1">
       <c r="A798" s="3"/>
       <c r="B798" s="3"/>
       <c r="C798" s="3"/>
@@ -22746,7 +22712,7 @@
       <c r="Y798" s="3"/>
       <c r="Z798" s="3"/>
     </row>
-    <row r="799" spans="1:26" ht="19.5" customHeight="1">
+    <row r="799" ht="19.5" customHeight="1">
       <c r="A799" s="3"/>
       <c r="B799" s="3"/>
       <c r="C799" s="3"/>
@@ -22774,7 +22740,7 @@
       <c r="Y799" s="3"/>
       <c r="Z799" s="3"/>
     </row>
-    <row r="800" spans="1:26" ht="19.5" customHeight="1">
+    <row r="800" ht="19.5" customHeight="1">
       <c r="A800" s="3"/>
       <c r="B800" s="3"/>
       <c r="C800" s="3"/>
@@ -22802,7 +22768,7 @@
       <c r="Y800" s="3"/>
       <c r="Z800" s="3"/>
     </row>
-    <row r="801" spans="1:26" ht="19.5" customHeight="1">
+    <row r="801" ht="19.5" customHeight="1">
       <c r="A801" s="3"/>
       <c r="B801" s="3"/>
       <c r="C801" s="3"/>
@@ -22830,7 +22796,7 @@
       <c r="Y801" s="3"/>
       <c r="Z801" s="3"/>
     </row>
-    <row r="802" spans="1:26" ht="19.5" customHeight="1">
+    <row r="802" ht="19.5" customHeight="1">
       <c r="A802" s="3"/>
       <c r="B802" s="3"/>
       <c r="C802" s="3"/>
@@ -22858,7 +22824,7 @@
       <c r="Y802" s="3"/>
       <c r="Z802" s="3"/>
     </row>
-    <row r="803" spans="1:26" ht="19.5" customHeight="1">
+    <row r="803" ht="19.5" customHeight="1">
       <c r="A803" s="3"/>
       <c r="B803" s="3"/>
       <c r="C803" s="3"/>
@@ -22886,7 +22852,7 @@
       <c r="Y803" s="3"/>
       <c r="Z803" s="3"/>
     </row>
-    <row r="804" spans="1:26" ht="19.5" customHeight="1">
+    <row r="804" ht="19.5" customHeight="1">
       <c r="A804" s="3"/>
       <c r="B804" s="3"/>
       <c r="C804" s="3"/>
@@ -22914,7 +22880,7 @@
       <c r="Y804" s="3"/>
       <c r="Z804" s="3"/>
     </row>
-    <row r="805" spans="1:26" ht="19.5" customHeight="1">
+    <row r="805" ht="19.5" customHeight="1">
       <c r="A805" s="3"/>
       <c r="B805" s="3"/>
       <c r="C805" s="3"/>
@@ -22942,7 +22908,7 @@
       <c r="Y805" s="3"/>
       <c r="Z805" s="3"/>
     </row>
-    <row r="806" spans="1:26" ht="19.5" customHeight="1">
+    <row r="806" ht="19.5" customHeight="1">
       <c r="A806" s="3"/>
       <c r="B806" s="3"/>
       <c r="C806" s="3"/>
@@ -22970,7 +22936,7 @@
       <c r="Y806" s="3"/>
       <c r="Z806" s="3"/>
     </row>
-    <row r="807" spans="1:26" ht="19.5" customHeight="1">
+    <row r="807" ht="19.5" customHeight="1">
       <c r="A807" s="3"/>
       <c r="B807" s="3"/>
       <c r="C807" s="3"/>
@@ -22998,7 +22964,7 @@
       <c r="Y807" s="3"/>
       <c r="Z807" s="3"/>
     </row>
-    <row r="808" spans="1:26" ht="19.5" customHeight="1">
+    <row r="808" ht="19.5" customHeight="1">
       <c r="A808" s="3"/>
       <c r="B808" s="3"/>
       <c r="C808" s="3"/>
@@ -23026,7 +22992,7 @@
       <c r="Y808" s="3"/>
       <c r="Z808" s="3"/>
     </row>
-    <row r="809" spans="1:26" ht="19.5" customHeight="1">
+    <row r="809" ht="19.5" customHeight="1">
       <c r="A809" s="3"/>
       <c r="B809" s="3"/>
       <c r="C809" s="3"/>
@@ -23054,7 +23020,7 @@
       <c r="Y809" s="3"/>
       <c r="Z809" s="3"/>
     </row>
-    <row r="810" spans="1:26" ht="19.5" customHeight="1">
+    <row r="810" ht="19.5" customHeight="1">
       <c r="A810" s="3"/>
       <c r="B810" s="3"/>
       <c r="C810" s="3"/>
@@ -23082,7 +23048,7 @@
       <c r="Y810" s="3"/>
       <c r="Z810" s="3"/>
     </row>
-    <row r="811" spans="1:26" ht="19.5" customHeight="1">
+    <row r="811" ht="19.5" customHeight="1">
       <c r="A811" s="3"/>
       <c r="B811" s="3"/>
       <c r="C811" s="3"/>
@@ -23110,7 +23076,7 @@
       <c r="Y811" s="3"/>
       <c r="Z811" s="3"/>
     </row>
-    <row r="812" spans="1:26" ht="19.5" customHeight="1">
+    <row r="812" ht="19.5" customHeight="1">
       <c r="A812" s="3"/>
       <c r="B812" s="3"/>
       <c r="C812" s="3"/>
@@ -23138,7 +23104,7 @@
       <c r="Y812" s="3"/>
       <c r="Z812" s="3"/>
     </row>
-    <row r="813" spans="1:26" ht="19.5" customHeight="1">
+    <row r="813" ht="19.5" customHeight="1">
       <c r="A813" s="3"/>
       <c r="B813" s="3"/>
       <c r="C813" s="3"/>
@@ -23166,7 +23132,7 @@
       <c r="Y813" s="3"/>
       <c r="Z813" s="3"/>
     </row>
-    <row r="814" spans="1:26" ht="19.5" customHeight="1">
+    <row r="814" ht="19.5" customHeight="1">
       <c r="A814" s="3"/>
       <c r="B814" s="3"/>
       <c r="C814" s="3"/>
@@ -23194,7 +23160,7 @@
       <c r="Y814" s="3"/>
       <c r="Z814" s="3"/>
     </row>
-    <row r="815" spans="1:26" ht="19.5" customHeight="1">
+    <row r="815" ht="19.5" customHeight="1">
       <c r="A815" s="3"/>
       <c r="B815" s="3"/>
       <c r="C815" s="3"/>
@@ -23222,7 +23188,7 @@
       <c r="Y815" s="3"/>
       <c r="Z815" s="3"/>
     </row>
-    <row r="816" spans="1:26" ht="19.5" customHeight="1">
+    <row r="816" ht="19.5" customHeight="1">
       <c r="A816" s="3"/>
       <c r="B816" s="3"/>
       <c r="C816" s="3"/>
@@ -23250,7 +23216,7 @@
       <c r="Y816" s="3"/>
       <c r="Z816" s="3"/>
     </row>
-    <row r="817" spans="1:26" ht="19.5" customHeight="1">
+    <row r="817" ht="19.5" customHeight="1">
       <c r="A817" s="3"/>
       <c r="B817" s="3"/>
       <c r="C817" s="3"/>
@@ -23278,7 +23244,7 @@
       <c r="Y817" s="3"/>
       <c r="Z817" s="3"/>
     </row>
-    <row r="818" spans="1:26" ht="19.5" customHeight="1">
+    <row r="818" ht="19.5" customHeight="1">
       <c r="A818" s="3"/>
       <c r="B818" s="3"/>
       <c r="C818" s="3"/>
@@ -23306,7 +23272,7 @@
       <c r="Y818" s="3"/>
       <c r="Z818" s="3"/>
     </row>
-    <row r="819" spans="1:26" ht="19.5" customHeight="1">
+    <row r="819" ht="19.5" customHeight="1">
       <c r="A819" s="3"/>
       <c r="B819" s="3"/>
       <c r="C819" s="3"/>
@@ -23334,7 +23300,7 @@
       <c r="Y819" s="3"/>
       <c r="Z819" s="3"/>
     </row>
-    <row r="820" spans="1:26" ht="19.5" customHeight="1">
+    <row r="820" ht="19.5" customHeight="1">
       <c r="A820" s="3"/>
       <c r="B820" s="3"/>
       <c r="C820" s="3"/>
@@ -23362,7 +23328,7 @@
       <c r="Y820" s="3"/>
       <c r="Z820" s="3"/>
     </row>
-    <row r="821" spans="1:26" ht="19.5" customHeight="1">
+    <row r="821" ht="19.5" customHeight="1">
       <c r="A821" s="3"/>
       <c r="B821" s="3"/>
       <c r="C821" s="3"/>
@@ -23390,7 +23356,7 @@
       <c r="Y821" s="3"/>
       <c r="Z821" s="3"/>
     </row>
-    <row r="822" spans="1:26" ht="19.5" customHeight="1">
+    <row r="822" ht="19.5" customHeight="1">
       <c r="A822" s="3"/>
       <c r="B822" s="3"/>
       <c r="C822" s="3"/>
@@ -23418,7 +23384,7 @@
       <c r="Y822" s="3"/>
       <c r="Z822" s="3"/>
     </row>
-    <row r="823" spans="1:26" ht="19.5" customHeight="1">
+    <row r="823" ht="19.5" customHeight="1">
       <c r="A823" s="3"/>
       <c r="B823" s="3"/>
       <c r="C823" s="3"/>
@@ -23446,7 +23412,7 @@
       <c r="Y823" s="3"/>
       <c r="Z823" s="3"/>
     </row>
-    <row r="824" spans="1:26" ht="19.5" customHeight="1">
+    <row r="824" ht="19.5" customHeight="1">
       <c r="A824" s="3"/>
       <c r="B824" s="3"/>
       <c r="C824" s="3"/>
@@ -23474,7 +23440,7 @@
       <c r="Y824" s="3"/>
       <c r="Z824" s="3"/>
     </row>
-    <row r="825" spans="1:26" ht="19.5" customHeight="1">
+    <row r="825" ht="19.5" customHeight="1">
       <c r="A825" s="3"/>
       <c r="B825" s="3"/>
       <c r="C825" s="3"/>
@@ -23502,7 +23468,7 @@
       <c r="Y825" s="3"/>
       <c r="Z825" s="3"/>
     </row>
-    <row r="826" spans="1:26" ht="19.5" customHeight="1">
+    <row r="826" ht="19.5" customHeight="1">
       <c r="A826" s="3"/>
       <c r="B826" s="3"/>
       <c r="C826" s="3"/>
@@ -23530,7 +23496,7 @@
       <c r="Y826" s="3"/>
       <c r="Z826" s="3"/>
     </row>
-    <row r="827" spans="1:26" ht="19.5" customHeight="1">
+    <row r="827" ht="19.5" customHeight="1">
       <c r="A827" s="3"/>
       <c r="B827" s="3"/>
       <c r="C827" s="3"/>
@@ -23558,7 +23524,7 @@
       <c r="Y827" s="3"/>
       <c r="Z827" s="3"/>
     </row>
-    <row r="828" spans="1:26" ht="19.5" customHeight="1">
+    <row r="828" ht="19.5" customHeight="1">
       <c r="A828" s="3"/>
       <c r="B828" s="3"/>
       <c r="C828" s="3"/>
@@ -23586,7 +23552,7 @@
       <c r="Y828" s="3"/>
       <c r="Z828" s="3"/>
     </row>
-    <row r="829" spans="1:26" ht="19.5" customHeight="1">
+    <row r="829" ht="19.5" customHeight="1">
       <c r="A829" s="3"/>
       <c r="B829" s="3"/>
       <c r="C829" s="3"/>
@@ -23614,7 +23580,7 @@
       <c r="Y829" s="3"/>
       <c r="Z829" s="3"/>
     </row>
-    <row r="830" spans="1:26" ht="19.5" customHeight="1">
+    <row r="830" ht="19.5" customHeight="1">
       <c r="A830" s="3"/>
       <c r="B830" s="3"/>
       <c r="C830" s="3"/>
@@ -23642,7 +23608,7 @@
       <c r="Y830" s="3"/>
       <c r="Z830" s="3"/>
     </row>
-    <row r="831" spans="1:26" ht="19.5" customHeight="1">
+    <row r="831" ht="19.5" customHeight="1">
       <c r="A831" s="3"/>
       <c r="B831" s="3"/>
       <c r="C831" s="3"/>
@@ -23670,7 +23636,7 @@
       <c r="Y831" s="3"/>
       <c r="Z831" s="3"/>
     </row>
-    <row r="832" spans="1:26" ht="19.5" customHeight="1">
+    <row r="832" ht="19.5" customHeight="1">
       <c r="A832" s="3"/>
       <c r="B832" s="3"/>
       <c r="C832" s="3"/>
@@ -23698,7 +23664,7 @@
       <c r="Y832" s="3"/>
       <c r="Z832" s="3"/>
     </row>
-    <row r="833" spans="1:26" ht="19.5" customHeight="1">
+    <row r="833" ht="19.5" customHeight="1">
       <c r="A833" s="3"/>
       <c r="B833" s="3"/>
       <c r="C833" s="3"/>
@@ -23726,7 +23692,7 @@
       <c r="Y833" s="3"/>
       <c r="Z833" s="3"/>
     </row>
-    <row r="834" spans="1:26" ht="19.5" customHeight="1">
+    <row r="834" ht="19.5" customHeight="1">
       <c r="A834" s="3"/>
       <c r="B834" s="3"/>
       <c r="C834" s="3"/>
@@ -23754,7 +23720,7 @@
       <c r="Y834" s="3"/>
       <c r="Z834" s="3"/>
     </row>
-    <row r="835" spans="1:26" ht="19.5" customHeight="1">
+    <row r="835" ht="19.5" customHeight="1">
       <c r="A835" s="3"/>
       <c r="B835" s="3"/>
       <c r="C835" s="3"/>
@@ -23782,7 +23748,7 @@
       <c r="Y835" s="3"/>
       <c r="Z835" s="3"/>
     </row>
-    <row r="836" spans="1:26" ht="19.5" customHeight="1">
+    <row r="836" ht="19.5" customHeight="1">
       <c r="A836" s="3"/>
       <c r="B836" s="3"/>
       <c r="C836" s="3"/>
@@ -23810,7 +23776,7 @@
       <c r="Y836" s="3"/>
       <c r="Z836" s="3"/>
     </row>
-    <row r="837" spans="1:26" ht="19.5" customHeight="1">
+    <row r="837" ht="19.5" customHeight="1">
       <c r="A837" s="3"/>
       <c r="B837" s="3"/>
       <c r="C837" s="3"/>
@@ -23838,7 +23804,7 @@
       <c r="Y837" s="3"/>
       <c r="Z837" s="3"/>
     </row>
-    <row r="838" spans="1:26" ht="19.5" customHeight="1">
+    <row r="838" ht="19.5" customHeight="1">
       <c r="A838" s="3"/>
       <c r="B838" s="3"/>
       <c r="C838" s="3"/>
@@ -23866,7 +23832,7 @@
       <c r="Y838" s="3"/>
       <c r="Z838" s="3"/>
     </row>
-    <row r="839" spans="1:26" ht="19.5" customHeight="1">
+    <row r="839" ht="19.5" customHeight="1">
       <c r="A839" s="3"/>
       <c r="B839" s="3"/>
       <c r="C839" s="3"/>
@@ -23894,7 +23860,7 @@
       <c r="Y839" s="3"/>
       <c r="Z839" s="3"/>
     </row>
-    <row r="840" spans="1:26" ht="19.5" customHeight="1">
+    <row r="840" ht="19.5" customHeight="1">
       <c r="A840" s="3"/>
       <c r="B840" s="3"/>
       <c r="C840" s="3"/>
@@ -23922,7 +23888,7 @@
       <c r="Y840" s="3"/>
       <c r="Z840" s="3"/>
     </row>
-    <row r="841" spans="1:26" ht="19.5" customHeight="1">
+    <row r="841" ht="19.5" customHeight="1">
       <c r="A841" s="3"/>
       <c r="B841" s="3"/>
       <c r="C841" s="3"/>
@@ -23950,7 +23916,7 @@
       <c r="Y841" s="3"/>
       <c r="Z841" s="3"/>
     </row>
-    <row r="842" spans="1:26" ht="19.5" customHeight="1">
+    <row r="842" ht="19.5" customHeight="1">
       <c r="A842" s="3"/>
       <c r="B842" s="3"/>
       <c r="C842" s="3"/>
@@ -23978,7 +23944,7 @@
       <c r="Y842" s="3"/>
       <c r="Z842" s="3"/>
     </row>
-    <row r="843" spans="1:26" ht="19.5" customHeight="1">
+    <row r="843" ht="19.5" customHeight="1">
       <c r="A843" s="3"/>
       <c r="B843" s="3"/>
       <c r="C843" s="3"/>
@@ -24006,7 +23972,7 @@
       <c r="Y843" s="3"/>
       <c r="Z843" s="3"/>
     </row>
-    <row r="844" spans="1:26" ht="19.5" customHeight="1">
+    <row r="844" ht="19.5" customHeight="1">
       <c r="A844" s="3"/>
       <c r="B844" s="3"/>
       <c r="C844" s="3"/>
@@ -24034,7 +24000,7 @@
       <c r="Y844" s="3"/>
       <c r="Z844" s="3"/>
     </row>
-    <row r="845" spans="1:26" ht="19.5" customHeight="1">
+    <row r="845" ht="19.5" customHeight="1">
       <c r="A845" s="3"/>
       <c r="B845" s="3"/>
       <c r="C845" s="3"/>
@@ -24062,7 +24028,7 @@
       <c r="Y845" s="3"/>
       <c r="Z845" s="3"/>
     </row>
-    <row r="846" spans="1:26" ht="19.5" customHeight="1">
+    <row r="846" ht="19.5" customHeight="1">
       <c r="A846" s="3"/>
       <c r="B846" s="3"/>
       <c r="C846" s="3"/>
@@ -24090,7 +24056,7 @@
       <c r="Y846" s="3"/>
       <c r="Z846" s="3"/>
     </row>
-    <row r="847" spans="1:26" ht="19.5" customHeight="1">
+    <row r="847" ht="19.5" customHeight="1">
       <c r="A847" s="3"/>
       <c r="B847" s="3"/>
       <c r="C847" s="3"/>
@@ -24118,7 +24084,7 @@
       <c r="Y847" s="3"/>
       <c r="Z847" s="3"/>
     </row>
-    <row r="848" spans="1:26" ht="19.5" customHeight="1">
+    <row r="848" ht="19.5" customHeight="1">
       <c r="A848" s="3"/>
       <c r="B848" s="3"/>
       <c r="C848" s="3"/>
@@ -24146,7 +24112,7 @@
       <c r="Y848" s="3"/>
       <c r="Z848" s="3"/>
     </row>
-    <row r="849" spans="1:26" ht="19.5" customHeight="1">
+    <row r="849" ht="19.5" customHeight="1">
       <c r="A849" s="3"/>
       <c r="B849" s="3"/>
       <c r="C849" s="3"/>
@@ -24174,7 +24140,7 @@
       <c r="Y849" s="3"/>
       <c r="Z849" s="3"/>
     </row>
-    <row r="850" spans="1:26" ht="19.5" customHeight="1">
+    <row r="850" ht="19.5" customHeight="1">
       <c r="A850" s="3"/>
       <c r="B850" s="3"/>
       <c r="C850" s="3"/>
@@ -24202,7 +24168,7 @@
       <c r="Y850" s="3"/>
       <c r="Z850" s="3"/>
     </row>
-    <row r="851" spans="1:26" ht="19.5" customHeight="1">
+    <row r="851" ht="19.5" customHeight="1">
       <c r="A851" s="3"/>
       <c r="B851" s="3"/>
       <c r="C851" s="3"/>
@@ -24230,7 +24196,7 @@
       <c r="Y851" s="3"/>
       <c r="Z851" s="3"/>
     </row>
-    <row r="852" spans="1:26" ht="19.5" customHeight="1">
+    <row r="852" ht="19.5" customHeight="1">
       <c r="A852" s="3"/>
       <c r="B852" s="3"/>
       <c r="C852" s="3"/>
@@ -24258,7 +24224,7 @@
       <c r="Y852" s="3"/>
       <c r="Z852" s="3"/>
     </row>
-    <row r="853" spans="1:26" ht="19.5" customHeight="1">
+    <row r="853" ht="19.5" customHeight="1">
       <c r="A853" s="3"/>
       <c r="B853" s="3"/>
       <c r="C853" s="3"/>
@@ -24286,7 +24252,7 @@
       <c r="Y853" s="3"/>
       <c r="Z853" s="3"/>
     </row>
-    <row r="854" spans="1:26" ht="19.5" customHeight="1">
+    <row r="854" ht="19.5" customHeight="1">
       <c r="A854" s="3"/>
       <c r="B854" s="3"/>
       <c r="C854" s="3"/>
@@ -24314,7 +24280,7 @@
       <c r="Y854" s="3"/>
       <c r="Z854" s="3"/>
     </row>
-    <row r="855" spans="1:26" ht="19.5" customHeight="1">
+    <row r="855" ht="19.5" customHeight="1">
       <c r="A855" s="3"/>
       <c r="B855" s="3"/>
       <c r="C855" s="3"/>
@@ -24342,7 +24308,7 @@
       <c r="Y855" s="3"/>
       <c r="Z855" s="3"/>
     </row>
-    <row r="856" spans="1:26" ht="19.5" customHeight="1">
+    <row r="856" ht="19.5" customHeight="1">
       <c r="A856" s="3"/>
       <c r="B856" s="3"/>
       <c r="C856" s="3"/>
@@ -24370,7 +24336,7 @@
       <c r="Y856" s="3"/>
       <c r="Z856" s="3"/>
     </row>
-    <row r="857" spans="1:26" ht="19.5" customHeight="1">
+    <row r="857" ht="19.5" customHeight="1">
       <c r="A857" s="3"/>
       <c r="B857" s="3"/>
       <c r="C857" s="3"/>
@@ -24398,7 +24364,7 @@
       <c r="Y857" s="3"/>
       <c r="Z857" s="3"/>
     </row>
-    <row r="858" spans="1:26" ht="19.5" customHeight="1">
+    <row r="858" ht="19.5" customHeight="1">
       <c r="A858" s="3"/>
       <c r="B858" s="3"/>
       <c r="C858" s="3"/>
@@ -24426,7 +24392,7 @@
       <c r="Y858" s="3"/>
       <c r="Z858" s="3"/>
     </row>
-    <row r="859" spans="1:26" ht="19.5" customHeight="1">
+    <row r="859" ht="19.5" customHeight="1">
       <c r="A859" s="3"/>
       <c r="B859" s="3"/>
       <c r="C859" s="3"/>
@@ -24454,7 +24420,7 @@
       <c r="Y859" s="3"/>
       <c r="Z859" s="3"/>
     </row>
-    <row r="860" spans="1:26" ht="19.5" customHeight="1">
+    <row r="860" ht="19.5" customHeight="1">
       <c r="A860" s="3"/>
       <c r="B860" s="3"/>
       <c r="C860" s="3"/>
@@ -24482,7 +24448,7 @@
       <c r="Y860" s="3"/>
       <c r="Z860" s="3"/>
     </row>
-    <row r="861" spans="1:26" ht="19.5" customHeight="1">
+    <row r="861" ht="19.5" customHeight="1">
       <c r="A861" s="3"/>
       <c r="B861" s="3"/>
       <c r="C861" s="3"/>
@@ -24510,7 +24476,7 @@
       <c r="Y861" s="3"/>
       <c r="Z861" s="3"/>
     </row>
-    <row r="862" spans="1:26" ht="19.5" customHeight="1">
+    <row r="862" ht="19.5" customHeight="1">
       <c r="A862" s="3"/>
       <c r="B862" s="3"/>
       <c r="C862" s="3"/>
@@ -24538,7 +24504,7 @@
       <c r="Y862" s="3"/>
       <c r="Z862" s="3"/>
     </row>
-    <row r="863" spans="1:26" ht="19.5" customHeight="1">
+    <row r="863" ht="19.5" customHeight="1">
       <c r="A863" s="3"/>
       <c r="B863" s="3"/>
       <c r="C863" s="3"/>
@@ -24566,7 +24532,7 @@
       <c r="Y863" s="3"/>
       <c r="Z863" s="3"/>
     </row>
-    <row r="864" spans="1:26" ht="19.5" customHeight="1">
+    <row r="864" ht="19.5" customHeight="1">
       <c r="A864" s="3"/>
       <c r="B864" s="3"/>
       <c r="C864" s="3"/>
@@ -24594,7 +24560,7 @@
       <c r="Y864" s="3"/>
       <c r="Z864" s="3"/>
     </row>
-    <row r="865" spans="1:26" ht="19.5" customHeight="1">
+    <row r="865" ht="19.5" customHeight="1">
       <c r="A865" s="3"/>
       <c r="B865" s="3"/>
       <c r="C865" s="3"/>
@@ -24622,7 +24588,7 @@
       <c r="Y865" s="3"/>
       <c r="Z865" s="3"/>
     </row>
-    <row r="866" spans="1:26" ht="19.5" customHeight="1">
+    <row r="866" ht="19.5" customHeight="1">
       <c r="A866" s="3"/>
       <c r="B866" s="3"/>
       <c r="C866" s="3"/>
@@ -24650,7 +24616,7 @@
       <c r="Y866" s="3"/>
       <c r="Z866" s="3"/>
     </row>
-    <row r="867" spans="1:26" ht="19.5" customHeight="1">
+    <row r="867" ht="19.5" customHeight="1">
       <c r="A867" s="3"/>
       <c r="B867" s="3"/>
       <c r="C867" s="3"/>
@@ -24678,7 +24644,7 @@
       <c r="Y867" s="3"/>
       <c r="Z867" s="3"/>
     </row>
-    <row r="868" spans="1:26" ht="19.5" customHeight="1">
+    <row r="868" ht="19.5" customHeight="1">
       <c r="A868" s="3"/>
       <c r="B868" s="3"/>
       <c r="C868" s="3"/>
@@ -24706,7 +24672,7 @@
       <c r="Y868" s="3"/>
       <c r="Z868" s="3"/>
     </row>
-    <row r="869" spans="1:26" ht="19.5" customHeight="1">
+    <row r="869" ht="19.5" customHeight="1">
       <c r="A869" s="3"/>
       <c r="B869" s="3"/>
       <c r="C869" s="3"/>
@@ -24734,7 +24700,7 @@
       <c r="Y869" s="3"/>
       <c r="Z869" s="3"/>
     </row>
-    <row r="870" spans="1:26" ht="19.5" customHeight="1">
+    <row r="870" ht="19.5" customHeight="1">
       <c r="A870" s="3"/>
       <c r="B870" s="3"/>
       <c r="C870" s="3"/>
@@ -24762,7 +24728,7 @@
       <c r="Y870" s="3"/>
       <c r="Z870" s="3"/>
     </row>
-    <row r="871" spans="1:26" ht="19.5" customHeight="1">
+    <row r="871" ht="19.5" customHeight="1">
       <c r="A871" s="3"/>
       <c r="B871" s="3"/>
       <c r="C871" s="3"/>
@@ -24790,7 +24756,7 @@
       <c r="Y871" s="3"/>
       <c r="Z871" s="3"/>
     </row>
-    <row r="872" spans="1:26" ht="19.5" customHeight="1">
+    <row r="872" ht="19.5" customHeight="1">
       <c r="A872" s="3"/>
       <c r="B872" s="3"/>
       <c r="C872" s="3"/>
@@ -24818,7 +24784,7 @@
       <c r="Y872" s="3"/>
       <c r="Z872" s="3"/>
     </row>
-    <row r="873" spans="1:26" ht="19.5" customHeight="1">
+    <row r="873" ht="19.5" customHeight="1">
       <c r="A873" s="3"/>
       <c r="B873" s="3"/>
       <c r="C873" s="3"/>
@@ -24846,7 +24812,7 @@
       <c r="Y873" s="3"/>
       <c r="Z873" s="3"/>
     </row>
-    <row r="874" spans="1:26" ht="19.5" customHeight="1">
+    <row r="874" ht="19.5" customHeight="1">
       <c r="A874" s="3"/>
       <c r="B874" s="3"/>
       <c r="C874" s="3"/>
@@ -24874,7 +24840,7 @@
       <c r="Y874" s="3"/>
       <c r="Z874" s="3"/>
     </row>
-    <row r="875" spans="1:26" ht="19.5" customHeight="1">
+    <row r="875" ht="19.5" customHeight="1">
       <c r="A875" s="3"/>
       <c r="B875" s="3"/>
       <c r="C875" s="3"/>
@@ -24902,7 +24868,7 @@
       <c r="Y875" s="3"/>
       <c r="Z875" s="3"/>
     </row>
-    <row r="876" spans="1:26" ht="19.5" customHeight="1">
+    <row r="876" ht="19.5" customHeight="1">
       <c r="A876" s="3"/>
       <c r="B876" s="3"/>
       <c r="C876" s="3"/>
@@ -24930,7 +24896,7 @@
       <c r="Y876" s="3"/>
       <c r="Z876" s="3"/>
     </row>
-    <row r="877" spans="1:26" ht="19.5" customHeight="1">
+    <row r="877" ht="19.5" customHeight="1">
       <c r="A877" s="3"/>
       <c r="B877" s="3"/>
       <c r="C877" s="3"/>
@@ -24958,7 +24924,7 @@
       <c r="Y877" s="3"/>
       <c r="Z877" s="3"/>
     </row>
-    <row r="878" spans="1:26" ht="19.5" customHeight="1">
+    <row r="878" ht="19.5" customHeight="1">
       <c r="A878" s="3"/>
       <c r="B878" s="3"/>
       <c r="C878" s="3"/>
@@ -24986,7 +24952,7 @@
       <c r="Y878" s="3"/>
       <c r="Z878" s="3"/>
     </row>
-    <row r="879" spans="1:26" ht="19.5" customHeight="1">
+    <row r="879" ht="19.5" customHeight="1">
       <c r="A879" s="3"/>
       <c r="B879" s="3"/>
       <c r="C879" s="3"/>
@@ -25014,7 +24980,7 @@
       <c r="Y879" s="3"/>
       <c r="Z879" s="3"/>
     </row>
-    <row r="880" spans="1:26" ht="19.5" customHeight="1">
+    <row r="880" ht="19.5" customHeight="1">
       <c r="A880" s="3"/>
       <c r="B880" s="3"/>
       <c r="C880" s="3"/>
@@ -25042,7 +25008,7 @@
       <c r="Y880" s="3"/>
       <c r="Z880" s="3"/>
     </row>
-    <row r="881" spans="1:26" ht="19.5" customHeight="1">
+    <row r="881" ht="19.5" customHeight="1">
       <c r="A881" s="3"/>
       <c r="B881" s="3"/>
       <c r="C881" s="3"/>
@@ -25070,7 +25036,7 @@
       <c r="Y881" s="3"/>
       <c r="Z881" s="3"/>
     </row>
-    <row r="882" spans="1:26" ht="19.5" customHeight="1">
+    <row r="882" ht="19.5" customHeight="1">
       <c r="A882" s="3"/>
       <c r="B882" s="3"/>
       <c r="C882" s="3"/>
@@ -25098,7 +25064,7 @@
       <c r="Y882" s="3"/>
       <c r="Z882" s="3"/>
     </row>
-    <row r="883" spans="1:26" ht="19.5" customHeight="1">
+    <row r="883" ht="19.5" customHeight="1">
       <c r="A883" s="3"/>
       <c r="B883" s="3"/>
       <c r="C883" s="3"/>
@@ -25126,7 +25092,7 @@
       <c r="Y883" s="3"/>
       <c r="Z883" s="3"/>
     </row>
-    <row r="884" spans="1:26" ht="19.5" customHeight="1">
+    <row r="884" ht="19.5" customHeight="1">
       <c r="A884" s="3"/>
       <c r="B884" s="3"/>
       <c r="C884" s="3"/>
@@ -25154,7 +25120,7 @@
       <c r="Y884" s="3"/>
       <c r="Z884" s="3"/>
     </row>
-    <row r="885" spans="1:26" ht="19.5" customHeight="1">
+    <row r="885" ht="19.5" customHeight="1">
       <c r="A885" s="3"/>
       <c r="B885" s="3"/>
       <c r="C885" s="3"/>
@@ -25182,7 +25148,7 @@
       <c r="Y885" s="3"/>
       <c r="Z885" s="3"/>
     </row>
-    <row r="886" spans="1:26" ht="19.5" customHeight="1">
+    <row r="886" ht="19.5" customHeight="1">
       <c r="A886" s="3"/>
       <c r="B886" s="3"/>
       <c r="C886" s="3"/>
@@ -25210,7 +25176,7 @@
       <c r="Y886" s="3"/>
       <c r="Z886" s="3"/>
     </row>
-    <row r="887" spans="1:26" ht="19.5" customHeight="1">
+    <row r="887" ht="19.5" customHeight="1">
       <c r="A887" s="3"/>
       <c r="B887" s="3"/>
       <c r="C887" s="3"/>
@@ -25238,7 +25204,7 @@
       <c r="Y887" s="3"/>
       <c r="Z887" s="3"/>
     </row>
-    <row r="888" spans="1:26" ht="19.5" customHeight="1">
+    <row r="888" ht="19.5" customHeight="1">
       <c r="A888" s="3"/>
       <c r="B888" s="3"/>
       <c r="C888" s="3"/>
@@ -25266,7 +25232,7 @@
       <c r="Y888" s="3"/>
       <c r="Z888" s="3"/>
     </row>
-    <row r="889" spans="1:26" ht="19.5" customHeight="1">
+    <row r="889" ht="19.5" customHeight="1">
       <c r="A889" s="3"/>
       <c r="B889" s="3"/>
       <c r="C889" s="3"/>
@@ -25294,7 +25260,7 @@
       <c r="Y889" s="3"/>
       <c r="Z889" s="3"/>
     </row>
-    <row r="890" spans="1:26" ht="19.5" customHeight="1">
+    <row r="890" ht="19.5" customHeight="1">
       <c r="A890" s="3"/>
       <c r="B890" s="3"/>
       <c r="C890" s="3"/>
@@ -25322,7 +25288,7 @@
       <c r="Y890" s="3"/>
       <c r="Z890" s="3"/>
     </row>
-    <row r="891" spans="1:26" ht="19.5" customHeight="1">
+    <row r="891" ht="19.5" customHeight="1">
       <c r="A891" s="3"/>
       <c r="B891" s="3"/>
       <c r="C891" s="3"/>
@@ -25350,7 +25316,7 @@
       <c r="Y891" s="3"/>
       <c r="Z891" s="3"/>
     </row>
-    <row r="892" spans="1:26" ht="19.5" customHeight="1">
+    <row r="892" ht="19.5" customHeight="1">
       <c r="A892" s="3"/>
       <c r="B892" s="3"/>
       <c r="C892" s="3"/>
@@ -25378,7 +25344,7 @@
       <c r="Y892" s="3"/>
       <c r="Z892" s="3"/>
     </row>
-    <row r="893" spans="1:26" ht="19.5" customHeight="1">
+    <row r="893" ht="19.5" customHeight="1">
       <c r="A893" s="3"/>
       <c r="B893" s="3"/>
       <c r="C893" s="3"/>
@@ -25406,7 +25372,7 @@
       <c r="Y893" s="3"/>
       <c r="Z893" s="3"/>
     </row>
-    <row r="894" spans="1:26" ht="19.5" customHeight="1">
+    <row r="894" ht="19.5" customHeight="1">
       <c r="A894" s="3"/>
       <c r="B894" s="3"/>
       <c r="C894" s="3"/>
@@ -25434,7 +25400,7 @@
       <c r="Y894" s="3"/>
       <c r="Z894" s="3"/>
     </row>
-    <row r="895" spans="1:26" ht="19.5" customHeight="1">
+    <row r="895" ht="19.5" customHeight="1">
       <c r="A895" s="3"/>
       <c r="B895" s="3"/>
       <c r="C895" s="3"/>
@@ -25462,7 +25428,7 @@
       <c r="Y895" s="3"/>
       <c r="Z895" s="3"/>
     </row>
-    <row r="896" spans="1:26" ht="19.5" customHeight="1">
+    <row r="896" ht="19.5" customHeight="1">
       <c r="A896" s="3"/>
       <c r="B896" s="3"/>
       <c r="C896" s="3"/>
@@ -25490,7 +25456,7 @@
       <c r="Y896" s="3"/>
       <c r="Z896" s="3"/>
     </row>
-    <row r="897" spans="1:26" ht="19.5" customHeight="1">
+    <row r="897" ht="19.5" customHeight="1">
       <c r="A897" s="3"/>
       <c r="B897" s="3"/>
       <c r="C897" s="3"/>
@@ -25518,7 +25484,7 @@
       <c r="Y897" s="3"/>
       <c r="Z897" s="3"/>
     </row>
-    <row r="898" spans="1:26" ht="19.5" customHeight="1">
+    <row r="898" ht="19.5" customHeight="1">
       <c r="A898" s="3"/>
       <c r="B898" s="3"/>
       <c r="C898" s="3"/>
@@ -25546,7 +25512,7 @@
       <c r="Y898" s="3"/>
       <c r="Z898" s="3"/>
     </row>
-    <row r="899" spans="1:26" ht="19.5" customHeight="1">
+    <row r="899" ht="19.5" customHeight="1">
       <c r="A899" s="3"/>
       <c r="B899" s="3"/>
       <c r="C899" s="3"/>
@@ -25574,7 +25540,7 @@
       <c r="Y899" s="3"/>
       <c r="Z899" s="3"/>
     </row>
-    <row r="900" spans="1:26" ht="19.5" customHeight="1">
+    <row r="900" ht="19.5" customHeight="1">
       <c r="A900" s="3"/>
       <c r="B900" s="3"/>
       <c r="C900" s="3"/>
@@ -25602,7 +25568,7 @@
       <c r="Y900" s="3"/>
       <c r="Z900" s="3"/>
     </row>
-    <row r="901" spans="1:26" ht="19.5" customHeight="1">
+    <row r="901" ht="19.5" customHeight="1">
       <c r="A901" s="3"/>
       <c r="B901" s="3"/>
       <c r="C901" s="3"/>
@@ -25630,7 +25596,7 @@
       <c r="Y901" s="3"/>
       <c r="Z901" s="3"/>
     </row>
-    <row r="902" spans="1:26" ht="19.5" customHeight="1">
+    <row r="902" ht="19.5" customHeight="1">
       <c r="A902" s="3"/>
       <c r="B902" s="3"/>
       <c r="C902" s="3"/>
@@ -25658,7 +25624,7 @@
       <c r="Y902" s="3"/>
       <c r="Z902" s="3"/>
     </row>
-    <row r="903" spans="1:26" ht="19.5" customHeight="1">
+    <row r="903" ht="19.5" customHeight="1">
       <c r="A903" s="3"/>
       <c r="B903" s="3"/>
       <c r="C903" s="3"/>
@@ -25686,7 +25652,7 @@
       <c r="Y903" s="3"/>
       <c r="Z903" s="3"/>
     </row>
-    <row r="904" spans="1:26" ht="19.5" customHeight="1">
+    <row r="904" ht="19.5" customHeight="1">
       <c r="A904" s="3"/>
       <c r="B904" s="3"/>
       <c r="C904" s="3"/>
@@ -25714,7 +25680,7 @@
       <c r="Y904" s="3"/>
       <c r="Z904" s="3"/>
     </row>
-    <row r="905" spans="1:26" ht="19.5" customHeight="1">
+    <row r="905" ht="19.5" customHeight="1">
       <c r="A905" s="3"/>
       <c r="B905" s="3"/>
       <c r="C905" s="3"/>
@@ -25742,7 +25708,7 @@
       <c r="Y905" s="3"/>
       <c r="Z905" s="3"/>
     </row>
-    <row r="906" spans="1:26" ht="19.5" customHeight="1">
+    <row r="906" ht="19.5" customHeight="1">
       <c r="A906" s="3"/>
       <c r="B906" s="3"/>
       <c r="C906" s="3"/>
@@ -25770,7 +25736,7 @@
       <c r="Y906" s="3"/>
       <c r="Z906" s="3"/>
     </row>
-    <row r="907" spans="1:26" ht="19.5" customHeight="1">
+    <row r="907" ht="19.5" customHeight="1">
       <c r="A907" s="3"/>
       <c r="B907" s="3"/>
       <c r="C907" s="3"/>
@@ -25798,7 +25764,7 @@
       <c r="Y907" s="3"/>
       <c r="Z907" s="3"/>
     </row>
-    <row r="908" spans="1:26" ht="19.5" customHeight="1">
+    <row r="908" ht="19.5" customHeight="1">
       <c r="A908" s="3"/>
       <c r="B908" s="3"/>
       <c r="C908" s="3"/>
@@ -25826,7 +25792,7 @@
       <c r="Y908" s="3"/>
       <c r="Z908" s="3"/>
     </row>
-    <row r="909" spans="1:26" ht="19.5" customHeight="1">
+    <row r="909" ht="19.5" customHeight="1">
       <c r="A909" s="3"/>
       <c r="B909" s="3"/>
       <c r="C909" s="3"/>
@@ -25854,7 +25820,7 @@
       <c r="Y909" s="3"/>
       <c r="Z909" s="3"/>
     </row>
-    <row r="910" spans="1:26" ht="19.5" customHeight="1">
+    <row r="910" ht="19.5" customHeight="1">
       <c r="A910" s="3"/>
       <c r="B910" s="3"/>
       <c r="C910" s="3"/>
@@ -25882,7 +25848,7 @@
       <c r="Y910" s="3"/>
       <c r="Z910" s="3"/>
     </row>
-    <row r="911" spans="1:26" ht="19.5" customHeight="1">
+    <row r="911" ht="19.5" customHeight="1">
       <c r="A911" s="3"/>
       <c r="B911" s="3"/>
       <c r="C911" s="3"/>
@@ -25910,7 +25876,7 @@
       <c r="Y911" s="3"/>
       <c r="Z911" s="3"/>
     </row>
-    <row r="912" spans="1:26" ht="19.5" customHeight="1">
+    <row r="912" ht="19.5" customHeight="1">
       <c r="A912" s="3"/>
       <c r="B912" s="3"/>
       <c r="C912" s="3"/>
@@ -25938,7 +25904,7 @@
       <c r="Y912" s="3"/>
       <c r="Z912" s="3"/>
     </row>
-    <row r="913" spans="1:26" ht="19.5" customHeight="1">
+    <row r="913" ht="19.5" customHeight="1">
       <c r="A913" s="3"/>
       <c r="B913" s="3"/>
       <c r="C913" s="3"/>
@@ -25966,7 +25932,7 @@
       <c r="Y913" s="3"/>
       <c r="Z913" s="3"/>
     </row>
-    <row r="914" spans="1:26" ht="19.5" customHeight="1">
+    <row r="914" ht="19.5" customHeight="1">
       <c r="A914" s="3"/>
       <c r="B914" s="3"/>
       <c r="C914" s="3"/>
@@ -25994,7 +25960,7 @@
       <c r="Y914" s="3"/>
       <c r="Z914" s="3"/>
     </row>
-    <row r="915" spans="1:26" ht="19.5" customHeight="1">
+    <row r="915" ht="19.5" customHeight="1">
       <c r="A915" s="3"/>
       <c r="B915" s="3"/>
       <c r="C915" s="3"/>
@@ -26022,7 +25988,7 @@
       <c r="Y915" s="3"/>
       <c r="Z915" s="3"/>
     </row>
-    <row r="916" spans="1:26" ht="19.5" customHeight="1">
+    <row r="916" ht="19.5" customHeight="1">
       <c r="A916" s="3"/>
       <c r="B916" s="3"/>
       <c r="C916" s="3"/>
@@ -26050,7 +26016,7 @@
       <c r="Y916" s="3"/>
       <c r="Z916" s="3"/>
     </row>
-    <row r="917" spans="1:26" ht="19.5" customHeight="1">
+    <row r="917" ht="19.5" customHeight="1">
       <c r="A917" s="3"/>
       <c r="B917" s="3"/>
       <c r="C917" s="3"/>
@@ -26078,7 +26044,7 @@
       <c r="Y917" s="3"/>
       <c r="Z917" s="3"/>
     </row>
-    <row r="918" spans="1:26" ht="19.5" customHeight="1">
+    <row r="918" ht="19.5" customHeight="1">
       <c r="A918" s="3"/>
       <c r="B918" s="3"/>
       <c r="C918" s="3"/>
@@ -26106,7 +26072,7 @@
       <c r="Y918" s="3"/>
       <c r="Z918" s="3"/>
     </row>
-    <row r="919" spans="1:26" ht="19.5" customHeight="1">
+    <row r="919" ht="19.5" customHeight="1">
       <c r="A919" s="3"/>
       <c r="B919" s="3"/>
       <c r="C919" s="3"/>
@@ -26134,7 +26100,7 @@
       <c r="Y919" s="3"/>
       <c r="Z919" s="3"/>
     </row>
-    <row r="920" spans="1:26" ht="19.5" customHeight="1">
+    <row r="920" ht="19.5" customHeight="1">
       <c r="A920" s="3"/>
       <c r="B920" s="3"/>
       <c r="C920" s="3"/>
@@ -26162,7 +26128,7 @@
       <c r="Y920" s="3"/>
       <c r="Z920" s="3"/>
     </row>
-    <row r="921" spans="1:26" ht="19.5" customHeight="1">
+    <row r="921" ht="19.5" customHeight="1">
       <c r="A921" s="3"/>
       <c r="B921" s="3"/>
       <c r="C921" s="3"/>
@@ -26190,7 +26156,7 @@
       <c r="Y921" s="3"/>
       <c r="Z921" s="3"/>
     </row>
-    <row r="922" spans="1:26" ht="19.5" customHeight="1">
+    <row r="922" ht="19.5" customHeight="1">
       <c r="A922" s="3"/>
       <c r="B922" s="3"/>
       <c r="C922" s="3"/>
@@ -26218,7 +26184,7 @@
       <c r="Y922" s="3"/>
       <c r="Z922" s="3"/>
     </row>
-    <row r="923" spans="1:26" ht="19.5" customHeight="1">
+    <row r="923" ht="19.5" customHeight="1">
       <c r="A923" s="3"/>
       <c r="B923" s="3"/>
       <c r="C923" s="3"/>
@@ -26246,7 +26212,7 @@
       <c r="Y923" s="3"/>
       <c r="Z923" s="3"/>
     </row>
-    <row r="924" spans="1:26" ht="19.5" customHeight="1">
+    <row r="924" ht="19.5" customHeight="1">
       <c r="A924" s="3"/>
       <c r="B924" s="3"/>
       <c r="C924" s="3"/>
@@ -26274,7 +26240,7 @@
       <c r="Y924" s="3"/>
       <c r="Z924" s="3"/>
     </row>
-    <row r="925" spans="1:26" ht="19.5" customHeight="1">
+    <row r="925" ht="19.5" customHeight="1">
       <c r="A925" s="3"/>
       <c r="B925" s="3"/>
       <c r="C925" s="3"/>
@@ -26302,7 +26268,7 @@
       <c r="Y925" s="3"/>
       <c r="Z925" s="3"/>
     </row>
-    <row r="926" spans="1:26" ht="19.5" customHeight="1">
+    <row r="926" ht="19.5" customHeight="1">
       <c r="A926" s="3"/>
       <c r="B926" s="3"/>
       <c r="C926" s="3"/>
@@ -26330,7 +26296,7 @@
       <c r="Y926" s="3"/>
       <c r="Z926" s="3"/>
     </row>
-    <row r="927" spans="1:26" ht="19.5" customHeight="1">
+    <row r="927" ht="19.5" customHeight="1">
       <c r="A927" s="3"/>
       <c r="B927" s="3"/>
       <c r="C927" s="3"/>
@@ -26358,7 +26324,7 @@
       <c r="Y927" s="3"/>
       <c r="Z927" s="3"/>
     </row>
-    <row r="928" spans="1:26" ht="19.5" customHeight="1">
+    <row r="928" ht="19.5" customHeight="1">
       <c r="A928" s="3"/>
       <c r="B928" s="3"/>
       <c r="C928" s="3"/>
@@ -26386,7 +26352,7 @@
       <c r="Y928" s="3"/>
       <c r="Z928" s="3"/>
     </row>
-    <row r="929" spans="1:26" ht="19.5" customHeight="1">
+    <row r="929" ht="19.5" customHeight="1">
       <c r="A929" s="3"/>
       <c r="B929" s="3"/>
       <c r="C929" s="3"/>
@@ -26414,7 +26380,7 @@
       <c r="Y929" s="3"/>
       <c r="Z929" s="3"/>
     </row>
-    <row r="930" spans="1:26" ht="19.5" customHeight="1">
+    <row r="930" ht="19.5" customHeight="1">
       <c r="A930" s="3"/>
       <c r="B930" s="3"/>
       <c r="C930" s="3"/>
@@ -26442,7 +26408,7 @@
       <c r="Y930" s="3"/>
       <c r="Z930" s="3"/>
     </row>
-    <row r="931" spans="1:26" ht="19.5" customHeight="1">
+    <row r="931" ht="19.5" customHeight="1">
       <c r="A931" s="3"/>
       <c r="B931" s="3"/>
       <c r="C931" s="3"/>
@@ -26470,7 +26436,7 @@
       <c r="Y931" s="3"/>
       <c r="Z931" s="3"/>
     </row>
-    <row r="932" spans="1:26" ht="19.5" customHeight="1">
+    <row r="932" ht="19.5" customHeight="1">
       <c r="A932" s="3"/>
       <c r="B932" s="3"/>
       <c r="C932" s="3"/>
@@ -26498,7 +26464,7 @@
       <c r="Y932" s="3"/>
       <c r="Z932" s="3"/>
     </row>
-    <row r="933" spans="1:26" ht="19.5" customHeight="1">
+    <row r="933" ht="19.5" customHeight="1">
       <c r="A933" s="3"/>
       <c r="B933" s="3"/>
       <c r="C933" s="3"/>
@@ -26526,7 +26492,7 @@
       <c r="Y933" s="3"/>
       <c r="Z933" s="3"/>
     </row>
-    <row r="934" spans="1:26" ht="19.5" customHeight="1">
+    <row r="934" ht="19.5" customHeight="1">
       <c r="A934" s="3"/>
       <c r="B934" s="3"/>
       <c r="C934" s="3"/>
@@ -26554,7 +26520,7 @@
       <c r="Y934" s="3"/>
       <c r="Z934" s="3"/>
     </row>
-    <row r="935" spans="1:26" ht="19.5" customHeight="1">
+    <row r="935" ht="19.5" customHeight="1">
       <c r="A935" s="3"/>
       <c r="B935" s="3"/>
       <c r="C935" s="3"/>
@@ -26582,7 +26548,7 @@
       <c r="Y935" s="3"/>
       <c r="Z935" s="3"/>
     </row>
-    <row r="936" spans="1:26" ht="19.5" customHeight="1">
+    <row r="936" ht="19.5" customHeight="1">
       <c r="A936" s="3"/>
       <c r="B936" s="3"/>
       <c r="C936" s="3"/>
@@ -26610,7 +26576,7 @@
       <c r="Y936" s="3"/>
       <c r="Z936" s="3"/>
     </row>
-    <row r="937" spans="1:26" ht="19.5" customHeight="1">
+    <row r="937" ht="19.5" customHeight="1">
       <c r="A937" s="3"/>
       <c r="B937" s="3"/>
       <c r="C937" s="3"/>
@@ -26638,7 +26604,7 @@
       <c r="Y937" s="3"/>
       <c r="Z937" s="3"/>
     </row>
-    <row r="938" spans="1:26" ht="19.5" customHeight="1">
+    <row r="938" ht="19.5" customHeight="1">
       <c r="A938" s="3"/>
       <c r="B938" s="3"/>
       <c r="C938" s="3"/>
@@ -26666,7 +26632,7 @@
       <c r="Y938" s="3"/>
       <c r="Z938" s="3"/>
     </row>
-    <row r="939" spans="1:26" ht="19.5" customHeight="1">
+    <row r="939" ht="19.5" customHeight="1">
       <c r="A939" s="3"/>
       <c r="B939" s="3"/>
       <c r="C939" s="3"/>
@@ -26694,7 +26660,7 @@
       <c r="Y939" s="3"/>
       <c r="Z939" s="3"/>
     </row>
-    <row r="940" spans="1:26" ht="19.5" customHeight="1">
+    <row r="940" ht="19.5" customHeight="1">
       <c r="A940" s="3"/>
       <c r="B940" s="3"/>
       <c r="C940" s="3"/>
@@ -26722,7 +26688,7 @@
       <c r="Y940" s="3"/>
       <c r="Z940" s="3"/>
     </row>
-    <row r="941" spans="1:26" ht="19.5" customHeight="1">
+    <row r="941" ht="19.5" customHeight="1">
       <c r="A941" s="3"/>
       <c r="B941" s="3"/>
       <c r="C941" s="3"/>
@@ -26750,7 +26716,7 @@
       <c r="Y941" s="3"/>
       <c r="Z941" s="3"/>
     </row>
-    <row r="942" spans="1:26" ht="19.5" customHeight="1">
+    <row r="942" ht="19.5" customHeight="1">
       <c r="A942" s="3"/>
       <c r="B942" s="3"/>
       <c r="C942" s="3"/>
@@ -26778,7 +26744,7 @@
       <c r="Y942" s="3"/>
       <c r="Z942" s="3"/>
     </row>
-    <row r="943" spans="1:26" ht="19.5" customHeight="1">
+    <row r="943" ht="19.5" customHeight="1">
       <c r="A943" s="3"/>
       <c r="B943" s="3"/>
       <c r="C943" s="3"/>
@@ -26806,7 +26772,7 @@
       <c r="Y943" s="3"/>
       <c r="Z943" s="3"/>
     </row>
-    <row r="944" spans="1:26" ht="19.5" customHeight="1">
+    <row r="944" ht="19.5" customHeight="1">
       <c r="A944" s="3"/>
       <c r="B944" s="3"/>
       <c r="C944" s="3"/>
@@ -26834,7 +26800,7 @@
       <c r="Y944" s="3"/>
       <c r="Z944" s="3"/>
     </row>
-    <row r="945" spans="1:26" ht="19.5" customHeight="1">
+    <row r="945" ht="19.5" customHeight="1">
       <c r="A945" s="3"/>
       <c r="B945" s="3"/>
       <c r="C945" s="3"/>
@@ -26862,7 +26828,7 @@
       <c r="Y945" s="3"/>
       <c r="Z945" s="3"/>
     </row>
-    <row r="946" spans="1:26" ht="19.5" customHeight="1">
+    <row r="946" ht="19.5" customHeight="1">
       <c r="A946" s="3"/>
       <c r="B946" s="3"/>
       <c r="C946" s="3"/>
@@ -26890,7 +26856,7 @@
       <c r="Y946" s="3"/>
       <c r="Z946" s="3"/>
     </row>
-    <row r="947" spans="1:26" ht="19.5" customHeight="1">
+    <row r="947" ht="19.5" customHeight="1">
       <c r="A947" s="3"/>
       <c r="B947" s="3"/>
       <c r="C947" s="3"/>
@@ -26918,7 +26884,7 @@
       <c r="Y947" s="3"/>
       <c r="Z947" s="3"/>
     </row>
-    <row r="948" spans="1:26" ht="19.5" customHeight="1">
+    <row r="948" ht="19.5" customHeight="1">
       <c r="A948" s="3"/>
       <c r="B948" s="3"/>
       <c r="C948" s="3"/>
@@ -26946,7 +26912,7 @@
       <c r="Y948" s="3"/>
       <c r="Z948" s="3"/>
     </row>
-    <row r="949" spans="1:26" ht="19.5" customHeight="1">
+    <row r="949" ht="19.5" customHeight="1">
       <c r="A949" s="3"/>
       <c r="B949" s="3"/>
       <c r="C949" s="3"/>
@@ -26974,7 +26940,7 @@
       <c r="Y949" s="3"/>
       <c r="Z949" s="3"/>
     </row>
-    <row r="950" spans="1:26" ht="19.5" customHeight="1">
+    <row r="950" ht="19.5" customHeight="1">
       <c r="A950" s="3"/>
       <c r="B950" s="3"/>
       <c r="C950" s="3"/>
@@ -27002,7 +26968,7 @@
       <c r="Y950" s="3"/>
       <c r="Z950" s="3"/>
     </row>
-    <row r="951" spans="1:26" ht="19.5" customHeight="1">
+    <row r="951" ht="19.5" customHeight="1">
       <c r="A951" s="3"/>
       <c r="B951" s="3"/>
       <c r="C951" s="3"/>
@@ -27030,7 +26996,7 @@
       <c r="Y951" s="3"/>
       <c r="Z951" s="3"/>
     </row>
-    <row r="952" spans="1:26" ht="19.5" customHeight="1">
+    <row r="952" ht="19.5" customHeight="1">
       <c r="A952" s="3"/>
       <c r="B952" s="3"/>
       <c r="C952" s="3"/>
@@ -27058,7 +27024,7 @@
       <c r="Y952" s="3"/>
       <c r="Z952" s="3"/>
     </row>
-    <row r="953" spans="1:26" ht="19.5" customHeight="1">
+    <row r="953" ht="19.5" customHeight="1">
       <c r="A953" s="3"/>
       <c r="B953" s="3"/>
       <c r="C953" s="3"/>
@@ -27086,7 +27052,7 @@
       <c r="Y953" s="3"/>
       <c r="Z953" s="3"/>
     </row>
-    <row r="954" spans="1:26" ht="19.5" customHeight="1">
+    <row r="954" ht="19.5" customHeight="1">
       <c r="A954" s="3"/>
       <c r="B954" s="3"/>
       <c r="C954" s="3"/>
@@ -27114,7 +27080,7 @@
       <c r="Y954" s="3"/>
       <c r="Z954" s="3"/>
     </row>
-    <row r="955" spans="1:26" ht="19.5" customHeight="1">
+    <row r="955" ht="19.5" customHeight="1">
       <c r="A955" s="3"/>
       <c r="B955" s="3"/>
       <c r="C955" s="3"/>
@@ -27142,7 +27108,7 @@
       <c r="Y955" s="3"/>
       <c r="Z955" s="3"/>
     </row>
-    <row r="956" spans="1:26" ht="19.5" customHeight="1">
+    <row r="956" ht="19.5" customHeight="1">
       <c r="A956" s="3"/>
       <c r="B956" s="3"/>
       <c r="C956" s="3"/>
@@ -27170,7 +27136,7 @@
       <c r="Y956" s="3"/>
       <c r="Z956" s="3"/>
     </row>
-    <row r="957" spans="1:26" ht="19.5" customHeight="1">
+    <row r="957" ht="19.5" customHeight="1">
       <c r="A957" s="3"/>
       <c r="B957" s="3"/>
       <c r="C957" s="3"/>
@@ -27198,7 +27164,7 @@
       <c r="Y957" s="3"/>
       <c r="Z957" s="3"/>
     </row>
-    <row r="958" spans="1:26" ht="19.5" customHeight="1">
+    <row r="958" ht="19.5" customHeight="1">
       <c r="A958" s="3"/>
       <c r="B958" s="3"/>
       <c r="C958" s="3"/>
@@ -27226,7 +27192,7 @@
       <c r="Y958" s="3"/>
       <c r="Z958" s="3"/>
     </row>
-    <row r="959" spans="1:26" ht="19.5" customHeight="1">
+    <row r="959" ht="19.5" customHeight="1">
       <c r="A959" s="3"/>
       <c r="B959" s="3"/>
       <c r="C959" s="3"/>
@@ -27254,7 +27220,7 @@
       <c r="Y959" s="3"/>
       <c r="Z959" s="3"/>
     </row>
-    <row r="960" spans="1:26" ht="19.5" customHeight="1">
+    <row r="960" ht="19.5" customHeight="1">
       <c r="A960" s="3"/>
       <c r="B960" s="3"/>
       <c r="C960" s="3"/>
@@ -27282,7 +27248,7 @@
       <c r="Y960" s="3"/>
       <c r="Z960" s="3"/>
     </row>
-    <row r="961" spans="1:26" ht="19.5" customHeight="1">
+    <row r="961" ht="19.5" customHeight="1">
       <c r="A961" s="3"/>
       <c r="B961" s="3"/>
       <c r="C961" s="3"/>
@@ -27310,7 +27276,7 @@
       <c r="Y961" s="3"/>
       <c r="Z961" s="3"/>
     </row>
-    <row r="962" spans="1:26" ht="19.5" customHeight="1">
+    <row r="962" ht="19.5" customHeight="1">
       <c r="A962" s="3"/>
       <c r="B962" s="3"/>
       <c r="C962" s="3"/>
@@ -27338,7 +27304,7 @@
       <c r="Y962" s="3"/>
       <c r="Z962" s="3"/>
     </row>
-    <row r="963" spans="1:26" ht="19.5" customHeight="1">
+    <row r="963" ht="19.5" customHeight="1">
       <c r="A963" s="3"/>
       <c r="B963" s="3"/>
       <c r="C963" s="3"/>
@@ -27366,7 +27332,7 @@
       <c r="Y963" s="3"/>
       <c r="Z963" s="3"/>
     </row>
-    <row r="964" spans="1:26" ht="19.5" customHeight="1">
+    <row r="964" ht="19.5" customHeight="1">
       <c r="A964" s="3"/>
       <c r="B964" s="3"/>
       <c r="C964" s="3"/>
@@ -27394,7 +27360,7 @@
       <c r="Y964" s="3"/>
       <c r="Z964" s="3"/>
     </row>
-    <row r="965" spans="1:26" ht="19.5" customHeight="1">
+    <row r="965" ht="19.5" customHeight="1">
       <c r="A965" s="3"/>
       <c r="B965" s="3"/>
       <c r="C965" s="3"/>
@@ -27422,7 +27388,7 @@
       <c r="Y965" s="3"/>
       <c r="Z965" s="3"/>
     </row>
-    <row r="966" spans="1:26" ht="19.5" customHeight="1">
+    <row r="966" ht="19.5" customHeight="1">
       <c r="A966" s="3"/>
       <c r="B966" s="3"/>
       <c r="C966" s="3"/>
@@ -27450,7 +27416,7 @@
       <c r="Y966" s="3"/>
       <c r="Z966" s="3"/>
     </row>
-    <row r="967" spans="1:26" ht="19.5" customHeight="1">
+    <row r="967" ht="19.5" customHeight="1">
       <c r="A967" s="3"/>
       <c r="B967" s="3"/>
       <c r="C967" s="3"/>
@@ -27478,7 +27444,7 @@
       <c r="Y967" s="3"/>
       <c r="Z967" s="3"/>
     </row>
-    <row r="968" spans="1:26" ht="19.5" customHeight="1">
+    <row r="968" ht="19.5" customHeight="1">
       <c r="A968" s="3"/>
       <c r="B968" s="3"/>
       <c r="C968" s="3"/>
@@ -27506,7 +27472,7 @@
       <c r="Y968" s="3"/>
       <c r="Z968" s="3"/>
     </row>
-    <row r="969" spans="1:26" ht="19.5" customHeight="1">
+    <row r="969" ht="19.5" customHeight="1">
       <c r="A969" s="3"/>
       <c r="B969" s="3"/>
       <c r="C969" s="3"/>
@@ -27534,7 +27500,7 @@
       <c r="Y969" s="3"/>
       <c r="Z969" s="3"/>
     </row>
-    <row r="970" spans="1:26" ht="19.5" customHeight="1">
+    <row r="970" ht="19.5" customHeight="1">
       <c r="A970" s="3"/>
       <c r="B970" s="3"/>
       <c r="C970" s="3"/>
@@ -27562,7 +27528,7 @@
       <c r="Y970" s="3"/>
       <c r="Z970" s="3"/>
     </row>
-    <row r="971" spans="1:26" ht="19.5" customHeight="1">
+    <row r="971" ht="19.5" customHeight="1">
       <c r="A971" s="3"/>
       <c r="B971" s="3"/>
       <c r="C971" s="3"/>
@@ -27590,7 +27556,7 @@
       <c r="Y971" s="3"/>
       <c r="Z971" s="3"/>
     </row>
-    <row r="972" spans="1:26" ht="19.5" customHeight="1">
+    <row r="972" ht="19.5" customHeight="1">
       <c r="A972" s="3"/>
       <c r="B972" s="3"/>
       <c r="C972" s="3"/>
@@ -27618,7 +27584,7 @@
       <c r="Y972" s="3"/>
       <c r="Z972" s="3"/>
     </row>
-    <row r="973" spans="1:26" ht="19.5" customHeight="1">
+    <row r="973" ht="19.5" customHeight="1">
       <c r="A973" s="3"/>
       <c r="B973" s="3"/>
       <c r="C973" s="3"/>
@@ -27646,7 +27612,7 @@
       <c r="Y973" s="3"/>
       <c r="Z973" s="3"/>
     </row>
-    <row r="974" spans="1:26" ht="19.5" customHeight="1">
+    <row r="974" ht="19.5" customHeight="1">
       <c r="A974" s="3"/>
       <c r="B974" s="3"/>
       <c r="C974" s="3"/>
@@ -27674,7 +27640,7 @@
       <c r="Y974" s="3"/>
       <c r="Z974" s="3"/>
     </row>
-    <row r="975" spans="1:26" ht="19.5" customHeight="1">
+    <row r="975" ht="19.5" customHeight="1">
       <c r="A975" s="3"/>
       <c r="B975" s="3"/>
       <c r="C975" s="3"/>
@@ -27702,7 +27668,7 @@
       <c r="Y975" s="3"/>
       <c r="Z975" s="3"/>
     </row>
-    <row r="976" spans="1:26" ht="19.5" customHeight="1">
+    <row r="976" ht="19.5" customHeight="1">
       <c r="A976" s="3"/>
       <c r="B976" s="3"/>
       <c r="C976" s="3"/>
@@ -27730,7 +27696,7 @@
       <c r="Y976" s="3"/>
       <c r="Z976" s="3"/>
     </row>
-    <row r="977" spans="1:26" ht="19.5" customHeight="1">
+    <row r="977" ht="19.5" customHeight="1">
       <c r="A977" s="3"/>
       <c r="B977" s="3"/>
       <c r="C977" s="3"/>
@@ -27758,7 +27724,7 @@
       <c r="Y977" s="3"/>
       <c r="Z977" s="3"/>
     </row>
-    <row r="978" spans="1:26" ht="19.5" customHeight="1">
+    <row r="978" ht="19.5" customHeight="1">
       <c r="A978" s="3"/>
       <c r="B978" s="3"/>
       <c r="C978" s="3"/>
@@ -27786,7 +27752,7 @@
       <c r="Y978" s="3"/>
       <c r="Z978" s="3"/>
     </row>
-    <row r="979" spans="1:26" ht="19.5" customHeight="1">
+    <row r="979" ht="19.5" customHeight="1">
       <c r="A979" s="3"/>
       <c r="B979" s="3"/>
       <c r="C979" s="3"/>
@@ -27814,7 +27780,7 @@
       <c r="Y979" s="3"/>
       <c r="Z979" s="3"/>
     </row>
-    <row r="980" spans="1:26" ht="19.5" customHeight="1">
+    <row r="980" ht="19.5" customHeight="1">
       <c r="A980" s="3"/>
       <c r="B980" s="3"/>
       <c r="C980" s="3"/>
@@ -27842,7 +27808,7 @@
       <c r="Y980" s="3"/>
       <c r="Z980" s="3"/>
     </row>
-    <row r="981" spans="1:26" ht="19.5" customHeight="1">
+    <row r="981" ht="19.5" customHeight="1">
       <c r="A981" s="3"/>
       <c r="B981" s="3"/>
       <c r="C981" s="3"/>
@@ -27870,7 +27836,7 @@
       <c r="Y981" s="3"/>
       <c r="Z981" s="3"/>
     </row>
-    <row r="982" spans="1:26" ht="19.5" customHeight="1">
+    <row r="982" ht="19.5" customHeight="1">
       <c r="A982" s="3"/>
       <c r="B982" s="3"/>
       <c r="C982" s="3"/>
@@ -27898,7 +27864,7 @@
       <c r="Y982" s="3"/>
       <c r="Z982" s="3"/>
     </row>
-    <row r="983" spans="1:26" ht="19.5" customHeight="1">
+    <row r="983" ht="19.5" customHeight="1">
       <c r="A983" s="3"/>
       <c r="B983" s="3"/>
       <c r="C983" s="3"/>
@@ -27926,7 +27892,7 @@
       <c r="Y983" s="3"/>
       <c r="Z983" s="3"/>
     </row>
-    <row r="984" spans="1:26" ht="19.5" customHeight="1">
+    <row r="984" ht="19.5" customHeight="1">
       <c r="A984" s="3"/>
       <c r="B984" s="3"/>
       <c r="C984" s="3"/>
@@ -27954,7 +27920,7 @@
       <c r="Y984" s="3"/>
       <c r="Z984" s="3"/>
     </row>
-    <row r="985" spans="1:26" ht="19.5" customHeight="1">
+    <row r="985" ht="19.5" customHeight="1">
       <c r="A985" s="3"/>
       <c r="B985" s="3"/>
       <c r="C985" s="3"/>
@@ -27982,7 +27948,7 @@
       <c r="Y985" s="3"/>
       <c r="Z985" s="3"/>
     </row>
-    <row r="986" spans="1:26" ht="19.5" customHeight="1">
+    <row r="986" ht="19.5" customHeight="1">
       <c r="A986" s="3"/>
       <c r="B986" s="3"/>
       <c r="C986" s="3"/>
@@ -28010,7 +27976,7 @@
       <c r="Y986" s="3"/>
       <c r="Z986" s="3"/>
     </row>
-    <row r="987" spans="1:26" ht="19.5" customHeight="1">
+    <row r="987" ht="19.5" customHeight="1">
       <c r="A987" s="3"/>
       <c r="B987" s="3"/>
       <c r="C987" s="3"/>
@@ -28038,7 +28004,7 @@
       <c r="Y987" s="3"/>
       <c r="Z987" s="3"/>
     </row>
-    <row r="988" spans="1:26" ht="19.5" customHeight="1">
+    <row r="988" ht="19.5" customHeight="1">
       <c r="A988" s="3"/>
       <c r="B988" s="3"/>
       <c r="C988" s="3"/>
@@ -28066,7 +28032,7 @@
       <c r="Y988" s="3"/>
       <c r="Z988" s="3"/>
     </row>
-    <row r="989" spans="1:26" ht="19.5" customHeight="1">
+    <row r="989" ht="19.5" customHeight="1">
       <c r="A989" s="3"/>
       <c r="B989" s="3"/>
       <c r="C989" s="3"/>
@@ -28094,7 +28060,7 @@
       <c r="Y989" s="3"/>
       <c r="Z989" s="3"/>
     </row>
-    <row r="990" spans="1:26" ht="19.5" customHeight="1">
+    <row r="990" ht="19.5" customHeight="1">
       <c r="A990" s="3"/>
       <c r="B990" s="3"/>
       <c r="C990" s="3"/>
@@ -28122,7 +28088,7 @@
       <c r="Y990" s="3"/>
       <c r="Z990" s="3"/>
     </row>
-    <row r="991" spans="1:26" ht="19.5" customHeight="1">
+    <row r="991" ht="19.5" customHeight="1">
       <c r="A991" s="3"/>
       <c r="B991" s="3"/>
       <c r="C991" s="3"/>
@@ -28150,7 +28116,7 @@
       <c r="Y991" s="3"/>
       <c r="Z991" s="3"/>
     </row>
-    <row r="992" spans="1:26" ht="19.5" customHeight="1">
+    <row r="992" ht="19.5" customHeight="1">
       <c r="A992" s="3"/>
       <c r="B992" s="3"/>
       <c r="C992" s="3"/>
@@ -28178,7 +28144,7 @@
       <c r="Y992" s="3"/>
       <c r="Z992" s="3"/>
     </row>
-    <row r="993" spans="1:26" ht="19.5" customHeight="1">
+    <row r="993" ht="19.5" customHeight="1">
       <c r="A993" s="3"/>
       <c r="B993" s="3"/>
       <c r="C993" s="3"/>
@@ -28206,7 +28172,7 @@
       <c r="Y993" s="3"/>
       <c r="Z993" s="3"/>
     </row>
-    <row r="994" spans="1:26" ht="19.5" customHeight="1">
+    <row r="994" ht="19.5" customHeight="1">
       <c r="A994" s="3"/>
       <c r="B994" s="3"/>
       <c r="C994" s="3"/>
@@ -28234,7 +28200,7 @@
       <c r="Y994" s="3"/>
       <c r="Z994" s="3"/>
     </row>
-    <row r="995" spans="1:26" ht="19.5" customHeight="1">
+    <row r="995" ht="19.5" customHeight="1">
       <c r="A995" s="3"/>
       <c r="B995" s="3"/>
       <c r="C995" s="3"/>
@@ -28262,7 +28228,7 @@
       <c r="Y995" s="3"/>
       <c r="Z995" s="3"/>
     </row>
-    <row r="996" spans="1:26" ht="19.5" customHeight="1">
+    <row r="996" ht="19.5" customHeight="1">
       <c r="A996" s="3"/>
       <c r="B996" s="3"/>
       <c r="C996" s="3"/>
@@ -28290,7 +28256,7 @@
       <c r="Y996" s="3"/>
       <c r="Z996" s="3"/>
     </row>
-    <row r="997" spans="1:26" ht="19.5" customHeight="1">
+    <row r="997" ht="19.5" customHeight="1">
       <c r="A997" s="3"/>
       <c r="B997" s="3"/>
       <c r="C997" s="3"/>
@@ -28318,7 +28284,7 @@
       <c r="Y997" s="3"/>
       <c r="Z997" s="3"/>
     </row>
-    <row r="998" spans="1:26" ht="19.5" customHeight="1">
+    <row r="998" ht="19.5" customHeight="1">
       <c r="A998" s="3"/>
       <c r="B998" s="3"/>
       <c r="C998" s="3"/>
@@ -28346,7 +28312,7 @@
       <c r="Y998" s="3"/>
       <c r="Z998" s="3"/>
     </row>
-    <row r="999" spans="1:26" ht="19.5" customHeight="1">
+    <row r="999" ht="19.5" customHeight="1">
       <c r="A999" s="3"/>
       <c r="B999" s="3"/>
       <c r="C999" s="3"/>
@@ -28374,7 +28340,7 @@
       <c r="Y999" s="3"/>
       <c r="Z999" s="3"/>
     </row>
-    <row r="1000" spans="1:26" ht="19.5" customHeight="1">
+    <row r="1000" ht="19.5" customHeight="1">
       <c r="A1000" s="3"/>
       <c r="B1000" s="3"/>
       <c r="C1000" s="3"/>
@@ -28403,11 +28369,12 @@
       <c r="Z1000" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="1" right="1" top="1" bottom="1" header="0" footer="0"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <printOptions/>
+  <pageMargins bottom="1.0" footer="0.0" header="0.0" left="1.0" right="1.0" top="1.0"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C000000&amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/RMD/input/insight.xlsx
+++ b/RMD/input/insight.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leah\Documents\DailyReport\RMD\input\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F65E3D06-A18C-4650-8E42-BE1722894562}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="工作表 1 - test" sheetId="1" r:id="rId4"/>
+    <sheet name="工作表 1 - test" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mhG7279+7IMkhQxtSq6S8s0o2v4BA=="/>
@@ -27,45 +36,57 @@
     <t>page2</t>
   </si>
   <si>
-    <t>$\quad$截至北京时间4月29日早7：00，全球累计确诊病例已经达到3,111,730例，累计死亡216,857例。25个国家累计确诊病例超过15,000例。总体来看，欧洲与北美仍是累计确诊病例数最多的地区。英国的累计确诊数突破十六万，超过德国进入世界前五位。爱尔兰的累计确诊病例接近两万（19,877），粗发病率达403/10万人，已经超过意大利与瑞士，疫情正在迅速恶化。俄罗斯的累计确诊病例数超过伊朗，跃升至世界第八位。 中东地区除伊朗外，沙特阿拉伯累计确诊病例超过两万，以色列，巴基斯坦，卡塔尔与阿联酋的累计确诊均已超过一万例。东欧地区白俄罗斯病例增长迅速（累计确诊12,208例），较上周（4月22日）接近翻倍，粗发病率到达129/10万，超过湖北。中东及东欧各国变化表明，疫情在欧亚大陆自西向东多点扩散。（表1）</t>
-  </si>
-  <si>
     <t>page3</t>
-  </si>
-  <si>
-    <t>$\quad$从日新增病例数来看，美国与俄罗斯仍就占据世界前二，值得注意的是，俄罗斯的日新增病例呈明显上升趋势，该国疫情发展不容乐观。巴西日新增突破4000例，首次进入世界前三；秘鲁日新增接近2500例，两国日新增较上周均接近翻倍（4月22日：巴西2678例，秘鲁1413例），显示疫情在南美洲呈爆发性增长趋势。 白俄罗斯的单日新增919例，疫情在该国发展需要进一步关注。另一方面，西班牙与意大利的日新增病例持续下降，表明疫情逐步得到较好控制。(表2和图2）
-$\quad$从死亡病例数来看，美国仍是累计死亡病例最多的国家，虽日新增死亡呈现波动下降趋势。巴西累计死亡病例突破5000例，超过中国，日新增死亡也呈逐日上升态势。此外，意大利、西班牙、法国、德国等欧洲国家日新增死亡病例数呈现下降趋势，提示疫情在欧洲逐步缓解。 （表3和图3）</t>
   </si>
   <si>
     <t>page4</t>
   </si>
   <si>
-    <t xml:space="preserve">$\quad$截至北京时间4月29日早7:00， 美国累计确诊病例数超过101万例（1,011,600），共58,343 死亡病例。从分布来看，疫情主要集中在东西海岸和五大湖地区，全美19个州累计病例数超过一万人。除中部地区以外，东海岸地区疫情也在迅速扩散。罗得岛州累计确诊接近8000例，而粗发病率为全美第四（748/10万人）。（图4）
-$\quad$纽约州、新泽西州和马萨诸塞州为美国疫情最严重的三个州。纽约州检测率超过4300/10万人，而阳性率下降至35%，提示疫情逐步得到控制。此外，特拉华州，科罗拉多州与华盛顿特区阳性率均为22%左右，超过伊利诺伊州，而检测在2000/10万人左右，略低于新泽西州，显示这些州对于检测的需求仍然十分庞大。（表4）
-</t>
-  </si>
-  <si>
     <t>page5</t>
   </si>
   <si>
-    <t>$\quad$从日新增确诊来看，纽约州单日新增连续多日下降，较昨日再次下降800例左右，提示疫情好转。伊利诺伊州日新增病例逐步上升，需要进一步关注。（表5和图5）
-$\quad$从死亡病例数来看，密歇根州病死率超过9%，为全美最高。纽约州与马萨诸塞州日新增死亡呈明显波动下降趋势，提示医疗资源压力得到缓解。值得注意的是，罗得岛州病死率为3%，略低于佛罗里达州，但其累计病例只有佛罗里达州的1/4（佛罗里达州：32,848例）,提示该州存在医疗资源紧张的风险。（表6和图6）</t>
+    <t>截至北京时间4月29日早7：00，全球累计确诊病例已经达到3,111,730例，累计死亡216,857例。25个国家累计确诊病例超过15,000例。总体来看，欧洲与北美仍是累计确诊病例数最多的地区。英国的累计确诊数突破十六万，超过德国进入世界前五位。爱尔兰的累计确诊病例接近两万（19,877），粗发病率达403/10万人，已经超过意大利与瑞士，疫情正在迅速恶化。俄罗斯的累计确诊病例数超过伊朗，跃升至世界第八位。 中东地区除伊朗外，沙特阿拉伯累计确诊病例超过两万，以色列，巴基斯坦，卡塔尔与阿联酋的累计确诊均已超过一万例。东欧地区白俄罗斯病例增长迅速（累计确诊12,208例），较上周（4月22日）接近翻倍，粗发病率到达129/10万，超过湖北。中东及东欧各国变化表明，疫情在欧亚大陆自西向东多点扩散。（表1）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">截至北京时间4月29日早7:00， 美国累计确诊病例数超过101万例（1,011,600），共58,343 死亡病例。从分布来看，疫情主要集中在东西海岸和五大湖地区，全美19个州累计病例数超过一万人。除中部地区以外，东海岸地区疫情也在迅速扩散。罗得岛州累计确诊接近8000例，而粗发病率为全美第四（748/10万人）。（图4）$\\$
+纽约州、新泽西州和马萨诸塞州为美国疫情最严重的三个州。纽约州检测率超过4300/10万人，而阳性率下降至35%，提示疫情逐步得到控制。此外，特拉华州，科罗拉多州与华盛顿特区阳性率均为22%左右，超过伊利诺伊州，而检测在2000/10万人左右，略低于新泽西州，显示这些州对于检测的需求仍然十分庞大。（表4）
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>从日新增病例数来看，美国与俄罗斯仍就占据世界前二，值得注意的是，俄罗斯的日新增病例呈明显上升趋势，该国疫情发展不容乐观。巴西日新增突破4000例，首次进入世界前三；秘鲁日新增接近2500例，两国日新增较上周均接近翻倍（4月22日：巴西2678例，秘鲁1413例），显示疫情在南美洲呈爆发性增长趋势。 白俄罗斯的单日新增919例，疫情在该国发展需要进一步关注。另一方面，西班牙与意大利的日新增病例持续下降，表明疫情逐步得到较好控制。(表2和图2）$\\$
+从死亡病例数来看，美国仍是累计死亡病例最多的国家，虽日新增死亡呈现波动下降趋势。巴西累计死亡病例突破5000例，超过中国，日新增死亡也呈逐日上升态势。此外，意大利、西班牙、法国、德国等欧洲国家日新增死亡病例数呈现下降趋势，提示疫情在欧洲逐步缓解。 （表3和图3）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>从日新增确诊来看，纽约州单日新增连续多日下降，较昨日再次下降800例左右，提示疫情好转。伊利诺伊州日新增病例逐步上升，需要进一步关注。（表5和图5）$\\$
+从死亡病例数来看，密歇根州病死率超过9%，为全美最高。纽约州与马萨诸塞州日新增死亡呈明显波动下降趋势，提示医疗资源压力得到缓解。值得注意的是，罗得岛州病死率为3%，略低于佛罗里达州，但其累计病例只有佛罗里达州的1/4（佛罗里达州：32,848例）,提示该州存在医疗资源紧张的风险。（表6和图6）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="SimSun"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -73,7 +94,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -83,7 +104,13 @@
     </fill>
   </fills>
   <borders count="3">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -97,50 +124,57 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -330,25 +364,30 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="8.29"/>
-    <col customWidth="1" min="2" max="2" width="147.86"/>
-    <col customWidth="1" min="3" max="26" width="8.29"/>
+    <col min="1" max="1" width="8.265625" customWidth="1"/>
+    <col min="2" max="2" width="147.86328125" customWidth="1"/>
+    <col min="3" max="26" width="8.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19.5" customHeight="1">
+    <row r="1" spans="1:26" ht="19.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -380,12 +419,12 @@
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
     </row>
-    <row r="2" ht="99.75" customHeight="1">
+    <row r="2" spans="1:26" ht="99.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -412,12 +451,12 @@
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
     </row>
-    <row r="3" ht="99.75" customHeight="1">
+    <row r="3" spans="1:26" ht="99.75" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -444,9 +483,9 @@
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
     </row>
-    <row r="4" ht="99.75" customHeight="1">
+    <row r="4" spans="1:26" ht="99.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>7</v>
@@ -476,9 +515,9 @@
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
     </row>
-    <row r="5" ht="99.75" customHeight="1">
+    <row r="5" spans="1:26" ht="99.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>9</v>
@@ -508,7 +547,7 @@
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
     </row>
-    <row r="6" ht="14.25" customHeight="1">
+    <row r="6" spans="1:26" ht="14.25" customHeight="1">
       <c r="A6" s="3"/>
       <c r="B6" s="5"/>
       <c r="C6" s="3"/>
@@ -536,7 +575,7 @@
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
     </row>
-    <row r="7" ht="14.25" customHeight="1">
+    <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" s="3"/>
       <c r="B7" s="5"/>
       <c r="C7" s="3"/>
@@ -564,7 +603,7 @@
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
     </row>
-    <row r="8" ht="14.25" customHeight="1">
+    <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="5"/>
       <c r="C8" s="3"/>
@@ -592,7 +631,7 @@
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
     </row>
-    <row r="9" ht="14.25" customHeight="1">
+    <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="5"/>
       <c r="C9" s="3"/>
@@ -620,7 +659,7 @@
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
     </row>
-    <row r="10" ht="14.25" customHeight="1">
+    <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" s="3"/>
       <c r="B10" s="5"/>
       <c r="C10" s="3"/>
@@ -648,7 +687,7 @@
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
     </row>
-    <row r="11" ht="19.5" customHeight="1">
+    <row r="11" spans="1:26" ht="19.5" customHeight="1">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -676,7 +715,7 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
     </row>
-    <row r="12" ht="19.5" customHeight="1">
+    <row r="12" spans="1:26" ht="19.5" customHeight="1">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -704,7 +743,7 @@
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
     </row>
-    <row r="13" ht="19.5" customHeight="1">
+    <row r="13" spans="1:26" ht="19.5" customHeight="1">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -732,7 +771,7 @@
       <c r="Y13" s="3"/>
       <c r="Z13" s="3"/>
     </row>
-    <row r="14" ht="19.5" customHeight="1">
+    <row r="14" spans="1:26" ht="19.5" customHeight="1">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -760,7 +799,7 @@
       <c r="Y14" s="3"/>
       <c r="Z14" s="3"/>
     </row>
-    <row r="15" ht="19.5" customHeight="1">
+    <row r="15" spans="1:26" ht="19.5" customHeight="1">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -788,7 +827,7 @@
       <c r="Y15" s="3"/>
       <c r="Z15" s="3"/>
     </row>
-    <row r="16" ht="19.5" customHeight="1">
+    <row r="16" spans="1:26" ht="19.5" customHeight="1">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -816,7 +855,7 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
     </row>
-    <row r="17" ht="19.5" customHeight="1">
+    <row r="17" spans="1:26" ht="19.5" customHeight="1">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -844,7 +883,7 @@
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
     </row>
-    <row r="18" ht="19.5" customHeight="1">
+    <row r="18" spans="1:26" ht="19.5" customHeight="1">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -872,7 +911,7 @@
       <c r="Y18" s="3"/>
       <c r="Z18" s="3"/>
     </row>
-    <row r="19" ht="19.5" customHeight="1">
+    <row r="19" spans="1:26" ht="19.5" customHeight="1">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -900,7 +939,7 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
     </row>
-    <row r="20" ht="19.5" customHeight="1">
+    <row r="20" spans="1:26" ht="19.5" customHeight="1">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -928,7 +967,7 @@
       <c r="Y20" s="3"/>
       <c r="Z20" s="3"/>
     </row>
-    <row r="21" ht="19.5" customHeight="1">
+    <row r="21" spans="1:26" ht="19.5" customHeight="1">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -956,7 +995,7 @@
       <c r="Y21" s="3"/>
       <c r="Z21" s="3"/>
     </row>
-    <row r="22" ht="19.5" customHeight="1">
+    <row r="22" spans="1:26" ht="19.5" customHeight="1">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -984,7 +1023,7 @@
       <c r="Y22" s="3"/>
       <c r="Z22" s="3"/>
     </row>
-    <row r="23" ht="19.5" customHeight="1">
+    <row r="23" spans="1:26" ht="19.5" customHeight="1">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1012,7 +1051,7 @@
       <c r="Y23" s="3"/>
       <c r="Z23" s="3"/>
     </row>
-    <row r="24" ht="19.5" customHeight="1">
+    <row r="24" spans="1:26" ht="19.5" customHeight="1">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1040,7 +1079,7 @@
       <c r="Y24" s="3"/>
       <c r="Z24" s="3"/>
     </row>
-    <row r="25" ht="19.5" customHeight="1">
+    <row r="25" spans="1:26" ht="19.5" customHeight="1">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1068,7 +1107,7 @@
       <c r="Y25" s="3"/>
       <c r="Z25" s="3"/>
     </row>
-    <row r="26" ht="19.5" customHeight="1">
+    <row r="26" spans="1:26" ht="19.5" customHeight="1">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1096,7 +1135,7 @@
       <c r="Y26" s="3"/>
       <c r="Z26" s="3"/>
     </row>
-    <row r="27" ht="19.5" customHeight="1">
+    <row r="27" spans="1:26" ht="19.5" customHeight="1">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1124,7 +1163,7 @@
       <c r="Y27" s="3"/>
       <c r="Z27" s="3"/>
     </row>
-    <row r="28" ht="19.5" customHeight="1">
+    <row r="28" spans="1:26" ht="19.5" customHeight="1">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1152,7 +1191,7 @@
       <c r="Y28" s="3"/>
       <c r="Z28" s="3"/>
     </row>
-    <row r="29" ht="19.5" customHeight="1">
+    <row r="29" spans="1:26" ht="19.5" customHeight="1">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1180,7 +1219,7 @@
       <c r="Y29" s="3"/>
       <c r="Z29" s="3"/>
     </row>
-    <row r="30" ht="19.5" customHeight="1">
+    <row r="30" spans="1:26" ht="19.5" customHeight="1">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1208,7 +1247,7 @@
       <c r="Y30" s="3"/>
       <c r="Z30" s="3"/>
     </row>
-    <row r="31" ht="19.5" customHeight="1">
+    <row r="31" spans="1:26" ht="19.5" customHeight="1">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1236,7 +1275,7 @@
       <c r="Y31" s="3"/>
       <c r="Z31" s="3"/>
     </row>
-    <row r="32" ht="19.5" customHeight="1">
+    <row r="32" spans="1:26" ht="19.5" customHeight="1">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -1264,7 +1303,7 @@
       <c r="Y32" s="3"/>
       <c r="Z32" s="3"/>
     </row>
-    <row r="33" ht="19.5" customHeight="1">
+    <row r="33" spans="1:26" ht="19.5" customHeight="1">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -1292,7 +1331,7 @@
       <c r="Y33" s="3"/>
       <c r="Z33" s="3"/>
     </row>
-    <row r="34" ht="19.5" customHeight="1">
+    <row r="34" spans="1:26" ht="19.5" customHeight="1">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -1320,7 +1359,7 @@
       <c r="Y34" s="3"/>
       <c r="Z34" s="3"/>
     </row>
-    <row r="35" ht="19.5" customHeight="1">
+    <row r="35" spans="1:26" ht="19.5" customHeight="1">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -1348,7 +1387,7 @@
       <c r="Y35" s="3"/>
       <c r="Z35" s="3"/>
     </row>
-    <row r="36" ht="19.5" customHeight="1">
+    <row r="36" spans="1:26" ht="19.5" customHeight="1">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -1376,7 +1415,7 @@
       <c r="Y36" s="3"/>
       <c r="Z36" s="3"/>
     </row>
-    <row r="37" ht="19.5" customHeight="1">
+    <row r="37" spans="1:26" ht="19.5" customHeight="1">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -1404,7 +1443,7 @@
       <c r="Y37" s="3"/>
       <c r="Z37" s="3"/>
     </row>
-    <row r="38" ht="19.5" customHeight="1">
+    <row r="38" spans="1:26" ht="19.5" customHeight="1">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -1432,7 +1471,7 @@
       <c r="Y38" s="3"/>
       <c r="Z38" s="3"/>
     </row>
-    <row r="39" ht="19.5" customHeight="1">
+    <row r="39" spans="1:26" ht="19.5" customHeight="1">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -1460,7 +1499,7 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
     </row>
-    <row r="40" ht="19.5" customHeight="1">
+    <row r="40" spans="1:26" ht="19.5" customHeight="1">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -1488,7 +1527,7 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
     </row>
-    <row r="41" ht="19.5" customHeight="1">
+    <row r="41" spans="1:26" ht="19.5" customHeight="1">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -1516,7 +1555,7 @@
       <c r="Y41" s="3"/>
       <c r="Z41" s="3"/>
     </row>
-    <row r="42" ht="19.5" customHeight="1">
+    <row r="42" spans="1:26" ht="19.5" customHeight="1">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -1544,7 +1583,7 @@
       <c r="Y42" s="3"/>
       <c r="Z42" s="3"/>
     </row>
-    <row r="43" ht="19.5" customHeight="1">
+    <row r="43" spans="1:26" ht="19.5" customHeight="1">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -1572,7 +1611,7 @@
       <c r="Y43" s="3"/>
       <c r="Z43" s="3"/>
     </row>
-    <row r="44" ht="19.5" customHeight="1">
+    <row r="44" spans="1:26" ht="19.5" customHeight="1">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -1600,7 +1639,7 @@
       <c r="Y44" s="3"/>
       <c r="Z44" s="3"/>
     </row>
-    <row r="45" ht="19.5" customHeight="1">
+    <row r="45" spans="1:26" ht="19.5" customHeight="1">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -1628,7 +1667,7 @@
       <c r="Y45" s="3"/>
       <c r="Z45" s="3"/>
     </row>
-    <row r="46" ht="19.5" customHeight="1">
+    <row r="46" spans="1:26" ht="19.5" customHeight="1">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -1656,7 +1695,7 @@
       <c r="Y46" s="3"/>
       <c r="Z46" s="3"/>
     </row>
-    <row r="47" ht="19.5" customHeight="1">
+    <row r="47" spans="1:26" ht="19.5" customHeight="1">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -1684,7 +1723,7 @@
       <c r="Y47" s="3"/>
       <c r="Z47" s="3"/>
     </row>
-    <row r="48" ht="19.5" customHeight="1">
+    <row r="48" spans="1:26" ht="19.5" customHeight="1">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -1712,7 +1751,7 @@
       <c r="Y48" s="3"/>
       <c r="Z48" s="3"/>
     </row>
-    <row r="49" ht="19.5" customHeight="1">
+    <row r="49" spans="1:26" ht="19.5" customHeight="1">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -1740,7 +1779,7 @@
       <c r="Y49" s="3"/>
       <c r="Z49" s="3"/>
     </row>
-    <row r="50" ht="19.5" customHeight="1">
+    <row r="50" spans="1:26" ht="19.5" customHeight="1">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -1768,7 +1807,7 @@
       <c r="Y50" s="3"/>
       <c r="Z50" s="3"/>
     </row>
-    <row r="51" ht="19.5" customHeight="1">
+    <row r="51" spans="1:26" ht="19.5" customHeight="1">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -1796,7 +1835,7 @@
       <c r="Y51" s="3"/>
       <c r="Z51" s="3"/>
     </row>
-    <row r="52" ht="19.5" customHeight="1">
+    <row r="52" spans="1:26" ht="19.5" customHeight="1">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -1824,7 +1863,7 @@
       <c r="Y52" s="3"/>
       <c r="Z52" s="3"/>
     </row>
-    <row r="53" ht="19.5" customHeight="1">
+    <row r="53" spans="1:26" ht="19.5" customHeight="1">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -1852,7 +1891,7 @@
       <c r="Y53" s="3"/>
       <c r="Z53" s="3"/>
     </row>
-    <row r="54" ht="19.5" customHeight="1">
+    <row r="54" spans="1:26" ht="19.5" customHeight="1">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -1880,7 +1919,7 @@
       <c r="Y54" s="3"/>
       <c r="Z54" s="3"/>
     </row>
-    <row r="55" ht="19.5" customHeight="1">
+    <row r="55" spans="1:26" ht="19.5" customHeight="1">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -1908,7 +1947,7 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
     </row>
-    <row r="56" ht="19.5" customHeight="1">
+    <row r="56" spans="1:26" ht="19.5" customHeight="1">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -1936,7 +1975,7 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
     </row>
-    <row r="57" ht="19.5" customHeight="1">
+    <row r="57" spans="1:26" ht="19.5" customHeight="1">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -1964,7 +2003,7 @@
       <c r="Y57" s="3"/>
       <c r="Z57" s="3"/>
     </row>
-    <row r="58" ht="19.5" customHeight="1">
+    <row r="58" spans="1:26" ht="19.5" customHeight="1">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -1992,7 +2031,7 @@
       <c r="Y58" s="3"/>
       <c r="Z58" s="3"/>
     </row>
-    <row r="59" ht="19.5" customHeight="1">
+    <row r="59" spans="1:26" ht="19.5" customHeight="1">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -2020,7 +2059,7 @@
       <c r="Y59" s="3"/>
       <c r="Z59" s="3"/>
     </row>
-    <row r="60" ht="19.5" customHeight="1">
+    <row r="60" spans="1:26" ht="19.5" customHeight="1">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -2048,7 +2087,7 @@
       <c r="Y60" s="3"/>
       <c r="Z60" s="3"/>
     </row>
-    <row r="61" ht="19.5" customHeight="1">
+    <row r="61" spans="1:26" ht="19.5" customHeight="1">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -2076,7 +2115,7 @@
       <c r="Y61" s="3"/>
       <c r="Z61" s="3"/>
     </row>
-    <row r="62" ht="19.5" customHeight="1">
+    <row r="62" spans="1:26" ht="19.5" customHeight="1">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -2104,7 +2143,7 @@
       <c r="Y62" s="3"/>
       <c r="Z62" s="3"/>
     </row>
-    <row r="63" ht="19.5" customHeight="1">
+    <row r="63" spans="1:26" ht="19.5" customHeight="1">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -2132,7 +2171,7 @@
       <c r="Y63" s="3"/>
       <c r="Z63" s="3"/>
     </row>
-    <row r="64" ht="19.5" customHeight="1">
+    <row r="64" spans="1:26" ht="19.5" customHeight="1">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -2160,7 +2199,7 @@
       <c r="Y64" s="3"/>
       <c r="Z64" s="3"/>
     </row>
-    <row r="65" ht="19.5" customHeight="1">
+    <row r="65" spans="1:26" ht="19.5" customHeight="1">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -2188,7 +2227,7 @@
       <c r="Y65" s="3"/>
       <c r="Z65" s="3"/>
     </row>
-    <row r="66" ht="19.5" customHeight="1">
+    <row r="66" spans="1:26" ht="19.5" customHeight="1">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -2216,7 +2255,7 @@
       <c r="Y66" s="3"/>
       <c r="Z66" s="3"/>
     </row>
-    <row r="67" ht="19.5" customHeight="1">
+    <row r="67" spans="1:26" ht="19.5" customHeight="1">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -2244,7 +2283,7 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
     </row>
-    <row r="68" ht="19.5" customHeight="1">
+    <row r="68" spans="1:26" ht="19.5" customHeight="1">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -2272,7 +2311,7 @@
       <c r="Y68" s="3"/>
       <c r="Z68" s="3"/>
     </row>
-    <row r="69" ht="19.5" customHeight="1">
+    <row r="69" spans="1:26" ht="19.5" customHeight="1">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -2300,7 +2339,7 @@
       <c r="Y69" s="3"/>
       <c r="Z69" s="3"/>
     </row>
-    <row r="70" ht="19.5" customHeight="1">
+    <row r="70" spans="1:26" ht="19.5" customHeight="1">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -2328,7 +2367,7 @@
       <c r="Y70" s="3"/>
       <c r="Z70" s="3"/>
     </row>
-    <row r="71" ht="19.5" customHeight="1">
+    <row r="71" spans="1:26" ht="19.5" customHeight="1">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -2356,7 +2395,7 @@
       <c r="Y71" s="3"/>
       <c r="Z71" s="3"/>
     </row>
-    <row r="72" ht="19.5" customHeight="1">
+    <row r="72" spans="1:26" ht="19.5" customHeight="1">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -2384,7 +2423,7 @@
       <c r="Y72" s="3"/>
       <c r="Z72" s="3"/>
     </row>
-    <row r="73" ht="19.5" customHeight="1">
+    <row r="73" spans="1:26" ht="19.5" customHeight="1">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -2412,7 +2451,7 @@
       <c r="Y73" s="3"/>
       <c r="Z73" s="3"/>
     </row>
-    <row r="74" ht="19.5" customHeight="1">
+    <row r="74" spans="1:26" ht="19.5" customHeight="1">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -2440,7 +2479,7 @@
       <c r="Y74" s="3"/>
       <c r="Z74" s="3"/>
     </row>
-    <row r="75" ht="19.5" customHeight="1">
+    <row r="75" spans="1:26" ht="19.5" customHeight="1">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -2468,7 +2507,7 @@
       <c r="Y75" s="3"/>
       <c r="Z75" s="3"/>
     </row>
-    <row r="76" ht="19.5" customHeight="1">
+    <row r="76" spans="1:26" ht="19.5" customHeight="1">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -2496,7 +2535,7 @@
       <c r="Y76" s="3"/>
       <c r="Z76" s="3"/>
     </row>
-    <row r="77" ht="19.5" customHeight="1">
+    <row r="77" spans="1:26" ht="19.5" customHeight="1">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -2524,7 +2563,7 @@
       <c r="Y77" s="3"/>
       <c r="Z77" s="3"/>
     </row>
-    <row r="78" ht="19.5" customHeight="1">
+    <row r="78" spans="1:26" ht="19.5" customHeight="1">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -2552,7 +2591,7 @@
       <c r="Y78" s="3"/>
       <c r="Z78" s="3"/>
     </row>
-    <row r="79" ht="19.5" customHeight="1">
+    <row r="79" spans="1:26" ht="19.5" customHeight="1">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -2580,7 +2619,7 @@
       <c r="Y79" s="3"/>
       <c r="Z79" s="3"/>
     </row>
-    <row r="80" ht="19.5" customHeight="1">
+    <row r="80" spans="1:26" ht="19.5" customHeight="1">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -2608,7 +2647,7 @@
       <c r="Y80" s="3"/>
       <c r="Z80" s="3"/>
     </row>
-    <row r="81" ht="19.5" customHeight="1">
+    <row r="81" spans="1:26" ht="19.5" customHeight="1">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -2636,7 +2675,7 @@
       <c r="Y81" s="3"/>
       <c r="Z81" s="3"/>
     </row>
-    <row r="82" ht="19.5" customHeight="1">
+    <row r="82" spans="1:26" ht="19.5" customHeight="1">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -2664,7 +2703,7 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
     </row>
-    <row r="83" ht="19.5" customHeight="1">
+    <row r="83" spans="1:26" ht="19.5" customHeight="1">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -2692,7 +2731,7 @@
       <c r="Y83" s="3"/>
       <c r="Z83" s="3"/>
     </row>
-    <row r="84" ht="19.5" customHeight="1">
+    <row r="84" spans="1:26" ht="19.5" customHeight="1">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -2720,7 +2759,7 @@
       <c r="Y84" s="3"/>
       <c r="Z84" s="3"/>
     </row>
-    <row r="85" ht="19.5" customHeight="1">
+    <row r="85" spans="1:26" ht="19.5" customHeight="1">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -2748,7 +2787,7 @@
       <c r="Y85" s="3"/>
       <c r="Z85" s="3"/>
     </row>
-    <row r="86" ht="19.5" customHeight="1">
+    <row r="86" spans="1:26" ht="19.5" customHeight="1">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -2776,7 +2815,7 @@
       <c r="Y86" s="3"/>
       <c r="Z86" s="3"/>
     </row>
-    <row r="87" ht="19.5" customHeight="1">
+    <row r="87" spans="1:26" ht="19.5" customHeight="1">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -2804,7 +2843,7 @@
       <c r="Y87" s="3"/>
       <c r="Z87" s="3"/>
     </row>
-    <row r="88" ht="19.5" customHeight="1">
+    <row r="88" spans="1:26" ht="19.5" customHeight="1">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -2832,7 +2871,7 @@
       <c r="Y88" s="3"/>
       <c r="Z88" s="3"/>
     </row>
-    <row r="89" ht="19.5" customHeight="1">
+    <row r="89" spans="1:26" ht="19.5" customHeight="1">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -2860,7 +2899,7 @@
       <c r="Y89" s="3"/>
       <c r="Z89" s="3"/>
     </row>
-    <row r="90" ht="19.5" customHeight="1">
+    <row r="90" spans="1:26" ht="19.5" customHeight="1">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -2888,7 +2927,7 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
     </row>
-    <row r="91" ht="19.5" customHeight="1">
+    <row r="91" spans="1:26" ht="19.5" customHeight="1">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -2916,7 +2955,7 @@
       <c r="Y91" s="3"/>
       <c r="Z91" s="3"/>
     </row>
-    <row r="92" ht="19.5" customHeight="1">
+    <row r="92" spans="1:26" ht="19.5" customHeight="1">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -2944,7 +2983,7 @@
       <c r="Y92" s="3"/>
       <c r="Z92" s="3"/>
     </row>
-    <row r="93" ht="19.5" customHeight="1">
+    <row r="93" spans="1:26" ht="19.5" customHeight="1">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -2972,7 +3011,7 @@
       <c r="Y93" s="3"/>
       <c r="Z93" s="3"/>
     </row>
-    <row r="94" ht="19.5" customHeight="1">
+    <row r="94" spans="1:26" ht="19.5" customHeight="1">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -3000,7 +3039,7 @@
       <c r="Y94" s="3"/>
       <c r="Z94" s="3"/>
     </row>
-    <row r="95" ht="19.5" customHeight="1">
+    <row r="95" spans="1:26" ht="19.5" customHeight="1">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -3028,7 +3067,7 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
     </row>
-    <row r="96" ht="19.5" customHeight="1">
+    <row r="96" spans="1:26" ht="19.5" customHeight="1">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -3056,7 +3095,7 @@
       <c r="Y96" s="3"/>
       <c r="Z96" s="3"/>
     </row>
-    <row r="97" ht="19.5" customHeight="1">
+    <row r="97" spans="1:26" ht="19.5" customHeight="1">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -3084,7 +3123,7 @@
       <c r="Y97" s="3"/>
       <c r="Z97" s="3"/>
     </row>
-    <row r="98" ht="19.5" customHeight="1">
+    <row r="98" spans="1:26" ht="19.5" customHeight="1">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -3112,7 +3151,7 @@
       <c r="Y98" s="3"/>
       <c r="Z98" s="3"/>
     </row>
-    <row r="99" ht="19.5" customHeight="1">
+    <row r="99" spans="1:26" ht="19.5" customHeight="1">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -3140,7 +3179,7 @@
       <c r="Y99" s="3"/>
       <c r="Z99" s="3"/>
     </row>
-    <row r="100" ht="19.5" customHeight="1">
+    <row r="100" spans="1:26" ht="19.5" customHeight="1">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -3168,7 +3207,7 @@
       <c r="Y100" s="3"/>
       <c r="Z100" s="3"/>
     </row>
-    <row r="101" ht="19.5" customHeight="1">
+    <row r="101" spans="1:26" ht="19.5" customHeight="1">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -3196,7 +3235,7 @@
       <c r="Y101" s="3"/>
       <c r="Z101" s="3"/>
     </row>
-    <row r="102" ht="19.5" customHeight="1">
+    <row r="102" spans="1:26" ht="19.5" customHeight="1">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -3224,7 +3263,7 @@
       <c r="Y102" s="3"/>
       <c r="Z102" s="3"/>
     </row>
-    <row r="103" ht="19.5" customHeight="1">
+    <row r="103" spans="1:26" ht="19.5" customHeight="1">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -3252,7 +3291,7 @@
       <c r="Y103" s="3"/>
       <c r="Z103" s="3"/>
     </row>
-    <row r="104" ht="19.5" customHeight="1">
+    <row r="104" spans="1:26" ht="19.5" customHeight="1">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -3280,7 +3319,7 @@
       <c r="Y104" s="3"/>
       <c r="Z104" s="3"/>
     </row>
-    <row r="105" ht="19.5" customHeight="1">
+    <row r="105" spans="1:26" ht="19.5" customHeight="1">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -3308,7 +3347,7 @@
       <c r="Y105" s="3"/>
       <c r="Z105" s="3"/>
     </row>
-    <row r="106" ht="19.5" customHeight="1">
+    <row r="106" spans="1:26" ht="19.5" customHeight="1">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -3336,7 +3375,7 @@
       <c r="Y106" s="3"/>
       <c r="Z106" s="3"/>
     </row>
-    <row r="107" ht="19.5" customHeight="1">
+    <row r="107" spans="1:26" ht="19.5" customHeight="1">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -3364,7 +3403,7 @@
       <c r="Y107" s="3"/>
       <c r="Z107" s="3"/>
     </row>
-    <row r="108" ht="19.5" customHeight="1">
+    <row r="108" spans="1:26" ht="19.5" customHeight="1">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -3392,7 +3431,7 @@
       <c r="Y108" s="3"/>
       <c r="Z108" s="3"/>
     </row>
-    <row r="109" ht="19.5" customHeight="1">
+    <row r="109" spans="1:26" ht="19.5" customHeight="1">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -3420,7 +3459,7 @@
       <c r="Y109" s="3"/>
       <c r="Z109" s="3"/>
     </row>
-    <row r="110" ht="19.5" customHeight="1">
+    <row r="110" spans="1:26" ht="19.5" customHeight="1">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -3448,7 +3487,7 @@
       <c r="Y110" s="3"/>
       <c r="Z110" s="3"/>
     </row>
-    <row r="111" ht="19.5" customHeight="1">
+    <row r="111" spans="1:26" ht="19.5" customHeight="1">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -3476,7 +3515,7 @@
       <c r="Y111" s="3"/>
       <c r="Z111" s="3"/>
     </row>
-    <row r="112" ht="19.5" customHeight="1">
+    <row r="112" spans="1:26" ht="19.5" customHeight="1">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -3504,7 +3543,7 @@
       <c r="Y112" s="3"/>
       <c r="Z112" s="3"/>
     </row>
-    <row r="113" ht="19.5" customHeight="1">
+    <row r="113" spans="1:26" ht="19.5" customHeight="1">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -3532,7 +3571,7 @@
       <c r="Y113" s="3"/>
       <c r="Z113" s="3"/>
     </row>
-    <row r="114" ht="19.5" customHeight="1">
+    <row r="114" spans="1:26" ht="19.5" customHeight="1">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -3560,7 +3599,7 @@
       <c r="Y114" s="3"/>
       <c r="Z114" s="3"/>
     </row>
-    <row r="115" ht="19.5" customHeight="1">
+    <row r="115" spans="1:26" ht="19.5" customHeight="1">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -3588,7 +3627,7 @@
       <c r="Y115" s="3"/>
       <c r="Z115" s="3"/>
     </row>
-    <row r="116" ht="19.5" customHeight="1">
+    <row r="116" spans="1:26" ht="19.5" customHeight="1">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -3616,7 +3655,7 @@
       <c r="Y116" s="3"/>
       <c r="Z116" s="3"/>
     </row>
-    <row r="117" ht="19.5" customHeight="1">
+    <row r="117" spans="1:26" ht="19.5" customHeight="1">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -3644,7 +3683,7 @@
       <c r="Y117" s="3"/>
       <c r="Z117" s="3"/>
     </row>
-    <row r="118" ht="19.5" customHeight="1">
+    <row r="118" spans="1:26" ht="19.5" customHeight="1">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -3672,7 +3711,7 @@
       <c r="Y118" s="3"/>
       <c r="Z118" s="3"/>
     </row>
-    <row r="119" ht="19.5" customHeight="1">
+    <row r="119" spans="1:26" ht="19.5" customHeight="1">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -3700,7 +3739,7 @@
       <c r="Y119" s="3"/>
       <c r="Z119" s="3"/>
     </row>
-    <row r="120" ht="19.5" customHeight="1">
+    <row r="120" spans="1:26" ht="19.5" customHeight="1">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -3728,7 +3767,7 @@
       <c r="Y120" s="3"/>
       <c r="Z120" s="3"/>
     </row>
-    <row r="121" ht="19.5" customHeight="1">
+    <row r="121" spans="1:26" ht="19.5" customHeight="1">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -3756,7 +3795,7 @@
       <c r="Y121" s="3"/>
       <c r="Z121" s="3"/>
     </row>
-    <row r="122" ht="19.5" customHeight="1">
+    <row r="122" spans="1:26" ht="19.5" customHeight="1">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -3784,7 +3823,7 @@
       <c r="Y122" s="3"/>
       <c r="Z122" s="3"/>
     </row>
-    <row r="123" ht="19.5" customHeight="1">
+    <row r="123" spans="1:26" ht="19.5" customHeight="1">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -3812,7 +3851,7 @@
       <c r="Y123" s="3"/>
       <c r="Z123" s="3"/>
     </row>
-    <row r="124" ht="19.5" customHeight="1">
+    <row r="124" spans="1:26" ht="19.5" customHeight="1">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -3840,7 +3879,7 @@
       <c r="Y124" s="3"/>
       <c r="Z124" s="3"/>
     </row>
-    <row r="125" ht="19.5" customHeight="1">
+    <row r="125" spans="1:26" ht="19.5" customHeight="1">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -3868,7 +3907,7 @@
       <c r="Y125" s="3"/>
       <c r="Z125" s="3"/>
     </row>
-    <row r="126" ht="19.5" customHeight="1">
+    <row r="126" spans="1:26" ht="19.5" customHeight="1">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -3896,7 +3935,7 @@
       <c r="Y126" s="3"/>
       <c r="Z126" s="3"/>
     </row>
-    <row r="127" ht="19.5" customHeight="1">
+    <row r="127" spans="1:26" ht="19.5" customHeight="1">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -3924,7 +3963,7 @@
       <c r="Y127" s="3"/>
       <c r="Z127" s="3"/>
     </row>
-    <row r="128" ht="19.5" customHeight="1">
+    <row r="128" spans="1:26" ht="19.5" customHeight="1">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -3952,7 +3991,7 @@
       <c r="Y128" s="3"/>
       <c r="Z128" s="3"/>
     </row>
-    <row r="129" ht="19.5" customHeight="1">
+    <row r="129" spans="1:26" ht="19.5" customHeight="1">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -3980,7 +4019,7 @@
       <c r="Y129" s="3"/>
       <c r="Z129" s="3"/>
     </row>
-    <row r="130" ht="19.5" customHeight="1">
+    <row r="130" spans="1:26" ht="19.5" customHeight="1">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -4008,7 +4047,7 @@
       <c r="Y130" s="3"/>
       <c r="Z130" s="3"/>
     </row>
-    <row r="131" ht="19.5" customHeight="1">
+    <row r="131" spans="1:26" ht="19.5" customHeight="1">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -4036,7 +4075,7 @@
       <c r="Y131" s="3"/>
       <c r="Z131" s="3"/>
     </row>
-    <row r="132" ht="19.5" customHeight="1">
+    <row r="132" spans="1:26" ht="19.5" customHeight="1">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -4064,7 +4103,7 @@
       <c r="Y132" s="3"/>
       <c r="Z132" s="3"/>
     </row>
-    <row r="133" ht="19.5" customHeight="1">
+    <row r="133" spans="1:26" ht="19.5" customHeight="1">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -4092,7 +4131,7 @@
       <c r="Y133" s="3"/>
       <c r="Z133" s="3"/>
     </row>
-    <row r="134" ht="19.5" customHeight="1">
+    <row r="134" spans="1:26" ht="19.5" customHeight="1">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
@@ -4120,7 +4159,7 @@
       <c r="Y134" s="3"/>
       <c r="Z134" s="3"/>
     </row>
-    <row r="135" ht="19.5" customHeight="1">
+    <row r="135" spans="1:26" ht="19.5" customHeight="1">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -4148,7 +4187,7 @@
       <c r="Y135" s="3"/>
       <c r="Z135" s="3"/>
     </row>
-    <row r="136" ht="19.5" customHeight="1">
+    <row r="136" spans="1:26" ht="19.5" customHeight="1">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -4176,7 +4215,7 @@
       <c r="Y136" s="3"/>
       <c r="Z136" s="3"/>
     </row>
-    <row r="137" ht="19.5" customHeight="1">
+    <row r="137" spans="1:26" ht="19.5" customHeight="1">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
@@ -4204,7 +4243,7 @@
       <c r="Y137" s="3"/>
       <c r="Z137" s="3"/>
     </row>
-    <row r="138" ht="19.5" customHeight="1">
+    <row r="138" spans="1:26" ht="19.5" customHeight="1">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
@@ -4232,7 +4271,7 @@
       <c r="Y138" s="3"/>
       <c r="Z138" s="3"/>
     </row>
-    <row r="139" ht="19.5" customHeight="1">
+    <row r="139" spans="1:26" ht="19.5" customHeight="1">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
@@ -4260,7 +4299,7 @@
       <c r="Y139" s="3"/>
       <c r="Z139" s="3"/>
     </row>
-    <row r="140" ht="19.5" customHeight="1">
+    <row r="140" spans="1:26" ht="19.5" customHeight="1">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -4288,7 +4327,7 @@
       <c r="Y140" s="3"/>
       <c r="Z140" s="3"/>
     </row>
-    <row r="141" ht="19.5" customHeight="1">
+    <row r="141" spans="1:26" ht="19.5" customHeight="1">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
@@ -4316,7 +4355,7 @@
       <c r="Y141" s="3"/>
       <c r="Z141" s="3"/>
     </row>
-    <row r="142" ht="19.5" customHeight="1">
+    <row r="142" spans="1:26" ht="19.5" customHeight="1">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -4344,7 +4383,7 @@
       <c r="Y142" s="3"/>
       <c r="Z142" s="3"/>
     </row>
-    <row r="143" ht="19.5" customHeight="1">
+    <row r="143" spans="1:26" ht="19.5" customHeight="1">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
@@ -4372,7 +4411,7 @@
       <c r="Y143" s="3"/>
       <c r="Z143" s="3"/>
     </row>
-    <row r="144" ht="19.5" customHeight="1">
+    <row r="144" spans="1:26" ht="19.5" customHeight="1">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
@@ -4400,7 +4439,7 @@
       <c r="Y144" s="3"/>
       <c r="Z144" s="3"/>
     </row>
-    <row r="145" ht="19.5" customHeight="1">
+    <row r="145" spans="1:26" ht="19.5" customHeight="1">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
@@ -4428,7 +4467,7 @@
       <c r="Y145" s="3"/>
       <c r="Z145" s="3"/>
     </row>
-    <row r="146" ht="19.5" customHeight="1">
+    <row r="146" spans="1:26" ht="19.5" customHeight="1">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
@@ -4456,7 +4495,7 @@
       <c r="Y146" s="3"/>
       <c r="Z146" s="3"/>
     </row>
-    <row r="147" ht="19.5" customHeight="1">
+    <row r="147" spans="1:26" ht="19.5" customHeight="1">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
@@ -4484,7 +4523,7 @@
       <c r="Y147" s="3"/>
       <c r="Z147" s="3"/>
     </row>
-    <row r="148" ht="19.5" customHeight="1">
+    <row r="148" spans="1:26" ht="19.5" customHeight="1">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
@@ -4512,7 +4551,7 @@
       <c r="Y148" s="3"/>
       <c r="Z148" s="3"/>
     </row>
-    <row r="149" ht="19.5" customHeight="1">
+    <row r="149" spans="1:26" ht="19.5" customHeight="1">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
@@ -4540,7 +4579,7 @@
       <c r="Y149" s="3"/>
       <c r="Z149" s="3"/>
     </row>
-    <row r="150" ht="19.5" customHeight="1">
+    <row r="150" spans="1:26" ht="19.5" customHeight="1">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
@@ -4568,7 +4607,7 @@
       <c r="Y150" s="3"/>
       <c r="Z150" s="3"/>
     </row>
-    <row r="151" ht="19.5" customHeight="1">
+    <row r="151" spans="1:26" ht="19.5" customHeight="1">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
@@ -4596,7 +4635,7 @@
       <c r="Y151" s="3"/>
       <c r="Z151" s="3"/>
     </row>
-    <row r="152" ht="19.5" customHeight="1">
+    <row r="152" spans="1:26" ht="19.5" customHeight="1">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -4624,7 +4663,7 @@
       <c r="Y152" s="3"/>
       <c r="Z152" s="3"/>
     </row>
-    <row r="153" ht="19.5" customHeight="1">
+    <row r="153" spans="1:26" ht="19.5" customHeight="1">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
@@ -4652,7 +4691,7 @@
       <c r="Y153" s="3"/>
       <c r="Z153" s="3"/>
     </row>
-    <row r="154" ht="19.5" customHeight="1">
+    <row r="154" spans="1:26" ht="19.5" customHeight="1">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
@@ -4680,7 +4719,7 @@
       <c r="Y154" s="3"/>
       <c r="Z154" s="3"/>
     </row>
-    <row r="155" ht="19.5" customHeight="1">
+    <row r="155" spans="1:26" ht="19.5" customHeight="1">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
@@ -4708,7 +4747,7 @@
       <c r="Y155" s="3"/>
       <c r="Z155" s="3"/>
     </row>
-    <row r="156" ht="19.5" customHeight="1">
+    <row r="156" spans="1:26" ht="19.5" customHeight="1">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
@@ -4736,7 +4775,7 @@
       <c r="Y156" s="3"/>
       <c r="Z156" s="3"/>
     </row>
-    <row r="157" ht="19.5" customHeight="1">
+    <row r="157" spans="1:26" ht="19.5" customHeight="1">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
@@ -4764,7 +4803,7 @@
       <c r="Y157" s="3"/>
       <c r="Z157" s="3"/>
     </row>
-    <row r="158" ht="19.5" customHeight="1">
+    <row r="158" spans="1:26" ht="19.5" customHeight="1">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -4792,7 +4831,7 @@
       <c r="Y158" s="3"/>
       <c r="Z158" s="3"/>
     </row>
-    <row r="159" ht="19.5" customHeight="1">
+    <row r="159" spans="1:26" ht="19.5" customHeight="1">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -4820,7 +4859,7 @@
       <c r="Y159" s="3"/>
       <c r="Z159" s="3"/>
     </row>
-    <row r="160" ht="19.5" customHeight="1">
+    <row r="160" spans="1:26" ht="19.5" customHeight="1">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
@@ -4848,7 +4887,7 @@
       <c r="Y160" s="3"/>
       <c r="Z160" s="3"/>
     </row>
-    <row r="161" ht="19.5" customHeight="1">
+    <row r="161" spans="1:26" ht="19.5" customHeight="1">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
@@ -4876,7 +4915,7 @@
       <c r="Y161" s="3"/>
       <c r="Z161" s="3"/>
     </row>
-    <row r="162" ht="19.5" customHeight="1">
+    <row r="162" spans="1:26" ht="19.5" customHeight="1">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
@@ -4904,7 +4943,7 @@
       <c r="Y162" s="3"/>
       <c r="Z162" s="3"/>
     </row>
-    <row r="163" ht="19.5" customHeight="1">
+    <row r="163" spans="1:26" ht="19.5" customHeight="1">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
@@ -4932,7 +4971,7 @@
       <c r="Y163" s="3"/>
       <c r="Z163" s="3"/>
     </row>
-    <row r="164" ht="19.5" customHeight="1">
+    <row r="164" spans="1:26" ht="19.5" customHeight="1">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
@@ -4960,7 +4999,7 @@
       <c r="Y164" s="3"/>
       <c r="Z164" s="3"/>
     </row>
-    <row r="165" ht="19.5" customHeight="1">
+    <row r="165" spans="1:26" ht="19.5" customHeight="1">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
@@ -4988,7 +5027,7 @@
       <c r="Y165" s="3"/>
       <c r="Z165" s="3"/>
     </row>
-    <row r="166" ht="19.5" customHeight="1">
+    <row r="166" spans="1:26" ht="19.5" customHeight="1">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
@@ -5016,7 +5055,7 @@
       <c r="Y166" s="3"/>
       <c r="Z166" s="3"/>
     </row>
-    <row r="167" ht="19.5" customHeight="1">
+    <row r="167" spans="1:26" ht="19.5" customHeight="1">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
@@ -5044,7 +5083,7 @@
       <c r="Y167" s="3"/>
       <c r="Z167" s="3"/>
     </row>
-    <row r="168" ht="19.5" customHeight="1">
+    <row r="168" spans="1:26" ht="19.5" customHeight="1">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
@@ -5072,7 +5111,7 @@
       <c r="Y168" s="3"/>
       <c r="Z168" s="3"/>
     </row>
-    <row r="169" ht="19.5" customHeight="1">
+    <row r="169" spans="1:26" ht="19.5" customHeight="1">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
@@ -5100,7 +5139,7 @@
       <c r="Y169" s="3"/>
       <c r="Z169" s="3"/>
     </row>
-    <row r="170" ht="19.5" customHeight="1">
+    <row r="170" spans="1:26" ht="19.5" customHeight="1">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
@@ -5128,7 +5167,7 @@
       <c r="Y170" s="3"/>
       <c r="Z170" s="3"/>
     </row>
-    <row r="171" ht="19.5" customHeight="1">
+    <row r="171" spans="1:26" ht="19.5" customHeight="1">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
@@ -5156,7 +5195,7 @@
       <c r="Y171" s="3"/>
       <c r="Z171" s="3"/>
     </row>
-    <row r="172" ht="19.5" customHeight="1">
+    <row r="172" spans="1:26" ht="19.5" customHeight="1">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
@@ -5184,7 +5223,7 @@
       <c r="Y172" s="3"/>
       <c r="Z172" s="3"/>
     </row>
-    <row r="173" ht="19.5" customHeight="1">
+    <row r="173" spans="1:26" ht="19.5" customHeight="1">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
@@ -5212,7 +5251,7 @@
       <c r="Y173" s="3"/>
       <c r="Z173" s="3"/>
     </row>
-    <row r="174" ht="19.5" customHeight="1">
+    <row r="174" spans="1:26" ht="19.5" customHeight="1">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
@@ -5240,7 +5279,7 @@
       <c r="Y174" s="3"/>
       <c r="Z174" s="3"/>
     </row>
-    <row r="175" ht="19.5" customHeight="1">
+    <row r="175" spans="1:26" ht="19.5" customHeight="1">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
@@ -5268,7 +5307,7 @@
       <c r="Y175" s="3"/>
       <c r="Z175" s="3"/>
     </row>
-    <row r="176" ht="19.5" customHeight="1">
+    <row r="176" spans="1:26" ht="19.5" customHeight="1">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
@@ -5296,7 +5335,7 @@
       <c r="Y176" s="3"/>
       <c r="Z176" s="3"/>
     </row>
-    <row r="177" ht="19.5" customHeight="1">
+    <row r="177" spans="1:26" ht="19.5" customHeight="1">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
@@ -5324,7 +5363,7 @@
       <c r="Y177" s="3"/>
       <c r="Z177" s="3"/>
     </row>
-    <row r="178" ht="19.5" customHeight="1">
+    <row r="178" spans="1:26" ht="19.5" customHeight="1">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
@@ -5352,7 +5391,7 @@
       <c r="Y178" s="3"/>
       <c r="Z178" s="3"/>
     </row>
-    <row r="179" ht="19.5" customHeight="1">
+    <row r="179" spans="1:26" ht="19.5" customHeight="1">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
@@ -5380,7 +5419,7 @@
       <c r="Y179" s="3"/>
       <c r="Z179" s="3"/>
     </row>
-    <row r="180" ht="19.5" customHeight="1">
+    <row r="180" spans="1:26" ht="19.5" customHeight="1">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
@@ -5408,7 +5447,7 @@
       <c r="Y180" s="3"/>
       <c r="Z180" s="3"/>
     </row>
-    <row r="181" ht="19.5" customHeight="1">
+    <row r="181" spans="1:26" ht="19.5" customHeight="1">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
@@ -5436,7 +5475,7 @@
       <c r="Y181" s="3"/>
       <c r="Z181" s="3"/>
     </row>
-    <row r="182" ht="19.5" customHeight="1">
+    <row r="182" spans="1:26" ht="19.5" customHeight="1">
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
@@ -5464,7 +5503,7 @@
       <c r="Y182" s="3"/>
       <c r="Z182" s="3"/>
     </row>
-    <row r="183" ht="19.5" customHeight="1">
+    <row r="183" spans="1:26" ht="19.5" customHeight="1">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
@@ -5492,7 +5531,7 @@
       <c r="Y183" s="3"/>
       <c r="Z183" s="3"/>
     </row>
-    <row r="184" ht="19.5" customHeight="1">
+    <row r="184" spans="1:26" ht="19.5" customHeight="1">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
@@ -5520,7 +5559,7 @@
       <c r="Y184" s="3"/>
       <c r="Z184" s="3"/>
     </row>
-    <row r="185" ht="19.5" customHeight="1">
+    <row r="185" spans="1:26" ht="19.5" customHeight="1">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
@@ -5548,7 +5587,7 @@
       <c r="Y185" s="3"/>
       <c r="Z185" s="3"/>
     </row>
-    <row r="186" ht="19.5" customHeight="1">
+    <row r="186" spans="1:26" ht="19.5" customHeight="1">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
@@ -5576,7 +5615,7 @@
       <c r="Y186" s="3"/>
       <c r="Z186" s="3"/>
     </row>
-    <row r="187" ht="19.5" customHeight="1">
+    <row r="187" spans="1:26" ht="19.5" customHeight="1">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
@@ -5604,7 +5643,7 @@
       <c r="Y187" s="3"/>
       <c r="Z187" s="3"/>
     </row>
-    <row r="188" ht="19.5" customHeight="1">
+    <row r="188" spans="1:26" ht="19.5" customHeight="1">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
@@ -5632,7 +5671,7 @@
       <c r="Y188" s="3"/>
       <c r="Z188" s="3"/>
     </row>
-    <row r="189" ht="19.5" customHeight="1">
+    <row r="189" spans="1:26" ht="19.5" customHeight="1">
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
@@ -5660,7 +5699,7 @@
       <c r="Y189" s="3"/>
       <c r="Z189" s="3"/>
     </row>
-    <row r="190" ht="19.5" customHeight="1">
+    <row r="190" spans="1:26" ht="19.5" customHeight="1">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
@@ -5688,7 +5727,7 @@
       <c r="Y190" s="3"/>
       <c r="Z190" s="3"/>
     </row>
-    <row r="191" ht="19.5" customHeight="1">
+    <row r="191" spans="1:26" ht="19.5" customHeight="1">
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
@@ -5716,7 +5755,7 @@
       <c r="Y191" s="3"/>
       <c r="Z191" s="3"/>
     </row>
-    <row r="192" ht="19.5" customHeight="1">
+    <row r="192" spans="1:26" ht="19.5" customHeight="1">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
@@ -5744,7 +5783,7 @@
       <c r="Y192" s="3"/>
       <c r="Z192" s="3"/>
     </row>
-    <row r="193" ht="19.5" customHeight="1">
+    <row r="193" spans="1:26" ht="19.5" customHeight="1">
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
@@ -5772,7 +5811,7 @@
       <c r="Y193" s="3"/>
       <c r="Z193" s="3"/>
     </row>
-    <row r="194" ht="19.5" customHeight="1">
+    <row r="194" spans="1:26" ht="19.5" customHeight="1">
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
@@ -5800,7 +5839,7 @@
       <c r="Y194" s="3"/>
       <c r="Z194" s="3"/>
     </row>
-    <row r="195" ht="19.5" customHeight="1">
+    <row r="195" spans="1:26" ht="19.5" customHeight="1">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
@@ -5828,7 +5867,7 @@
       <c r="Y195" s="3"/>
       <c r="Z195" s="3"/>
     </row>
-    <row r="196" ht="19.5" customHeight="1">
+    <row r="196" spans="1:26" ht="19.5" customHeight="1">
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
@@ -5856,7 +5895,7 @@
       <c r="Y196" s="3"/>
       <c r="Z196" s="3"/>
     </row>
-    <row r="197" ht="19.5" customHeight="1">
+    <row r="197" spans="1:26" ht="19.5" customHeight="1">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
@@ -5884,7 +5923,7 @@
       <c r="Y197" s="3"/>
       <c r="Z197" s="3"/>
     </row>
-    <row r="198" ht="19.5" customHeight="1">
+    <row r="198" spans="1:26" ht="19.5" customHeight="1">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
@@ -5912,7 +5951,7 @@
       <c r="Y198" s="3"/>
       <c r="Z198" s="3"/>
     </row>
-    <row r="199" ht="19.5" customHeight="1">
+    <row r="199" spans="1:26" ht="19.5" customHeight="1">
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
@@ -5940,7 +5979,7 @@
       <c r="Y199" s="3"/>
       <c r="Z199" s="3"/>
     </row>
-    <row r="200" ht="19.5" customHeight="1">
+    <row r="200" spans="1:26" ht="19.5" customHeight="1">
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
@@ -5968,7 +6007,7 @@
       <c r="Y200" s="3"/>
       <c r="Z200" s="3"/>
     </row>
-    <row r="201" ht="19.5" customHeight="1">
+    <row r="201" spans="1:26" ht="19.5" customHeight="1">
       <c r="A201" s="3"/>
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
@@ -5996,7 +6035,7 @@
       <c r="Y201" s="3"/>
       <c r="Z201" s="3"/>
     </row>
-    <row r="202" ht="19.5" customHeight="1">
+    <row r="202" spans="1:26" ht="19.5" customHeight="1">
       <c r="A202" s="3"/>
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
@@ -6024,7 +6063,7 @@
       <c r="Y202" s="3"/>
       <c r="Z202" s="3"/>
     </row>
-    <row r="203" ht="19.5" customHeight="1">
+    <row r="203" spans="1:26" ht="19.5" customHeight="1">
       <c r="A203" s="3"/>
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
@@ -6052,7 +6091,7 @@
       <c r="Y203" s="3"/>
       <c r="Z203" s="3"/>
     </row>
-    <row r="204" ht="19.5" customHeight="1">
+    <row r="204" spans="1:26" ht="19.5" customHeight="1">
       <c r="A204" s="3"/>
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
@@ -6080,7 +6119,7 @@
       <c r="Y204" s="3"/>
       <c r="Z204" s="3"/>
     </row>
-    <row r="205" ht="19.5" customHeight="1">
+    <row r="205" spans="1:26" ht="19.5" customHeight="1">
       <c r="A205" s="3"/>
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
@@ -6108,7 +6147,7 @@
       <c r="Y205" s="3"/>
       <c r="Z205" s="3"/>
     </row>
-    <row r="206" ht="19.5" customHeight="1">
+    <row r="206" spans="1:26" ht="19.5" customHeight="1">
       <c r="A206" s="3"/>
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
@@ -6136,7 +6175,7 @@
       <c r="Y206" s="3"/>
       <c r="Z206" s="3"/>
     </row>
-    <row r="207" ht="19.5" customHeight="1">
+    <row r="207" spans="1:26" ht="19.5" customHeight="1">
       <c r="A207" s="3"/>
       <c r="B207" s="3"/>
       <c r="C207" s="3"/>
@@ -6164,7 +6203,7 @@
       <c r="Y207" s="3"/>
       <c r="Z207" s="3"/>
     </row>
-    <row r="208" ht="19.5" customHeight="1">
+    <row r="208" spans="1:26" ht="19.5" customHeight="1">
       <c r="A208" s="3"/>
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
@@ -6192,7 +6231,7 @@
       <c r="Y208" s="3"/>
       <c r="Z208" s="3"/>
     </row>
-    <row r="209" ht="19.5" customHeight="1">
+    <row r="209" spans="1:26" ht="19.5" customHeight="1">
       <c r="A209" s="3"/>
       <c r="B209" s="3"/>
       <c r="C209" s="3"/>
@@ -6220,7 +6259,7 @@
       <c r="Y209" s="3"/>
       <c r="Z209" s="3"/>
     </row>
-    <row r="210" ht="19.5" customHeight="1">
+    <row r="210" spans="1:26" ht="19.5" customHeight="1">
       <c r="A210" s="3"/>
       <c r="B210" s="3"/>
       <c r="C210" s="3"/>
@@ -6248,7 +6287,7 @@
       <c r="Y210" s="3"/>
       <c r="Z210" s="3"/>
     </row>
-    <row r="211" ht="19.5" customHeight="1">
+    <row r="211" spans="1:26" ht="19.5" customHeight="1">
       <c r="A211" s="3"/>
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
@@ -6276,7 +6315,7 @@
       <c r="Y211" s="3"/>
       <c r="Z211" s="3"/>
     </row>
-    <row r="212" ht="19.5" customHeight="1">
+    <row r="212" spans="1:26" ht="19.5" customHeight="1">
       <c r="A212" s="3"/>
       <c r="B212" s="3"/>
       <c r="C212" s="3"/>
@@ -6304,7 +6343,7 @@
       <c r="Y212" s="3"/>
       <c r="Z212" s="3"/>
     </row>
-    <row r="213" ht="19.5" customHeight="1">
+    <row r="213" spans="1:26" ht="19.5" customHeight="1">
       <c r="A213" s="3"/>
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
@@ -6332,7 +6371,7 @@
       <c r="Y213" s="3"/>
       <c r="Z213" s="3"/>
     </row>
-    <row r="214" ht="19.5" customHeight="1">
+    <row r="214" spans="1:26" ht="19.5" customHeight="1">
       <c r="A214" s="3"/>
       <c r="B214" s="3"/>
       <c r="C214" s="3"/>
@@ -6360,7 +6399,7 @@
       <c r="Y214" s="3"/>
       <c r="Z214" s="3"/>
     </row>
-    <row r="215" ht="19.5" customHeight="1">
+    <row r="215" spans="1:26" ht="19.5" customHeight="1">
       <c r="A215" s="3"/>
       <c r="B215" s="3"/>
       <c r="C215" s="3"/>
@@ -6388,7 +6427,7 @@
       <c r="Y215" s="3"/>
       <c r="Z215" s="3"/>
     </row>
-    <row r="216" ht="19.5" customHeight="1">
+    <row r="216" spans="1:26" ht="19.5" customHeight="1">
       <c r="A216" s="3"/>
       <c r="B216" s="3"/>
       <c r="C216" s="3"/>
@@ -6416,7 +6455,7 @@
       <c r="Y216" s="3"/>
       <c r="Z216" s="3"/>
     </row>
-    <row r="217" ht="19.5" customHeight="1">
+    <row r="217" spans="1:26" ht="19.5" customHeight="1">
       <c r="A217" s="3"/>
       <c r="B217" s="3"/>
       <c r="C217" s="3"/>
@@ -6444,7 +6483,7 @@
       <c r="Y217" s="3"/>
       <c r="Z217" s="3"/>
     </row>
-    <row r="218" ht="19.5" customHeight="1">
+    <row r="218" spans="1:26" ht="19.5" customHeight="1">
       <c r="A218" s="3"/>
       <c r="B218" s="3"/>
       <c r="C218" s="3"/>
@@ -6472,7 +6511,7 @@
       <c r="Y218" s="3"/>
       <c r="Z218" s="3"/>
     </row>
-    <row r="219" ht="19.5" customHeight="1">
+    <row r="219" spans="1:26" ht="19.5" customHeight="1">
       <c r="A219" s="3"/>
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
@@ -6500,7 +6539,7 @@
       <c r="Y219" s="3"/>
       <c r="Z219" s="3"/>
     </row>
-    <row r="220" ht="19.5" customHeight="1">
+    <row r="220" spans="1:26" ht="19.5" customHeight="1">
       <c r="A220" s="3"/>
       <c r="B220" s="3"/>
       <c r="C220" s="3"/>
@@ -6528,7 +6567,7 @@
       <c r="Y220" s="3"/>
       <c r="Z220" s="3"/>
     </row>
-    <row r="221" ht="19.5" customHeight="1">
+    <row r="221" spans="1:26" ht="19.5" customHeight="1">
       <c r="A221" s="3"/>
       <c r="B221" s="3"/>
       <c r="C221" s="3"/>
@@ -6556,7 +6595,7 @@
       <c r="Y221" s="3"/>
       <c r="Z221" s="3"/>
     </row>
-    <row r="222" ht="19.5" customHeight="1">
+    <row r="222" spans="1:26" ht="19.5" customHeight="1">
       <c r="A222" s="3"/>
       <c r="B222" s="3"/>
       <c r="C222" s="3"/>
@@ -6584,7 +6623,7 @@
       <c r="Y222" s="3"/>
       <c r="Z222" s="3"/>
     </row>
-    <row r="223" ht="19.5" customHeight="1">
+    <row r="223" spans="1:26" ht="19.5" customHeight="1">
       <c r="A223" s="3"/>
       <c r="B223" s="3"/>
       <c r="C223" s="3"/>
@@ -6612,7 +6651,7 @@
       <c r="Y223" s="3"/>
       <c r="Z223" s="3"/>
     </row>
-    <row r="224" ht="19.5" customHeight="1">
+    <row r="224" spans="1:26" ht="19.5" customHeight="1">
       <c r="A224" s="3"/>
       <c r="B224" s="3"/>
       <c r="C224" s="3"/>
@@ -6640,7 +6679,7 @@
       <c r="Y224" s="3"/>
       <c r="Z224" s="3"/>
     </row>
-    <row r="225" ht="19.5" customHeight="1">
+    <row r="225" spans="1:26" ht="19.5" customHeight="1">
       <c r="A225" s="3"/>
       <c r="B225" s="3"/>
       <c r="C225" s="3"/>
@@ -6668,7 +6707,7 @@
       <c r="Y225" s="3"/>
       <c r="Z225" s="3"/>
     </row>
-    <row r="226" ht="19.5" customHeight="1">
+    <row r="226" spans="1:26" ht="19.5" customHeight="1">
       <c r="A226" s="3"/>
       <c r="B226" s="3"/>
       <c r="C226" s="3"/>
@@ -6696,7 +6735,7 @@
       <c r="Y226" s="3"/>
       <c r="Z226" s="3"/>
     </row>
-    <row r="227" ht="19.5" customHeight="1">
+    <row r="227" spans="1:26" ht="19.5" customHeight="1">
       <c r="A227" s="3"/>
       <c r="B227" s="3"/>
       <c r="C227" s="3"/>
@@ -6724,7 +6763,7 @@
       <c r="Y227" s="3"/>
       <c r="Z227" s="3"/>
     </row>
-    <row r="228" ht="19.5" customHeight="1">
+    <row r="228" spans="1:26" ht="19.5" customHeight="1">
       <c r="A228" s="3"/>
       <c r="B228" s="3"/>
       <c r="C228" s="3"/>
@@ -6752,7 +6791,7 @@
       <c r="Y228" s="3"/>
       <c r="Z228" s="3"/>
     </row>
-    <row r="229" ht="19.5" customHeight="1">
+    <row r="229" spans="1:26" ht="19.5" customHeight="1">
       <c r="A229" s="3"/>
       <c r="B229" s="3"/>
       <c r="C229" s="3"/>
@@ -6780,7 +6819,7 @@
       <c r="Y229" s="3"/>
       <c r="Z229" s="3"/>
     </row>
-    <row r="230" ht="19.5" customHeight="1">
+    <row r="230" spans="1:26" ht="19.5" customHeight="1">
       <c r="A230" s="3"/>
       <c r="B230" s="3"/>
       <c r="C230" s="3"/>
@@ -6808,7 +6847,7 @@
       <c r="Y230" s="3"/>
       <c r="Z230" s="3"/>
     </row>
-    <row r="231" ht="19.5" customHeight="1">
+    <row r="231" spans="1:26" ht="19.5" customHeight="1">
       <c r="A231" s="3"/>
       <c r="B231" s="3"/>
       <c r="C231" s="3"/>
@@ -6836,7 +6875,7 @@
       <c r="Y231" s="3"/>
       <c r="Z231" s="3"/>
     </row>
-    <row r="232" ht="19.5" customHeight="1">
+    <row r="232" spans="1:26" ht="19.5" customHeight="1">
       <c r="A232" s="3"/>
       <c r="B232" s="3"/>
       <c r="C232" s="3"/>
@@ -6864,7 +6903,7 @@
       <c r="Y232" s="3"/>
       <c r="Z232" s="3"/>
     </row>
-    <row r="233" ht="19.5" customHeight="1">
+    <row r="233" spans="1:26" ht="19.5" customHeight="1">
       <c r="A233" s="3"/>
       <c r="B233" s="3"/>
       <c r="C233" s="3"/>
@@ -6892,7 +6931,7 @@
       <c r="Y233" s="3"/>
       <c r="Z233" s="3"/>
     </row>
-    <row r="234" ht="19.5" customHeight="1">
+    <row r="234" spans="1:26" ht="19.5" customHeight="1">
       <c r="A234" s="3"/>
       <c r="B234" s="3"/>
       <c r="C234" s="3"/>
@@ -6920,7 +6959,7 @@
       <c r="Y234" s="3"/>
       <c r="Z234" s="3"/>
     </row>
-    <row r="235" ht="19.5" customHeight="1">
+    <row r="235" spans="1:26" ht="19.5" customHeight="1">
       <c r="A235" s="3"/>
       <c r="B235" s="3"/>
       <c r="C235" s="3"/>
@@ -6948,7 +6987,7 @@
       <c r="Y235" s="3"/>
       <c r="Z235" s="3"/>
     </row>
-    <row r="236" ht="19.5" customHeight="1">
+    <row r="236" spans="1:26" ht="19.5" customHeight="1">
       <c r="A236" s="3"/>
       <c r="B236" s="3"/>
       <c r="C236" s="3"/>
@@ -6976,7 +7015,7 @@
       <c r="Y236" s="3"/>
       <c r="Z236" s="3"/>
     </row>
-    <row r="237" ht="19.5" customHeight="1">
+    <row r="237" spans="1:26" ht="19.5" customHeight="1">
       <c r="A237" s="3"/>
       <c r="B237" s="3"/>
       <c r="C237" s="3"/>
@@ -7004,7 +7043,7 @@
       <c r="Y237" s="3"/>
       <c r="Z237" s="3"/>
     </row>
-    <row r="238" ht="19.5" customHeight="1">
+    <row r="238" spans="1:26" ht="19.5" customHeight="1">
       <c r="A238" s="3"/>
       <c r="B238" s="3"/>
       <c r="C238" s="3"/>
@@ -7032,7 +7071,7 @@
       <c r="Y238" s="3"/>
       <c r="Z238" s="3"/>
     </row>
-    <row r="239" ht="19.5" customHeight="1">
+    <row r="239" spans="1:26" ht="19.5" customHeight="1">
       <c r="A239" s="3"/>
       <c r="B239" s="3"/>
       <c r="C239" s="3"/>
@@ -7060,7 +7099,7 @@
       <c r="Y239" s="3"/>
       <c r="Z239" s="3"/>
     </row>
-    <row r="240" ht="19.5" customHeight="1">
+    <row r="240" spans="1:26" ht="19.5" customHeight="1">
       <c r="A240" s="3"/>
       <c r="B240" s="3"/>
       <c r="C240" s="3"/>
@@ -7088,7 +7127,7 @@
       <c r="Y240" s="3"/>
       <c r="Z240" s="3"/>
     </row>
-    <row r="241" ht="19.5" customHeight="1">
+    <row r="241" spans="1:26" ht="19.5" customHeight="1">
       <c r="A241" s="3"/>
       <c r="B241" s="3"/>
       <c r="C241" s="3"/>
@@ -7116,7 +7155,7 @@
       <c r="Y241" s="3"/>
       <c r="Z241" s="3"/>
     </row>
-    <row r="242" ht="19.5" customHeight="1">
+    <row r="242" spans="1:26" ht="19.5" customHeight="1">
       <c r="A242" s="3"/>
       <c r="B242" s="3"/>
       <c r="C242" s="3"/>
@@ -7144,7 +7183,7 @@
       <c r="Y242" s="3"/>
       <c r="Z242" s="3"/>
     </row>
-    <row r="243" ht="19.5" customHeight="1">
+    <row r="243" spans="1:26" ht="19.5" customHeight="1">
       <c r="A243" s="3"/>
       <c r="B243" s="3"/>
       <c r="C243" s="3"/>
@@ -7172,7 +7211,7 @@
       <c r="Y243" s="3"/>
       <c r="Z243" s="3"/>
     </row>
-    <row r="244" ht="19.5" customHeight="1">
+    <row r="244" spans="1:26" ht="19.5" customHeight="1">
       <c r="A244" s="3"/>
       <c r="B244" s="3"/>
       <c r="C244" s="3"/>
@@ -7200,7 +7239,7 @@
       <c r="Y244" s="3"/>
       <c r="Z244" s="3"/>
     </row>
-    <row r="245" ht="19.5" customHeight="1">
+    <row r="245" spans="1:26" ht="19.5" customHeight="1">
       <c r="A245" s="3"/>
       <c r="B245" s="3"/>
       <c r="C245" s="3"/>
@@ -7228,7 +7267,7 @@
       <c r="Y245" s="3"/>
       <c r="Z245" s="3"/>
     </row>
-    <row r="246" ht="19.5" customHeight="1">
+    <row r="246" spans="1:26" ht="19.5" customHeight="1">
       <c r="A246" s="3"/>
       <c r="B246" s="3"/>
       <c r="C246" s="3"/>
@@ -7256,7 +7295,7 @@
       <c r="Y246" s="3"/>
       <c r="Z246" s="3"/>
     </row>
-    <row r="247" ht="19.5" customHeight="1">
+    <row r="247" spans="1:26" ht="19.5" customHeight="1">
       <c r="A247" s="3"/>
       <c r="B247" s="3"/>
       <c r="C247" s="3"/>
@@ -7284,7 +7323,7 @@
       <c r="Y247" s="3"/>
       <c r="Z247" s="3"/>
     </row>
-    <row r="248" ht="19.5" customHeight="1">
+    <row r="248" spans="1:26" ht="19.5" customHeight="1">
       <c r="A248" s="3"/>
       <c r="B248" s="3"/>
       <c r="C248" s="3"/>
@@ -7312,7 +7351,7 @@
       <c r="Y248" s="3"/>
       <c r="Z248" s="3"/>
     </row>
-    <row r="249" ht="19.5" customHeight="1">
+    <row r="249" spans="1:26" ht="19.5" customHeight="1">
       <c r="A249" s="3"/>
       <c r="B249" s="3"/>
       <c r="C249" s="3"/>
@@ -7340,7 +7379,7 @@
       <c r="Y249" s="3"/>
       <c r="Z249" s="3"/>
     </row>
-    <row r="250" ht="19.5" customHeight="1">
+    <row r="250" spans="1:26" ht="19.5" customHeight="1">
       <c r="A250" s="3"/>
       <c r="B250" s="3"/>
       <c r="C250" s="3"/>
@@ -7368,7 +7407,7 @@
       <c r="Y250" s="3"/>
       <c r="Z250" s="3"/>
     </row>
-    <row r="251" ht="19.5" customHeight="1">
+    <row r="251" spans="1:26" ht="19.5" customHeight="1">
       <c r="A251" s="3"/>
       <c r="B251" s="3"/>
       <c r="C251" s="3"/>
@@ -7396,7 +7435,7 @@
       <c r="Y251" s="3"/>
       <c r="Z251" s="3"/>
     </row>
-    <row r="252" ht="19.5" customHeight="1">
+    <row r="252" spans="1:26" ht="19.5" customHeight="1">
       <c r="A252" s="3"/>
       <c r="B252" s="3"/>
       <c r="C252" s="3"/>
@@ -7424,7 +7463,7 @@
       <c r="Y252" s="3"/>
       <c r="Z252" s="3"/>
     </row>
-    <row r="253" ht="19.5" customHeight="1">
+    <row r="253" spans="1:26" ht="19.5" customHeight="1">
       <c r="A253" s="3"/>
       <c r="B253" s="3"/>
       <c r="C253" s="3"/>
@@ -7452,7 +7491,7 @@
       <c r="Y253" s="3"/>
       <c r="Z253" s="3"/>
     </row>
-    <row r="254" ht="19.5" customHeight="1">
+    <row r="254" spans="1:26" ht="19.5" customHeight="1">
       <c r="A254" s="3"/>
       <c r="B254" s="3"/>
       <c r="C254" s="3"/>
@@ -7480,7 +7519,7 @@
       <c r="Y254" s="3"/>
       <c r="Z254" s="3"/>
     </row>
-    <row r="255" ht="19.5" customHeight="1">
+    <row r="255" spans="1:26" ht="19.5" customHeight="1">
       <c r="A255" s="3"/>
       <c r="B255" s="3"/>
       <c r="C255" s="3"/>
@@ -7508,7 +7547,7 @@
       <c r="Y255" s="3"/>
       <c r="Z255" s="3"/>
     </row>
-    <row r="256" ht="19.5" customHeight="1">
+    <row r="256" spans="1:26" ht="19.5" customHeight="1">
       <c r="A256" s="3"/>
       <c r="B256" s="3"/>
       <c r="C256" s="3"/>
@@ -7536,7 +7575,7 @@
       <c r="Y256" s="3"/>
       <c r="Z256" s="3"/>
     </row>
-    <row r="257" ht="19.5" customHeight="1">
+    <row r="257" spans="1:26" ht="19.5" customHeight="1">
       <c r="A257" s="3"/>
       <c r="B257" s="3"/>
       <c r="C257" s="3"/>
@@ -7564,7 +7603,7 @@
       <c r="Y257" s="3"/>
       <c r="Z257" s="3"/>
     </row>
-    <row r="258" ht="19.5" customHeight="1">
+    <row r="258" spans="1:26" ht="19.5" customHeight="1">
       <c r="A258" s="3"/>
       <c r="B258" s="3"/>
       <c r="C258" s="3"/>
@@ -7592,7 +7631,7 @@
       <c r="Y258" s="3"/>
       <c r="Z258" s="3"/>
     </row>
-    <row r="259" ht="19.5" customHeight="1">
+    <row r="259" spans="1:26" ht="19.5" customHeight="1">
       <c r="A259" s="3"/>
       <c r="B259" s="3"/>
       <c r="C259" s="3"/>
@@ -7620,7 +7659,7 @@
       <c r="Y259" s="3"/>
       <c r="Z259" s="3"/>
     </row>
-    <row r="260" ht="19.5" customHeight="1">
+    <row r="260" spans="1:26" ht="19.5" customHeight="1">
       <c r="A260" s="3"/>
       <c r="B260" s="3"/>
       <c r="C260" s="3"/>
@@ -7648,7 +7687,7 @@
       <c r="Y260" s="3"/>
       <c r="Z260" s="3"/>
     </row>
-    <row r="261" ht="19.5" customHeight="1">
+    <row r="261" spans="1:26" ht="19.5" customHeight="1">
       <c r="A261" s="3"/>
       <c r="B261" s="3"/>
       <c r="C261" s="3"/>
@@ -7676,7 +7715,7 @@
       <c r="Y261" s="3"/>
       <c r="Z261" s="3"/>
     </row>
-    <row r="262" ht="19.5" customHeight="1">
+    <row r="262" spans="1:26" ht="19.5" customHeight="1">
       <c r="A262" s="3"/>
       <c r="B262" s="3"/>
       <c r="C262" s="3"/>
@@ -7704,7 +7743,7 @@
       <c r="Y262" s="3"/>
       <c r="Z262" s="3"/>
     </row>
-    <row r="263" ht="19.5" customHeight="1">
+    <row r="263" spans="1:26" ht="19.5" customHeight="1">
       <c r="A263" s="3"/>
       <c r="B263" s="3"/>
       <c r="C263" s="3"/>
@@ -7732,7 +7771,7 @@
       <c r="Y263" s="3"/>
       <c r="Z263" s="3"/>
     </row>
-    <row r="264" ht="19.5" customHeight="1">
+    <row r="264" spans="1:26" ht="19.5" customHeight="1">
       <c r="A264" s="3"/>
       <c r="B264" s="3"/>
       <c r="C264" s="3"/>
@@ -7760,7 +7799,7 @@
       <c r="Y264" s="3"/>
       <c r="Z264" s="3"/>
     </row>
-    <row r="265" ht="19.5" customHeight="1">
+    <row r="265" spans="1:26" ht="19.5" customHeight="1">
       <c r="A265" s="3"/>
       <c r="B265" s="3"/>
       <c r="C265" s="3"/>
@@ -7788,7 +7827,7 @@
       <c r="Y265" s="3"/>
       <c r="Z265" s="3"/>
     </row>
-    <row r="266" ht="19.5" customHeight="1">
+    <row r="266" spans="1:26" ht="19.5" customHeight="1">
       <c r="A266" s="3"/>
       <c r="B266" s="3"/>
       <c r="C266" s="3"/>
@@ -7816,7 +7855,7 @@
       <c r="Y266" s="3"/>
       <c r="Z266" s="3"/>
     </row>
-    <row r="267" ht="19.5" customHeight="1">
+    <row r="267" spans="1:26" ht="19.5" customHeight="1">
       <c r="A267" s="3"/>
       <c r="B267" s="3"/>
       <c r="C267" s="3"/>
@@ -7844,7 +7883,7 @@
       <c r="Y267" s="3"/>
       <c r="Z267" s="3"/>
     </row>
-    <row r="268" ht="19.5" customHeight="1">
+    <row r="268" spans="1:26" ht="19.5" customHeight="1">
       <c r="A268" s="3"/>
       <c r="B268" s="3"/>
       <c r="C268" s="3"/>
@@ -7872,7 +7911,7 @@
       <c r="Y268" s="3"/>
       <c r="Z268" s="3"/>
     </row>
-    <row r="269" ht="19.5" customHeight="1">
+    <row r="269" spans="1:26" ht="19.5" customHeight="1">
       <c r="A269" s="3"/>
       <c r="B269" s="3"/>
       <c r="C269" s="3"/>
@@ -7900,7 +7939,7 @@
       <c r="Y269" s="3"/>
       <c r="Z269" s="3"/>
     </row>
-    <row r="270" ht="19.5" customHeight="1">
+    <row r="270" spans="1:26" ht="19.5" customHeight="1">
       <c r="A270" s="3"/>
       <c r="B270" s="3"/>
       <c r="C270" s="3"/>
@@ -7928,7 +7967,7 @@
       <c r="Y270" s="3"/>
       <c r="Z270" s="3"/>
     </row>
-    <row r="271" ht="19.5" customHeight="1">
+    <row r="271" spans="1:26" ht="19.5" customHeight="1">
       <c r="A271" s="3"/>
       <c r="B271" s="3"/>
       <c r="C271" s="3"/>
@@ -7956,7 +7995,7 @@
       <c r="Y271" s="3"/>
       <c r="Z271" s="3"/>
     </row>
-    <row r="272" ht="19.5" customHeight="1">
+    <row r="272" spans="1:26" ht="19.5" customHeight="1">
       <c r="A272" s="3"/>
       <c r="B272" s="3"/>
       <c r="C272" s="3"/>
@@ -7984,7 +8023,7 @@
       <c r="Y272" s="3"/>
       <c r="Z272" s="3"/>
     </row>
-    <row r="273" ht="19.5" customHeight="1">
+    <row r="273" spans="1:26" ht="19.5" customHeight="1">
       <c r="A273" s="3"/>
       <c r="B273" s="3"/>
       <c r="C273" s="3"/>
@@ -8012,7 +8051,7 @@
       <c r="Y273" s="3"/>
       <c r="Z273" s="3"/>
     </row>
-    <row r="274" ht="19.5" customHeight="1">
+    <row r="274" spans="1:26" ht="19.5" customHeight="1">
       <c r="A274" s="3"/>
       <c r="B274" s="3"/>
       <c r="C274" s="3"/>
@@ -8040,7 +8079,7 @@
       <c r="Y274" s="3"/>
       <c r="Z274" s="3"/>
     </row>
-    <row r="275" ht="19.5" customHeight="1">
+    <row r="275" spans="1:26" ht="19.5" customHeight="1">
       <c r="A275" s="3"/>
       <c r="B275" s="3"/>
       <c r="C275" s="3"/>
@@ -8068,7 +8107,7 @@
       <c r="Y275" s="3"/>
       <c r="Z275" s="3"/>
     </row>
-    <row r="276" ht="19.5" customHeight="1">
+    <row r="276" spans="1:26" ht="19.5" customHeight="1">
       <c r="A276" s="3"/>
       <c r="B276" s="3"/>
       <c r="C276" s="3"/>
@@ -8096,7 +8135,7 @@
       <c r="Y276" s="3"/>
       <c r="Z276" s="3"/>
     </row>
-    <row r="277" ht="19.5" customHeight="1">
+    <row r="277" spans="1:26" ht="19.5" customHeight="1">
       <c r="A277" s="3"/>
       <c r="B277" s="3"/>
       <c r="C277" s="3"/>
@@ -8124,7 +8163,7 @@
       <c r="Y277" s="3"/>
       <c r="Z277" s="3"/>
     </row>
-    <row r="278" ht="19.5" customHeight="1">
+    <row r="278" spans="1:26" ht="19.5" customHeight="1">
       <c r="A278" s="3"/>
       <c r="B278" s="3"/>
       <c r="C278" s="3"/>
@@ -8152,7 +8191,7 @@
       <c r="Y278" s="3"/>
       <c r="Z278" s="3"/>
     </row>
-    <row r="279" ht="19.5" customHeight="1">
+    <row r="279" spans="1:26" ht="19.5" customHeight="1">
       <c r="A279" s="3"/>
       <c r="B279" s="3"/>
       <c r="C279" s="3"/>
@@ -8180,7 +8219,7 @@
       <c r="Y279" s="3"/>
       <c r="Z279" s="3"/>
     </row>
-    <row r="280" ht="19.5" customHeight="1">
+    <row r="280" spans="1:26" ht="19.5" customHeight="1">
       <c r="A280" s="3"/>
       <c r="B280" s="3"/>
       <c r="C280" s="3"/>
@@ -8208,7 +8247,7 @@
       <c r="Y280" s="3"/>
       <c r="Z280" s="3"/>
     </row>
-    <row r="281" ht="19.5" customHeight="1">
+    <row r="281" spans="1:26" ht="19.5" customHeight="1">
       <c r="A281" s="3"/>
       <c r="B281" s="3"/>
       <c r="C281" s="3"/>
@@ -8236,7 +8275,7 @@
       <c r="Y281" s="3"/>
       <c r="Z281" s="3"/>
     </row>
-    <row r="282" ht="19.5" customHeight="1">
+    <row r="282" spans="1:26" ht="19.5" customHeight="1">
       <c r="A282" s="3"/>
       <c r="B282" s="3"/>
       <c r="C282" s="3"/>
@@ -8264,7 +8303,7 @@
       <c r="Y282" s="3"/>
       <c r="Z282" s="3"/>
     </row>
-    <row r="283" ht="19.5" customHeight="1">
+    <row r="283" spans="1:26" ht="19.5" customHeight="1">
       <c r="A283" s="3"/>
       <c r="B283" s="3"/>
       <c r="C283" s="3"/>
@@ -8292,7 +8331,7 @@
       <c r="Y283" s="3"/>
       <c r="Z283" s="3"/>
     </row>
-    <row r="284" ht="19.5" customHeight="1">
+    <row r="284" spans="1:26" ht="19.5" customHeight="1">
       <c r="A284" s="3"/>
       <c r="B284" s="3"/>
       <c r="C284" s="3"/>
@@ -8320,7 +8359,7 @@
       <c r="Y284" s="3"/>
       <c r="Z284" s="3"/>
     </row>
-    <row r="285" ht="19.5" customHeight="1">
+    <row r="285" spans="1:26" ht="19.5" customHeight="1">
       <c r="A285" s="3"/>
       <c r="B285" s="3"/>
       <c r="C285" s="3"/>
@@ -8348,7 +8387,7 @@
       <c r="Y285" s="3"/>
       <c r="Z285" s="3"/>
     </row>
-    <row r="286" ht="19.5" customHeight="1">
+    <row r="286" spans="1:26" ht="19.5" customHeight="1">
       <c r="A286" s="3"/>
       <c r="B286" s="3"/>
       <c r="C286" s="3"/>
@@ -8376,7 +8415,7 @@
       <c r="Y286" s="3"/>
       <c r="Z286" s="3"/>
     </row>
-    <row r="287" ht="19.5" customHeight="1">
+    <row r="287" spans="1:26" ht="19.5" customHeight="1">
       <c r="A287" s="3"/>
       <c r="B287" s="3"/>
       <c r="C287" s="3"/>
@@ -8404,7 +8443,7 @@
       <c r="Y287" s="3"/>
       <c r="Z287" s="3"/>
     </row>
-    <row r="288" ht="19.5" customHeight="1">
+    <row r="288" spans="1:26" ht="19.5" customHeight="1">
       <c r="A288" s="3"/>
       <c r="B288" s="3"/>
       <c r="C288" s="3"/>
@@ -8432,7 +8471,7 @@
       <c r="Y288" s="3"/>
       <c r="Z288" s="3"/>
     </row>
-    <row r="289" ht="19.5" customHeight="1">
+    <row r="289" spans="1:26" ht="19.5" customHeight="1">
       <c r="A289" s="3"/>
       <c r="B289" s="3"/>
       <c r="C289" s="3"/>
@@ -8460,7 +8499,7 @@
       <c r="Y289" s="3"/>
       <c r="Z289" s="3"/>
     </row>
-    <row r="290" ht="19.5" customHeight="1">
+    <row r="290" spans="1:26" ht="19.5" customHeight="1">
       <c r="A290" s="3"/>
       <c r="B290" s="3"/>
       <c r="C290" s="3"/>
@@ -8488,7 +8527,7 @@
       <c r="Y290" s="3"/>
       <c r="Z290" s="3"/>
     </row>
-    <row r="291" ht="19.5" customHeight="1">
+    <row r="291" spans="1:26" ht="19.5" customHeight="1">
       <c r="A291" s="3"/>
       <c r="B291" s="3"/>
       <c r="C291" s="3"/>
@@ -8516,7 +8555,7 @@
       <c r="Y291" s="3"/>
       <c r="Z291" s="3"/>
     </row>
-    <row r="292" ht="19.5" customHeight="1">
+    <row r="292" spans="1:26" ht="19.5" customHeight="1">
       <c r="A292" s="3"/>
       <c r="B292" s="3"/>
       <c r="C292" s="3"/>
@@ -8544,7 +8583,7 @@
       <c r="Y292" s="3"/>
       <c r="Z292" s="3"/>
     </row>
-    <row r="293" ht="19.5" customHeight="1">
+    <row r="293" spans="1:26" ht="19.5" customHeight="1">
       <c r="A293" s="3"/>
       <c r="B293" s="3"/>
       <c r="C293" s="3"/>
@@ -8572,7 +8611,7 @@
       <c r="Y293" s="3"/>
       <c r="Z293" s="3"/>
     </row>
-    <row r="294" ht="19.5" customHeight="1">
+    <row r="294" spans="1:26" ht="19.5" customHeight="1">
       <c r="A294" s="3"/>
       <c r="B294" s="3"/>
       <c r="C294" s="3"/>
@@ -8600,7 +8639,7 @@
       <c r="Y294" s="3"/>
       <c r="Z294" s="3"/>
     </row>
-    <row r="295" ht="19.5" customHeight="1">
+    <row r="295" spans="1:26" ht="19.5" customHeight="1">
       <c r="A295" s="3"/>
       <c r="B295" s="3"/>
       <c r="C295" s="3"/>
@@ -8628,7 +8667,7 @@
       <c r="Y295" s="3"/>
       <c r="Z295" s="3"/>
     </row>
-    <row r="296" ht="19.5" customHeight="1">
+    <row r="296" spans="1:26" ht="19.5" customHeight="1">
       <c r="A296" s="3"/>
       <c r="B296" s="3"/>
       <c r="C296" s="3"/>
@@ -8656,7 +8695,7 @@
       <c r="Y296" s="3"/>
       <c r="Z296" s="3"/>
     </row>
-    <row r="297" ht="19.5" customHeight="1">
+    <row r="297" spans="1:26" ht="19.5" customHeight="1">
       <c r="A297" s="3"/>
       <c r="B297" s="3"/>
       <c r="C297" s="3"/>
@@ -8684,7 +8723,7 @@
       <c r="Y297" s="3"/>
       <c r="Z297" s="3"/>
     </row>
-    <row r="298" ht="19.5" customHeight="1">
+    <row r="298" spans="1:26" ht="19.5" customHeight="1">
       <c r="A298" s="3"/>
       <c r="B298" s="3"/>
       <c r="C298" s="3"/>
@@ -8712,7 +8751,7 @@
       <c r="Y298" s="3"/>
       <c r="Z298" s="3"/>
     </row>
-    <row r="299" ht="19.5" customHeight="1">
+    <row r="299" spans="1:26" ht="19.5" customHeight="1">
       <c r="A299" s="3"/>
       <c r="B299" s="3"/>
       <c r="C299" s="3"/>
@@ -8740,7 +8779,7 @@
       <c r="Y299" s="3"/>
       <c r="Z299" s="3"/>
     </row>
-    <row r="300" ht="19.5" customHeight="1">
+    <row r="300" spans="1:26" ht="19.5" customHeight="1">
       <c r="A300" s="3"/>
       <c r="B300" s="3"/>
       <c r="C300" s="3"/>
@@ -8768,7 +8807,7 @@
       <c r="Y300" s="3"/>
       <c r="Z300" s="3"/>
     </row>
-    <row r="301" ht="19.5" customHeight="1">
+    <row r="301" spans="1:26" ht="19.5" customHeight="1">
       <c r="A301" s="3"/>
       <c r="B301" s="3"/>
       <c r="C301" s="3"/>
@@ -8796,7 +8835,7 @@
       <c r="Y301" s="3"/>
       <c r="Z301" s="3"/>
     </row>
-    <row r="302" ht="19.5" customHeight="1">
+    <row r="302" spans="1:26" ht="19.5" customHeight="1">
       <c r="A302" s="3"/>
       <c r="B302" s="3"/>
       <c r="C302" s="3"/>
@@ -8824,7 +8863,7 @@
       <c r="Y302" s="3"/>
       <c r="Z302" s="3"/>
     </row>
-    <row r="303" ht="19.5" customHeight="1">
+    <row r="303" spans="1:26" ht="19.5" customHeight="1">
       <c r="A303" s="3"/>
       <c r="B303" s="3"/>
       <c r="C303" s="3"/>
@@ -8852,7 +8891,7 @@
       <c r="Y303" s="3"/>
       <c r="Z303" s="3"/>
     </row>
-    <row r="304" ht="19.5" customHeight="1">
+    <row r="304" spans="1:26" ht="19.5" customHeight="1">
       <c r="A304" s="3"/>
       <c r="B304" s="3"/>
       <c r="C304" s="3"/>
@@ -8880,7 +8919,7 @@
       <c r="Y304" s="3"/>
       <c r="Z304" s="3"/>
     </row>
-    <row r="305" ht="19.5" customHeight="1">
+    <row r="305" spans="1:26" ht="19.5" customHeight="1">
       <c r="A305" s="3"/>
       <c r="B305" s="3"/>
       <c r="C305" s="3"/>
@@ -8908,7 +8947,7 @@
       <c r="Y305" s="3"/>
       <c r="Z305" s="3"/>
     </row>
-    <row r="306" ht="19.5" customHeight="1">
+    <row r="306" spans="1:26" ht="19.5" customHeight="1">
       <c r="A306" s="3"/>
       <c r="B306" s="3"/>
       <c r="C306" s="3"/>
@@ -8936,7 +8975,7 @@
       <c r="Y306" s="3"/>
       <c r="Z306" s="3"/>
     </row>
-    <row r="307" ht="19.5" customHeight="1">
+    <row r="307" spans="1:26" ht="19.5" customHeight="1">
       <c r="A307" s="3"/>
       <c r="B307" s="3"/>
       <c r="C307" s="3"/>
@@ -8964,7 +9003,7 @@
       <c r="Y307" s="3"/>
       <c r="Z307" s="3"/>
     </row>
-    <row r="308" ht="19.5" customHeight="1">
+    <row r="308" spans="1:26" ht="19.5" customHeight="1">
       <c r="A308" s="3"/>
       <c r="B308" s="3"/>
       <c r="C308" s="3"/>
@@ -8992,7 +9031,7 @@
       <c r="Y308" s="3"/>
       <c r="Z308" s="3"/>
     </row>
-    <row r="309" ht="19.5" customHeight="1">
+    <row r="309" spans="1:26" ht="19.5" customHeight="1">
       <c r="A309" s="3"/>
       <c r="B309" s="3"/>
       <c r="C309" s="3"/>
@@ -9020,7 +9059,7 @@
       <c r="Y309" s="3"/>
       <c r="Z309" s="3"/>
     </row>
-    <row r="310" ht="19.5" customHeight="1">
+    <row r="310" spans="1:26" ht="19.5" customHeight="1">
       <c r="A310" s="3"/>
       <c r="B310" s="3"/>
       <c r="C310" s="3"/>
@@ -9048,7 +9087,7 @@
       <c r="Y310" s="3"/>
       <c r="Z310" s="3"/>
     </row>
-    <row r="311" ht="19.5" customHeight="1">
+    <row r="311" spans="1:26" ht="19.5" customHeight="1">
       <c r="A311" s="3"/>
       <c r="B311" s="3"/>
       <c r="C311" s="3"/>
@@ -9076,7 +9115,7 @@
       <c r="Y311" s="3"/>
       <c r="Z311" s="3"/>
     </row>
-    <row r="312" ht="19.5" customHeight="1">
+    <row r="312" spans="1:26" ht="19.5" customHeight="1">
       <c r="A312" s="3"/>
       <c r="B312" s="3"/>
       <c r="C312" s="3"/>
@@ -9104,7 +9143,7 @@
       <c r="Y312" s="3"/>
       <c r="Z312" s="3"/>
     </row>
-    <row r="313" ht="19.5" customHeight="1">
+    <row r="313" spans="1:26" ht="19.5" customHeight="1">
       <c r="A313" s="3"/>
       <c r="B313" s="3"/>
       <c r="C313" s="3"/>
@@ -9132,7 +9171,7 @@
       <c r="Y313" s="3"/>
       <c r="Z313" s="3"/>
     </row>
-    <row r="314" ht="19.5" customHeight="1">
+    <row r="314" spans="1:26" ht="19.5" customHeight="1">
       <c r="A314" s="3"/>
       <c r="B314" s="3"/>
       <c r="C314" s="3"/>
@@ -9160,7 +9199,7 @@
       <c r="Y314" s="3"/>
       <c r="Z314" s="3"/>
     </row>
-    <row r="315" ht="19.5" customHeight="1">
+    <row r="315" spans="1:26" ht="19.5" customHeight="1">
       <c r="A315" s="3"/>
       <c r="B315" s="3"/>
       <c r="C315" s="3"/>
@@ -9188,7 +9227,7 @@
       <c r="Y315" s="3"/>
       <c r="Z315" s="3"/>
     </row>
-    <row r="316" ht="19.5" customHeight="1">
+    <row r="316" spans="1:26" ht="19.5" customHeight="1">
       <c r="A316" s="3"/>
       <c r="B316" s="3"/>
       <c r="C316" s="3"/>
@@ -9216,7 +9255,7 @@
       <c r="Y316" s="3"/>
       <c r="Z316" s="3"/>
     </row>
-    <row r="317" ht="19.5" customHeight="1">
+    <row r="317" spans="1:26" ht="19.5" customHeight="1">
       <c r="A317" s="3"/>
       <c r="B317" s="3"/>
       <c r="C317" s="3"/>
@@ -9244,7 +9283,7 @@
       <c r="Y317" s="3"/>
       <c r="Z317" s="3"/>
     </row>
-    <row r="318" ht="19.5" customHeight="1">
+    <row r="318" spans="1:26" ht="19.5" customHeight="1">
       <c r="A318" s="3"/>
       <c r="B318" s="3"/>
       <c r="C318" s="3"/>
@@ -9272,7 +9311,7 @@
       <c r="Y318" s="3"/>
       <c r="Z318" s="3"/>
     </row>
-    <row r="319" ht="19.5" customHeight="1">
+    <row r="319" spans="1:26" ht="19.5" customHeight="1">
       <c r="A319" s="3"/>
       <c r="B319" s="3"/>
       <c r="C319" s="3"/>
@@ -9300,7 +9339,7 @@
       <c r="Y319" s="3"/>
       <c r="Z319" s="3"/>
     </row>
-    <row r="320" ht="19.5" customHeight="1">
+    <row r="320" spans="1:26" ht="19.5" customHeight="1">
       <c r="A320" s="3"/>
       <c r="B320" s="3"/>
       <c r="C320" s="3"/>
@@ -9328,7 +9367,7 @@
       <c r="Y320" s="3"/>
       <c r="Z320" s="3"/>
     </row>
-    <row r="321" ht="19.5" customHeight="1">
+    <row r="321" spans="1:26" ht="19.5" customHeight="1">
       <c r="A321" s="3"/>
       <c r="B321" s="3"/>
       <c r="C321" s="3"/>
@@ -9356,7 +9395,7 @@
       <c r="Y321" s="3"/>
       <c r="Z321" s="3"/>
     </row>
-    <row r="322" ht="19.5" customHeight="1">
+    <row r="322" spans="1:26" ht="19.5" customHeight="1">
       <c r="A322" s="3"/>
       <c r="B322" s="3"/>
       <c r="C322" s="3"/>
@@ -9384,7 +9423,7 @@
       <c r="Y322" s="3"/>
       <c r="Z322" s="3"/>
     </row>
-    <row r="323" ht="19.5" customHeight="1">
+    <row r="323" spans="1:26" ht="19.5" customHeight="1">
       <c r="A323" s="3"/>
       <c r="B323" s="3"/>
       <c r="C323" s="3"/>
@@ -9412,7 +9451,7 @@
       <c r="Y323" s="3"/>
       <c r="Z323" s="3"/>
     </row>
-    <row r="324" ht="19.5" customHeight="1">
+    <row r="324" spans="1:26" ht="19.5" customHeight="1">
       <c r="A324" s="3"/>
       <c r="B324" s="3"/>
       <c r="C324" s="3"/>
@@ -9440,7 +9479,7 @@
       <c r="Y324" s="3"/>
       <c r="Z324" s="3"/>
     </row>
-    <row r="325" ht="19.5" customHeight="1">
+    <row r="325" spans="1:26" ht="19.5" customHeight="1">
       <c r="A325" s="3"/>
       <c r="B325" s="3"/>
       <c r="C325" s="3"/>
@@ -9468,7 +9507,7 @@
       <c r="Y325" s="3"/>
       <c r="Z325" s="3"/>
     </row>
-    <row r="326" ht="19.5" customHeight="1">
+    <row r="326" spans="1:26" ht="19.5" customHeight="1">
       <c r="A326" s="3"/>
       <c r="B326" s="3"/>
       <c r="C326" s="3"/>
@@ -9496,7 +9535,7 @@
       <c r="Y326" s="3"/>
       <c r="Z326" s="3"/>
     </row>
-    <row r="327" ht="19.5" customHeight="1">
+    <row r="327" spans="1:26" ht="19.5" customHeight="1">
       <c r="A327" s="3"/>
       <c r="B327" s="3"/>
       <c r="C327" s="3"/>
@@ -9524,7 +9563,7 @@
       <c r="Y327" s="3"/>
       <c r="Z327" s="3"/>
     </row>
-    <row r="328" ht="19.5" customHeight="1">
+    <row r="328" spans="1:26" ht="19.5" customHeight="1">
       <c r="A328" s="3"/>
       <c r="B328" s="3"/>
       <c r="C328" s="3"/>
@@ -9552,7 +9591,7 @@
       <c r="Y328" s="3"/>
       <c r="Z328" s="3"/>
     </row>
-    <row r="329" ht="19.5" customHeight="1">
+    <row r="329" spans="1:26" ht="19.5" customHeight="1">
       <c r="A329" s="3"/>
       <c r="B329" s="3"/>
       <c r="C329" s="3"/>
@@ -9580,7 +9619,7 @@
       <c r="Y329" s="3"/>
       <c r="Z329" s="3"/>
     </row>
-    <row r="330" ht="19.5" customHeight="1">
+    <row r="330" spans="1:26" ht="19.5" customHeight="1">
       <c r="A330" s="3"/>
       <c r="B330" s="3"/>
       <c r="C330" s="3"/>
@@ -9608,7 +9647,7 @@
       <c r="Y330" s="3"/>
       <c r="Z330" s="3"/>
     </row>
-    <row r="331" ht="19.5" customHeight="1">
+    <row r="331" spans="1:26" ht="19.5" customHeight="1">
       <c r="A331" s="3"/>
       <c r="B331" s="3"/>
       <c r="C331" s="3"/>
@@ -9636,7 +9675,7 @@
       <c r="Y331" s="3"/>
       <c r="Z331" s="3"/>
     </row>
-    <row r="332" ht="19.5" customHeight="1">
+    <row r="332" spans="1:26" ht="19.5" customHeight="1">
       <c r="A332" s="3"/>
       <c r="B332" s="3"/>
       <c r="C332" s="3"/>
@@ -9664,7 +9703,7 @@
       <c r="Y332" s="3"/>
       <c r="Z332" s="3"/>
     </row>
-    <row r="333" ht="19.5" customHeight="1">
+    <row r="333" spans="1:26" ht="19.5" customHeight="1">
       <c r="A333" s="3"/>
       <c r="B333" s="3"/>
       <c r="C333" s="3"/>
@@ -9692,7 +9731,7 @@
       <c r="Y333" s="3"/>
       <c r="Z333" s="3"/>
     </row>
-    <row r="334" ht="19.5" customHeight="1">
+    <row r="334" spans="1:26" ht="19.5" customHeight="1">
       <c r="A334" s="3"/>
       <c r="B334" s="3"/>
       <c r="C334" s="3"/>
@@ -9720,7 +9759,7 @@
       <c r="Y334" s="3"/>
       <c r="Z334" s="3"/>
     </row>
-    <row r="335" ht="19.5" customHeight="1">
+    <row r="335" spans="1:26" ht="19.5" customHeight="1">
       <c r="A335" s="3"/>
       <c r="B335" s="3"/>
       <c r="C335" s="3"/>
@@ -9748,7 +9787,7 @@
       <c r="Y335" s="3"/>
       <c r="Z335" s="3"/>
     </row>
-    <row r="336" ht="19.5" customHeight="1">
+    <row r="336" spans="1:26" ht="19.5" customHeight="1">
       <c r="A336" s="3"/>
       <c r="B336" s="3"/>
       <c r="C336" s="3"/>
@@ -9776,7 +9815,7 @@
       <c r="Y336" s="3"/>
       <c r="Z336" s="3"/>
     </row>
-    <row r="337" ht="19.5" customHeight="1">
+    <row r="337" spans="1:26" ht="19.5" customHeight="1">
       <c r="A337" s="3"/>
       <c r="B337" s="3"/>
       <c r="C337" s="3"/>
@@ -9804,7 +9843,7 @@
       <c r="Y337" s="3"/>
       <c r="Z337" s="3"/>
     </row>
-    <row r="338" ht="19.5" customHeight="1">
+    <row r="338" spans="1:26" ht="19.5" customHeight="1">
       <c r="A338" s="3"/>
       <c r="B338" s="3"/>
       <c r="C338" s="3"/>
@@ -9832,7 +9871,7 @@
       <c r="Y338" s="3"/>
       <c r="Z338" s="3"/>
     </row>
-    <row r="339" ht="19.5" customHeight="1">
+    <row r="339" spans="1:26" ht="19.5" customHeight="1">
       <c r="A339" s="3"/>
       <c r="B339" s="3"/>
       <c r="C339" s="3"/>
@@ -9860,7 +9899,7 @@
       <c r="Y339" s="3"/>
       <c r="Z339" s="3"/>
     </row>
-    <row r="340" ht="19.5" customHeight="1">
+    <row r="340" spans="1:26" ht="19.5" customHeight="1">
       <c r="A340" s="3"/>
       <c r="B340" s="3"/>
       <c r="C340" s="3"/>
@@ -9888,7 +9927,7 @@
       <c r="Y340" s="3"/>
       <c r="Z340" s="3"/>
     </row>
-    <row r="341" ht="19.5" customHeight="1">
+    <row r="341" spans="1:26" ht="19.5" customHeight="1">
       <c r="A341" s="3"/>
       <c r="B341" s="3"/>
       <c r="C341" s="3"/>
@@ -9916,7 +9955,7 @@
       <c r="Y341" s="3"/>
       <c r="Z341" s="3"/>
     </row>
-    <row r="342" ht="19.5" customHeight="1">
+    <row r="342" spans="1:26" ht="19.5" customHeight="1">
       <c r="A342" s="3"/>
       <c r="B342" s="3"/>
       <c r="C342" s="3"/>
@@ -9944,7 +9983,7 @@
       <c r="Y342" s="3"/>
       <c r="Z342" s="3"/>
     </row>
-    <row r="343" ht="19.5" customHeight="1">
+    <row r="343" spans="1:26" ht="19.5" customHeight="1">
       <c r="A343" s="3"/>
       <c r="B343" s="3"/>
       <c r="C343" s="3"/>
@@ -9972,7 +10011,7 @@
       <c r="Y343" s="3"/>
       <c r="Z343" s="3"/>
     </row>
-    <row r="344" ht="19.5" customHeight="1">
+    <row r="344" spans="1:26" ht="19.5" customHeight="1">
       <c r="A344" s="3"/>
       <c r="B344" s="3"/>
       <c r="C344" s="3"/>
@@ -10000,7 +10039,7 @@
       <c r="Y344" s="3"/>
       <c r="Z344" s="3"/>
     </row>
-    <row r="345" ht="19.5" customHeight="1">
+    <row r="345" spans="1:26" ht="19.5" customHeight="1">
       <c r="A345" s="3"/>
       <c r="B345" s="3"/>
       <c r="C345" s="3"/>
@@ -10028,7 +10067,7 @@
       <c r="Y345" s="3"/>
       <c r="Z345" s="3"/>
     </row>
-    <row r="346" ht="19.5" customHeight="1">
+    <row r="346" spans="1:26" ht="19.5" customHeight="1">
       <c r="A346" s="3"/>
       <c r="B346" s="3"/>
       <c r="C346" s="3"/>
@@ -10056,7 +10095,7 @@
       <c r="Y346" s="3"/>
       <c r="Z346" s="3"/>
     </row>
-    <row r="347" ht="19.5" customHeight="1">
+    <row r="347" spans="1:26" ht="19.5" customHeight="1">
       <c r="A347" s="3"/>
       <c r="B347" s="3"/>
       <c r="C347" s="3"/>
@@ -10084,7 +10123,7 @@
       <c r="Y347" s="3"/>
       <c r="Z347" s="3"/>
     </row>
-    <row r="348" ht="19.5" customHeight="1">
+    <row r="348" spans="1:26" ht="19.5" customHeight="1">
       <c r="A348" s="3"/>
       <c r="B348" s="3"/>
       <c r="C348" s="3"/>
@@ -10112,7 +10151,7 @@
       <c r="Y348" s="3"/>
       <c r="Z348" s="3"/>
     </row>
-    <row r="349" ht="19.5" customHeight="1">
+    <row r="349" spans="1:26" ht="19.5" customHeight="1">
       <c r="A349" s="3"/>
       <c r="B349" s="3"/>
       <c r="C349" s="3"/>
@@ -10140,7 +10179,7 @@
       <c r="Y349" s="3"/>
       <c r="Z349" s="3"/>
     </row>
-    <row r="350" ht="19.5" customHeight="1">
+    <row r="350" spans="1:26" ht="19.5" customHeight="1">
       <c r="A350" s="3"/>
       <c r="B350" s="3"/>
       <c r="C350" s="3"/>
@@ -10168,7 +10207,7 @@
       <c r="Y350" s="3"/>
       <c r="Z350" s="3"/>
     </row>
-    <row r="351" ht="19.5" customHeight="1">
+    <row r="351" spans="1:26" ht="19.5" customHeight="1">
       <c r="A351" s="3"/>
       <c r="B351" s="3"/>
       <c r="C351" s="3"/>
@@ -10196,7 +10235,7 @@
       <c r="Y351" s="3"/>
       <c r="Z351" s="3"/>
     </row>
-    <row r="352" ht="19.5" customHeight="1">
+    <row r="352" spans="1:26" ht="19.5" customHeight="1">
       <c r="A352" s="3"/>
       <c r="B352" s="3"/>
       <c r="C352" s="3"/>
@@ -10224,7 +10263,7 @@
       <c r="Y352" s="3"/>
       <c r="Z352" s="3"/>
     </row>
-    <row r="353" ht="19.5" customHeight="1">
+    <row r="353" spans="1:26" ht="19.5" customHeight="1">
       <c r="A353" s="3"/>
       <c r="B353" s="3"/>
       <c r="C353" s="3"/>
@@ -10252,7 +10291,7 @@
       <c r="Y353" s="3"/>
       <c r="Z353" s="3"/>
     </row>
-    <row r="354" ht="19.5" customHeight="1">
+    <row r="354" spans="1:26" ht="19.5" customHeight="1">
       <c r="A354" s="3"/>
       <c r="B354" s="3"/>
       <c r="C354" s="3"/>
@@ -10280,7 +10319,7 @@
       <c r="Y354" s="3"/>
       <c r="Z354" s="3"/>
     </row>
-    <row r="355" ht="19.5" customHeight="1">
+    <row r="355" spans="1:26" ht="19.5" customHeight="1">
       <c r="A355" s="3"/>
       <c r="B355" s="3"/>
       <c r="C355" s="3"/>
@@ -10308,7 +10347,7 @@
       <c r="Y355" s="3"/>
       <c r="Z355" s="3"/>
     </row>
-    <row r="356" ht="19.5" customHeight="1">
+    <row r="356" spans="1:26" ht="19.5" customHeight="1">
       <c r="A356" s="3"/>
       <c r="B356" s="3"/>
       <c r="C356" s="3"/>
@@ -10336,7 +10375,7 @@
       <c r="Y356" s="3"/>
       <c r="Z356" s="3"/>
     </row>
-    <row r="357" ht="19.5" customHeight="1">
+    <row r="357" spans="1:26" ht="19.5" customHeight="1">
       <c r="A357" s="3"/>
       <c r="B357" s="3"/>
       <c r="C357" s="3"/>
@@ -10364,7 +10403,7 @@
       <c r="Y357" s="3"/>
       <c r="Z357" s="3"/>
     </row>
-    <row r="358" ht="19.5" customHeight="1">
+    <row r="358" spans="1:26" ht="19.5" customHeight="1">
       <c r="A358" s="3"/>
       <c r="B358" s="3"/>
       <c r="C358" s="3"/>
@@ -10392,7 +10431,7 @@
       <c r="Y358" s="3"/>
       <c r="Z358" s="3"/>
     </row>
-    <row r="359" ht="19.5" customHeight="1">
+    <row r="359" spans="1:26" ht="19.5" customHeight="1">
       <c r="A359" s="3"/>
       <c r="B359" s="3"/>
       <c r="C359" s="3"/>
@@ -10420,7 +10459,7 @@
       <c r="Y359" s="3"/>
       <c r="Z359" s="3"/>
     </row>
-    <row r="360" ht="19.5" customHeight="1">
+    <row r="360" spans="1:26" ht="19.5" customHeight="1">
       <c r="A360" s="3"/>
       <c r="B360" s="3"/>
       <c r="C360" s="3"/>
@@ -10448,7 +10487,7 @@
       <c r="Y360" s="3"/>
       <c r="Z360" s="3"/>
     </row>
-    <row r="361" ht="19.5" customHeight="1">
+    <row r="361" spans="1:26" ht="19.5" customHeight="1">
       <c r="A361" s="3"/>
       <c r="B361" s="3"/>
       <c r="C361" s="3"/>
@@ -10476,7 +10515,7 @@
       <c r="Y361" s="3"/>
       <c r="Z361" s="3"/>
     </row>
-    <row r="362" ht="19.5" customHeight="1">
+    <row r="362" spans="1:26" ht="19.5" customHeight="1">
       <c r="A362" s="3"/>
       <c r="B362" s="3"/>
       <c r="C362" s="3"/>
@@ -10504,7 +10543,7 @@
       <c r="Y362" s="3"/>
       <c r="Z362" s="3"/>
     </row>
-    <row r="363" ht="19.5" customHeight="1">
+    <row r="363" spans="1:26" ht="19.5" customHeight="1">
       <c r="A363" s="3"/>
       <c r="B363" s="3"/>
       <c r="C363" s="3"/>
@@ -10532,7 +10571,7 @@
       <c r="Y363" s="3"/>
       <c r="Z363" s="3"/>
     </row>
-    <row r="364" ht="19.5" customHeight="1">
+    <row r="364" spans="1:26" ht="19.5" customHeight="1">
       <c r="A364" s="3"/>
       <c r="B364" s="3"/>
       <c r="C364" s="3"/>
@@ -10560,7 +10599,7 @@
       <c r="Y364" s="3"/>
       <c r="Z364" s="3"/>
     </row>
-    <row r="365" ht="19.5" customHeight="1">
+    <row r="365" spans="1:26" ht="19.5" customHeight="1">
       <c r="A365" s="3"/>
       <c r="B365" s="3"/>
       <c r="C365" s="3"/>
@@ -10588,7 +10627,7 @@
       <c r="Y365" s="3"/>
       <c r="Z365" s="3"/>
     </row>
-    <row r="366" ht="19.5" customHeight="1">
+    <row r="366" spans="1:26" ht="19.5" customHeight="1">
       <c r="A366" s="3"/>
       <c r="B366" s="3"/>
       <c r="C366" s="3"/>
@@ -10616,7 +10655,7 @@
       <c r="Y366" s="3"/>
       <c r="Z366" s="3"/>
     </row>
-    <row r="367" ht="19.5" customHeight="1">
+    <row r="367" spans="1:26" ht="19.5" customHeight="1">
       <c r="A367" s="3"/>
       <c r="B367" s="3"/>
       <c r="C367" s="3"/>
@@ -10644,7 +10683,7 @@
       <c r="Y367" s="3"/>
       <c r="Z367" s="3"/>
     </row>
-    <row r="368" ht="19.5" customHeight="1">
+    <row r="368" spans="1:26" ht="19.5" customHeight="1">
       <c r="A368" s="3"/>
       <c r="B368" s="3"/>
       <c r="C368" s="3"/>
@@ -10672,7 +10711,7 @@
       <c r="Y368" s="3"/>
       <c r="Z368" s="3"/>
     </row>
-    <row r="369" ht="19.5" customHeight="1">
+    <row r="369" spans="1:26" ht="19.5" customHeight="1">
       <c r="A369" s="3"/>
       <c r="B369" s="3"/>
       <c r="C369" s="3"/>
@@ -10700,7 +10739,7 @@
       <c r="Y369" s="3"/>
       <c r="Z369" s="3"/>
     </row>
-    <row r="370" ht="19.5" customHeight="1">
+    <row r="370" spans="1:26" ht="19.5" customHeight="1">
       <c r="A370" s="3"/>
       <c r="B370" s="3"/>
       <c r="C370" s="3"/>
@@ -10728,7 +10767,7 @@
       <c r="Y370" s="3"/>
       <c r="Z370" s="3"/>
     </row>
-    <row r="371" ht="19.5" customHeight="1">
+    <row r="371" spans="1:26" ht="19.5" customHeight="1">
       <c r="A371" s="3"/>
       <c r="B371" s="3"/>
       <c r="C371" s="3"/>
@@ -10756,7 +10795,7 @@
       <c r="Y371" s="3"/>
       <c r="Z371" s="3"/>
     </row>
-    <row r="372" ht="19.5" customHeight="1">
+    <row r="372" spans="1:26" ht="19.5" customHeight="1">
       <c r="A372" s="3"/>
       <c r="B372" s="3"/>
       <c r="C372" s="3"/>
@@ -10784,7 +10823,7 @@
       <c r="Y372" s="3"/>
       <c r="Z372" s="3"/>
     </row>
-    <row r="373" ht="19.5" customHeight="1">
+    <row r="373" spans="1:26" ht="19.5" customHeight="1">
       <c r="A373" s="3"/>
       <c r="B373" s="3"/>
       <c r="C373" s="3"/>
@@ -10812,7 +10851,7 @@
       <c r="Y373" s="3"/>
       <c r="Z373" s="3"/>
     </row>
-    <row r="374" ht="19.5" customHeight="1">
+    <row r="374" spans="1:26" ht="19.5" customHeight="1">
       <c r="A374" s="3"/>
       <c r="B374" s="3"/>
       <c r="C374" s="3"/>
@@ -10840,7 +10879,7 @@
       <c r="Y374" s="3"/>
       <c r="Z374" s="3"/>
     </row>
-    <row r="375" ht="19.5" customHeight="1">
+    <row r="375" spans="1:26" ht="19.5" customHeight="1">
       <c r="A375" s="3"/>
       <c r="B375" s="3"/>
       <c r="C375" s="3"/>
@@ -10868,7 +10907,7 @@
       <c r="Y375" s="3"/>
       <c r="Z375" s="3"/>
     </row>
-    <row r="376" ht="19.5" customHeight="1">
+    <row r="376" spans="1:26" ht="19.5" customHeight="1">
       <c r="A376" s="3"/>
       <c r="B376" s="3"/>
       <c r="C376" s="3"/>
@@ -10896,7 +10935,7 @@
       <c r="Y376" s="3"/>
       <c r="Z376" s="3"/>
     </row>
-    <row r="377" ht="19.5" customHeight="1">
+    <row r="377" spans="1:26" ht="19.5" customHeight="1">
       <c r="A377" s="3"/>
       <c r="B377" s="3"/>
       <c r="C377" s="3"/>
@@ -10924,7 +10963,7 @@
       <c r="Y377" s="3"/>
       <c r="Z377" s="3"/>
     </row>
-    <row r="378" ht="19.5" customHeight="1">
+    <row r="378" spans="1:26" ht="19.5" customHeight="1">
       <c r="A378" s="3"/>
       <c r="B378" s="3"/>
       <c r="C378" s="3"/>
@@ -10952,7 +10991,7 @@
       <c r="Y378" s="3"/>
       <c r="Z378" s="3"/>
     </row>
-    <row r="379" ht="19.5" customHeight="1">
+    <row r="379" spans="1:26" ht="19.5" customHeight="1">
       <c r="A379" s="3"/>
       <c r="B379" s="3"/>
       <c r="C379" s="3"/>
@@ -10980,7 +11019,7 @@
       <c r="Y379" s="3"/>
       <c r="Z379" s="3"/>
     </row>
-    <row r="380" ht="19.5" customHeight="1">
+    <row r="380" spans="1:26" ht="19.5" customHeight="1">
       <c r="A380" s="3"/>
       <c r="B380" s="3"/>
       <c r="C380" s="3"/>
@@ -11008,7 +11047,7 @@
       <c r="Y380" s="3"/>
       <c r="Z380" s="3"/>
     </row>
-    <row r="381" ht="19.5" customHeight="1">
+    <row r="381" spans="1:26" ht="19.5" customHeight="1">
       <c r="A381" s="3"/>
       <c r="B381" s="3"/>
       <c r="C381" s="3"/>
@@ -11036,7 +11075,7 @@
       <c r="Y381" s="3"/>
       <c r="Z381" s="3"/>
     </row>
-    <row r="382" ht="19.5" customHeight="1">
+    <row r="382" spans="1:26" ht="19.5" customHeight="1">
       <c r="A382" s="3"/>
       <c r="B382" s="3"/>
       <c r="C382" s="3"/>
@@ -11064,7 +11103,7 @@
       <c r="Y382" s="3"/>
       <c r="Z382" s="3"/>
     </row>
-    <row r="383" ht="19.5" customHeight="1">
+    <row r="383" spans="1:26" ht="19.5" customHeight="1">
       <c r="A383" s="3"/>
       <c r="B383" s="3"/>
       <c r="C383" s="3"/>
@@ -11092,7 +11131,7 @@
       <c r="Y383" s="3"/>
       <c r="Z383" s="3"/>
     </row>
-    <row r="384" ht="19.5" customHeight="1">
+    <row r="384" spans="1:26" ht="19.5" customHeight="1">
       <c r="A384" s="3"/>
       <c r="B384" s="3"/>
       <c r="C384" s="3"/>
@@ -11120,7 +11159,7 @@
       <c r="Y384" s="3"/>
       <c r="Z384" s="3"/>
     </row>
-    <row r="385" ht="19.5" customHeight="1">
+    <row r="385" spans="1:26" ht="19.5" customHeight="1">
       <c r="A385" s="3"/>
       <c r="B385" s="3"/>
       <c r="C385" s="3"/>
@@ -11148,7 +11187,7 @@
       <c r="Y385" s="3"/>
       <c r="Z385" s="3"/>
     </row>
-    <row r="386" ht="19.5" customHeight="1">
+    <row r="386" spans="1:26" ht="19.5" customHeight="1">
       <c r="A386" s="3"/>
       <c r="B386" s="3"/>
       <c r="C386" s="3"/>
@@ -11176,7 +11215,7 @@
       <c r="Y386" s="3"/>
       <c r="Z386" s="3"/>
     </row>
-    <row r="387" ht="19.5" customHeight="1">
+    <row r="387" spans="1:26" ht="19.5" customHeight="1">
       <c r="A387" s="3"/>
       <c r="B387" s="3"/>
       <c r="C387" s="3"/>
@@ -11204,7 +11243,7 @@
       <c r="Y387" s="3"/>
       <c r="Z387" s="3"/>
     </row>
-    <row r="388" ht="19.5" customHeight="1">
+    <row r="388" spans="1:26" ht="19.5" customHeight="1">
       <c r="A388" s="3"/>
       <c r="B388" s="3"/>
       <c r="C388" s="3"/>
@@ -11232,7 +11271,7 @@
       <c r="Y388" s="3"/>
       <c r="Z388" s="3"/>
     </row>
-    <row r="389" ht="19.5" customHeight="1">
+    <row r="389" spans="1:26" ht="19.5" customHeight="1">
       <c r="A389" s="3"/>
       <c r="B389" s="3"/>
       <c r="C389" s="3"/>
@@ -11260,7 +11299,7 @@
       <c r="Y389" s="3"/>
       <c r="Z389" s="3"/>
     </row>
-    <row r="390" ht="19.5" customHeight="1">
+    <row r="390" spans="1:26" ht="19.5" customHeight="1">
       <c r="A390" s="3"/>
       <c r="B390" s="3"/>
       <c r="C390" s="3"/>
@@ -11288,7 +11327,7 @@
       <c r="Y390" s="3"/>
       <c r="Z390" s="3"/>
     </row>
-    <row r="391" ht="19.5" customHeight="1">
+    <row r="391" spans="1:26" ht="19.5" customHeight="1">
       <c r="A391" s="3"/>
       <c r="B391" s="3"/>
       <c r="C391" s="3"/>
@@ -11316,7 +11355,7 @@
       <c r="Y391" s="3"/>
       <c r="Z391" s="3"/>
     </row>
-    <row r="392" ht="19.5" customHeight="1">
+    <row r="392" spans="1:26" ht="19.5" customHeight="1">
       <c r="A392" s="3"/>
       <c r="B392" s="3"/>
       <c r="C392" s="3"/>
@@ -11344,7 +11383,7 @@
       <c r="Y392" s="3"/>
       <c r="Z392" s="3"/>
     </row>
-    <row r="393" ht="19.5" customHeight="1">
+    <row r="393" spans="1:26" ht="19.5" customHeight="1">
       <c r="A393" s="3"/>
       <c r="B393" s="3"/>
       <c r="C393" s="3"/>
@@ -11372,7 +11411,7 @@
       <c r="Y393" s="3"/>
       <c r="Z393" s="3"/>
     </row>
-    <row r="394" ht="19.5" customHeight="1">
+    <row r="394" spans="1:26" ht="19.5" customHeight="1">
       <c r="A394" s="3"/>
       <c r="B394" s="3"/>
       <c r="C394" s="3"/>
@@ -11400,7 +11439,7 @@
       <c r="Y394" s="3"/>
       <c r="Z394" s="3"/>
     </row>
-    <row r="395" ht="19.5" customHeight="1">
+    <row r="395" spans="1:26" ht="19.5" customHeight="1">
       <c r="A395" s="3"/>
       <c r="B395" s="3"/>
       <c r="C395" s="3"/>
@@ -11428,7 +11467,7 @@
       <c r="Y395" s="3"/>
       <c r="Z395" s="3"/>
     </row>
-    <row r="396" ht="19.5" customHeight="1">
+    <row r="396" spans="1:26" ht="19.5" customHeight="1">
       <c r="A396" s="3"/>
       <c r="B396" s="3"/>
       <c r="C396" s="3"/>
@@ -11456,7 +11495,7 @@
       <c r="Y396" s="3"/>
       <c r="Z396" s="3"/>
     </row>
-    <row r="397" ht="19.5" customHeight="1">
+    <row r="397" spans="1:26" ht="19.5" customHeight="1">
       <c r="A397" s="3"/>
       <c r="B397" s="3"/>
       <c r="C397" s="3"/>
@@ -11484,7 +11523,7 @@
       <c r="Y397" s="3"/>
       <c r="Z397" s="3"/>
     </row>
-    <row r="398" ht="19.5" customHeight="1">
+    <row r="398" spans="1:26" ht="19.5" customHeight="1">
       <c r="A398" s="3"/>
       <c r="B398" s="3"/>
       <c r="C398" s="3"/>
@@ -11512,7 +11551,7 @@
       <c r="Y398" s="3"/>
       <c r="Z398" s="3"/>
     </row>
-    <row r="399" ht="19.5" customHeight="1">
+    <row r="399" spans="1:26" ht="19.5" customHeight="1">
       <c r="A399" s="3"/>
       <c r="B399" s="3"/>
       <c r="C399" s="3"/>
@@ -11540,7 +11579,7 @@
       <c r="Y399" s="3"/>
       <c r="Z399" s="3"/>
     </row>
-    <row r="400" ht="19.5" customHeight="1">
+    <row r="400" spans="1:26" ht="19.5" customHeight="1">
       <c r="A400" s="3"/>
       <c r="B400" s="3"/>
       <c r="C400" s="3"/>
@@ -11568,7 +11607,7 @@
       <c r="Y400" s="3"/>
       <c r="Z400" s="3"/>
     </row>
-    <row r="401" ht="19.5" customHeight="1">
+    <row r="401" spans="1:26" ht="19.5" customHeight="1">
       <c r="A401" s="3"/>
       <c r="B401" s="3"/>
       <c r="C401" s="3"/>
@@ -11596,7 +11635,7 @@
       <c r="Y401" s="3"/>
       <c r="Z401" s="3"/>
     </row>
-    <row r="402" ht="19.5" customHeight="1">
+    <row r="402" spans="1:26" ht="19.5" customHeight="1">
       <c r="A402" s="3"/>
       <c r="B402" s="3"/>
       <c r="C402" s="3"/>
@@ -11624,7 +11663,7 @@
       <c r="Y402" s="3"/>
       <c r="Z402" s="3"/>
     </row>
-    <row r="403" ht="19.5" customHeight="1">
+    <row r="403" spans="1:26" ht="19.5" customHeight="1">
       <c r="A403" s="3"/>
       <c r="B403" s="3"/>
       <c r="C403" s="3"/>
@@ -11652,7 +11691,7 @@
       <c r="Y403" s="3"/>
       <c r="Z403" s="3"/>
     </row>
-    <row r="404" ht="19.5" customHeight="1">
+    <row r="404" spans="1:26" ht="19.5" customHeight="1">
       <c r="A404" s="3"/>
       <c r="B404" s="3"/>
       <c r="C404" s="3"/>
@@ -11680,7 +11719,7 @@
       <c r="Y404" s="3"/>
       <c r="Z404" s="3"/>
     </row>
-    <row r="405" ht="19.5" customHeight="1">
+    <row r="405" spans="1:26" ht="19.5" customHeight="1">
       <c r="A405" s="3"/>
       <c r="B405" s="3"/>
       <c r="C405" s="3"/>
@@ -11708,7 +11747,7 @@
       <c r="Y405" s="3"/>
       <c r="Z405" s="3"/>
     </row>
-    <row r="406" ht="19.5" customHeight="1">
+    <row r="406" spans="1:26" ht="19.5" customHeight="1">
       <c r="A406" s="3"/>
       <c r="B406" s="3"/>
       <c r="C406" s="3"/>
@@ -11736,7 +11775,7 @@
       <c r="Y406" s="3"/>
       <c r="Z406" s="3"/>
     </row>
-    <row r="407" ht="19.5" customHeight="1">
+    <row r="407" spans="1:26" ht="19.5" customHeight="1">
       <c r="A407" s="3"/>
       <c r="B407" s="3"/>
       <c r="C407" s="3"/>
@@ -11764,7 +11803,7 @@
       <c r="Y407" s="3"/>
       <c r="Z407" s="3"/>
     </row>
-    <row r="408" ht="19.5" customHeight="1">
+    <row r="408" spans="1:26" ht="19.5" customHeight="1">
       <c r="A408" s="3"/>
       <c r="B408" s="3"/>
       <c r="C408" s="3"/>
@@ -11792,7 +11831,7 @@
       <c r="Y408" s="3"/>
       <c r="Z408" s="3"/>
     </row>
-    <row r="409" ht="19.5" customHeight="1">
+    <row r="409" spans="1:26" ht="19.5" customHeight="1">
       <c r="A409" s="3"/>
       <c r="B409" s="3"/>
       <c r="C409" s="3"/>
@@ -11820,7 +11859,7 @@
       <c r="Y409" s="3"/>
       <c r="Z409" s="3"/>
     </row>
-    <row r="410" ht="19.5" customHeight="1">
+    <row r="410" spans="1:26" ht="19.5" customHeight="1">
       <c r="A410" s="3"/>
       <c r="B410" s="3"/>
       <c r="C410" s="3"/>
@@ -11848,7 +11887,7 @@
       <c r="Y410" s="3"/>
       <c r="Z410" s="3"/>
     </row>
-    <row r="411" ht="19.5" customHeight="1">
+    <row r="411" spans="1:26" ht="19.5" customHeight="1">
       <c r="A411" s="3"/>
       <c r="B411" s="3"/>
       <c r="C411" s="3"/>
@@ -11876,7 +11915,7 @@
       <c r="Y411" s="3"/>
       <c r="Z411" s="3"/>
     </row>
-    <row r="412" ht="19.5" customHeight="1">
+    <row r="412" spans="1:26" ht="19.5" customHeight="1">
       <c r="A412" s="3"/>
       <c r="B412" s="3"/>
       <c r="C412" s="3"/>
@@ -11904,7 +11943,7 @@
       <c r="Y412" s="3"/>
       <c r="Z412" s="3"/>
     </row>
-    <row r="413" ht="19.5" customHeight="1">
+    <row r="413" spans="1:26" ht="19.5" customHeight="1">
       <c r="A413" s="3"/>
       <c r="B413" s="3"/>
       <c r="C413" s="3"/>
@@ -11932,7 +11971,7 @@
       <c r="Y413" s="3"/>
       <c r="Z413" s="3"/>
     </row>
-    <row r="414" ht="19.5" customHeight="1">
+    <row r="414" spans="1:26" ht="19.5" customHeight="1">
       <c r="A414" s="3"/>
       <c r="B414" s="3"/>
       <c r="C414" s="3"/>
@@ -11960,7 +11999,7 @@
       <c r="Y414" s="3"/>
       <c r="Z414" s="3"/>
     </row>
-    <row r="415" ht="19.5" customHeight="1">
+    <row r="415" spans="1:26" ht="19.5" customHeight="1">
       <c r="A415" s="3"/>
       <c r="B415" s="3"/>
       <c r="C415" s="3"/>
@@ -11988,7 +12027,7 @@
       <c r="Y415" s="3"/>
       <c r="Z415" s="3"/>
     </row>
-    <row r="416" ht="19.5" customHeight="1">
+    <row r="416" spans="1:26" ht="19.5" customHeight="1">
       <c r="A416" s="3"/>
       <c r="B416" s="3"/>
       <c r="C416" s="3"/>
@@ -12016,7 +12055,7 @@
       <c r="Y416" s="3"/>
       <c r="Z416" s="3"/>
     </row>
-    <row r="417" ht="19.5" customHeight="1">
+    <row r="417" spans="1:26" ht="19.5" customHeight="1">
       <c r="A417" s="3"/>
       <c r="B417" s="3"/>
       <c r="C417" s="3"/>
@@ -12044,7 +12083,7 @@
       <c r="Y417" s="3"/>
       <c r="Z417" s="3"/>
     </row>
-    <row r="418" ht="19.5" customHeight="1">
+    <row r="418" spans="1:26" ht="19.5" customHeight="1">
       <c r="A418" s="3"/>
       <c r="B418" s="3"/>
       <c r="C418" s="3"/>
@@ -12072,7 +12111,7 @@
       <c r="Y418" s="3"/>
       <c r="Z418" s="3"/>
     </row>
-    <row r="419" ht="19.5" customHeight="1">
+    <row r="419" spans="1:26" ht="19.5" customHeight="1">
       <c r="A419" s="3"/>
       <c r="B419" s="3"/>
       <c r="C419" s="3"/>
@@ -12100,7 +12139,7 @@
       <c r="Y419" s="3"/>
       <c r="Z419" s="3"/>
     </row>
-    <row r="420" ht="19.5" customHeight="1">
+    <row r="420" spans="1:26" ht="19.5" customHeight="1">
       <c r="A420" s="3"/>
       <c r="B420" s="3"/>
       <c r="C420" s="3"/>
@@ -12128,7 +12167,7 @@
       <c r="Y420" s="3"/>
       <c r="Z420" s="3"/>
     </row>
-    <row r="421" ht="19.5" customHeight="1">
+    <row r="421" spans="1:26" ht="19.5" customHeight="1">
       <c r="A421" s="3"/>
       <c r="B421" s="3"/>
       <c r="C421" s="3"/>
@@ -12156,7 +12195,7 @@
       <c r="Y421" s="3"/>
       <c r="Z421" s="3"/>
     </row>
-    <row r="422" ht="19.5" customHeight="1">
+    <row r="422" spans="1:26" ht="19.5" customHeight="1">
       <c r="A422" s="3"/>
       <c r="B422" s="3"/>
       <c r="C422" s="3"/>
@@ -12184,7 +12223,7 @@
       <c r="Y422" s="3"/>
       <c r="Z422" s="3"/>
     </row>
-    <row r="423" ht="19.5" customHeight="1">
+    <row r="423" spans="1:26" ht="19.5" customHeight="1">
       <c r="A423" s="3"/>
       <c r="B423" s="3"/>
       <c r="C423" s="3"/>
@@ -12212,7 +12251,7 @@
       <c r="Y423" s="3"/>
       <c r="Z423" s="3"/>
     </row>
-    <row r="424" ht="19.5" customHeight="1">
+    <row r="424" spans="1:26" ht="19.5" customHeight="1">
       <c r="A424" s="3"/>
       <c r="B424" s="3"/>
       <c r="C424" s="3"/>
@@ -12240,7 +12279,7 @@
       <c r="Y424" s="3"/>
       <c r="Z424" s="3"/>
     </row>
-    <row r="425" ht="19.5" customHeight="1">
+    <row r="425" spans="1:26" ht="19.5" customHeight="1">
       <c r="A425" s="3"/>
       <c r="B425" s="3"/>
       <c r="C425" s="3"/>
@@ -12268,7 +12307,7 @@
       <c r="Y425" s="3"/>
       <c r="Z425" s="3"/>
     </row>
-    <row r="426" ht="19.5" customHeight="1">
+    <row r="426" spans="1:26" ht="19.5" customHeight="1">
       <c r="A426" s="3"/>
       <c r="B426" s="3"/>
       <c r="C426" s="3"/>
@@ -12296,7 +12335,7 @@
       <c r="Y426" s="3"/>
       <c r="Z426" s="3"/>
     </row>
-    <row r="427" ht="19.5" customHeight="1">
+    <row r="427" spans="1:26" ht="19.5" customHeight="1">
       <c r="A427" s="3"/>
       <c r="B427" s="3"/>
       <c r="C427" s="3"/>
@@ -12324,7 +12363,7 @@
       <c r="Y427" s="3"/>
       <c r="Z427" s="3"/>
     </row>
-    <row r="428" ht="19.5" customHeight="1">
+    <row r="428" spans="1:26" ht="19.5" customHeight="1">
       <c r="A428" s="3"/>
       <c r="B428" s="3"/>
       <c r="C428" s="3"/>
@@ -12352,7 +12391,7 @@
       <c r="Y428" s="3"/>
       <c r="Z428" s="3"/>
     </row>
-    <row r="429" ht="19.5" customHeight="1">
+    <row r="429" spans="1:26" ht="19.5" customHeight="1">
       <c r="A429" s="3"/>
       <c r="B429" s="3"/>
       <c r="C429" s="3"/>
@@ -12380,7 +12419,7 @@
       <c r="Y429" s="3"/>
       <c r="Z429" s="3"/>
     </row>
-    <row r="430" ht="19.5" customHeight="1">
+    <row r="430" spans="1:26" ht="19.5" customHeight="1">
       <c r="A430" s="3"/>
       <c r="B430" s="3"/>
       <c r="C430" s="3"/>
@@ -12408,7 +12447,7 @@
       <c r="Y430" s="3"/>
       <c r="Z430" s="3"/>
     </row>
-    <row r="431" ht="19.5" customHeight="1">
+    <row r="431" spans="1:26" ht="19.5" customHeight="1">
       <c r="A431" s="3"/>
       <c r="B431" s="3"/>
       <c r="C431" s="3"/>
@@ -12436,7 +12475,7 @@
       <c r="Y431" s="3"/>
       <c r="Z431" s="3"/>
     </row>
-    <row r="432" ht="19.5" customHeight="1">
+    <row r="432" spans="1:26" ht="19.5" customHeight="1">
       <c r="A432" s="3"/>
       <c r="B432" s="3"/>
       <c r="C432" s="3"/>
@@ -12464,7 +12503,7 @@
       <c r="Y432" s="3"/>
       <c r="Z432" s="3"/>
     </row>
-    <row r="433" ht="19.5" customHeight="1">
+    <row r="433" spans="1:26" ht="19.5" customHeight="1">
       <c r="A433" s="3"/>
       <c r="B433" s="3"/>
       <c r="C433" s="3"/>
@@ -12492,7 +12531,7 @@
       <c r="Y433" s="3"/>
       <c r="Z433" s="3"/>
     </row>
-    <row r="434" ht="19.5" customHeight="1">
+    <row r="434" spans="1:26" ht="19.5" customHeight="1">
       <c r="A434" s="3"/>
       <c r="B434" s="3"/>
       <c r="C434" s="3"/>
@@ -12520,7 +12559,7 @@
       <c r="Y434" s="3"/>
       <c r="Z434" s="3"/>
     </row>
-    <row r="435" ht="19.5" customHeight="1">
+    <row r="435" spans="1:26" ht="19.5" customHeight="1">
       <c r="A435" s="3"/>
       <c r="B435" s="3"/>
       <c r="C435" s="3"/>
@@ -12548,7 +12587,7 @@
       <c r="Y435" s="3"/>
       <c r="Z435" s="3"/>
     </row>
-    <row r="436" ht="19.5" customHeight="1">
+    <row r="436" spans="1:26" ht="19.5" customHeight="1">
       <c r="A436" s="3"/>
       <c r="B436" s="3"/>
       <c r="C436" s="3"/>
@@ -12576,7 +12615,7 @@
       <c r="Y436" s="3"/>
       <c r="Z436" s="3"/>
     </row>
-    <row r="437" ht="19.5" customHeight="1">
+    <row r="437" spans="1:26" ht="19.5" customHeight="1">
       <c r="A437" s="3"/>
       <c r="B437" s="3"/>
       <c r="C437" s="3"/>
@@ -12604,7 +12643,7 @@
       <c r="Y437" s="3"/>
       <c r="Z437" s="3"/>
     </row>
-    <row r="438" ht="19.5" customHeight="1">
+    <row r="438" spans="1:26" ht="19.5" customHeight="1">
       <c r="A438" s="3"/>
       <c r="B438" s="3"/>
       <c r="C438" s="3"/>
@@ -12632,7 +12671,7 @@
       <c r="Y438" s="3"/>
       <c r="Z438" s="3"/>
     </row>
-    <row r="439" ht="19.5" customHeight="1">
+    <row r="439" spans="1:26" ht="19.5" customHeight="1">
       <c r="A439" s="3"/>
       <c r="B439" s="3"/>
       <c r="C439" s="3"/>
@@ -12660,7 +12699,7 @@
       <c r="Y439" s="3"/>
       <c r="Z439" s="3"/>
     </row>
-    <row r="440" ht="19.5" customHeight="1">
+    <row r="440" spans="1:26" ht="19.5" customHeight="1">
       <c r="A440" s="3"/>
       <c r="B440" s="3"/>
       <c r="C440" s="3"/>
@@ -12688,7 +12727,7 @@
       <c r="Y440" s="3"/>
       <c r="Z440" s="3"/>
     </row>
-    <row r="441" ht="19.5" customHeight="1">
+    <row r="441" spans="1:26" ht="19.5" customHeight="1">
       <c r="A441" s="3"/>
       <c r="B441" s="3"/>
       <c r="C441" s="3"/>
@@ -12716,7 +12755,7 @@
       <c r="Y441" s="3"/>
       <c r="Z441" s="3"/>
     </row>
-    <row r="442" ht="19.5" customHeight="1">
+    <row r="442" spans="1:26" ht="19.5" customHeight="1">
       <c r="A442" s="3"/>
       <c r="B442" s="3"/>
       <c r="C442" s="3"/>
@@ -12744,7 +12783,7 @@
       <c r="Y442" s="3"/>
       <c r="Z442" s="3"/>
     </row>
-    <row r="443" ht="19.5" customHeight="1">
+    <row r="443" spans="1:26" ht="19.5" customHeight="1">
       <c r="A443" s="3"/>
       <c r="B443" s="3"/>
       <c r="C443" s="3"/>
@@ -12772,7 +12811,7 @@
       <c r="Y443" s="3"/>
       <c r="Z443" s="3"/>
     </row>
-    <row r="444" ht="19.5" customHeight="1">
+    <row r="444" spans="1:26" ht="19.5" customHeight="1">
       <c r="A444" s="3"/>
       <c r="B444" s="3"/>
       <c r="C444" s="3"/>
@@ -12800,7 +12839,7 @@
       <c r="Y444" s="3"/>
       <c r="Z444" s="3"/>
     </row>
-    <row r="445" ht="19.5" customHeight="1">
+    <row r="445" spans="1:26" ht="19.5" customHeight="1">
       <c r="A445" s="3"/>
       <c r="B445" s="3"/>
       <c r="C445" s="3"/>
@@ -12828,7 +12867,7 @@
       <c r="Y445" s="3"/>
       <c r="Z445" s="3"/>
     </row>
-    <row r="446" ht="19.5" customHeight="1">
+    <row r="446" spans="1:26" ht="19.5" customHeight="1">
       <c r="A446" s="3"/>
       <c r="B446" s="3"/>
       <c r="C446" s="3"/>
@@ -12856,7 +12895,7 @@
       <c r="Y446" s="3"/>
       <c r="Z446" s="3"/>
     </row>
-    <row r="447" ht="19.5" customHeight="1">
+    <row r="447" spans="1:26" ht="19.5" customHeight="1">
       <c r="A447" s="3"/>
       <c r="B447" s="3"/>
       <c r="C447" s="3"/>
@@ -12884,7 +12923,7 @@
       <c r="Y447" s="3"/>
       <c r="Z447" s="3"/>
     </row>
-    <row r="448" ht="19.5" customHeight="1">
+    <row r="448" spans="1:26" ht="19.5" customHeight="1">
       <c r="A448" s="3"/>
       <c r="B448" s="3"/>
       <c r="C448" s="3"/>
@@ -12912,7 +12951,7 @@
       <c r="Y448" s="3"/>
       <c r="Z448" s="3"/>
     </row>
-    <row r="449" ht="19.5" customHeight="1">
+    <row r="449" spans="1:26" ht="19.5" customHeight="1">
       <c r="A449" s="3"/>
       <c r="B449" s="3"/>
       <c r="C449" s="3"/>
@@ -12940,7 +12979,7 @@
       <c r="Y449" s="3"/>
       <c r="Z449" s="3"/>
     </row>
-    <row r="450" ht="19.5" customHeight="1">
+    <row r="450" spans="1:26" ht="19.5" customHeight="1">
       <c r="A450" s="3"/>
       <c r="B450" s="3"/>
       <c r="C450" s="3"/>
@@ -12968,7 +13007,7 @@
       <c r="Y450" s="3"/>
       <c r="Z450" s="3"/>
     </row>
-    <row r="451" ht="19.5" customHeight="1">
+    <row r="451" spans="1:26" ht="19.5" customHeight="1">
       <c r="A451" s="3"/>
       <c r="B451" s="3"/>
       <c r="C451" s="3"/>
@@ -12996,7 +13035,7 @@
       <c r="Y451" s="3"/>
       <c r="Z451" s="3"/>
     </row>
-    <row r="452" ht="19.5" customHeight="1">
+    <row r="452" spans="1:26" ht="19.5" customHeight="1">
       <c r="A452" s="3"/>
       <c r="B452" s="3"/>
       <c r="C452" s="3"/>
@@ -13024,7 +13063,7 @@
       <c r="Y452" s="3"/>
       <c r="Z452" s="3"/>
     </row>
-    <row r="453" ht="19.5" customHeight="1">
+    <row r="453" spans="1:26" ht="19.5" customHeight="1">
       <c r="A453" s="3"/>
       <c r="B453" s="3"/>
       <c r="C453" s="3"/>
@@ -13052,7 +13091,7 @@
       <c r="Y453" s="3"/>
       <c r="Z453" s="3"/>
     </row>
-    <row r="454" ht="19.5" customHeight="1">
+    <row r="454" spans="1:26" ht="19.5" customHeight="1">
       <c r="A454" s="3"/>
       <c r="B454" s="3"/>
       <c r="C454" s="3"/>
@@ -13080,7 +13119,7 @@
       <c r="Y454" s="3"/>
       <c r="Z454" s="3"/>
     </row>
-    <row r="455" ht="19.5" customHeight="1">
+    <row r="455" spans="1:26" ht="19.5" customHeight="1">
       <c r="A455" s="3"/>
       <c r="B455" s="3"/>
       <c r="C455" s="3"/>
@@ -13108,7 +13147,7 @@
       <c r="Y455" s="3"/>
       <c r="Z455" s="3"/>
     </row>
-    <row r="456" ht="19.5" customHeight="1">
+    <row r="456" spans="1:26" ht="19.5" customHeight="1">
       <c r="A456" s="3"/>
       <c r="B456" s="3"/>
       <c r="C456" s="3"/>
@@ -13136,7 +13175,7 @@
       <c r="Y456" s="3"/>
       <c r="Z456" s="3"/>
     </row>
-    <row r="457" ht="19.5" customHeight="1">
+    <row r="457" spans="1:26" ht="19.5" customHeight="1">
       <c r="A457" s="3"/>
       <c r="B457" s="3"/>
       <c r="C457" s="3"/>
@@ -13164,7 +13203,7 @@
       <c r="Y457" s="3"/>
       <c r="Z457" s="3"/>
     </row>
-    <row r="458" ht="19.5" customHeight="1">
+    <row r="458" spans="1:26" ht="19.5" customHeight="1">
       <c r="A458" s="3"/>
       <c r="B458" s="3"/>
       <c r="C458" s="3"/>
@@ -13192,7 +13231,7 @@
       <c r="Y458" s="3"/>
       <c r="Z458" s="3"/>
     </row>
-    <row r="459" ht="19.5" customHeight="1">
+    <row r="459" spans="1:26" ht="19.5" customHeight="1">
       <c r="A459" s="3"/>
       <c r="B459" s="3"/>
       <c r="C459" s="3"/>
@@ -13220,7 +13259,7 @@
       <c r="Y459" s="3"/>
       <c r="Z459" s="3"/>
     </row>
-    <row r="460" ht="19.5" customHeight="1">
+    <row r="460" spans="1:26" ht="19.5" customHeight="1">
       <c r="A460" s="3"/>
       <c r="B460" s="3"/>
       <c r="C460" s="3"/>
@@ -13248,7 +13287,7 @@
       <c r="Y460" s="3"/>
       <c r="Z460" s="3"/>
     </row>
-    <row r="461" ht="19.5" customHeight="1">
+    <row r="461" spans="1:26" ht="19.5" customHeight="1">
       <c r="A461" s="3"/>
       <c r="B461" s="3"/>
       <c r="C461" s="3"/>
@@ -13276,7 +13315,7 @@
       <c r="Y461" s="3"/>
       <c r="Z461" s="3"/>
     </row>
-    <row r="462" ht="19.5" customHeight="1">
+    <row r="462" spans="1:26" ht="19.5" customHeight="1">
       <c r="A462" s="3"/>
       <c r="B462" s="3"/>
       <c r="C462" s="3"/>
@@ -13304,7 +13343,7 @@
       <c r="Y462" s="3"/>
       <c r="Z462" s="3"/>
     </row>
-    <row r="463" ht="19.5" customHeight="1">
+    <row r="463" spans="1:26" ht="19.5" customHeight="1">
       <c r="A463" s="3"/>
       <c r="B463" s="3"/>
       <c r="C463" s="3"/>
@@ -13332,7 +13371,7 @@
       <c r="Y463" s="3"/>
       <c r="Z463" s="3"/>
     </row>
-    <row r="464" ht="19.5" customHeight="1">
+    <row r="464" spans="1:26" ht="19.5" customHeight="1">
       <c r="A464" s="3"/>
       <c r="B464" s="3"/>
       <c r="C464" s="3"/>
@@ -13360,7 +13399,7 @@
       <c r="Y464" s="3"/>
       <c r="Z464" s="3"/>
     </row>
-    <row r="465" ht="19.5" customHeight="1">
+    <row r="465" spans="1:26" ht="19.5" customHeight="1">
       <c r="A465" s="3"/>
       <c r="B465" s="3"/>
       <c r="C465" s="3"/>
@@ -13388,7 +13427,7 @@
       <c r="Y465" s="3"/>
       <c r="Z465" s="3"/>
     </row>
-    <row r="466" ht="19.5" customHeight="1">
+    <row r="466" spans="1:26" ht="19.5" customHeight="1">
       <c r="A466" s="3"/>
       <c r="B466" s="3"/>
       <c r="C466" s="3"/>
@@ -13416,7 +13455,7 @@
       <c r="Y466" s="3"/>
       <c r="Z466" s="3"/>
     </row>
-    <row r="467" ht="19.5" customHeight="1">
+    <row r="467" spans="1:26" ht="19.5" customHeight="1">
       <c r="A467" s="3"/>
       <c r="B467" s="3"/>
       <c r="C467" s="3"/>
@@ -13444,7 +13483,7 @@
       <c r="Y467" s="3"/>
       <c r="Z467" s="3"/>
     </row>
-    <row r="468" ht="19.5" customHeight="1">
+    <row r="468" spans="1:26" ht="19.5" customHeight="1">
       <c r="A468" s="3"/>
       <c r="B468" s="3"/>
       <c r="C468" s="3"/>
@@ -13472,7 +13511,7 @@
       <c r="Y468" s="3"/>
       <c r="Z468" s="3"/>
     </row>
-    <row r="469" ht="19.5" customHeight="1">
+    <row r="469" spans="1:26" ht="19.5" customHeight="1">
       <c r="A469" s="3"/>
       <c r="B469" s="3"/>
       <c r="C469" s="3"/>
@@ -13500,7 +13539,7 @@
       <c r="Y469" s="3"/>
       <c r="Z469" s="3"/>
     </row>
-    <row r="470" ht="19.5" customHeight="1">
+    <row r="470" spans="1:26" ht="19.5" customHeight="1">
       <c r="A470" s="3"/>
       <c r="B470" s="3"/>
       <c r="C470" s="3"/>
@@ -13528,7 +13567,7 @@
       <c r="Y470" s="3"/>
       <c r="Z470" s="3"/>
     </row>
-    <row r="471" ht="19.5" customHeight="1">
+    <row r="471" spans="1:26" ht="19.5" customHeight="1">
       <c r="A471" s="3"/>
       <c r="B471" s="3"/>
       <c r="C471" s="3"/>
@@ -13556,7 +13595,7 @@
       <c r="Y471" s="3"/>
       <c r="Z471" s="3"/>
     </row>
-    <row r="472" ht="19.5" customHeight="1">
+    <row r="472" spans="1:26" ht="19.5" customHeight="1">
       <c r="A472" s="3"/>
       <c r="B472" s="3"/>
       <c r="C472" s="3"/>
@@ -13584,7 +13623,7 @@
       <c r="Y472" s="3"/>
       <c r="Z472" s="3"/>
     </row>
-    <row r="473" ht="19.5" customHeight="1">
+    <row r="473" spans="1:26" ht="19.5" customHeight="1">
       <c r="A473" s="3"/>
       <c r="B473" s="3"/>
       <c r="C473" s="3"/>
@@ -13612,7 +13651,7 @@
       <c r="Y473" s="3"/>
       <c r="Z473" s="3"/>
     </row>
-    <row r="474" ht="19.5" customHeight="1">
+    <row r="474" spans="1:26" ht="19.5" customHeight="1">
       <c r="A474" s="3"/>
       <c r="B474" s="3"/>
       <c r="C474" s="3"/>
@@ -13640,7 +13679,7 @@
       <c r="Y474" s="3"/>
       <c r="Z474" s="3"/>
     </row>
-    <row r="475" ht="19.5" customHeight="1">
+    <row r="475" spans="1:26" ht="19.5" customHeight="1">
       <c r="A475" s="3"/>
       <c r="B475" s="3"/>
       <c r="C475" s="3"/>
@@ -13668,7 +13707,7 @@
       <c r="Y475" s="3"/>
       <c r="Z475" s="3"/>
     </row>
-    <row r="476" ht="19.5" customHeight="1">
+    <row r="476" spans="1:26" ht="19.5" customHeight="1">
       <c r="A476" s="3"/>
       <c r="B476" s="3"/>
       <c r="C476" s="3"/>
@@ -13696,7 +13735,7 @@
       <c r="Y476" s="3"/>
       <c r="Z476" s="3"/>
     </row>
-    <row r="477" ht="19.5" customHeight="1">
+    <row r="477" spans="1:26" ht="19.5" customHeight="1">
       <c r="A477" s="3"/>
       <c r="B477" s="3"/>
       <c r="C477" s="3"/>
@@ -13724,7 +13763,7 @@
       <c r="Y477" s="3"/>
       <c r="Z477" s="3"/>
     </row>
-    <row r="478" ht="19.5" customHeight="1">
+    <row r="478" spans="1:26" ht="19.5" customHeight="1">
       <c r="A478" s="3"/>
       <c r="B478" s="3"/>
       <c r="C478" s="3"/>
@@ -13752,7 +13791,7 @@
       <c r="Y478" s="3"/>
       <c r="Z478" s="3"/>
     </row>
-    <row r="479" ht="19.5" customHeight="1">
+    <row r="479" spans="1:26" ht="19.5" customHeight="1">
       <c r="A479" s="3"/>
       <c r="B479" s="3"/>
       <c r="C479" s="3"/>
@@ -13780,7 +13819,7 @@
       <c r="Y479" s="3"/>
       <c r="Z479" s="3"/>
     </row>
-    <row r="480" ht="19.5" customHeight="1">
+    <row r="480" spans="1:26" ht="19.5" customHeight="1">
       <c r="A480" s="3"/>
       <c r="B480" s="3"/>
       <c r="C480" s="3"/>
@@ -13808,7 +13847,7 @@
       <c r="Y480" s="3"/>
       <c r="Z480" s="3"/>
     </row>
-    <row r="481" ht="19.5" customHeight="1">
+    <row r="481" spans="1:26" ht="19.5" customHeight="1">
       <c r="A481" s="3"/>
       <c r="B481" s="3"/>
       <c r="C481" s="3"/>
@@ -13836,7 +13875,7 @@
       <c r="Y481" s="3"/>
       <c r="Z481" s="3"/>
     </row>
-    <row r="482" ht="19.5" customHeight="1">
+    <row r="482" spans="1:26" ht="19.5" customHeight="1">
       <c r="A482" s="3"/>
       <c r="B482" s="3"/>
       <c r="C482" s="3"/>
@@ -13864,7 +13903,7 @@
       <c r="Y482" s="3"/>
       <c r="Z482" s="3"/>
     </row>
-    <row r="483" ht="19.5" customHeight="1">
+    <row r="483" spans="1:26" ht="19.5" customHeight="1">
       <c r="A483" s="3"/>
       <c r="B483" s="3"/>
       <c r="C483" s="3"/>
@@ -13892,7 +13931,7 @@
       <c r="Y483" s="3"/>
       <c r="Z483" s="3"/>
     </row>
-    <row r="484" ht="19.5" customHeight="1">
+    <row r="484" spans="1:26" ht="19.5" customHeight="1">
       <c r="A484" s="3"/>
       <c r="B484" s="3"/>
       <c r="C484" s="3"/>
@@ -13920,7 +13959,7 @@
       <c r="Y484" s="3"/>
       <c r="Z484" s="3"/>
     </row>
-    <row r="485" ht="19.5" customHeight="1">
+    <row r="485" spans="1:26" ht="19.5" customHeight="1">
       <c r="A485" s="3"/>
       <c r="B485" s="3"/>
       <c r="C485" s="3"/>
@@ -13948,7 +13987,7 @@
       <c r="Y485" s="3"/>
       <c r="Z485" s="3"/>
     </row>
-    <row r="486" ht="19.5" customHeight="1">
+    <row r="486" spans="1:26" ht="19.5" customHeight="1">
       <c r="A486" s="3"/>
       <c r="B486" s="3"/>
       <c r="C486" s="3"/>
@@ -13976,7 +14015,7 @@
       <c r="Y486" s="3"/>
       <c r="Z486" s="3"/>
     </row>
-    <row r="487" ht="19.5" customHeight="1">
+    <row r="487" spans="1:26" ht="19.5" customHeight="1">
       <c r="A487" s="3"/>
       <c r="B487" s="3"/>
       <c r="C487" s="3"/>
@@ -14004,7 +14043,7 @@
       <c r="Y487" s="3"/>
       <c r="Z487" s="3"/>
     </row>
-    <row r="488" ht="19.5" customHeight="1">
+    <row r="488" spans="1:26" ht="19.5" customHeight="1">
       <c r="A488" s="3"/>
       <c r="B488" s="3"/>
       <c r="C488" s="3"/>
@@ -14032,7 +14071,7 @@
       <c r="Y488" s="3"/>
       <c r="Z488" s="3"/>
     </row>
-    <row r="489" ht="19.5" customHeight="1">
+    <row r="489" spans="1:26" ht="19.5" customHeight="1">
       <c r="A489" s="3"/>
       <c r="B489" s="3"/>
       <c r="C489" s="3"/>
@@ -14060,7 +14099,7 @@
       <c r="Y489" s="3"/>
       <c r="Z489" s="3"/>
     </row>
-    <row r="490" ht="19.5" customHeight="1">
+    <row r="490" spans="1:26" ht="19.5" customHeight="1">
       <c r="A490" s="3"/>
       <c r="B490" s="3"/>
       <c r="C490" s="3"/>
@@ -14088,7 +14127,7 @@
       <c r="Y490" s="3"/>
       <c r="Z490" s="3"/>
     </row>
-    <row r="491" ht="19.5" customHeight="1">
+    <row r="491" spans="1:26" ht="19.5" customHeight="1">
       <c r="A491" s="3"/>
       <c r="B491" s="3"/>
       <c r="C491" s="3"/>
@@ -14116,7 +14155,7 @@
       <c r="Y491" s="3"/>
       <c r="Z491" s="3"/>
     </row>
-    <row r="492" ht="19.5" customHeight="1">
+    <row r="492" spans="1:26" ht="19.5" customHeight="1">
       <c r="A492" s="3"/>
       <c r="B492" s="3"/>
       <c r="C492" s="3"/>
@@ -14144,7 +14183,7 @@
       <c r="Y492" s="3"/>
       <c r="Z492" s="3"/>
     </row>
-    <row r="493" ht="19.5" customHeight="1">
+    <row r="493" spans="1:26" ht="19.5" customHeight="1">
       <c r="A493" s="3"/>
       <c r="B493" s="3"/>
       <c r="C493" s="3"/>
@@ -14172,7 +14211,7 @@
       <c r="Y493" s="3"/>
       <c r="Z493" s="3"/>
     </row>
-    <row r="494" ht="19.5" customHeight="1">
+    <row r="494" spans="1:26" ht="19.5" customHeight="1">
       <c r="A494" s="3"/>
       <c r="B494" s="3"/>
       <c r="C494" s="3"/>
@@ -14200,7 +14239,7 @@
       <c r="Y494" s="3"/>
       <c r="Z494" s="3"/>
     </row>
-    <row r="495" ht="19.5" customHeight="1">
+    <row r="495" spans="1:26" ht="19.5" customHeight="1">
       <c r="A495" s="3"/>
       <c r="B495" s="3"/>
       <c r="C495" s="3"/>
@@ -14228,7 +14267,7 @@
       <c r="Y495" s="3"/>
       <c r="Z495" s="3"/>
     </row>
-    <row r="496" ht="19.5" customHeight="1">
+    <row r="496" spans="1:26" ht="19.5" customHeight="1">
       <c r="A496" s="3"/>
       <c r="B496" s="3"/>
       <c r="C496" s="3"/>
@@ -14256,7 +14295,7 @@
       <c r="Y496" s="3"/>
       <c r="Z496" s="3"/>
     </row>
-    <row r="497" ht="19.5" customHeight="1">
+    <row r="497" spans="1:26" ht="19.5" customHeight="1">
       <c r="A497" s="3"/>
       <c r="B497" s="3"/>
       <c r="C497" s="3"/>
@@ -14284,7 +14323,7 @@
       <c r="Y497" s="3"/>
       <c r="Z497" s="3"/>
     </row>
-    <row r="498" ht="19.5" customHeight="1">
+    <row r="498" spans="1:26" ht="19.5" customHeight="1">
       <c r="A498" s="3"/>
       <c r="B498" s="3"/>
       <c r="C498" s="3"/>
@@ -14312,7 +14351,7 @@
       <c r="Y498" s="3"/>
       <c r="Z498" s="3"/>
     </row>
-    <row r="499" ht="19.5" customHeight="1">
+    <row r="499" spans="1:26" ht="19.5" customHeight="1">
       <c r="A499" s="3"/>
       <c r="B499" s="3"/>
       <c r="C499" s="3"/>
@@ -14340,7 +14379,7 @@
       <c r="Y499" s="3"/>
       <c r="Z499" s="3"/>
     </row>
-    <row r="500" ht="19.5" customHeight="1">
+    <row r="500" spans="1:26" ht="19.5" customHeight="1">
       <c r="A500" s="3"/>
       <c r="B500" s="3"/>
       <c r="C500" s="3"/>
@@ -14368,7 +14407,7 @@
       <c r="Y500" s="3"/>
       <c r="Z500" s="3"/>
     </row>
-    <row r="501" ht="19.5" customHeight="1">
+    <row r="501" spans="1:26" ht="19.5" customHeight="1">
       <c r="A501" s="3"/>
       <c r="B501" s="3"/>
       <c r="C501" s="3"/>
@@ -14396,7 +14435,7 @@
       <c r="Y501" s="3"/>
       <c r="Z501" s="3"/>
     </row>
-    <row r="502" ht="19.5" customHeight="1">
+    <row r="502" spans="1:26" ht="19.5" customHeight="1">
       <c r="A502" s="3"/>
       <c r="B502" s="3"/>
       <c r="C502" s="3"/>
@@ -14424,7 +14463,7 @@
       <c r="Y502" s="3"/>
       <c r="Z502" s="3"/>
     </row>
-    <row r="503" ht="19.5" customHeight="1">
+    <row r="503" spans="1:26" ht="19.5" customHeight="1">
       <c r="A503" s="3"/>
       <c r="B503" s="3"/>
       <c r="C503" s="3"/>
@@ -14452,7 +14491,7 @@
       <c r="Y503" s="3"/>
       <c r="Z503" s="3"/>
     </row>
-    <row r="504" ht="19.5" customHeight="1">
+    <row r="504" spans="1:26" ht="19.5" customHeight="1">
       <c r="A504" s="3"/>
       <c r="B504" s="3"/>
       <c r="C504" s="3"/>
@@ -14480,7 +14519,7 @@
       <c r="Y504" s="3"/>
       <c r="Z504" s="3"/>
     </row>
-    <row r="505" ht="19.5" customHeight="1">
+    <row r="505" spans="1:26" ht="19.5" customHeight="1">
       <c r="A505" s="3"/>
       <c r="B505" s="3"/>
       <c r="C505" s="3"/>
@@ -14508,7 +14547,7 @@
       <c r="Y505" s="3"/>
       <c r="Z505" s="3"/>
     </row>
-    <row r="506" ht="19.5" customHeight="1">
+    <row r="506" spans="1:26" ht="19.5" customHeight="1">
       <c r="A506" s="3"/>
       <c r="B506" s="3"/>
       <c r="C506" s="3"/>
@@ -14536,7 +14575,7 @@
       <c r="Y506" s="3"/>
       <c r="Z506" s="3"/>
     </row>
-    <row r="507" ht="19.5" customHeight="1">
+    <row r="507" spans="1:26" ht="19.5" customHeight="1">
       <c r="A507" s="3"/>
       <c r="B507" s="3"/>
       <c r="C507" s="3"/>
@@ -14564,7 +14603,7 @@
       <c r="Y507" s="3"/>
       <c r="Z507" s="3"/>
     </row>
-    <row r="508" ht="19.5" customHeight="1">
+    <row r="508" spans="1:26" ht="19.5" customHeight="1">
       <c r="A508" s="3"/>
       <c r="B508" s="3"/>
       <c r="C508" s="3"/>
@@ -14592,7 +14631,7 @@
       <c r="Y508" s="3"/>
       <c r="Z508" s="3"/>
     </row>
-    <row r="509" ht="19.5" customHeight="1">
+    <row r="509" spans="1:26" ht="19.5" customHeight="1">
       <c r="A509" s="3"/>
       <c r="B509" s="3"/>
       <c r="C509" s="3"/>
@@ -14620,7 +14659,7 @@
       <c r="Y509" s="3"/>
       <c r="Z509" s="3"/>
     </row>
-    <row r="510" ht="19.5" customHeight="1">
+    <row r="510" spans="1:26" ht="19.5" customHeight="1">
       <c r="A510" s="3"/>
       <c r="B510" s="3"/>
       <c r="C510" s="3"/>
@@ -14648,7 +14687,7 @@
       <c r="Y510" s="3"/>
       <c r="Z510" s="3"/>
     </row>
-    <row r="511" ht="19.5" customHeight="1">
+    <row r="511" spans="1:26" ht="19.5" customHeight="1">
       <c r="A511" s="3"/>
       <c r="B511" s="3"/>
       <c r="C511" s="3"/>
@@ -14676,7 +14715,7 @@
       <c r="Y511" s="3"/>
       <c r="Z511" s="3"/>
     </row>
-    <row r="512" ht="19.5" customHeight="1">
+    <row r="512" spans="1:26" ht="19.5" customHeight="1">
       <c r="A512" s="3"/>
       <c r="B512" s="3"/>
       <c r="C512" s="3"/>
@@ -14704,7 +14743,7 @@
       <c r="Y512" s="3"/>
       <c r="Z512" s="3"/>
     </row>
-    <row r="513" ht="19.5" customHeight="1">
+    <row r="513" spans="1:26" ht="19.5" customHeight="1">
       <c r="A513" s="3"/>
       <c r="B513" s="3"/>
       <c r="C513" s="3"/>
@@ -14732,7 +14771,7 @@
       <c r="Y513" s="3"/>
       <c r="Z513" s="3"/>
     </row>
-    <row r="514" ht="19.5" customHeight="1">
+    <row r="514" spans="1:26" ht="19.5" customHeight="1">
       <c r="A514" s="3"/>
       <c r="B514" s="3"/>
       <c r="C514" s="3"/>
@@ -14760,7 +14799,7 @@
       <c r="Y514" s="3"/>
       <c r="Z514" s="3"/>
     </row>
-    <row r="515" ht="19.5" customHeight="1">
+    <row r="515" spans="1:26" ht="19.5" customHeight="1">
       <c r="A515" s="3"/>
       <c r="B515" s="3"/>
       <c r="C515" s="3"/>
@@ -14788,7 +14827,7 @@
       <c r="Y515" s="3"/>
       <c r="Z515" s="3"/>
     </row>
-    <row r="516" ht="19.5" customHeight="1">
+    <row r="516" spans="1:26" ht="19.5" customHeight="1">
       <c r="A516" s="3"/>
       <c r="B516" s="3"/>
       <c r="C516" s="3"/>
@@ -14816,7 +14855,7 @@
       <c r="Y516" s="3"/>
       <c r="Z516" s="3"/>
     </row>
-    <row r="517" ht="19.5" customHeight="1">
+    <row r="517" spans="1:26" ht="19.5" customHeight="1">
       <c r="A517" s="3"/>
       <c r="B517" s="3"/>
       <c r="C517" s="3"/>
@@ -14844,7 +14883,7 @@
       <c r="Y517" s="3"/>
       <c r="Z517" s="3"/>
     </row>
-    <row r="518" ht="19.5" customHeight="1">
+    <row r="518" spans="1:26" ht="19.5" customHeight="1">
       <c r="A518" s="3"/>
       <c r="B518" s="3"/>
       <c r="C518" s="3"/>
@@ -14872,7 +14911,7 @@
       <c r="Y518" s="3"/>
       <c r="Z518" s="3"/>
     </row>
-    <row r="519" ht="19.5" customHeight="1">
+    <row r="519" spans="1:26" ht="19.5" customHeight="1">
       <c r="A519" s="3"/>
       <c r="B519" s="3"/>
       <c r="C519" s="3"/>
@@ -14900,7 +14939,7 @@
       <c r="Y519" s="3"/>
       <c r="Z519" s="3"/>
     </row>
-    <row r="520" ht="19.5" customHeight="1">
+    <row r="520" spans="1:26" ht="19.5" customHeight="1">
       <c r="A520" s="3"/>
       <c r="B520" s="3"/>
       <c r="C520" s="3"/>
@@ -14928,7 +14967,7 @@
       <c r="Y520" s="3"/>
       <c r="Z520" s="3"/>
     </row>
-    <row r="521" ht="19.5" customHeight="1">
+    <row r="521" spans="1:26" ht="19.5" customHeight="1">
       <c r="A521" s="3"/>
       <c r="B521" s="3"/>
       <c r="C521" s="3"/>
@@ -14956,7 +14995,7 @@
       <c r="Y521" s="3"/>
       <c r="Z521" s="3"/>
     </row>
-    <row r="522" ht="19.5" customHeight="1">
+    <row r="522" spans="1:26" ht="19.5" customHeight="1">
       <c r="A522" s="3"/>
       <c r="B522" s="3"/>
       <c r="C522" s="3"/>
@@ -14984,7 +15023,7 @@
       <c r="Y522" s="3"/>
       <c r="Z522" s="3"/>
     </row>
-    <row r="523" ht="19.5" customHeight="1">
+    <row r="523" spans="1:26" ht="19.5" customHeight="1">
       <c r="A523" s="3"/>
       <c r="B523" s="3"/>
       <c r="C523" s="3"/>
@@ -15012,7 +15051,7 @@
       <c r="Y523" s="3"/>
       <c r="Z523" s="3"/>
     </row>
-    <row r="524" ht="19.5" customHeight="1">
+    <row r="524" spans="1:26" ht="19.5" customHeight="1">
       <c r="A524" s="3"/>
       <c r="B524" s="3"/>
       <c r="C524" s="3"/>
@@ -15040,7 +15079,7 @@
       <c r="Y524" s="3"/>
       <c r="Z524" s="3"/>
     </row>
-    <row r="525" ht="19.5" customHeight="1">
+    <row r="525" spans="1:26" ht="19.5" customHeight="1">
       <c r="A525" s="3"/>
       <c r="B525" s="3"/>
       <c r="C525" s="3"/>
@@ -15068,7 +15107,7 @@
       <c r="Y525" s="3"/>
       <c r="Z525" s="3"/>
     </row>
-    <row r="526" ht="19.5" customHeight="1">
+    <row r="526" spans="1:26" ht="19.5" customHeight="1">
       <c r="A526" s="3"/>
       <c r="B526" s="3"/>
       <c r="C526" s="3"/>
@@ -15096,7 +15135,7 @@
       <c r="Y526" s="3"/>
       <c r="Z526" s="3"/>
     </row>
-    <row r="527" ht="19.5" customHeight="1">
+    <row r="527" spans="1:26" ht="19.5" customHeight="1">
       <c r="A527" s="3"/>
       <c r="B527" s="3"/>
       <c r="C527" s="3"/>
@@ -15124,7 +15163,7 @@
       <c r="Y527" s="3"/>
       <c r="Z527" s="3"/>
     </row>
-    <row r="528" ht="19.5" customHeight="1">
+    <row r="528" spans="1:26" ht="19.5" customHeight="1">
       <c r="A528" s="3"/>
       <c r="B528" s="3"/>
       <c r="C528" s="3"/>
@@ -15152,7 +15191,7 @@
       <c r="Y528" s="3"/>
       <c r="Z528" s="3"/>
     </row>
-    <row r="529" ht="19.5" customHeight="1">
+    <row r="529" spans="1:26" ht="19.5" customHeight="1">
       <c r="A529" s="3"/>
       <c r="B529" s="3"/>
       <c r="C529" s="3"/>
@@ -15180,7 +15219,7 @@
       <c r="Y529" s="3"/>
       <c r="Z529" s="3"/>
     </row>
-    <row r="530" ht="19.5" customHeight="1">
+    <row r="530" spans="1:26" ht="19.5" customHeight="1">
       <c r="A530" s="3"/>
       <c r="B530" s="3"/>
       <c r="C530" s="3"/>
@@ -15208,7 +15247,7 @@
       <c r="Y530" s="3"/>
       <c r="Z530" s="3"/>
     </row>
-    <row r="531" ht="19.5" customHeight="1">
+    <row r="531" spans="1:26" ht="19.5" customHeight="1">
       <c r="A531" s="3"/>
       <c r="B531" s="3"/>
       <c r="C531" s="3"/>
@@ -15236,7 +15275,7 @@
       <c r="Y531" s="3"/>
       <c r="Z531" s="3"/>
     </row>
-    <row r="532" ht="19.5" customHeight="1">
+    <row r="532" spans="1:26" ht="19.5" customHeight="1">
       <c r="A532" s="3"/>
       <c r="B532" s="3"/>
       <c r="C532" s="3"/>
@@ -15264,7 +15303,7 @@
       <c r="Y532" s="3"/>
       <c r="Z532" s="3"/>
     </row>
-    <row r="533" ht="19.5" customHeight="1">
+    <row r="533" spans="1:26" ht="19.5" customHeight="1">
       <c r="A533" s="3"/>
       <c r="B533" s="3"/>
       <c r="C533" s="3"/>
@@ -15292,7 +15331,7 @@
       <c r="Y533" s="3"/>
       <c r="Z533" s="3"/>
     </row>
-    <row r="534" ht="19.5" customHeight="1">
+    <row r="534" spans="1:26" ht="19.5" customHeight="1">
       <c r="A534" s="3"/>
       <c r="B534" s="3"/>
       <c r="C534" s="3"/>
@@ -15320,7 +15359,7 @@
       <c r="Y534" s="3"/>
       <c r="Z534" s="3"/>
     </row>
-    <row r="535" ht="19.5" customHeight="1">
+    <row r="535" spans="1:26" ht="19.5" customHeight="1">
       <c r="A535" s="3"/>
       <c r="B535" s="3"/>
       <c r="C535" s="3"/>
@@ -15348,7 +15387,7 @@
       <c r="Y535" s="3"/>
       <c r="Z535" s="3"/>
     </row>
-    <row r="536" ht="19.5" customHeight="1">
+    <row r="536" spans="1:26" ht="19.5" customHeight="1">
       <c r="A536" s="3"/>
       <c r="B536" s="3"/>
       <c r="C536" s="3"/>
@@ -15376,7 +15415,7 @@
       <c r="Y536" s="3"/>
       <c r="Z536" s="3"/>
     </row>
-    <row r="537" ht="19.5" customHeight="1">
+    <row r="537" spans="1:26" ht="19.5" customHeight="1">
       <c r="A537" s="3"/>
       <c r="B537" s="3"/>
       <c r="C537" s="3"/>
@@ -15404,7 +15443,7 @@
       <c r="Y537" s="3"/>
       <c r="Z537" s="3"/>
     </row>
-    <row r="538" ht="19.5" customHeight="1">
+    <row r="538" spans="1:26" ht="19.5" customHeight="1">
       <c r="A538" s="3"/>
       <c r="B538" s="3"/>
       <c r="C538" s="3"/>
@@ -15432,7 +15471,7 @@
       <c r="Y538" s="3"/>
       <c r="Z538" s="3"/>
     </row>
-    <row r="539" ht="19.5" customHeight="1">
+    <row r="539" spans="1:26" ht="19.5" customHeight="1">
       <c r="A539" s="3"/>
       <c r="B539" s="3"/>
       <c r="C539" s="3"/>
@@ -15460,7 +15499,7 @@
       <c r="Y539" s="3"/>
       <c r="Z539" s="3"/>
     </row>
-    <row r="540" ht="19.5" customHeight="1">
+    <row r="540" spans="1:26" ht="19.5" customHeight="1">
       <c r="A540" s="3"/>
       <c r="B540" s="3"/>
       <c r="C540" s="3"/>
@@ -15488,7 +15527,7 @@
       <c r="Y540" s="3"/>
       <c r="Z540" s="3"/>
     </row>
-    <row r="541" ht="19.5" customHeight="1">
+    <row r="541" spans="1:26" ht="19.5" customHeight="1">
       <c r="A541" s="3"/>
       <c r="B541" s="3"/>
       <c r="C541" s="3"/>
@@ -15516,7 +15555,7 @@
       <c r="Y541" s="3"/>
       <c r="Z541" s="3"/>
     </row>
-    <row r="542" ht="19.5" customHeight="1">
+    <row r="542" spans="1:26" ht="19.5" customHeight="1">
       <c r="A542" s="3"/>
       <c r="B542" s="3"/>
       <c r="C542" s="3"/>
@@ -15544,7 +15583,7 @@
       <c r="Y542" s="3"/>
       <c r="Z542" s="3"/>
     </row>
-    <row r="543" ht="19.5" customHeight="1">
+    <row r="543" spans="1:26" ht="19.5" customHeight="1">
       <c r="A543" s="3"/>
       <c r="B543" s="3"/>
       <c r="C543" s="3"/>
@@ -15572,7 +15611,7 @@
       <c r="Y543" s="3"/>
       <c r="Z543" s="3"/>
     </row>
-    <row r="544" ht="19.5" customHeight="1">
+    <row r="544" spans="1:26" ht="19.5" customHeight="1">
       <c r="A544" s="3"/>
       <c r="B544" s="3"/>
       <c r="C544" s="3"/>
@@ -15600,7 +15639,7 @@
       <c r="Y544" s="3"/>
       <c r="Z544" s="3"/>
     </row>
-    <row r="545" ht="19.5" customHeight="1">
+    <row r="545" spans="1:26" ht="19.5" customHeight="1">
       <c r="A545" s="3"/>
       <c r="B545" s="3"/>
       <c r="C545" s="3"/>
@@ -15628,7 +15667,7 @@
       <c r="Y545" s="3"/>
       <c r="Z545" s="3"/>
     </row>
-    <row r="546" ht="19.5" customHeight="1">
+    <row r="546" spans="1:26" ht="19.5" customHeight="1">
       <c r="A546" s="3"/>
       <c r="B546" s="3"/>
       <c r="C546" s="3"/>
@@ -15656,7 +15695,7 @@
       <c r="Y546" s="3"/>
       <c r="Z546" s="3"/>
     </row>
-    <row r="547" ht="19.5" customHeight="1">
+    <row r="547" spans="1:26" ht="19.5" customHeight="1">
       <c r="A547" s="3"/>
       <c r="B547" s="3"/>
       <c r="C547" s="3"/>
@@ -15684,7 +15723,7 @@
       <c r="Y547" s="3"/>
       <c r="Z547" s="3"/>
     </row>
-    <row r="548" ht="19.5" customHeight="1">
+    <row r="548" spans="1:26" ht="19.5" customHeight="1">
       <c r="A548" s="3"/>
       <c r="B548" s="3"/>
       <c r="C548" s="3"/>
@@ -15712,7 +15751,7 @@
       <c r="Y548" s="3"/>
       <c r="Z548" s="3"/>
     </row>
-    <row r="549" ht="19.5" customHeight="1">
+    <row r="549" spans="1:26" ht="19.5" customHeight="1">
       <c r="A549" s="3"/>
       <c r="B549" s="3"/>
       <c r="C549" s="3"/>
@@ -15740,7 +15779,7 @@
       <c r="Y549" s="3"/>
       <c r="Z549" s="3"/>
     </row>
-    <row r="550" ht="19.5" customHeight="1">
+    <row r="550" spans="1:26" ht="19.5" customHeight="1">
       <c r="A550" s="3"/>
       <c r="B550" s="3"/>
       <c r="C550" s="3"/>
@@ -15768,7 +15807,7 @@
       <c r="Y550" s="3"/>
       <c r="Z550" s="3"/>
     </row>
-    <row r="551" ht="19.5" customHeight="1">
+    <row r="551" spans="1:26" ht="19.5" customHeight="1">
       <c r="A551" s="3"/>
       <c r="B551" s="3"/>
       <c r="C551" s="3"/>
@@ -15796,7 +15835,7 @@
       <c r="Y551" s="3"/>
       <c r="Z551" s="3"/>
     </row>
-    <row r="552" ht="19.5" customHeight="1">
+    <row r="552" spans="1:26" ht="19.5" customHeight="1">
       <c r="A552" s="3"/>
       <c r="B552" s="3"/>
       <c r="C552" s="3"/>
@@ -15824,7 +15863,7 @@
       <c r="Y552" s="3"/>
       <c r="Z552" s="3"/>
     </row>
-    <row r="553" ht="19.5" customHeight="1">
+    <row r="553" spans="1:26" ht="19.5" customHeight="1">
       <c r="A553" s="3"/>
       <c r="B553" s="3"/>
       <c r="C553" s="3"/>
@@ -15852,7 +15891,7 @@
       <c r="Y553" s="3"/>
       <c r="Z553" s="3"/>
     </row>
-    <row r="554" ht="19.5" customHeight="1">
+    <row r="554" spans="1:26" ht="19.5" customHeight="1">
       <c r="A554" s="3"/>
       <c r="B554" s="3"/>
       <c r="C554" s="3"/>
@@ -15880,7 +15919,7 @@
       <c r="Y554" s="3"/>
       <c r="Z554" s="3"/>
     </row>
-    <row r="555" ht="19.5" customHeight="1">
+    <row r="555" spans="1:26" ht="19.5" customHeight="1">
       <c r="A555" s="3"/>
       <c r="B555" s="3"/>
       <c r="C555" s="3"/>
@@ -15908,7 +15947,7 @@
       <c r="Y555" s="3"/>
       <c r="Z555" s="3"/>
     </row>
-    <row r="556" ht="19.5" customHeight="1">
+    <row r="556" spans="1:26" ht="19.5" customHeight="1">
       <c r="A556" s="3"/>
       <c r="B556" s="3"/>
       <c r="C556" s="3"/>
@@ -15936,7 +15975,7 @@
       <c r="Y556" s="3"/>
       <c r="Z556" s="3"/>
     </row>
-    <row r="557" ht="19.5" customHeight="1">
+    <row r="557" spans="1:26" ht="19.5" customHeight="1">
       <c r="A557" s="3"/>
       <c r="B557" s="3"/>
       <c r="C557" s="3"/>
@@ -15964,7 +16003,7 @@
       <c r="Y557" s="3"/>
       <c r="Z557" s="3"/>
     </row>
-    <row r="558" ht="19.5" customHeight="1">
+    <row r="558" spans="1:26" ht="19.5" customHeight="1">
       <c r="A558" s="3"/>
       <c r="B558" s="3"/>
       <c r="C558" s="3"/>
@@ -15992,7 +16031,7 @@
       <c r="Y558" s="3"/>
       <c r="Z558" s="3"/>
     </row>
-    <row r="559" ht="19.5" customHeight="1">
+    <row r="559" spans="1:26" ht="19.5" customHeight="1">
       <c r="A559" s="3"/>
       <c r="B559" s="3"/>
       <c r="C559" s="3"/>
@@ -16020,7 +16059,7 @@
       <c r="Y559" s="3"/>
       <c r="Z559" s="3"/>
     </row>
-    <row r="560" ht="19.5" customHeight="1">
+    <row r="560" spans="1:26" ht="19.5" customHeight="1">
       <c r="A560" s="3"/>
       <c r="B560" s="3"/>
       <c r="C560" s="3"/>
@@ -16048,7 +16087,7 @@
       <c r="Y560" s="3"/>
       <c r="Z560" s="3"/>
     </row>
-    <row r="561" ht="19.5" customHeight="1">
+    <row r="561" spans="1:26" ht="19.5" customHeight="1">
       <c r="A561" s="3"/>
       <c r="B561" s="3"/>
       <c r="C561" s="3"/>
@@ -16076,7 +16115,7 @@
       <c r="Y561" s="3"/>
       <c r="Z561" s="3"/>
     </row>
-    <row r="562" ht="19.5" customHeight="1">
+    <row r="562" spans="1:26" ht="19.5" customHeight="1">
       <c r="A562" s="3"/>
       <c r="B562" s="3"/>
       <c r="C562" s="3"/>
@@ -16104,7 +16143,7 @@
       <c r="Y562" s="3"/>
       <c r="Z562" s="3"/>
     </row>
-    <row r="563" ht="19.5" customHeight="1">
+    <row r="563" spans="1:26" ht="19.5" customHeight="1">
       <c r="A563" s="3"/>
       <c r="B563" s="3"/>
       <c r="C563" s="3"/>
@@ -16132,7 +16171,7 @@
       <c r="Y563" s="3"/>
       <c r="Z563" s="3"/>
     </row>
-    <row r="564" ht="19.5" customHeight="1">
+    <row r="564" spans="1:26" ht="19.5" customHeight="1">
       <c r="A564" s="3"/>
       <c r="B564" s="3"/>
       <c r="C564" s="3"/>
@@ -16160,7 +16199,7 @@
       <c r="Y564" s="3"/>
       <c r="Z564" s="3"/>
     </row>
-    <row r="565" ht="19.5" customHeight="1">
+    <row r="565" spans="1:26" ht="19.5" customHeight="1">
       <c r="A565" s="3"/>
       <c r="B565" s="3"/>
       <c r="C565" s="3"/>
@@ -16188,7 +16227,7 @@
       <c r="Y565" s="3"/>
       <c r="Z565" s="3"/>
     </row>
-    <row r="566" ht="19.5" customHeight="1">
+    <row r="566" spans="1:26" ht="19.5" customHeight="1">
       <c r="A566" s="3"/>
       <c r="B566" s="3"/>
       <c r="C566" s="3"/>
@@ -16216,7 +16255,7 @@
       <c r="Y566" s="3"/>
       <c r="Z566" s="3"/>
     </row>
-    <row r="567" ht="19.5" customHeight="1">
+    <row r="567" spans="1:26" ht="19.5" customHeight="1">
       <c r="A567" s="3"/>
       <c r="B567" s="3"/>
       <c r="C567" s="3"/>
@@ -16244,7 +16283,7 @@
       <c r="Y567" s="3"/>
       <c r="Z567" s="3"/>
     </row>
-    <row r="568" ht="19.5" customHeight="1">
+    <row r="568" spans="1:26" ht="19.5" customHeight="1">
       <c r="A568" s="3"/>
       <c r="B568" s="3"/>
       <c r="C568" s="3"/>
@@ -16272,7 +16311,7 @@
       <c r="Y568" s="3"/>
       <c r="Z568" s="3"/>
     </row>
-    <row r="569" ht="19.5" customHeight="1">
+    <row r="569" spans="1:26" ht="19.5" customHeight="1">
       <c r="A569" s="3"/>
       <c r="B569" s="3"/>
       <c r="C569" s="3"/>
@@ -16300,7 +16339,7 @@
       <c r="Y569" s="3"/>
       <c r="Z569" s="3"/>
     </row>
-    <row r="570" ht="19.5" customHeight="1">
+    <row r="570" spans="1:26" ht="19.5" customHeight="1">
       <c r="A570" s="3"/>
       <c r="B570" s="3"/>
       <c r="C570" s="3"/>
@@ -16328,7 +16367,7 @@
       <c r="Y570" s="3"/>
       <c r="Z570" s="3"/>
     </row>
-    <row r="571" ht="19.5" customHeight="1">
+    <row r="571" spans="1:26" ht="19.5" customHeight="1">
       <c r="A571" s="3"/>
       <c r="B571" s="3"/>
       <c r="C571" s="3"/>
@@ -16356,7 +16395,7 @@
       <c r="Y571" s="3"/>
       <c r="Z571" s="3"/>
     </row>
-    <row r="572" ht="19.5" customHeight="1">
+    <row r="572" spans="1:26" ht="19.5" customHeight="1">
       <c r="A572" s="3"/>
       <c r="B572" s="3"/>
       <c r="C572" s="3"/>
@@ -16384,7 +16423,7 @@
       <c r="Y572" s="3"/>
       <c r="Z572" s="3"/>
     </row>
-    <row r="573" ht="19.5" customHeight="1">
+    <row r="573" spans="1:26" ht="19.5" customHeight="1">
       <c r="A573" s="3"/>
       <c r="B573" s="3"/>
       <c r="C573" s="3"/>
@@ -16412,7 +16451,7 @@
       <c r="Y573" s="3"/>
       <c r="Z573" s="3"/>
     </row>
-    <row r="574" ht="19.5" customHeight="1">
+    <row r="574" spans="1:26" ht="19.5" customHeight="1">
       <c r="A574" s="3"/>
       <c r="B574" s="3"/>
       <c r="C574" s="3"/>
@@ -16440,7 +16479,7 @@
       <c r="Y574" s="3"/>
       <c r="Z574" s="3"/>
     </row>
-    <row r="575" ht="19.5" customHeight="1">
+    <row r="575" spans="1:26" ht="19.5" customHeight="1">
       <c r="A575" s="3"/>
       <c r="B575" s="3"/>
       <c r="C575" s="3"/>
@@ -16468,7 +16507,7 @@
       <c r="Y575" s="3"/>
       <c r="Z575" s="3"/>
     </row>
-    <row r="576" ht="19.5" customHeight="1">
+    <row r="576" spans="1:26" ht="19.5" customHeight="1">
       <c r="A576" s="3"/>
       <c r="B576" s="3"/>
       <c r="C576" s="3"/>
@@ -16496,7 +16535,7 @@
       <c r="Y576" s="3"/>
       <c r="Z576" s="3"/>
     </row>
-    <row r="577" ht="19.5" customHeight="1">
+    <row r="577" spans="1:26" ht="19.5" customHeight="1">
       <c r="A577" s="3"/>
       <c r="B577" s="3"/>
       <c r="C577" s="3"/>
@@ -16524,7 +16563,7 @@
       <c r="Y577" s="3"/>
       <c r="Z577" s="3"/>
     </row>
-    <row r="578" ht="19.5" customHeight="1">
+    <row r="578" spans="1:26" ht="19.5" customHeight="1">
       <c r="A578" s="3"/>
       <c r="B578" s="3"/>
       <c r="C578" s="3"/>
@@ -16552,7 +16591,7 @@
       <c r="Y578" s="3"/>
       <c r="Z578" s="3"/>
     </row>
-    <row r="579" ht="19.5" customHeight="1">
+    <row r="579" spans="1:26" ht="19.5" customHeight="1">
       <c r="A579" s="3"/>
       <c r="B579" s="3"/>
       <c r="C579" s="3"/>
@@ -16580,7 +16619,7 @@
       <c r="Y579" s="3"/>
       <c r="Z579" s="3"/>
     </row>
-    <row r="580" ht="19.5" customHeight="1">
+    <row r="580" spans="1:26" ht="19.5" customHeight="1">
       <c r="A580" s="3"/>
       <c r="B580" s="3"/>
       <c r="C580" s="3"/>
@@ -16608,7 +16647,7 @@
       <c r="Y580" s="3"/>
       <c r="Z580" s="3"/>
     </row>
-    <row r="581" ht="19.5" customHeight="1">
+    <row r="581" spans="1:26" ht="19.5" customHeight="1">
       <c r="A581" s="3"/>
       <c r="B581" s="3"/>
       <c r="C581" s="3"/>
@@ -16636,7 +16675,7 @@
       <c r="Y581" s="3"/>
       <c r="Z581" s="3"/>
     </row>
-    <row r="582" ht="19.5" customHeight="1">
+    <row r="582" spans="1:26" ht="19.5" customHeight="1">
       <c r="A582" s="3"/>
       <c r="B582" s="3"/>
       <c r="C582" s="3"/>
@@ -16664,7 +16703,7 @@
       <c r="Y582" s="3"/>
       <c r="Z582" s="3"/>
     </row>
-    <row r="583" ht="19.5" customHeight="1">
+    <row r="583" spans="1:26" ht="19.5" customHeight="1">
       <c r="A583" s="3"/>
       <c r="B583" s="3"/>
       <c r="C583" s="3"/>
@@ -16692,7 +16731,7 @@
       <c r="Y583" s="3"/>
       <c r="Z583" s="3"/>
     </row>
-    <row r="584" ht="19.5" customHeight="1">
+    <row r="584" spans="1:26" ht="19.5" customHeight="1">
       <c r="A584" s="3"/>
       <c r="B584" s="3"/>
       <c r="C584" s="3"/>
@@ -16720,7 +16759,7 @@
       <c r="Y584" s="3"/>
       <c r="Z584" s="3"/>
     </row>
-    <row r="585" ht="19.5" customHeight="1">
+    <row r="585" spans="1:26" ht="19.5" customHeight="1">
       <c r="A585" s="3"/>
       <c r="B585" s="3"/>
       <c r="C585" s="3"/>
@@ -16748,7 +16787,7 @@
       <c r="Y585" s="3"/>
       <c r="Z585" s="3"/>
     </row>
-    <row r="586" ht="19.5" customHeight="1">
+    <row r="586" spans="1:26" ht="19.5" customHeight="1">
       <c r="A586" s="3"/>
       <c r="B586" s="3"/>
       <c r="C586" s="3"/>
@@ -16776,7 +16815,7 @@
       <c r="Y586" s="3"/>
       <c r="Z586" s="3"/>
     </row>
-    <row r="587" ht="19.5" customHeight="1">
+    <row r="587" spans="1:26" ht="19.5" customHeight="1">
       <c r="A587" s="3"/>
       <c r="B587" s="3"/>
       <c r="C587" s="3"/>
@@ -16804,7 +16843,7 @@
       <c r="Y587" s="3"/>
       <c r="Z587" s="3"/>
     </row>
-    <row r="588" ht="19.5" customHeight="1">
+    <row r="588" spans="1:26" ht="19.5" customHeight="1">
       <c r="A588" s="3"/>
       <c r="B588" s="3"/>
       <c r="C588" s="3"/>
@@ -16832,7 +16871,7 @@
       <c r="Y588" s="3"/>
       <c r="Z588" s="3"/>
     </row>
-    <row r="589" ht="19.5" customHeight="1">
+    <row r="589" spans="1:26" ht="19.5" customHeight="1">
       <c r="A589" s="3"/>
       <c r="B589" s="3"/>
       <c r="C589" s="3"/>
@@ -16860,7 +16899,7 @@
       <c r="Y589" s="3"/>
       <c r="Z589" s="3"/>
     </row>
-    <row r="590" ht="19.5" customHeight="1">
+    <row r="590" spans="1:26" ht="19.5" customHeight="1">
       <c r="A590" s="3"/>
       <c r="B590" s="3"/>
       <c r="C590" s="3"/>
@@ -16888,7 +16927,7 @@
       <c r="Y590" s="3"/>
       <c r="Z590" s="3"/>
     </row>
-    <row r="591" ht="19.5" customHeight="1">
+    <row r="591" spans="1:26" ht="19.5" customHeight="1">
       <c r="A591" s="3"/>
       <c r="B591" s="3"/>
       <c r="C591" s="3"/>
@@ -16916,7 +16955,7 @@
       <c r="Y591" s="3"/>
       <c r="Z591" s="3"/>
     </row>
-    <row r="592" ht="19.5" customHeight="1">
+    <row r="592" spans="1:26" ht="19.5" customHeight="1">
       <c r="A592" s="3"/>
       <c r="B592" s="3"/>
       <c r="C592" s="3"/>
@@ -16944,7 +16983,7 @@
       <c r="Y592" s="3"/>
       <c r="Z592" s="3"/>
     </row>
-    <row r="593" ht="19.5" customHeight="1">
+    <row r="593" spans="1:26" ht="19.5" customHeight="1">
       <c r="A593" s="3"/>
       <c r="B593" s="3"/>
       <c r="C593" s="3"/>
@@ -16972,7 +17011,7 @@
       <c r="Y593" s="3"/>
       <c r="Z593" s="3"/>
     </row>
-    <row r="594" ht="19.5" customHeight="1">
+    <row r="594" spans="1:26" ht="19.5" customHeight="1">
       <c r="A594" s="3"/>
       <c r="B594" s="3"/>
       <c r="C594" s="3"/>
@@ -17000,7 +17039,7 @@
       <c r="Y594" s="3"/>
       <c r="Z594" s="3"/>
     </row>
-    <row r="595" ht="19.5" customHeight="1">
+    <row r="595" spans="1:26" ht="19.5" customHeight="1">
       <c r="A595" s="3"/>
       <c r="B595" s="3"/>
       <c r="C595" s="3"/>
@@ -17028,7 +17067,7 @@
       <c r="Y595" s="3"/>
       <c r="Z595" s="3"/>
     </row>
-    <row r="596" ht="19.5" customHeight="1">
+    <row r="596" spans="1:26" ht="19.5" customHeight="1">
       <c r="A596" s="3"/>
       <c r="B596" s="3"/>
       <c r="C596" s="3"/>
@@ -17056,7 +17095,7 @@
       <c r="Y596" s="3"/>
       <c r="Z596" s="3"/>
     </row>
-    <row r="597" ht="19.5" customHeight="1">
+    <row r="597" spans="1:26" ht="19.5" customHeight="1">
       <c r="A597" s="3"/>
       <c r="B597" s="3"/>
       <c r="C597" s="3"/>
@@ -17084,7 +17123,7 @@
       <c r="Y597" s="3"/>
       <c r="Z597" s="3"/>
     </row>
-    <row r="598" ht="19.5" customHeight="1">
+    <row r="598" spans="1:26" ht="19.5" customHeight="1">
       <c r="A598" s="3"/>
       <c r="B598" s="3"/>
       <c r="C598" s="3"/>
@@ -17112,7 +17151,7 @@
       <c r="Y598" s="3"/>
       <c r="Z598" s="3"/>
     </row>
-    <row r="599" ht="19.5" customHeight="1">
+    <row r="599" spans="1:26" ht="19.5" customHeight="1">
       <c r="A599" s="3"/>
       <c r="B599" s="3"/>
       <c r="C599" s="3"/>
@@ -17140,7 +17179,7 @@
       <c r="Y599" s="3"/>
       <c r="Z599" s="3"/>
     </row>
-    <row r="600" ht="19.5" customHeight="1">
+    <row r="600" spans="1:26" ht="19.5" customHeight="1">
       <c r="A600" s="3"/>
       <c r="B600" s="3"/>
       <c r="C600" s="3"/>
@@ -17168,7 +17207,7 @@
       <c r="Y600" s="3"/>
       <c r="Z600" s="3"/>
     </row>
-    <row r="601" ht="19.5" customHeight="1">
+    <row r="601" spans="1:26" ht="19.5" customHeight="1">
       <c r="A601" s="3"/>
       <c r="B601" s="3"/>
       <c r="C601" s="3"/>
@@ -17196,7 +17235,7 @@
       <c r="Y601" s="3"/>
       <c r="Z601" s="3"/>
     </row>
-    <row r="602" ht="19.5" customHeight="1">
+    <row r="602" spans="1:26" ht="19.5" customHeight="1">
       <c r="A602" s="3"/>
       <c r="B602" s="3"/>
       <c r="C602" s="3"/>
@@ -17224,7 +17263,7 @@
       <c r="Y602" s="3"/>
       <c r="Z602" s="3"/>
     </row>
-    <row r="603" ht="19.5" customHeight="1">
+    <row r="603" spans="1:26" ht="19.5" customHeight="1">
       <c r="A603" s="3"/>
       <c r="B603" s="3"/>
       <c r="C603" s="3"/>
@@ -17252,7 +17291,7 @@
       <c r="Y603" s="3"/>
       <c r="Z603" s="3"/>
     </row>
-    <row r="604" ht="19.5" customHeight="1">
+    <row r="604" spans="1:26" ht="19.5" customHeight="1">
       <c r="A604" s="3"/>
       <c r="B604" s="3"/>
       <c r="C604" s="3"/>
@@ -17280,7 +17319,7 @@
       <c r="Y604" s="3"/>
       <c r="Z604" s="3"/>
     </row>
-    <row r="605" ht="19.5" customHeight="1">
+    <row r="605" spans="1:26" ht="19.5" customHeight="1">
       <c r="A605" s="3"/>
       <c r="B605" s="3"/>
       <c r="C605" s="3"/>
@@ -17308,7 +17347,7 @@
       <c r="Y605" s="3"/>
       <c r="Z605" s="3"/>
     </row>
-    <row r="606" ht="19.5" customHeight="1">
+    <row r="606" spans="1:26" ht="19.5" customHeight="1">
       <c r="A606" s="3"/>
       <c r="B606" s="3"/>
       <c r="C606" s="3"/>
@@ -17336,7 +17375,7 @@
       <c r="Y606" s="3"/>
       <c r="Z606" s="3"/>
     </row>
-    <row r="607" ht="19.5" customHeight="1">
+    <row r="607" spans="1:26" ht="19.5" customHeight="1">
       <c r="A607" s="3"/>
       <c r="B607" s="3"/>
       <c r="C607" s="3"/>
@@ -17364,7 +17403,7 @@
       <c r="Y607" s="3"/>
       <c r="Z607" s="3"/>
     </row>
-    <row r="608" ht="19.5" customHeight="1">
+    <row r="608" spans="1:26" ht="19.5" customHeight="1">
       <c r="A608" s="3"/>
       <c r="B608" s="3"/>
       <c r="C608" s="3"/>
@@ -17392,7 +17431,7 @@
       <c r="Y608" s="3"/>
       <c r="Z608" s="3"/>
     </row>
-    <row r="609" ht="19.5" customHeight="1">
+    <row r="609" spans="1:26" ht="19.5" customHeight="1">
       <c r="A609" s="3"/>
       <c r="B609" s="3"/>
       <c r="C609" s="3"/>
@@ -17420,7 +17459,7 @@
       <c r="Y609" s="3"/>
       <c r="Z609" s="3"/>
     </row>
-    <row r="610" ht="19.5" customHeight="1">
+    <row r="610" spans="1:26" ht="19.5" customHeight="1">
       <c r="A610" s="3"/>
       <c r="B610" s="3"/>
       <c r="C610" s="3"/>
@@ -17448,7 +17487,7 @@
       <c r="Y610" s="3"/>
       <c r="Z610" s="3"/>
     </row>
-    <row r="611" ht="19.5" customHeight="1">
+    <row r="611" spans="1:26" ht="19.5" customHeight="1">
       <c r="A611" s="3"/>
       <c r="B611" s="3"/>
       <c r="C611" s="3"/>
@@ -17476,7 +17515,7 @@
       <c r="Y611" s="3"/>
       <c r="Z611" s="3"/>
     </row>
-    <row r="612" ht="19.5" customHeight="1">
+    <row r="612" spans="1:26" ht="19.5" customHeight="1">
       <c r="A612" s="3"/>
       <c r="B612" s="3"/>
       <c r="C612" s="3"/>
@@ -17504,7 +17543,7 @@
       <c r="Y612" s="3"/>
       <c r="Z612" s="3"/>
     </row>
-    <row r="613" ht="19.5" customHeight="1">
+    <row r="613" spans="1:26" ht="19.5" customHeight="1">
       <c r="A613" s="3"/>
       <c r="B613" s="3"/>
       <c r="C613" s="3"/>
@@ -17532,7 +17571,7 @@
       <c r="Y613" s="3"/>
       <c r="Z613" s="3"/>
     </row>
-    <row r="614" ht="19.5" customHeight="1">
+    <row r="614" spans="1:26" ht="19.5" customHeight="1">
       <c r="A614" s="3"/>
       <c r="B614" s="3"/>
       <c r="C614" s="3"/>
@@ -17560,7 +17599,7 @@
       <c r="Y614" s="3"/>
       <c r="Z614" s="3"/>
     </row>
-    <row r="615" ht="19.5" customHeight="1">
+    <row r="615" spans="1:26" ht="19.5" customHeight="1">
       <c r="A615" s="3"/>
       <c r="B615" s="3"/>
       <c r="C615" s="3"/>
@@ -17588,7 +17627,7 @@
       <c r="Y615" s="3"/>
       <c r="Z615" s="3"/>
     </row>
-    <row r="616" ht="19.5" customHeight="1">
+    <row r="616" spans="1:26" ht="19.5" customHeight="1">
       <c r="A616" s="3"/>
       <c r="B616" s="3"/>
       <c r="C616" s="3"/>
@@ -17616,7 +17655,7 @@
       <c r="Y616" s="3"/>
       <c r="Z616" s="3"/>
     </row>
-    <row r="617" ht="19.5" customHeight="1">
+    <row r="617" spans="1:26" ht="19.5" customHeight="1">
       <c r="A617" s="3"/>
       <c r="B617" s="3"/>
       <c r="C617" s="3"/>
@@ -17644,7 +17683,7 @@
       <c r="Y617" s="3"/>
       <c r="Z617" s="3"/>
     </row>
-    <row r="618" ht="19.5" customHeight="1">
+    <row r="618" spans="1:26" ht="19.5" customHeight="1">
       <c r="A618" s="3"/>
       <c r="B618" s="3"/>
       <c r="C618" s="3"/>
@@ -17672,7 +17711,7 @@
       <c r="Y618" s="3"/>
       <c r="Z618" s="3"/>
     </row>
-    <row r="619" ht="19.5" customHeight="1">
+    <row r="619" spans="1:26" ht="19.5" customHeight="1">
       <c r="A619" s="3"/>
       <c r="B619" s="3"/>
       <c r="C619" s="3"/>
@@ -17700,7 +17739,7 @@
       <c r="Y619" s="3"/>
       <c r="Z619" s="3"/>
     </row>
-    <row r="620" ht="19.5" customHeight="1">
+    <row r="620" spans="1:26" ht="19.5" customHeight="1">
       <c r="A620" s="3"/>
       <c r="B620" s="3"/>
       <c r="C620" s="3"/>
@@ -17728,7 +17767,7 @@
       <c r="Y620" s="3"/>
       <c r="Z620" s="3"/>
     </row>
-    <row r="621" ht="19.5" customHeight="1">
+    <row r="621" spans="1:26" ht="19.5" customHeight="1">
       <c r="A621" s="3"/>
       <c r="B621" s="3"/>
       <c r="C621" s="3"/>
@@ -17756,7 +17795,7 @@
       <c r="Y621" s="3"/>
       <c r="Z621" s="3"/>
     </row>
-    <row r="622" ht="19.5" customHeight="1">
+    <row r="622" spans="1:26" ht="19.5" customHeight="1">
       <c r="A622" s="3"/>
       <c r="B622" s="3"/>
       <c r="C622" s="3"/>
@@ -17784,7 +17823,7 @@
       <c r="Y622" s="3"/>
       <c r="Z622" s="3"/>
     </row>
-    <row r="623" ht="19.5" customHeight="1">
+    <row r="623" spans="1:26" ht="19.5" customHeight="1">
       <c r="A623" s="3"/>
       <c r="B623" s="3"/>
       <c r="C623" s="3"/>
@@ -17812,7 +17851,7 @@
       <c r="Y623" s="3"/>
       <c r="Z623" s="3"/>
     </row>
-    <row r="624" ht="19.5" customHeight="1">
+    <row r="624" spans="1:26" ht="19.5" customHeight="1">
       <c r="A624" s="3"/>
       <c r="B624" s="3"/>
       <c r="C624" s="3"/>
@@ -17840,7 +17879,7 @@
       <c r="Y624" s="3"/>
       <c r="Z624" s="3"/>
     </row>
-    <row r="625" ht="19.5" customHeight="1">
+    <row r="625" spans="1:26" ht="19.5" customHeight="1">
       <c r="A625" s="3"/>
       <c r="B625" s="3"/>
       <c r="C625" s="3"/>
@@ -17868,7 +17907,7 @@
       <c r="Y625" s="3"/>
       <c r="Z625" s="3"/>
     </row>
-    <row r="626" ht="19.5" customHeight="1">
+    <row r="626" spans="1:26" ht="19.5" customHeight="1">
       <c r="A626" s="3"/>
       <c r="B626" s="3"/>
       <c r="C626" s="3"/>
@@ -17896,7 +17935,7 @@
       <c r="Y626" s="3"/>
       <c r="Z626" s="3"/>
     </row>
-    <row r="627" ht="19.5" customHeight="1">
+    <row r="627" spans="1:26" ht="19.5" customHeight="1">
       <c r="A627" s="3"/>
       <c r="B627" s="3"/>
       <c r="C627" s="3"/>
@@ -17924,7 +17963,7 @@
       <c r="Y627" s="3"/>
       <c r="Z627" s="3"/>
     </row>
-    <row r="628" ht="19.5" customHeight="1">
+    <row r="628" spans="1:26" ht="19.5" customHeight="1">
       <c r="A628" s="3"/>
       <c r="B628" s="3"/>
       <c r="C628" s="3"/>
@@ -17952,7 +17991,7 @@
       <c r="Y628" s="3"/>
       <c r="Z628" s="3"/>
     </row>
-    <row r="629" ht="19.5" customHeight="1">
+    <row r="629" spans="1:26" ht="19.5" customHeight="1">
       <c r="A629" s="3"/>
       <c r="B629" s="3"/>
       <c r="C629" s="3"/>
@@ -17980,7 +18019,7 @@
       <c r="Y629" s="3"/>
       <c r="Z629" s="3"/>
     </row>
-    <row r="630" ht="19.5" customHeight="1">
+    <row r="630" spans="1:26" ht="19.5" customHeight="1">
       <c r="A630" s="3"/>
       <c r="B630" s="3"/>
       <c r="C630" s="3"/>
@@ -18008,7 +18047,7 @@
       <c r="Y630" s="3"/>
       <c r="Z630" s="3"/>
     </row>
-    <row r="631" ht="19.5" customHeight="1">
+    <row r="631" spans="1:26" ht="19.5" customHeight="1">
       <c r="A631" s="3"/>
       <c r="B631" s="3"/>
       <c r="C631" s="3"/>
@@ -18036,7 +18075,7 @@
       <c r="Y631" s="3"/>
       <c r="Z631" s="3"/>
     </row>
-    <row r="632" ht="19.5" customHeight="1">
+    <row r="632" spans="1:26" ht="19.5" customHeight="1">
       <c r="A632" s="3"/>
       <c r="B632" s="3"/>
       <c r="C632" s="3"/>
@@ -18064,7 +18103,7 @@
       <c r="Y632" s="3"/>
       <c r="Z632" s="3"/>
     </row>
-    <row r="633" ht="19.5" customHeight="1">
+    <row r="633" spans="1:26" ht="19.5" customHeight="1">
       <c r="A633" s="3"/>
       <c r="B633" s="3"/>
       <c r="C633" s="3"/>
@@ -18092,7 +18131,7 @@
       <c r="Y633" s="3"/>
       <c r="Z633" s="3"/>
     </row>
-    <row r="634" ht="19.5" customHeight="1">
+    <row r="634" spans="1:26" ht="19.5" customHeight="1">
       <c r="A634" s="3"/>
       <c r="B634" s="3"/>
       <c r="C634" s="3"/>
@@ -18120,7 +18159,7 @@
       <c r="Y634" s="3"/>
       <c r="Z634" s="3"/>
     </row>
-    <row r="635" ht="19.5" customHeight="1">
+    <row r="635" spans="1:26" ht="19.5" customHeight="1">
       <c r="A635" s="3"/>
       <c r="B635" s="3"/>
       <c r="C635" s="3"/>
@@ -18148,7 +18187,7 @@
       <c r="Y635" s="3"/>
       <c r="Z635" s="3"/>
     </row>
-    <row r="636" ht="19.5" customHeight="1">
+    <row r="636" spans="1:26" ht="19.5" customHeight="1">
       <c r="A636" s="3"/>
       <c r="B636" s="3"/>
       <c r="C636" s="3"/>
@@ -18176,7 +18215,7 @@
       <c r="Y636" s="3"/>
       <c r="Z636" s="3"/>
     </row>
-    <row r="637" ht="19.5" customHeight="1">
+    <row r="637" spans="1:26" ht="19.5" customHeight="1">
       <c r="A637" s="3"/>
       <c r="B637" s="3"/>
       <c r="C637" s="3"/>
@@ -18204,7 +18243,7 @@
       <c r="Y637" s="3"/>
       <c r="Z637" s="3"/>
     </row>
-    <row r="638" ht="19.5" customHeight="1">
+    <row r="638" spans="1:26" ht="19.5" customHeight="1">
       <c r="A638" s="3"/>
       <c r="B638" s="3"/>
       <c r="C638" s="3"/>
@@ -18232,7 +18271,7 @@
       <c r="Y638" s="3"/>
       <c r="Z638" s="3"/>
     </row>
-    <row r="639" ht="19.5" customHeight="1">
+    <row r="639" spans="1:26" ht="19.5" customHeight="1">
       <c r="A639" s="3"/>
       <c r="B639" s="3"/>
       <c r="C639" s="3"/>
@@ -18260,7 +18299,7 @@
       <c r="Y639" s="3"/>
       <c r="Z639" s="3"/>
     </row>
-    <row r="640" ht="19.5" customHeight="1">
+    <row r="640" spans="1:26" ht="19.5" customHeight="1">
       <c r="A640" s="3"/>
       <c r="B640" s="3"/>
       <c r="C640" s="3"/>
@@ -18288,7 +18327,7 @@
       <c r="Y640" s="3"/>
       <c r="Z640" s="3"/>
     </row>
-    <row r="641" ht="19.5" customHeight="1">
+    <row r="641" spans="1:26" ht="19.5" customHeight="1">
       <c r="A641" s="3"/>
       <c r="B641" s="3"/>
       <c r="C641" s="3"/>
@@ -18316,7 +18355,7 @@
       <c r="Y641" s="3"/>
       <c r="Z641" s="3"/>
     </row>
-    <row r="642" ht="19.5" customHeight="1">
+    <row r="642" spans="1:26" ht="19.5" customHeight="1">
       <c r="A642" s="3"/>
       <c r="B642" s="3"/>
       <c r="C642" s="3"/>
@@ -18344,7 +18383,7 @@
       <c r="Y642" s="3"/>
       <c r="Z642" s="3"/>
     </row>
-    <row r="643" ht="19.5" customHeight="1">
+    <row r="643" spans="1:26" ht="19.5" customHeight="1">
       <c r="A643" s="3"/>
       <c r="B643" s="3"/>
       <c r="C643" s="3"/>
@@ -18372,7 +18411,7 @@
       <c r="Y643" s="3"/>
       <c r="Z643" s="3"/>
     </row>
-    <row r="644" ht="19.5" customHeight="1">
+    <row r="644" spans="1:26" ht="19.5" customHeight="1">
       <c r="A644" s="3"/>
       <c r="B644" s="3"/>
       <c r="C644" s="3"/>
@@ -18400,7 +18439,7 @@
       <c r="Y644" s="3"/>
       <c r="Z644" s="3"/>
     </row>
-    <row r="645" ht="19.5" customHeight="1">
+    <row r="645" spans="1:26" ht="19.5" customHeight="1">
       <c r="A645" s="3"/>
       <c r="B645" s="3"/>
       <c r="C645" s="3"/>
@@ -18428,7 +18467,7 @@
       <c r="Y645" s="3"/>
       <c r="Z645" s="3"/>
     </row>
-    <row r="646" ht="19.5" customHeight="1">
+    <row r="646" spans="1:26" ht="19.5" customHeight="1">
       <c r="A646" s="3"/>
       <c r="B646" s="3"/>
       <c r="C646" s="3"/>
@@ -18456,7 +18495,7 @@
       <c r="Y646" s="3"/>
       <c r="Z646" s="3"/>
     </row>
-    <row r="647" ht="19.5" customHeight="1">
+    <row r="647" spans="1:26" ht="19.5" customHeight="1">
       <c r="A647" s="3"/>
       <c r="B647" s="3"/>
       <c r="C647" s="3"/>
@@ -18484,7 +18523,7 @@
       <c r="Y647" s="3"/>
       <c r="Z647" s="3"/>
     </row>
-    <row r="648" ht="19.5" customHeight="1">
+    <row r="648" spans="1:26" ht="19.5" customHeight="1">
       <c r="A648" s="3"/>
       <c r="B648" s="3"/>
       <c r="C648" s="3"/>
@@ -18512,7 +18551,7 @@
       <c r="Y648" s="3"/>
       <c r="Z648" s="3"/>
     </row>
-    <row r="649" ht="19.5" customHeight="1">
+    <row r="649" spans="1:26" ht="19.5" customHeight="1">
       <c r="A649" s="3"/>
       <c r="B649" s="3"/>
       <c r="C649" s="3"/>
@@ -18540,7 +18579,7 @@
       <c r="Y649" s="3"/>
       <c r="Z649" s="3"/>
     </row>
-    <row r="650" ht="19.5" customHeight="1">
+    <row r="650" spans="1:26" ht="19.5" customHeight="1">
       <c r="A650" s="3"/>
       <c r="B650" s="3"/>
       <c r="C650" s="3"/>
@@ -18568,7 +18607,7 @@
       <c r="Y650" s="3"/>
       <c r="Z650" s="3"/>
     </row>
-    <row r="651" ht="19.5" customHeight="1">
+    <row r="651" spans="1:26" ht="19.5" customHeight="1">
       <c r="A651" s="3"/>
       <c r="B651" s="3"/>
       <c r="C651" s="3"/>
@@ -18596,7 +18635,7 @@
       <c r="Y651" s="3"/>
       <c r="Z651" s="3"/>
     </row>
-    <row r="652" ht="19.5" customHeight="1">
+    <row r="652" spans="1:26" ht="19.5" customHeight="1">
       <c r="A652" s="3"/>
       <c r="B652" s="3"/>
       <c r="C652" s="3"/>
@@ -18624,7 +18663,7 @@
       <c r="Y652" s="3"/>
       <c r="Z652" s="3"/>
     </row>
-    <row r="653" ht="19.5" customHeight="1">
+    <row r="653" spans="1:26" ht="19.5" customHeight="1">
       <c r="A653" s="3"/>
       <c r="B653" s="3"/>
       <c r="C653" s="3"/>
@@ -18652,7 +18691,7 @@
       <c r="Y653" s="3"/>
       <c r="Z653" s="3"/>
     </row>
-    <row r="654" ht="19.5" customHeight="1">
+    <row r="654" spans="1:26" ht="19.5" customHeight="1">
       <c r="A654" s="3"/>
       <c r="B654" s="3"/>
       <c r="C654" s="3"/>
@@ -18680,7 +18719,7 @@
       <c r="Y654" s="3"/>
       <c r="Z654" s="3"/>
     </row>
-    <row r="655" ht="19.5" customHeight="1">
+    <row r="655" spans="1:26" ht="19.5" customHeight="1">
       <c r="A655" s="3"/>
       <c r="B655" s="3"/>
       <c r="C655" s="3"/>
@@ -18708,7 +18747,7 @@
       <c r="Y655" s="3"/>
       <c r="Z655" s="3"/>
     </row>
-    <row r="656" ht="19.5" customHeight="1">
+    <row r="656" spans="1:26" ht="19.5" customHeight="1">
       <c r="A656" s="3"/>
       <c r="B656" s="3"/>
       <c r="C656" s="3"/>
@@ -18736,7 +18775,7 @@
       <c r="Y656" s="3"/>
       <c r="Z656" s="3"/>
     </row>
-    <row r="657" ht="19.5" customHeight="1">
+    <row r="657" spans="1:26" ht="19.5" customHeight="1">
       <c r="A657" s="3"/>
       <c r="B657" s="3"/>
       <c r="C657" s="3"/>
@@ -18764,7 +18803,7 @@
       <c r="Y657" s="3"/>
       <c r="Z657" s="3"/>
     </row>
-    <row r="658" ht="19.5" customHeight="1">
+    <row r="658" spans="1:26" ht="19.5" customHeight="1">
       <c r="A658" s="3"/>
       <c r="B658" s="3"/>
       <c r="C658" s="3"/>
@@ -18792,7 +18831,7 @@
       <c r="Y658" s="3"/>
       <c r="Z658" s="3"/>
     </row>
-    <row r="659" ht="19.5" customHeight="1">
+    <row r="659" spans="1:26" ht="19.5" customHeight="1">
       <c r="A659" s="3"/>
       <c r="B659" s="3"/>
       <c r="C659" s="3"/>
@@ -18820,7 +18859,7 @@
       <c r="Y659" s="3"/>
       <c r="Z659" s="3"/>
     </row>
-    <row r="660" ht="19.5" customHeight="1">
+    <row r="660" spans="1:26" ht="19.5" customHeight="1">
       <c r="A660" s="3"/>
       <c r="B660" s="3"/>
       <c r="C660" s="3"/>
@@ -18848,7 +18887,7 @@
       <c r="Y660" s="3"/>
       <c r="Z660" s="3"/>
     </row>
-    <row r="661" ht="19.5" customHeight="1">
+    <row r="661" spans="1:26" ht="19.5" customHeight="1">
       <c r="A661" s="3"/>
       <c r="B661" s="3"/>
       <c r="C661" s="3"/>
@@ -18876,7 +18915,7 @@
       <c r="Y661" s="3"/>
       <c r="Z661" s="3"/>
     </row>
-    <row r="662" ht="19.5" customHeight="1">
+    <row r="662" spans="1:26" ht="19.5" customHeight="1">
       <c r="A662" s="3"/>
       <c r="B662" s="3"/>
       <c r="C662" s="3"/>
@@ -18904,7 +18943,7 @@
       <c r="Y662" s="3"/>
       <c r="Z662" s="3"/>
     </row>
-    <row r="663" ht="19.5" customHeight="1">
+    <row r="663" spans="1:26" ht="19.5" customHeight="1">
       <c r="A663" s="3"/>
       <c r="B663" s="3"/>
       <c r="C663" s="3"/>
@@ -18932,7 +18971,7 @@
       <c r="Y663" s="3"/>
       <c r="Z663" s="3"/>
     </row>
-    <row r="664" ht="19.5" customHeight="1">
+    <row r="664" spans="1:26" ht="19.5" customHeight="1">
       <c r="A664" s="3"/>
       <c r="B664" s="3"/>
       <c r="C664" s="3"/>
@@ -18960,7 +18999,7 @@
       <c r="Y664" s="3"/>
       <c r="Z664" s="3"/>
     </row>
-    <row r="665" ht="19.5" customHeight="1">
+    <row r="665" spans="1:26" ht="19.5" customHeight="1">
       <c r="A665" s="3"/>
       <c r="B665" s="3"/>
       <c r="C665" s="3"/>
@@ -18988,7 +19027,7 @@
       <c r="Y665" s="3"/>
       <c r="Z665" s="3"/>
     </row>
-    <row r="666" ht="19.5" customHeight="1">
+    <row r="666" spans="1:26" ht="19.5" customHeight="1">
       <c r="A666" s="3"/>
       <c r="B666" s="3"/>
       <c r="C666" s="3"/>
@@ -19016,7 +19055,7 @@
       <c r="Y666" s="3"/>
       <c r="Z666" s="3"/>
     </row>
-    <row r="667" ht="19.5" customHeight="1">
+    <row r="667" spans="1:26" ht="19.5" customHeight="1">
       <c r="A667" s="3"/>
       <c r="B667" s="3"/>
       <c r="C667" s="3"/>
@@ -19044,7 +19083,7 @@
       <c r="Y667" s="3"/>
       <c r="Z667" s="3"/>
     </row>
-    <row r="668" ht="19.5" customHeight="1">
+    <row r="668" spans="1:26" ht="19.5" customHeight="1">
       <c r="A668" s="3"/>
       <c r="B668" s="3"/>
       <c r="C668" s="3"/>
@@ -19072,7 +19111,7 @@
       <c r="Y668" s="3"/>
       <c r="Z668" s="3"/>
     </row>
-    <row r="669" ht="19.5" customHeight="1">
+    <row r="669" spans="1:26" ht="19.5" customHeight="1">
       <c r="A669" s="3"/>
       <c r="B669" s="3"/>
       <c r="C669" s="3"/>
@@ -19100,7 +19139,7 @@
       <c r="Y669" s="3"/>
       <c r="Z669" s="3"/>
     </row>
-    <row r="670" ht="19.5" customHeight="1">
+    <row r="670" spans="1:26" ht="19.5" customHeight="1">
       <c r="A670" s="3"/>
       <c r="B670" s="3"/>
       <c r="C670" s="3"/>
@@ -19128,7 +19167,7 @@
       <c r="Y670" s="3"/>
       <c r="Z670" s="3"/>
     </row>
-    <row r="671" ht="19.5" customHeight="1">
+    <row r="671" spans="1:26" ht="19.5" customHeight="1">
       <c r="A671" s="3"/>
       <c r="B671" s="3"/>
       <c r="C671" s="3"/>
@@ -19156,7 +19195,7 @@
       <c r="Y671" s="3"/>
       <c r="Z671" s="3"/>
     </row>
-    <row r="672" ht="19.5" customHeight="1">
+    <row r="672" spans="1:26" ht="19.5" customHeight="1">
       <c r="A672" s="3"/>
       <c r="B672" s="3"/>
       <c r="C672" s="3"/>
@@ -19184,7 +19223,7 @@
       <c r="Y672" s="3"/>
       <c r="Z672" s="3"/>
     </row>
-    <row r="673" ht="19.5" customHeight="1">
+    <row r="673" spans="1:26" ht="19.5" customHeight="1">
       <c r="A673" s="3"/>
       <c r="B673" s="3"/>
       <c r="C673" s="3"/>
@@ -19212,7 +19251,7 @@
       <c r="Y673" s="3"/>
       <c r="Z673" s="3"/>
     </row>
-    <row r="674" ht="19.5" customHeight="1">
+    <row r="674" spans="1:26" ht="19.5" customHeight="1">
       <c r="A674" s="3"/>
       <c r="B674" s="3"/>
       <c r="C674" s="3"/>
@@ -19240,7 +19279,7 @@
       <c r="Y674" s="3"/>
       <c r="Z674" s="3"/>
     </row>
-    <row r="675" ht="19.5" customHeight="1">
+    <row r="675" spans="1:26" ht="19.5" customHeight="1">
       <c r="A675" s="3"/>
       <c r="B675" s="3"/>
       <c r="C675" s="3"/>
@@ -19268,7 +19307,7 @@
       <c r="Y675" s="3"/>
       <c r="Z675" s="3"/>
     </row>
-    <row r="676" ht="19.5" customHeight="1">
+    <row r="676" spans="1:26" ht="19.5" customHeight="1">
       <c r="A676" s="3"/>
       <c r="B676" s="3"/>
       <c r="C676" s="3"/>
@@ -19296,7 +19335,7 @@
       <c r="Y676" s="3"/>
       <c r="Z676" s="3"/>
     </row>
-    <row r="677" ht="19.5" customHeight="1">
+    <row r="677" spans="1:26" ht="19.5" customHeight="1">
       <c r="A677" s="3"/>
       <c r="B677" s="3"/>
       <c r="C677" s="3"/>
@@ -19324,7 +19363,7 @@
       <c r="Y677" s="3"/>
       <c r="Z677" s="3"/>
     </row>
-    <row r="678" ht="19.5" customHeight="1">
+    <row r="678" spans="1:26" ht="19.5" customHeight="1">
       <c r="A678" s="3"/>
       <c r="B678" s="3"/>
       <c r="C678" s="3"/>
@@ -19352,7 +19391,7 @@
       <c r="Y678" s="3"/>
       <c r="Z678" s="3"/>
     </row>
-    <row r="679" ht="19.5" customHeight="1">
+    <row r="679" spans="1:26" ht="19.5" customHeight="1">
       <c r="A679" s="3"/>
       <c r="B679" s="3"/>
       <c r="C679" s="3"/>
@@ -19380,7 +19419,7 @@
       <c r="Y679" s="3"/>
       <c r="Z679" s="3"/>
     </row>
-    <row r="680" ht="19.5" customHeight="1">
+    <row r="680" spans="1:26" ht="19.5" customHeight="1">
       <c r="A680" s="3"/>
       <c r="B680" s="3"/>
       <c r="C680" s="3"/>
@@ -19408,7 +19447,7 @@
       <c r="Y680" s="3"/>
       <c r="Z680" s="3"/>
     </row>
-    <row r="681" ht="19.5" customHeight="1">
+    <row r="681" spans="1:26" ht="19.5" customHeight="1">
       <c r="A681" s="3"/>
       <c r="B681" s="3"/>
       <c r="C681" s="3"/>
@@ -19436,7 +19475,7 @@
       <c r="Y681" s="3"/>
       <c r="Z681" s="3"/>
     </row>
-    <row r="682" ht="19.5" customHeight="1">
+    <row r="682" spans="1:26" ht="19.5" customHeight="1">
       <c r="A682" s="3"/>
       <c r="B682" s="3"/>
       <c r="C682" s="3"/>
@@ -19464,7 +19503,7 @@
       <c r="Y682" s="3"/>
       <c r="Z682" s="3"/>
     </row>
-    <row r="683" ht="19.5" customHeight="1">
+    <row r="683" spans="1:26" ht="19.5" customHeight="1">
       <c r="A683" s="3"/>
       <c r="B683" s="3"/>
       <c r="C683" s="3"/>
@@ -19492,7 +19531,7 @@
       <c r="Y683" s="3"/>
       <c r="Z683" s="3"/>
     </row>
-    <row r="684" ht="19.5" customHeight="1">
+    <row r="684" spans="1:26" ht="19.5" customHeight="1">
       <c r="A684" s="3"/>
       <c r="B684" s="3"/>
       <c r="C684" s="3"/>
@@ -19520,7 +19559,7 @@
       <c r="Y684" s="3"/>
       <c r="Z684" s="3"/>
     </row>
-    <row r="685" ht="19.5" customHeight="1">
+    <row r="685" spans="1:26" ht="19.5" customHeight="1">
       <c r="A685" s="3"/>
       <c r="B685" s="3"/>
       <c r="C685" s="3"/>
@@ -19548,7 +19587,7 @@
       <c r="Y685" s="3"/>
       <c r="Z685" s="3"/>
     </row>
-    <row r="686" ht="19.5" customHeight="1">
+    <row r="686" spans="1:26" ht="19.5" customHeight="1">
       <c r="A686" s="3"/>
       <c r="B686" s="3"/>
       <c r="C686" s="3"/>
@@ -19576,7 +19615,7 @@
       <c r="Y686" s="3"/>
       <c r="Z686" s="3"/>
     </row>
-    <row r="687" ht="19.5" customHeight="1">
+    <row r="687" spans="1:26" ht="19.5" customHeight="1">
       <c r="A687" s="3"/>
       <c r="B687" s="3"/>
       <c r="C687" s="3"/>
@@ -19604,7 +19643,7 @@
       <c r="Y687" s="3"/>
       <c r="Z687" s="3"/>
     </row>
-    <row r="688" ht="19.5" customHeight="1">
+    <row r="688" spans="1:26" ht="19.5" customHeight="1">
       <c r="A688" s="3"/>
       <c r="B688" s="3"/>
       <c r="C688" s="3"/>
@@ -19632,7 +19671,7 @@
       <c r="Y688" s="3"/>
       <c r="Z688" s="3"/>
     </row>
-    <row r="689" ht="19.5" customHeight="1">
+    <row r="689" spans="1:26" ht="19.5" customHeight="1">
       <c r="A689" s="3"/>
       <c r="B689" s="3"/>
       <c r="C689" s="3"/>
@@ -19660,7 +19699,7 @@
       <c r="Y689" s="3"/>
       <c r="Z689" s="3"/>
     </row>
-    <row r="690" ht="19.5" customHeight="1">
+    <row r="690" spans="1:26" ht="19.5" customHeight="1">
       <c r="A690" s="3"/>
       <c r="B690" s="3"/>
       <c r="C690" s="3"/>
@@ -19688,7 +19727,7 @@
       <c r="Y690" s="3"/>
       <c r="Z690" s="3"/>
     </row>
-    <row r="691" ht="19.5" customHeight="1">
+    <row r="691" spans="1:26" ht="19.5" customHeight="1">
       <c r="A691" s="3"/>
       <c r="B691" s="3"/>
       <c r="C691" s="3"/>
@@ -19716,7 +19755,7 @@
       <c r="Y691" s="3"/>
       <c r="Z691" s="3"/>
     </row>
-    <row r="692" ht="19.5" customHeight="1">
+    <row r="692" spans="1:26" ht="19.5" customHeight="1">
       <c r="A692" s="3"/>
       <c r="B692" s="3"/>
       <c r="C692" s="3"/>
@@ -19744,7 +19783,7 @@
       <c r="Y692" s="3"/>
       <c r="Z692" s="3"/>
     </row>
-    <row r="693" ht="19.5" customHeight="1">
+    <row r="693" spans="1:26" ht="19.5" customHeight="1">
       <c r="A693" s="3"/>
       <c r="B693" s="3"/>
       <c r="C693" s="3"/>
@@ -19772,7 +19811,7 @@
       <c r="Y693" s="3"/>
       <c r="Z693" s="3"/>
     </row>
-    <row r="694" ht="19.5" customHeight="1">
+    <row r="694" spans="1:26" ht="19.5" customHeight="1">
       <c r="A694" s="3"/>
       <c r="B694" s="3"/>
       <c r="C694" s="3"/>
@@ -19800,7 +19839,7 @@
       <c r="Y694" s="3"/>
       <c r="Z694" s="3"/>
     </row>
-    <row r="695" ht="19.5" customHeight="1">
+    <row r="695" spans="1:26" ht="19.5" customHeight="1">
       <c r="A695" s="3"/>
       <c r="B695" s="3"/>
       <c r="C695" s="3"/>
@@ -19828,7 +19867,7 @@
       <c r="Y695" s="3"/>
       <c r="Z695" s="3"/>
     </row>
-    <row r="696" ht="19.5" customHeight="1">
+    <row r="696" spans="1:26" ht="19.5" customHeight="1">
       <c r="A696" s="3"/>
       <c r="B696" s="3"/>
       <c r="C696" s="3"/>
@@ -19856,7 +19895,7 @@
       <c r="Y696" s="3"/>
       <c r="Z696" s="3"/>
     </row>
-    <row r="697" ht="19.5" customHeight="1">
+    <row r="697" spans="1:26" ht="19.5" customHeight="1">
       <c r="A697" s="3"/>
       <c r="B697" s="3"/>
       <c r="C697" s="3"/>
@@ -19884,7 +19923,7 @@
       <c r="Y697" s="3"/>
       <c r="Z697" s="3"/>
     </row>
-    <row r="698" ht="19.5" customHeight="1">
+    <row r="698" spans="1:26" ht="19.5" customHeight="1">
       <c r="A698" s="3"/>
       <c r="B698" s="3"/>
       <c r="C698" s="3"/>
@@ -19912,7 +19951,7 @@
       <c r="Y698" s="3"/>
       <c r="Z698" s="3"/>
     </row>
-    <row r="699" ht="19.5" customHeight="1">
+    <row r="699" spans="1:26" ht="19.5" customHeight="1">
       <c r="A699" s="3"/>
       <c r="B699" s="3"/>
       <c r="C699" s="3"/>
@@ -19940,7 +19979,7 @@
       <c r="Y699" s="3"/>
       <c r="Z699" s="3"/>
     </row>
-    <row r="700" ht="19.5" customHeight="1">
+    <row r="700" spans="1:26" ht="19.5" customHeight="1">
       <c r="A700" s="3"/>
       <c r="B700" s="3"/>
       <c r="C700" s="3"/>
@@ -19968,7 +20007,7 @@
       <c r="Y700" s="3"/>
       <c r="Z700" s="3"/>
     </row>
-    <row r="701" ht="19.5" customHeight="1">
+    <row r="701" spans="1:26" ht="19.5" customHeight="1">
       <c r="A701" s="3"/>
       <c r="B701" s="3"/>
       <c r="C701" s="3"/>
@@ -19996,7 +20035,7 @@
       <c r="Y701" s="3"/>
       <c r="Z701" s="3"/>
     </row>
-    <row r="702" ht="19.5" customHeight="1">
+    <row r="702" spans="1:26" ht="19.5" customHeight="1">
       <c r="A702" s="3"/>
       <c r="B702" s="3"/>
       <c r="C702" s="3"/>
@@ -20024,7 +20063,7 @@
       <c r="Y702" s="3"/>
       <c r="Z702" s="3"/>
     </row>
-    <row r="703" ht="19.5" customHeight="1">
+    <row r="703" spans="1:26" ht="19.5" customHeight="1">
       <c r="A703" s="3"/>
       <c r="B703" s="3"/>
       <c r="C703" s="3"/>
@@ -20052,7 +20091,7 @@
       <c r="Y703" s="3"/>
       <c r="Z703" s="3"/>
     </row>
-    <row r="704" ht="19.5" customHeight="1">
+    <row r="704" spans="1:26" ht="19.5" customHeight="1">
       <c r="A704" s="3"/>
       <c r="B704" s="3"/>
       <c r="C704" s="3"/>
@@ -20080,7 +20119,7 @@
       <c r="Y704" s="3"/>
       <c r="Z704" s="3"/>
     </row>
-    <row r="705" ht="19.5" customHeight="1">
+    <row r="705" spans="1:26" ht="19.5" customHeight="1">
       <c r="A705" s="3"/>
       <c r="B705" s="3"/>
       <c r="C705" s="3"/>
@@ -20108,7 +20147,7 @@
       <c r="Y705" s="3"/>
       <c r="Z705" s="3"/>
     </row>
-    <row r="706" ht="19.5" customHeight="1">
+    <row r="706" spans="1:26" ht="19.5" customHeight="1">
       <c r="A706" s="3"/>
       <c r="B706" s="3"/>
       <c r="C706" s="3"/>
@@ -20136,7 +20175,7 @@
       <c r="Y706" s="3"/>
       <c r="Z706" s="3"/>
     </row>
-    <row r="707" ht="19.5" customHeight="1">
+    <row r="707" spans="1:26" ht="19.5" customHeight="1">
       <c r="A707" s="3"/>
       <c r="B707" s="3"/>
       <c r="C707" s="3"/>
@@ -20164,7 +20203,7 @@
       <c r="Y707" s="3"/>
       <c r="Z707" s="3"/>
     </row>
-    <row r="708" ht="19.5" customHeight="1">
+    <row r="708" spans="1:26" ht="19.5" customHeight="1">
       <c r="A708" s="3"/>
       <c r="B708" s="3"/>
       <c r="C708" s="3"/>
@@ -20192,7 +20231,7 @@
       <c r="Y708" s="3"/>
       <c r="Z708" s="3"/>
     </row>
-    <row r="709" ht="19.5" customHeight="1">
+    <row r="709" spans="1:26" ht="19.5" customHeight="1">
       <c r="A709" s="3"/>
       <c r="B709" s="3"/>
       <c r="C709" s="3"/>
@@ -20220,7 +20259,7 @@
       <c r="Y709" s="3"/>
       <c r="Z709" s="3"/>
     </row>
-    <row r="710" ht="19.5" customHeight="1">
+    <row r="710" spans="1:26" ht="19.5" customHeight="1">
       <c r="A710" s="3"/>
       <c r="B710" s="3"/>
       <c r="C710" s="3"/>
@@ -20248,7 +20287,7 @@
       <c r="Y710" s="3"/>
       <c r="Z710" s="3"/>
     </row>
-    <row r="711" ht="19.5" customHeight="1">
+    <row r="711" spans="1:26" ht="19.5" customHeight="1">
       <c r="A711" s="3"/>
       <c r="B711" s="3"/>
       <c r="C711" s="3"/>
@@ -20276,7 +20315,7 @@
       <c r="Y711" s="3"/>
       <c r="Z711" s="3"/>
     </row>
-    <row r="712" ht="19.5" customHeight="1">
+    <row r="712" spans="1:26" ht="19.5" customHeight="1">
       <c r="A712" s="3"/>
       <c r="B712" s="3"/>
       <c r="C712" s="3"/>
@@ -20304,7 +20343,7 @@
       <c r="Y712" s="3"/>
       <c r="Z712" s="3"/>
     </row>
-    <row r="713" ht="19.5" customHeight="1">
+    <row r="713" spans="1:26" ht="19.5" customHeight="1">
       <c r="A713" s="3"/>
       <c r="B713" s="3"/>
       <c r="C713" s="3"/>
@@ -20332,7 +20371,7 @@
       <c r="Y713" s="3"/>
       <c r="Z713" s="3"/>
     </row>
-    <row r="714" ht="19.5" customHeight="1">
+    <row r="714" spans="1:26" ht="19.5" customHeight="1">
       <c r="A714" s="3"/>
       <c r="B714" s="3"/>
       <c r="C714" s="3"/>
@@ -20360,7 +20399,7 @@
       <c r="Y714" s="3"/>
       <c r="Z714" s="3"/>
     </row>
-    <row r="715" ht="19.5" customHeight="1">
+    <row r="715" spans="1:26" ht="19.5" customHeight="1">
       <c r="A715" s="3"/>
       <c r="B715" s="3"/>
       <c r="C715" s="3"/>
@@ -20388,7 +20427,7 @@
       <c r="Y715" s="3"/>
       <c r="Z715" s="3"/>
     </row>
-    <row r="716" ht="19.5" customHeight="1">
+    <row r="716" spans="1:26" ht="19.5" customHeight="1">
       <c r="A716" s="3"/>
       <c r="B716" s="3"/>
       <c r="C716" s="3"/>
@@ -20416,7 +20455,7 @@
       <c r="Y716" s="3"/>
       <c r="Z716" s="3"/>
     </row>
-    <row r="717" ht="19.5" customHeight="1">
+    <row r="717" spans="1:26" ht="19.5" customHeight="1">
       <c r="A717" s="3"/>
       <c r="B717" s="3"/>
       <c r="C717" s="3"/>
@@ -20444,7 +20483,7 @@
       <c r="Y717" s="3"/>
       <c r="Z717" s="3"/>
     </row>
-    <row r="718" ht="19.5" customHeight="1">
+    <row r="718" spans="1:26" ht="19.5" customHeight="1">
       <c r="A718" s="3"/>
       <c r="B718" s="3"/>
       <c r="C718" s="3"/>
@@ -20472,7 +20511,7 @@
       <c r="Y718" s="3"/>
       <c r="Z718" s="3"/>
     </row>
-    <row r="719" ht="19.5" customHeight="1">
+    <row r="719" spans="1:26" ht="19.5" customHeight="1">
       <c r="A719" s="3"/>
       <c r="B719" s="3"/>
       <c r="C719" s="3"/>
@@ -20500,7 +20539,7 @@
       <c r="Y719" s="3"/>
       <c r="Z719" s="3"/>
     </row>
-    <row r="720" ht="19.5" customHeight="1">
+    <row r="720" spans="1:26" ht="19.5" customHeight="1">
       <c r="A720" s="3"/>
       <c r="B720" s="3"/>
       <c r="C720" s="3"/>
@@ -20528,7 +20567,7 @@
       <c r="Y720" s="3"/>
       <c r="Z720" s="3"/>
     </row>
-    <row r="721" ht="19.5" customHeight="1">
+    <row r="721" spans="1:26" ht="19.5" customHeight="1">
       <c r="A721" s="3"/>
       <c r="B721" s="3"/>
       <c r="C721" s="3"/>
@@ -20556,7 +20595,7 @@
       <c r="Y721" s="3"/>
       <c r="Z721" s="3"/>
     </row>
-    <row r="722" ht="19.5" customHeight="1">
+    <row r="722" spans="1:26" ht="19.5" customHeight="1">
       <c r="A722" s="3"/>
       <c r="B722" s="3"/>
       <c r="C722" s="3"/>
@@ -20584,7 +20623,7 @@
       <c r="Y722" s="3"/>
       <c r="Z722" s="3"/>
     </row>
-    <row r="723" ht="19.5" customHeight="1">
+    <row r="723" spans="1:26" ht="19.5" customHeight="1">
       <c r="A723" s="3"/>
       <c r="B723" s="3"/>
       <c r="C723" s="3"/>
@@ -20612,7 +20651,7 @@
       <c r="Y723" s="3"/>
       <c r="Z723" s="3"/>
     </row>
-    <row r="724" ht="19.5" customHeight="1">
+    <row r="724" spans="1:26" ht="19.5" customHeight="1">
       <c r="A724" s="3"/>
       <c r="B724" s="3"/>
       <c r="C724" s="3"/>
@@ -20640,7 +20679,7 @@
       <c r="Y724" s="3"/>
       <c r="Z724" s="3"/>
     </row>
-    <row r="725" ht="19.5" customHeight="1">
+    <row r="725" spans="1:26" ht="19.5" customHeight="1">
       <c r="A725" s="3"/>
       <c r="B725" s="3"/>
       <c r="C725" s="3"/>
@@ -20668,7 +20707,7 @@
       <c r="Y725" s="3"/>
       <c r="Z725" s="3"/>
     </row>
-    <row r="726" ht="19.5" customHeight="1">
+    <row r="726" spans="1:26" ht="19.5" customHeight="1">
       <c r="A726" s="3"/>
       <c r="B726" s="3"/>
       <c r="C726" s="3"/>
@@ -20696,7 +20735,7 @@
       <c r="Y726" s="3"/>
       <c r="Z726" s="3"/>
     </row>
-    <row r="727" ht="19.5" customHeight="1">
+    <row r="727" spans="1:26" ht="19.5" customHeight="1">
       <c r="A727" s="3"/>
       <c r="B727" s="3"/>
       <c r="C727" s="3"/>
@@ -20724,7 +20763,7 @@
       <c r="Y727" s="3"/>
       <c r="Z727" s="3"/>
     </row>
-    <row r="728" ht="19.5" customHeight="1">
+    <row r="728" spans="1:26" ht="19.5" customHeight="1">
       <c r="A728" s="3"/>
       <c r="B728" s="3"/>
       <c r="C728" s="3"/>
@@ -20752,7 +20791,7 @@
       <c r="Y728" s="3"/>
       <c r="Z728" s="3"/>
     </row>
-    <row r="729" ht="19.5" customHeight="1">
+    <row r="729" spans="1:26" ht="19.5" customHeight="1">
       <c r="A729" s="3"/>
       <c r="B729" s="3"/>
       <c r="C729" s="3"/>
@@ -20780,7 +20819,7 @@
       <c r="Y729" s="3"/>
       <c r="Z729" s="3"/>
     </row>
-    <row r="730" ht="19.5" customHeight="1">
+    <row r="730" spans="1:26" ht="19.5" customHeight="1">
       <c r="A730" s="3"/>
       <c r="B730" s="3"/>
       <c r="C730" s="3"/>
@@ -20808,7 +20847,7 @@
       <c r="Y730" s="3"/>
       <c r="Z730" s="3"/>
     </row>
-    <row r="731" ht="19.5" customHeight="1">
+    <row r="731" spans="1:26" ht="19.5" customHeight="1">
       <c r="A731" s="3"/>
       <c r="B731" s="3"/>
       <c r="C731" s="3"/>
@@ -20836,7 +20875,7 @@
       <c r="Y731" s="3"/>
       <c r="Z731" s="3"/>
     </row>
-    <row r="732" ht="19.5" customHeight="1">
+    <row r="732" spans="1:26" ht="19.5" customHeight="1">
       <c r="A732" s="3"/>
       <c r="B732" s="3"/>
       <c r="C732" s="3"/>
@@ -20864,7 +20903,7 @@
       <c r="Y732" s="3"/>
       <c r="Z732" s="3"/>
     </row>
-    <row r="733" ht="19.5" customHeight="1">
+    <row r="733" spans="1:26" ht="19.5" customHeight="1">
       <c r="A733" s="3"/>
       <c r="B733" s="3"/>
       <c r="C733" s="3"/>
@@ -20892,7 +20931,7 @@
       <c r="Y733" s="3"/>
       <c r="Z733" s="3"/>
     </row>
-    <row r="734" ht="19.5" customHeight="1">
+    <row r="734" spans="1:26" ht="19.5" customHeight="1">
       <c r="A734" s="3"/>
       <c r="B734" s="3"/>
       <c r="C734" s="3"/>
@@ -20920,7 +20959,7 @@
       <c r="Y734" s="3"/>
       <c r="Z734" s="3"/>
     </row>
-    <row r="735" ht="19.5" customHeight="1">
+    <row r="735" spans="1:26" ht="19.5" customHeight="1">
       <c r="A735" s="3"/>
       <c r="B735" s="3"/>
       <c r="C735" s="3"/>
@@ -20948,7 +20987,7 @@
       <c r="Y735" s="3"/>
       <c r="Z735" s="3"/>
     </row>
-    <row r="736" ht="19.5" customHeight="1">
+    <row r="736" spans="1:26" ht="19.5" customHeight="1">
       <c r="A736" s="3"/>
       <c r="B736" s="3"/>
       <c r="C736" s="3"/>
@@ -20976,7 +21015,7 @@
       <c r="Y736" s="3"/>
       <c r="Z736" s="3"/>
     </row>
-    <row r="737" ht="19.5" customHeight="1">
+    <row r="737" spans="1:26" ht="19.5" customHeight="1">
       <c r="A737" s="3"/>
       <c r="B737" s="3"/>
       <c r="C737" s="3"/>
@@ -21004,7 +21043,7 @@
       <c r="Y737" s="3"/>
       <c r="Z737" s="3"/>
     </row>
-    <row r="738" ht="19.5" customHeight="1">
+    <row r="738" spans="1:26" ht="19.5" customHeight="1">
       <c r="A738" s="3"/>
       <c r="B738" s="3"/>
       <c r="C738" s="3"/>
@@ -21032,7 +21071,7 @@
       <c r="Y738" s="3"/>
       <c r="Z738" s="3"/>
     </row>
-    <row r="739" ht="19.5" customHeight="1">
+    <row r="739" spans="1:26" ht="19.5" customHeight="1">
       <c r="A739" s="3"/>
       <c r="B739" s="3"/>
       <c r="C739" s="3"/>
@@ -21060,7 +21099,7 @@
       <c r="Y739" s="3"/>
       <c r="Z739" s="3"/>
     </row>
-    <row r="740" ht="19.5" customHeight="1">
+    <row r="740" spans="1:26" ht="19.5" customHeight="1">
       <c r="A740" s="3"/>
       <c r="B740" s="3"/>
       <c r="C740" s="3"/>
@@ -21088,7 +21127,7 @@
       <c r="Y740" s="3"/>
       <c r="Z740" s="3"/>
     </row>
-    <row r="741" ht="19.5" customHeight="1">
+    <row r="741" spans="1:26" ht="19.5" customHeight="1">
       <c r="A741" s="3"/>
       <c r="B741" s="3"/>
       <c r="C741" s="3"/>
@@ -21116,7 +21155,7 @@
       <c r="Y741" s="3"/>
       <c r="Z741" s="3"/>
     </row>
-    <row r="742" ht="19.5" customHeight="1">
+    <row r="742" spans="1:26" ht="19.5" customHeight="1">
       <c r="A742" s="3"/>
       <c r="B742" s="3"/>
       <c r="C742" s="3"/>
@@ -21144,7 +21183,7 @@
       <c r="Y742" s="3"/>
       <c r="Z742" s="3"/>
     </row>
-    <row r="743" ht="19.5" customHeight="1">
+    <row r="743" spans="1:26" ht="19.5" customHeight="1">
       <c r="A743" s="3"/>
       <c r="B743" s="3"/>
       <c r="C743" s="3"/>
@@ -21172,7 +21211,7 @@
       <c r="Y743" s="3"/>
       <c r="Z743" s="3"/>
     </row>
-    <row r="744" ht="19.5" customHeight="1">
+    <row r="744" spans="1:26" ht="19.5" customHeight="1">
       <c r="A744" s="3"/>
       <c r="B744" s="3"/>
       <c r="C744" s="3"/>
@@ -21200,7 +21239,7 @@
       <c r="Y744" s="3"/>
       <c r="Z744" s="3"/>
     </row>
-    <row r="745" ht="19.5" customHeight="1">
+    <row r="745" spans="1:26" ht="19.5" customHeight="1">
       <c r="A745" s="3"/>
       <c r="B745" s="3"/>
       <c r="C745" s="3"/>
@@ -21228,7 +21267,7 @@
       <c r="Y745" s="3"/>
       <c r="Z745" s="3"/>
     </row>
-    <row r="746" ht="19.5" customHeight="1">
+    <row r="746" spans="1:26" ht="19.5" customHeight="1">
       <c r="A746" s="3"/>
       <c r="B746" s="3"/>
       <c r="C746" s="3"/>
@@ -21256,7 +21295,7 @@
       <c r="Y746" s="3"/>
       <c r="Z746" s="3"/>
     </row>
-    <row r="747" ht="19.5" customHeight="1">
+    <row r="747" spans="1:26" ht="19.5" customHeight="1">
       <c r="A747" s="3"/>
       <c r="B747" s="3"/>
       <c r="C747" s="3"/>
@@ -21284,7 +21323,7 @@
       <c r="Y747" s="3"/>
       <c r="Z747" s="3"/>
     </row>
-    <row r="748" ht="19.5" customHeight="1">
+    <row r="748" spans="1:26" ht="19.5" customHeight="1">
       <c r="A748" s="3"/>
       <c r="B748" s="3"/>
       <c r="C748" s="3"/>
@@ -21312,7 +21351,7 @@
       <c r="Y748" s="3"/>
       <c r="Z748" s="3"/>
     </row>
-    <row r="749" ht="19.5" customHeight="1">
+    <row r="749" spans="1:26" ht="19.5" customHeight="1">
       <c r="A749" s="3"/>
       <c r="B749" s="3"/>
       <c r="C749" s="3"/>
@@ -21340,7 +21379,7 @@
       <c r="Y749" s="3"/>
       <c r="Z749" s="3"/>
     </row>
-    <row r="750" ht="19.5" customHeight="1">
+    <row r="750" spans="1:26" ht="19.5" customHeight="1">
       <c r="A750" s="3"/>
       <c r="B750" s="3"/>
       <c r="C750" s="3"/>
@@ -21368,7 +21407,7 @@
       <c r="Y750" s="3"/>
       <c r="Z750" s="3"/>
     </row>
-    <row r="751" ht="19.5" customHeight="1">
+    <row r="751" spans="1:26" ht="19.5" customHeight="1">
       <c r="A751" s="3"/>
       <c r="B751" s="3"/>
       <c r="C751" s="3"/>
@@ -21396,7 +21435,7 @@
       <c r="Y751" s="3"/>
       <c r="Z751" s="3"/>
     </row>
-    <row r="752" ht="19.5" customHeight="1">
+    <row r="752" spans="1:26" ht="19.5" customHeight="1">
       <c r="A752" s="3"/>
       <c r="B752" s="3"/>
       <c r="C752" s="3"/>
@@ -21424,7 +21463,7 @@
       <c r="Y752" s="3"/>
       <c r="Z752" s="3"/>
     </row>
-    <row r="753" ht="19.5" customHeight="1">
+    <row r="753" spans="1:26" ht="19.5" customHeight="1">
       <c r="A753" s="3"/>
       <c r="B753" s="3"/>
       <c r="C753" s="3"/>
@@ -21452,7 +21491,7 @@
       <c r="Y753" s="3"/>
       <c r="Z753" s="3"/>
     </row>
-    <row r="754" ht="19.5" customHeight="1">
+    <row r="754" spans="1:26" ht="19.5" customHeight="1">
       <c r="A754" s="3"/>
       <c r="B754" s="3"/>
       <c r="C754" s="3"/>
@@ -21480,7 +21519,7 @@
       <c r="Y754" s="3"/>
       <c r="Z754" s="3"/>
     </row>
-    <row r="755" ht="19.5" customHeight="1">
+    <row r="755" spans="1:26" ht="19.5" customHeight="1">
       <c r="A755" s="3"/>
       <c r="B755" s="3"/>
       <c r="C755" s="3"/>
@@ -21508,7 +21547,7 @@
       <c r="Y755" s="3"/>
       <c r="Z755" s="3"/>
     </row>
-    <row r="756" ht="19.5" customHeight="1">
+    <row r="756" spans="1:26" ht="19.5" customHeight="1">
       <c r="A756" s="3"/>
       <c r="B756" s="3"/>
       <c r="C756" s="3"/>
@@ -21536,7 +21575,7 @@
       <c r="Y756" s="3"/>
       <c r="Z756" s="3"/>
     </row>
-    <row r="757" ht="19.5" customHeight="1">
+    <row r="757" spans="1:26" ht="19.5" customHeight="1">
       <c r="A757" s="3"/>
       <c r="B757" s="3"/>
       <c r="C757" s="3"/>
@@ -21564,7 +21603,7 @@
       <c r="Y757" s="3"/>
       <c r="Z757" s="3"/>
     </row>
-    <row r="758" ht="19.5" customHeight="1">
+    <row r="758" spans="1:26" ht="19.5" customHeight="1">
       <c r="A758" s="3"/>
       <c r="B758" s="3"/>
       <c r="C758" s="3"/>
@@ -21592,7 +21631,7 @@
       <c r="Y758" s="3"/>
       <c r="Z758" s="3"/>
     </row>
-    <row r="759" ht="19.5" customHeight="1">
+    <row r="759" spans="1:26" ht="19.5" customHeight="1">
       <c r="A759" s="3"/>
       <c r="B759" s="3"/>
       <c r="C759" s="3"/>
@@ -21620,7 +21659,7 @@
       <c r="Y759" s="3"/>
       <c r="Z759" s="3"/>
     </row>
-    <row r="760" ht="19.5" customHeight="1">
+    <row r="760" spans="1:26" ht="19.5" customHeight="1">
       <c r="A760" s="3"/>
       <c r="B760" s="3"/>
       <c r="C760" s="3"/>
@@ -21648,7 +21687,7 @@
       <c r="Y760" s="3"/>
       <c r="Z760" s="3"/>
     </row>
-    <row r="761" ht="19.5" customHeight="1">
+    <row r="761" spans="1:26" ht="19.5" customHeight="1">
       <c r="A761" s="3"/>
       <c r="B761" s="3"/>
       <c r="C761" s="3"/>
@@ -21676,7 +21715,7 @@
       <c r="Y761" s="3"/>
       <c r="Z761" s="3"/>
     </row>
-    <row r="762" ht="19.5" customHeight="1">
+    <row r="762" spans="1:26" ht="19.5" customHeight="1">
       <c r="A762" s="3"/>
       <c r="B762" s="3"/>
       <c r="C762" s="3"/>
@@ -21704,7 +21743,7 @@
       <c r="Y762" s="3"/>
       <c r="Z762" s="3"/>
     </row>
-    <row r="763" ht="19.5" customHeight="1">
+    <row r="763" spans="1:26" ht="19.5" customHeight="1">
       <c r="A763" s="3"/>
       <c r="B763" s="3"/>
       <c r="C763" s="3"/>
@@ -21732,7 +21771,7 @@
       <c r="Y763" s="3"/>
       <c r="Z763" s="3"/>
     </row>
-    <row r="764" ht="19.5" customHeight="1">
+    <row r="764" spans="1:26" ht="19.5" customHeight="1">
       <c r="A764" s="3"/>
       <c r="B764" s="3"/>
       <c r="C764" s="3"/>
@@ -21760,7 +21799,7 @@
       <c r="Y764" s="3"/>
       <c r="Z764" s="3"/>
     </row>
-    <row r="765" ht="19.5" customHeight="1">
+    <row r="765" spans="1:26" ht="19.5" customHeight="1">
       <c r="A765" s="3"/>
       <c r="B765" s="3"/>
       <c r="C765" s="3"/>
@@ -21788,7 +21827,7 @@
       <c r="Y765" s="3"/>
       <c r="Z765" s="3"/>
     </row>
-    <row r="766" ht="19.5" customHeight="1">
+    <row r="766" spans="1:26" ht="19.5" customHeight="1">
       <c r="A766" s="3"/>
       <c r="B766" s="3"/>
       <c r="C766" s="3"/>
@@ -21816,7 +21855,7 @@
       <c r="Y766" s="3"/>
       <c r="Z766" s="3"/>
     </row>
-    <row r="767" ht="19.5" customHeight="1">
+    <row r="767" spans="1:26" ht="19.5" customHeight="1">
       <c r="A767" s="3"/>
       <c r="B767" s="3"/>
       <c r="C767" s="3"/>
@@ -21844,7 +21883,7 @@
       <c r="Y767" s="3"/>
       <c r="Z767" s="3"/>
     </row>
-    <row r="768" ht="19.5" customHeight="1">
+    <row r="768" spans="1:26" ht="19.5" customHeight="1">
       <c r="A768" s="3"/>
       <c r="B768" s="3"/>
       <c r="C768" s="3"/>
@@ -21872,7 +21911,7 @@
       <c r="Y768" s="3"/>
       <c r="Z768" s="3"/>
     </row>
-    <row r="769" ht="19.5" customHeight="1">
+    <row r="769" spans="1:26" ht="19.5" customHeight="1">
       <c r="A769" s="3"/>
       <c r="B769" s="3"/>
       <c r="C769" s="3"/>
@@ -21900,7 +21939,7 @@
       <c r="Y769" s="3"/>
       <c r="Z769" s="3"/>
     </row>
-    <row r="770" ht="19.5" customHeight="1">
+    <row r="770" spans="1:26" ht="19.5" customHeight="1">
       <c r="A770" s="3"/>
       <c r="B770" s="3"/>
       <c r="C770" s="3"/>
@@ -21928,7 +21967,7 @@
       <c r="Y770" s="3"/>
       <c r="Z770" s="3"/>
     </row>
-    <row r="771" ht="19.5" customHeight="1">
+    <row r="771" spans="1:26" ht="19.5" customHeight="1">
       <c r="A771" s="3"/>
       <c r="B771" s="3"/>
       <c r="C771" s="3"/>
@@ -21956,7 +21995,7 @@
       <c r="Y771" s="3"/>
       <c r="Z771" s="3"/>
     </row>
-    <row r="772" ht="19.5" customHeight="1">
+    <row r="772" spans="1:26" ht="19.5" customHeight="1">
       <c r="A772" s="3"/>
       <c r="B772" s="3"/>
       <c r="C772" s="3"/>
@@ -21984,7 +22023,7 @@
       <c r="Y772" s="3"/>
       <c r="Z772" s="3"/>
     </row>
-    <row r="773" ht="19.5" customHeight="1">
+    <row r="773" spans="1:26" ht="19.5" customHeight="1">
       <c r="A773" s="3"/>
       <c r="B773" s="3"/>
       <c r="C773" s="3"/>
@@ -22012,7 +22051,7 @@
       <c r="Y773" s="3"/>
       <c r="Z773" s="3"/>
     </row>
-    <row r="774" ht="19.5" customHeight="1">
+    <row r="774" spans="1:26" ht="19.5" customHeight="1">
       <c r="A774" s="3"/>
       <c r="B774" s="3"/>
       <c r="C774" s="3"/>
@@ -22040,7 +22079,7 @@
       <c r="Y774" s="3"/>
       <c r="Z774" s="3"/>
     </row>
-    <row r="775" ht="19.5" customHeight="1">
+    <row r="775" spans="1:26" ht="19.5" customHeight="1">
       <c r="A775" s="3"/>
       <c r="B775" s="3"/>
       <c r="C775" s="3"/>
@@ -22068,7 +22107,7 @@
       <c r="Y775" s="3"/>
       <c r="Z775" s="3"/>
     </row>
-    <row r="776" ht="19.5" customHeight="1">
+    <row r="776" spans="1:26" ht="19.5" customHeight="1">
       <c r="A776" s="3"/>
       <c r="B776" s="3"/>
       <c r="C776" s="3"/>
@@ -22096,7 +22135,7 @@
       <c r="Y776" s="3"/>
       <c r="Z776" s="3"/>
     </row>
-    <row r="777" ht="19.5" customHeight="1">
+    <row r="777" spans="1:26" ht="19.5" customHeight="1">
       <c r="A777" s="3"/>
       <c r="B777" s="3"/>
       <c r="C777" s="3"/>
@@ -22124,7 +22163,7 @@
       <c r="Y777" s="3"/>
       <c r="Z777" s="3"/>
     </row>
-    <row r="778" ht="19.5" customHeight="1">
+    <row r="778" spans="1:26" ht="19.5" customHeight="1">
       <c r="A778" s="3"/>
       <c r="B778" s="3"/>
       <c r="C778" s="3"/>
@@ -22152,7 +22191,7 @@
       <c r="Y778" s="3"/>
       <c r="Z778" s="3"/>
     </row>
-    <row r="779" ht="19.5" customHeight="1">
+    <row r="779" spans="1:26" ht="19.5" customHeight="1">
       <c r="A779" s="3"/>
       <c r="B779" s="3"/>
       <c r="C779" s="3"/>
@@ -22180,7 +22219,7 @@
       <c r="Y779" s="3"/>
       <c r="Z779" s="3"/>
     </row>
-    <row r="780" ht="19.5" customHeight="1">
+    <row r="780" spans="1:26" ht="19.5" customHeight="1">
       <c r="A780" s="3"/>
       <c r="B780" s="3"/>
       <c r="C780" s="3"/>
@@ -22208,7 +22247,7 @@
       <c r="Y780" s="3"/>
       <c r="Z780" s="3"/>
     </row>
-    <row r="781" ht="19.5" customHeight="1">
+    <row r="781" spans="1:26" ht="19.5" customHeight="1">
       <c r="A781" s="3"/>
       <c r="B781" s="3"/>
       <c r="C781" s="3"/>
@@ -22236,7 +22275,7 @@
       <c r="Y781" s="3"/>
       <c r="Z781" s="3"/>
     </row>
-    <row r="782" ht="19.5" customHeight="1">
+    <row r="782" spans="1:26" ht="19.5" customHeight="1">
       <c r="A782" s="3"/>
       <c r="B782" s="3"/>
       <c r="C782" s="3"/>
@@ -22264,7 +22303,7 @@
       <c r="Y782" s="3"/>
       <c r="Z782" s="3"/>
     </row>
-    <row r="783" ht="19.5" customHeight="1">
+    <row r="783" spans="1:26" ht="19.5" customHeight="1">
       <c r="A783" s="3"/>
       <c r="B783" s="3"/>
       <c r="C783" s="3"/>
@@ -22292,7 +22331,7 @@
       <c r="Y783" s="3"/>
       <c r="Z783" s="3"/>
     </row>
-    <row r="784" ht="19.5" customHeight="1">
+    <row r="784" spans="1:26" ht="19.5" customHeight="1">
       <c r="A784" s="3"/>
       <c r="B784" s="3"/>
       <c r="C784" s="3"/>
@@ -22320,7 +22359,7 @@
       <c r="Y784" s="3"/>
       <c r="Z784" s="3"/>
     </row>
-    <row r="785" ht="19.5" customHeight="1">
+    <row r="785" spans="1:26" ht="19.5" customHeight="1">
       <c r="A785" s="3"/>
       <c r="B785" s="3"/>
       <c r="C785" s="3"/>
@@ -22348,7 +22387,7 @@
       <c r="Y785" s="3"/>
       <c r="Z785" s="3"/>
     </row>
-    <row r="786" ht="19.5" customHeight="1">
+    <row r="786" spans="1:26" ht="19.5" customHeight="1">
       <c r="A786" s="3"/>
       <c r="B786" s="3"/>
       <c r="C786" s="3"/>
@@ -22376,7 +22415,7 @@
       <c r="Y786" s="3"/>
       <c r="Z786" s="3"/>
     </row>
-    <row r="787" ht="19.5" customHeight="1">
+    <row r="787" spans="1:26" ht="19.5" customHeight="1">
       <c r="A787" s="3"/>
       <c r="B787" s="3"/>
       <c r="C787" s="3"/>
@@ -22404,7 +22443,7 @@
       <c r="Y787" s="3"/>
       <c r="Z787" s="3"/>
     </row>
-    <row r="788" ht="19.5" customHeight="1">
+    <row r="788" spans="1:26" ht="19.5" customHeight="1">
       <c r="A788" s="3"/>
       <c r="B788" s="3"/>
       <c r="C788" s="3"/>
@@ -22432,7 +22471,7 @@
       <c r="Y788" s="3"/>
       <c r="Z788" s="3"/>
     </row>
-    <row r="789" ht="19.5" customHeight="1">
+    <row r="789" spans="1:26" ht="19.5" customHeight="1">
       <c r="A789" s="3"/>
       <c r="B789" s="3"/>
       <c r="C789" s="3"/>
@@ -22460,7 +22499,7 @@
       <c r="Y789" s="3"/>
       <c r="Z789" s="3"/>
     </row>
-    <row r="790" ht="19.5" customHeight="1">
+    <row r="790" spans="1:26" ht="19.5" customHeight="1">
       <c r="A790" s="3"/>
       <c r="B790" s="3"/>
       <c r="C790" s="3"/>
@@ -22488,7 +22527,7 @@
       <c r="Y790" s="3"/>
       <c r="Z790" s="3"/>
     </row>
-    <row r="791" ht="19.5" customHeight="1">
+    <row r="791" spans="1:26" ht="19.5" customHeight="1">
       <c r="A791" s="3"/>
       <c r="B791" s="3"/>
       <c r="C791" s="3"/>
@@ -22516,7 +22555,7 @@
       <c r="Y791" s="3"/>
       <c r="Z791" s="3"/>
     </row>
-    <row r="792" ht="19.5" customHeight="1">
+    <row r="792" spans="1:26" ht="19.5" customHeight="1">
       <c r="A792" s="3"/>
       <c r="B792" s="3"/>
       <c r="C792" s="3"/>
@@ -22544,7 +22583,7 @@
       <c r="Y792" s="3"/>
       <c r="Z792" s="3"/>
     </row>
-    <row r="793" ht="19.5" customHeight="1">
+    <row r="793" spans="1:26" ht="19.5" customHeight="1">
       <c r="A793" s="3"/>
       <c r="B793" s="3"/>
       <c r="C793" s="3"/>
@@ -22572,7 +22611,7 @@
       <c r="Y793" s="3"/>
       <c r="Z793" s="3"/>
     </row>
-    <row r="794" ht="19.5" customHeight="1">
+    <row r="794" spans="1:26" ht="19.5" customHeight="1">
       <c r="A794" s="3"/>
       <c r="B794" s="3"/>
       <c r="C794" s="3"/>
@@ -22600,7 +22639,7 @@
       <c r="Y794" s="3"/>
       <c r="Z794" s="3"/>
     </row>
-    <row r="795" ht="19.5" customHeight="1">
+    <row r="795" spans="1:26" ht="19.5" customHeight="1">
       <c r="A795" s="3"/>
       <c r="B795" s="3"/>
       <c r="C795" s="3"/>
@@ -22628,7 +22667,7 @@
       <c r="Y795" s="3"/>
       <c r="Z795" s="3"/>
     </row>
-    <row r="796" ht="19.5" customHeight="1">
+    <row r="796" spans="1:26" ht="19.5" customHeight="1">
       <c r="A796" s="3"/>
       <c r="B796" s="3"/>
       <c r="C796" s="3"/>
@@ -22656,7 +22695,7 @@
       <c r="Y796" s="3"/>
       <c r="Z796" s="3"/>
     </row>
-    <row r="797" ht="19.5" customHeight="1">
+    <row r="797" spans="1:26" ht="19.5" customHeight="1">
       <c r="A797" s="3"/>
       <c r="B797" s="3"/>
       <c r="C797" s="3"/>
@@ -22684,7 +22723,7 @@
       <c r="Y797" s="3"/>
       <c r="Z797" s="3"/>
     </row>
-    <row r="798" ht="19.5" customHeight="1">
+    <row r="798" spans="1:26" ht="19.5" customHeight="1">
       <c r="A798" s="3"/>
       <c r="B798" s="3"/>
       <c r="C798" s="3"/>
@@ -22712,7 +22751,7 @@
       <c r="Y798" s="3"/>
       <c r="Z798" s="3"/>
     </row>
-    <row r="799" ht="19.5" customHeight="1">
+    <row r="799" spans="1:26" ht="19.5" customHeight="1">
       <c r="A799" s="3"/>
       <c r="B799" s="3"/>
       <c r="C799" s="3"/>
@@ -22740,7 +22779,7 @@
       <c r="Y799" s="3"/>
       <c r="Z799" s="3"/>
     </row>
-    <row r="800" ht="19.5" customHeight="1">
+    <row r="800" spans="1:26" ht="19.5" customHeight="1">
       <c r="A800" s="3"/>
       <c r="B800" s="3"/>
       <c r="C800" s="3"/>
@@ -22768,7 +22807,7 @@
       <c r="Y800" s="3"/>
       <c r="Z800" s="3"/>
     </row>
-    <row r="801" ht="19.5" customHeight="1">
+    <row r="801" spans="1:26" ht="19.5" customHeight="1">
       <c r="A801" s="3"/>
       <c r="B801" s="3"/>
       <c r="C801" s="3"/>
@@ -22796,7 +22835,7 @@
       <c r="Y801" s="3"/>
       <c r="Z801" s="3"/>
     </row>
-    <row r="802" ht="19.5" customHeight="1">
+    <row r="802" spans="1:26" ht="19.5" customHeight="1">
       <c r="A802" s="3"/>
       <c r="B802" s="3"/>
       <c r="C802" s="3"/>
@@ -22824,7 +22863,7 @@
       <c r="Y802" s="3"/>
       <c r="Z802" s="3"/>
     </row>
-    <row r="803" ht="19.5" customHeight="1">
+    <row r="803" spans="1:26" ht="19.5" customHeight="1">
       <c r="A803" s="3"/>
       <c r="B803" s="3"/>
       <c r="C803" s="3"/>
@@ -22852,7 +22891,7 @@
       <c r="Y803" s="3"/>
       <c r="Z803" s="3"/>
     </row>
-    <row r="804" ht="19.5" customHeight="1">
+    <row r="804" spans="1:26" ht="19.5" customHeight="1">
       <c r="A804" s="3"/>
       <c r="B804" s="3"/>
       <c r="C804" s="3"/>
@@ -22880,7 +22919,7 @@
       <c r="Y804" s="3"/>
       <c r="Z804" s="3"/>
     </row>
-    <row r="805" ht="19.5" customHeight="1">
+    <row r="805" spans="1:26" ht="19.5" customHeight="1">
       <c r="A805" s="3"/>
       <c r="B805" s="3"/>
       <c r="C805" s="3"/>
@@ -22908,7 +22947,7 @@
       <c r="Y805" s="3"/>
       <c r="Z805" s="3"/>
     </row>
-    <row r="806" ht="19.5" customHeight="1">
+    <row r="806" spans="1:26" ht="19.5" customHeight="1">
       <c r="A806" s="3"/>
       <c r="B806" s="3"/>
       <c r="C806" s="3"/>
@@ -22936,7 +22975,7 @@
       <c r="Y806" s="3"/>
       <c r="Z806" s="3"/>
     </row>
-    <row r="807" ht="19.5" customHeight="1">
+    <row r="807" spans="1:26" ht="19.5" customHeight="1">
       <c r="A807" s="3"/>
       <c r="B807" s="3"/>
       <c r="C807" s="3"/>
@@ -22964,7 +23003,7 @@
       <c r="Y807" s="3"/>
       <c r="Z807" s="3"/>
     </row>
-    <row r="808" ht="19.5" customHeight="1">
+    <row r="808" spans="1:26" ht="19.5" customHeight="1">
       <c r="A808" s="3"/>
       <c r="B808" s="3"/>
       <c r="C808" s="3"/>
@@ -22992,7 +23031,7 @@
       <c r="Y808" s="3"/>
       <c r="Z808" s="3"/>
     </row>
-    <row r="809" ht="19.5" customHeight="1">
+    <row r="809" spans="1:26" ht="19.5" customHeight="1">
       <c r="A809" s="3"/>
       <c r="B809" s="3"/>
       <c r="C809" s="3"/>
@@ -23020,7 +23059,7 @@
       <c r="Y809" s="3"/>
       <c r="Z809" s="3"/>
     </row>
-    <row r="810" ht="19.5" customHeight="1">
+    <row r="810" spans="1:26" ht="19.5" customHeight="1">
       <c r="A810" s="3"/>
       <c r="B810" s="3"/>
       <c r="C810" s="3"/>
@@ -23048,7 +23087,7 @@
       <c r="Y810" s="3"/>
       <c r="Z810" s="3"/>
     </row>
-    <row r="811" ht="19.5" customHeight="1">
+    <row r="811" spans="1:26" ht="19.5" customHeight="1">
       <c r="A811" s="3"/>
       <c r="B811" s="3"/>
       <c r="C811" s="3"/>
@@ -23076,7 +23115,7 @@
       <c r="Y811" s="3"/>
       <c r="Z811" s="3"/>
     </row>
-    <row r="812" ht="19.5" customHeight="1">
+    <row r="812" spans="1:26" ht="19.5" customHeight="1">
       <c r="A812" s="3"/>
       <c r="B812" s="3"/>
       <c r="C812" s="3"/>
@@ -23104,7 +23143,7 @@
       <c r="Y812" s="3"/>
       <c r="Z812" s="3"/>
     </row>
-    <row r="813" ht="19.5" customHeight="1">
+    <row r="813" spans="1:26" ht="19.5" customHeight="1">
       <c r="A813" s="3"/>
       <c r="B813" s="3"/>
       <c r="C813" s="3"/>
@@ -23132,7 +23171,7 @@
       <c r="Y813" s="3"/>
       <c r="Z813" s="3"/>
     </row>
-    <row r="814" ht="19.5" customHeight="1">
+    <row r="814" spans="1:26" ht="19.5" customHeight="1">
       <c r="A814" s="3"/>
       <c r="B814" s="3"/>
       <c r="C814" s="3"/>
@@ -23160,7 +23199,7 @@
       <c r="Y814" s="3"/>
       <c r="Z814" s="3"/>
     </row>
-    <row r="815" ht="19.5" customHeight="1">
+    <row r="815" spans="1:26" ht="19.5" customHeight="1">
       <c r="A815" s="3"/>
       <c r="B815" s="3"/>
       <c r="C815" s="3"/>
@@ -23188,7 +23227,7 @@
       <c r="Y815" s="3"/>
       <c r="Z815" s="3"/>
     </row>
-    <row r="816" ht="19.5" customHeight="1">
+    <row r="816" spans="1:26" ht="19.5" customHeight="1">
       <c r="A816" s="3"/>
       <c r="B816" s="3"/>
       <c r="C816" s="3"/>
@@ -23216,7 +23255,7 @@
       <c r="Y816" s="3"/>
       <c r="Z816" s="3"/>
     </row>
-    <row r="817" ht="19.5" customHeight="1">
+    <row r="817" spans="1:26" ht="19.5" customHeight="1">
       <c r="A817" s="3"/>
       <c r="B817" s="3"/>
       <c r="C817" s="3"/>
@@ -23244,7 +23283,7 @@
       <c r="Y817" s="3"/>
       <c r="Z817" s="3"/>
     </row>
-    <row r="818" ht="19.5" customHeight="1">
+    <row r="818" spans="1:26" ht="19.5" customHeight="1">
       <c r="A818" s="3"/>
       <c r="B818" s="3"/>
       <c r="C818" s="3"/>
@@ -23272,7 +23311,7 @@
       <c r="Y818" s="3"/>
       <c r="Z818" s="3"/>
     </row>
-    <row r="819" ht="19.5" customHeight="1">
+    <row r="819" spans="1:26" ht="19.5" customHeight="1">
       <c r="A819" s="3"/>
       <c r="B819" s="3"/>
       <c r="C819" s="3"/>
@@ -23300,7 +23339,7 @@
       <c r="Y819" s="3"/>
       <c r="Z819" s="3"/>
     </row>
-    <row r="820" ht="19.5" customHeight="1">
+    <row r="820" spans="1:26" ht="19.5" customHeight="1">
       <c r="A820" s="3"/>
       <c r="B820" s="3"/>
       <c r="C820" s="3"/>
@@ -23328,7 +23367,7 @@
       <c r="Y820" s="3"/>
       <c r="Z820" s="3"/>
     </row>
-    <row r="821" ht="19.5" customHeight="1">
+    <row r="821" spans="1:26" ht="19.5" customHeight="1">
       <c r="A821" s="3"/>
       <c r="B821" s="3"/>
       <c r="C821" s="3"/>
@@ -23356,7 +23395,7 @@
       <c r="Y821" s="3"/>
       <c r="Z821" s="3"/>
     </row>
-    <row r="822" ht="19.5" customHeight="1">
+    <row r="822" spans="1:26" ht="19.5" customHeight="1">
       <c r="A822" s="3"/>
       <c r="B822" s="3"/>
       <c r="C822" s="3"/>
@@ -23384,7 +23423,7 @@
       <c r="Y822" s="3"/>
       <c r="Z822" s="3"/>
     </row>
-    <row r="823" ht="19.5" customHeight="1">
+    <row r="823" spans="1:26" ht="19.5" customHeight="1">
       <c r="A823" s="3"/>
       <c r="B823" s="3"/>
       <c r="C823" s="3"/>
@@ -23412,7 +23451,7 @@
       <c r="Y823" s="3"/>
       <c r="Z823" s="3"/>
     </row>
-    <row r="824" ht="19.5" customHeight="1">
+    <row r="824" spans="1:26" ht="19.5" customHeight="1">
       <c r="A824" s="3"/>
       <c r="B824" s="3"/>
       <c r="C824" s="3"/>
@@ -23440,7 +23479,7 @@
       <c r="Y824" s="3"/>
       <c r="Z824" s="3"/>
     </row>
-    <row r="825" ht="19.5" customHeight="1">
+    <row r="825" spans="1:26" ht="19.5" customHeight="1">
       <c r="A825" s="3"/>
       <c r="B825" s="3"/>
       <c r="C825" s="3"/>
@@ -23468,7 +23507,7 @@
       <c r="Y825" s="3"/>
       <c r="Z825" s="3"/>
     </row>
-    <row r="826" ht="19.5" customHeight="1">
+    <row r="826" spans="1:26" ht="19.5" customHeight="1">
       <c r="A826" s="3"/>
       <c r="B826" s="3"/>
       <c r="C826" s="3"/>
@@ -23496,7 +23535,7 @@
       <c r="Y826" s="3"/>
       <c r="Z826" s="3"/>
     </row>
-    <row r="827" ht="19.5" customHeight="1">
+    <row r="827" spans="1:26" ht="19.5" customHeight="1">
       <c r="A827" s="3"/>
       <c r="B827" s="3"/>
       <c r="C827" s="3"/>
@@ -23524,7 +23563,7 @@
       <c r="Y827" s="3"/>
       <c r="Z827" s="3"/>
     </row>
-    <row r="828" ht="19.5" customHeight="1">
+    <row r="828" spans="1:26" ht="19.5" customHeight="1">
       <c r="A828" s="3"/>
       <c r="B828" s="3"/>
       <c r="C828" s="3"/>
@@ -23552,7 +23591,7 @@
       <c r="Y828" s="3"/>
       <c r="Z828" s="3"/>
     </row>
-    <row r="829" ht="19.5" customHeight="1">
+    <row r="829" spans="1:26" ht="19.5" customHeight="1">
       <c r="A829" s="3"/>
       <c r="B829" s="3"/>
       <c r="C829" s="3"/>
@@ -23580,7 +23619,7 @@
       <c r="Y829" s="3"/>
       <c r="Z829" s="3"/>
     </row>
-    <row r="830" ht="19.5" customHeight="1">
+    <row r="830" spans="1:26" ht="19.5" customHeight="1">
       <c r="A830" s="3"/>
       <c r="B830" s="3"/>
       <c r="C830" s="3"/>
@@ -23608,7 +23647,7 @@
       <c r="Y830" s="3"/>
       <c r="Z830" s="3"/>
     </row>
-    <row r="831" ht="19.5" customHeight="1">
+    <row r="831" spans="1:26" ht="19.5" customHeight="1">
       <c r="A831" s="3"/>
       <c r="B831" s="3"/>
       <c r="C831" s="3"/>
@@ -23636,7 +23675,7 @@
       <c r="Y831" s="3"/>
       <c r="Z831" s="3"/>
     </row>
-    <row r="832" ht="19.5" customHeight="1">
+    <row r="832" spans="1:26" ht="19.5" customHeight="1">
       <c r="A832" s="3"/>
       <c r="B832" s="3"/>
       <c r="C832" s="3"/>
@@ -23664,7 +23703,7 @@
       <c r="Y832" s="3"/>
       <c r="Z832" s="3"/>
     </row>
-    <row r="833" ht="19.5" customHeight="1">
+    <row r="833" spans="1:26" ht="19.5" customHeight="1">
       <c r="A833" s="3"/>
       <c r="B833" s="3"/>
       <c r="C833" s="3"/>
@@ -23692,7 +23731,7 @@
       <c r="Y833" s="3"/>
       <c r="Z833" s="3"/>
     </row>
-    <row r="834" ht="19.5" customHeight="1">
+    <row r="834" spans="1:26" ht="19.5" customHeight="1">
       <c r="A834" s="3"/>
       <c r="B834" s="3"/>
       <c r="C834" s="3"/>
@@ -23720,7 +23759,7 @@
       <c r="Y834" s="3"/>
       <c r="Z834" s="3"/>
     </row>
-    <row r="835" ht="19.5" customHeight="1">
+    <row r="835" spans="1:26" ht="19.5" customHeight="1">
       <c r="A835" s="3"/>
       <c r="B835" s="3"/>
       <c r="C835" s="3"/>
@@ -23748,7 +23787,7 @@
       <c r="Y835" s="3"/>
       <c r="Z835" s="3"/>
     </row>
-    <row r="836" ht="19.5" customHeight="1">
+    <row r="836" spans="1:26" ht="19.5" customHeight="1">
       <c r="A836" s="3"/>
       <c r="B836" s="3"/>
       <c r="C836" s="3"/>
@@ -23776,7 +23815,7 @@
       <c r="Y836" s="3"/>
       <c r="Z836" s="3"/>
     </row>
-    <row r="837" ht="19.5" customHeight="1">
+    <row r="837" spans="1:26" ht="19.5" customHeight="1">
       <c r="A837" s="3"/>
       <c r="B837" s="3"/>
       <c r="C837" s="3"/>
@@ -23804,7 +23843,7 @@
       <c r="Y837" s="3"/>
       <c r="Z837" s="3"/>
     </row>
-    <row r="838" ht="19.5" customHeight="1">
+    <row r="838" spans="1:26" ht="19.5" customHeight="1">
       <c r="A838" s="3"/>
       <c r="B838" s="3"/>
       <c r="C838" s="3"/>
@@ -23832,7 +23871,7 @@
       <c r="Y838" s="3"/>
       <c r="Z838" s="3"/>
     </row>
-    <row r="839" ht="19.5" customHeight="1">
+    <row r="839" spans="1:26" ht="19.5" customHeight="1">
       <c r="A839" s="3"/>
       <c r="B839" s="3"/>
       <c r="C839" s="3"/>
@@ -23860,7 +23899,7 @@
       <c r="Y839" s="3"/>
       <c r="Z839" s="3"/>
     </row>
-    <row r="840" ht="19.5" customHeight="1">
+    <row r="840" spans="1:26" ht="19.5" customHeight="1">
       <c r="A840" s="3"/>
       <c r="B840" s="3"/>
       <c r="C840" s="3"/>
@@ -23888,7 +23927,7 @@
       <c r="Y840" s="3"/>
       <c r="Z840" s="3"/>
     </row>
-    <row r="841" ht="19.5" customHeight="1">
+    <row r="841" spans="1:26" ht="19.5" customHeight="1">
       <c r="A841" s="3"/>
       <c r="B841" s="3"/>
       <c r="C841" s="3"/>
@@ -23916,7 +23955,7 @@
       <c r="Y841" s="3"/>
       <c r="Z841" s="3"/>
     </row>
-    <row r="842" ht="19.5" customHeight="1">
+    <row r="842" spans="1:26" ht="19.5" customHeight="1">
       <c r="A842" s="3"/>
       <c r="B842" s="3"/>
       <c r="C842" s="3"/>
@@ -23944,7 +23983,7 @@
       <c r="Y842" s="3"/>
       <c r="Z842" s="3"/>
     </row>
-    <row r="843" ht="19.5" customHeight="1">
+    <row r="843" spans="1:26" ht="19.5" customHeight="1">
       <c r="A843" s="3"/>
       <c r="B843" s="3"/>
       <c r="C843" s="3"/>
@@ -23972,7 +24011,7 @@
       <c r="Y843" s="3"/>
       <c r="Z843" s="3"/>
     </row>
-    <row r="844" ht="19.5" customHeight="1">
+    <row r="844" spans="1:26" ht="19.5" customHeight="1">
       <c r="A844" s="3"/>
       <c r="B844" s="3"/>
       <c r="C844" s="3"/>
@@ -24000,7 +24039,7 @@
       <c r="Y844" s="3"/>
       <c r="Z844" s="3"/>
     </row>
-    <row r="845" ht="19.5" customHeight="1">
+    <row r="845" spans="1:26" ht="19.5" customHeight="1">
       <c r="A845" s="3"/>
       <c r="B845" s="3"/>
       <c r="C845" s="3"/>
@@ -24028,7 +24067,7 @@
       <c r="Y845" s="3"/>
       <c r="Z845" s="3"/>
     </row>
-    <row r="846" ht="19.5" customHeight="1">
+    <row r="846" spans="1:26" ht="19.5" customHeight="1">
       <c r="A846" s="3"/>
       <c r="B846" s="3"/>
       <c r="C846" s="3"/>
@@ -24056,7 +24095,7 @@
       <c r="Y846" s="3"/>
       <c r="Z846" s="3"/>
     </row>
-    <row r="847" ht="19.5" customHeight="1">
+    <row r="847" spans="1:26" ht="19.5" customHeight="1">
       <c r="A847" s="3"/>
       <c r="B847" s="3"/>
       <c r="C847" s="3"/>
@@ -24084,7 +24123,7 @@
       <c r="Y847" s="3"/>
       <c r="Z847" s="3"/>
     </row>
-    <row r="848" ht="19.5" customHeight="1">
+    <row r="848" spans="1:26" ht="19.5" customHeight="1">
       <c r="A848" s="3"/>
       <c r="B848" s="3"/>
       <c r="C848" s="3"/>
@@ -24112,7 +24151,7 @@
       <c r="Y848" s="3"/>
       <c r="Z848" s="3"/>
     </row>
-    <row r="849" ht="19.5" customHeight="1">
+    <row r="849" spans="1:26" ht="19.5" customHeight="1">
       <c r="A849" s="3"/>
       <c r="B849" s="3"/>
       <c r="C849" s="3"/>
@@ -24140,7 +24179,7 @@
       <c r="Y849" s="3"/>
       <c r="Z849" s="3"/>
     </row>
-    <row r="850" ht="19.5" customHeight="1">
+    <row r="850" spans="1:26" ht="19.5" customHeight="1">
       <c r="A850" s="3"/>
       <c r="B850" s="3"/>
       <c r="C850" s="3"/>
@@ -24168,7 +24207,7 @@
       <c r="Y850" s="3"/>
       <c r="Z850" s="3"/>
     </row>
-    <row r="851" ht="19.5" customHeight="1">
+    <row r="851" spans="1:26" ht="19.5" customHeight="1">
       <c r="A851" s="3"/>
       <c r="B851" s="3"/>
       <c r="C851" s="3"/>
@@ -24196,7 +24235,7 @@
       <c r="Y851" s="3"/>
       <c r="Z851" s="3"/>
     </row>
-    <row r="852" ht="19.5" customHeight="1">
+    <row r="852" spans="1:26" ht="19.5" customHeight="1">
       <c r="A852" s="3"/>
       <c r="B852" s="3"/>
       <c r="C852" s="3"/>
@@ -24224,7 +24263,7 @@
       <c r="Y852" s="3"/>
       <c r="Z852" s="3"/>
     </row>
-    <row r="853" ht="19.5" customHeight="1">
+    <row r="853" spans="1:26" ht="19.5" customHeight="1">
       <c r="A853" s="3"/>
       <c r="B853" s="3"/>
       <c r="C853" s="3"/>
@@ -24252,7 +24291,7 @@
       <c r="Y853" s="3"/>
       <c r="Z853" s="3"/>
     </row>
-    <row r="854" ht="19.5" customHeight="1">
+    <row r="854" spans="1:26" ht="19.5" customHeight="1">
       <c r="A854" s="3"/>
       <c r="B854" s="3"/>
       <c r="C854" s="3"/>
@@ -24280,7 +24319,7 @@
       <c r="Y854" s="3"/>
       <c r="Z854" s="3"/>
     </row>
-    <row r="855" ht="19.5" customHeight="1">
+    <row r="855" spans="1:26" ht="19.5" customHeight="1">
       <c r="A855" s="3"/>
       <c r="B855" s="3"/>
       <c r="C855" s="3"/>
@@ -24308,7 +24347,7 @@
       <c r="Y855" s="3"/>
       <c r="Z855" s="3"/>
     </row>
-    <row r="856" ht="19.5" customHeight="1">
+    <row r="856" spans="1:26" ht="19.5" customHeight="1">
       <c r="A856" s="3"/>
       <c r="B856" s="3"/>
       <c r="C856" s="3"/>
@@ -24336,7 +24375,7 @@
       <c r="Y856" s="3"/>
       <c r="Z856" s="3"/>
     </row>
-    <row r="857" ht="19.5" customHeight="1">
+    <row r="857" spans="1:26" ht="19.5" customHeight="1">
       <c r="A857" s="3"/>
       <c r="B857" s="3"/>
       <c r="C857" s="3"/>
@@ -24364,7 +24403,7 @@
       <c r="Y857" s="3"/>
       <c r="Z857" s="3"/>
     </row>
-    <row r="858" ht="19.5" customHeight="1">
+    <row r="858" spans="1:26" ht="19.5" customHeight="1">
       <c r="A858" s="3"/>
       <c r="B858" s="3"/>
       <c r="C858" s="3"/>
@@ -24392,7 +24431,7 @@
       <c r="Y858" s="3"/>
       <c r="Z858" s="3"/>
     </row>
-    <row r="859" ht="19.5" customHeight="1">
+    <row r="859" spans="1:26" ht="19.5" customHeight="1">
       <c r="A859" s="3"/>
       <c r="B859" s="3"/>
       <c r="C859" s="3"/>
@@ -24420,7 +24459,7 @@
       <c r="Y859" s="3"/>
       <c r="Z859" s="3"/>
     </row>
-    <row r="860" ht="19.5" customHeight="1">
+    <row r="860" spans="1:26" ht="19.5" customHeight="1">
       <c r="A860" s="3"/>
       <c r="B860" s="3"/>
       <c r="C860" s="3"/>
@@ -24448,7 +24487,7 @@
       <c r="Y860" s="3"/>
       <c r="Z860" s="3"/>
     </row>
-    <row r="861" ht="19.5" customHeight="1">
+    <row r="861" spans="1:26" ht="19.5" customHeight="1">
       <c r="A861" s="3"/>
       <c r="B861" s="3"/>
       <c r="C861" s="3"/>
@@ -24476,7 +24515,7 @@
       <c r="Y861" s="3"/>
       <c r="Z861" s="3"/>
     </row>
-    <row r="862" ht="19.5" customHeight="1">
+    <row r="862" spans="1:26" ht="19.5" customHeight="1">
       <c r="A862" s="3"/>
       <c r="B862" s="3"/>
       <c r="C862" s="3"/>
@@ -24504,7 +24543,7 @@
       <c r="Y862" s="3"/>
       <c r="Z862" s="3"/>
     </row>
-    <row r="863" ht="19.5" customHeight="1">
+    <row r="863" spans="1:26" ht="19.5" customHeight="1">
       <c r="A863" s="3"/>
       <c r="B863" s="3"/>
       <c r="C863" s="3"/>
@@ -24532,7 +24571,7 @@
       <c r="Y863" s="3"/>
       <c r="Z863" s="3"/>
     </row>
-    <row r="864" ht="19.5" customHeight="1">
+    <row r="864" spans="1:26" ht="19.5" customHeight="1">
       <c r="A864" s="3"/>
       <c r="B864" s="3"/>
       <c r="C864" s="3"/>
@@ -24560,7 +24599,7 @@
       <c r="Y864" s="3"/>
       <c r="Z864" s="3"/>
     </row>
-    <row r="865" ht="19.5" customHeight="1">
+    <row r="865" spans="1:26" ht="19.5" customHeight="1">
       <c r="A865" s="3"/>
       <c r="B865" s="3"/>
       <c r="C865" s="3"/>
@@ -24588,7 +24627,7 @@
       <c r="Y865" s="3"/>
       <c r="Z865" s="3"/>
     </row>
-    <row r="866" ht="19.5" customHeight="1">
+    <row r="866" spans="1:26" ht="19.5" customHeight="1">
       <c r="A866" s="3"/>
       <c r="B866" s="3"/>
       <c r="C866" s="3"/>
@@ -24616,7 +24655,7 @@
       <c r="Y866" s="3"/>
       <c r="Z866" s="3"/>
     </row>
-    <row r="867" ht="19.5" customHeight="1">
+    <row r="867" spans="1:26" ht="19.5" customHeight="1">
       <c r="A867" s="3"/>
       <c r="B867" s="3"/>
       <c r="C867" s="3"/>
@@ -24644,7 +24683,7 @@
       <c r="Y867" s="3"/>
       <c r="Z867" s="3"/>
     </row>
-    <row r="868" ht="19.5" customHeight="1">
+    <row r="868" spans="1:26" ht="19.5" customHeight="1">
       <c r="A868" s="3"/>
       <c r="B868" s="3"/>
       <c r="C868" s="3"/>
@@ -24672,7 +24711,7 @@
       <c r="Y868" s="3"/>
       <c r="Z868" s="3"/>
     </row>
-    <row r="869" ht="19.5" customHeight="1">
+    <row r="869" spans="1:26" ht="19.5" customHeight="1">
       <c r="A869" s="3"/>
       <c r="B869" s="3"/>
       <c r="C869" s="3"/>
@@ -24700,7 +24739,7 @@
       <c r="Y869" s="3"/>
       <c r="Z869" s="3"/>
     </row>
-    <row r="870" ht="19.5" customHeight="1">
+    <row r="870" spans="1:26" ht="19.5" customHeight="1">
       <c r="A870" s="3"/>
       <c r="B870" s="3"/>
       <c r="C870" s="3"/>
@@ -24728,7 +24767,7 @@
       <c r="Y870" s="3"/>
       <c r="Z870" s="3"/>
     </row>
-    <row r="871" ht="19.5" customHeight="1">
+    <row r="871" spans="1:26" ht="19.5" customHeight="1">
       <c r="A871" s="3"/>
       <c r="B871" s="3"/>
       <c r="C871" s="3"/>
@@ -24756,7 +24795,7 @@
       <c r="Y871" s="3"/>
       <c r="Z871" s="3"/>
     </row>
-    <row r="872" ht="19.5" customHeight="1">
+    <row r="872" spans="1:26" ht="19.5" customHeight="1">
       <c r="A872" s="3"/>
       <c r="B872" s="3"/>
       <c r="C872" s="3"/>
@@ -24784,7 +24823,7 @@
       <c r="Y872" s="3"/>
       <c r="Z872" s="3"/>
     </row>
-    <row r="873" ht="19.5" customHeight="1">
+    <row r="873" spans="1:26" ht="19.5" customHeight="1">
       <c r="A873" s="3"/>
       <c r="B873" s="3"/>
       <c r="C873" s="3"/>
@@ -24812,7 +24851,7 @@
       <c r="Y873" s="3"/>
       <c r="Z873" s="3"/>
     </row>
-    <row r="874" ht="19.5" customHeight="1">
+    <row r="874" spans="1:26" ht="19.5" customHeight="1">
       <c r="A874" s="3"/>
       <c r="B874" s="3"/>
       <c r="C874" s="3"/>
@@ -24840,7 +24879,7 @@
       <c r="Y874" s="3"/>
       <c r="Z874" s="3"/>
     </row>
-    <row r="875" ht="19.5" customHeight="1">
+    <row r="875" spans="1:26" ht="19.5" customHeight="1">
       <c r="A875" s="3"/>
       <c r="B875" s="3"/>
       <c r="C875" s="3"/>
@@ -24868,7 +24907,7 @@
       <c r="Y875" s="3"/>
       <c r="Z875" s="3"/>
     </row>
-    <row r="876" ht="19.5" customHeight="1">
+    <row r="876" spans="1:26" ht="19.5" customHeight="1">
       <c r="A876" s="3"/>
       <c r="B876" s="3"/>
       <c r="C876" s="3"/>
@@ -24896,7 +24935,7 @@
       <c r="Y876" s="3"/>
       <c r="Z876" s="3"/>
     </row>
-    <row r="877" ht="19.5" customHeight="1">
+    <row r="877" spans="1:26" ht="19.5" customHeight="1">
       <c r="A877" s="3"/>
       <c r="B877" s="3"/>
       <c r="C877" s="3"/>
@@ -24924,7 +24963,7 @@
       <c r="Y877" s="3"/>
       <c r="Z877" s="3"/>
     </row>
-    <row r="878" ht="19.5" customHeight="1">
+    <row r="878" spans="1:26" ht="19.5" customHeight="1">
       <c r="A878" s="3"/>
       <c r="B878" s="3"/>
       <c r="C878" s="3"/>
@@ -24952,7 +24991,7 @@
       <c r="Y878" s="3"/>
       <c r="Z878" s="3"/>
     </row>
-    <row r="879" ht="19.5" customHeight="1">
+    <row r="879" spans="1:26" ht="19.5" customHeight="1">
       <c r="A879" s="3"/>
       <c r="B879" s="3"/>
       <c r="C879" s="3"/>
@@ -24980,7 +25019,7 @@
       <c r="Y879" s="3"/>
       <c r="Z879" s="3"/>
     </row>
-    <row r="880" ht="19.5" customHeight="1">
+    <row r="880" spans="1:26" ht="19.5" customHeight="1">
       <c r="A880" s="3"/>
       <c r="B880" s="3"/>
       <c r="C880" s="3"/>
@@ -25008,7 +25047,7 @@
       <c r="Y880" s="3"/>
       <c r="Z880" s="3"/>
     </row>
-    <row r="881" ht="19.5" customHeight="1">
+    <row r="881" spans="1:26" ht="19.5" customHeight="1">
       <c r="A881" s="3"/>
       <c r="B881" s="3"/>
       <c r="C881" s="3"/>
@@ -25036,7 +25075,7 @@
       <c r="Y881" s="3"/>
       <c r="Z881" s="3"/>
     </row>
-    <row r="882" ht="19.5" customHeight="1">
+    <row r="882" spans="1:26" ht="19.5" customHeight="1">
       <c r="A882" s="3"/>
       <c r="B882" s="3"/>
       <c r="C882" s="3"/>
@@ -25064,7 +25103,7 @@
       <c r="Y882" s="3"/>
       <c r="Z882" s="3"/>
     </row>
-    <row r="883" ht="19.5" customHeight="1">
+    <row r="883" spans="1:26" ht="19.5" customHeight="1">
       <c r="A883" s="3"/>
       <c r="B883" s="3"/>
       <c r="C883" s="3"/>
@@ -25092,7 +25131,7 @@
       <c r="Y883" s="3"/>
       <c r="Z883" s="3"/>
     </row>
-    <row r="884" ht="19.5" customHeight="1">
+    <row r="884" spans="1:26" ht="19.5" customHeight="1">
       <c r="A884" s="3"/>
       <c r="B884" s="3"/>
       <c r="C884" s="3"/>
@@ -25120,7 +25159,7 @@
       <c r="Y884" s="3"/>
       <c r="Z884" s="3"/>
     </row>
-    <row r="885" ht="19.5" customHeight="1">
+    <row r="885" spans="1:26" ht="19.5" customHeight="1">
       <c r="A885" s="3"/>
       <c r="B885" s="3"/>
       <c r="C885" s="3"/>
@@ -25148,7 +25187,7 @@
       <c r="Y885" s="3"/>
       <c r="Z885" s="3"/>
     </row>
-    <row r="886" ht="19.5" customHeight="1">
+    <row r="886" spans="1:26" ht="19.5" customHeight="1">
       <c r="A886" s="3"/>
       <c r="B886" s="3"/>
       <c r="C886" s="3"/>
@@ -25176,7 +25215,7 @@
       <c r="Y886" s="3"/>
       <c r="Z886" s="3"/>
     </row>
-    <row r="887" ht="19.5" customHeight="1">
+    <row r="887" spans="1:26" ht="19.5" customHeight="1">
       <c r="A887" s="3"/>
       <c r="B887" s="3"/>
       <c r="C887" s="3"/>
@@ -25204,7 +25243,7 @@
       <c r="Y887" s="3"/>
       <c r="Z887" s="3"/>
     </row>
-    <row r="888" ht="19.5" customHeight="1">
+    <row r="888" spans="1:26" ht="19.5" customHeight="1">
       <c r="A888" s="3"/>
       <c r="B888" s="3"/>
       <c r="C888" s="3"/>
@@ -25232,7 +25271,7 @@
       <c r="Y888" s="3"/>
       <c r="Z888" s="3"/>
     </row>
-    <row r="889" ht="19.5" customHeight="1">
+    <row r="889" spans="1:26" ht="19.5" customHeight="1">
       <c r="A889" s="3"/>
       <c r="B889" s="3"/>
       <c r="C889" s="3"/>
@@ -25260,7 +25299,7 @@
       <c r="Y889" s="3"/>
       <c r="Z889" s="3"/>
     </row>
-    <row r="890" ht="19.5" customHeight="1">
+    <row r="890" spans="1:26" ht="19.5" customHeight="1">
       <c r="A890" s="3"/>
       <c r="B890" s="3"/>
       <c r="C890" s="3"/>
@@ -25288,7 +25327,7 @@
       <c r="Y890" s="3"/>
       <c r="Z890" s="3"/>
     </row>
-    <row r="891" ht="19.5" customHeight="1">
+    <row r="891" spans="1:26" ht="19.5" customHeight="1">
       <c r="A891" s="3"/>
       <c r="B891" s="3"/>
       <c r="C891" s="3"/>
@@ -25316,7 +25355,7 @@
       <c r="Y891" s="3"/>
       <c r="Z891" s="3"/>
     </row>
-    <row r="892" ht="19.5" customHeight="1">
+    <row r="892" spans="1:26" ht="19.5" customHeight="1">
       <c r="A892" s="3"/>
       <c r="B892" s="3"/>
       <c r="C892" s="3"/>
@@ -25344,7 +25383,7 @@
       <c r="Y892" s="3"/>
       <c r="Z892" s="3"/>
     </row>
-    <row r="893" ht="19.5" customHeight="1">
+    <row r="893" spans="1:26" ht="19.5" customHeight="1">
       <c r="A893" s="3"/>
       <c r="B893" s="3"/>
       <c r="C893" s="3"/>
@@ -25372,7 +25411,7 @@
       <c r="Y893" s="3"/>
       <c r="Z893" s="3"/>
     </row>
-    <row r="894" ht="19.5" customHeight="1">
+    <row r="894" spans="1:26" ht="19.5" customHeight="1">
       <c r="A894" s="3"/>
       <c r="B894" s="3"/>
       <c r="C894" s="3"/>
@@ -25400,7 +25439,7 @@
       <c r="Y894" s="3"/>
       <c r="Z894" s="3"/>
     </row>
-    <row r="895" ht="19.5" customHeight="1">
+    <row r="895" spans="1:26" ht="19.5" customHeight="1">
       <c r="A895" s="3"/>
       <c r="B895" s="3"/>
       <c r="C895" s="3"/>
@@ -25428,7 +25467,7 @@
       <c r="Y895" s="3"/>
       <c r="Z895" s="3"/>
     </row>
-    <row r="896" ht="19.5" customHeight="1">
+    <row r="896" spans="1:26" ht="19.5" customHeight="1">
       <c r="A896" s="3"/>
       <c r="B896" s="3"/>
       <c r="C896" s="3"/>
@@ -25456,7 +25495,7 @@
       <c r="Y896" s="3"/>
       <c r="Z896" s="3"/>
     </row>
-    <row r="897" ht="19.5" customHeight="1">
+    <row r="897" spans="1:26" ht="19.5" customHeight="1">
       <c r="A897" s="3"/>
       <c r="B897" s="3"/>
       <c r="C897" s="3"/>
@@ -25484,7 +25523,7 @@
       <c r="Y897" s="3"/>
       <c r="Z897" s="3"/>
     </row>
-    <row r="898" ht="19.5" customHeight="1">
+    <row r="898" spans="1:26" ht="19.5" customHeight="1">
       <c r="A898" s="3"/>
       <c r="B898" s="3"/>
       <c r="C898" s="3"/>
@@ -25512,7 +25551,7 @@
       <c r="Y898" s="3"/>
       <c r="Z898" s="3"/>
     </row>
-    <row r="899" ht="19.5" customHeight="1">
+    <row r="899" spans="1:26" ht="19.5" customHeight="1">
       <c r="A899" s="3"/>
       <c r="B899" s="3"/>
       <c r="C899" s="3"/>
@@ -25540,7 +25579,7 @@
       <c r="Y899" s="3"/>
       <c r="Z899" s="3"/>
     </row>
-    <row r="900" ht="19.5" customHeight="1">
+    <row r="900" spans="1:26" ht="19.5" customHeight="1">
       <c r="A900" s="3"/>
       <c r="B900" s="3"/>
       <c r="C900" s="3"/>
@@ -25568,7 +25607,7 @@
       <c r="Y900" s="3"/>
       <c r="Z900" s="3"/>
     </row>
-    <row r="901" ht="19.5" customHeight="1">
+    <row r="901" spans="1:26" ht="19.5" customHeight="1">
       <c r="A901" s="3"/>
       <c r="B901" s="3"/>
       <c r="C901" s="3"/>
@@ -25596,7 +25635,7 @@
       <c r="Y901" s="3"/>
       <c r="Z901" s="3"/>
     </row>
-    <row r="902" ht="19.5" customHeight="1">
+    <row r="902" spans="1:26" ht="19.5" customHeight="1">
       <c r="A902" s="3"/>
       <c r="B902" s="3"/>
       <c r="C902" s="3"/>
@@ -25624,7 +25663,7 @@
       <c r="Y902" s="3"/>
       <c r="Z902" s="3"/>
     </row>
-    <row r="903" ht="19.5" customHeight="1">
+    <row r="903" spans="1:26" ht="19.5" customHeight="1">
       <c r="A903" s="3"/>
       <c r="B903" s="3"/>
       <c r="C903" s="3"/>
@@ -25652,7 +25691,7 @@
       <c r="Y903" s="3"/>
       <c r="Z903" s="3"/>
     </row>
-    <row r="904" ht="19.5" customHeight="1">
+    <row r="904" spans="1:26" ht="19.5" customHeight="1">
       <c r="A904" s="3"/>
       <c r="B904" s="3"/>
       <c r="C904" s="3"/>
@@ -25680,7 +25719,7 @@
       <c r="Y904" s="3"/>
       <c r="Z904" s="3"/>
     </row>
-    <row r="905" ht="19.5" customHeight="1">
+    <row r="905" spans="1:26" ht="19.5" customHeight="1">
       <c r="A905" s="3"/>
       <c r="B905" s="3"/>
       <c r="C905" s="3"/>
@@ -25708,7 +25747,7 @@
       <c r="Y905" s="3"/>
       <c r="Z905" s="3"/>
     </row>
-    <row r="906" ht="19.5" customHeight="1">
+    <row r="906" spans="1:26" ht="19.5" customHeight="1">
       <c r="A906" s="3"/>
       <c r="B906" s="3"/>
       <c r="C906" s="3"/>
@@ -25736,7 +25775,7 @@
       <c r="Y906" s="3"/>
       <c r="Z906" s="3"/>
     </row>
-    <row r="907" ht="19.5" customHeight="1">
+    <row r="907" spans="1:26" ht="19.5" customHeight="1">
       <c r="A907" s="3"/>
       <c r="B907" s="3"/>
       <c r="C907" s="3"/>
@@ -25764,7 +25803,7 @@
       <c r="Y907" s="3"/>
       <c r="Z907" s="3"/>
     </row>
-    <row r="908" ht="19.5" customHeight="1">
+    <row r="908" spans="1:26" ht="19.5" customHeight="1">
       <c r="A908" s="3"/>
       <c r="B908" s="3"/>
       <c r="C908" s="3"/>
@@ -25792,7 +25831,7 @@
       <c r="Y908" s="3"/>
       <c r="Z908" s="3"/>
     </row>
-    <row r="909" ht="19.5" customHeight="1">
+    <row r="909" spans="1:26" ht="19.5" customHeight="1">
       <c r="A909" s="3"/>
       <c r="B909" s="3"/>
       <c r="C909" s="3"/>
@@ -25820,7 +25859,7 @@
       <c r="Y909" s="3"/>
       <c r="Z909" s="3"/>
     </row>
-    <row r="910" ht="19.5" customHeight="1">
+    <row r="910" spans="1:26" ht="19.5" customHeight="1">
       <c r="A910" s="3"/>
       <c r="B910" s="3"/>
       <c r="C910" s="3"/>
@@ -25848,7 +25887,7 @@
       <c r="Y910" s="3"/>
       <c r="Z910" s="3"/>
     </row>
-    <row r="911" ht="19.5" customHeight="1">
+    <row r="911" spans="1:26" ht="19.5" customHeight="1">
       <c r="A911" s="3"/>
       <c r="B911" s="3"/>
       <c r="C911" s="3"/>
@@ -25876,7 +25915,7 @@
       <c r="Y911" s="3"/>
       <c r="Z911" s="3"/>
     </row>
-    <row r="912" ht="19.5" customHeight="1">
+    <row r="912" spans="1:26" ht="19.5" customHeight="1">
       <c r="A912" s="3"/>
       <c r="B912" s="3"/>
       <c r="C912" s="3"/>
@@ -25904,7 +25943,7 @@
       <c r="Y912" s="3"/>
       <c r="Z912" s="3"/>
     </row>
-    <row r="913" ht="19.5" customHeight="1">
+    <row r="913" spans="1:26" ht="19.5" customHeight="1">
       <c r="A913" s="3"/>
       <c r="B913" s="3"/>
       <c r="C913" s="3"/>
@@ -25932,7 +25971,7 @@
       <c r="Y913" s="3"/>
       <c r="Z913" s="3"/>
     </row>
-    <row r="914" ht="19.5" customHeight="1">
+    <row r="914" spans="1:26" ht="19.5" customHeight="1">
       <c r="A914" s="3"/>
       <c r="B914" s="3"/>
       <c r="C914" s="3"/>
@@ -25960,7 +25999,7 @@
       <c r="Y914" s="3"/>
       <c r="Z914" s="3"/>
     </row>
-    <row r="915" ht="19.5" customHeight="1">
+    <row r="915" spans="1:26" ht="19.5" customHeight="1">
       <c r="A915" s="3"/>
       <c r="B915" s="3"/>
       <c r="C915" s="3"/>
@@ -25988,7 +26027,7 @@
       <c r="Y915" s="3"/>
       <c r="Z915" s="3"/>
     </row>
-    <row r="916" ht="19.5" customHeight="1">
+    <row r="916" spans="1:26" ht="19.5" customHeight="1">
       <c r="A916" s="3"/>
       <c r="B916" s="3"/>
       <c r="C916" s="3"/>
@@ -26016,7 +26055,7 @@
       <c r="Y916" s="3"/>
       <c r="Z916" s="3"/>
     </row>
-    <row r="917" ht="19.5" customHeight="1">
+    <row r="917" spans="1:26" ht="19.5" customHeight="1">
       <c r="A917" s="3"/>
       <c r="B917" s="3"/>
       <c r="C917" s="3"/>
@@ -26044,7 +26083,7 @@
       <c r="Y917" s="3"/>
       <c r="Z917" s="3"/>
     </row>
-    <row r="918" ht="19.5" customHeight="1">
+    <row r="918" spans="1:26" ht="19.5" customHeight="1">
       <c r="A918" s="3"/>
       <c r="B918" s="3"/>
       <c r="C918" s="3"/>
@@ -26072,7 +26111,7 @@
       <c r="Y918" s="3"/>
       <c r="Z918" s="3"/>
     </row>
-    <row r="919" ht="19.5" customHeight="1">
+    <row r="919" spans="1:26" ht="19.5" customHeight="1">
       <c r="A919" s="3"/>
       <c r="B919" s="3"/>
       <c r="C919" s="3"/>
@@ -26100,7 +26139,7 @@
       <c r="Y919" s="3"/>
       <c r="Z919" s="3"/>
     </row>
-    <row r="920" ht="19.5" customHeight="1">
+    <row r="920" spans="1:26" ht="19.5" customHeight="1">
       <c r="A920" s="3"/>
       <c r="B920" s="3"/>
       <c r="C920" s="3"/>
@@ -26128,7 +26167,7 @@
       <c r="Y920" s="3"/>
       <c r="Z920" s="3"/>
     </row>
-    <row r="921" ht="19.5" customHeight="1">
+    <row r="921" spans="1:26" ht="19.5" customHeight="1">
       <c r="A921" s="3"/>
       <c r="B921" s="3"/>
       <c r="C921" s="3"/>
@@ -26156,7 +26195,7 @@
       <c r="Y921" s="3"/>
       <c r="Z921" s="3"/>
     </row>
-    <row r="922" ht="19.5" customHeight="1">
+    <row r="922" spans="1:26" ht="19.5" customHeight="1">
       <c r="A922" s="3"/>
       <c r="B922" s="3"/>
       <c r="C922" s="3"/>
@@ -26184,7 +26223,7 @@
       <c r="Y922" s="3"/>
       <c r="Z922" s="3"/>
     </row>
-    <row r="923" ht="19.5" customHeight="1">
+    <row r="923" spans="1:26" ht="19.5" customHeight="1">
       <c r="A923" s="3"/>
       <c r="B923" s="3"/>
       <c r="C923" s="3"/>
@@ -26212,7 +26251,7 @@
       <c r="Y923" s="3"/>
       <c r="Z923" s="3"/>
     </row>
-    <row r="924" ht="19.5" customHeight="1">
+    <row r="924" spans="1:26" ht="19.5" customHeight="1">
       <c r="A924" s="3"/>
       <c r="B924" s="3"/>
       <c r="C924" s="3"/>
@@ -26240,7 +26279,7 @@
       <c r="Y924" s="3"/>
       <c r="Z924" s="3"/>
     </row>
-    <row r="925" ht="19.5" customHeight="1">
+    <row r="925" spans="1:26" ht="19.5" customHeight="1">
       <c r="A925" s="3"/>
       <c r="B925" s="3"/>
       <c r="C925" s="3"/>
@@ -26268,7 +26307,7 @@
       <c r="Y925" s="3"/>
       <c r="Z925" s="3"/>
     </row>
-    <row r="926" ht="19.5" customHeight="1">
+    <row r="926" spans="1:26" ht="19.5" customHeight="1">
       <c r="A926" s="3"/>
       <c r="B926" s="3"/>
       <c r="C926" s="3"/>
@@ -26296,7 +26335,7 @@
       <c r="Y926" s="3"/>
       <c r="Z926" s="3"/>
     </row>
-    <row r="927" ht="19.5" customHeight="1">
+    <row r="927" spans="1:26" ht="19.5" customHeight="1">
       <c r="A927" s="3"/>
       <c r="B927" s="3"/>
       <c r="C927" s="3"/>
@@ -26324,7 +26363,7 @@
       <c r="Y927" s="3"/>
       <c r="Z927" s="3"/>
     </row>
-    <row r="928" ht="19.5" customHeight="1">
+    <row r="928" spans="1:26" ht="19.5" customHeight="1">
       <c r="A928" s="3"/>
       <c r="B928" s="3"/>
       <c r="C928" s="3"/>
@@ -26352,7 +26391,7 @@
       <c r="Y928" s="3"/>
       <c r="Z928" s="3"/>
     </row>
-    <row r="929" ht="19.5" customHeight="1">
+    <row r="929" spans="1:26" ht="19.5" customHeight="1">
       <c r="A929" s="3"/>
       <c r="B929" s="3"/>
       <c r="C929" s="3"/>
@@ -26380,7 +26419,7 @@
       <c r="Y929" s="3"/>
       <c r="Z929" s="3"/>
     </row>
-    <row r="930" ht="19.5" customHeight="1">
+    <row r="930" spans="1:26" ht="19.5" customHeight="1">
       <c r="A930" s="3"/>
       <c r="B930" s="3"/>
       <c r="C930" s="3"/>
@@ -26408,7 +26447,7 @@
       <c r="Y930" s="3"/>
       <c r="Z930" s="3"/>
     </row>
-    <row r="931" ht="19.5" customHeight="1">
+    <row r="931" spans="1:26" ht="19.5" customHeight="1">
       <c r="A931" s="3"/>
       <c r="B931" s="3"/>
       <c r="C931" s="3"/>
@@ -26436,7 +26475,7 @@
       <c r="Y931" s="3"/>
       <c r="Z931" s="3"/>
     </row>
-    <row r="932" ht="19.5" customHeight="1">
+    <row r="932" spans="1:26" ht="19.5" customHeight="1">
       <c r="A932" s="3"/>
       <c r="B932" s="3"/>
       <c r="C932" s="3"/>
@@ -26464,7 +26503,7 @@
       <c r="Y932" s="3"/>
       <c r="Z932" s="3"/>
     </row>
-    <row r="933" ht="19.5" customHeight="1">
+    <row r="933" spans="1:26" ht="19.5" customHeight="1">
       <c r="A933" s="3"/>
       <c r="B933" s="3"/>
       <c r="C933" s="3"/>
@@ -26492,7 +26531,7 @@
       <c r="Y933" s="3"/>
       <c r="Z933" s="3"/>
     </row>
-    <row r="934" ht="19.5" customHeight="1">
+    <row r="934" spans="1:26" ht="19.5" customHeight="1">
       <c r="A934" s="3"/>
       <c r="B934" s="3"/>
       <c r="C934" s="3"/>
@@ -26520,7 +26559,7 @@
       <c r="Y934" s="3"/>
       <c r="Z934" s="3"/>
     </row>
-    <row r="935" ht="19.5" customHeight="1">
+    <row r="935" spans="1:26" ht="19.5" customHeight="1">
       <c r="A935" s="3"/>
       <c r="B935" s="3"/>
       <c r="C935" s="3"/>
@@ -26548,7 +26587,7 @@
       <c r="Y935" s="3"/>
       <c r="Z935" s="3"/>
     </row>
-    <row r="936" ht="19.5" customHeight="1">
+    <row r="936" spans="1:26" ht="19.5" customHeight="1">
       <c r="A936" s="3"/>
       <c r="B936" s="3"/>
       <c r="C936" s="3"/>
@@ -26576,7 +26615,7 @@
       <c r="Y936" s="3"/>
       <c r="Z936" s="3"/>
     </row>
-    <row r="937" ht="19.5" customHeight="1">
+    <row r="937" spans="1:26" ht="19.5" customHeight="1">
       <c r="A937" s="3"/>
       <c r="B937" s="3"/>
       <c r="C937" s="3"/>
@@ -26604,7 +26643,7 @@
       <c r="Y937" s="3"/>
       <c r="Z937" s="3"/>
     </row>
-    <row r="938" ht="19.5" customHeight="1">
+    <row r="938" spans="1:26" ht="19.5" customHeight="1">
       <c r="A938" s="3"/>
       <c r="B938" s="3"/>
       <c r="C938" s="3"/>
@@ -26632,7 +26671,7 @@
       <c r="Y938" s="3"/>
       <c r="Z938" s="3"/>
     </row>
-    <row r="939" ht="19.5" customHeight="1">
+    <row r="939" spans="1:26" ht="19.5" customHeight="1">
       <c r="A939" s="3"/>
       <c r="B939" s="3"/>
       <c r="C939" s="3"/>
@@ -26660,7 +26699,7 @@
       <c r="Y939" s="3"/>
       <c r="Z939" s="3"/>
     </row>
-    <row r="940" ht="19.5" customHeight="1">
+    <row r="940" spans="1:26" ht="19.5" customHeight="1">
       <c r="A940" s="3"/>
       <c r="B940" s="3"/>
       <c r="C940" s="3"/>
@@ -26688,7 +26727,7 @@
       <c r="Y940" s="3"/>
       <c r="Z940" s="3"/>
     </row>
-    <row r="941" ht="19.5" customHeight="1">
+    <row r="941" spans="1:26" ht="19.5" customHeight="1">
       <c r="A941" s="3"/>
       <c r="B941" s="3"/>
       <c r="C941" s="3"/>
@@ -26716,7 +26755,7 @@
       <c r="Y941" s="3"/>
       <c r="Z941" s="3"/>
     </row>
-    <row r="942" ht="19.5" customHeight="1">
+    <row r="942" spans="1:26" ht="19.5" customHeight="1">
       <c r="A942" s="3"/>
       <c r="B942" s="3"/>
       <c r="C942" s="3"/>
@@ -26744,7 +26783,7 @@
       <c r="Y942" s="3"/>
       <c r="Z942" s="3"/>
     </row>
-    <row r="943" ht="19.5" customHeight="1">
+    <row r="943" spans="1:26" ht="19.5" customHeight="1">
       <c r="A943" s="3"/>
       <c r="B943" s="3"/>
       <c r="C943" s="3"/>
@@ -26772,7 +26811,7 @@
       <c r="Y943" s="3"/>
       <c r="Z943" s="3"/>
     </row>
-    <row r="944" ht="19.5" customHeight="1">
+    <row r="944" spans="1:26" ht="19.5" customHeight="1">
       <c r="A944" s="3"/>
       <c r="B944" s="3"/>
       <c r="C944" s="3"/>
@@ -26800,7 +26839,7 @@
       <c r="Y944" s="3"/>
       <c r="Z944" s="3"/>
     </row>
-    <row r="945" ht="19.5" customHeight="1">
+    <row r="945" spans="1:26" ht="19.5" customHeight="1">
       <c r="A945" s="3"/>
       <c r="B945" s="3"/>
       <c r="C945" s="3"/>
@@ -26828,7 +26867,7 @@
       <c r="Y945" s="3"/>
       <c r="Z945" s="3"/>
     </row>
-    <row r="946" ht="19.5" customHeight="1">
+    <row r="946" spans="1:26" ht="19.5" customHeight="1">
       <c r="A946" s="3"/>
       <c r="B946" s="3"/>
       <c r="C946" s="3"/>
@@ -26856,7 +26895,7 @@
       <c r="Y946" s="3"/>
       <c r="Z946" s="3"/>
     </row>
-    <row r="947" ht="19.5" customHeight="1">
+    <row r="947" spans="1:26" ht="19.5" customHeight="1">
       <c r="A947" s="3"/>
       <c r="B947" s="3"/>
       <c r="C947" s="3"/>
@@ -26884,7 +26923,7 @@
       <c r="Y947" s="3"/>
       <c r="Z947" s="3"/>
     </row>
-    <row r="948" ht="19.5" customHeight="1">
+    <row r="948" spans="1:26" ht="19.5" customHeight="1">
       <c r="A948" s="3"/>
       <c r="B948" s="3"/>
       <c r="C948" s="3"/>
@@ -26912,7 +26951,7 @@
       <c r="Y948" s="3"/>
       <c r="Z948" s="3"/>
     </row>
-    <row r="949" ht="19.5" customHeight="1">
+    <row r="949" spans="1:26" ht="19.5" customHeight="1">
       <c r="A949" s="3"/>
       <c r="B949" s="3"/>
       <c r="C949" s="3"/>
@@ -26940,7 +26979,7 @@
       <c r="Y949" s="3"/>
       <c r="Z949" s="3"/>
     </row>
-    <row r="950" ht="19.5" customHeight="1">
+    <row r="950" spans="1:26" ht="19.5" customHeight="1">
       <c r="A950" s="3"/>
       <c r="B950" s="3"/>
       <c r="C950" s="3"/>
@@ -26968,7 +27007,7 @@
       <c r="Y950" s="3"/>
       <c r="Z950" s="3"/>
     </row>
-    <row r="951" ht="19.5" customHeight="1">
+    <row r="951" spans="1:26" ht="19.5" customHeight="1">
       <c r="A951" s="3"/>
       <c r="B951" s="3"/>
       <c r="C951" s="3"/>
@@ -26996,7 +27035,7 @@
       <c r="Y951" s="3"/>
       <c r="Z951" s="3"/>
     </row>
-    <row r="952" ht="19.5" customHeight="1">
+    <row r="952" spans="1:26" ht="19.5" customHeight="1">
       <c r="A952" s="3"/>
       <c r="B952" s="3"/>
       <c r="C952" s="3"/>
@@ -27024,7 +27063,7 @@
       <c r="Y952" s="3"/>
       <c r="Z952" s="3"/>
     </row>
-    <row r="953" ht="19.5" customHeight="1">
+    <row r="953" spans="1:26" ht="19.5" customHeight="1">
       <c r="A953" s="3"/>
       <c r="B953" s="3"/>
       <c r="C953" s="3"/>
@@ -27052,7 +27091,7 @@
       <c r="Y953" s="3"/>
       <c r="Z953" s="3"/>
     </row>
-    <row r="954" ht="19.5" customHeight="1">
+    <row r="954" spans="1:26" ht="19.5" customHeight="1">
       <c r="A954" s="3"/>
       <c r="B954" s="3"/>
       <c r="C954" s="3"/>
@@ -27080,7 +27119,7 @@
       <c r="Y954" s="3"/>
       <c r="Z954" s="3"/>
     </row>
-    <row r="955" ht="19.5" customHeight="1">
+    <row r="955" spans="1:26" ht="19.5" customHeight="1">
       <c r="A955" s="3"/>
       <c r="B955" s="3"/>
       <c r="C955" s="3"/>
@@ -27108,7 +27147,7 @@
       <c r="Y955" s="3"/>
       <c r="Z955" s="3"/>
     </row>
-    <row r="956" ht="19.5" customHeight="1">
+    <row r="956" spans="1:26" ht="19.5" customHeight="1">
       <c r="A956" s="3"/>
       <c r="B956" s="3"/>
       <c r="C956" s="3"/>
@@ -27136,7 +27175,7 @@
       <c r="Y956" s="3"/>
       <c r="Z956" s="3"/>
     </row>
-    <row r="957" ht="19.5" customHeight="1">
+    <row r="957" spans="1:26" ht="19.5" customHeight="1">
       <c r="A957" s="3"/>
       <c r="B957" s="3"/>
       <c r="C957" s="3"/>
@@ -27164,7 +27203,7 @@
       <c r="Y957" s="3"/>
       <c r="Z957" s="3"/>
     </row>
-    <row r="958" ht="19.5" customHeight="1">
+    <row r="958" spans="1:26" ht="19.5" customHeight="1">
       <c r="A958" s="3"/>
       <c r="B958" s="3"/>
       <c r="C958" s="3"/>
@@ -27192,7 +27231,7 @@
       <c r="Y958" s="3"/>
       <c r="Z958" s="3"/>
     </row>
-    <row r="959" ht="19.5" customHeight="1">
+    <row r="959" spans="1:26" ht="19.5" customHeight="1">
       <c r="A959" s="3"/>
       <c r="B959" s="3"/>
       <c r="C959" s="3"/>
@@ -27220,7 +27259,7 @@
       <c r="Y959" s="3"/>
       <c r="Z959" s="3"/>
     </row>
-    <row r="960" ht="19.5" customHeight="1">
+    <row r="960" spans="1:26" ht="19.5" customHeight="1">
       <c r="A960" s="3"/>
       <c r="B960" s="3"/>
       <c r="C960" s="3"/>
@@ -27248,7 +27287,7 @@
       <c r="Y960" s="3"/>
       <c r="Z960" s="3"/>
     </row>
-    <row r="961" ht="19.5" customHeight="1">
+    <row r="961" spans="1:26" ht="19.5" customHeight="1">
       <c r="A961" s="3"/>
       <c r="B961" s="3"/>
       <c r="C961" s="3"/>
@@ -27276,7 +27315,7 @@
       <c r="Y961" s="3"/>
       <c r="Z961" s="3"/>
     </row>
-    <row r="962" ht="19.5" customHeight="1">
+    <row r="962" spans="1:26" ht="19.5" customHeight="1">
       <c r="A962" s="3"/>
       <c r="B962" s="3"/>
       <c r="C962" s="3"/>
@@ -27304,7 +27343,7 @@
       <c r="Y962" s="3"/>
       <c r="Z962" s="3"/>
     </row>
-    <row r="963" ht="19.5" customHeight="1">
+    <row r="963" spans="1:26" ht="19.5" customHeight="1">
       <c r="A963" s="3"/>
       <c r="B963" s="3"/>
       <c r="C963" s="3"/>
@@ -27332,7 +27371,7 @@
       <c r="Y963" s="3"/>
       <c r="Z963" s="3"/>
     </row>
-    <row r="964" ht="19.5" customHeight="1">
+    <row r="964" spans="1:26" ht="19.5" customHeight="1">
       <c r="A964" s="3"/>
       <c r="B964" s="3"/>
       <c r="C964" s="3"/>
@@ -27360,7 +27399,7 @@
       <c r="Y964" s="3"/>
       <c r="Z964" s="3"/>
     </row>
-    <row r="965" ht="19.5" customHeight="1">
+    <row r="965" spans="1:26" ht="19.5" customHeight="1">
       <c r="A965" s="3"/>
       <c r="B965" s="3"/>
       <c r="C965" s="3"/>
@@ -27388,7 +27427,7 @@
       <c r="Y965" s="3"/>
       <c r="Z965" s="3"/>
     </row>
-    <row r="966" ht="19.5" customHeight="1">
+    <row r="966" spans="1:26" ht="19.5" customHeight="1">
       <c r="A966" s="3"/>
       <c r="B966" s="3"/>
       <c r="C966" s="3"/>
@@ -27416,7 +27455,7 @@
       <c r="Y966" s="3"/>
       <c r="Z966" s="3"/>
     </row>
-    <row r="967" ht="19.5" customHeight="1">
+    <row r="967" spans="1:26" ht="19.5" customHeight="1">
       <c r="A967" s="3"/>
       <c r="B967" s="3"/>
       <c r="C967" s="3"/>
@@ -27444,7 +27483,7 @@
       <c r="Y967" s="3"/>
       <c r="Z967" s="3"/>
     </row>
-    <row r="968" ht="19.5" customHeight="1">
+    <row r="968" spans="1:26" ht="19.5" customHeight="1">
       <c r="A968" s="3"/>
       <c r="B968" s="3"/>
       <c r="C968" s="3"/>
@@ -27472,7 +27511,7 @@
       <c r="Y968" s="3"/>
       <c r="Z968" s="3"/>
     </row>
-    <row r="969" ht="19.5" customHeight="1">
+    <row r="969" spans="1:26" ht="19.5" customHeight="1">
       <c r="A969" s="3"/>
       <c r="B969" s="3"/>
       <c r="C969" s="3"/>
@@ -27500,7 +27539,7 @@
       <c r="Y969" s="3"/>
       <c r="Z969" s="3"/>
     </row>
-    <row r="970" ht="19.5" customHeight="1">
+    <row r="970" spans="1:26" ht="19.5" customHeight="1">
       <c r="A970" s="3"/>
       <c r="B970" s="3"/>
       <c r="C970" s="3"/>
@@ -27528,7 +27567,7 @@
       <c r="Y970" s="3"/>
       <c r="Z970" s="3"/>
     </row>
-    <row r="971" ht="19.5" customHeight="1">
+    <row r="971" spans="1:26" ht="19.5" customHeight="1">
       <c r="A971" s="3"/>
       <c r="B971" s="3"/>
       <c r="C971" s="3"/>
@@ -27556,7 +27595,7 @@
       <c r="Y971" s="3"/>
       <c r="Z971" s="3"/>
     </row>
-    <row r="972" ht="19.5" customHeight="1">
+    <row r="972" spans="1:26" ht="19.5" customHeight="1">
       <c r="A972" s="3"/>
       <c r="B972" s="3"/>
       <c r="C972" s="3"/>
@@ -27584,7 +27623,7 @@
       <c r="Y972" s="3"/>
       <c r="Z972" s="3"/>
     </row>
-    <row r="973" ht="19.5" customHeight="1">
+    <row r="973" spans="1:26" ht="19.5" customHeight="1">
       <c r="A973" s="3"/>
       <c r="B973" s="3"/>
       <c r="C973" s="3"/>
@@ -27612,7 +27651,7 @@
       <c r="Y973" s="3"/>
       <c r="Z973" s="3"/>
     </row>
-    <row r="974" ht="19.5" customHeight="1">
+    <row r="974" spans="1:26" ht="19.5" customHeight="1">
       <c r="A974" s="3"/>
       <c r="B974" s="3"/>
       <c r="C974" s="3"/>
@@ -27640,7 +27679,7 @@
       <c r="Y974" s="3"/>
       <c r="Z974" s="3"/>
     </row>
-    <row r="975" ht="19.5" customHeight="1">
+    <row r="975" spans="1:26" ht="19.5" customHeight="1">
       <c r="A975" s="3"/>
       <c r="B975" s="3"/>
       <c r="C975" s="3"/>
@@ -27668,7 +27707,7 @@
       <c r="Y975" s="3"/>
       <c r="Z975" s="3"/>
     </row>
-    <row r="976" ht="19.5" customHeight="1">
+    <row r="976" spans="1:26" ht="19.5" customHeight="1">
       <c r="A976" s="3"/>
       <c r="B976" s="3"/>
       <c r="C976" s="3"/>
@@ -27696,7 +27735,7 @@
       <c r="Y976" s="3"/>
       <c r="Z976" s="3"/>
     </row>
-    <row r="977" ht="19.5" customHeight="1">
+    <row r="977" spans="1:26" ht="19.5" customHeight="1">
       <c r="A977" s="3"/>
       <c r="B977" s="3"/>
       <c r="C977" s="3"/>
@@ -27724,7 +27763,7 @@
       <c r="Y977" s="3"/>
       <c r="Z977" s="3"/>
     </row>
-    <row r="978" ht="19.5" customHeight="1">
+    <row r="978" spans="1:26" ht="19.5" customHeight="1">
       <c r="A978" s="3"/>
       <c r="B978" s="3"/>
       <c r="C978" s="3"/>
@@ -27752,7 +27791,7 @@
       <c r="Y978" s="3"/>
       <c r="Z978" s="3"/>
     </row>
-    <row r="979" ht="19.5" customHeight="1">
+    <row r="979" spans="1:26" ht="19.5" customHeight="1">
       <c r="A979" s="3"/>
       <c r="B979" s="3"/>
       <c r="C979" s="3"/>
@@ -27780,7 +27819,7 @@
       <c r="Y979" s="3"/>
       <c r="Z979" s="3"/>
     </row>
-    <row r="980" ht="19.5" customHeight="1">
+    <row r="980" spans="1:26" ht="19.5" customHeight="1">
       <c r="A980" s="3"/>
       <c r="B980" s="3"/>
       <c r="C980" s="3"/>
@@ -27808,7 +27847,7 @@
       <c r="Y980" s="3"/>
       <c r="Z980" s="3"/>
     </row>
-    <row r="981" ht="19.5" customHeight="1">
+    <row r="981" spans="1:26" ht="19.5" customHeight="1">
       <c r="A981" s="3"/>
       <c r="B981" s="3"/>
       <c r="C981" s="3"/>
@@ -27836,7 +27875,7 @@
       <c r="Y981" s="3"/>
       <c r="Z981" s="3"/>
     </row>
-    <row r="982" ht="19.5" customHeight="1">
+    <row r="982" spans="1:26" ht="19.5" customHeight="1">
       <c r="A982" s="3"/>
       <c r="B982" s="3"/>
       <c r="C982" s="3"/>
@@ -27864,7 +27903,7 @@
       <c r="Y982" s="3"/>
       <c r="Z982" s="3"/>
     </row>
-    <row r="983" ht="19.5" customHeight="1">
+    <row r="983" spans="1:26" ht="19.5" customHeight="1">
       <c r="A983" s="3"/>
       <c r="B983" s="3"/>
       <c r="C983" s="3"/>
@@ -27892,7 +27931,7 @@
       <c r="Y983" s="3"/>
       <c r="Z983" s="3"/>
     </row>
-    <row r="984" ht="19.5" customHeight="1">
+    <row r="984" spans="1:26" ht="19.5" customHeight="1">
       <c r="A984" s="3"/>
       <c r="B984" s="3"/>
       <c r="C984" s="3"/>
@@ -27920,7 +27959,7 @@
       <c r="Y984" s="3"/>
       <c r="Z984" s="3"/>
     </row>
-    <row r="985" ht="19.5" customHeight="1">
+    <row r="985" spans="1:26" ht="19.5" customHeight="1">
       <c r="A985" s="3"/>
       <c r="B985" s="3"/>
       <c r="C985" s="3"/>
@@ -27948,7 +27987,7 @@
       <c r="Y985" s="3"/>
       <c r="Z985" s="3"/>
     </row>
-    <row r="986" ht="19.5" customHeight="1">
+    <row r="986" spans="1:26" ht="19.5" customHeight="1">
       <c r="A986" s="3"/>
       <c r="B986" s="3"/>
       <c r="C986" s="3"/>
@@ -27976,7 +28015,7 @@
       <c r="Y986" s="3"/>
       <c r="Z986" s="3"/>
     </row>
-    <row r="987" ht="19.5" customHeight="1">
+    <row r="987" spans="1:26" ht="19.5" customHeight="1">
       <c r="A987" s="3"/>
       <c r="B987" s="3"/>
       <c r="C987" s="3"/>
@@ -28004,7 +28043,7 @@
       <c r="Y987" s="3"/>
       <c r="Z987" s="3"/>
     </row>
-    <row r="988" ht="19.5" customHeight="1">
+    <row r="988" spans="1:26" ht="19.5" customHeight="1">
       <c r="A988" s="3"/>
       <c r="B988" s="3"/>
       <c r="C988" s="3"/>
@@ -28032,7 +28071,7 @@
       <c r="Y988" s="3"/>
       <c r="Z988" s="3"/>
     </row>
-    <row r="989" ht="19.5" customHeight="1">
+    <row r="989" spans="1:26" ht="19.5" customHeight="1">
       <c r="A989" s="3"/>
       <c r="B989" s="3"/>
       <c r="C989" s="3"/>
@@ -28060,7 +28099,7 @@
       <c r="Y989" s="3"/>
       <c r="Z989" s="3"/>
     </row>
-    <row r="990" ht="19.5" customHeight="1">
+    <row r="990" spans="1:26" ht="19.5" customHeight="1">
       <c r="A990" s="3"/>
       <c r="B990" s="3"/>
       <c r="C990" s="3"/>
@@ -28088,7 +28127,7 @@
       <c r="Y990" s="3"/>
       <c r="Z990" s="3"/>
     </row>
-    <row r="991" ht="19.5" customHeight="1">
+    <row r="991" spans="1:26" ht="19.5" customHeight="1">
       <c r="A991" s="3"/>
       <c r="B991" s="3"/>
       <c r="C991" s="3"/>
@@ -28116,7 +28155,7 @@
       <c r="Y991" s="3"/>
       <c r="Z991" s="3"/>
     </row>
-    <row r="992" ht="19.5" customHeight="1">
+    <row r="992" spans="1:26" ht="19.5" customHeight="1">
       <c r="A992" s="3"/>
       <c r="B992" s="3"/>
       <c r="C992" s="3"/>
@@ -28144,7 +28183,7 @@
       <c r="Y992" s="3"/>
       <c r="Z992" s="3"/>
     </row>
-    <row r="993" ht="19.5" customHeight="1">
+    <row r="993" spans="1:26" ht="19.5" customHeight="1">
       <c r="A993" s="3"/>
       <c r="B993" s="3"/>
       <c r="C993" s="3"/>
@@ -28172,7 +28211,7 @@
       <c r="Y993" s="3"/>
       <c r="Z993" s="3"/>
     </row>
-    <row r="994" ht="19.5" customHeight="1">
+    <row r="994" spans="1:26" ht="19.5" customHeight="1">
       <c r="A994" s="3"/>
       <c r="B994" s="3"/>
       <c r="C994" s="3"/>
@@ -28200,7 +28239,7 @@
       <c r="Y994" s="3"/>
       <c r="Z994" s="3"/>
     </row>
-    <row r="995" ht="19.5" customHeight="1">
+    <row r="995" spans="1:26" ht="19.5" customHeight="1">
       <c r="A995" s="3"/>
       <c r="B995" s="3"/>
       <c r="C995" s="3"/>
@@ -28228,7 +28267,7 @@
       <c r="Y995" s="3"/>
       <c r="Z995" s="3"/>
     </row>
-    <row r="996" ht="19.5" customHeight="1">
+    <row r="996" spans="1:26" ht="19.5" customHeight="1">
       <c r="A996" s="3"/>
       <c r="B996" s="3"/>
       <c r="C996" s="3"/>
@@ -28256,7 +28295,7 @@
       <c r="Y996" s="3"/>
       <c r="Z996" s="3"/>
     </row>
-    <row r="997" ht="19.5" customHeight="1">
+    <row r="997" spans="1:26" ht="19.5" customHeight="1">
       <c r="A997" s="3"/>
       <c r="B997" s="3"/>
       <c r="C997" s="3"/>
@@ -28284,7 +28323,7 @@
       <c r="Y997" s="3"/>
       <c r="Z997" s="3"/>
     </row>
-    <row r="998" ht="19.5" customHeight="1">
+    <row r="998" spans="1:26" ht="19.5" customHeight="1">
       <c r="A998" s="3"/>
       <c r="B998" s="3"/>
       <c r="C998" s="3"/>
@@ -28312,7 +28351,7 @@
       <c r="Y998" s="3"/>
       <c r="Z998" s="3"/>
     </row>
-    <row r="999" ht="19.5" customHeight="1">
+    <row r="999" spans="1:26" ht="19.5" customHeight="1">
       <c r="A999" s="3"/>
       <c r="B999" s="3"/>
       <c r="C999" s="3"/>
@@ -28340,7 +28379,7 @@
       <c r="Y999" s="3"/>
       <c r="Z999" s="3"/>
     </row>
-    <row r="1000" ht="19.5" customHeight="1">
+    <row r="1000" spans="1:26" ht="19.5" customHeight="1">
       <c r="A1000" s="3"/>
       <c r="B1000" s="3"/>
       <c r="C1000" s="3"/>
@@ -28369,12 +28408,11 @@
       <c r="Z1000" s="3"/>
     </row>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="1.0" footer="0.0" header="0.0" left="1.0" right="1.0" top="1.0"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C000000&amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/RMD/input/insight.xlsx
+++ b/RMD/input/insight.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\lty\UNC\year 2 sem 2\COVID\0610\RMD\input\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD85EADD-9FB4-4617-9DDB-11F9EEA02185}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="3180" yWindow="375" windowWidth="13365" windowHeight="7665" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="工作表 1 - test" sheetId="1" r:id="rId4"/>
+    <sheet name="工作表 1 - test" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataSignature="AMtx7mhG7279+7IMkhQxtSq6S8s0o2v4BA=="/>
@@ -27,45 +36,54 @@
     <t>page2</t>
   </si>
   <si>
-    <t>$\quad$截至北京时间4月29日早7：00，全球累计确诊病例已经达到3,111,730例，累计死亡216,857例。25个国家累计确诊病例超过15,000例。总体来看，欧洲与北美仍是累计确诊病例数最多的地区。英国的累计确诊数突破十六万，超过德国进入世界前五位。爱尔兰的累计确诊病例接近两万（19,877），粗发病率达403/10万人，已经超过意大利与瑞士，疫情正在迅速恶化。俄罗斯的累计确诊病例数超过伊朗，跃升至世界第八位。 中东地区除伊朗外，沙特阿拉伯累计确诊病例超过两万，以色列，巴基斯坦，卡塔尔与阿联酋的累计确诊均已超过一万例。东欧地区白俄罗斯病例增长迅速（累计确诊12,208例），较上周（4月22日）接近翻倍，粗发病率到达129/10万，超过湖北。中东及东欧各国变化表明，疫情在欧亚大陆自西向东多点扩散。（表1）</t>
-  </si>
-  <si>
     <t>page3</t>
-  </si>
-  <si>
-    <t>$\quad$从日新增病例数来看，美国与俄罗斯仍就占据世界前二，值得注意的是，俄罗斯的日新增病例呈明显上升趋势，该国疫情发展不容乐观。巴西日新增突破4000例，首次进入世界前三；秘鲁日新增接近2500例，两国日新增较上周均接近翻倍（4月22日：巴西2678例，秘鲁1413例），显示疫情在南美洲呈爆发性增长趋势。 白俄罗斯的单日新增919例，疫情在该国发展需要进一步关注。另一方面，西班牙与意大利的日新增病例持续下降，表明疫情逐步得到较好控制。(表2和图2）
-$\quad$从死亡病例数来看，美国仍是累计死亡病例最多的国家，虽日新增死亡呈现波动下降趋势。巴西累计死亡病例突破5000例，超过中国，日新增死亡也呈逐日上升态势。此外，意大利、西班牙、法国、德国等欧洲国家日新增死亡病例数呈现下降趋势，提示疫情在欧洲逐步缓解。 （表3和图3）</t>
   </si>
   <si>
     <t>page4</t>
   </si>
   <si>
-    <t xml:space="preserve">$\quad$截至北京时间4月29日早7:00， 美国累计确诊病例数超过101万例（1,011,600），共58,343 死亡病例。从分布来看，疫情主要集中在东西海岸和五大湖地区，全美19个州累计病例数超过一万人。除中部地区以外，东海岸地区疫情也在迅速扩散。罗得岛州累计确诊接近8000例，而粗发病率为全美第四（748/10万人）。（图4）
-$\quad$纽约州、新泽西州和马萨诸塞州为美国疫情最严重的三个州。纽约州检测率超过4300/10万人，而阳性率下降至35%，提示疫情逐步得到控制。此外，特拉华州，科罗拉多州与华盛顿特区阳性率均为22%左右，超过伊利诺伊州，而检测在2000/10万人左右，略低于新泽西州，显示这些州对于检测的需求仍然十分庞大。（表4）
-</t>
-  </si>
-  <si>
     <t>page5</t>
   </si>
   <si>
-    <t>$\quad$从日新增确诊来看，纽约州单日新增连续多日下降，较昨日再次下降800例左右，提示疫情好转。伊利诺伊州日新增病例逐步上升，需要进一步关注。（表5和图5）
-$\quad$从死亡病例数来看，密歇根州病死率超过9%，为全美最高。纽约州与马萨诸塞州日新增死亡呈明显波动下降趋势，提示医疗资源压力得到缓解。值得注意的是，罗得岛州病死率为3%，略低于佛罗里达州，但其累计病例只有佛罗里达州的1/4（佛罗里达州：32,848例）,提示该州存在医疗资源紧张的风险。（表6和图6）</t>
+    <t>$\quad$截至北京时间6月11日早9：00，全球累计确诊病例已经达到7,356,337例，累计死亡416,040例。美国累计确诊病例即将突破二百万例，巴西确诊病例已经接近八十万例，俄罗斯确诊病例数也即将突破五十万例(表1)。已经有52个国家的粗发病率超过了中国湖北省。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$\quad$美洲、南亚和中东地区仍为疫情热点地区。南美洲疫情尤为严重，单日新增近46,000例，几乎是北美洲和欧洲新增病例数之和；单日新增死亡病例超过1,700例。巴西单日新增确诊和死亡病例数均继续高居世界首位，秘鲁和智利单日新增确诊和死亡病例数也均进入世界前六位，且均未出现下降趋势(表3、表4、图2、图3)。哥伦比亚单日新增确诊病例达到了1,359例，排名世界第十三；阿根廷单日新增病例数也已连续两日超过1,000例，创下新高。北美洲的墨西哥疫情进展迅速，单日新增病例已接近5,000例，病死率已经上升至11.9%，显示医疗系统已接近崩溃。
+$\quad$中东和南亚地区的疫情同样不容乐观。沙特阿拉伯为现在中东地区病例数增加最快的国家，单日新增确诊病例数已连续五日超过3,000例，与五月末时相比几乎翻倍。伊拉克新增病例数上升迅速，单日新增确诊病例已从5月31日时的约300例迅速上升至超过1,000例。此外伊朗单日新增确诊病例仍稳定在2,000例以上，处于第二波疫情之中尚未出现好转迹象。非洲疫情主要集中于南非和埃及，其中南非单日新增病例数已连续一周超过2,000例。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$\quad$截至北京时间6月11日早9:00， 美国累计确诊病例数即将突破二百万例(1,999,392例)，共112,878死亡病例。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>$\quad$从日新增确诊来看，排名前五位的加利福尼亚州、得克萨斯州、亚利桑那州、佛罗里达州单日新增确诊病例数均在波动上升，显示随着居家隔离措施的放宽，疫情在这几个州持续恶化。除此以外，阿拉巴马州和南卡罗来纳州近来疫情恶化趋势也较为明显，需要持续关注。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="SimSun"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -73,7 +91,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -83,7 +101,13 @@
     </fill>
   </fills>
   <borders count="3">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -97,50 +121,57 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="0" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -330,25 +361,30 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B5" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="8.29"/>
-    <col customWidth="1" min="2" max="2" width="147.86"/>
-    <col customWidth="1" min="3" max="26" width="8.29"/>
+    <col min="1" max="1" width="8.265625" customWidth="1"/>
+    <col min="2" max="2" width="147.86328125" customWidth="1"/>
+    <col min="3" max="26" width="8.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19.5" customHeight="1">
+    <row r="1" spans="1:26" ht="19.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -380,12 +416,12 @@
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
     </row>
-    <row r="2" ht="99.75" customHeight="1">
+    <row r="2" spans="1:26" ht="99.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -412,12 +448,12 @@
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
     </row>
-    <row r="3" ht="99.75" customHeight="1">
+    <row r="3" spans="1:26" ht="99.75" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
@@ -444,12 +480,12 @@
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
     </row>
-    <row r="4" ht="99.75" customHeight="1">
+    <row r="4" spans="1:26" ht="99.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
@@ -476,9 +512,9 @@
       <c r="Y4" s="3"/>
       <c r="Z4" s="3"/>
     </row>
-    <row r="5" ht="99.75" customHeight="1">
+    <row r="5" spans="1:26" ht="99.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>9</v>
@@ -508,7 +544,7 @@
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
     </row>
-    <row r="6" ht="14.25" customHeight="1">
+    <row r="6" spans="1:26" ht="14.25" customHeight="1">
       <c r="A6" s="3"/>
       <c r="B6" s="5"/>
       <c r="C6" s="3"/>
@@ -536,7 +572,7 @@
       <c r="Y6" s="3"/>
       <c r="Z6" s="3"/>
     </row>
-    <row r="7" ht="14.25" customHeight="1">
+    <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" s="3"/>
       <c r="B7" s="5"/>
       <c r="C7" s="3"/>
@@ -564,7 +600,7 @@
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
     </row>
-    <row r="8" ht="14.25" customHeight="1">
+    <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="5"/>
       <c r="C8" s="3"/>
@@ -592,7 +628,7 @@
       <c r="Y8" s="3"/>
       <c r="Z8" s="3"/>
     </row>
-    <row r="9" ht="14.25" customHeight="1">
+    <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="5"/>
       <c r="C9" s="3"/>
@@ -620,7 +656,7 @@
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
     </row>
-    <row r="10" ht="14.25" customHeight="1">
+    <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" s="3"/>
       <c r="B10" s="5"/>
       <c r="C10" s="3"/>
@@ -648,7 +684,7 @@
       <c r="Y10" s="3"/>
       <c r="Z10" s="3"/>
     </row>
-    <row r="11" ht="19.5" customHeight="1">
+    <row r="11" spans="1:26" ht="19.5" customHeight="1">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -676,7 +712,7 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
     </row>
-    <row r="12" ht="19.5" customHeight="1">
+    <row r="12" spans="1:26" ht="19.5" customHeight="1">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -704,7 +740,7 @@
       <c r="Y12" s="3"/>
       <c r="Z12" s="3"/>
     </row>
-    <row r="13" ht="19.5" customHeight="1">
+    <row r="13" spans="1:26" ht="19.5" customHeight="1">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -732,7 +768,7 @@
       <c r="Y13" s="3"/>
       <c r="Z13" s="3"/>
     </row>
-    <row r="14" ht="19.5" customHeight="1">
+    <row r="14" spans="1:26" ht="19.5" customHeight="1">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -760,7 +796,7 @@
       <c r="Y14" s="3"/>
       <c r="Z14" s="3"/>
     </row>
-    <row r="15" ht="19.5" customHeight="1">
+    <row r="15" spans="1:26" ht="19.5" customHeight="1">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -788,7 +824,7 @@
       <c r="Y15" s="3"/>
       <c r="Z15" s="3"/>
     </row>
-    <row r="16" ht="19.5" customHeight="1">
+    <row r="16" spans="1:26" ht="19.5" customHeight="1">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -816,7 +852,7 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
     </row>
-    <row r="17" ht="19.5" customHeight="1">
+    <row r="17" spans="1:26" ht="19.5" customHeight="1">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -844,7 +880,7 @@
       <c r="Y17" s="3"/>
       <c r="Z17" s="3"/>
     </row>
-    <row r="18" ht="19.5" customHeight="1">
+    <row r="18" spans="1:26" ht="19.5" customHeight="1">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -872,7 +908,7 @@
       <c r="Y18" s="3"/>
       <c r="Z18" s="3"/>
     </row>
-    <row r="19" ht="19.5" customHeight="1">
+    <row r="19" spans="1:26" ht="19.5" customHeight="1">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -900,7 +936,7 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
     </row>
-    <row r="20" ht="19.5" customHeight="1">
+    <row r="20" spans="1:26" ht="19.5" customHeight="1">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -928,7 +964,7 @@
       <c r="Y20" s="3"/>
       <c r="Z20" s="3"/>
     </row>
-    <row r="21" ht="19.5" customHeight="1">
+    <row r="21" spans="1:26" ht="19.5" customHeight="1">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -956,7 +992,7 @@
       <c r="Y21" s="3"/>
       <c r="Z21" s="3"/>
     </row>
-    <row r="22" ht="19.5" customHeight="1">
+    <row r="22" spans="1:26" ht="19.5" customHeight="1">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -984,7 +1020,7 @@
       <c r="Y22" s="3"/>
       <c r="Z22" s="3"/>
     </row>
-    <row r="23" ht="19.5" customHeight="1">
+    <row r="23" spans="1:26" ht="19.5" customHeight="1">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1012,7 +1048,7 @@
       <c r="Y23" s="3"/>
       <c r="Z23" s="3"/>
     </row>
-    <row r="24" ht="19.5" customHeight="1">
+    <row r="24" spans="1:26" ht="19.5" customHeight="1">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1040,7 +1076,7 @@
       <c r="Y24" s="3"/>
       <c r="Z24" s="3"/>
     </row>
-    <row r="25" ht="19.5" customHeight="1">
+    <row r="25" spans="1:26" ht="19.5" customHeight="1">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1068,7 +1104,7 @@
       <c r="Y25" s="3"/>
       <c r="Z25" s="3"/>
     </row>
-    <row r="26" ht="19.5" customHeight="1">
+    <row r="26" spans="1:26" ht="19.5" customHeight="1">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1096,7 +1132,7 @@
       <c r="Y26" s="3"/>
       <c r="Z26" s="3"/>
     </row>
-    <row r="27" ht="19.5" customHeight="1">
+    <row r="27" spans="1:26" ht="19.5" customHeight="1">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1124,7 +1160,7 @@
       <c r="Y27" s="3"/>
       <c r="Z27" s="3"/>
     </row>
-    <row r="28" ht="19.5" customHeight="1">
+    <row r="28" spans="1:26" ht="19.5" customHeight="1">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1152,7 +1188,7 @@
       <c r="Y28" s="3"/>
       <c r="Z28" s="3"/>
     </row>
-    <row r="29" ht="19.5" customHeight="1">
+    <row r="29" spans="1:26" ht="19.5" customHeight="1">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1180,7 +1216,7 @@
       <c r="Y29" s="3"/>
       <c r="Z29" s="3"/>
     </row>
-    <row r="30" ht="19.5" customHeight="1">
+    <row r="30" spans="1:26" ht="19.5" customHeight="1">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1208,7 +1244,7 @@
       <c r="Y30" s="3"/>
       <c r="Z30" s="3"/>
     </row>
-    <row r="31" ht="19.5" customHeight="1">
+    <row r="31" spans="1:26" ht="19.5" customHeight="1">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1236,7 +1272,7 @@
       <c r="Y31" s="3"/>
       <c r="Z31" s="3"/>
     </row>
-    <row r="32" ht="19.5" customHeight="1">
+    <row r="32" spans="1:26" ht="19.5" customHeight="1">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -1264,7 +1300,7 @@
       <c r="Y32" s="3"/>
       <c r="Z32" s="3"/>
     </row>
-    <row r="33" ht="19.5" customHeight="1">
+    <row r="33" spans="1:26" ht="19.5" customHeight="1">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -1292,7 +1328,7 @@
       <c r="Y33" s="3"/>
       <c r="Z33" s="3"/>
     </row>
-    <row r="34" ht="19.5" customHeight="1">
+    <row r="34" spans="1:26" ht="19.5" customHeight="1">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -1320,7 +1356,7 @@
       <c r="Y34" s="3"/>
       <c r="Z34" s="3"/>
     </row>
-    <row r="35" ht="19.5" customHeight="1">
+    <row r="35" spans="1:26" ht="19.5" customHeight="1">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -1348,7 +1384,7 @@
       <c r="Y35" s="3"/>
       <c r="Z35" s="3"/>
     </row>
-    <row r="36" ht="19.5" customHeight="1">
+    <row r="36" spans="1:26" ht="19.5" customHeight="1">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -1376,7 +1412,7 @@
       <c r="Y36" s="3"/>
       <c r="Z36" s="3"/>
     </row>
-    <row r="37" ht="19.5" customHeight="1">
+    <row r="37" spans="1:26" ht="19.5" customHeight="1">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -1404,7 +1440,7 @@
       <c r="Y37" s="3"/>
       <c r="Z37" s="3"/>
     </row>
-    <row r="38" ht="19.5" customHeight="1">
+    <row r="38" spans="1:26" ht="19.5" customHeight="1">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -1432,7 +1468,7 @@
       <c r="Y38" s="3"/>
       <c r="Z38" s="3"/>
     </row>
-    <row r="39" ht="19.5" customHeight="1">
+    <row r="39" spans="1:26" ht="19.5" customHeight="1">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -1460,7 +1496,7 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
     </row>
-    <row r="40" ht="19.5" customHeight="1">
+    <row r="40" spans="1:26" ht="19.5" customHeight="1">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -1488,7 +1524,7 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
     </row>
-    <row r="41" ht="19.5" customHeight="1">
+    <row r="41" spans="1:26" ht="19.5" customHeight="1">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -1516,7 +1552,7 @@
       <c r="Y41" s="3"/>
       <c r="Z41" s="3"/>
     </row>
-    <row r="42" ht="19.5" customHeight="1">
+    <row r="42" spans="1:26" ht="19.5" customHeight="1">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -1544,7 +1580,7 @@
       <c r="Y42" s="3"/>
       <c r="Z42" s="3"/>
     </row>
-    <row r="43" ht="19.5" customHeight="1">
+    <row r="43" spans="1:26" ht="19.5" customHeight="1">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -1572,7 +1608,7 @@
       <c r="Y43" s="3"/>
       <c r="Z43" s="3"/>
     </row>
-    <row r="44" ht="19.5" customHeight="1">
+    <row r="44" spans="1:26" ht="19.5" customHeight="1">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -1600,7 +1636,7 @@
       <c r="Y44" s="3"/>
       <c r="Z44" s="3"/>
     </row>
-    <row r="45" ht="19.5" customHeight="1">
+    <row r="45" spans="1:26" ht="19.5" customHeight="1">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -1628,7 +1664,7 @@
       <c r="Y45" s="3"/>
       <c r="Z45" s="3"/>
     </row>
-    <row r="46" ht="19.5" customHeight="1">
+    <row r="46" spans="1:26" ht="19.5" customHeight="1">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -1656,7 +1692,7 @@
       <c r="Y46" s="3"/>
       <c r="Z46" s="3"/>
     </row>
-    <row r="47" ht="19.5" customHeight="1">
+    <row r="47" spans="1:26" ht="19.5" customHeight="1">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -1684,7 +1720,7 @@
       <c r="Y47" s="3"/>
       <c r="Z47" s="3"/>
     </row>
-    <row r="48" ht="19.5" customHeight="1">
+    <row r="48" spans="1:26" ht="19.5" customHeight="1">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -1712,7 +1748,7 @@
       <c r="Y48" s="3"/>
       <c r="Z48" s="3"/>
     </row>
-    <row r="49" ht="19.5" customHeight="1">
+    <row r="49" spans="1:26" ht="19.5" customHeight="1">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -1740,7 +1776,7 @@
       <c r="Y49" s="3"/>
       <c r="Z49" s="3"/>
     </row>
-    <row r="50" ht="19.5" customHeight="1">
+    <row r="50" spans="1:26" ht="19.5" customHeight="1">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -1768,7 +1804,7 @@
       <c r="Y50" s="3"/>
       <c r="Z50" s="3"/>
     </row>
-    <row r="51" ht="19.5" customHeight="1">
+    <row r="51" spans="1:26" ht="19.5" customHeight="1">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -1796,7 +1832,7 @@
       <c r="Y51" s="3"/>
       <c r="Z51" s="3"/>
     </row>
-    <row r="52" ht="19.5" customHeight="1">
+    <row r="52" spans="1:26" ht="19.5" customHeight="1">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -1824,7 +1860,7 @@
       <c r="Y52" s="3"/>
       <c r="Z52" s="3"/>
     </row>
-    <row r="53" ht="19.5" customHeight="1">
+    <row r="53" spans="1:26" ht="19.5" customHeight="1">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -1852,7 +1888,7 @@
       <c r="Y53" s="3"/>
       <c r="Z53" s="3"/>
     </row>
-    <row r="54" ht="19.5" customHeight="1">
+    <row r="54" spans="1:26" ht="19.5" customHeight="1">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -1880,7 +1916,7 @@
       <c r="Y54" s="3"/>
       <c r="Z54" s="3"/>
     </row>
-    <row r="55" ht="19.5" customHeight="1">
+    <row r="55" spans="1:26" ht="19.5" customHeight="1">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -1908,7 +1944,7 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
     </row>
-    <row r="56" ht="19.5" customHeight="1">
+    <row r="56" spans="1:26" ht="19.5" customHeight="1">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -1936,7 +1972,7 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
     </row>
-    <row r="57" ht="19.5" customHeight="1">
+    <row r="57" spans="1:26" ht="19.5" customHeight="1">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -1964,7 +2000,7 @@
       <c r="Y57" s="3"/>
       <c r="Z57" s="3"/>
     </row>
-    <row r="58" ht="19.5" customHeight="1">
+    <row r="58" spans="1:26" ht="19.5" customHeight="1">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -1992,7 +2028,7 @@
       <c r="Y58" s="3"/>
       <c r="Z58" s="3"/>
     </row>
-    <row r="59" ht="19.5" customHeight="1">
+    <row r="59" spans="1:26" ht="19.5" customHeight="1">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -2020,7 +2056,7 @@
       <c r="Y59" s="3"/>
       <c r="Z59" s="3"/>
     </row>
-    <row r="60" ht="19.5" customHeight="1">
+    <row r="60" spans="1:26" ht="19.5" customHeight="1">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -2048,7 +2084,7 @@
       <c r="Y60" s="3"/>
       <c r="Z60" s="3"/>
     </row>
-    <row r="61" ht="19.5" customHeight="1">
+    <row r="61" spans="1:26" ht="19.5" customHeight="1">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -2076,7 +2112,7 @@
       <c r="Y61" s="3"/>
       <c r="Z61" s="3"/>
     </row>
-    <row r="62" ht="19.5" customHeight="1">
+    <row r="62" spans="1:26" ht="19.5" customHeight="1">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -2104,7 +2140,7 @@
       <c r="Y62" s="3"/>
       <c r="Z62" s="3"/>
     </row>
-    <row r="63" ht="19.5" customHeight="1">
+    <row r="63" spans="1:26" ht="19.5" customHeight="1">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -2132,7 +2168,7 @@
       <c r="Y63" s="3"/>
       <c r="Z63" s="3"/>
     </row>
-    <row r="64" ht="19.5" customHeight="1">
+    <row r="64" spans="1:26" ht="19.5" customHeight="1">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -2160,7 +2196,7 @@
       <c r="Y64" s="3"/>
       <c r="Z64" s="3"/>
     </row>
-    <row r="65" ht="19.5" customHeight="1">
+    <row r="65" spans="1:26" ht="19.5" customHeight="1">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -2188,7 +2224,7 @@
       <c r="Y65" s="3"/>
       <c r="Z65" s="3"/>
     </row>
-    <row r="66" ht="19.5" customHeight="1">
+    <row r="66" spans="1:26" ht="19.5" customHeight="1">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -2216,7 +2252,7 @@
       <c r="Y66" s="3"/>
       <c r="Z66" s="3"/>
     </row>
-    <row r="67" ht="19.5" customHeight="1">
+    <row r="67" spans="1:26" ht="19.5" customHeight="1">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -2244,7 +2280,7 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
     </row>
-    <row r="68" ht="19.5" customHeight="1">
+    <row r="68" spans="1:26" ht="19.5" customHeight="1">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -2272,7 +2308,7 @@
       <c r="Y68" s="3"/>
       <c r="Z68" s="3"/>
     </row>
-    <row r="69" ht="19.5" customHeight="1">
+    <row r="69" spans="1:26" ht="19.5" customHeight="1">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -2300,7 +2336,7 @@
       <c r="Y69" s="3"/>
       <c r="Z69" s="3"/>
     </row>
-    <row r="70" ht="19.5" customHeight="1">
+    <row r="70" spans="1:26" ht="19.5" customHeight="1">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -2328,7 +2364,7 @@
       <c r="Y70" s="3"/>
       <c r="Z70" s="3"/>
     </row>
-    <row r="71" ht="19.5" customHeight="1">
+    <row r="71" spans="1:26" ht="19.5" customHeight="1">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -2356,7 +2392,7 @@
       <c r="Y71" s="3"/>
       <c r="Z71" s="3"/>
     </row>
-    <row r="72" ht="19.5" customHeight="1">
+    <row r="72" spans="1:26" ht="19.5" customHeight="1">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -2384,7 +2420,7 @@
       <c r="Y72" s="3"/>
       <c r="Z72" s="3"/>
     </row>
-    <row r="73" ht="19.5" customHeight="1">
+    <row r="73" spans="1:26" ht="19.5" customHeight="1">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -2412,7 +2448,7 @@
       <c r="Y73" s="3"/>
       <c r="Z73" s="3"/>
     </row>
-    <row r="74" ht="19.5" customHeight="1">
+    <row r="74" spans="1:26" ht="19.5" customHeight="1">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -2440,7 +2476,7 @@
       <c r="Y74" s="3"/>
       <c r="Z74" s="3"/>
     </row>
-    <row r="75" ht="19.5" customHeight="1">
+    <row r="75" spans="1:26" ht="19.5" customHeight="1">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -2468,7 +2504,7 @@
       <c r="Y75" s="3"/>
       <c r="Z75" s="3"/>
     </row>
-    <row r="76" ht="19.5" customHeight="1">
+    <row r="76" spans="1:26" ht="19.5" customHeight="1">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -2496,7 +2532,7 @@
       <c r="Y76" s="3"/>
       <c r="Z76" s="3"/>
     </row>
-    <row r="77" ht="19.5" customHeight="1">
+    <row r="77" spans="1:26" ht="19.5" customHeight="1">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -2524,7 +2560,7 @@
       <c r="Y77" s="3"/>
       <c r="Z77" s="3"/>
     </row>
-    <row r="78" ht="19.5" customHeight="1">
+    <row r="78" spans="1:26" ht="19.5" customHeight="1">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -2552,7 +2588,7 @@
       <c r="Y78" s="3"/>
       <c r="Z78" s="3"/>
     </row>
-    <row r="79" ht="19.5" customHeight="1">
+    <row r="79" spans="1:26" ht="19.5" customHeight="1">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -2580,7 +2616,7 @@
       <c r="Y79" s="3"/>
       <c r="Z79" s="3"/>
     </row>
-    <row r="80" ht="19.5" customHeight="1">
+    <row r="80" spans="1:26" ht="19.5" customHeight="1">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -2608,7 +2644,7 @@
       <c r="Y80" s="3"/>
       <c r="Z80" s="3"/>
     </row>
-    <row r="81" ht="19.5" customHeight="1">
+    <row r="81" spans="1:26" ht="19.5" customHeight="1">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -2636,7 +2672,7 @@
       <c r="Y81" s="3"/>
       <c r="Z81" s="3"/>
     </row>
-    <row r="82" ht="19.5" customHeight="1">
+    <row r="82" spans="1:26" ht="19.5" customHeight="1">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -2664,7 +2700,7 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
     </row>
-    <row r="83" ht="19.5" customHeight="1">
+    <row r="83" spans="1:26" ht="19.5" customHeight="1">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -2692,7 +2728,7 @@
       <c r="Y83" s="3"/>
       <c r="Z83" s="3"/>
     </row>
-    <row r="84" ht="19.5" customHeight="1">
+    <row r="84" spans="1:26" ht="19.5" customHeight="1">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -2720,7 +2756,7 @@
       <c r="Y84" s="3"/>
       <c r="Z84" s="3"/>
     </row>
-    <row r="85" ht="19.5" customHeight="1">
+    <row r="85" spans="1:26" ht="19.5" customHeight="1">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -2748,7 +2784,7 @@
       <c r="Y85" s="3"/>
       <c r="Z85" s="3"/>
     </row>
-    <row r="86" ht="19.5" customHeight="1">
+    <row r="86" spans="1:26" ht="19.5" customHeight="1">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -2776,7 +2812,7 @@
       <c r="Y86" s="3"/>
       <c r="Z86" s="3"/>
     </row>
-    <row r="87" ht="19.5" customHeight="1">
+    <row r="87" spans="1:26" ht="19.5" customHeight="1">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -2804,7 +2840,7 @@
       <c r="Y87" s="3"/>
       <c r="Z87" s="3"/>
     </row>
-    <row r="88" ht="19.5" customHeight="1">
+    <row r="88" spans="1:26" ht="19.5" customHeight="1">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -2832,7 +2868,7 @@
       <c r="Y88" s="3"/>
       <c r="Z88" s="3"/>
     </row>
-    <row r="89" ht="19.5" customHeight="1">
+    <row r="89" spans="1:26" ht="19.5" customHeight="1">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -2860,7 +2896,7 @@
       <c r="Y89" s="3"/>
       <c r="Z89" s="3"/>
     </row>
-    <row r="90" ht="19.5" customHeight="1">
+    <row r="90" spans="1:26" ht="19.5" customHeight="1">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -2888,7 +2924,7 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
     </row>
-    <row r="91" ht="19.5" customHeight="1">
+    <row r="91" spans="1:26" ht="19.5" customHeight="1">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -2916,7 +2952,7 @@
       <c r="Y91" s="3"/>
       <c r="Z91" s="3"/>
     </row>
-    <row r="92" ht="19.5" customHeight="1">
+    <row r="92" spans="1:26" ht="19.5" customHeight="1">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -2944,7 +2980,7 @@
       <c r="Y92" s="3"/>
       <c r="Z92" s="3"/>
     </row>
-    <row r="93" ht="19.5" customHeight="1">
+    <row r="93" spans="1:26" ht="19.5" customHeight="1">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -2972,7 +3008,7 @@
       <c r="Y93" s="3"/>
       <c r="Z93" s="3"/>
     </row>
-    <row r="94" ht="19.5" customHeight="1">
+    <row r="94" spans="1:26" ht="19.5" customHeight="1">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -3000,7 +3036,7 @@
       <c r="Y94" s="3"/>
       <c r="Z94" s="3"/>
     </row>
-    <row r="95" ht="19.5" customHeight="1">
+    <row r="95" spans="1:26" ht="19.5" customHeight="1">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -3028,7 +3064,7 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
     </row>
-    <row r="96" ht="19.5" customHeight="1">
+    <row r="96" spans="1:26" ht="19.5" customHeight="1">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -3056,7 +3092,7 @@
       <c r="Y96" s="3"/>
       <c r="Z96" s="3"/>
     </row>
-    <row r="97" ht="19.5" customHeight="1">
+    <row r="97" spans="1:26" ht="19.5" customHeight="1">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -3084,7 +3120,7 @@
       <c r="Y97" s="3"/>
       <c r="Z97" s="3"/>
     </row>
-    <row r="98" ht="19.5" customHeight="1">
+    <row r="98" spans="1:26" ht="19.5" customHeight="1">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -3112,7 +3148,7 @@
       <c r="Y98" s="3"/>
       <c r="Z98" s="3"/>
     </row>
-    <row r="99" ht="19.5" customHeight="1">
+    <row r="99" spans="1:26" ht="19.5" customHeight="1">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -3140,7 +3176,7 @@
       <c r="Y99" s="3"/>
       <c r="Z99" s="3"/>
     </row>
-    <row r="100" ht="19.5" customHeight="1">
+    <row r="100" spans="1:26" ht="19.5" customHeight="1">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -3168,7 +3204,7 @@
       <c r="Y100" s="3"/>
       <c r="Z100" s="3"/>
     </row>
-    <row r="101" ht="19.5" customHeight="1">
+    <row r="101" spans="1:26" ht="19.5" customHeight="1">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -3196,7 +3232,7 @@
       <c r="Y101" s="3"/>
       <c r="Z101" s="3"/>
     </row>
-    <row r="102" ht="19.5" customHeight="1">
+    <row r="102" spans="1:26" ht="19.5" customHeight="1">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -3224,7 +3260,7 @@
       <c r="Y102" s="3"/>
       <c r="Z102" s="3"/>
     </row>
-    <row r="103" ht="19.5" customHeight="1">
+    <row r="103" spans="1:26" ht="19.5" customHeight="1">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -3252,7 +3288,7 @@
       <c r="Y103" s="3"/>
       <c r="Z103" s="3"/>
     </row>
-    <row r="104" ht="19.5" customHeight="1">
+    <row r="104" spans="1:26" ht="19.5" customHeight="1">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -3280,7 +3316,7 @@
       <c r="Y104" s="3"/>
       <c r="Z104" s="3"/>
     </row>
-    <row r="105" ht="19.5" customHeight="1">
+    <row r="105" spans="1:26" ht="19.5" customHeight="1">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -3308,7 +3344,7 @@
       <c r="Y105" s="3"/>
       <c r="Z105" s="3"/>
     </row>
-    <row r="106" ht="19.5" customHeight="1">
+    <row r="106" spans="1:26" ht="19.5" customHeight="1">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -3336,7 +3372,7 @@
       <c r="Y106" s="3"/>
       <c r="Z106" s="3"/>
     </row>
-    <row r="107" ht="19.5" customHeight="1">
+    <row r="107" spans="1:26" ht="19.5" customHeight="1">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -3364,7 +3400,7 @@
       <c r="Y107" s="3"/>
       <c r="Z107" s="3"/>
     </row>
-    <row r="108" ht="19.5" customHeight="1">
+    <row r="108" spans="1:26" ht="19.5" customHeight="1">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -3392,7 +3428,7 @@
       <c r="Y108" s="3"/>
       <c r="Z108" s="3"/>
     </row>
-    <row r="109" ht="19.5" customHeight="1">
+    <row r="109" spans="1:26" ht="19.5" customHeight="1">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -3420,7 +3456,7 @@
       <c r="Y109" s="3"/>
       <c r="Z109" s="3"/>
     </row>
-    <row r="110" ht="19.5" customHeight="1">
+    <row r="110" spans="1:26" ht="19.5" customHeight="1">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -3448,7 +3484,7 @@
       <c r="Y110" s="3"/>
       <c r="Z110" s="3"/>
     </row>
-    <row r="111" ht="19.5" customHeight="1">
+    <row r="111" spans="1:26" ht="19.5" customHeight="1">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -3476,7 +3512,7 @@
       <c r="Y111" s="3"/>
       <c r="Z111" s="3"/>
     </row>
-    <row r="112" ht="19.5" customHeight="1">
+    <row r="112" spans="1:26" ht="19.5" customHeight="1">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -3504,7 +3540,7 @@
       <c r="Y112" s="3"/>
       <c r="Z112" s="3"/>
     </row>
-    <row r="113" ht="19.5" customHeight="1">
+    <row r="113" spans="1:26" ht="19.5" customHeight="1">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -3532,7 +3568,7 @@
       <c r="Y113" s="3"/>
       <c r="Z113" s="3"/>
     </row>
-    <row r="114" ht="19.5" customHeight="1">
+    <row r="114" spans="1:26" ht="19.5" customHeight="1">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -3560,7 +3596,7 @@
       <c r="Y114" s="3"/>
       <c r="Z114" s="3"/>
     </row>
-    <row r="115" ht="19.5" customHeight="1">
+    <row r="115" spans="1:26" ht="19.5" customHeight="1">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -3588,7 +3624,7 @@
       <c r="Y115" s="3"/>
       <c r="Z115" s="3"/>
     </row>
-    <row r="116" ht="19.5" customHeight="1">
+    <row r="116" spans="1:26" ht="19.5" customHeight="1">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -3616,7 +3652,7 @@
       <c r="Y116" s="3"/>
       <c r="Z116" s="3"/>
     </row>
-    <row r="117" ht="19.5" customHeight="1">
+    <row r="117" spans="1:26" ht="19.5" customHeight="1">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -3644,7 +3680,7 @@
       <c r="Y117" s="3"/>
       <c r="Z117" s="3"/>
     </row>
-    <row r="118" ht="19.5" customHeight="1">
+    <row r="118" spans="1:26" ht="19.5" customHeight="1">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -3672,7 +3708,7 @@
       <c r="Y118" s="3"/>
       <c r="Z118" s="3"/>
     </row>
-    <row r="119" ht="19.5" customHeight="1">
+    <row r="119" spans="1:26" ht="19.5" customHeight="1">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -3700,7 +3736,7 @@
       <c r="Y119" s="3"/>
       <c r="Z119" s="3"/>
     </row>
-    <row r="120" ht="19.5" customHeight="1">
+    <row r="120" spans="1:26" ht="19.5" customHeight="1">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -3728,7 +3764,7 @@
       <c r="Y120" s="3"/>
       <c r="Z120" s="3"/>
     </row>
-    <row r="121" ht="19.5" customHeight="1">
+    <row r="121" spans="1:26" ht="19.5" customHeight="1">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -3756,7 +3792,7 @@
       <c r="Y121" s="3"/>
       <c r="Z121" s="3"/>
     </row>
-    <row r="122" ht="19.5" customHeight="1">
+    <row r="122" spans="1:26" ht="19.5" customHeight="1">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -3784,7 +3820,7 @@
       <c r="Y122" s="3"/>
       <c r="Z122" s="3"/>
     </row>
-    <row r="123" ht="19.5" customHeight="1">
+    <row r="123" spans="1:26" ht="19.5" customHeight="1">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -3812,7 +3848,7 @@
       <c r="Y123" s="3"/>
       <c r="Z123" s="3"/>
     </row>
-    <row r="124" ht="19.5" customHeight="1">
+    <row r="124" spans="1:26" ht="19.5" customHeight="1">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -3840,7 +3876,7 @@
       <c r="Y124" s="3"/>
       <c r="Z124" s="3"/>
     </row>
-    <row r="125" ht="19.5" customHeight="1">
+    <row r="125" spans="1:26" ht="19.5" customHeight="1">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -3868,7 +3904,7 @@
       <c r="Y125" s="3"/>
       <c r="Z125" s="3"/>
     </row>
-    <row r="126" ht="19.5" customHeight="1">
+    <row r="126" spans="1:26" ht="19.5" customHeight="1">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -3896,7 +3932,7 @@
       <c r="Y126" s="3"/>
       <c r="Z126" s="3"/>
     </row>
-    <row r="127" ht="19.5" customHeight="1">
+    <row r="127" spans="1:26" ht="19.5" customHeight="1">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -3924,7 +3960,7 @@
       <c r="Y127" s="3"/>
       <c r="Z127" s="3"/>
     </row>
-    <row r="128" ht="19.5" customHeight="1">
+    <row r="128" spans="1:26" ht="19.5" customHeight="1">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -3952,7 +3988,7 @@
       <c r="Y128" s="3"/>
       <c r="Z128" s="3"/>
     </row>
-    <row r="129" ht="19.5" customHeight="1">
+    <row r="129" spans="1:26" ht="19.5" customHeight="1">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -3980,7 +4016,7 @@
       <c r="Y129" s="3"/>
       <c r="Z129" s="3"/>
     </row>
-    <row r="130" ht="19.5" customHeight="1">
+    <row r="130" spans="1:26" ht="19.5" customHeight="1">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -4008,7 +4044,7 @@
       <c r="Y130" s="3"/>
       <c r="Z130" s="3"/>
     </row>
-    <row r="131" ht="19.5" customHeight="1">
+    <row r="131" spans="1:26" ht="19.5" customHeight="1">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -4036,7 +4072,7 @@
       <c r="Y131" s="3"/>
       <c r="Z131" s="3"/>
     </row>
-    <row r="132" ht="19.5" customHeight="1">
+    <row r="132" spans="1:26" ht="19.5" customHeight="1">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -4064,7 +4100,7 @@
       <c r="Y132" s="3"/>
       <c r="Z132" s="3"/>
     </row>
-    <row r="133" ht="19.5" customHeight="1">
+    <row r="133" spans="1:26" ht="19.5" customHeight="1">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -4092,7 +4128,7 @@
       <c r="Y133" s="3"/>
       <c r="Z133" s="3"/>
     </row>
-    <row r="134" ht="19.5" customHeight="1">
+    <row r="134" spans="1:26" ht="19.5" customHeight="1">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
@@ -4120,7 +4156,7 @@
       <c r="Y134" s="3"/>
       <c r="Z134" s="3"/>
     </row>
-    <row r="135" ht="19.5" customHeight="1">
+    <row r="135" spans="1:26" ht="19.5" customHeight="1">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -4148,7 +4184,7 @@
       <c r="Y135" s="3"/>
       <c r="Z135" s="3"/>
     </row>
-    <row r="136" ht="19.5" customHeight="1">
+    <row r="136" spans="1:26" ht="19.5" customHeight="1">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -4176,7 +4212,7 @@
       <c r="Y136" s="3"/>
       <c r="Z136" s="3"/>
     </row>
-    <row r="137" ht="19.5" customHeight="1">
+    <row r="137" spans="1:26" ht="19.5" customHeight="1">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
@@ -4204,7 +4240,7 @@
       <c r="Y137" s="3"/>
       <c r="Z137" s="3"/>
     </row>
-    <row r="138" ht="19.5" customHeight="1">
+    <row r="138" spans="1:26" ht="19.5" customHeight="1">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
@@ -4232,7 +4268,7 @@
       <c r="Y138" s="3"/>
       <c r="Z138" s="3"/>
     </row>
-    <row r="139" ht="19.5" customHeight="1">
+    <row r="139" spans="1:26" ht="19.5" customHeight="1">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
@@ -4260,7 +4296,7 @@
       <c r="Y139" s="3"/>
       <c r="Z139" s="3"/>
     </row>
-    <row r="140" ht="19.5" customHeight="1">
+    <row r="140" spans="1:26" ht="19.5" customHeight="1">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -4288,7 +4324,7 @@
       <c r="Y140" s="3"/>
       <c r="Z140" s="3"/>
     </row>
-    <row r="141" ht="19.5" customHeight="1">
+    <row r="141" spans="1:26" ht="19.5" customHeight="1">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
@@ -4316,7 +4352,7 @@
       <c r="Y141" s="3"/>
       <c r="Z141" s="3"/>
     </row>
-    <row r="142" ht="19.5" customHeight="1">
+    <row r="142" spans="1:26" ht="19.5" customHeight="1">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -4344,7 +4380,7 @@
       <c r="Y142" s="3"/>
       <c r="Z142" s="3"/>
     </row>
-    <row r="143" ht="19.5" customHeight="1">
+    <row r="143" spans="1:26" ht="19.5" customHeight="1">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
@@ -4372,7 +4408,7 @@
       <c r="Y143" s="3"/>
       <c r="Z143" s="3"/>
     </row>
-    <row r="144" ht="19.5" customHeight="1">
+    <row r="144" spans="1:26" ht="19.5" customHeight="1">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
@@ -4400,7 +4436,7 @@
       <c r="Y144" s="3"/>
       <c r="Z144" s="3"/>
     </row>
-    <row r="145" ht="19.5" customHeight="1">
+    <row r="145" spans="1:26" ht="19.5" customHeight="1">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
@@ -4428,7 +4464,7 @@
       <c r="Y145" s="3"/>
       <c r="Z145" s="3"/>
     </row>
-    <row r="146" ht="19.5" customHeight="1">
+    <row r="146" spans="1:26" ht="19.5" customHeight="1">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
@@ -4456,7 +4492,7 @@
       <c r="Y146" s="3"/>
       <c r="Z146" s="3"/>
     </row>
-    <row r="147" ht="19.5" customHeight="1">
+    <row r="147" spans="1:26" ht="19.5" customHeight="1">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
@@ -4484,7 +4520,7 @@
       <c r="Y147" s="3"/>
       <c r="Z147" s="3"/>
     </row>
-    <row r="148" ht="19.5" customHeight="1">
+    <row r="148" spans="1:26" ht="19.5" customHeight="1">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
@@ -4512,7 +4548,7 @@
       <c r="Y148" s="3"/>
       <c r="Z148" s="3"/>
     </row>
-    <row r="149" ht="19.5" customHeight="1">
+    <row r="149" spans="1:26" ht="19.5" customHeight="1">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
@@ -4540,7 +4576,7 @@
       <c r="Y149" s="3"/>
       <c r="Z149" s="3"/>
     </row>
-    <row r="150" ht="19.5" customHeight="1">
+    <row r="150" spans="1:26" ht="19.5" customHeight="1">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
@@ -4568,7 +4604,7 @@
       <c r="Y150" s="3"/>
       <c r="Z150" s="3"/>
     </row>
-    <row r="151" ht="19.5" customHeight="1">
+    <row r="151" spans="1:26" ht="19.5" customHeight="1">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
@@ -4596,7 +4632,7 @@
       <c r="Y151" s="3"/>
       <c r="Z151" s="3"/>
     </row>
-    <row r="152" ht="19.5" customHeight="1">
+    <row r="152" spans="1:26" ht="19.5" customHeight="1">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -4624,7 +4660,7 @@
       <c r="Y152" s="3"/>
       <c r="Z152" s="3"/>
     </row>
-    <row r="153" ht="19.5" customHeight="1">
+    <row r="153" spans="1:26" ht="19.5" customHeight="1">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
@@ -4652,7 +4688,7 @@
       <c r="Y153" s="3"/>
       <c r="Z153" s="3"/>
     </row>
-    <row r="154" ht="19.5" customHeight="1">
+    <row r="154" spans="1:26" ht="19.5" customHeight="1">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
@@ -4680,7 +4716,7 @@
       <c r="Y154" s="3"/>
       <c r="Z154" s="3"/>
     </row>
-    <row r="155" ht="19.5" customHeight="1">
+    <row r="155" spans="1:26" ht="19.5" customHeight="1">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
@@ -4708,7 +4744,7 @@
       <c r="Y155" s="3"/>
       <c r="Z155" s="3"/>
     </row>
-    <row r="156" ht="19.5" customHeight="1">
+    <row r="156" spans="1:26" ht="19.5" customHeight="1">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
@@ -4736,7 +4772,7 @@
       <c r="Y156" s="3"/>
       <c r="Z156" s="3"/>
     </row>
-    <row r="157" ht="19.5" customHeight="1">
+    <row r="157" spans="1:26" ht="19.5" customHeight="1">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
@@ -4764,7 +4800,7 @@
       <c r="Y157" s="3"/>
       <c r="Z157" s="3"/>
     </row>
-    <row r="158" ht="19.5" customHeight="1">
+    <row r="158" spans="1:26" ht="19.5" customHeight="1">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -4792,7 +4828,7 @@
       <c r="Y158" s="3"/>
       <c r="Z158" s="3"/>
     </row>
-    <row r="159" ht="19.5" customHeight="1">
+    <row r="159" spans="1:26" ht="19.5" customHeight="1">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -4820,7 +4856,7 @@
       <c r="Y159" s="3"/>
       <c r="Z159" s="3"/>
     </row>
-    <row r="160" ht="19.5" customHeight="1">
+    <row r="160" spans="1:26" ht="19.5" customHeight="1">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
@@ -4848,7 +4884,7 @@
       <c r="Y160" s="3"/>
       <c r="Z160" s="3"/>
     </row>
-    <row r="161" ht="19.5" customHeight="1">
+    <row r="161" spans="1:26" ht="19.5" customHeight="1">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
@@ -4876,7 +4912,7 @@
       <c r="Y161" s="3"/>
       <c r="Z161" s="3"/>
     </row>
-    <row r="162" ht="19.5" customHeight="1">
+    <row r="162" spans="1:26" ht="19.5" customHeight="1">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
@@ -4904,7 +4940,7 @@
       <c r="Y162" s="3"/>
       <c r="Z162" s="3"/>
     </row>
-    <row r="163" ht="19.5" customHeight="1">
+    <row r="163" spans="1:26" ht="19.5" customHeight="1">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
@@ -4932,7 +4968,7 @@
       <c r="Y163" s="3"/>
       <c r="Z163" s="3"/>
     </row>
-    <row r="164" ht="19.5" customHeight="1">
+    <row r="164" spans="1:26" ht="19.5" customHeight="1">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
@@ -4960,7 +4996,7 @@
       <c r="Y164" s="3"/>
       <c r="Z164" s="3"/>
     </row>
-    <row r="165" ht="19.5" customHeight="1">
+    <row r="165" spans="1:26" ht="19.5" customHeight="1">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
@@ -4988,7 +5024,7 @@
       <c r="Y165" s="3"/>
       <c r="Z165" s="3"/>
     </row>
-    <row r="166" ht="19.5" customHeight="1">
+    <row r="166" spans="1:26" ht="19.5" customHeight="1">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
@@ -5016,7 +5052,7 @@
       <c r="Y166" s="3"/>
       <c r="Z166" s="3"/>
     </row>
-    <row r="167" ht="19.5" customHeight="1">
+    <row r="167" spans="1:26" ht="19.5" customHeight="1">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
@@ -5044,7 +5080,7 @@
       <c r="Y167" s="3"/>
       <c r="Z167" s="3"/>
     </row>
-    <row r="168" ht="19.5" customHeight="1">
+    <row r="168" spans="1:26" ht="19.5" customHeight="1">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
@@ -5072,7 +5108,7 @@
       <c r="Y168" s="3"/>
       <c r="Z168" s="3"/>
     </row>
-    <row r="169" ht="19.5" customHeight="1">
+    <row r="169" spans="1:26" ht="19.5" customHeight="1">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
@@ -5100,7 +5136,7 @@
       <c r="Y169" s="3"/>
       <c r="Z169" s="3"/>
     </row>
-    <row r="170" ht="19.5" customHeight="1">
+    <row r="170" spans="1:26" ht="19.5" customHeight="1">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
@@ -5128,7 +5164,7 @@
       <c r="Y170" s="3"/>
       <c r="Z170" s="3"/>
     </row>
-    <row r="171" ht="19.5" customHeight="1">
+    <row r="171" spans="1:26" ht="19.5" customHeight="1">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
@@ -5156,7 +5192,7 @@
       <c r="Y171" s="3"/>
       <c r="Z171" s="3"/>
     </row>
-    <row r="172" ht="19.5" customHeight="1">
+    <row r="172" spans="1:26" ht="19.5" customHeight="1">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
@@ -5184,7 +5220,7 @@
       <c r="Y172" s="3"/>
       <c r="Z172" s="3"/>
     </row>
-    <row r="173" ht="19.5" customHeight="1">
+    <row r="173" spans="1:26" ht="19.5" customHeight="1">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
@@ -5212,7 +5248,7 @@
       <c r="Y173" s="3"/>
       <c r="Z173" s="3"/>
     </row>
-    <row r="174" ht="19.5" customHeight="1">
+    <row r="174" spans="1:26" ht="19.5" customHeight="1">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
@@ -5240,7 +5276,7 @@
       <c r="Y174" s="3"/>
       <c r="Z174" s="3"/>
     </row>
-    <row r="175" ht="19.5" customHeight="1">
+    <row r="175" spans="1:26" ht="19.5" customHeight="1">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
@@ -5268,7 +5304,7 @@
       <c r="Y175" s="3"/>
       <c r="Z175" s="3"/>
     </row>
-    <row r="176" ht="19.5" customHeight="1">
+    <row r="176" spans="1:26" ht="19.5" customHeight="1">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
@@ -5296,7 +5332,7 @@
       <c r="Y176" s="3"/>
       <c r="Z176" s="3"/>
     </row>
-    <row r="177" ht="19.5" customHeight="1">
+    <row r="177" spans="1:26" ht="19.5" customHeight="1">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
@@ -5324,7 +5360,7 @@
       <c r="Y177" s="3"/>
       <c r="Z177" s="3"/>
     </row>
-    <row r="178" ht="19.5" customHeight="1">
+    <row r="178" spans="1:26" ht="19.5" customHeight="1">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
@@ -5352,7 +5388,7 @@
       <c r="Y178" s="3"/>
       <c r="Z178" s="3"/>
     </row>
-    <row r="179" ht="19.5" customHeight="1">
+    <row r="179" spans="1:26" ht="19.5" customHeight="1">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
@@ -5380,7 +5416,7 @@
       <c r="Y179" s="3"/>
       <c r="Z179" s="3"/>
     </row>
-    <row r="180" ht="19.5" customHeight="1">
+    <row r="180" spans="1:26" ht="19.5" customHeight="1">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
@@ -5408,7 +5444,7 @@
       <c r="Y180" s="3"/>
       <c r="Z180" s="3"/>
     </row>
-    <row r="181" ht="19.5" customHeight="1">
+    <row r="181" spans="1:26" ht="19.5" customHeight="1">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
@@ -5436,7 +5472,7 @@
       <c r="Y181" s="3"/>
       <c r="Z181" s="3"/>
     </row>
-    <row r="182" ht="19.5" customHeight="1">
+    <row r="182" spans="1:26" ht="19.5" customHeight="1">
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
@@ -5464,7 +5500,7 @@
       <c r="Y182" s="3"/>
       <c r="Z182" s="3"/>
     </row>
-    <row r="183" ht="19.5" customHeight="1">
+    <row r="183" spans="1:26" ht="19.5" customHeight="1">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
@@ -5492,7 +5528,7 @@
       <c r="Y183" s="3"/>
       <c r="Z183" s="3"/>
     </row>
-    <row r="184" ht="19.5" customHeight="1">
+    <row r="184" spans="1:26" ht="19.5" customHeight="1">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
@@ -5520,7 +5556,7 @@
       <c r="Y184" s="3"/>
       <c r="Z184" s="3"/>
     </row>
-    <row r="185" ht="19.5" customHeight="1">
+    <row r="185" spans="1:26" ht="19.5" customHeight="1">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
@@ -5548,7 +5584,7 @@
       <c r="Y185" s="3"/>
       <c r="Z185" s="3"/>
     </row>
-    <row r="186" ht="19.5" customHeight="1">
+    <row r="186" spans="1:26" ht="19.5" customHeight="1">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
@@ -5576,7 +5612,7 @@
       <c r="Y186" s="3"/>
       <c r="Z186" s="3"/>
     </row>
-    <row r="187" ht="19.5" customHeight="1">
+    <row r="187" spans="1:26" ht="19.5" customHeight="1">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
@@ -5604,7 +5640,7 @@
       <c r="Y187" s="3"/>
       <c r="Z187" s="3"/>
     </row>
-    <row r="188" ht="19.5" customHeight="1">
+    <row r="188" spans="1:26" ht="19.5" customHeight="1">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
@@ -5632,7 +5668,7 @@
       <c r="Y188" s="3"/>
       <c r="Z188" s="3"/>
     </row>
-    <row r="189" ht="19.5" customHeight="1">
+    <row r="189" spans="1:26" ht="19.5" customHeight="1">
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
@@ -5660,7 +5696,7 @@
       <c r="Y189" s="3"/>
       <c r="Z189" s="3"/>
     </row>
-    <row r="190" ht="19.5" customHeight="1">
+    <row r="190" spans="1:26" ht="19.5" customHeight="1">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
@@ -5688,7 +5724,7 @@
       <c r="Y190" s="3"/>
       <c r="Z190" s="3"/>
     </row>
-    <row r="191" ht="19.5" customHeight="1">
+    <row r="191" spans="1:26" ht="19.5" customHeight="1">
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
@@ -5716,7 +5752,7 @@
       <c r="Y191" s="3"/>
       <c r="Z191" s="3"/>
     </row>
-    <row r="192" ht="19.5" customHeight="1">
+    <row r="192" spans="1:26" ht="19.5" customHeight="1">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
@@ -5744,7 +5780,7 @@
       <c r="Y192" s="3"/>
       <c r="Z192" s="3"/>
     </row>
-    <row r="193" ht="19.5" customHeight="1">
+    <row r="193" spans="1:26" ht="19.5" customHeight="1">
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
@@ -5772,7 +5808,7 @@
       <c r="Y193" s="3"/>
       <c r="Z193" s="3"/>
     </row>
-    <row r="194" ht="19.5" customHeight="1">
+    <row r="194" spans="1:26" ht="19.5" customHeight="1">
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
@@ -5800,7 +5836,7 @@
       <c r="Y194" s="3"/>
       <c r="Z194" s="3"/>
     </row>
-    <row r="195" ht="19.5" customHeight="1">
+    <row r="195" spans="1:26" ht="19.5" customHeight="1">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
@@ -5828,7 +5864,7 @@
       <c r="Y195" s="3"/>
       <c r="Z195" s="3"/>
     </row>
-    <row r="196" ht="19.5" customHeight="1">
+    <row r="196" spans="1:26" ht="19.5" customHeight="1">
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
@@ -5856,7 +5892,7 @@
       <c r="Y196" s="3"/>
       <c r="Z196" s="3"/>
     </row>
-    <row r="197" ht="19.5" customHeight="1">
+    <row r="197" spans="1:26" ht="19.5" customHeight="1">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
@@ -5884,7 +5920,7 @@
       <c r="Y197" s="3"/>
       <c r="Z197" s="3"/>
     </row>
-    <row r="198" ht="19.5" customHeight="1">
+    <row r="198" spans="1:26" ht="19.5" customHeight="1">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
@@ -5912,7 +5948,7 @@
       <c r="Y198" s="3"/>
       <c r="Z198" s="3"/>
     </row>
-    <row r="199" ht="19.5" customHeight="1">
+    <row r="199" spans="1:26" ht="19.5" customHeight="1">
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
@@ -5940,7 +5976,7 @@
       <c r="Y199" s="3"/>
       <c r="Z199" s="3"/>
     </row>
-    <row r="200" ht="19.5" customHeight="1">
+    <row r="200" spans="1:26" ht="19.5" customHeight="1">
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
@@ -5968,7 +6004,7 @@
       <c r="Y200" s="3"/>
       <c r="Z200" s="3"/>
     </row>
-    <row r="201" ht="19.5" customHeight="1">
+    <row r="201" spans="1:26" ht="19.5" customHeight="1">
       <c r="A201" s="3"/>
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
@@ -5996,7 +6032,7 @@
       <c r="Y201" s="3"/>
       <c r="Z201" s="3"/>
     </row>
-    <row r="202" ht="19.5" customHeight="1">
+    <row r="202" spans="1:26" ht="19.5" customHeight="1">
       <c r="A202" s="3"/>
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
@@ -6024,7 +6060,7 @@
       <c r="Y202" s="3"/>
       <c r="Z202" s="3"/>
     </row>
-    <row r="203" ht="19.5" customHeight="1">
+    <row r="203" spans="1:26" ht="19.5" customHeight="1">
       <c r="A203" s="3"/>
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
@@ -6052,7 +6088,7 @@
       <c r="Y203" s="3"/>
       <c r="Z203" s="3"/>
     </row>
-    <row r="204" ht="19.5" customHeight="1">
+    <row r="204" spans="1:26" ht="19.5" customHeight="1">
       <c r="A204" s="3"/>
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
@@ -6080,7 +6116,7 @@
       <c r="Y204" s="3"/>
       <c r="Z204" s="3"/>
     </row>
-    <row r="205" ht="19.5" customHeight="1">
+    <row r="205" spans="1:26" ht="19.5" customHeight="1">
       <c r="A205" s="3"/>
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
@@ -6108,7 +6144,7 @@
       <c r="Y205" s="3"/>
       <c r="Z205" s="3"/>
     </row>
-    <row r="206" ht="19.5" customHeight="1">
+    <row r="206" spans="1:26" ht="19.5" customHeight="1">
       <c r="A206" s="3"/>
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
@@ -6136,7 +6172,7 @@
       <c r="Y206" s="3"/>
       <c r="Z206" s="3"/>
     </row>
-    <row r="207" ht="19.5" customHeight="1">
+    <row r="207" spans="1:26" ht="19.5" customHeight="1">
       <c r="A207" s="3"/>
       <c r="B207" s="3"/>
       <c r="C207" s="3"/>
@@ -6164,7 +6200,7 @@
       <c r="Y207" s="3"/>
       <c r="Z207" s="3"/>
     </row>
-    <row r="208" ht="19.5" customHeight="1">
+    <row r="208" spans="1:26" ht="19.5" customHeight="1">
       <c r="A208" s="3"/>
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
@@ -6192,7 +6228,7 @@
       <c r="Y208" s="3"/>
       <c r="Z208" s="3"/>
     </row>
-    <row r="209" ht="19.5" customHeight="1">
+    <row r="209" spans="1:26" ht="19.5" customHeight="1">
       <c r="A209" s="3"/>
       <c r="B209" s="3"/>
       <c r="C209" s="3"/>
@@ -6220,7 +6256,7 @@
       <c r="Y209" s="3"/>
       <c r="Z209" s="3"/>
     </row>
-    <row r="210" ht="19.5" customHeight="1">
+    <row r="210" spans="1:26" ht="19.5" customHeight="1">
       <c r="A210" s="3"/>
       <c r="B210" s="3"/>
       <c r="C210" s="3"/>
@@ -6248,7 +6284,7 @@
       <c r="Y210" s="3"/>
       <c r="Z210" s="3"/>
     </row>
-    <row r="211" ht="19.5" customHeight="1">
+    <row r="211" spans="1:26" ht="19.5" customHeight="1">
       <c r="A211" s="3"/>
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
@@ -6276,7 +6312,7 @@
       <c r="Y211" s="3"/>
       <c r="Z211" s="3"/>
     </row>
-    <row r="212" ht="19.5" customHeight="1">
+    <row r="212" spans="1:26" ht="19.5" customHeight="1">
       <c r="A212" s="3"/>
       <c r="B212" s="3"/>
       <c r="C212" s="3"/>
@@ -6304,7 +6340,7 @@
       <c r="Y212" s="3"/>
       <c r="Z212" s="3"/>
     </row>
-    <row r="213" ht="19.5" customHeight="1">
+    <row r="213" spans="1:26" ht="19.5" customHeight="1">
       <c r="A213" s="3"/>
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
@@ -6332,7 +6368,7 @@
       <c r="Y213" s="3"/>
       <c r="Z213" s="3"/>
     </row>
-    <row r="214" ht="19.5" customHeight="1">
+    <row r="214" spans="1:26" ht="19.5" customHeight="1">
       <c r="A214" s="3"/>
       <c r="B214" s="3"/>
       <c r="C214" s="3"/>
@@ -6360,7 +6396,7 @@
       <c r="Y214" s="3"/>
       <c r="Z214" s="3"/>
     </row>
-    <row r="215" ht="19.5" customHeight="1">
+    <row r="215" spans="1:26" ht="19.5" customHeight="1">
       <c r="A215" s="3"/>
       <c r="B215" s="3"/>
       <c r="C215" s="3"/>
@@ -6388,7 +6424,7 @@
       <c r="Y215" s="3"/>
       <c r="Z215" s="3"/>
     </row>
-    <row r="216" ht="19.5" customHeight="1">
+    <row r="216" spans="1:26" ht="19.5" customHeight="1">
       <c r="A216" s="3"/>
       <c r="B216" s="3"/>
       <c r="C216" s="3"/>
@@ -6416,7 +6452,7 @@
       <c r="Y216" s="3"/>
       <c r="Z216" s="3"/>
     </row>
-    <row r="217" ht="19.5" customHeight="1">
+    <row r="217" spans="1:26" ht="19.5" customHeight="1">
       <c r="A217" s="3"/>
       <c r="B217" s="3"/>
       <c r="C217" s="3"/>
@@ -6444,7 +6480,7 @@
       <c r="Y217" s="3"/>
       <c r="Z217" s="3"/>
     </row>
-    <row r="218" ht="19.5" customHeight="1">
+    <row r="218" spans="1:26" ht="19.5" customHeight="1">
       <c r="A218" s="3"/>
       <c r="B218" s="3"/>
       <c r="C218" s="3"/>
@@ -6472,7 +6508,7 @@
       <c r="Y218" s="3"/>
       <c r="Z218" s="3"/>
     </row>
-    <row r="219" ht="19.5" customHeight="1">
+    <row r="219" spans="1:26" ht="19.5" customHeight="1">
       <c r="A219" s="3"/>
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
@@ -6500,7 +6536,7 @@
       <c r="Y219" s="3"/>
       <c r="Z219" s="3"/>
     </row>
-    <row r="220" ht="19.5" customHeight="1">
+    <row r="220" spans="1:26" ht="19.5" customHeight="1">
       <c r="A220" s="3"/>
       <c r="B220" s="3"/>
       <c r="C220" s="3"/>
@@ -6528,7 +6564,7 @@
       <c r="Y220" s="3"/>
       <c r="Z220" s="3"/>
     </row>
-    <row r="221" ht="19.5" customHeight="1">
+    <row r="221" spans="1:26" ht="19.5" customHeight="1">
       <c r="A221" s="3"/>
       <c r="B221" s="3"/>
       <c r="C221" s="3"/>
@@ -6556,7 +6592,7 @@
       <c r="Y221" s="3"/>
       <c r="Z221" s="3"/>
     </row>
-    <row r="222" ht="19.5" customHeight="1">
+    <row r="222" spans="1:26" ht="19.5" customHeight="1">
       <c r="A222" s="3"/>
       <c r="B222" s="3"/>
       <c r="C222" s="3"/>
@@ -6584,7 +6620,7 @@
       <c r="Y222" s="3"/>
       <c r="Z222" s="3"/>
     </row>
-    <row r="223" ht="19.5" customHeight="1">
+    <row r="223" spans="1:26" ht="19.5" customHeight="1">
       <c r="A223" s="3"/>
       <c r="B223" s="3"/>
       <c r="C223" s="3"/>
@@ -6612,7 +6648,7 @@
       <c r="Y223" s="3"/>
       <c r="Z223" s="3"/>
     </row>
-    <row r="224" ht="19.5" customHeight="1">
+    <row r="224" spans="1:26" ht="19.5" customHeight="1">
       <c r="A224" s="3"/>
       <c r="B224" s="3"/>
       <c r="C224" s="3"/>
@@ -6640,7 +6676,7 @@
       <c r="Y224" s="3"/>
       <c r="Z224" s="3"/>
     </row>
-    <row r="225" ht="19.5" customHeight="1">
+    <row r="225" spans="1:26" ht="19.5" customHeight="1">
       <c r="A225" s="3"/>
       <c r="B225" s="3"/>
       <c r="C225" s="3"/>
@@ -6668,7 +6704,7 @@
       <c r="Y225" s="3"/>
       <c r="Z225" s="3"/>
     </row>
-    <row r="226" ht="19.5" customHeight="1">
+    <row r="226" spans="1:26" ht="19.5" customHeight="1">
       <c r="A226" s="3"/>
       <c r="B226" s="3"/>
       <c r="C226" s="3"/>
@@ -6696,7 +6732,7 @@
       <c r="Y226" s="3"/>
       <c r="Z226" s="3"/>
     </row>
-    <row r="227" ht="19.5" customHeight="1">
+    <row r="227" spans="1:26" ht="19.5" customHeight="1">
       <c r="A227" s="3"/>
       <c r="B227" s="3"/>
       <c r="C227" s="3"/>
@@ -6724,7 +6760,7 @@
       <c r="Y227" s="3"/>
       <c r="Z227" s="3"/>
     </row>
-    <row r="228" ht="19.5" customHeight="1">
+    <row r="228" spans="1:26" ht="19.5" customHeight="1">
       <c r="A228" s="3"/>
       <c r="B228" s="3"/>
       <c r="C228" s="3"/>
@@ -6752,7 +6788,7 @@
       <c r="Y228" s="3"/>
       <c r="Z228" s="3"/>
     </row>
-    <row r="229" ht="19.5" customHeight="1">
+    <row r="229" spans="1:26" ht="19.5" customHeight="1">
       <c r="A229" s="3"/>
       <c r="B229" s="3"/>
       <c r="C229" s="3"/>
@@ -6780,7 +6816,7 @@
       <c r="Y229" s="3"/>
       <c r="Z229" s="3"/>
     </row>
-    <row r="230" ht="19.5" customHeight="1">
+    <row r="230" spans="1:26" ht="19.5" customHeight="1">
       <c r="A230" s="3"/>
       <c r="B230" s="3"/>
       <c r="C230" s="3"/>
@@ -6808,7 +6844,7 @@
       <c r="Y230" s="3"/>
       <c r="Z230" s="3"/>
     </row>
-    <row r="231" ht="19.5" customHeight="1">
+    <row r="231" spans="1:26" ht="19.5" customHeight="1">
       <c r="A231" s="3"/>
       <c r="B231" s="3"/>
       <c r="C231" s="3"/>
@@ -6836,7 +6872,7 @@
       <c r="Y231" s="3"/>
       <c r="Z231" s="3"/>
     </row>
-    <row r="232" ht="19.5" customHeight="1">
+    <row r="232" spans="1:26" ht="19.5" customHeight="1">
       <c r="A232" s="3"/>
       <c r="B232" s="3"/>
       <c r="C232" s="3"/>
@@ -6864,7 +6900,7 @@
       <c r="Y232" s="3"/>
       <c r="Z232" s="3"/>
     </row>
-    <row r="233" ht="19.5" customHeight="1">
+    <row r="233" spans="1:26" ht="19.5" customHeight="1">
       <c r="A233" s="3"/>
       <c r="B233" s="3"/>
       <c r="C233" s="3"/>
@@ -6892,7 +6928,7 @@
       <c r="Y233" s="3"/>
       <c r="Z233" s="3"/>
     </row>
-    <row r="234" ht="19.5" customHeight="1">
+    <row r="234" spans="1:26" ht="19.5" customHeight="1">
       <c r="A234" s="3"/>
       <c r="B234" s="3"/>
       <c r="C234" s="3"/>
@@ -6920,7 +6956,7 @@
       <c r="Y234" s="3"/>
       <c r="Z234" s="3"/>
     </row>
-    <row r="235" ht="19.5" customHeight="1">
+    <row r="235" spans="1:26" ht="19.5" customHeight="1">
       <c r="A235" s="3"/>
       <c r="B235" s="3"/>
       <c r="C235" s="3"/>
@@ -6948,7 +6984,7 @@
       <c r="Y235" s="3"/>
       <c r="Z235" s="3"/>
     </row>
-    <row r="236" ht="19.5" customHeight="1">
+    <row r="236" spans="1:26" ht="19.5" customHeight="1">
       <c r="A236" s="3"/>
       <c r="B236" s="3"/>
       <c r="C236" s="3"/>
@@ -6976,7 +7012,7 @@
       <c r="Y236" s="3"/>
       <c r="Z236" s="3"/>
     </row>
-    <row r="237" ht="19.5" customHeight="1">
+    <row r="237" spans="1:26" ht="19.5" customHeight="1">
       <c r="A237" s="3"/>
       <c r="B237" s="3"/>
       <c r="C237" s="3"/>
@@ -7004,7 +7040,7 @@
       <c r="Y237" s="3"/>
       <c r="Z237" s="3"/>
     </row>
-    <row r="238" ht="19.5" customHeight="1">
+    <row r="238" spans="1:26" ht="19.5" customHeight="1">
       <c r="A238" s="3"/>
       <c r="B238" s="3"/>
       <c r="C238" s="3"/>
@@ -7032,7 +7068,7 @@
       <c r="Y238" s="3"/>
       <c r="Z238" s="3"/>
     </row>
-    <row r="239" ht="19.5" customHeight="1">
+    <row r="239" spans="1:26" ht="19.5" customHeight="1">
       <c r="A239" s="3"/>
       <c r="B239" s="3"/>
       <c r="C239" s="3"/>
@@ -7060,7 +7096,7 @@
       <c r="Y239" s="3"/>
       <c r="Z239" s="3"/>
     </row>
-    <row r="240" ht="19.5" customHeight="1">
+    <row r="240" spans="1:26" ht="19.5" customHeight="1">
       <c r="A240" s="3"/>
       <c r="B240" s="3"/>
       <c r="C240" s="3"/>
@@ -7088,7 +7124,7 @@
       <c r="Y240" s="3"/>
       <c r="Z240" s="3"/>
     </row>
-    <row r="241" ht="19.5" customHeight="1">
+    <row r="241" spans="1:26" ht="19.5" customHeight="1">
       <c r="A241" s="3"/>
       <c r="B241" s="3"/>
       <c r="C241" s="3"/>
@@ -7116,7 +7152,7 @@
       <c r="Y241" s="3"/>
       <c r="Z241" s="3"/>
     </row>
-    <row r="242" ht="19.5" customHeight="1">
+    <row r="242" spans="1:26" ht="19.5" customHeight="1">
       <c r="A242" s="3"/>
       <c r="B242" s="3"/>
       <c r="C242" s="3"/>
@@ -7144,7 +7180,7 @@
       <c r="Y242" s="3"/>
       <c r="Z242" s="3"/>
     </row>
-    <row r="243" ht="19.5" customHeight="1">
+    <row r="243" spans="1:26" ht="19.5" customHeight="1">
       <c r="A243" s="3"/>
       <c r="B243" s="3"/>
       <c r="C243" s="3"/>
@@ -7172,7 +7208,7 @@
       <c r="Y243" s="3"/>
       <c r="Z243" s="3"/>
     </row>
-    <row r="244" ht="19.5" customHeight="1">
+    <row r="244" spans="1:26" ht="19.5" customHeight="1">
       <c r="A244" s="3"/>
       <c r="B244" s="3"/>
       <c r="C244" s="3"/>
@@ -7200,7 +7236,7 @@
       <c r="Y244" s="3"/>
       <c r="Z244" s="3"/>
     </row>
-    <row r="245" ht="19.5" customHeight="1">
+    <row r="245" spans="1:26" ht="19.5" customHeight="1">
       <c r="A245" s="3"/>
       <c r="B245" s="3"/>
       <c r="C245" s="3"/>
@@ -7228,7 +7264,7 @@
       <c r="Y245" s="3"/>
       <c r="Z245" s="3"/>
     </row>
-    <row r="246" ht="19.5" customHeight="1">
+    <row r="246" spans="1:26" ht="19.5" customHeight="1">
       <c r="A246" s="3"/>
       <c r="B246" s="3"/>
       <c r="C246" s="3"/>
@@ -7256,7 +7292,7 @@
       <c r="Y246" s="3"/>
       <c r="Z246" s="3"/>
     </row>
-    <row r="247" ht="19.5" customHeight="1">
+    <row r="247" spans="1:26" ht="19.5" customHeight="1">
       <c r="A247" s="3"/>
       <c r="B247" s="3"/>
       <c r="C247" s="3"/>
@@ -7284,7 +7320,7 @@
       <c r="Y247" s="3"/>
       <c r="Z247" s="3"/>
     </row>
-    <row r="248" ht="19.5" customHeight="1">
+    <row r="248" spans="1:26" ht="19.5" customHeight="1">
       <c r="A248" s="3"/>
       <c r="B248" s="3"/>
       <c r="C248" s="3"/>
@@ -7312,7 +7348,7 @@
       <c r="Y248" s="3"/>
       <c r="Z248" s="3"/>
     </row>
-    <row r="249" ht="19.5" customHeight="1">
+    <row r="249" spans="1:26" ht="19.5" customHeight="1">
       <c r="A249" s="3"/>
       <c r="B249" s="3"/>
       <c r="C249" s="3"/>
@@ -7340,7 +7376,7 @@
       <c r="Y249" s="3"/>
       <c r="Z249" s="3"/>
     </row>
-    <row r="250" ht="19.5" customHeight="1">
+    <row r="250" spans="1:26" ht="19.5" customHeight="1">
       <c r="A250" s="3"/>
       <c r="B250" s="3"/>
       <c r="C250" s="3"/>
@@ -7368,7 +7404,7 @@
       <c r="Y250" s="3"/>
       <c r="Z250" s="3"/>
     </row>
-    <row r="251" ht="19.5" customHeight="1">
+    <row r="251" spans="1:26" ht="19.5" customHeight="1">
       <c r="A251" s="3"/>
       <c r="B251" s="3"/>
       <c r="C251" s="3"/>
@@ -7396,7 +7432,7 @@
       <c r="Y251" s="3"/>
       <c r="Z251" s="3"/>
     </row>
-    <row r="252" ht="19.5" customHeight="1">
+    <row r="252" spans="1:26" ht="19.5" customHeight="1">
       <c r="A252" s="3"/>
       <c r="B252" s="3"/>
       <c r="C252" s="3"/>
@@ -7424,7 +7460,7 @@
       <c r="Y252" s="3"/>
       <c r="Z252" s="3"/>
     </row>
-    <row r="253" ht="19.5" customHeight="1">
+    <row r="253" spans="1:26" ht="19.5" customHeight="1">
       <c r="A253" s="3"/>
       <c r="B253" s="3"/>
       <c r="C253" s="3"/>
@@ -7452,7 +7488,7 @@
       <c r="Y253" s="3"/>
       <c r="Z253" s="3"/>
     </row>
-    <row r="254" ht="19.5" customHeight="1">
+    <row r="254" spans="1:26" ht="19.5" customHeight="1">
       <c r="A254" s="3"/>
       <c r="B254" s="3"/>
       <c r="C254" s="3"/>
@@ -7480,7 +7516,7 @@
       <c r="Y254" s="3"/>
       <c r="Z254" s="3"/>
     </row>
-    <row r="255" ht="19.5" customHeight="1">
+    <row r="255" spans="1:26" ht="19.5" customHeight="1">
       <c r="A255" s="3"/>
       <c r="B255" s="3"/>
       <c r="C255" s="3"/>
@@ -7508,7 +7544,7 @@
       <c r="Y255" s="3"/>
       <c r="Z255" s="3"/>
     </row>
-    <row r="256" ht="19.5" customHeight="1">
+    <row r="256" spans="1:26" ht="19.5" customHeight="1">
       <c r="A256" s="3"/>
       <c r="B256" s="3"/>
       <c r="C256" s="3"/>
@@ -7536,7 +7572,7 @@
       <c r="Y256" s="3"/>
       <c r="Z256" s="3"/>
     </row>
-    <row r="257" ht="19.5" customHeight="1">
+    <row r="257" spans="1:26" ht="19.5" customHeight="1">
       <c r="A257" s="3"/>
       <c r="B257" s="3"/>
       <c r="C257" s="3"/>
@@ -7564,7 +7600,7 @@
       <c r="Y257" s="3"/>
       <c r="Z257" s="3"/>
     </row>
-    <row r="258" ht="19.5" customHeight="1">
+    <row r="258" spans="1:26" ht="19.5" customHeight="1">
       <c r="A258" s="3"/>
       <c r="B258" s="3"/>
       <c r="C258" s="3"/>
@@ -7592,7 +7628,7 @@
       <c r="Y258" s="3"/>
       <c r="Z258" s="3"/>
     </row>
-    <row r="259" ht="19.5" customHeight="1">
+    <row r="259" spans="1:26" ht="19.5" customHeight="1">
       <c r="A259" s="3"/>
       <c r="B259" s="3"/>
       <c r="C259" s="3"/>
@@ -7620,7 +7656,7 @@
       <c r="Y259" s="3"/>
       <c r="Z259" s="3"/>
     </row>
-    <row r="260" ht="19.5" customHeight="1">
+    <row r="260" spans="1:26" ht="19.5" customHeight="1">
       <c r="A260" s="3"/>
       <c r="B260" s="3"/>
       <c r="C260" s="3"/>
@@ -7648,7 +7684,7 @@
       <c r="Y260" s="3"/>
       <c r="Z260" s="3"/>
     </row>
-    <row r="261" ht="19.5" customHeight="1">
+    <row r="261" spans="1:26" ht="19.5" customHeight="1">
       <c r="A261" s="3"/>
       <c r="B261" s="3"/>
       <c r="C261" s="3"/>
@@ -7676,7 +7712,7 @@
       <c r="Y261" s="3"/>
       <c r="Z261" s="3"/>
     </row>
-    <row r="262" ht="19.5" customHeight="1">
+    <row r="262" spans="1:26" ht="19.5" customHeight="1">
       <c r="A262" s="3"/>
       <c r="B262" s="3"/>
       <c r="C262" s="3"/>
@@ -7704,7 +7740,7 @@
       <c r="Y262" s="3"/>
       <c r="Z262" s="3"/>
     </row>
-    <row r="263" ht="19.5" customHeight="1">
+    <row r="263" spans="1:26" ht="19.5" customHeight="1">
       <c r="A263" s="3"/>
       <c r="B263" s="3"/>
       <c r="C263" s="3"/>
@@ -7732,7 +7768,7 @@
       <c r="Y263" s="3"/>
       <c r="Z263" s="3"/>
     </row>
-    <row r="264" ht="19.5" customHeight="1">
+    <row r="264" spans="1:26" ht="19.5" customHeight="1">
       <c r="A264" s="3"/>
       <c r="B264" s="3"/>
       <c r="C264" s="3"/>
@@ -7760,7 +7796,7 @@
       <c r="Y264" s="3"/>
       <c r="Z264" s="3"/>
     </row>
-    <row r="265" ht="19.5" customHeight="1">
+    <row r="265" spans="1:26" ht="19.5" customHeight="1">
       <c r="A265" s="3"/>
       <c r="B265" s="3"/>
       <c r="C265" s="3"/>
@@ -7788,7 +7824,7 @@
       <c r="Y265" s="3"/>
       <c r="Z265" s="3"/>
     </row>
-    <row r="266" ht="19.5" customHeight="1">
+    <row r="266" spans="1:26" ht="19.5" customHeight="1">
       <c r="A266" s="3"/>
       <c r="B266" s="3"/>
       <c r="C266" s="3"/>
@@ -7816,7 +7852,7 @@
       <c r="Y266" s="3"/>
       <c r="Z266" s="3"/>
     </row>
-    <row r="267" ht="19.5" customHeight="1">
+    <row r="267" spans="1:26" ht="19.5" customHeight="1">
       <c r="A267" s="3"/>
       <c r="B267" s="3"/>
       <c r="C267" s="3"/>
@@ -7844,7 +7880,7 @@
       <c r="Y267" s="3"/>
       <c r="Z267" s="3"/>
     </row>
-    <row r="268" ht="19.5" customHeight="1">
+    <row r="268" spans="1:26" ht="19.5" customHeight="1">
       <c r="A268" s="3"/>
       <c r="B268" s="3"/>
       <c r="C268" s="3"/>
@@ -7872,7 +7908,7 @@
       <c r="Y268" s="3"/>
       <c r="Z268" s="3"/>
     </row>
-    <row r="269" ht="19.5" customHeight="1">
+    <row r="269" spans="1:26" ht="19.5" customHeight="1">
       <c r="A269" s="3"/>
       <c r="B269" s="3"/>
       <c r="C269" s="3"/>
@@ -7900,7 +7936,7 @@
       <c r="Y269" s="3"/>
       <c r="Z269" s="3"/>
     </row>
-    <row r="270" ht="19.5" customHeight="1">
+    <row r="270" spans="1:26" ht="19.5" customHeight="1">
       <c r="A270" s="3"/>
       <c r="B270" s="3"/>
       <c r="C270" s="3"/>
@@ -7928,7 +7964,7 @@
       <c r="Y270" s="3"/>
       <c r="Z270" s="3"/>
     </row>
-    <row r="271" ht="19.5" customHeight="1">
+    <row r="271" spans="1:26" ht="19.5" customHeight="1">
       <c r="A271" s="3"/>
       <c r="B271" s="3"/>
       <c r="C271" s="3"/>
@@ -7956,7 +7992,7 @@
       <c r="Y271" s="3"/>
       <c r="Z271" s="3"/>
     </row>
-    <row r="272" ht="19.5" customHeight="1">
+    <row r="272" spans="1:26" ht="19.5" customHeight="1">
       <c r="A272" s="3"/>
       <c r="B272" s="3"/>
       <c r="C272" s="3"/>
@@ -7984,7 +8020,7 @@
       <c r="Y272" s="3"/>
       <c r="Z272" s="3"/>
     </row>
-    <row r="273" ht="19.5" customHeight="1">
+    <row r="273" spans="1:26" ht="19.5" customHeight="1">
       <c r="A273" s="3"/>
       <c r="B273" s="3"/>
       <c r="C273" s="3"/>
@@ -8012,7 +8048,7 @@
       <c r="Y273" s="3"/>
       <c r="Z273" s="3"/>
     </row>
-    <row r="274" ht="19.5" customHeight="1">
+    <row r="274" spans="1:26" ht="19.5" customHeight="1">
       <c r="A274" s="3"/>
       <c r="B274" s="3"/>
       <c r="C274" s="3"/>
@@ -8040,7 +8076,7 @@
       <c r="Y274" s="3"/>
       <c r="Z274" s="3"/>
     </row>
-    <row r="275" ht="19.5" customHeight="1">
+    <row r="275" spans="1:26" ht="19.5" customHeight="1">
       <c r="A275" s="3"/>
       <c r="B275" s="3"/>
       <c r="C275" s="3"/>
@@ -8068,7 +8104,7 @@
       <c r="Y275" s="3"/>
       <c r="Z275" s="3"/>
     </row>
-    <row r="276" ht="19.5" customHeight="1">
+    <row r="276" spans="1:26" ht="19.5" customHeight="1">
       <c r="A276" s="3"/>
       <c r="B276" s="3"/>
       <c r="C276" s="3"/>
@@ -8096,7 +8132,7 @@
       <c r="Y276" s="3"/>
       <c r="Z276" s="3"/>
     </row>
-    <row r="277" ht="19.5" customHeight="1">
+    <row r="277" spans="1:26" ht="19.5" customHeight="1">
       <c r="A277" s="3"/>
       <c r="B277" s="3"/>
       <c r="C277" s="3"/>
@@ -8124,7 +8160,7 @@
       <c r="Y277" s="3"/>
       <c r="Z277" s="3"/>
     </row>
-    <row r="278" ht="19.5" customHeight="1">
+    <row r="278" spans="1:26" ht="19.5" customHeight="1">
       <c r="A278" s="3"/>
       <c r="B278" s="3"/>
       <c r="C278" s="3"/>
@@ -8152,7 +8188,7 @@
       <c r="Y278" s="3"/>
       <c r="Z278" s="3"/>
     </row>
-    <row r="279" ht="19.5" customHeight="1">
+    <row r="279" spans="1:26" ht="19.5" customHeight="1">
       <c r="A279" s="3"/>
       <c r="B279" s="3"/>
       <c r="C279" s="3"/>
@@ -8180,7 +8216,7 @@
       <c r="Y279" s="3"/>
       <c r="Z279" s="3"/>
     </row>
-    <row r="280" ht="19.5" customHeight="1">
+    <row r="280" spans="1:26" ht="19.5" customHeight="1">
       <c r="A280" s="3"/>
       <c r="B280" s="3"/>
       <c r="C280" s="3"/>
@@ -8208,7 +8244,7 @@
       <c r="Y280" s="3"/>
       <c r="Z280" s="3"/>
     </row>
-    <row r="281" ht="19.5" customHeight="1">
+    <row r="281" spans="1:26" ht="19.5" customHeight="1">
       <c r="A281" s="3"/>
       <c r="B281" s="3"/>
       <c r="C281" s="3"/>
@@ -8236,7 +8272,7 @@
       <c r="Y281" s="3"/>
       <c r="Z281" s="3"/>
     </row>
-    <row r="282" ht="19.5" customHeight="1">
+    <row r="282" spans="1:26" ht="19.5" customHeight="1">
       <c r="A282" s="3"/>
       <c r="B282" s="3"/>
       <c r="C282" s="3"/>
@@ -8264,7 +8300,7 @@
       <c r="Y282" s="3"/>
       <c r="Z282" s="3"/>
     </row>
-    <row r="283" ht="19.5" customHeight="1">
+    <row r="283" spans="1:26" ht="19.5" customHeight="1">
       <c r="A283" s="3"/>
       <c r="B283" s="3"/>
       <c r="C283" s="3"/>
@@ -8292,7 +8328,7 @@
       <c r="Y283" s="3"/>
       <c r="Z283" s="3"/>
     </row>
-    <row r="284" ht="19.5" customHeight="1">
+    <row r="284" spans="1:26" ht="19.5" customHeight="1">
       <c r="A284" s="3"/>
       <c r="B284" s="3"/>
       <c r="C284" s="3"/>
@@ -8320,7 +8356,7 @@
       <c r="Y284" s="3"/>
       <c r="Z284" s="3"/>
     </row>
-    <row r="285" ht="19.5" customHeight="1">
+    <row r="285" spans="1:26" ht="19.5" customHeight="1">
       <c r="A285" s="3"/>
       <c r="B285" s="3"/>
       <c r="C285" s="3"/>
@@ -8348,7 +8384,7 @@
       <c r="Y285" s="3"/>
       <c r="Z285" s="3"/>
     </row>
-    <row r="286" ht="19.5" customHeight="1">
+    <row r="286" spans="1:26" ht="19.5" customHeight="1">
       <c r="A286" s="3"/>
       <c r="B286" s="3"/>
       <c r="C286" s="3"/>
@@ -8376,7 +8412,7 @@
       <c r="Y286" s="3"/>
       <c r="Z286" s="3"/>
     </row>
-    <row r="287" ht="19.5" customHeight="1">
+    <row r="287" spans="1:26" ht="19.5" customHeight="1">
       <c r="A287" s="3"/>
       <c r="B287" s="3"/>
       <c r="C287" s="3"/>
@@ -8404,7 +8440,7 @@
       <c r="Y287" s="3"/>
       <c r="Z287" s="3"/>
     </row>
-    <row r="288" ht="19.5" customHeight="1">
+    <row r="288" spans="1:26" ht="19.5" customHeight="1">
       <c r="A288" s="3"/>
       <c r="B288" s="3"/>
       <c r="C288" s="3"/>
@@ -8432,7 +8468,7 @@
       <c r="Y288" s="3"/>
       <c r="Z288" s="3"/>
     </row>
-    <row r="289" ht="19.5" customHeight="1">
+    <row r="289" spans="1:26" ht="19.5" customHeight="1">
       <c r="A289" s="3"/>
       <c r="B289" s="3"/>
       <c r="C289" s="3"/>
@@ -8460,7 +8496,7 @@
       <c r="Y289" s="3"/>
       <c r="Z289" s="3"/>
     </row>
-    <row r="290" ht="19.5" customHeight="1">
+    <row r="290" spans="1:26" ht="19.5" customHeight="1">
       <c r="A290" s="3"/>
       <c r="B290" s="3"/>
       <c r="C290" s="3"/>
@@ -8488,7 +8524,7 @@
       <c r="Y290" s="3"/>
       <c r="Z290" s="3"/>
     </row>
-    <row r="291" ht="19.5" customHeight="1">
+    <row r="291" spans="1:26" ht="19.5" customHeight="1">
       <c r="A291" s="3"/>
       <c r="B291" s="3"/>
       <c r="C291" s="3"/>
@@ -8516,7 +8552,7 @@
       <c r="Y291" s="3"/>
       <c r="Z291" s="3"/>
     </row>
-    <row r="292" ht="19.5" customHeight="1">
+    <row r="292" spans="1:26" ht="19.5" customHeight="1">
       <c r="A292" s="3"/>
       <c r="B292" s="3"/>
       <c r="C292" s="3"/>
@@ -8544,7 +8580,7 @@
       <c r="Y292" s="3"/>
       <c r="Z292" s="3"/>
     </row>
-    <row r="293" ht="19.5" customHeight="1">
+    <row r="293" spans="1:26" ht="19.5" customHeight="1">
       <c r="A293" s="3"/>
       <c r="B293" s="3"/>
       <c r="C293" s="3"/>
@@ -8572,7 +8608,7 @@
       <c r="Y293" s="3"/>
       <c r="Z293" s="3"/>
     </row>
-    <row r="294" ht="19.5" customHeight="1">
+    <row r="294" spans="1:26" ht="19.5" customHeight="1">
       <c r="A294" s="3"/>
       <c r="B294" s="3"/>
       <c r="C294" s="3"/>
@@ -8600,7 +8636,7 @@
       <c r="Y294" s="3"/>
       <c r="Z294" s="3"/>
     </row>
-    <row r="295" ht="19.5" customHeight="1">
+    <row r="295" spans="1:26" ht="19.5" customHeight="1">
       <c r="A295" s="3"/>
       <c r="B295" s="3"/>
       <c r="C295" s="3"/>
@@ -8628,7 +8664,7 @@
       <c r="Y295" s="3"/>
       <c r="Z295" s="3"/>
     </row>
-    <row r="296" ht="19.5" customHeight="1">
+    <row r="296" spans="1:26" ht="19.5" customHeight="1">
       <c r="A296" s="3"/>
       <c r="B296" s="3"/>
       <c r="C296" s="3"/>
@@ -8656,7 +8692,7 @@
       <c r="Y296" s="3"/>
       <c r="Z296" s="3"/>
     </row>
-    <row r="297" ht="19.5" customHeight="1">
+    <row r="297" spans="1:26" ht="19.5" customHeight="1">
       <c r="A297" s="3"/>
       <c r="B297" s="3"/>
       <c r="C297" s="3"/>
@@ -8684,7 +8720,7 @@
       <c r="Y297" s="3"/>
       <c r="Z297" s="3"/>
     </row>
-    <row r="298" ht="19.5" customHeight="1">
+    <row r="298" spans="1:26" ht="19.5" customHeight="1">
       <c r="A298" s="3"/>
       <c r="B298" s="3"/>
       <c r="C298" s="3"/>
@@ -8712,7 +8748,7 @@
       <c r="Y298" s="3"/>
       <c r="Z298" s="3"/>
     </row>
-    <row r="299" ht="19.5" customHeight="1">
+    <row r="299" spans="1:26" ht="19.5" customHeight="1">
       <c r="A299" s="3"/>
       <c r="B299" s="3"/>
       <c r="C299" s="3"/>
@@ -8740,7 +8776,7 @@
       <c r="Y299" s="3"/>
       <c r="Z299" s="3"/>
     </row>
-    <row r="300" ht="19.5" customHeight="1">
+    <row r="300" spans="1:26" ht="19.5" customHeight="1">
       <c r="A300" s="3"/>
       <c r="B300" s="3"/>
       <c r="C300" s="3"/>
@@ -8768,7 +8804,7 @@
       <c r="Y300" s="3"/>
       <c r="Z300" s="3"/>
     </row>
-    <row r="301" ht="19.5" customHeight="1">
+    <row r="301" spans="1:26" ht="19.5" customHeight="1">
       <c r="A301" s="3"/>
       <c r="B301" s="3"/>
       <c r="C301" s="3"/>
@@ -8796,7 +8832,7 @@
       <c r="Y301" s="3"/>
       <c r="Z301" s="3"/>
     </row>
-    <row r="302" ht="19.5" customHeight="1">
+    <row r="302" spans="1:26" ht="19.5" customHeight="1">
       <c r="A302" s="3"/>
       <c r="B302" s="3"/>
       <c r="C302" s="3"/>
@@ -8824,7 +8860,7 @@
       <c r="Y302" s="3"/>
       <c r="Z302" s="3"/>
     </row>
-    <row r="303" ht="19.5" customHeight="1">
+    <row r="303" spans="1:26" ht="19.5" customHeight="1">
       <c r="A303" s="3"/>
       <c r="B303" s="3"/>
       <c r="C303" s="3"/>
@@ -8852,7 +8888,7 @@
       <c r="Y303" s="3"/>
       <c r="Z303" s="3"/>
     </row>
-    <row r="304" ht="19.5" customHeight="1">
+    <row r="304" spans="1:26" ht="19.5" customHeight="1">
       <c r="A304" s="3"/>
       <c r="B304" s="3"/>
       <c r="C304" s="3"/>
@@ -8880,7 +8916,7 @@
       <c r="Y304" s="3"/>
       <c r="Z304" s="3"/>
     </row>
-    <row r="305" ht="19.5" customHeight="1">
+    <row r="305" spans="1:26" ht="19.5" customHeight="1">
       <c r="A305" s="3"/>
       <c r="B305" s="3"/>
       <c r="C305" s="3"/>
@@ -8908,7 +8944,7 @@
       <c r="Y305" s="3"/>
       <c r="Z305" s="3"/>
     </row>
-    <row r="306" ht="19.5" customHeight="1">
+    <row r="306" spans="1:26" ht="19.5" customHeight="1">
       <c r="A306" s="3"/>
       <c r="B306" s="3"/>
       <c r="C306" s="3"/>
@@ -8936,7 +8972,7 @@
       <c r="Y306" s="3"/>
       <c r="Z306" s="3"/>
     </row>
-    <row r="307" ht="19.5" customHeight="1">
+    <row r="307" spans="1:26" ht="19.5" customHeight="1">
       <c r="A307" s="3"/>
       <c r="B307" s="3"/>
       <c r="C307" s="3"/>
@@ -8964,7 +9000,7 @@
       <c r="Y307" s="3"/>
       <c r="Z307" s="3"/>
     </row>
-    <row r="308" ht="19.5" customHeight="1">
+    <row r="308" spans="1:26" ht="19.5" customHeight="1">
       <c r="A308" s="3"/>
       <c r="B308" s="3"/>
       <c r="C308" s="3"/>
@@ -8992,7 +9028,7 @@
       <c r="Y308" s="3"/>
       <c r="Z308" s="3"/>
     </row>
-    <row r="309" ht="19.5" customHeight="1">
+    <row r="309" spans="1:26" ht="19.5" customHeight="1">
       <c r="A309" s="3"/>
       <c r="B309" s="3"/>
       <c r="C309" s="3"/>
@@ -9020,7 +9056,7 @@
       <c r="Y309" s="3"/>
       <c r="Z309" s="3"/>
     </row>
-    <row r="310" ht="19.5" customHeight="1">
+    <row r="310" spans="1:26" ht="19.5" customHeight="1">
       <c r="A310" s="3"/>
       <c r="B310" s="3"/>
       <c r="C310" s="3"/>
@@ -9048,7 +9084,7 @@
       <c r="Y310" s="3"/>
       <c r="Z310" s="3"/>
     </row>
-    <row r="311" ht="19.5" customHeight="1">
+    <row r="311" spans="1:26" ht="19.5" customHeight="1">
       <c r="A311" s="3"/>
       <c r="B311" s="3"/>
       <c r="C311" s="3"/>
@@ -9076,7 +9112,7 @@
       <c r="Y311" s="3"/>
       <c r="Z311" s="3"/>
     </row>
-    <row r="312" ht="19.5" customHeight="1">
+    <row r="312" spans="1:26" ht="19.5" customHeight="1">
       <c r="A312" s="3"/>
       <c r="B312" s="3"/>
       <c r="C312" s="3"/>
@@ -9104,7 +9140,7 @@
       <c r="Y312" s="3"/>
       <c r="Z312" s="3"/>
     </row>
-    <row r="313" ht="19.5" customHeight="1">
+    <row r="313" spans="1:26" ht="19.5" customHeight="1">
       <c r="A313" s="3"/>
       <c r="B313" s="3"/>
       <c r="C313" s="3"/>
@@ -9132,7 +9168,7 @@
       <c r="Y313" s="3"/>
       <c r="Z313" s="3"/>
     </row>
-    <row r="314" ht="19.5" customHeight="1">
+    <row r="314" spans="1:26" ht="19.5" customHeight="1">
       <c r="A314" s="3"/>
       <c r="B314" s="3"/>
       <c r="C314" s="3"/>
@@ -9160,7 +9196,7 @@
       <c r="Y314" s="3"/>
       <c r="Z314" s="3"/>
     </row>
-    <row r="315" ht="19.5" customHeight="1">
+    <row r="315" spans="1:26" ht="19.5" customHeight="1">
       <c r="A315" s="3"/>
       <c r="B315" s="3"/>
       <c r="C315" s="3"/>
@@ -9188,7 +9224,7 @@
       <c r="Y315" s="3"/>
       <c r="Z315" s="3"/>
     </row>
-    <row r="316" ht="19.5" customHeight="1">
+    <row r="316" spans="1:26" ht="19.5" customHeight="1">
       <c r="A316" s="3"/>
       <c r="B316" s="3"/>
       <c r="C316" s="3"/>
@@ -9216,7 +9252,7 @@
       <c r="Y316" s="3"/>
       <c r="Z316" s="3"/>
     </row>
-    <row r="317" ht="19.5" customHeight="1">
+    <row r="317" spans="1:26" ht="19.5" customHeight="1">
       <c r="A317" s="3"/>
       <c r="B317" s="3"/>
       <c r="C317" s="3"/>
@@ -9244,7 +9280,7 @@
       <c r="Y317" s="3"/>
       <c r="Z317" s="3"/>
     </row>
-    <row r="318" ht="19.5" customHeight="1">
+    <row r="318" spans="1:26" ht="19.5" customHeight="1">
       <c r="A318" s="3"/>
       <c r="B318" s="3"/>
       <c r="C318" s="3"/>
@@ -9272,7 +9308,7 @@
       <c r="Y318" s="3"/>
       <c r="Z318" s="3"/>
     </row>
-    <row r="319" ht="19.5" customHeight="1">
+    <row r="319" spans="1:26" ht="19.5" customHeight="1">
       <c r="A319" s="3"/>
       <c r="B319" s="3"/>
       <c r="C319" s="3"/>
@@ -9300,7 +9336,7 @@
       <c r="Y319" s="3"/>
       <c r="Z319" s="3"/>
     </row>
-    <row r="320" ht="19.5" customHeight="1">
+    <row r="320" spans="1:26" ht="19.5" customHeight="1">
       <c r="A320" s="3"/>
       <c r="B320" s="3"/>
       <c r="C320" s="3"/>
@@ -9328,7 +9364,7 @@
       <c r="Y320" s="3"/>
       <c r="Z320" s="3"/>
     </row>
-    <row r="321" ht="19.5" customHeight="1">
+    <row r="321" spans="1:26" ht="19.5" customHeight="1">
       <c r="A321" s="3"/>
       <c r="B321" s="3"/>
       <c r="C321" s="3"/>
@@ -9356,7 +9392,7 @@
       <c r="Y321" s="3"/>
       <c r="Z321" s="3"/>
     </row>
-    <row r="322" ht="19.5" customHeight="1">
+    <row r="322" spans="1:26" ht="19.5" customHeight="1">
       <c r="A322" s="3"/>
       <c r="B322" s="3"/>
       <c r="C322" s="3"/>
@@ -9384,7 +9420,7 @@
       <c r="Y322" s="3"/>
       <c r="Z322" s="3"/>
     </row>
-    <row r="323" ht="19.5" customHeight="1">
+    <row r="323" spans="1:26" ht="19.5" customHeight="1">
       <c r="A323" s="3"/>
       <c r="B323" s="3"/>
       <c r="C323" s="3"/>
@@ -9412,7 +9448,7 @@
       <c r="Y323" s="3"/>
       <c r="Z323" s="3"/>
     </row>
-    <row r="324" ht="19.5" customHeight="1">
+    <row r="324" spans="1:26" ht="19.5" customHeight="1">
       <c r="A324" s="3"/>
       <c r="B324" s="3"/>
       <c r="C324" s="3"/>
@@ -9440,7 +9476,7 @@
       <c r="Y324" s="3"/>
       <c r="Z324" s="3"/>
     </row>
-    <row r="325" ht="19.5" customHeight="1">
+    <row r="325" spans="1:26" ht="19.5" customHeight="1">
       <c r="A325" s="3"/>
       <c r="B325" s="3"/>
       <c r="C325" s="3"/>
@@ -9468,7 +9504,7 @@
       <c r="Y325" s="3"/>
       <c r="Z325" s="3"/>
     </row>
-    <row r="326" ht="19.5" customHeight="1">
+    <row r="326" spans="1:26" ht="19.5" customHeight="1">
       <c r="A326" s="3"/>
       <c r="B326" s="3"/>
       <c r="C326" s="3"/>
@@ -9496,7 +9532,7 @@
       <c r="Y326" s="3"/>
       <c r="Z326" s="3"/>
     </row>
-    <row r="327" ht="19.5" customHeight="1">
+    <row r="327" spans="1:26" ht="19.5" customHeight="1">
       <c r="A327" s="3"/>
       <c r="B327" s="3"/>
       <c r="C327" s="3"/>
@@ -9524,7 +9560,7 @@
       <c r="Y327" s="3"/>
       <c r="Z327" s="3"/>
     </row>
-    <row r="328" ht="19.5" customHeight="1">
+    <row r="328" spans="1:26" ht="19.5" customHeight="1">
       <c r="A328" s="3"/>
       <c r="B328" s="3"/>
       <c r="C328" s="3"/>
@@ -9552,7 +9588,7 @@
       <c r="Y328" s="3"/>
       <c r="Z328" s="3"/>
     </row>
-    <row r="329" ht="19.5" customHeight="1">
+    <row r="329" spans="1:26" ht="19.5" customHeight="1">
       <c r="A329" s="3"/>
       <c r="B329" s="3"/>
       <c r="C329" s="3"/>
@@ -9580,7 +9616,7 @@
       <c r="Y329" s="3"/>
       <c r="Z329" s="3"/>
     </row>
-    <row r="330" ht="19.5" customHeight="1">
+    <row r="330" spans="1:26" ht="19.5" customHeight="1">
       <c r="A330" s="3"/>
       <c r="B330" s="3"/>
       <c r="C330" s="3"/>
@@ -9608,7 +9644,7 @@
       <c r="Y330" s="3"/>
       <c r="Z330" s="3"/>
     </row>
-    <row r="331" ht="19.5" customHeight="1">
+    <row r="331" spans="1:26" ht="19.5" customHeight="1">
       <c r="A331" s="3"/>
       <c r="B331" s="3"/>
       <c r="C331" s="3"/>
@@ -9636,7 +9672,7 @@
       <c r="Y331" s="3"/>
       <c r="Z331" s="3"/>
     </row>
-    <row r="332" ht="19.5" customHeight="1">
+    <row r="332" spans="1:26" ht="19.5" customHeight="1">
       <c r="A332" s="3"/>
       <c r="B332" s="3"/>
       <c r="C332" s="3"/>
@@ -9664,7 +9700,7 @@
       <c r="Y332" s="3"/>
       <c r="Z332" s="3"/>
     </row>
-    <row r="333" ht="19.5" customHeight="1">
+    <row r="333" spans="1:26" ht="19.5" customHeight="1">
       <c r="A333" s="3"/>
       <c r="B333" s="3"/>
       <c r="C333" s="3"/>
@@ -9692,7 +9728,7 @@
       <c r="Y333" s="3"/>
       <c r="Z333" s="3"/>
     </row>
-    <row r="334" ht="19.5" customHeight="1">
+    <row r="334" spans="1:26" ht="19.5" customHeight="1">
       <c r="A334" s="3"/>
       <c r="B334" s="3"/>
       <c r="C334" s="3"/>
@@ -9720,7 +9756,7 @@
       <c r="Y334" s="3"/>
       <c r="Z334" s="3"/>
     </row>
-    <row r="335" ht="19.5" customHeight="1">
+    <row r="335" spans="1:26" ht="19.5" customHeight="1">
       <c r="A335" s="3"/>
       <c r="B335" s="3"/>
       <c r="C335" s="3"/>
@@ -9748,7 +9784,7 @@
       <c r="Y335" s="3"/>
       <c r="Z335" s="3"/>
     </row>
-    <row r="336" ht="19.5" customHeight="1">
+    <row r="336" spans="1:26" ht="19.5" customHeight="1">
       <c r="A336" s="3"/>
       <c r="B336" s="3"/>
       <c r="C336" s="3"/>
@@ -9776,7 +9812,7 @@
       <c r="Y336" s="3"/>
       <c r="Z336" s="3"/>
     </row>
-    <row r="337" ht="19.5" customHeight="1">
+    <row r="337" spans="1:26" ht="19.5" customHeight="1">
       <c r="A337" s="3"/>
       <c r="B337" s="3"/>
       <c r="C337" s="3"/>
@@ -9804,7 +9840,7 @@
       <c r="Y337" s="3"/>
       <c r="Z337" s="3"/>
     </row>
-    <row r="338" ht="19.5" customHeight="1">
+    <row r="338" spans="1:26" ht="19.5" customHeight="1">
       <c r="A338" s="3"/>
       <c r="B338" s="3"/>
       <c r="C338" s="3"/>
@@ -9832,7 +9868,7 @@
       <c r="Y338" s="3"/>
       <c r="Z338" s="3"/>
     </row>
-    <row r="339" ht="19.5" customHeight="1">
+    <row r="339" spans="1:26" ht="19.5" customHeight="1">
       <c r="A339" s="3"/>
       <c r="B339" s="3"/>
       <c r="C339" s="3"/>
@@ -9860,7 +9896,7 @@
       <c r="Y339" s="3"/>
       <c r="Z339" s="3"/>
     </row>
-    <row r="340" ht="19.5" customHeight="1">
+    <row r="340" spans="1:26" ht="19.5" customHeight="1">
       <c r="A340" s="3"/>
       <c r="B340" s="3"/>
       <c r="C340" s="3"/>
@@ -9888,7 +9924,7 @@
       <c r="Y340" s="3"/>
       <c r="Z340" s="3"/>
     </row>
-    <row r="341" ht="19.5" customHeight="1">
+    <row r="341" spans="1:26" ht="19.5" customHeight="1">
       <c r="A341" s="3"/>
       <c r="B341" s="3"/>
       <c r="C341" s="3"/>
@@ -9916,7 +9952,7 @@
       <c r="Y341" s="3"/>
       <c r="Z341" s="3"/>
     </row>
-    <row r="342" ht="19.5" customHeight="1">
+    <row r="342" spans="1:26" ht="19.5" customHeight="1">
       <c r="A342" s="3"/>
       <c r="B342" s="3"/>
       <c r="C342" s="3"/>
@@ -9944,7 +9980,7 @@
       <c r="Y342" s="3"/>
       <c r="Z342" s="3"/>
     </row>
-    <row r="343" ht="19.5" customHeight="1">
+    <row r="343" spans="1:26" ht="19.5" customHeight="1">
       <c r="A343" s="3"/>
       <c r="B343" s="3"/>
       <c r="C343" s="3"/>
@@ -9972,7 +10008,7 @@
       <c r="Y343" s="3"/>
       <c r="Z343" s="3"/>
     </row>
-    <row r="344" ht="19.5" customHeight="1">
+    <row r="344" spans="1:26" ht="19.5" customHeight="1">
       <c r="A344" s="3"/>
       <c r="B344" s="3"/>
       <c r="C344" s="3"/>
@@ -10000,7 +10036,7 @@
       <c r="Y344" s="3"/>
       <c r="Z344" s="3"/>
     </row>
-    <row r="345" ht="19.5" customHeight="1">
+    <row r="345" spans="1:26" ht="19.5" customHeight="1">
       <c r="A345" s="3"/>
       <c r="B345" s="3"/>
       <c r="C345" s="3"/>
@@ -10028,7 +10064,7 @@
       <c r="Y345" s="3"/>
       <c r="Z345" s="3"/>
     </row>
-    <row r="346" ht="19.5" customHeight="1">
+    <row r="346" spans="1:26" ht="19.5" customHeight="1">
       <c r="A346" s="3"/>
       <c r="B346" s="3"/>
       <c r="C346" s="3"/>
@@ -10056,7 +10092,7 @@
       <c r="Y346" s="3"/>
       <c r="Z346" s="3"/>
     </row>
-    <row r="347" ht="19.5" customHeight="1">
+    <row r="347" spans="1:26" ht="19.5" customHeight="1">
       <c r="A347" s="3"/>
       <c r="B347" s="3"/>
       <c r="C347" s="3"/>
@@ -10084,7 +10120,7 @@
       <c r="Y347" s="3"/>
       <c r="Z347" s="3"/>
     </row>
-    <row r="348" ht="19.5" customHeight="1">
+    <row r="348" spans="1:26" ht="19.5" customHeight="1">
       <c r="A348" s="3"/>
       <c r="B348" s="3"/>
       <c r="C348" s="3"/>
@@ -10112,7 +10148,7 @@
       <c r="Y348" s="3"/>
       <c r="Z348" s="3"/>
     </row>
-    <row r="349" ht="19.5" customHeight="1">
+    <row r="349" spans="1:26" ht="19.5" customHeight="1">
       <c r="A349" s="3"/>
       <c r="B349" s="3"/>
       <c r="C349" s="3"/>
@@ -10140,7 +10176,7 @@
       <c r="Y349" s="3"/>
       <c r="Z349" s="3"/>
     </row>
-    <row r="350" ht="19.5" customHeight="1">
+    <row r="350" spans="1:26" ht="19.5" customHeight="1">
       <c r="A350" s="3"/>
       <c r="B350" s="3"/>
       <c r="C350" s="3"/>
@@ -10168,7 +10204,7 @@
       <c r="Y350" s="3"/>
       <c r="Z350" s="3"/>
     </row>
-    <row r="351" ht="19.5" customHeight="1">
+    <row r="351" spans="1:26" ht="19.5" customHeight="1">
       <c r="A351" s="3"/>
       <c r="B351" s="3"/>
       <c r="C351" s="3"/>
@@ -10196,7 +10232,7 @@
       <c r="Y351" s="3"/>
       <c r="Z351" s="3"/>
     </row>
-    <row r="352" ht="19.5" customHeight="1">
+    <row r="352" spans="1:26" ht="19.5" customHeight="1">
       <c r="A352" s="3"/>
       <c r="B352" s="3"/>
       <c r="C352" s="3"/>
@@ -10224,7 +10260,7 @@
       <c r="Y352" s="3"/>
       <c r="Z352" s="3"/>
     </row>
-    <row r="353" ht="19.5" customHeight="1">
+    <row r="353" spans="1:26" ht="19.5" customHeight="1">
       <c r="A353" s="3"/>
       <c r="B353" s="3"/>
       <c r="C353" s="3"/>
@@ -10252,7 +10288,7 @@
       <c r="Y353" s="3"/>
       <c r="Z353" s="3"/>
     </row>
-    <row r="354" ht="19.5" customHeight="1">
+    <row r="354" spans="1:26" ht="19.5" customHeight="1">
       <c r="A354" s="3"/>
       <c r="B354" s="3"/>
       <c r="C354" s="3"/>
@@ -10280,7 +10316,7 @@
       <c r="Y354" s="3"/>
       <c r="Z354" s="3"/>
     </row>
-    <row r="355" ht="19.5" customHeight="1">
+    <row r="355" spans="1:26" ht="19.5" customHeight="1">
       <c r="A355" s="3"/>
       <c r="B355" s="3"/>
       <c r="C355" s="3"/>
@@ -10308,7 +10344,7 @@
       <c r="Y355" s="3"/>
       <c r="Z355" s="3"/>
     </row>
-    <row r="356" ht="19.5" customHeight="1">
+    <row r="356" spans="1:26" ht="19.5" customHeight="1">
       <c r="A356" s="3"/>
       <c r="B356" s="3"/>
       <c r="C356" s="3"/>
@@ -10336,7 +10372,7 @@
       <c r="Y356" s="3"/>
       <c r="Z356" s="3"/>
     </row>
-    <row r="357" ht="19.5" customHeight="1">
+    <row r="357" spans="1:26" ht="19.5" customHeight="1">
       <c r="A357" s="3"/>
       <c r="B357" s="3"/>
       <c r="C357" s="3"/>
@@ -10364,7 +10400,7 @@
       <c r="Y357" s="3"/>
       <c r="Z357" s="3"/>
     </row>
-    <row r="358" ht="19.5" customHeight="1">
+    <row r="358" spans="1:26" ht="19.5" customHeight="1">
       <c r="A358" s="3"/>
       <c r="B358" s="3"/>
       <c r="C358" s="3"/>
@@ -10392,7 +10428,7 @@
       <c r="Y358" s="3"/>
       <c r="Z358" s="3"/>
     </row>
-    <row r="359" ht="19.5" customHeight="1">
+    <row r="359" spans="1:26" ht="19.5" customHeight="1">
       <c r="A359" s="3"/>
       <c r="B359" s="3"/>
       <c r="C359" s="3"/>
@@ -10420,7 +10456,7 @@
       <c r="Y359" s="3"/>
       <c r="Z359" s="3"/>
     </row>
-    <row r="360" ht="19.5" customHeight="1">
+    <row r="360" spans="1:26" ht="19.5" customHeight="1">
       <c r="A360" s="3"/>
       <c r="B360" s="3"/>
       <c r="C360" s="3"/>
@@ -10448,7 +10484,7 @@
       <c r="Y360" s="3"/>
       <c r="Z360" s="3"/>
     </row>
-    <row r="361" ht="19.5" customHeight="1">
+    <row r="361" spans="1:26" ht="19.5" customHeight="1">
       <c r="A361" s="3"/>
       <c r="B361" s="3"/>
       <c r="C361" s="3"/>
@@ -10476,7 +10512,7 @@
       <c r="Y361" s="3"/>
       <c r="Z361" s="3"/>
     </row>
-    <row r="362" ht="19.5" customHeight="1">
+    <row r="362" spans="1:26" ht="19.5" customHeight="1">
       <c r="A362" s="3"/>
       <c r="B362" s="3"/>
       <c r="C362" s="3"/>
@@ -10504,7 +10540,7 @@
       <c r="Y362" s="3"/>
       <c r="Z362" s="3"/>
     </row>
-    <row r="363" ht="19.5" customHeight="1">
+    <row r="363" spans="1:26" ht="19.5" customHeight="1">
       <c r="A363" s="3"/>
       <c r="B363" s="3"/>
       <c r="C363" s="3"/>
@@ -10532,7 +10568,7 @@
       <c r="Y363" s="3"/>
       <c r="Z363" s="3"/>
     </row>
-    <row r="364" ht="19.5" customHeight="1">
+    <row r="364" spans="1:26" ht="19.5" customHeight="1">
       <c r="A364" s="3"/>
       <c r="B364" s="3"/>
       <c r="C364" s="3"/>
@@ -10560,7 +10596,7 @@
       <c r="Y364" s="3"/>
       <c r="Z364" s="3"/>
     </row>
-    <row r="365" ht="19.5" customHeight="1">
+    <row r="365" spans="1:26" ht="19.5" customHeight="1">
       <c r="A365" s="3"/>
       <c r="B365" s="3"/>
       <c r="C365" s="3"/>
@@ -10588,7 +10624,7 @@
       <c r="Y365" s="3"/>
       <c r="Z365" s="3"/>
     </row>
-    <row r="366" ht="19.5" customHeight="1">
+    <row r="366" spans="1:26" ht="19.5" customHeight="1">
       <c r="A366" s="3"/>
       <c r="B366" s="3"/>
       <c r="C366" s="3"/>
@@ -10616,7 +10652,7 @@
       <c r="Y366" s="3"/>
       <c r="Z366" s="3"/>
     </row>
-    <row r="367" ht="19.5" customHeight="1">
+    <row r="367" spans="1:26" ht="19.5" customHeight="1">
       <c r="A367" s="3"/>
       <c r="B367" s="3"/>
       <c r="C367" s="3"/>
@@ -10644,7 +10680,7 @@
       <c r="Y367" s="3"/>
       <c r="Z367" s="3"/>
     </row>
-    <row r="368" ht="19.5" customHeight="1">
+    <row r="368" spans="1:26" ht="19.5" customHeight="1">
       <c r="A368" s="3"/>
       <c r="B368" s="3"/>
       <c r="C368" s="3"/>
@@ -10672,7 +10708,7 @@
       <c r="Y368" s="3"/>
       <c r="Z368" s="3"/>
     </row>
-    <row r="369" ht="19.5" customHeight="1">
+    <row r="369" spans="1:26" ht="19.5" customHeight="1">
       <c r="A369" s="3"/>
       <c r="B369" s="3"/>
       <c r="C369" s="3"/>
@@ -10700,7 +10736,7 @@
       <c r="Y369" s="3"/>
       <c r="Z369" s="3"/>
     </row>
-    <row r="370" ht="19.5" customHeight="1">
+    <row r="370" spans="1:26" ht="19.5" customHeight="1">
       <c r="A370" s="3"/>
       <c r="B370" s="3"/>
       <c r="C370" s="3"/>
@@ -10728,7 +10764,7 @@
       <c r="Y370" s="3"/>
       <c r="Z370" s="3"/>
     </row>
-    <row r="371" ht="19.5" customHeight="1">
+    <row r="371" spans="1:26" ht="19.5" customHeight="1">
       <c r="A371" s="3"/>
       <c r="B371" s="3"/>
       <c r="C371" s="3"/>
@@ -10756,7 +10792,7 @@
       <c r="Y371" s="3"/>
       <c r="Z371" s="3"/>
     </row>
-    <row r="372" ht="19.5" customHeight="1">
+    <row r="372" spans="1:26" ht="19.5" customHeight="1">
       <c r="A372" s="3"/>
       <c r="B372" s="3"/>
       <c r="C372" s="3"/>
@@ -10784,7 +10820,7 @@
       <c r="Y372" s="3"/>
       <c r="Z372" s="3"/>
     </row>
-    <row r="373" ht="19.5" customHeight="1">
+    <row r="373" spans="1:26" ht="19.5" customHeight="1">
       <c r="A373" s="3"/>
       <c r="B373" s="3"/>
       <c r="C373" s="3"/>
@@ -10812,7 +10848,7 @@
       <c r="Y373" s="3"/>
       <c r="Z373" s="3"/>
     </row>
-    <row r="374" ht="19.5" customHeight="1">
+    <row r="374" spans="1:26" ht="19.5" customHeight="1">
       <c r="A374" s="3"/>
       <c r="B374" s="3"/>
       <c r="C374" s="3"/>
@@ -10840,7 +10876,7 @@
       <c r="Y374" s="3"/>
       <c r="Z374" s="3"/>
     </row>
-    <row r="375" ht="19.5" customHeight="1">
+    <row r="375" spans="1:26" ht="19.5" customHeight="1">
       <c r="A375" s="3"/>
       <c r="B375" s="3"/>
       <c r="C375" s="3"/>
@@ -10868,7 +10904,7 @@
       <c r="Y375" s="3"/>
       <c r="Z375" s="3"/>
     </row>
-    <row r="376" ht="19.5" customHeight="1">
+    <row r="376" spans="1:26" ht="19.5" customHeight="1">
       <c r="A376" s="3"/>
       <c r="B376" s="3"/>
       <c r="C376" s="3"/>
@@ -10896,7 +10932,7 @@
       <c r="Y376" s="3"/>
       <c r="Z376" s="3"/>
     </row>
-    <row r="377" ht="19.5" customHeight="1">
+    <row r="377" spans="1:26" ht="19.5" customHeight="1">
       <c r="A377" s="3"/>
       <c r="B377" s="3"/>
       <c r="C377" s="3"/>
@@ -10924,7 +10960,7 @@
       <c r="Y377" s="3"/>
       <c r="Z377" s="3"/>
     </row>
-    <row r="378" ht="19.5" customHeight="1">
+    <row r="378" spans="1:26" ht="19.5" customHeight="1">
       <c r="A378" s="3"/>
       <c r="B378" s="3"/>
       <c r="C378" s="3"/>
@@ -10952,7 +10988,7 @@
       <c r="Y378" s="3"/>
       <c r="Z378" s="3"/>
     </row>
-    <row r="379" ht="19.5" customHeight="1">
+    <row r="379" spans="1:26" ht="19.5" customHeight="1">
       <c r="A379" s="3"/>
       <c r="B379" s="3"/>
       <c r="C379" s="3"/>
@@ -10980,7 +11016,7 @@
       <c r="Y379" s="3"/>
       <c r="Z379" s="3"/>
     </row>
-    <row r="380" ht="19.5" customHeight="1">
+    <row r="380" spans="1:26" ht="19.5" customHeight="1">
       <c r="A380" s="3"/>
       <c r="B380" s="3"/>
       <c r="C380" s="3"/>
@@ -11008,7 +11044,7 @@
       <c r="Y380" s="3"/>
       <c r="Z380" s="3"/>
     </row>
-    <row r="381" ht="19.5" customHeight="1">
+    <row r="381" spans="1:26" ht="19.5" customHeight="1">
       <c r="A381" s="3"/>
       <c r="B381" s="3"/>
       <c r="C381" s="3"/>
@@ -11036,7 +11072,7 @@
       <c r="Y381" s="3"/>
       <c r="Z381" s="3"/>
     </row>
-    <row r="382" ht="19.5" customHeight="1">
+    <row r="382" spans="1:26" ht="19.5" customHeight="1">
       <c r="A382" s="3"/>
       <c r="B382" s="3"/>
       <c r="C382" s="3"/>
@@ -11064,7 +11100,7 @@
       <c r="Y382" s="3"/>
       <c r="Z382" s="3"/>
     </row>
-    <row r="383" ht="19.5" customHeight="1">
+    <row r="383" spans="1:26" ht="19.5" customHeight="1">
       <c r="A383" s="3"/>
       <c r="B383" s="3"/>
       <c r="C383" s="3"/>
@@ -11092,7 +11128,7 @@
       <c r="Y383" s="3"/>
       <c r="Z383" s="3"/>
     </row>
-    <row r="384" ht="19.5" customHeight="1">
+    <row r="384" spans="1:26" ht="19.5" customHeight="1">
       <c r="A384" s="3"/>
       <c r="B384" s="3"/>
       <c r="C384" s="3"/>
@@ -11120,7 +11156,7 @@
       <c r="Y384" s="3"/>
       <c r="Z384" s="3"/>
     </row>
-    <row r="385" ht="19.5" customHeight="1">
+    <row r="385" spans="1:26" ht="19.5" customHeight="1">
       <c r="A385" s="3"/>
       <c r="B385" s="3"/>
       <c r="C385" s="3"/>
@@ -11148,7 +11184,7 @@
       <c r="Y385" s="3"/>
       <c r="Z385" s="3"/>
     </row>
-    <row r="386" ht="19.5" customHeight="1">
+    <row r="386" spans="1:26" ht="19.5" customHeight="1">
       <c r="A386" s="3"/>
       <c r="B386" s="3"/>
       <c r="C386" s="3"/>
@@ -11176,7 +11212,7 @@
       <c r="Y386" s="3"/>
       <c r="Z386" s="3"/>
     </row>
-    <row r="387" ht="19.5" customHeight="1">
+    <row r="387" spans="1:26" ht="19.5" customHeight="1">
       <c r="A387" s="3"/>
       <c r="B387" s="3"/>
       <c r="C387" s="3"/>
@@ -11204,7 +11240,7 @@
       <c r="Y387" s="3"/>
       <c r="Z387" s="3"/>
     </row>
-    <row r="388" ht="19.5" customHeight="1">
+    <row r="388" spans="1:26" ht="19.5" customHeight="1">
       <c r="A388" s="3"/>
       <c r="B388" s="3"/>
       <c r="C388" s="3"/>
@@ -11232,7 +11268,7 @@
       <c r="Y388" s="3"/>
       <c r="Z388" s="3"/>
     </row>
-    <row r="389" ht="19.5" customHeight="1">
+    <row r="389" spans="1:26" ht="19.5" customHeight="1">
       <c r="A389" s="3"/>
       <c r="B389" s="3"/>
       <c r="C389" s="3"/>
@@ -11260,7 +11296,7 @@
       <c r="Y389" s="3"/>
       <c r="Z389" s="3"/>
     </row>
-    <row r="390" ht="19.5" customHeight="1">
+    <row r="390" spans="1:26" ht="19.5" customHeight="1">
       <c r="A390" s="3"/>
       <c r="B390" s="3"/>
       <c r="C390" s="3"/>
@@ -11288,7 +11324,7 @@
       <c r="Y390" s="3"/>
       <c r="Z390" s="3"/>
     </row>
-    <row r="391" ht="19.5" customHeight="1">
+    <row r="391" spans="1:26" ht="19.5" customHeight="1">
       <c r="A391" s="3"/>
       <c r="B391" s="3"/>
       <c r="C391" s="3"/>
@@ -11316,7 +11352,7 @@
       <c r="Y391" s="3"/>
       <c r="Z391" s="3"/>
     </row>
-    <row r="392" ht="19.5" customHeight="1">
+    <row r="392" spans="1:26" ht="19.5" customHeight="1">
       <c r="A392" s="3"/>
       <c r="B392" s="3"/>
       <c r="C392" s="3"/>
@@ -11344,7 +11380,7 @@
       <c r="Y392" s="3"/>
       <c r="Z392" s="3"/>
     </row>
-    <row r="393" ht="19.5" customHeight="1">
+    <row r="393" spans="1:26" ht="19.5" customHeight="1">
       <c r="A393" s="3"/>
       <c r="B393" s="3"/>
       <c r="C393" s="3"/>
@@ -11372,7 +11408,7 @@
       <c r="Y393" s="3"/>
       <c r="Z393" s="3"/>
     </row>
-    <row r="394" ht="19.5" customHeight="1">
+    <row r="394" spans="1:26" ht="19.5" customHeight="1">
       <c r="A394" s="3"/>
       <c r="B394" s="3"/>
       <c r="C394" s="3"/>
@@ -11400,7 +11436,7 @@
       <c r="Y394" s="3"/>
       <c r="Z394" s="3"/>
     </row>
-    <row r="395" ht="19.5" customHeight="1">
+    <row r="395" spans="1:26" ht="19.5" customHeight="1">
       <c r="A395" s="3"/>
       <c r="B395" s="3"/>
       <c r="C395" s="3"/>
@@ -11428,7 +11464,7 @@
       <c r="Y395" s="3"/>
       <c r="Z395" s="3"/>
     </row>
-    <row r="396" ht="19.5" customHeight="1">
+    <row r="396" spans="1:26" ht="19.5" customHeight="1">
       <c r="A396" s="3"/>
       <c r="B396" s="3"/>
       <c r="C396" s="3"/>
@@ -11456,7 +11492,7 @@
       <c r="Y396" s="3"/>
       <c r="Z396" s="3"/>
     </row>
-    <row r="397" ht="19.5" customHeight="1">
+    <row r="397" spans="1:26" ht="19.5" customHeight="1">
       <c r="A397" s="3"/>
       <c r="B397" s="3"/>
       <c r="C397" s="3"/>
@@ -11484,7 +11520,7 @@
       <c r="Y397" s="3"/>
       <c r="Z397" s="3"/>
     </row>
-    <row r="398" ht="19.5" customHeight="1">
+    <row r="398" spans="1:26" ht="19.5" customHeight="1">
       <c r="A398" s="3"/>
       <c r="B398" s="3"/>
       <c r="C398" s="3"/>
@@ -11512,7 +11548,7 @@
       <c r="Y398" s="3"/>
       <c r="Z398" s="3"/>
     </row>
-    <row r="399" ht="19.5" customHeight="1">
+    <row r="399" spans="1:26" ht="19.5" customHeight="1">
       <c r="A399" s="3"/>
       <c r="B399" s="3"/>
       <c r="C399" s="3"/>
@@ -11540,7 +11576,7 @@
       <c r="Y399" s="3"/>
       <c r="Z399" s="3"/>
     </row>
-    <row r="400" ht="19.5" customHeight="1">
+    <row r="400" spans="1:26" ht="19.5" customHeight="1">
       <c r="A400" s="3"/>
       <c r="B400" s="3"/>
       <c r="C400" s="3"/>
@@ -11568,7 +11604,7 @@
       <c r="Y400" s="3"/>
       <c r="Z400" s="3"/>
     </row>
-    <row r="401" ht="19.5" customHeight="1">
+    <row r="401" spans="1:26" ht="19.5" customHeight="1">
       <c r="A401" s="3"/>
       <c r="B401" s="3"/>
       <c r="C401" s="3"/>
@@ -11596,7 +11632,7 @@
       <c r="Y401" s="3"/>
       <c r="Z401" s="3"/>
     </row>
-    <row r="402" ht="19.5" customHeight="1">
+    <row r="402" spans="1:26" ht="19.5" customHeight="1">
       <c r="A402" s="3"/>
       <c r="B402" s="3"/>
       <c r="C402" s="3"/>
@@ -11624,7 +11660,7 @@
       <c r="Y402" s="3"/>
       <c r="Z402" s="3"/>
     </row>
-    <row r="403" ht="19.5" customHeight="1">
+    <row r="403" spans="1:26" ht="19.5" customHeight="1">
       <c r="A403" s="3"/>
       <c r="B403" s="3"/>
       <c r="C403" s="3"/>
@@ -11652,7 +11688,7 @@
       <c r="Y403" s="3"/>
       <c r="Z403" s="3"/>
     </row>
-    <row r="404" ht="19.5" customHeight="1">
+    <row r="404" spans="1:26" ht="19.5" customHeight="1">
       <c r="A404" s="3"/>
       <c r="B404" s="3"/>
       <c r="C404" s="3"/>
@@ -11680,7 +11716,7 @@
       <c r="Y404" s="3"/>
       <c r="Z404" s="3"/>
     </row>
-    <row r="405" ht="19.5" customHeight="1">
+    <row r="405" spans="1:26" ht="19.5" customHeight="1">
       <c r="A405" s="3"/>
       <c r="B405" s="3"/>
       <c r="C405" s="3"/>
@@ -11708,7 +11744,7 @@
       <c r="Y405" s="3"/>
       <c r="Z405" s="3"/>
     </row>
-    <row r="406" ht="19.5" customHeight="1">
+    <row r="406" spans="1:26" ht="19.5" customHeight="1">
       <c r="A406" s="3"/>
       <c r="B406" s="3"/>
       <c r="C406" s="3"/>
@@ -11736,7 +11772,7 @@
       <c r="Y406" s="3"/>
       <c r="Z406" s="3"/>
     </row>
-    <row r="407" ht="19.5" customHeight="1">
+    <row r="407" spans="1:26" ht="19.5" customHeight="1">
       <c r="A407" s="3"/>
       <c r="B407" s="3"/>
       <c r="C407" s="3"/>
@@ -11764,7 +11800,7 @@
       <c r="Y407" s="3"/>
       <c r="Z407" s="3"/>
     </row>
-    <row r="408" ht="19.5" customHeight="1">
+    <row r="408" spans="1:26" ht="19.5" customHeight="1">
       <c r="A408" s="3"/>
       <c r="B408" s="3"/>
       <c r="C408" s="3"/>
@@ -11792,7 +11828,7 @@
       <c r="Y408" s="3"/>
       <c r="Z408" s="3"/>
     </row>
-    <row r="409" ht="19.5" customHeight="1">
+    <row r="409" spans="1:26" ht="19.5" customHeight="1">
       <c r="A409" s="3"/>
       <c r="B409" s="3"/>
       <c r="C409" s="3"/>
@@ -11820,7 +11856,7 @@
       <c r="Y409" s="3"/>
       <c r="Z409" s="3"/>
     </row>
-    <row r="410" ht="19.5" customHeight="1">
+    <row r="410" spans="1:26" ht="19.5" customHeight="1">
       <c r="A410" s="3"/>
       <c r="B410" s="3"/>
       <c r="C410" s="3"/>
@@ -11848,7 +11884,7 @@
       <c r="Y410" s="3"/>
       <c r="Z410" s="3"/>
     </row>
-    <row r="411" ht="19.5" customHeight="1">
+    <row r="411" spans="1:26" ht="19.5" customHeight="1">
       <c r="A411" s="3"/>
       <c r="B411" s="3"/>
       <c r="C411" s="3"/>
@@ -11876,7 +11912,7 @@
       <c r="Y411" s="3"/>
       <c r="Z411" s="3"/>
     </row>
-    <row r="412" ht="19.5" customHeight="1">
+    <row r="412" spans="1:26" ht="19.5" customHeight="1">
       <c r="A412" s="3"/>
       <c r="B412" s="3"/>
       <c r="C412" s="3"/>
@@ -11904,7 +11940,7 @@
       <c r="Y412" s="3"/>
       <c r="Z412" s="3"/>
     </row>
-    <row r="413" ht="19.5" customHeight="1">
+    <row r="413" spans="1:26" ht="19.5" customHeight="1">
       <c r="A413" s="3"/>
       <c r="B413" s="3"/>
       <c r="C413" s="3"/>
@@ -11932,7 +11968,7 @@
       <c r="Y413" s="3"/>
       <c r="Z413" s="3"/>
     </row>
-    <row r="414" ht="19.5" customHeight="1">
+    <row r="414" spans="1:26" ht="19.5" customHeight="1">
       <c r="A414" s="3"/>
       <c r="B414" s="3"/>
       <c r="C414" s="3"/>
@@ -11960,7 +11996,7 @@
       <c r="Y414" s="3"/>
       <c r="Z414" s="3"/>
     </row>
-    <row r="415" ht="19.5" customHeight="1">
+    <row r="415" spans="1:26" ht="19.5" customHeight="1">
       <c r="A415" s="3"/>
       <c r="B415" s="3"/>
       <c r="C415" s="3"/>
@@ -11988,7 +12024,7 @@
       <c r="Y415" s="3"/>
       <c r="Z415" s="3"/>
     </row>
-    <row r="416" ht="19.5" customHeight="1">
+    <row r="416" spans="1:26" ht="19.5" customHeight="1">
       <c r="A416" s="3"/>
       <c r="B416" s="3"/>
       <c r="C416" s="3"/>
@@ -12016,7 +12052,7 @@
       <c r="Y416" s="3"/>
       <c r="Z416" s="3"/>
     </row>
-    <row r="417" ht="19.5" customHeight="1">
+    <row r="417" spans="1:26" ht="19.5" customHeight="1">
       <c r="A417" s="3"/>
       <c r="B417" s="3"/>
       <c r="C417" s="3"/>
@@ -12044,7 +12080,7 @@
       <c r="Y417" s="3"/>
       <c r="Z417" s="3"/>
     </row>
-    <row r="418" ht="19.5" customHeight="1">
+    <row r="418" spans="1:26" ht="19.5" customHeight="1">
       <c r="A418" s="3"/>
       <c r="B418" s="3"/>
       <c r="C418" s="3"/>
@@ -12072,7 +12108,7 @@
       <c r="Y418" s="3"/>
       <c r="Z418" s="3"/>
     </row>
-    <row r="419" ht="19.5" customHeight="1">
+    <row r="419" spans="1:26" ht="19.5" customHeight="1">
       <c r="A419" s="3"/>
       <c r="B419" s="3"/>
       <c r="C419" s="3"/>
@@ -12100,7 +12136,7 @@
       <c r="Y419" s="3"/>
       <c r="Z419" s="3"/>
     </row>
-    <row r="420" ht="19.5" customHeight="1">
+    <row r="420" spans="1:26" ht="19.5" customHeight="1">
       <c r="A420" s="3"/>
       <c r="B420" s="3"/>
       <c r="C420" s="3"/>
@@ -12128,7 +12164,7 @@
       <c r="Y420" s="3"/>
       <c r="Z420" s="3"/>
     </row>
-    <row r="421" ht="19.5" customHeight="1">
+    <row r="421" spans="1:26" ht="19.5" customHeight="1">
       <c r="A421" s="3"/>
       <c r="B421" s="3"/>
       <c r="C421" s="3"/>
@@ -12156,7 +12192,7 @@
       <c r="Y421" s="3"/>
       <c r="Z421" s="3"/>
     </row>
-    <row r="422" ht="19.5" customHeight="1">
+    <row r="422" spans="1:26" ht="19.5" customHeight="1">
       <c r="A422" s="3"/>
       <c r="B422" s="3"/>
       <c r="C422" s="3"/>
@@ -12184,7 +12220,7 @@
       <c r="Y422" s="3"/>
       <c r="Z422" s="3"/>
     </row>
-    <row r="423" ht="19.5" customHeight="1">
+    <row r="423" spans="1:26" ht="19.5" customHeight="1">
       <c r="A423" s="3"/>
       <c r="B423" s="3"/>
       <c r="C423" s="3"/>
@@ -12212,7 +12248,7 @@
       <c r="Y423" s="3"/>
       <c r="Z423" s="3"/>
     </row>
-    <row r="424" ht="19.5" customHeight="1">
+    <row r="424" spans="1:26" ht="19.5" customHeight="1">
       <c r="A424" s="3"/>
       <c r="B424" s="3"/>
       <c r="C424" s="3"/>
@@ -12240,7 +12276,7 @@
       <c r="Y424" s="3"/>
       <c r="Z424" s="3"/>
     </row>
-    <row r="425" ht="19.5" customHeight="1">
+    <row r="425" spans="1:26" ht="19.5" customHeight="1">
       <c r="A425" s="3"/>
       <c r="B425" s="3"/>
       <c r="C425" s="3"/>
@@ -12268,7 +12304,7 @@
       <c r="Y425" s="3"/>
       <c r="Z425" s="3"/>
     </row>
-    <row r="426" ht="19.5" customHeight="1">
+    <row r="426" spans="1:26" ht="19.5" customHeight="1">
       <c r="A426" s="3"/>
       <c r="B426" s="3"/>
       <c r="C426" s="3"/>
@@ -12296,7 +12332,7 @@
       <c r="Y426" s="3"/>
       <c r="Z426" s="3"/>
     </row>
-    <row r="427" ht="19.5" customHeight="1">
+    <row r="427" spans="1:26" ht="19.5" customHeight="1">
       <c r="A427" s="3"/>
       <c r="B427" s="3"/>
       <c r="C427" s="3"/>
@@ -12324,7 +12360,7 @@
       <c r="Y427" s="3"/>
       <c r="Z427" s="3"/>
     </row>
-    <row r="428" ht="19.5" customHeight="1">
+    <row r="428" spans="1:26" ht="19.5" customHeight="1">
       <c r="A428" s="3"/>
       <c r="B428" s="3"/>
       <c r="C428" s="3"/>
@@ -12352,7 +12388,7 @@
       <c r="Y428" s="3"/>
       <c r="Z428" s="3"/>
     </row>
-    <row r="429" ht="19.5" customHeight="1">
+    <row r="429" spans="1:26" ht="19.5" customHeight="1">
       <c r="A429" s="3"/>
       <c r="B429" s="3"/>
       <c r="C429" s="3"/>
@@ -12380,7 +12416,7 @@
       <c r="Y429" s="3"/>
       <c r="Z429" s="3"/>
     </row>
-    <row r="430" ht="19.5" customHeight="1">
+    <row r="430" spans="1:26" ht="19.5" customHeight="1">
       <c r="A430" s="3"/>
       <c r="B430" s="3"/>
       <c r="C430" s="3"/>
@@ -12408,7 +12444,7 @@
       <c r="Y430" s="3"/>
       <c r="Z430" s="3"/>
     </row>
-    <row r="431" ht="19.5" customHeight="1">
+    <row r="431" spans="1:26" ht="19.5" customHeight="1">
       <c r="A431" s="3"/>
       <c r="B431" s="3"/>
       <c r="C431" s="3"/>
@@ -12436,7 +12472,7 @@
       <c r="Y431" s="3"/>
       <c r="Z431" s="3"/>
     </row>
-    <row r="432" ht="19.5" customHeight="1">
+    <row r="432" spans="1:26" ht="19.5" customHeight="1">
       <c r="A432" s="3"/>
       <c r="B432" s="3"/>
       <c r="C432" s="3"/>
@@ -12464,7 +12500,7 @@
       <c r="Y432" s="3"/>
       <c r="Z432" s="3"/>
     </row>
-    <row r="433" ht="19.5" customHeight="1">
+    <row r="433" spans="1:26" ht="19.5" customHeight="1">
       <c r="A433" s="3"/>
       <c r="B433" s="3"/>
       <c r="C433" s="3"/>
@@ -12492,7 +12528,7 @@
       <c r="Y433" s="3"/>
       <c r="Z433" s="3"/>
     </row>
-    <row r="434" ht="19.5" customHeight="1">
+    <row r="434" spans="1:26" ht="19.5" customHeight="1">
       <c r="A434" s="3"/>
       <c r="B434" s="3"/>
       <c r="C434" s="3"/>
@@ -12520,7 +12556,7 @@
       <c r="Y434" s="3"/>
       <c r="Z434" s="3"/>
     </row>
-    <row r="435" ht="19.5" customHeight="1">
+    <row r="435" spans="1:26" ht="19.5" customHeight="1">
       <c r="A435" s="3"/>
       <c r="B435" s="3"/>
       <c r="C435" s="3"/>
@@ -12548,7 +12584,7 @@
       <c r="Y435" s="3"/>
       <c r="Z435" s="3"/>
     </row>
-    <row r="436" ht="19.5" customHeight="1">
+    <row r="436" spans="1:26" ht="19.5" customHeight="1">
       <c r="A436" s="3"/>
       <c r="B436" s="3"/>
       <c r="C436" s="3"/>
@@ -12576,7 +12612,7 @@
       <c r="Y436" s="3"/>
       <c r="Z436" s="3"/>
     </row>
-    <row r="437" ht="19.5" customHeight="1">
+    <row r="437" spans="1:26" ht="19.5" customHeight="1">
       <c r="A437" s="3"/>
       <c r="B437" s="3"/>
       <c r="C437" s="3"/>
@@ -12604,7 +12640,7 @@
       <c r="Y437" s="3"/>
       <c r="Z437" s="3"/>
     </row>
-    <row r="438" ht="19.5" customHeight="1">
+    <row r="438" spans="1:26" ht="19.5" customHeight="1">
       <c r="A438" s="3"/>
       <c r="B438" s="3"/>
       <c r="C438" s="3"/>
@@ -12632,7 +12668,7 @@
       <c r="Y438" s="3"/>
       <c r="Z438" s="3"/>
     </row>
-    <row r="439" ht="19.5" customHeight="1">
+    <row r="439" spans="1:26" ht="19.5" customHeight="1">
       <c r="A439" s="3"/>
       <c r="B439" s="3"/>
       <c r="C439" s="3"/>
@@ -12660,7 +12696,7 @@
       <c r="Y439" s="3"/>
       <c r="Z439" s="3"/>
     </row>
-    <row r="440" ht="19.5" customHeight="1">
+    <row r="440" spans="1:26" ht="19.5" customHeight="1">
       <c r="A440" s="3"/>
       <c r="B440" s="3"/>
       <c r="C440" s="3"/>
@@ -12688,7 +12724,7 @@
       <c r="Y440" s="3"/>
       <c r="Z440" s="3"/>
     </row>
-    <row r="441" ht="19.5" customHeight="1">
+    <row r="441" spans="1:26" ht="19.5" customHeight="1">
       <c r="A441" s="3"/>
       <c r="B441" s="3"/>
       <c r="C441" s="3"/>
@@ -12716,7 +12752,7 @@
       <c r="Y441" s="3"/>
       <c r="Z441" s="3"/>
     </row>
-    <row r="442" ht="19.5" customHeight="1">
+    <row r="442" spans="1:26" ht="19.5" customHeight="1">
       <c r="A442" s="3"/>
       <c r="B442" s="3"/>
       <c r="C442" s="3"/>
@@ -12744,7 +12780,7 @@
       <c r="Y442" s="3"/>
       <c r="Z442" s="3"/>
     </row>
-    <row r="443" ht="19.5" customHeight="1">
+    <row r="443" spans="1:26" ht="19.5" customHeight="1">
       <c r="A443" s="3"/>
       <c r="B443" s="3"/>
       <c r="C443" s="3"/>
@@ -12772,7 +12808,7 @@
       <c r="Y443" s="3"/>
       <c r="Z443" s="3"/>
     </row>
-    <row r="444" ht="19.5" customHeight="1">
+    <row r="444" spans="1:26" ht="19.5" customHeight="1">
       <c r="A444" s="3"/>
       <c r="B444" s="3"/>
       <c r="C444" s="3"/>
@@ -12800,7 +12836,7 @@
       <c r="Y444" s="3"/>
       <c r="Z444" s="3"/>
     </row>
-    <row r="445" ht="19.5" customHeight="1">
+    <row r="445" spans="1:26" ht="19.5" customHeight="1">
       <c r="A445" s="3"/>
       <c r="B445" s="3"/>
       <c r="C445" s="3"/>
@@ -12828,7 +12864,7 @@
       <c r="Y445" s="3"/>
       <c r="Z445" s="3"/>
     </row>
-    <row r="446" ht="19.5" customHeight="1">
+    <row r="446" spans="1:26" ht="19.5" customHeight="1">
       <c r="A446" s="3"/>
       <c r="B446" s="3"/>
       <c r="C446" s="3"/>
@@ -12856,7 +12892,7 @@
       <c r="Y446" s="3"/>
       <c r="Z446" s="3"/>
     </row>
-    <row r="447" ht="19.5" customHeight="1">
+    <row r="447" spans="1:26" ht="19.5" customHeight="1">
       <c r="A447" s="3"/>
       <c r="B447" s="3"/>
       <c r="C447" s="3"/>
@@ -12884,7 +12920,7 @@
       <c r="Y447" s="3"/>
       <c r="Z447" s="3"/>
     </row>
-    <row r="448" ht="19.5" customHeight="1">
+    <row r="448" spans="1:26" ht="19.5" customHeight="1">
       <c r="A448" s="3"/>
       <c r="B448" s="3"/>
       <c r="C448" s="3"/>
@@ -12912,7 +12948,7 @@
       <c r="Y448" s="3"/>
       <c r="Z448" s="3"/>
     </row>
-    <row r="449" ht="19.5" customHeight="1">
+    <row r="449" spans="1:26" ht="19.5" customHeight="1">
       <c r="A449" s="3"/>
       <c r="B449" s="3"/>
       <c r="C449" s="3"/>
@@ -12940,7 +12976,7 @@
       <c r="Y449" s="3"/>
       <c r="Z449" s="3"/>
     </row>
-    <row r="450" ht="19.5" customHeight="1">
+    <row r="450" spans="1:26" ht="19.5" customHeight="1">
       <c r="A450" s="3"/>
       <c r="B450" s="3"/>
       <c r="C450" s="3"/>
@@ -12968,7 +13004,7 @@
       <c r="Y450" s="3"/>
       <c r="Z450" s="3"/>
     </row>
-    <row r="451" ht="19.5" customHeight="1">
+    <row r="451" spans="1:26" ht="19.5" customHeight="1">
       <c r="A451" s="3"/>
       <c r="B451" s="3"/>
       <c r="C451" s="3"/>
@@ -12996,7 +13032,7 @@
       <c r="Y451" s="3"/>
       <c r="Z451" s="3"/>
     </row>
-    <row r="452" ht="19.5" customHeight="1">
+    <row r="452" spans="1:26" ht="19.5" customHeight="1">
       <c r="A452" s="3"/>
       <c r="B452" s="3"/>
       <c r="C452" s="3"/>
@@ -13024,7 +13060,7 @@
       <c r="Y452" s="3"/>
       <c r="Z452" s="3"/>
     </row>
-    <row r="453" ht="19.5" customHeight="1">
+    <row r="453" spans="1:26" ht="19.5" customHeight="1">
       <c r="A453" s="3"/>
       <c r="B453" s="3"/>
       <c r="C453" s="3"/>
@@ -13052,7 +13088,7 @@
       <c r="Y453" s="3"/>
       <c r="Z453" s="3"/>
     </row>
-    <row r="454" ht="19.5" customHeight="1">
+    <row r="454" spans="1:26" ht="19.5" customHeight="1">
       <c r="A454" s="3"/>
       <c r="B454" s="3"/>
       <c r="C454" s="3"/>
@@ -13080,7 +13116,7 @@
       <c r="Y454" s="3"/>
       <c r="Z454" s="3"/>
     </row>
-    <row r="455" ht="19.5" customHeight="1">
+    <row r="455" spans="1:26" ht="19.5" customHeight="1">
       <c r="A455" s="3"/>
       <c r="B455" s="3"/>
       <c r="C455" s="3"/>
@@ -13108,7 +13144,7 @@
       <c r="Y455" s="3"/>
       <c r="Z455" s="3"/>
     </row>
-    <row r="456" ht="19.5" customHeight="1">
+    <row r="456" spans="1:26" ht="19.5" customHeight="1">
       <c r="A456" s="3"/>
       <c r="B456" s="3"/>
       <c r="C456" s="3"/>
@@ -13136,7 +13172,7 @@
       <c r="Y456" s="3"/>
       <c r="Z456" s="3"/>
     </row>
-    <row r="457" ht="19.5" customHeight="1">
+    <row r="457" spans="1:26" ht="19.5" customHeight="1">
       <c r="A457" s="3"/>
       <c r="B457" s="3"/>
       <c r="C457" s="3"/>
@@ -13164,7 +13200,7 @@
       <c r="Y457" s="3"/>
       <c r="Z457" s="3"/>
     </row>
-    <row r="458" ht="19.5" customHeight="1">
+    <row r="458" spans="1:26" ht="19.5" customHeight="1">
       <c r="A458" s="3"/>
       <c r="B458" s="3"/>
       <c r="C458" s="3"/>
@@ -13192,7 +13228,7 @@
       <c r="Y458" s="3"/>
       <c r="Z458" s="3"/>
     </row>
-    <row r="459" ht="19.5" customHeight="1">
+    <row r="459" spans="1:26" ht="19.5" customHeight="1">
       <c r="A459" s="3"/>
       <c r="B459" s="3"/>
       <c r="C459" s="3"/>
@@ -13220,7 +13256,7 @@
       <c r="Y459" s="3"/>
       <c r="Z459" s="3"/>
     </row>
-    <row r="460" ht="19.5" customHeight="1">
+    <row r="460" spans="1:26" ht="19.5" customHeight="1">
       <c r="A460" s="3"/>
       <c r="B460" s="3"/>
       <c r="C460" s="3"/>
@@ -13248,7 +13284,7 @@
       <c r="Y460" s="3"/>
       <c r="Z460" s="3"/>
     </row>
-    <row r="461" ht="19.5" customHeight="1">
+    <row r="461" spans="1:26" ht="19.5" customHeight="1">
       <c r="A461" s="3"/>
       <c r="B461" s="3"/>
       <c r="C461" s="3"/>
@@ -13276,7 +13312,7 @@
       <c r="Y461" s="3"/>
       <c r="Z461" s="3"/>
     </row>
-    <row r="462" ht="19.5" customHeight="1">
+    <row r="462" spans="1:26" ht="19.5" customHeight="1">
       <c r="A462" s="3"/>
       <c r="B462" s="3"/>
       <c r="C462" s="3"/>
@@ -13304,7 +13340,7 @@
       <c r="Y462" s="3"/>
       <c r="Z462" s="3"/>
     </row>
-    <row r="463" ht="19.5" customHeight="1">
+    <row r="463" spans="1:26" ht="19.5" customHeight="1">
       <c r="A463" s="3"/>
       <c r="B463" s="3"/>
       <c r="C463" s="3"/>
@@ -13332,7 +13368,7 @@
       <c r="Y463" s="3"/>
       <c r="Z463" s="3"/>
     </row>
-    <row r="464" ht="19.5" customHeight="1">
+    <row r="464" spans="1:26" ht="19.5" customHeight="1">
       <c r="A464" s="3"/>
       <c r="B464" s="3"/>
       <c r="C464" s="3"/>
@@ -13360,7 +13396,7 @@
       <c r="Y464" s="3"/>
       <c r="Z464" s="3"/>
     </row>
-    <row r="465" ht="19.5" customHeight="1">
+    <row r="465" spans="1:26" ht="19.5" customHeight="1">
       <c r="A465" s="3"/>
       <c r="B465" s="3"/>
       <c r="C465" s="3"/>
@@ -13388,7 +13424,7 @@
       <c r="Y465" s="3"/>
       <c r="Z465" s="3"/>
     </row>
-    <row r="466" ht="19.5" customHeight="1">
+    <row r="466" spans="1:26" ht="19.5" customHeight="1">
       <c r="A466" s="3"/>
       <c r="B466" s="3"/>
       <c r="C466" s="3"/>
@@ -13416,7 +13452,7 @@
       <c r="Y466" s="3"/>
       <c r="Z466" s="3"/>
     </row>
-    <row r="467" ht="19.5" customHeight="1">
+    <row r="467" spans="1:26" ht="19.5" customHeight="1">
       <c r="A467" s="3"/>
       <c r="B467" s="3"/>
       <c r="C467" s="3"/>
@@ -13444,7 +13480,7 @@
       <c r="Y467" s="3"/>
       <c r="Z467" s="3"/>
     </row>
-    <row r="468" ht="19.5" customHeight="1">
+    <row r="468" spans="1:26" ht="19.5" customHeight="1">
       <c r="A468" s="3"/>
       <c r="B468" s="3"/>
       <c r="C468" s="3"/>
@@ -13472,7 +13508,7 @@
       <c r="Y468" s="3"/>
       <c r="Z468" s="3"/>
     </row>
-    <row r="469" ht="19.5" customHeight="1">
+    <row r="469" spans="1:26" ht="19.5" customHeight="1">
       <c r="A469" s="3"/>
       <c r="B469" s="3"/>
       <c r="C469" s="3"/>
@@ -13500,7 +13536,7 @@
       <c r="Y469" s="3"/>
       <c r="Z469" s="3"/>
     </row>
-    <row r="470" ht="19.5" customHeight="1">
+    <row r="470" spans="1:26" ht="19.5" customHeight="1">
       <c r="A470" s="3"/>
       <c r="B470" s="3"/>
       <c r="C470" s="3"/>
@@ -13528,7 +13564,7 @@
       <c r="Y470" s="3"/>
       <c r="Z470" s="3"/>
     </row>
-    <row r="471" ht="19.5" customHeight="1">
+    <row r="471" spans="1:26" ht="19.5" customHeight="1">
       <c r="A471" s="3"/>
       <c r="B471" s="3"/>
       <c r="C471" s="3"/>
@@ -13556,7 +13592,7 @@
       <c r="Y471" s="3"/>
       <c r="Z471" s="3"/>
     </row>
-    <row r="472" ht="19.5" customHeight="1">
+    <row r="472" spans="1:26" ht="19.5" customHeight="1">
       <c r="A472" s="3"/>
       <c r="B472" s="3"/>
       <c r="C472" s="3"/>
@@ -13584,7 +13620,7 @@
       <c r="Y472" s="3"/>
       <c r="Z472" s="3"/>
     </row>
-    <row r="473" ht="19.5" customHeight="1">
+    <row r="473" spans="1:26" ht="19.5" customHeight="1">
       <c r="A473" s="3"/>
       <c r="B473" s="3"/>
       <c r="C473" s="3"/>
@@ -13612,7 +13648,7 @@
       <c r="Y473" s="3"/>
       <c r="Z473" s="3"/>
     </row>
-    <row r="474" ht="19.5" customHeight="1">
+    <row r="474" spans="1:26" ht="19.5" customHeight="1">
       <c r="A474" s="3"/>
       <c r="B474" s="3"/>
       <c r="C474" s="3"/>
@@ -13640,7 +13676,7 @@
       <c r="Y474" s="3"/>
       <c r="Z474" s="3"/>
     </row>
-    <row r="475" ht="19.5" customHeight="1">
+    <row r="475" spans="1:26" ht="19.5" customHeight="1">
       <c r="A475" s="3"/>
       <c r="B475" s="3"/>
       <c r="C475" s="3"/>
@@ -13668,7 +13704,7 @@
       <c r="Y475" s="3"/>
       <c r="Z475" s="3"/>
     </row>
-    <row r="476" ht="19.5" customHeight="1">
+    <row r="476" spans="1:26" ht="19.5" customHeight="1">
       <c r="A476" s="3"/>
       <c r="B476" s="3"/>
       <c r="C476" s="3"/>
@@ -13696,7 +13732,7 @@
       <c r="Y476" s="3"/>
       <c r="Z476" s="3"/>
     </row>
-    <row r="477" ht="19.5" customHeight="1">
+    <row r="477" spans="1:26" ht="19.5" customHeight="1">
       <c r="A477" s="3"/>
       <c r="B477" s="3"/>
       <c r="C477" s="3"/>
@@ -13724,7 +13760,7 @@
       <c r="Y477" s="3"/>
       <c r="Z477" s="3"/>
     </row>
-    <row r="478" ht="19.5" customHeight="1">
+    <row r="478" spans="1:26" ht="19.5" customHeight="1">
       <c r="A478" s="3"/>
       <c r="B478" s="3"/>
       <c r="C478" s="3"/>
@@ -13752,7 +13788,7 @@
       <c r="Y478" s="3"/>
       <c r="Z478" s="3"/>
     </row>
-    <row r="479" ht="19.5" customHeight="1">
+    <row r="479" spans="1:26" ht="19.5" customHeight="1">
       <c r="A479" s="3"/>
       <c r="B479" s="3"/>
       <c r="C479" s="3"/>
@@ -13780,7 +13816,7 @@
       <c r="Y479" s="3"/>
       <c r="Z479" s="3"/>
     </row>
-    <row r="480" ht="19.5" customHeight="1">
+    <row r="480" spans="1:26" ht="19.5" customHeight="1">
       <c r="A480" s="3"/>
       <c r="B480" s="3"/>
       <c r="C480" s="3"/>
@@ -13808,7 +13844,7 @@
       <c r="Y480" s="3"/>
       <c r="Z480" s="3"/>
     </row>
-    <row r="481" ht="19.5" customHeight="1">
+    <row r="481" spans="1:26" ht="19.5" customHeight="1">
       <c r="A481" s="3"/>
       <c r="B481" s="3"/>
       <c r="C481" s="3"/>
@@ -13836,7 +13872,7 @@
       <c r="Y481" s="3"/>
       <c r="Z481" s="3"/>
     </row>
-    <row r="482" ht="19.5" customHeight="1">
+    <row r="482" spans="1:26" ht="19.5" customHeight="1">
       <c r="A482" s="3"/>
       <c r="B482" s="3"/>
       <c r="C482" s="3"/>
@@ -13864,7 +13900,7 @@
       <c r="Y482" s="3"/>
       <c r="Z482" s="3"/>
     </row>
-    <row r="483" ht="19.5" customHeight="1">
+    <row r="483" spans="1:26" ht="19.5" customHeight="1">
       <c r="A483" s="3"/>
       <c r="B483" s="3"/>
       <c r="C483" s="3"/>
@@ -13892,7 +13928,7 @@
       <c r="Y483" s="3"/>
       <c r="Z483" s="3"/>
     </row>
-    <row r="484" ht="19.5" customHeight="1">
+    <row r="484" spans="1:26" ht="19.5" customHeight="1">
       <c r="A484" s="3"/>
       <c r="B484" s="3"/>
       <c r="C484" s="3"/>
@@ -13920,7 +13956,7 @@
       <c r="Y484" s="3"/>
       <c r="Z484" s="3"/>
     </row>
-    <row r="485" ht="19.5" customHeight="1">
+    <row r="485" spans="1:26" ht="19.5" customHeight="1">
       <c r="A485" s="3"/>
       <c r="B485" s="3"/>
       <c r="C485" s="3"/>
@@ -13948,7 +13984,7 @@
       <c r="Y485" s="3"/>
       <c r="Z485" s="3"/>
     </row>
-    <row r="486" ht="19.5" customHeight="1">
+    <row r="486" spans="1:26" ht="19.5" customHeight="1">
       <c r="A486" s="3"/>
       <c r="B486" s="3"/>
       <c r="C486" s="3"/>
@@ -13976,7 +14012,7 @@
       <c r="Y486" s="3"/>
       <c r="Z486" s="3"/>
     </row>
-    <row r="487" ht="19.5" customHeight="1">
+    <row r="487" spans="1:26" ht="19.5" customHeight="1">
       <c r="A487" s="3"/>
       <c r="B487" s="3"/>
       <c r="C487" s="3"/>
@@ -14004,7 +14040,7 @@
       <c r="Y487" s="3"/>
       <c r="Z487" s="3"/>
     </row>
-    <row r="488" ht="19.5" customHeight="1">
+    <row r="488" spans="1:26" ht="19.5" customHeight="1">
       <c r="A488" s="3"/>
       <c r="B488" s="3"/>
       <c r="C488" s="3"/>
@@ -14032,7 +14068,7 @@
       <c r="Y488" s="3"/>
       <c r="Z488" s="3"/>
     </row>
-    <row r="489" ht="19.5" customHeight="1">
+    <row r="489" spans="1:26" ht="19.5" customHeight="1">
       <c r="A489" s="3"/>
       <c r="B489" s="3"/>
       <c r="C489" s="3"/>
@@ -14060,7 +14096,7 @@
       <c r="Y489" s="3"/>
       <c r="Z489" s="3"/>
     </row>
-    <row r="490" ht="19.5" customHeight="1">
+    <row r="490" spans="1:26" ht="19.5" customHeight="1">
       <c r="A490" s="3"/>
       <c r="B490" s="3"/>
       <c r="C490" s="3"/>
@@ -14088,7 +14124,7 @@
       <c r="Y490" s="3"/>
       <c r="Z490" s="3"/>
     </row>
-    <row r="491" ht="19.5" customHeight="1">
+    <row r="491" spans="1:26" ht="19.5" customHeight="1">
       <c r="A491" s="3"/>
       <c r="B491" s="3"/>
       <c r="C491" s="3"/>
@@ -14116,7 +14152,7 @@
       <c r="Y491" s="3"/>
       <c r="Z491" s="3"/>
     </row>
-    <row r="492" ht="19.5" customHeight="1">
+    <row r="492" spans="1:26" ht="19.5" customHeight="1">
       <c r="A492" s="3"/>
       <c r="B492" s="3"/>
       <c r="C492" s="3"/>
@@ -14144,7 +14180,7 @@
       <c r="Y492" s="3"/>
       <c r="Z492" s="3"/>
     </row>
-    <row r="493" ht="19.5" customHeight="1">
+    <row r="493" spans="1:26" ht="19.5" customHeight="1">
       <c r="A493" s="3"/>
       <c r="B493" s="3"/>
       <c r="C493" s="3"/>
@@ -14172,7 +14208,7 @@
       <c r="Y493" s="3"/>
       <c r="Z493" s="3"/>
     </row>
-    <row r="494" ht="19.5" customHeight="1">
+    <row r="494" spans="1:26" ht="19.5" customHeight="1">
       <c r="A494" s="3"/>
       <c r="B494" s="3"/>
       <c r="C494" s="3"/>
@@ -14200,7 +14236,7 @@
       <c r="Y494" s="3"/>
       <c r="Z494" s="3"/>
     </row>
-    <row r="495" ht="19.5" customHeight="1">
+    <row r="495" spans="1:26" ht="19.5" customHeight="1">
       <c r="A495" s="3"/>
       <c r="B495" s="3"/>
       <c r="C495" s="3"/>
@@ -14228,7 +14264,7 @@
       <c r="Y495" s="3"/>
       <c r="Z495" s="3"/>
     </row>
-    <row r="496" ht="19.5" customHeight="1">
+    <row r="496" spans="1:26" ht="19.5" customHeight="1">
       <c r="A496" s="3"/>
       <c r="B496" s="3"/>
       <c r="C496" s="3"/>
@@ -14256,7 +14292,7 @@
       <c r="Y496" s="3"/>
       <c r="Z496" s="3"/>
     </row>
-    <row r="497" ht="19.5" customHeight="1">
+    <row r="497" spans="1:26" ht="19.5" customHeight="1">
       <c r="A497" s="3"/>
       <c r="B497" s="3"/>
       <c r="C497" s="3"/>
@@ -14284,7 +14320,7 @@
       <c r="Y497" s="3"/>
       <c r="Z497" s="3"/>
     </row>
-    <row r="498" ht="19.5" customHeight="1">
+    <row r="498" spans="1:26" ht="19.5" customHeight="1">
       <c r="A498" s="3"/>
       <c r="B498" s="3"/>
       <c r="C498" s="3"/>
@@ -14312,7 +14348,7 @@
       <c r="Y498" s="3"/>
       <c r="Z498" s="3"/>
     </row>
-    <row r="499" ht="19.5" customHeight="1">
+    <row r="499" spans="1:26" ht="19.5" customHeight="1">
       <c r="A499" s="3"/>
       <c r="B499" s="3"/>
       <c r="C499" s="3"/>
@@ -14340,7 +14376,7 @@
       <c r="Y499" s="3"/>
       <c r="Z499" s="3"/>
     </row>
-    <row r="500" ht="19.5" customHeight="1">
+    <row r="500" spans="1:26" ht="19.5" customHeight="1">
       <c r="A500" s="3"/>
       <c r="B500" s="3"/>
       <c r="C500" s="3"/>
@@ -14368,7 +14404,7 @@
       <c r="Y500" s="3"/>
       <c r="Z500" s="3"/>
     </row>
-    <row r="501" ht="19.5" customHeight="1">
+    <row r="501" spans="1:26" ht="19.5" customHeight="1">
       <c r="A501" s="3"/>
       <c r="B501" s="3"/>
       <c r="C501" s="3"/>
@@ -14396,7 +14432,7 @@
       <c r="Y501" s="3"/>
       <c r="Z501" s="3"/>
     </row>
-    <row r="502" ht="19.5" customHeight="1">
+    <row r="502" spans="1:26" ht="19.5" customHeight="1">
       <c r="A502" s="3"/>
       <c r="B502" s="3"/>
       <c r="C502" s="3"/>
@@ -14424,7 +14460,7 @@
       <c r="Y502" s="3"/>
       <c r="Z502" s="3"/>
     </row>
-    <row r="503" ht="19.5" customHeight="1">
+    <row r="503" spans="1:26" ht="19.5" customHeight="1">
       <c r="A503" s="3"/>
       <c r="B503" s="3"/>
       <c r="C503" s="3"/>
@@ -14452,7 +14488,7 @@
       <c r="Y503" s="3"/>
       <c r="Z503" s="3"/>
     </row>
-    <row r="504" ht="19.5" customHeight="1">
+    <row r="504" spans="1:26" ht="19.5" customHeight="1">
       <c r="A504" s="3"/>
       <c r="B504" s="3"/>
       <c r="C504" s="3"/>
@@ -14480,7 +14516,7 @@
       <c r="Y504" s="3"/>
       <c r="Z504" s="3"/>
     </row>
-    <row r="505" ht="19.5" customHeight="1">
+    <row r="505" spans="1:26" ht="19.5" customHeight="1">
       <c r="A505" s="3"/>
       <c r="B505" s="3"/>
       <c r="C505" s="3"/>
@@ -14508,7 +14544,7 @@
       <c r="Y505" s="3"/>
       <c r="Z505" s="3"/>
     </row>
-    <row r="506" ht="19.5" customHeight="1">
+    <row r="506" spans="1:26" ht="19.5" customHeight="1">
       <c r="A506" s="3"/>
       <c r="B506" s="3"/>
       <c r="C506" s="3"/>
@@ -14536,7 +14572,7 @@
       <c r="Y506" s="3"/>
       <c r="Z506" s="3"/>
     </row>
-    <row r="507" ht="19.5" customHeight="1">
+    <row r="507" spans="1:26" ht="19.5" customHeight="1">
       <c r="A507" s="3"/>
       <c r="B507" s="3"/>
       <c r="C507" s="3"/>
@@ -14564,7 +14600,7 @@
       <c r="Y507" s="3"/>
       <c r="Z507" s="3"/>
     </row>
-    <row r="508" ht="19.5" customHeight="1">
+    <row r="508" spans="1:26" ht="19.5" customHeight="1">
       <c r="A508" s="3"/>
       <c r="B508" s="3"/>
       <c r="C508" s="3"/>
@@ -14592,7 +14628,7 @@
       <c r="Y508" s="3"/>
       <c r="Z508" s="3"/>
     </row>
-    <row r="509" ht="19.5" customHeight="1">
+    <row r="509" spans="1:26" ht="19.5" customHeight="1">
       <c r="A509" s="3"/>
       <c r="B509" s="3"/>
       <c r="C509" s="3"/>
@@ -14620,7 +14656,7 @@
       <c r="Y509" s="3"/>
       <c r="Z509" s="3"/>
     </row>
-    <row r="510" ht="19.5" customHeight="1">
+    <row r="510" spans="1:26" ht="19.5" customHeight="1">
       <c r="A510" s="3"/>
       <c r="B510" s="3"/>
       <c r="C510" s="3"/>
@@ -14648,7 +14684,7 @@
       <c r="Y510" s="3"/>
       <c r="Z510" s="3"/>
     </row>
-    <row r="511" ht="19.5" customHeight="1">
+    <row r="511" spans="1:26" ht="19.5" customHeight="1">
       <c r="A511" s="3"/>
       <c r="B511" s="3"/>
       <c r="C511" s="3"/>
@@ -14676,7 +14712,7 @@
       <c r="Y511" s="3"/>
       <c r="Z511" s="3"/>
     </row>
-    <row r="512" ht="19.5" customHeight="1">
+    <row r="512" spans="1:26" ht="19.5" customHeight="1">
       <c r="A512" s="3"/>
       <c r="B512" s="3"/>
       <c r="C512" s="3"/>
@@ -14704,7 +14740,7 @@
       <c r="Y512" s="3"/>
       <c r="Z512" s="3"/>
     </row>
-    <row r="513" ht="19.5" customHeight="1">
+    <row r="513" spans="1:26" ht="19.5" customHeight="1">
       <c r="A513" s="3"/>
       <c r="B513" s="3"/>
       <c r="C513" s="3"/>
@@ -14732,7 +14768,7 @@
       <c r="Y513" s="3"/>
       <c r="Z513" s="3"/>
     </row>
-    <row r="514" ht="19.5" customHeight="1">
+    <row r="514" spans="1:26" ht="19.5" customHeight="1">
       <c r="A514" s="3"/>
       <c r="B514" s="3"/>
       <c r="C514" s="3"/>
@@ -14760,7 +14796,7 @@
       <c r="Y514" s="3"/>
       <c r="Z514" s="3"/>
     </row>
-    <row r="515" ht="19.5" customHeight="1">
+    <row r="515" spans="1:26" ht="19.5" customHeight="1">
       <c r="A515" s="3"/>
       <c r="B515" s="3"/>
       <c r="C515" s="3"/>
@@ -14788,7 +14824,7 @@
       <c r="Y515" s="3"/>
       <c r="Z515" s="3"/>
     </row>
-    <row r="516" ht="19.5" customHeight="1">
+    <row r="516" spans="1:26" ht="19.5" customHeight="1">
       <c r="A516" s="3"/>
       <c r="B516" s="3"/>
       <c r="C516" s="3"/>
@@ -14816,7 +14852,7 @@
       <c r="Y516" s="3"/>
       <c r="Z516" s="3"/>
     </row>
-    <row r="517" ht="19.5" customHeight="1">
+    <row r="517" spans="1:26" ht="19.5" customHeight="1">
       <c r="A517" s="3"/>
       <c r="B517" s="3"/>
       <c r="C517" s="3"/>
@@ -14844,7 +14880,7 @@
       <c r="Y517" s="3"/>
       <c r="Z517" s="3"/>
     </row>
-    <row r="518" ht="19.5" customHeight="1">
+    <row r="518" spans="1:26" ht="19.5" customHeight="1">
       <c r="A518" s="3"/>
       <c r="B518" s="3"/>
       <c r="C518" s="3"/>
@@ -14872,7 +14908,7 @@
       <c r="Y518" s="3"/>
       <c r="Z518" s="3"/>
     </row>
-    <row r="519" ht="19.5" customHeight="1">
+    <row r="519" spans="1:26" ht="19.5" customHeight="1">
       <c r="A519" s="3"/>
       <c r="B519" s="3"/>
       <c r="C519" s="3"/>
@@ -14900,7 +14936,7 @@
       <c r="Y519" s="3"/>
       <c r="Z519" s="3"/>
     </row>
-    <row r="520" ht="19.5" customHeight="1">
+    <row r="520" spans="1:26" ht="19.5" customHeight="1">
       <c r="A520" s="3"/>
       <c r="B520" s="3"/>
       <c r="C520" s="3"/>
@@ -14928,7 +14964,7 @@
       <c r="Y520" s="3"/>
       <c r="Z520" s="3"/>
     </row>
-    <row r="521" ht="19.5" customHeight="1">
+    <row r="521" spans="1:26" ht="19.5" customHeight="1">
       <c r="A521" s="3"/>
       <c r="B521" s="3"/>
       <c r="C521" s="3"/>
@@ -14956,7 +14992,7 @@
       <c r="Y521" s="3"/>
       <c r="Z521" s="3"/>
     </row>
-    <row r="522" ht="19.5" customHeight="1">
+    <row r="522" spans="1:26" ht="19.5" customHeight="1">
       <c r="A522" s="3"/>
       <c r="B522" s="3"/>
       <c r="C522" s="3"/>
@@ -14984,7 +15020,7 @@
       <c r="Y522" s="3"/>
       <c r="Z522" s="3"/>
     </row>
-    <row r="523" ht="19.5" customHeight="1">
+    <row r="523" spans="1:26" ht="19.5" customHeight="1">
       <c r="A523" s="3"/>
       <c r="B523" s="3"/>
       <c r="C523" s="3"/>
@@ -15012,7 +15048,7 @@
       <c r="Y523" s="3"/>
       <c r="Z523" s="3"/>
     </row>
-    <row r="524" ht="19.5" customHeight="1">
+    <row r="524" spans="1:26" ht="19.5" customHeight="1">
       <c r="A524" s="3"/>
       <c r="B524" s="3"/>
       <c r="C524" s="3"/>
@@ -15040,7 +15076,7 @@
       <c r="Y524" s="3"/>
       <c r="Z524" s="3"/>
     </row>
-    <row r="525" ht="19.5" customHeight="1">
+    <row r="525" spans="1:26" ht="19.5" customHeight="1">
       <c r="A525" s="3"/>
       <c r="B525" s="3"/>
       <c r="C525" s="3"/>
@@ -15068,7 +15104,7 @@
       <c r="Y525" s="3"/>
       <c r="Z525" s="3"/>
     </row>
-    <row r="526" ht="19.5" customHeight="1">
+    <row r="526" spans="1:26" ht="19.5" customHeight="1">
       <c r="A526" s="3"/>
       <c r="B526" s="3"/>
       <c r="C526" s="3"/>
@@ -15096,7 +15132,7 @@
       <c r="Y526" s="3"/>
       <c r="Z526" s="3"/>
     </row>
-    <row r="527" ht="19.5" customHeight="1">
+    <row r="527" spans="1:26" ht="19.5" customHeight="1">
       <c r="A527" s="3"/>
       <c r="B527" s="3"/>
       <c r="C527" s="3"/>
@@ -15124,7 +15160,7 @@
       <c r="Y527" s="3"/>
       <c r="Z527" s="3"/>
     </row>
-    <row r="528" ht="19.5" customHeight="1">
+    <row r="528" spans="1:26" ht="19.5" customHeight="1">
       <c r="A528" s="3"/>
       <c r="B528" s="3"/>
       <c r="C528" s="3"/>
@@ -15152,7 +15188,7 @@
       <c r="Y528" s="3"/>
       <c r="Z528" s="3"/>
     </row>
-    <row r="529" ht="19.5" customHeight="1">
+    <row r="529" spans="1:26" ht="19.5" customHeight="1">
       <c r="A529" s="3"/>
       <c r="B529" s="3"/>
       <c r="C529" s="3"/>
@@ -15180,7 +15216,7 @@
       <c r="Y529" s="3"/>
       <c r="Z529" s="3"/>
     </row>
-    <row r="530" ht="19.5" customHeight="1">
+    <row r="530" spans="1:26" ht="19.5" customHeight="1">
       <c r="A530" s="3"/>
       <c r="B530" s="3"/>
       <c r="C530" s="3"/>
@@ -15208,7 +15244,7 @@
       <c r="Y530" s="3"/>
       <c r="Z530" s="3"/>
     </row>
-    <row r="531" ht="19.5" customHeight="1">
+    <row r="531" spans="1:26" ht="19.5" customHeight="1">
       <c r="A531" s="3"/>
       <c r="B531" s="3"/>
       <c r="C531" s="3"/>
@@ -15236,7 +15272,7 @@
       <c r="Y531" s="3"/>
       <c r="Z531" s="3"/>
     </row>
-    <row r="532" ht="19.5" customHeight="1">
+    <row r="532" spans="1:26" ht="19.5" customHeight="1">
       <c r="A532" s="3"/>
       <c r="B532" s="3"/>
       <c r="C532" s="3"/>
@@ -15264,7 +15300,7 @@
       <c r="Y532" s="3"/>
       <c r="Z532" s="3"/>
     </row>
-    <row r="533" ht="19.5" customHeight="1">
+    <row r="533" spans="1:26" ht="19.5" customHeight="1">
       <c r="A533" s="3"/>
       <c r="B533" s="3"/>
       <c r="C533" s="3"/>
@@ -15292,7 +15328,7 @@
       <c r="Y533" s="3"/>
       <c r="Z533" s="3"/>
     </row>
-    <row r="534" ht="19.5" customHeight="1">
+    <row r="534" spans="1:26" ht="19.5" customHeight="1">
       <c r="A534" s="3"/>
       <c r="B534" s="3"/>
       <c r="C534" s="3"/>
@@ -15320,7 +15356,7 @@
       <c r="Y534" s="3"/>
       <c r="Z534" s="3"/>
     </row>
-    <row r="535" ht="19.5" customHeight="1">
+    <row r="535" spans="1:26" ht="19.5" customHeight="1">
       <c r="A535" s="3"/>
       <c r="B535" s="3"/>
       <c r="C535" s="3"/>
@@ -15348,7 +15384,7 @@
       <c r="Y535" s="3"/>
       <c r="Z535" s="3"/>
     </row>
-    <row r="536" ht="19.5" customHeight="1">
+    <row r="536" spans="1:26" ht="19.5" customHeight="1">
       <c r="A536" s="3"/>
       <c r="B536" s="3"/>
       <c r="C536" s="3"/>
@@ -15376,7 +15412,7 @@
       <c r="Y536" s="3"/>
       <c r="Z536" s="3"/>
     </row>
-    <row r="537" ht="19.5" customHeight="1">
+    <row r="537" spans="1:26" ht="19.5" customHeight="1">
       <c r="A537" s="3"/>
       <c r="B537" s="3"/>
       <c r="C537" s="3"/>
@@ -15404,7 +15440,7 @@
       <c r="Y537" s="3"/>
       <c r="Z537" s="3"/>
     </row>
-    <row r="538" ht="19.5" customHeight="1">
+    <row r="538" spans="1:26" ht="19.5" customHeight="1">
       <c r="A538" s="3"/>
       <c r="B538" s="3"/>
       <c r="C538" s="3"/>
@@ -15432,7 +15468,7 @@
       <c r="Y538" s="3"/>
       <c r="Z538" s="3"/>
     </row>
-    <row r="539" ht="19.5" customHeight="1">
+    <row r="539" spans="1:26" ht="19.5" customHeight="1">
       <c r="A539" s="3"/>
       <c r="B539" s="3"/>
       <c r="C539" s="3"/>
@@ -15460,7 +15496,7 @@
       <c r="Y539" s="3"/>
       <c r="Z539" s="3"/>
     </row>
-    <row r="540" ht="19.5" customHeight="1">
+    <row r="540" spans="1:26" ht="19.5" customHeight="1">
       <c r="A540" s="3"/>
       <c r="B540" s="3"/>
       <c r="C540" s="3"/>
@@ -15488,7 +15524,7 @@
       <c r="Y540" s="3"/>
       <c r="Z540" s="3"/>
     </row>
-    <row r="541" ht="19.5" customHeight="1">
+    <row r="541" spans="1:26" ht="19.5" customHeight="1">
       <c r="A541" s="3"/>
       <c r="B541" s="3"/>
       <c r="C541" s="3"/>
@@ -15516,7 +15552,7 @@
       <c r="Y541" s="3"/>
       <c r="Z541" s="3"/>
     </row>
-    <row r="542" ht="19.5" customHeight="1">
+    <row r="542" spans="1:26" ht="19.5" customHeight="1">
       <c r="A542" s="3"/>
       <c r="B542" s="3"/>
       <c r="C542" s="3"/>
@@ -15544,7 +15580,7 @@
       <c r="Y542" s="3"/>
       <c r="Z542" s="3"/>
     </row>
-    <row r="543" ht="19.5" customHeight="1">
+    <row r="543" spans="1:26" ht="19.5" customHeight="1">
       <c r="A543" s="3"/>
       <c r="B543" s="3"/>
       <c r="C543" s="3"/>
@@ -15572,7 +15608,7 @@
       <c r="Y543" s="3"/>
       <c r="Z543" s="3"/>
     </row>
-    <row r="544" ht="19.5" customHeight="1">
+    <row r="544" spans="1:26" ht="19.5" customHeight="1">
       <c r="A544" s="3"/>
       <c r="B544" s="3"/>
       <c r="C544" s="3"/>
@@ -15600,7 +15636,7 @@
       <c r="Y544" s="3"/>
       <c r="Z544" s="3"/>
     </row>
-    <row r="545" ht="19.5" customHeight="1">
+    <row r="545" spans="1:26" ht="19.5" customHeight="1">
       <c r="A545" s="3"/>
       <c r="B545" s="3"/>
       <c r="C545" s="3"/>
@@ -15628,7 +15664,7 @@
       <c r="Y545" s="3"/>
       <c r="Z545" s="3"/>
     </row>
-    <row r="546" ht="19.5" customHeight="1">
+    <row r="546" spans="1:26" ht="19.5" customHeight="1">
       <c r="A546" s="3"/>
       <c r="B546" s="3"/>
       <c r="C546" s="3"/>
@@ -15656,7 +15692,7 @@
       <c r="Y546" s="3"/>
       <c r="Z546" s="3"/>
     </row>
-    <row r="547" ht="19.5" customHeight="1">
+    <row r="547" spans="1:26" ht="19.5" customHeight="1">
       <c r="A547" s="3"/>
       <c r="B547" s="3"/>
       <c r="C547" s="3"/>
@@ -15684,7 +15720,7 @@
       <c r="Y547" s="3"/>
       <c r="Z547" s="3"/>
     </row>
-    <row r="548" ht="19.5" customHeight="1">
+    <row r="548" spans="1:26" ht="19.5" customHeight="1">
       <c r="A548" s="3"/>
       <c r="B548" s="3"/>
       <c r="C548" s="3"/>
@@ -15712,7 +15748,7 @@
       <c r="Y548" s="3"/>
       <c r="Z548" s="3"/>
     </row>
-    <row r="549" ht="19.5" customHeight="1">
+    <row r="549" spans="1:26" ht="19.5" customHeight="1">
       <c r="A549" s="3"/>
       <c r="B549" s="3"/>
       <c r="C549" s="3"/>
@@ -15740,7 +15776,7 @@
       <c r="Y549" s="3"/>
       <c r="Z549" s="3"/>
     </row>
-    <row r="550" ht="19.5" customHeight="1">
+    <row r="550" spans="1:26" ht="19.5" customHeight="1">
       <c r="A550" s="3"/>
       <c r="B550" s="3"/>
       <c r="C550" s="3"/>
@@ -15768,7 +15804,7 @@
       <c r="Y550" s="3"/>
       <c r="Z550" s="3"/>
     </row>
-    <row r="551" ht="19.5" customHeight="1">
+    <row r="551" spans="1:26" ht="19.5" customHeight="1">
       <c r="A551" s="3"/>
       <c r="B551" s="3"/>
       <c r="C551" s="3"/>
@@ -15796,7 +15832,7 @@
       <c r="Y551" s="3"/>
       <c r="Z551" s="3"/>
     </row>
-    <row r="552" ht="19.5" customHeight="1">
+    <row r="552" spans="1:26" ht="19.5" customHeight="1">
       <c r="A552" s="3"/>
       <c r="B552" s="3"/>
       <c r="C552" s="3"/>
@@ -15824,7 +15860,7 @@
       <c r="Y552" s="3"/>
       <c r="Z552" s="3"/>
     </row>
-    <row r="553" ht="19.5" customHeight="1">
+    <row r="553" spans="1:26" ht="19.5" customHeight="1">
       <c r="A553" s="3"/>
       <c r="B553" s="3"/>
       <c r="C553" s="3"/>
@@ -15852,7 +15888,7 @@
       <c r="Y553" s="3"/>
       <c r="Z553" s="3"/>
     </row>
-    <row r="554" ht="19.5" customHeight="1">
+    <row r="554" spans="1:26" ht="19.5" customHeight="1">
       <c r="A554" s="3"/>
       <c r="B554" s="3"/>
       <c r="C554" s="3"/>
@@ -15880,7 +15916,7 @@
       <c r="Y554" s="3"/>
       <c r="Z554" s="3"/>
     </row>
-    <row r="555" ht="19.5" customHeight="1">
+    <row r="555" spans="1:26" ht="19.5" customHeight="1">
       <c r="A555" s="3"/>
       <c r="B555" s="3"/>
       <c r="C555" s="3"/>
@@ -15908,7 +15944,7 @@
       <c r="Y555" s="3"/>
       <c r="Z555" s="3"/>
     </row>
-    <row r="556" ht="19.5" customHeight="1">
+    <row r="556" spans="1:26" ht="19.5" customHeight="1">
       <c r="A556" s="3"/>
       <c r="B556" s="3"/>
       <c r="C556" s="3"/>
@@ -15936,7 +15972,7 @@
       <c r="Y556" s="3"/>
       <c r="Z556" s="3"/>
     </row>
-    <row r="557" ht="19.5" customHeight="1">
+    <row r="557" spans="1:26" ht="19.5" customHeight="1">
       <c r="A557" s="3"/>
       <c r="B557" s="3"/>
       <c r="C557" s="3"/>
@@ -15964,7 +16000,7 @@
       <c r="Y557" s="3"/>
       <c r="Z557" s="3"/>
     </row>
-    <row r="558" ht="19.5" customHeight="1">
+    <row r="558" spans="1:26" ht="19.5" customHeight="1">
       <c r="A558" s="3"/>
       <c r="B558" s="3"/>
       <c r="C558" s="3"/>
@@ -15992,7 +16028,7 @@
       <c r="Y558" s="3"/>
       <c r="Z558" s="3"/>
     </row>
-    <row r="559" ht="19.5" customHeight="1">
+    <row r="559" spans="1:26" ht="19.5" customHeight="1">
       <c r="A559" s="3"/>
       <c r="B559" s="3"/>
       <c r="C559" s="3"/>
@@ -16020,7 +16056,7 @@
       <c r="Y559" s="3"/>
       <c r="Z559" s="3"/>
     </row>
-    <row r="560" ht="19.5" customHeight="1">
+    <row r="560" spans="1:26" ht="19.5" customHeight="1">
       <c r="A560" s="3"/>
       <c r="B560" s="3"/>
       <c r="C560" s="3"/>
@@ -16048,7 +16084,7 @@
       <c r="Y560" s="3"/>
       <c r="Z560" s="3"/>
     </row>
-    <row r="561" ht="19.5" customHeight="1">
+    <row r="561" spans="1:26" ht="19.5" customHeight="1">
       <c r="A561" s="3"/>
       <c r="B561" s="3"/>
       <c r="C561" s="3"/>
@@ -16076,7 +16112,7 @@
       <c r="Y561" s="3"/>
       <c r="Z561" s="3"/>
     </row>
-    <row r="562" ht="19.5" customHeight="1">
+    <row r="562" spans="1:26" ht="19.5" customHeight="1">
       <c r="A562" s="3"/>
       <c r="B562" s="3"/>
       <c r="C562" s="3"/>
@@ -16104,7 +16140,7 @@
       <c r="Y562" s="3"/>
       <c r="Z562" s="3"/>
     </row>
-    <row r="563" ht="19.5" customHeight="1">
+    <row r="563" spans="1:26" ht="19.5" customHeight="1">
       <c r="A563" s="3"/>
       <c r="B563" s="3"/>
       <c r="C563" s="3"/>
@@ -16132,7 +16168,7 @@
       <c r="Y563" s="3"/>
       <c r="Z563" s="3"/>
     </row>
-    <row r="564" ht="19.5" customHeight="1">
+    <row r="564" spans="1:26" ht="19.5" customHeight="1">
       <c r="A564" s="3"/>
       <c r="B564" s="3"/>
       <c r="C564" s="3"/>
@@ -16160,7 +16196,7 @@
       <c r="Y564" s="3"/>
       <c r="Z564" s="3"/>
     </row>
-    <row r="565" ht="19.5" customHeight="1">
+    <row r="565" spans="1:26" ht="19.5" customHeight="1">
       <c r="A565" s="3"/>
       <c r="B565" s="3"/>
       <c r="C565" s="3"/>
@@ -16188,7 +16224,7 @@
       <c r="Y565" s="3"/>
       <c r="Z565" s="3"/>
     </row>
-    <row r="566" ht="19.5" customHeight="1">
+    <row r="566" spans="1:26" ht="19.5" customHeight="1">
       <c r="A566" s="3"/>
       <c r="B566" s="3"/>
       <c r="C566" s="3"/>
@@ -16216,7 +16252,7 @@
       <c r="Y566" s="3"/>
       <c r="Z566" s="3"/>
     </row>
-    <row r="567" ht="19.5" customHeight="1">
+    <row r="567" spans="1:26" ht="19.5" customHeight="1">
       <c r="A567" s="3"/>
       <c r="B567" s="3"/>
       <c r="C567" s="3"/>
@@ -16244,7 +16280,7 @@
       <c r="Y567" s="3"/>
       <c r="Z567" s="3"/>
     </row>
-    <row r="568" ht="19.5" customHeight="1">
+    <row r="568" spans="1:26" ht="19.5" customHeight="1">
       <c r="A568" s="3"/>
       <c r="B568" s="3"/>
       <c r="C568" s="3"/>
@@ -16272,7 +16308,7 @@
       <c r="Y568" s="3"/>
       <c r="Z568" s="3"/>
     </row>
-    <row r="569" ht="19.5" customHeight="1">
+    <row r="569" spans="1:26" ht="19.5" customHeight="1">
       <c r="A569" s="3"/>
       <c r="B569" s="3"/>
       <c r="C569" s="3"/>
@@ -16300,7 +16336,7 @@
       <c r="Y569" s="3"/>
       <c r="Z569" s="3"/>
     </row>
-    <row r="570" ht="19.5" customHeight="1">
+    <row r="570" spans="1:26" ht="19.5" customHeight="1">
       <c r="A570" s="3"/>
       <c r="B570" s="3"/>
       <c r="C570" s="3"/>
@@ -16328,7 +16364,7 @@
       <c r="Y570" s="3"/>
       <c r="Z570" s="3"/>
     </row>
-    <row r="571" ht="19.5" customHeight="1">
+    <row r="571" spans="1:26" ht="19.5" customHeight="1">
       <c r="A571" s="3"/>
       <c r="B571" s="3"/>
       <c r="C571" s="3"/>
@@ -16356,7 +16392,7 @@
       <c r="Y571" s="3"/>
       <c r="Z571" s="3"/>
     </row>
-    <row r="572" ht="19.5" customHeight="1">
+    <row r="572" spans="1:26" ht="19.5" customHeight="1">
       <c r="A572" s="3"/>
       <c r="B572" s="3"/>
       <c r="C572" s="3"/>
@@ -16384,7 +16420,7 @@
       <c r="Y572" s="3"/>
       <c r="Z572" s="3"/>
     </row>
-    <row r="573" ht="19.5" customHeight="1">
+    <row r="573" spans="1:26" ht="19.5" customHeight="1">
       <c r="A573" s="3"/>
       <c r="B573" s="3"/>
       <c r="C573" s="3"/>
@@ -16412,7 +16448,7 @@
       <c r="Y573" s="3"/>
       <c r="Z573" s="3"/>
     </row>
-    <row r="574" ht="19.5" customHeight="1">
+    <row r="574" spans="1:26" ht="19.5" customHeight="1">
       <c r="A574" s="3"/>
       <c r="B574" s="3"/>
       <c r="C574" s="3"/>
@@ -16440,7 +16476,7 @@
       <c r="Y574" s="3"/>
       <c r="Z574" s="3"/>
     </row>
-    <row r="575" ht="19.5" customHeight="1">
+    <row r="575" spans="1:26" ht="19.5" customHeight="1">
       <c r="A575" s="3"/>
       <c r="B575" s="3"/>
       <c r="C575" s="3"/>
@@ -16468,7 +16504,7 @@
       <c r="Y575" s="3"/>
       <c r="Z575" s="3"/>
     </row>
-    <row r="576" ht="19.5" customHeight="1">
+    <row r="576" spans="1:26" ht="19.5" customHeight="1">
       <c r="A576" s="3"/>
       <c r="B576" s="3"/>
       <c r="C576" s="3"/>
@@ -16496,7 +16532,7 @@
       <c r="Y576" s="3"/>
       <c r="Z576" s="3"/>
     </row>
-    <row r="577" ht="19.5" customHeight="1">
+    <row r="577" spans="1:26" ht="19.5" customHeight="1">
       <c r="A577" s="3"/>
       <c r="B577" s="3"/>
       <c r="C577" s="3"/>
@@ -16524,7 +16560,7 @@
       <c r="Y577" s="3"/>
       <c r="Z577" s="3"/>
     </row>
-    <row r="578" ht="19.5" customHeight="1">
+    <row r="578" spans="1:26" ht="19.5" customHeight="1">
       <c r="A578" s="3"/>
       <c r="B578" s="3"/>
       <c r="C578" s="3"/>
@@ -16552,7 +16588,7 @@
       <c r="Y578" s="3"/>
       <c r="Z578" s="3"/>
     </row>
-    <row r="579" ht="19.5" customHeight="1">
+    <row r="579" spans="1:26" ht="19.5" customHeight="1">
       <c r="A579" s="3"/>
       <c r="B579" s="3"/>
       <c r="C579" s="3"/>
@@ -16580,7 +16616,7 @@
       <c r="Y579" s="3"/>
       <c r="Z579" s="3"/>
     </row>
-    <row r="580" ht="19.5" customHeight="1">
+    <row r="580" spans="1:26" ht="19.5" customHeight="1">
       <c r="A580" s="3"/>
       <c r="B580" s="3"/>
       <c r="C580" s="3"/>
@@ -16608,7 +16644,7 @@
       <c r="Y580" s="3"/>
       <c r="Z580" s="3"/>
     </row>
-    <row r="581" ht="19.5" customHeight="1">
+    <row r="581" spans="1:26" ht="19.5" customHeight="1">
       <c r="A581" s="3"/>
       <c r="B581" s="3"/>
       <c r="C581" s="3"/>
@@ -16636,7 +16672,7 @@
       <c r="Y581" s="3"/>
       <c r="Z581" s="3"/>
     </row>
-    <row r="582" ht="19.5" customHeight="1">
+    <row r="582" spans="1:26" ht="19.5" customHeight="1">
       <c r="A582" s="3"/>
       <c r="B582" s="3"/>
       <c r="C582" s="3"/>
@@ -16664,7 +16700,7 @@
       <c r="Y582" s="3"/>
       <c r="Z582" s="3"/>
     </row>
-    <row r="583" ht="19.5" customHeight="1">
+    <row r="583" spans="1:26" ht="19.5" customHeight="1">
       <c r="A583" s="3"/>
       <c r="B583" s="3"/>
       <c r="C583" s="3"/>
@@ -16692,7 +16728,7 @@
       <c r="Y583" s="3"/>
       <c r="Z583" s="3"/>
     </row>
-    <row r="584" ht="19.5" customHeight="1">
+    <row r="584" spans="1:26" ht="19.5" customHeight="1">
       <c r="A584" s="3"/>
       <c r="B584" s="3"/>
       <c r="C584" s="3"/>
@@ -16720,7 +16756,7 @@
       <c r="Y584" s="3"/>
       <c r="Z584" s="3"/>
     </row>
-    <row r="585" ht="19.5" customHeight="1">
+    <row r="585" spans="1:26" ht="19.5" customHeight="1">
       <c r="A585" s="3"/>
       <c r="B585" s="3"/>
       <c r="C585" s="3"/>
@@ -16748,7 +16784,7 @@
       <c r="Y585" s="3"/>
       <c r="Z585" s="3"/>
     </row>
-    <row r="586" ht="19.5" customHeight="1">
+    <row r="586" spans="1:26" ht="19.5" customHeight="1">
       <c r="A586" s="3"/>
       <c r="B586" s="3"/>
       <c r="C586" s="3"/>
@@ -16776,7 +16812,7 @@
       <c r="Y586" s="3"/>
       <c r="Z586" s="3"/>
     </row>
-    <row r="587" ht="19.5" customHeight="1">
+    <row r="587" spans="1:26" ht="19.5" customHeight="1">
       <c r="A587" s="3"/>
       <c r="B587" s="3"/>
       <c r="C587" s="3"/>
@@ -16804,7 +16840,7 @@
       <c r="Y587" s="3"/>
       <c r="Z587" s="3"/>
     </row>
-    <row r="588" ht="19.5" customHeight="1">
+    <row r="588" spans="1:26" ht="19.5" customHeight="1">
       <c r="A588" s="3"/>
       <c r="B588" s="3"/>
       <c r="C588" s="3"/>
@@ -16832,7 +16868,7 @@
       <c r="Y588" s="3"/>
       <c r="Z588" s="3"/>
     </row>
-    <row r="589" ht="19.5" customHeight="1">
+    <row r="589" spans="1:26" ht="19.5" customHeight="1">
       <c r="A589" s="3"/>
       <c r="B589" s="3"/>
       <c r="C589" s="3"/>
@@ -16860,7 +16896,7 @@
       <c r="Y589" s="3"/>
       <c r="Z589" s="3"/>
     </row>
-    <row r="590" ht="19.5" customHeight="1">
+    <row r="590" spans="1:26" ht="19.5" customHeight="1">
       <c r="A590" s="3"/>
       <c r="B590" s="3"/>
       <c r="C590" s="3"/>
@@ -16888,7 +16924,7 @@
       <c r="Y590" s="3"/>
       <c r="Z590" s="3"/>
     </row>
-    <row r="591" ht="19.5" customHeight="1">
+    <row r="591" spans="1:26" ht="19.5" customHeight="1">
       <c r="A591" s="3"/>
       <c r="B591" s="3"/>
       <c r="C591" s="3"/>
@@ -16916,7 +16952,7 @@
       <c r="Y591" s="3"/>
       <c r="Z591" s="3"/>
     </row>
-    <row r="592" ht="19.5" customHeight="1">
+    <row r="592" spans="1:26" ht="19.5" customHeight="1">
       <c r="A592" s="3"/>
       <c r="B592" s="3"/>
       <c r="C592" s="3"/>
@@ -16944,7 +16980,7 @@
       <c r="Y592" s="3"/>
       <c r="Z592" s="3"/>
     </row>
-    <row r="593" ht="19.5" customHeight="1">
+    <row r="593" spans="1:26" ht="19.5" customHeight="1">
       <c r="A593" s="3"/>
       <c r="B593" s="3"/>
       <c r="C593" s="3"/>
@@ -16972,7 +17008,7 @@
       <c r="Y593" s="3"/>
       <c r="Z593" s="3"/>
     </row>
-    <row r="594" ht="19.5" customHeight="1">
+    <row r="594" spans="1:26" ht="19.5" customHeight="1">
       <c r="A594" s="3"/>
       <c r="B594" s="3"/>
       <c r="C594" s="3"/>
@@ -17000,7 +17036,7 @@
       <c r="Y594" s="3"/>
       <c r="Z594" s="3"/>
     </row>
-    <row r="595" ht="19.5" customHeight="1">
+    <row r="595" spans="1:26" ht="19.5" customHeight="1">
       <c r="A595" s="3"/>
       <c r="B595" s="3"/>
       <c r="C595" s="3"/>
@@ -17028,7 +17064,7 @@
       <c r="Y595" s="3"/>
       <c r="Z595" s="3"/>
     </row>
-    <row r="596" ht="19.5" customHeight="1">
+    <row r="596" spans="1:26" ht="19.5" customHeight="1">
       <c r="A596" s="3"/>
       <c r="B596" s="3"/>
       <c r="C596" s="3"/>
@@ -17056,7 +17092,7 @@
       <c r="Y596" s="3"/>
       <c r="Z596" s="3"/>
     </row>
-    <row r="597" ht="19.5" customHeight="1">
+    <row r="597" spans="1:26" ht="19.5" customHeight="1">
       <c r="A597" s="3"/>
       <c r="B597" s="3"/>
       <c r="C597" s="3"/>
@@ -17084,7 +17120,7 @@
       <c r="Y597" s="3"/>
       <c r="Z597" s="3"/>
     </row>
-    <row r="598" ht="19.5" customHeight="1">
+    <row r="598" spans="1:26" ht="19.5" customHeight="1">
       <c r="A598" s="3"/>
       <c r="B598" s="3"/>
       <c r="C598" s="3"/>
@@ -17112,7 +17148,7 @@
       <c r="Y598" s="3"/>
       <c r="Z598" s="3"/>
     </row>
-    <row r="599" ht="19.5" customHeight="1">
+    <row r="599" spans="1:26" ht="19.5" customHeight="1">
       <c r="A599" s="3"/>
       <c r="B599" s="3"/>
       <c r="C599" s="3"/>
@@ -17140,7 +17176,7 @@
       <c r="Y599" s="3"/>
       <c r="Z599" s="3"/>
     </row>
-    <row r="600" ht="19.5" customHeight="1">
+    <row r="600" spans="1:26" ht="19.5" customHeight="1">
       <c r="A600" s="3"/>
       <c r="B600" s="3"/>
       <c r="C600" s="3"/>
@@ -17168,7 +17204,7 @@
       <c r="Y600" s="3"/>
       <c r="Z600" s="3"/>
     </row>
-    <row r="601" ht="19.5" customHeight="1">
+    <row r="601" spans="1:26" ht="19.5" customHeight="1">
       <c r="A601" s="3"/>
       <c r="B601" s="3"/>
       <c r="C601" s="3"/>
@@ -17196,7 +17232,7 @@
       <c r="Y601" s="3"/>
       <c r="Z601" s="3"/>
     </row>
-    <row r="602" ht="19.5" customHeight="1">
+    <row r="602" spans="1:26" ht="19.5" customHeight="1">
       <c r="A602" s="3"/>
       <c r="B602" s="3"/>
       <c r="C602" s="3"/>
@@ -17224,7 +17260,7 @@
       <c r="Y602" s="3"/>
       <c r="Z602" s="3"/>
     </row>
-    <row r="603" ht="19.5" customHeight="1">
+    <row r="603" spans="1:26" ht="19.5" customHeight="1">
       <c r="A603" s="3"/>
       <c r="B603" s="3"/>
       <c r="C603" s="3"/>
@@ -17252,7 +17288,7 @@
       <c r="Y603" s="3"/>
       <c r="Z603" s="3"/>
     </row>
-    <row r="604" ht="19.5" customHeight="1">
+    <row r="604" spans="1:26" ht="19.5" customHeight="1">
       <c r="A604" s="3"/>
       <c r="B604" s="3"/>
       <c r="C604" s="3"/>
@@ -17280,7 +17316,7 @@
       <c r="Y604" s="3"/>
       <c r="Z604" s="3"/>
     </row>
-    <row r="605" ht="19.5" customHeight="1">
+    <row r="605" spans="1:26" ht="19.5" customHeight="1">
       <c r="A605" s="3"/>
       <c r="B605" s="3"/>
       <c r="C605" s="3"/>
@@ -17308,7 +17344,7 @@
       <c r="Y605" s="3"/>
       <c r="Z605" s="3"/>
     </row>
-    <row r="606" ht="19.5" customHeight="1">
+    <row r="606" spans="1:26" ht="19.5" customHeight="1">
       <c r="A606" s="3"/>
       <c r="B606" s="3"/>
       <c r="C606" s="3"/>
@@ -17336,7 +17372,7 @@
       <c r="Y606" s="3"/>
       <c r="Z606" s="3"/>
     </row>
-    <row r="607" ht="19.5" customHeight="1">
+    <row r="607" spans="1:26" ht="19.5" customHeight="1">
       <c r="A607" s="3"/>
       <c r="B607" s="3"/>
       <c r="C607" s="3"/>
@@ -17364,7 +17400,7 @@
       <c r="Y607" s="3"/>
       <c r="Z607" s="3"/>
     </row>
-    <row r="608" ht="19.5" customHeight="1">
+    <row r="608" spans="1:26" ht="19.5" customHeight="1">
       <c r="A608" s="3"/>
       <c r="B608" s="3"/>
       <c r="C608" s="3"/>
@@ -17392,7 +17428,7 @@
       <c r="Y608" s="3"/>
       <c r="Z608" s="3"/>
     </row>
-    <row r="609" ht="19.5" customHeight="1">
+    <row r="609" spans="1:26" ht="19.5" customHeight="1">
       <c r="A609" s="3"/>
       <c r="B609" s="3"/>
       <c r="C609" s="3"/>
@@ -17420,7 +17456,7 @@
       <c r="Y609" s="3"/>
       <c r="Z609" s="3"/>
     </row>
-    <row r="610" ht="19.5" customHeight="1">
+    <row r="610" spans="1:26" ht="19.5" customHeight="1">
       <c r="A610" s="3"/>
       <c r="B610" s="3"/>
       <c r="C610" s="3"/>
@@ -17448,7 +17484,7 @@
       <c r="Y610" s="3"/>
       <c r="Z610" s="3"/>
     </row>
-    <row r="611" ht="19.5" customHeight="1">
+    <row r="611" spans="1:26" ht="19.5" customHeight="1">
       <c r="A611" s="3"/>
       <c r="B611" s="3"/>
       <c r="C611" s="3"/>
@@ -17476,7 +17512,7 @@
       <c r="Y611" s="3"/>
       <c r="Z611" s="3"/>
     </row>
-    <row r="612" ht="19.5" customHeight="1">
+    <row r="612" spans="1:26" ht="19.5" customHeight="1">
       <c r="A612" s="3"/>
       <c r="B612" s="3"/>
       <c r="C612" s="3"/>
@@ -17504,7 +17540,7 @@
       <c r="Y612" s="3"/>
       <c r="Z612" s="3"/>
     </row>
-    <row r="613" ht="19.5" customHeight="1">
+    <row r="613" spans="1:26" ht="19.5" customHeight="1">
       <c r="A613" s="3"/>
       <c r="B613" s="3"/>
       <c r="C613" s="3"/>
@@ -17532,7 +17568,7 @@
       <c r="Y613" s="3"/>
       <c r="Z613" s="3"/>
     </row>
-    <row r="614" ht="19.5" customHeight="1">
+    <row r="614" spans="1:26" ht="19.5" customHeight="1">
       <c r="A614" s="3"/>
       <c r="B614" s="3"/>
       <c r="C614" s="3"/>
@@ -17560,7 +17596,7 @@
       <c r="Y614" s="3"/>
       <c r="Z614" s="3"/>
     </row>
-    <row r="615" ht="19.5" customHeight="1">
+    <row r="615" spans="1:26" ht="19.5" customHeight="1">
       <c r="A615" s="3"/>
       <c r="B615" s="3"/>
       <c r="C615" s="3"/>
@@ -17588,7 +17624,7 @@
       <c r="Y615" s="3"/>
       <c r="Z615" s="3"/>
     </row>
-    <row r="616" ht="19.5" customHeight="1">
+    <row r="616" spans="1:26" ht="19.5" customHeight="1">
       <c r="A616" s="3"/>
       <c r="B616" s="3"/>
       <c r="C616" s="3"/>
@@ -17616,7 +17652,7 @@
       <c r="Y616" s="3"/>
       <c r="Z616" s="3"/>
     </row>
-    <row r="617" ht="19.5" customHeight="1">
+    <row r="617" spans="1:26" ht="19.5" customHeight="1">
       <c r="A617" s="3"/>
       <c r="B617" s="3"/>
       <c r="C617" s="3"/>
@@ -17644,7 +17680,7 @@
       <c r="Y617" s="3"/>
       <c r="Z617" s="3"/>
     </row>
-    <row r="618" ht="19.5" customHeight="1">
+    <row r="618" spans="1:26" ht="19.5" customHeight="1">
       <c r="A618" s="3"/>
       <c r="B618" s="3"/>
       <c r="C618" s="3"/>
@@ -17672,7 +17708,7 @@
       <c r="Y618" s="3"/>
       <c r="Z618" s="3"/>
     </row>
-    <row r="619" ht="19.5" customHeight="1">
+    <row r="619" spans="1:26" ht="19.5" customHeight="1">
       <c r="A619" s="3"/>
       <c r="B619" s="3"/>
       <c r="C619" s="3"/>
@@ -17700,7 +17736,7 @@
       <c r="Y619" s="3"/>
       <c r="Z619" s="3"/>
     </row>
-    <row r="620" ht="19.5" customHeight="1">
+    <row r="620" spans="1:26" ht="19.5" customHeight="1">
       <c r="A620" s="3"/>
       <c r="B620" s="3"/>
       <c r="C620" s="3"/>
@@ -17728,7 +17764,7 @@
       <c r="Y620" s="3"/>
       <c r="Z620" s="3"/>
     </row>
-    <row r="621" ht="19.5" customHeight="1">
+    <row r="621" spans="1:26" ht="19.5" customHeight="1">
       <c r="A621" s="3"/>
       <c r="B621" s="3"/>
       <c r="C621" s="3"/>
@@ -17756,7 +17792,7 @@
       <c r="Y621" s="3"/>
       <c r="Z621" s="3"/>
     </row>
-    <row r="622" ht="19.5" customHeight="1">
+    <row r="622" spans="1:26" ht="19.5" customHeight="1">
       <c r="A622" s="3"/>
       <c r="B622" s="3"/>
       <c r="C622" s="3"/>
@@ -17784,7 +17820,7 @@
       <c r="Y622" s="3"/>
       <c r="Z622" s="3"/>
     </row>
-    <row r="623" ht="19.5" customHeight="1">
+    <row r="623" spans="1:26" ht="19.5" customHeight="1">
       <c r="A623" s="3"/>
       <c r="B623" s="3"/>
       <c r="C623" s="3"/>
@@ -17812,7 +17848,7 @@
       <c r="Y623" s="3"/>
       <c r="Z623" s="3"/>
     </row>
-    <row r="624" ht="19.5" customHeight="1">
+    <row r="624" spans="1:26" ht="19.5" customHeight="1">
       <c r="A624" s="3"/>
       <c r="B624" s="3"/>
       <c r="C624" s="3"/>
@@ -17840,7 +17876,7 @@
       <c r="Y624" s="3"/>
       <c r="Z624" s="3"/>
     </row>
-    <row r="625" ht="19.5" customHeight="1">
+    <row r="625" spans="1:26" ht="19.5" customHeight="1">
       <c r="A625" s="3"/>
       <c r="B625" s="3"/>
       <c r="C625" s="3"/>
@@ -17868,7 +17904,7 @@
       <c r="Y625" s="3"/>
       <c r="Z625" s="3"/>
     </row>
-    <row r="626" ht="19.5" customHeight="1">
+    <row r="626" spans="1:26" ht="19.5" customHeight="1">
       <c r="A626" s="3"/>
       <c r="B626" s="3"/>
       <c r="C626" s="3"/>
@@ -17896,7 +17932,7 @@
       <c r="Y626" s="3"/>
       <c r="Z626" s="3"/>
     </row>
-    <row r="627" ht="19.5" customHeight="1">
+    <row r="627" spans="1:26" ht="19.5" customHeight="1">
       <c r="A627" s="3"/>
       <c r="B627" s="3"/>
       <c r="C627" s="3"/>
@@ -17924,7 +17960,7 @@
       <c r="Y627" s="3"/>
       <c r="Z627" s="3"/>
     </row>
-    <row r="628" ht="19.5" customHeight="1">
+    <row r="628" spans="1:26" ht="19.5" customHeight="1">
       <c r="A628" s="3"/>
       <c r="B628" s="3"/>
       <c r="C628" s="3"/>
@@ -17952,7 +17988,7 @@
       <c r="Y628" s="3"/>
       <c r="Z628" s="3"/>
     </row>
-    <row r="629" ht="19.5" customHeight="1">
+    <row r="629" spans="1:26" ht="19.5" customHeight="1">
       <c r="A629" s="3"/>
       <c r="B629" s="3"/>
       <c r="C629" s="3"/>
@@ -17980,7 +18016,7 @@
       <c r="Y629" s="3"/>
       <c r="Z629" s="3"/>
     </row>
-    <row r="630" ht="19.5" customHeight="1">
+    <row r="630" spans="1:26" ht="19.5" customHeight="1">
       <c r="A630" s="3"/>
       <c r="B630" s="3"/>
       <c r="C630" s="3"/>
@@ -18008,7 +18044,7 @@
       <c r="Y630" s="3"/>
       <c r="Z630" s="3"/>
     </row>
-    <row r="631" ht="19.5" customHeight="1">
+    <row r="631" spans="1:26" ht="19.5" customHeight="1">
       <c r="A631" s="3"/>
       <c r="B631" s="3"/>
       <c r="C631" s="3"/>
@@ -18036,7 +18072,7 @@
       <c r="Y631" s="3"/>
       <c r="Z631" s="3"/>
     </row>
-    <row r="632" ht="19.5" customHeight="1">
+    <row r="632" spans="1:26" ht="19.5" customHeight="1">
       <c r="A632" s="3"/>
       <c r="B632" s="3"/>
       <c r="C632" s="3"/>
@@ -18064,7 +18100,7 @@
       <c r="Y632" s="3"/>
       <c r="Z632" s="3"/>
     </row>
-    <row r="633" ht="19.5" customHeight="1">
+    <row r="633" spans="1:26" ht="19.5" customHeight="1">
       <c r="A633" s="3"/>
       <c r="B633" s="3"/>
       <c r="C633" s="3"/>
@@ -18092,7 +18128,7 @@
       <c r="Y633" s="3"/>
       <c r="Z633" s="3"/>
     </row>
-    <row r="634" ht="19.5" customHeight="1">
+    <row r="634" spans="1:26" ht="19.5" customHeight="1">
       <c r="A634" s="3"/>
       <c r="B634" s="3"/>
       <c r="C634" s="3"/>
@@ -18120,7 +18156,7 @@
       <c r="Y634" s="3"/>
       <c r="Z634" s="3"/>
     </row>
-    <row r="635" ht="19.5" customHeight="1">
+    <row r="635" spans="1:26" ht="19.5" customHeight="1">
       <c r="A635" s="3"/>
       <c r="B635" s="3"/>
       <c r="C635" s="3"/>
@@ -18148,7 +18184,7 @@
       <c r="Y635" s="3"/>
       <c r="Z635" s="3"/>
     </row>
-    <row r="636" ht="19.5" customHeight="1">
+    <row r="636" spans="1:26" ht="19.5" customHeight="1">
       <c r="A636" s="3"/>
       <c r="B636" s="3"/>
       <c r="C636" s="3"/>
@@ -18176,7 +18212,7 @@
       <c r="Y636" s="3"/>
       <c r="Z636" s="3"/>
     </row>
-    <row r="637" ht="19.5" customHeight="1">
+    <row r="637" spans="1:26" ht="19.5" customHeight="1">
       <c r="A637" s="3"/>
       <c r="B637" s="3"/>
       <c r="C637" s="3"/>
@@ -18204,7 +18240,7 @@
       <c r="Y637" s="3"/>
       <c r="Z637" s="3"/>
     </row>
-    <row r="638" ht="19.5" customHeight="1">
+    <row r="638" spans="1:26" ht="19.5" customHeight="1">
       <c r="A638" s="3"/>
       <c r="B638" s="3"/>
       <c r="C638" s="3"/>
@@ -18232,7 +18268,7 @@
       <c r="Y638" s="3"/>
       <c r="Z638" s="3"/>
     </row>
-    <row r="639" ht="19.5" customHeight="1">
+    <row r="639" spans="1:26" ht="19.5" customHeight="1">
       <c r="A639" s="3"/>
       <c r="B639" s="3"/>
       <c r="C639" s="3"/>
@@ -18260,7 +18296,7 @@
       <c r="Y639" s="3"/>
       <c r="Z639" s="3"/>
     </row>
-    <row r="640" ht="19.5" customHeight="1">
+    <row r="640" spans="1:26" ht="19.5" customHeight="1">
       <c r="A640" s="3"/>
       <c r="B640" s="3"/>
       <c r="C640" s="3"/>
@@ -18288,7 +18324,7 @@
       <c r="Y640" s="3"/>
       <c r="Z640" s="3"/>
     </row>
-    <row r="641" ht="19.5" customHeight="1">
+    <row r="641" spans="1:26" ht="19.5" customHeight="1">
       <c r="A641" s="3"/>
       <c r="B641" s="3"/>
       <c r="C641" s="3"/>
@@ -18316,7 +18352,7 @@
       <c r="Y641" s="3"/>
       <c r="Z641" s="3"/>
     </row>
-    <row r="642" ht="19.5" customHeight="1">
+    <row r="642" spans="1:26" ht="19.5" customHeight="1">
       <c r="A642" s="3"/>
       <c r="B642" s="3"/>
       <c r="C642" s="3"/>
@@ -18344,7 +18380,7 @@
       <c r="Y642" s="3"/>
       <c r="Z642" s="3"/>
     </row>
-    <row r="643" ht="19.5" customHeight="1">
+    <row r="643" spans="1:26" ht="19.5" customHeight="1">
       <c r="A643" s="3"/>
       <c r="B643" s="3"/>
       <c r="C643" s="3"/>
@@ -18372,7 +18408,7 @@
       <c r="Y643" s="3"/>
       <c r="Z643" s="3"/>
     </row>
-    <row r="644" ht="19.5" customHeight="1">
+    <row r="644" spans="1:26" ht="19.5" customHeight="1">
       <c r="A644" s="3"/>
       <c r="B644" s="3"/>
       <c r="C644" s="3"/>
@@ -18400,7 +18436,7 @@
       <c r="Y644" s="3"/>
       <c r="Z644" s="3"/>
     </row>
-    <row r="645" ht="19.5" customHeight="1">
+    <row r="645" spans="1:26" ht="19.5" customHeight="1">
       <c r="A645" s="3"/>
       <c r="B645" s="3"/>
       <c r="C645" s="3"/>
@@ -18428,7 +18464,7 @@
       <c r="Y645" s="3"/>
       <c r="Z645" s="3"/>
     </row>
-    <row r="646" ht="19.5" customHeight="1">
+    <row r="646" spans="1:26" ht="19.5" customHeight="1">
       <c r="A646" s="3"/>
       <c r="B646" s="3"/>
       <c r="C646" s="3"/>
@@ -18456,7 +18492,7 @@
       <c r="Y646" s="3"/>
       <c r="Z646" s="3"/>
     </row>
-    <row r="647" ht="19.5" customHeight="1">
+    <row r="647" spans="1:26" ht="19.5" customHeight="1">
       <c r="A647" s="3"/>
       <c r="B647" s="3"/>
       <c r="C647" s="3"/>
@@ -18484,7 +18520,7 @@
       <c r="Y647" s="3"/>
       <c r="Z647" s="3"/>
     </row>
-    <row r="648" ht="19.5" customHeight="1">
+    <row r="648" spans="1:26" ht="19.5" customHeight="1">
       <c r="A648" s="3"/>
       <c r="B648" s="3"/>
       <c r="C648" s="3"/>
@@ -18512,7 +18548,7 @@
       <c r="Y648" s="3"/>
       <c r="Z648" s="3"/>
     </row>
-    <row r="649" ht="19.5" customHeight="1">
+    <row r="649" spans="1:26" ht="19.5" customHeight="1">
       <c r="A649" s="3"/>
       <c r="B649" s="3"/>
       <c r="C649" s="3"/>
@@ -18540,7 +18576,7 @@
       <c r="Y649" s="3"/>
       <c r="Z649" s="3"/>
     </row>
-    <row r="650" ht="19.5" customHeight="1">
+    <row r="650" spans="1:26" ht="19.5" customHeight="1">
       <c r="A650" s="3"/>
       <c r="B650" s="3"/>
       <c r="C650" s="3"/>
@@ -18568,7 +18604,7 @@
       <c r="Y650" s="3"/>
       <c r="Z650" s="3"/>
     </row>
-    <row r="651" ht="19.5" customHeight="1">
+    <row r="651" spans="1:26" ht="19.5" customHeight="1">
       <c r="A651" s="3"/>
       <c r="B651" s="3"/>
       <c r="C651" s="3"/>
@@ -18596,7 +18632,7 @@
       <c r="Y651" s="3"/>
       <c r="Z651" s="3"/>
     </row>
-    <row r="652" ht="19.5" customHeight="1">
+    <row r="652" spans="1:26" ht="19.5" customHeight="1">
       <c r="A652" s="3"/>
       <c r="B652" s="3"/>
       <c r="C652" s="3"/>
@@ -18624,7 +18660,7 @@
       <c r="Y652" s="3"/>
       <c r="Z652" s="3"/>
     </row>
-    <row r="653" ht="19.5" customHeight="1">
+    <row r="653" spans="1:26" ht="19.5" customHeight="1">
       <c r="A653" s="3"/>
       <c r="B653" s="3"/>
       <c r="C653" s="3"/>
@@ -18652,7 +18688,7 @@
       <c r="Y653" s="3"/>
       <c r="Z653" s="3"/>
     </row>
-    <row r="654" ht="19.5" customHeight="1">
+    <row r="654" spans="1:26" ht="19.5" customHeight="1">
       <c r="A654" s="3"/>
       <c r="B654" s="3"/>
       <c r="C654" s="3"/>
@@ -18680,7 +18716,7 @@
       <c r="Y654" s="3"/>
       <c r="Z654" s="3"/>
     </row>
-    <row r="655" ht="19.5" customHeight="1">
+    <row r="655" spans="1:26" ht="19.5" customHeight="1">
       <c r="A655" s="3"/>
       <c r="B655" s="3"/>
       <c r="C655" s="3"/>
@@ -18708,7 +18744,7 @@
       <c r="Y655" s="3"/>
       <c r="Z655" s="3"/>
     </row>
-    <row r="656" ht="19.5" customHeight="1">
+    <row r="656" spans="1:26" ht="19.5" customHeight="1">
       <c r="A656" s="3"/>
       <c r="B656" s="3"/>
       <c r="C656" s="3"/>
@@ -18736,7 +18772,7 @@
       <c r="Y656" s="3"/>
       <c r="Z656" s="3"/>
     </row>
-    <row r="657" ht="19.5" customHeight="1">
+    <row r="657" spans="1:26" ht="19.5" customHeight="1">
       <c r="A657" s="3"/>
       <c r="B657" s="3"/>
       <c r="C657" s="3"/>
@@ -18764,7 +18800,7 @@
       <c r="Y657" s="3"/>
       <c r="Z657" s="3"/>
     </row>
-    <row r="658" ht="19.5" customHeight="1">
+    <row r="658" spans="1:26" ht="19.5" customHeight="1">
       <c r="A658" s="3"/>
       <c r="B658" s="3"/>
       <c r="C658" s="3"/>
@@ -18792,7 +18828,7 @@
       <c r="Y658" s="3"/>
       <c r="Z658" s="3"/>
     </row>
-    <row r="659" ht="19.5" customHeight="1">
+    <row r="659" spans="1:26" ht="19.5" customHeight="1">
       <c r="A659" s="3"/>
       <c r="B659" s="3"/>
       <c r="C659" s="3"/>
@@ -18820,7 +18856,7 @@
       <c r="Y659" s="3"/>
       <c r="Z659" s="3"/>
     </row>
-    <row r="660" ht="19.5" customHeight="1">
+    <row r="660" spans="1:26" ht="19.5" customHeight="1">
       <c r="A660" s="3"/>
       <c r="B660" s="3"/>
       <c r="C660" s="3"/>
@@ -18848,7 +18884,7 @@
       <c r="Y660" s="3"/>
       <c r="Z660" s="3"/>
     </row>
-    <row r="661" ht="19.5" customHeight="1">
+    <row r="661" spans="1:26" ht="19.5" customHeight="1">
       <c r="A661" s="3"/>
       <c r="B661" s="3"/>
       <c r="C661" s="3"/>
@@ -18876,7 +18912,7 @@
       <c r="Y661" s="3"/>
       <c r="Z661" s="3"/>
     </row>
-    <row r="662" ht="19.5" customHeight="1">
+    <row r="662" spans="1:26" ht="19.5" customHeight="1">
       <c r="A662" s="3"/>
       <c r="B662" s="3"/>
       <c r="C662" s="3"/>
@@ -18904,7 +18940,7 @@
       <c r="Y662" s="3"/>
       <c r="Z662" s="3"/>
     </row>
-    <row r="663" ht="19.5" customHeight="1">
+    <row r="663" spans="1:26" ht="19.5" customHeight="1">
       <c r="A663" s="3"/>
       <c r="B663" s="3"/>
       <c r="C663" s="3"/>
@@ -18932,7 +18968,7 @@
       <c r="Y663" s="3"/>
       <c r="Z663" s="3"/>
     </row>
-    <row r="664" ht="19.5" customHeight="1">
+    <row r="664" spans="1:26" ht="19.5" customHeight="1">
       <c r="A664" s="3"/>
       <c r="B664" s="3"/>
       <c r="C664" s="3"/>
@@ -18960,7 +18996,7 @@
       <c r="Y664" s="3"/>
       <c r="Z664" s="3"/>
     </row>
-    <row r="665" ht="19.5" customHeight="1">
+    <row r="665" spans="1:26" ht="19.5" customHeight="1">
       <c r="A665" s="3"/>
       <c r="B665" s="3"/>
       <c r="C665" s="3"/>
@@ -18988,7 +19024,7 @@
       <c r="Y665" s="3"/>
       <c r="Z665" s="3"/>
     </row>
-    <row r="666" ht="19.5" customHeight="1">
+    <row r="666" spans="1:26" ht="19.5" customHeight="1">
       <c r="A666" s="3"/>
       <c r="B666" s="3"/>
       <c r="C666" s="3"/>
@@ -19016,7 +19052,7 @@
       <c r="Y666" s="3"/>
       <c r="Z666" s="3"/>
     </row>
-    <row r="667" ht="19.5" customHeight="1">
+    <row r="667" spans="1:26" ht="19.5" customHeight="1">
       <c r="A667" s="3"/>
       <c r="B667" s="3"/>
       <c r="C667" s="3"/>
@@ -19044,7 +19080,7 @@
       <c r="Y667" s="3"/>
       <c r="Z667" s="3"/>
     </row>
-    <row r="668" ht="19.5" customHeight="1">
+    <row r="668" spans="1:26" ht="19.5" customHeight="1">
       <c r="A668" s="3"/>
       <c r="B668" s="3"/>
       <c r="C668" s="3"/>
@@ -19072,7 +19108,7 @@
       <c r="Y668" s="3"/>
       <c r="Z668" s="3"/>
     </row>
-    <row r="669" ht="19.5" customHeight="1">
+    <row r="669" spans="1:26" ht="19.5" customHeight="1">
       <c r="A669" s="3"/>
       <c r="B669" s="3"/>
       <c r="C669" s="3"/>
@@ -19100,7 +19136,7 @@
       <c r="Y669" s="3"/>
       <c r="Z669" s="3"/>
     </row>
-    <row r="670" ht="19.5" customHeight="1">
+    <row r="670" spans="1:26" ht="19.5" customHeight="1">
       <c r="A670" s="3"/>
       <c r="B670" s="3"/>
       <c r="C670" s="3"/>
@@ -19128,7 +19164,7 @@
       <c r="Y670" s="3"/>
       <c r="Z670" s="3"/>
     </row>
-    <row r="671" ht="19.5" customHeight="1">
+    <row r="671" spans="1:26" ht="19.5" customHeight="1">
       <c r="A671" s="3"/>
       <c r="B671" s="3"/>
       <c r="C671" s="3"/>
@@ -19156,7 +19192,7 @@
       <c r="Y671" s="3"/>
       <c r="Z671" s="3"/>
     </row>
-    <row r="672" ht="19.5" customHeight="1">
+    <row r="672" spans="1:26" ht="19.5" customHeight="1">
       <c r="A672" s="3"/>
       <c r="B672" s="3"/>
       <c r="C672" s="3"/>
@@ -19184,7 +19220,7 @@
       <c r="Y672" s="3"/>
       <c r="Z672" s="3"/>
     </row>
-    <row r="673" ht="19.5" customHeight="1">
+    <row r="673" spans="1:26" ht="19.5" customHeight="1">
       <c r="A673" s="3"/>
       <c r="B673" s="3"/>
       <c r="C673" s="3"/>
@@ -19212,7 +19248,7 @@
       <c r="Y673" s="3"/>
       <c r="Z673" s="3"/>
     </row>
-    <row r="674" ht="19.5" customHeight="1">
+    <row r="674" spans="1:26" ht="19.5" customHeight="1">
       <c r="A674" s="3"/>
       <c r="B674" s="3"/>
       <c r="C674" s="3"/>
@@ -19240,7 +19276,7 @@
       <c r="Y674" s="3"/>
       <c r="Z674" s="3"/>
     </row>
-    <row r="675" ht="19.5" customHeight="1">
+    <row r="675" spans="1:26" ht="19.5" customHeight="1">
       <c r="A675" s="3"/>
       <c r="B675" s="3"/>
       <c r="C675" s="3"/>
@@ -19268,7 +19304,7 @@
       <c r="Y675" s="3"/>
       <c r="Z675" s="3"/>
     </row>
-    <row r="676" ht="19.5" customHeight="1">
+    <row r="676" spans="1:26" ht="19.5" customHeight="1">
       <c r="A676" s="3"/>
       <c r="B676" s="3"/>
       <c r="C676" s="3"/>
@@ -19296,7 +19332,7 @@
       <c r="Y676" s="3"/>
       <c r="Z676" s="3"/>
     </row>
-    <row r="677" ht="19.5" customHeight="1">
+    <row r="677" spans="1:26" ht="19.5" customHeight="1">
       <c r="A677" s="3"/>
       <c r="B677" s="3"/>
       <c r="C677" s="3"/>
@@ -19324,7 +19360,7 @@
       <c r="Y677" s="3"/>
       <c r="Z677" s="3"/>
     </row>
-    <row r="678" ht="19.5" customHeight="1">
+    <row r="678" spans="1:26" ht="19.5" customHeight="1">
       <c r="A678" s="3"/>
       <c r="B678" s="3"/>
       <c r="C678" s="3"/>
@@ -19352,7 +19388,7 @@
       <c r="Y678" s="3"/>
       <c r="Z678" s="3"/>
     </row>
-    <row r="679" ht="19.5" customHeight="1">
+    <row r="679" spans="1:26" ht="19.5" customHeight="1">
       <c r="A679" s="3"/>
       <c r="B679" s="3"/>
       <c r="C679" s="3"/>
@@ -19380,7 +19416,7 @@
       <c r="Y679" s="3"/>
       <c r="Z679" s="3"/>
     </row>
-    <row r="680" ht="19.5" customHeight="1">
+    <row r="680" spans="1:26" ht="19.5" customHeight="1">
       <c r="A680" s="3"/>
       <c r="B680" s="3"/>
       <c r="C680" s="3"/>
@@ -19408,7 +19444,7 @@
       <c r="Y680" s="3"/>
       <c r="Z680" s="3"/>
     </row>
-    <row r="681" ht="19.5" customHeight="1">
+    <row r="681" spans="1:26" ht="19.5" customHeight="1">
       <c r="A681" s="3"/>
       <c r="B681" s="3"/>
       <c r="C681" s="3"/>
@@ -19436,7 +19472,7 @@
       <c r="Y681" s="3"/>
       <c r="Z681" s="3"/>
     </row>
-    <row r="682" ht="19.5" customHeight="1">
+    <row r="682" spans="1:26" ht="19.5" customHeight="1">
       <c r="A682" s="3"/>
       <c r="B682" s="3"/>
       <c r="C682" s="3"/>
@@ -19464,7 +19500,7 @@
       <c r="Y682" s="3"/>
       <c r="Z682" s="3"/>
     </row>
-    <row r="683" ht="19.5" customHeight="1">
+    <row r="683" spans="1:26" ht="19.5" customHeight="1">
       <c r="A683" s="3"/>
       <c r="B683" s="3"/>
       <c r="C683" s="3"/>
@@ -19492,7 +19528,7 @@
       <c r="Y683" s="3"/>
       <c r="Z683" s="3"/>
     </row>
-    <row r="684" ht="19.5" customHeight="1">
+    <row r="684" spans="1:26" ht="19.5" customHeight="1">
       <c r="A684" s="3"/>
       <c r="B684" s="3"/>
       <c r="C684" s="3"/>
@@ -19520,7 +19556,7 @@
       <c r="Y684" s="3"/>
       <c r="Z684" s="3"/>
     </row>
-    <row r="685" ht="19.5" customHeight="1">
+    <row r="685" spans="1:26" ht="19.5" customHeight="1">
       <c r="A685" s="3"/>
       <c r="B685" s="3"/>
       <c r="C685" s="3"/>
@@ -19548,7 +19584,7 @@
       <c r="Y685" s="3"/>
       <c r="Z685" s="3"/>
     </row>
-    <row r="686" ht="19.5" customHeight="1">
+    <row r="686" spans="1:26" ht="19.5" customHeight="1">
       <c r="A686" s="3"/>
       <c r="B686" s="3"/>
       <c r="C686" s="3"/>
@@ -19576,7 +19612,7 @@
       <c r="Y686" s="3"/>
       <c r="Z686" s="3"/>
     </row>
-    <row r="687" ht="19.5" customHeight="1">
+    <row r="687" spans="1:26" ht="19.5" customHeight="1">
       <c r="A687" s="3"/>
       <c r="B687" s="3"/>
       <c r="C687" s="3"/>
@@ -19604,7 +19640,7 @@
       <c r="Y687" s="3"/>
       <c r="Z687" s="3"/>
     </row>
-    <row r="688" ht="19.5" customHeight="1">
+    <row r="688" spans="1:26" ht="19.5" customHeight="1">
       <c r="A688" s="3"/>
       <c r="B688" s="3"/>
       <c r="C688" s="3"/>
@@ -19632,7 +19668,7 @@
       <c r="Y688" s="3"/>
       <c r="Z688" s="3"/>
     </row>
-    <row r="689" ht="19.5" customHeight="1">
+    <row r="689" spans="1:26" ht="19.5" customHeight="1">
       <c r="A689" s="3"/>
       <c r="B689" s="3"/>
       <c r="C689" s="3"/>
@@ -19660,7 +19696,7 @@
       <c r="Y689" s="3"/>
       <c r="Z689" s="3"/>
     </row>
-    <row r="690" ht="19.5" customHeight="1">
+    <row r="690" spans="1:26" ht="19.5" customHeight="1">
       <c r="A690" s="3"/>
       <c r="B690" s="3"/>
       <c r="C690" s="3"/>
@@ -19688,7 +19724,7 @@
       <c r="Y690" s="3"/>
       <c r="Z690" s="3"/>
     </row>
-    <row r="691" ht="19.5" customHeight="1">
+    <row r="691" spans="1:26" ht="19.5" customHeight="1">
       <c r="A691" s="3"/>
       <c r="B691" s="3"/>
       <c r="C691" s="3"/>
@@ -19716,7 +19752,7 @@
       <c r="Y691" s="3"/>
       <c r="Z691" s="3"/>
     </row>
-    <row r="692" ht="19.5" customHeight="1">
+    <row r="692" spans="1:26" ht="19.5" customHeight="1">
       <c r="A692" s="3"/>
       <c r="B692" s="3"/>
       <c r="C692" s="3"/>
@@ -19744,7 +19780,7 @@
       <c r="Y692" s="3"/>
       <c r="Z692" s="3"/>
     </row>
-    <row r="693" ht="19.5" customHeight="1">
+    <row r="693" spans="1:26" ht="19.5" customHeight="1">
       <c r="A693" s="3"/>
       <c r="B693" s="3"/>
       <c r="C693" s="3"/>
@@ -19772,7 +19808,7 @@
       <c r="Y693" s="3"/>
       <c r="Z693" s="3"/>
     </row>
-    <row r="694" ht="19.5" customHeight="1">
+    <row r="694" spans="1:26" ht="19.5" customHeight="1">
       <c r="A694" s="3"/>
       <c r="B694" s="3"/>
       <c r="C694" s="3"/>
@@ -19800,7 +19836,7 @@
       <c r="Y694" s="3"/>
       <c r="Z694" s="3"/>
     </row>
-    <row r="695" ht="19.5" customHeight="1">
+    <row r="695" spans="1:26" ht="19.5" customHeight="1">
       <c r="A695" s="3"/>
       <c r="B695" s="3"/>
       <c r="C695" s="3"/>
@@ -19828,7 +19864,7 @@
       <c r="Y695" s="3"/>
       <c r="Z695" s="3"/>
     </row>
-    <row r="696" ht="19.5" customHeight="1">
+    <row r="696" spans="1:26" ht="19.5" customHeight="1">
       <c r="A696" s="3"/>
       <c r="B696" s="3"/>
       <c r="C696" s="3"/>
@@ -19856,7 +19892,7 @@
       <c r="Y696" s="3"/>
       <c r="Z696" s="3"/>
     </row>
-    <row r="697" ht="19.5" customHeight="1">
+    <row r="697" spans="1:26" ht="19.5" customHeight="1">
       <c r="A697" s="3"/>
       <c r="B697" s="3"/>
       <c r="C697" s="3"/>
@@ -19884,7 +19920,7 @@
       <c r="Y697" s="3"/>
       <c r="Z697" s="3"/>
     </row>
-    <row r="698" ht="19.5" customHeight="1">
+    <row r="698" spans="1:26" ht="19.5" customHeight="1">
       <c r="A698" s="3"/>
       <c r="B698" s="3"/>
       <c r="C698" s="3"/>
@@ -19912,7 +19948,7 @@
       <c r="Y698" s="3"/>
       <c r="Z698" s="3"/>
     </row>
-    <row r="699" ht="19.5" customHeight="1">
+    <row r="699" spans="1:26" ht="19.5" customHeight="1">
       <c r="A699" s="3"/>
       <c r="B699" s="3"/>
       <c r="C699" s="3"/>
@@ -19940,7 +19976,7 @@
       <c r="Y699" s="3"/>
       <c r="Z699" s="3"/>
     </row>
-    <row r="700" ht="19.5" customHeight="1">
+    <row r="700" spans="1:26" ht="19.5" customHeight="1">
       <c r="A700" s="3"/>
       <c r="B700" s="3"/>
       <c r="C700" s="3"/>
@@ -19968,7 +20004,7 @@
       <c r="Y700" s="3"/>
       <c r="Z700" s="3"/>
     </row>
-    <row r="701" ht="19.5" customHeight="1">
+    <row r="701" spans="1:26" ht="19.5" customHeight="1">
       <c r="A701" s="3"/>
       <c r="B701" s="3"/>
       <c r="C701" s="3"/>
@@ -19996,7 +20032,7 @@
       <c r="Y701" s="3"/>
       <c r="Z701" s="3"/>
     </row>
-    <row r="702" ht="19.5" customHeight="1">
+    <row r="702" spans="1:26" ht="19.5" customHeight="1">
       <c r="A702" s="3"/>
       <c r="B702" s="3"/>
       <c r="C702" s="3"/>
@@ -20024,7 +20060,7 @@
       <c r="Y702" s="3"/>
       <c r="Z702" s="3"/>
     </row>
-    <row r="703" ht="19.5" customHeight="1">
+    <row r="703" spans="1:26" ht="19.5" customHeight="1">
       <c r="A703" s="3"/>
       <c r="B703" s="3"/>
       <c r="C703" s="3"/>
@@ -20052,7 +20088,7 @@
       <c r="Y703" s="3"/>
       <c r="Z703" s="3"/>
     </row>
-    <row r="704" ht="19.5" customHeight="1">
+    <row r="704" spans="1:26" ht="19.5" customHeight="1">
       <c r="A704" s="3"/>
       <c r="B704" s="3"/>
       <c r="C704" s="3"/>
@@ -20080,7 +20116,7 @@
       <c r="Y704" s="3"/>
       <c r="Z704" s="3"/>
     </row>
-    <row r="705" ht="19.5" customHeight="1">
+    <row r="705" spans="1:26" ht="19.5" customHeight="1">
       <c r="A705" s="3"/>
       <c r="B705" s="3"/>
       <c r="C705" s="3"/>
@@ -20108,7 +20144,7 @@
       <c r="Y705" s="3"/>
       <c r="Z705" s="3"/>
     </row>
-    <row r="706" ht="19.5" customHeight="1">
+    <row r="706" spans="1:26" ht="19.5" customHeight="1">
       <c r="A706" s="3"/>
       <c r="B706" s="3"/>
       <c r="C706" s="3"/>
@@ -20136,7 +20172,7 @@
       <c r="Y706" s="3"/>
       <c r="Z706" s="3"/>
     </row>
-    <row r="707" ht="19.5" customHeight="1">
+    <row r="707" spans="1:26" ht="19.5" customHeight="1">
       <c r="A707" s="3"/>
       <c r="B707" s="3"/>
       <c r="C707" s="3"/>
@@ -20164,7 +20200,7 @@
       <c r="Y707" s="3"/>
       <c r="Z707" s="3"/>
     </row>
-    <row r="708" ht="19.5" customHeight="1">
+    <row r="708" spans="1:26" ht="19.5" customHeight="1">
       <c r="A708" s="3"/>
       <c r="B708" s="3"/>
       <c r="C708" s="3"/>
@@ -20192,7 +20228,7 @@
       <c r="Y708" s="3"/>
       <c r="Z708" s="3"/>
     </row>
-    <row r="709" ht="19.5" customHeight="1">
+    <row r="709" spans="1:26" ht="19.5" customHeight="1">
       <c r="A709" s="3"/>
       <c r="B709" s="3"/>
       <c r="C709" s="3"/>
@@ -20220,7 +20256,7 @@
       <c r="Y709" s="3"/>
       <c r="Z709" s="3"/>
     </row>
-    <row r="710" ht="19.5" customHeight="1">
+    <row r="710" spans="1:26" ht="19.5" customHeight="1">
       <c r="A710" s="3"/>
       <c r="B710" s="3"/>
       <c r="C710" s="3"/>
@@ -20248,7 +20284,7 @@
       <c r="Y710" s="3"/>
       <c r="Z710" s="3"/>
     </row>
-    <row r="711" ht="19.5" customHeight="1">
+    <row r="711" spans="1:26" ht="19.5" customHeight="1">
       <c r="A711" s="3"/>
       <c r="B711" s="3"/>
       <c r="C711" s="3"/>
@@ -20276,7 +20312,7 @@
       <c r="Y711" s="3"/>
       <c r="Z711" s="3"/>
     </row>
-    <row r="712" ht="19.5" customHeight="1">
+    <row r="712" spans="1:26" ht="19.5" customHeight="1">
       <c r="A712" s="3"/>
       <c r="B712" s="3"/>
       <c r="C712" s="3"/>
@@ -20304,7 +20340,7 @@
       <c r="Y712" s="3"/>
       <c r="Z712" s="3"/>
     </row>
-    <row r="713" ht="19.5" customHeight="1">
+    <row r="713" spans="1:26" ht="19.5" customHeight="1">
       <c r="A713" s="3"/>
       <c r="B713" s="3"/>
       <c r="C713" s="3"/>
@@ -20332,7 +20368,7 @@
       <c r="Y713" s="3"/>
       <c r="Z713" s="3"/>
     </row>
-    <row r="714" ht="19.5" customHeight="1">
+    <row r="714" spans="1:26" ht="19.5" customHeight="1">
       <c r="A714" s="3"/>
       <c r="B714" s="3"/>
       <c r="C714" s="3"/>
@@ -20360,7 +20396,7 @@
       <c r="Y714" s="3"/>
       <c r="Z714" s="3"/>
     </row>
-    <row r="715" ht="19.5" customHeight="1">
+    <row r="715" spans="1:26" ht="19.5" customHeight="1">
       <c r="A715" s="3"/>
       <c r="B715" s="3"/>
       <c r="C715" s="3"/>
@@ -20388,7 +20424,7 @@
       <c r="Y715" s="3"/>
       <c r="Z715" s="3"/>
     </row>
-    <row r="716" ht="19.5" customHeight="1">
+    <row r="716" spans="1:26" ht="19.5" customHeight="1">
       <c r="A716" s="3"/>
       <c r="B716" s="3"/>
       <c r="C716" s="3"/>
@@ -20416,7 +20452,7 @@
       <c r="Y716" s="3"/>
       <c r="Z716" s="3"/>
     </row>
-    <row r="717" ht="19.5" customHeight="1">
+    <row r="717" spans="1:26" ht="19.5" customHeight="1">
       <c r="A717" s="3"/>
       <c r="B717" s="3"/>
       <c r="C717" s="3"/>
@@ -20444,7 +20480,7 @@
       <c r="Y717" s="3"/>
       <c r="Z717" s="3"/>
     </row>
-    <row r="718" ht="19.5" customHeight="1">
+    <row r="718" spans="1:26" ht="19.5" customHeight="1">
       <c r="A718" s="3"/>
       <c r="B718" s="3"/>
       <c r="C718" s="3"/>
@@ -20472,7 +20508,7 @@
       <c r="Y718" s="3"/>
       <c r="Z718" s="3"/>
     </row>
-    <row r="719" ht="19.5" customHeight="1">
+    <row r="719" spans="1:26" ht="19.5" customHeight="1">
       <c r="A719" s="3"/>
       <c r="B719" s="3"/>
       <c r="C719" s="3"/>
@@ -20500,7 +20536,7 @@
       <c r="Y719" s="3"/>
       <c r="Z719" s="3"/>
     </row>
-    <row r="720" ht="19.5" customHeight="1">
+    <row r="720" spans="1:26" ht="19.5" customHeight="1">
       <c r="A720" s="3"/>
       <c r="B720" s="3"/>
       <c r="C720" s="3"/>
@@ -20528,7 +20564,7 @@
       <c r="Y720" s="3"/>
       <c r="Z720" s="3"/>
     </row>
-    <row r="721" ht="19.5" customHeight="1">
+    <row r="721" spans="1:26" ht="19.5" customHeight="1">
       <c r="A721" s="3"/>
       <c r="B721" s="3"/>
       <c r="C721" s="3"/>
@@ -20556,7 +20592,7 @@
       <c r="Y721" s="3"/>
       <c r="Z721" s="3"/>
     </row>
-    <row r="722" ht="19.5" customHeight="1">
+    <row r="722" spans="1:26" ht="19.5" customHeight="1">
       <c r="A722" s="3"/>
       <c r="B722" s="3"/>
       <c r="C722" s="3"/>
@@ -20584,7 +20620,7 @@
       <c r="Y722" s="3"/>
       <c r="Z722" s="3"/>
     </row>
-    <row r="723" ht="19.5" customHeight="1">
+    <row r="723" spans="1:26" ht="19.5" customHeight="1">
       <c r="A723" s="3"/>
       <c r="B723" s="3"/>
       <c r="C723" s="3"/>
@@ -20612,7 +20648,7 @@
       <c r="Y723" s="3"/>
       <c r="Z723" s="3"/>
     </row>
-    <row r="724" ht="19.5" customHeight="1">
+    <row r="724" spans="1:26" ht="19.5" customHeight="1">
       <c r="A724" s="3"/>
       <c r="B724" s="3"/>
       <c r="C724" s="3"/>
@@ -20640,7 +20676,7 @@
       <c r="Y724" s="3"/>
       <c r="Z724" s="3"/>
     </row>
-    <row r="725" ht="19.5" customHeight="1">
+    <row r="725" spans="1:26" ht="19.5" customHeight="1">
       <c r="A725" s="3"/>
       <c r="B725" s="3"/>
       <c r="C725" s="3"/>
@@ -20668,7 +20704,7 @@
       <c r="Y725" s="3"/>
       <c r="Z725" s="3"/>
     </row>
-    <row r="726" ht="19.5" customHeight="1">
+    <row r="726" spans="1:26" ht="19.5" customHeight="1">
       <c r="A726" s="3"/>
       <c r="B726" s="3"/>
       <c r="C726" s="3"/>
@@ -20696,7 +20732,7 @@
       <c r="Y726" s="3"/>
       <c r="Z726" s="3"/>
     </row>
-    <row r="727" ht="19.5" customHeight="1">
+    <row r="727" spans="1:26" ht="19.5" customHeight="1">
       <c r="A727" s="3"/>
       <c r="B727" s="3"/>
       <c r="C727" s="3"/>
@@ -20724,7 +20760,7 @@
       <c r="Y727" s="3"/>
       <c r="Z727" s="3"/>
     </row>
-    <row r="728" ht="19.5" customHeight="1">
+    <row r="728" spans="1:26" ht="19.5" customHeight="1">
       <c r="A728" s="3"/>
       <c r="B728" s="3"/>
       <c r="C728" s="3"/>
@@ -20752,7 +20788,7 @@
       <c r="Y728" s="3"/>
       <c r="Z728" s="3"/>
     </row>
-    <row r="729" ht="19.5" customHeight="1">
+    <row r="729" spans="1:26" ht="19.5" customHeight="1">
       <c r="A729" s="3"/>
       <c r="B729" s="3"/>
       <c r="C729" s="3"/>
@@ -20780,7 +20816,7 @@
       <c r="Y729" s="3"/>
       <c r="Z729" s="3"/>
     </row>
-    <row r="730" ht="19.5" customHeight="1">
+    <row r="730" spans="1:26" ht="19.5" customHeight="1">
       <c r="A730" s="3"/>
       <c r="B730" s="3"/>
       <c r="C730" s="3"/>
@@ -20808,7 +20844,7 @@
       <c r="Y730" s="3"/>
       <c r="Z730" s="3"/>
     </row>
-    <row r="731" ht="19.5" customHeight="1">
+    <row r="731" spans="1:26" ht="19.5" customHeight="1">
       <c r="A731" s="3"/>
       <c r="B731" s="3"/>
       <c r="C731" s="3"/>
@@ -20836,7 +20872,7 @@
       <c r="Y731" s="3"/>
       <c r="Z731" s="3"/>
     </row>
-    <row r="732" ht="19.5" customHeight="1">
+    <row r="732" spans="1:26" ht="19.5" customHeight="1">
       <c r="A732" s="3"/>
       <c r="B732" s="3"/>
       <c r="C732" s="3"/>
@@ -20864,7 +20900,7 @@
       <c r="Y732" s="3"/>
       <c r="Z732" s="3"/>
     </row>
-    <row r="733" ht="19.5" customHeight="1">
+    <row r="733" spans="1:26" ht="19.5" customHeight="1">
       <c r="A733" s="3"/>
       <c r="B733" s="3"/>
       <c r="C733" s="3"/>
@@ -20892,7 +20928,7 @@
       <c r="Y733" s="3"/>
       <c r="Z733" s="3"/>
     </row>
-    <row r="734" ht="19.5" customHeight="1">
+    <row r="734" spans="1:26" ht="19.5" customHeight="1">
       <c r="A734" s="3"/>
       <c r="B734" s="3"/>
       <c r="C734" s="3"/>
@@ -20920,7 +20956,7 @@
       <c r="Y734" s="3"/>
       <c r="Z734" s="3"/>
     </row>
-    <row r="735" ht="19.5" customHeight="1">
+    <row r="735" spans="1:26" ht="19.5" customHeight="1">
       <c r="A735" s="3"/>
       <c r="B735" s="3"/>
       <c r="C735" s="3"/>
@@ -20948,7 +20984,7 @@
       <c r="Y735" s="3"/>
       <c r="Z735" s="3"/>
     </row>
-    <row r="736" ht="19.5" customHeight="1">
+    <row r="736" spans="1:26" ht="19.5" customHeight="1">
       <c r="A736" s="3"/>
       <c r="B736" s="3"/>
       <c r="C736" s="3"/>
@@ -20976,7 +21012,7 @@
       <c r="Y736" s="3"/>
       <c r="Z736" s="3"/>
     </row>
-    <row r="737" ht="19.5" customHeight="1">
+    <row r="737" spans="1:26" ht="19.5" customHeight="1">
       <c r="A737" s="3"/>
       <c r="B737" s="3"/>
       <c r="C737" s="3"/>
@@ -21004,7 +21040,7 @@
       <c r="Y737" s="3"/>
       <c r="Z737" s="3"/>
     </row>
-    <row r="738" ht="19.5" customHeight="1">
+    <row r="738" spans="1:26" ht="19.5" customHeight="1">
       <c r="A738" s="3"/>
       <c r="B738" s="3"/>
       <c r="C738" s="3"/>
@@ -21032,7 +21068,7 @@
       <c r="Y738" s="3"/>
       <c r="Z738" s="3"/>
     </row>
-    <row r="739" ht="19.5" customHeight="1">
+    <row r="739" spans="1:26" ht="19.5" customHeight="1">
       <c r="A739" s="3"/>
       <c r="B739" s="3"/>
       <c r="C739" s="3"/>
@@ -21060,7 +21096,7 @@
       <c r="Y739" s="3"/>
       <c r="Z739" s="3"/>
     </row>
-    <row r="740" ht="19.5" customHeight="1">
+    <row r="740" spans="1:26" ht="19.5" customHeight="1">
       <c r="A740" s="3"/>
       <c r="B740" s="3"/>
       <c r="C740" s="3"/>
@@ -21088,7 +21124,7 @@
       <c r="Y740" s="3"/>
       <c r="Z740" s="3"/>
     </row>
-    <row r="741" ht="19.5" customHeight="1">
+    <row r="741" spans="1:26" ht="19.5" customHeight="1">
       <c r="A741" s="3"/>
       <c r="B741" s="3"/>
       <c r="C741" s="3"/>
@@ -21116,7 +21152,7 @@
       <c r="Y741" s="3"/>
       <c r="Z741" s="3"/>
     </row>
-    <row r="742" ht="19.5" customHeight="1">
+    <row r="742" spans="1:26" ht="19.5" customHeight="1">
       <c r="A742" s="3"/>
       <c r="B742" s="3"/>
       <c r="C742" s="3"/>
@@ -21144,7 +21180,7 @@
       <c r="Y742" s="3"/>
       <c r="Z742" s="3"/>
     </row>
-    <row r="743" ht="19.5" customHeight="1">
+    <row r="743" spans="1:26" ht="19.5" customHeight="1">
       <c r="A743" s="3"/>
       <c r="B743" s="3"/>
       <c r="C743" s="3"/>
@@ -21172,7 +21208,7 @@
       <c r="Y743" s="3"/>
       <c r="Z743" s="3"/>
     </row>
-    <row r="744" ht="19.5" customHeight="1">
+    <row r="744" spans="1:26" ht="19.5" customHeight="1">
       <c r="A744" s="3"/>
       <c r="B744" s="3"/>
       <c r="C744" s="3"/>
@@ -21200,7 +21236,7 @@
       <c r="Y744" s="3"/>
       <c r="Z744" s="3"/>
     </row>
-    <row r="745" ht="19.5" customHeight="1">
+    <row r="745" spans="1:26" ht="19.5" customHeight="1">
       <c r="A745" s="3"/>
       <c r="B745" s="3"/>
       <c r="C745" s="3"/>
@@ -21228,7 +21264,7 @@
       <c r="Y745" s="3"/>
       <c r="Z745" s="3"/>
     </row>
-    <row r="746" ht="19.5" customHeight="1">
+    <row r="746" spans="1:26" ht="19.5" customHeight="1">
       <c r="A746" s="3"/>
       <c r="B746" s="3"/>
       <c r="C746" s="3"/>
@@ -21256,7 +21292,7 @@
       <c r="Y746" s="3"/>
       <c r="Z746" s="3"/>
     </row>
-    <row r="747" ht="19.5" customHeight="1">
+    <row r="747" spans="1:26" ht="19.5" customHeight="1">
       <c r="A747" s="3"/>
       <c r="B747" s="3"/>
       <c r="C747" s="3"/>
@@ -21284,7 +21320,7 @@
       <c r="Y747" s="3"/>
       <c r="Z747" s="3"/>
     </row>
-    <row r="748" ht="19.5" customHeight="1">
+    <row r="748" spans="1:26" ht="19.5" customHeight="1">
       <c r="A748" s="3"/>
       <c r="B748" s="3"/>
       <c r="C748" s="3"/>
@@ -21312,7 +21348,7 @@
       <c r="Y748" s="3"/>
       <c r="Z748" s="3"/>
     </row>
-    <row r="749" ht="19.5" customHeight="1">
+    <row r="749" spans="1:26" ht="19.5" customHeight="1">
       <c r="A749" s="3"/>
       <c r="B749" s="3"/>
       <c r="C749" s="3"/>
@@ -21340,7 +21376,7 @@
       <c r="Y749" s="3"/>
       <c r="Z749" s="3"/>
     </row>
-    <row r="750" ht="19.5" customHeight="1">
+    <row r="750" spans="1:26" ht="19.5" customHeight="1">
       <c r="A750" s="3"/>
       <c r="B750" s="3"/>
       <c r="C750" s="3"/>
@@ -21368,7 +21404,7 @@
       <c r="Y750" s="3"/>
       <c r="Z750" s="3"/>
     </row>
-    <row r="751" ht="19.5" customHeight="1">
+    <row r="751" spans="1:26" ht="19.5" customHeight="1">
       <c r="A751" s="3"/>
       <c r="B751" s="3"/>
       <c r="C751" s="3"/>
@@ -21396,7 +21432,7 @@
       <c r="Y751" s="3"/>
       <c r="Z751" s="3"/>
     </row>
-    <row r="752" ht="19.5" customHeight="1">
+    <row r="752" spans="1:26" ht="19.5" customHeight="1">
       <c r="A752" s="3"/>
       <c r="B752" s="3"/>
       <c r="C752" s="3"/>
@@ -21424,7 +21460,7 @@
       <c r="Y752" s="3"/>
       <c r="Z752" s="3"/>
     </row>
-    <row r="753" ht="19.5" customHeight="1">
+    <row r="753" spans="1:26" ht="19.5" customHeight="1">
       <c r="A753" s="3"/>
       <c r="B753" s="3"/>
       <c r="C753" s="3"/>
@@ -21452,7 +21488,7 @@
       <c r="Y753" s="3"/>
       <c r="Z753" s="3"/>
     </row>
-    <row r="754" ht="19.5" customHeight="1">
+    <row r="754" spans="1:26" ht="19.5" customHeight="1">
       <c r="A754" s="3"/>
       <c r="B754" s="3"/>
       <c r="C754" s="3"/>
@@ -21480,7 +21516,7 @@
       <c r="Y754" s="3"/>
       <c r="Z754" s="3"/>
     </row>
-    <row r="755" ht="19.5" customHeight="1">
+    <row r="755" spans="1:26" ht="19.5" customHeight="1">
       <c r="A755" s="3"/>
       <c r="B755" s="3"/>
       <c r="C755" s="3"/>
@@ -21508,7 +21544,7 @@
       <c r="Y755" s="3"/>
       <c r="Z755" s="3"/>
     </row>
-    <row r="756" ht="19.5" customHeight="1">
+    <row r="756" spans="1:26" ht="19.5" customHeight="1">
       <c r="A756" s="3"/>
       <c r="B756" s="3"/>
       <c r="C756" s="3"/>
@@ -21536,7 +21572,7 @@
       <c r="Y756" s="3"/>
       <c r="Z756" s="3"/>
     </row>
-    <row r="757" ht="19.5" customHeight="1">
+    <row r="757" spans="1:26" ht="19.5" customHeight="1">
       <c r="A757" s="3"/>
       <c r="B757" s="3"/>
       <c r="C757" s="3"/>
@@ -21564,7 +21600,7 @@
       <c r="Y757" s="3"/>
       <c r="Z757" s="3"/>
     </row>
-    <row r="758" ht="19.5" customHeight="1">
+    <row r="758" spans="1:26" ht="19.5" customHeight="1">
       <c r="A758" s="3"/>
       <c r="B758" s="3"/>
       <c r="C758" s="3"/>
@@ -21592,7 +21628,7 @@
       <c r="Y758" s="3"/>
       <c r="Z758" s="3"/>
     </row>
-    <row r="759" ht="19.5" customHeight="1">
+    <row r="759" spans="1:26" ht="19.5" customHeight="1">
       <c r="A759" s="3"/>
       <c r="B759" s="3"/>
       <c r="C759" s="3"/>
@@ -21620,7 +21656,7 @@
       <c r="Y759" s="3"/>
       <c r="Z759" s="3"/>
     </row>
-    <row r="760" ht="19.5" customHeight="1">
+    <row r="760" spans="1:26" ht="19.5" customHeight="1">
       <c r="A760" s="3"/>
       <c r="B760" s="3"/>
       <c r="C760" s="3"/>
@@ -21648,7 +21684,7 @@
       <c r="Y760" s="3"/>
       <c r="Z760" s="3"/>
     </row>
-    <row r="761" ht="19.5" customHeight="1">
+    <row r="761" spans="1:26" ht="19.5" customHeight="1">
       <c r="A761" s="3"/>
       <c r="B761" s="3"/>
       <c r="C761" s="3"/>
@@ -21676,7 +21712,7 @@
       <c r="Y761" s="3"/>
       <c r="Z761" s="3"/>
     </row>
-    <row r="762" ht="19.5" customHeight="1">
+    <row r="762" spans="1:26" ht="19.5" customHeight="1">
       <c r="A762" s="3"/>
       <c r="B762" s="3"/>
       <c r="C762" s="3"/>
@@ -21704,7 +21740,7 @@
       <c r="Y762" s="3"/>
       <c r="Z762" s="3"/>
     </row>
-    <row r="763" ht="19.5" customHeight="1">
+    <row r="763" spans="1:26" ht="19.5" customHeight="1">
       <c r="A763" s="3"/>
       <c r="B763" s="3"/>
       <c r="C763" s="3"/>
@@ -21732,7 +21768,7 @@
       <c r="Y763" s="3"/>
       <c r="Z763" s="3"/>
     </row>
-    <row r="764" ht="19.5" customHeight="1">
+    <row r="764" spans="1:26" ht="19.5" customHeight="1">
       <c r="A764" s="3"/>
       <c r="B764" s="3"/>
       <c r="C764" s="3"/>
@@ -21760,7 +21796,7 @@
       <c r="Y764" s="3"/>
       <c r="Z764" s="3"/>
     </row>
-    <row r="765" ht="19.5" customHeight="1">
+    <row r="765" spans="1:26" ht="19.5" customHeight="1">
       <c r="A765" s="3"/>
       <c r="B765" s="3"/>
       <c r="C765" s="3"/>
@@ -21788,7 +21824,7 @@
       <c r="Y765" s="3"/>
       <c r="Z765" s="3"/>
     </row>
-    <row r="766" ht="19.5" customHeight="1">
+    <row r="766" spans="1:26" ht="19.5" customHeight="1">
       <c r="A766" s="3"/>
       <c r="B766" s="3"/>
       <c r="C766" s="3"/>
@@ -21816,7 +21852,7 @@
       <c r="Y766" s="3"/>
       <c r="Z766" s="3"/>
     </row>
-    <row r="767" ht="19.5" customHeight="1">
+    <row r="767" spans="1:26" ht="19.5" customHeight="1">
       <c r="A767" s="3"/>
       <c r="B767" s="3"/>
       <c r="C767" s="3"/>
@@ -21844,7 +21880,7 @@
       <c r="Y767" s="3"/>
       <c r="Z767" s="3"/>
     </row>
-    <row r="768" ht="19.5" customHeight="1">
+    <row r="768" spans="1:26" ht="19.5" customHeight="1">
       <c r="A768" s="3"/>
       <c r="B768" s="3"/>
       <c r="C768" s="3"/>
@@ -21872,7 +21908,7 @@
       <c r="Y768" s="3"/>
       <c r="Z768" s="3"/>
     </row>
-    <row r="769" ht="19.5" customHeight="1">
+    <row r="769" spans="1:26" ht="19.5" customHeight="1">
       <c r="A769" s="3"/>
       <c r="B769" s="3"/>
       <c r="C769" s="3"/>
@@ -21900,7 +21936,7 @@
       <c r="Y769" s="3"/>
       <c r="Z769" s="3"/>
     </row>
-    <row r="770" ht="19.5" customHeight="1">
+    <row r="770" spans="1:26" ht="19.5" customHeight="1">
       <c r="A770" s="3"/>
       <c r="B770" s="3"/>
       <c r="C770" s="3"/>
@@ -21928,7 +21964,7 @@
       <c r="Y770" s="3"/>
       <c r="Z770" s="3"/>
     </row>
-    <row r="771" ht="19.5" customHeight="1">
+    <row r="771" spans="1:26" ht="19.5" customHeight="1">
       <c r="A771" s="3"/>
       <c r="B771" s="3"/>
       <c r="C771" s="3"/>
@@ -21956,7 +21992,7 @@
       <c r="Y771" s="3"/>
       <c r="Z771" s="3"/>
     </row>
-    <row r="772" ht="19.5" customHeight="1">
+    <row r="772" spans="1:26" ht="19.5" customHeight="1">
       <c r="A772" s="3"/>
       <c r="B772" s="3"/>
       <c r="C772" s="3"/>
@@ -21984,7 +22020,7 @@
       <c r="Y772" s="3"/>
       <c r="Z772" s="3"/>
     </row>
-    <row r="773" ht="19.5" customHeight="1">
+    <row r="773" spans="1:26" ht="19.5" customHeight="1">
       <c r="A773" s="3"/>
       <c r="B773" s="3"/>
       <c r="C773" s="3"/>
@@ -22012,7 +22048,7 @@
       <c r="Y773" s="3"/>
       <c r="Z773" s="3"/>
     </row>
-    <row r="774" ht="19.5" customHeight="1">
+    <row r="774" spans="1:26" ht="19.5" customHeight="1">
       <c r="A774" s="3"/>
       <c r="B774" s="3"/>
       <c r="C774" s="3"/>
@@ -22040,7 +22076,7 @@
       <c r="Y774" s="3"/>
       <c r="Z774" s="3"/>
     </row>
-    <row r="775" ht="19.5" customHeight="1">
+    <row r="775" spans="1:26" ht="19.5" customHeight="1">
       <c r="A775" s="3"/>
       <c r="B775" s="3"/>
       <c r="C775" s="3"/>
@@ -22068,7 +22104,7 @@
       <c r="Y775" s="3"/>
       <c r="Z775" s="3"/>
     </row>
-    <row r="776" ht="19.5" customHeight="1">
+    <row r="776" spans="1:26" ht="19.5" customHeight="1">
       <c r="A776" s="3"/>
       <c r="B776" s="3"/>
       <c r="C776" s="3"/>
@@ -22096,7 +22132,7 @@
       <c r="Y776" s="3"/>
       <c r="Z776" s="3"/>
     </row>
-    <row r="777" ht="19.5" customHeight="1">
+    <row r="777" spans="1:26" ht="19.5" customHeight="1">
       <c r="A777" s="3"/>
       <c r="B777" s="3"/>
       <c r="C777" s="3"/>
@@ -22124,7 +22160,7 @@
       <c r="Y777" s="3"/>
       <c r="Z777" s="3"/>
     </row>
-    <row r="778" ht="19.5" customHeight="1">
+    <row r="778" spans="1:26" ht="19.5" customHeight="1">
       <c r="A778" s="3"/>
       <c r="B778" s="3"/>
       <c r="C778" s="3"/>
@@ -22152,7 +22188,7 @@
       <c r="Y778" s="3"/>
       <c r="Z778" s="3"/>
     </row>
-    <row r="779" ht="19.5" customHeight="1">
+    <row r="779" spans="1:26" ht="19.5" customHeight="1">
       <c r="A779" s="3"/>
       <c r="B779" s="3"/>
       <c r="C779" s="3"/>
@@ -22180,7 +22216,7 @@
       <c r="Y779" s="3"/>
       <c r="Z779" s="3"/>
     </row>
-    <row r="780" ht="19.5" customHeight="1">
+    <row r="780" spans="1:26" ht="19.5" customHeight="1">
       <c r="A780" s="3"/>
       <c r="B780" s="3"/>
       <c r="C780" s="3"/>
@@ -22208,7 +22244,7 @@
       <c r="Y780" s="3"/>
       <c r="Z780" s="3"/>
     </row>
-    <row r="781" ht="19.5" customHeight="1">
+    <row r="781" spans="1:26" ht="19.5" customHeight="1">
       <c r="A781" s="3"/>
       <c r="B781" s="3"/>
       <c r="C781" s="3"/>
@@ -22236,7 +22272,7 @@
       <c r="Y781" s="3"/>
       <c r="Z781" s="3"/>
     </row>
-    <row r="782" ht="19.5" customHeight="1">
+    <row r="782" spans="1:26" ht="19.5" customHeight="1">
       <c r="A782" s="3"/>
       <c r="B782" s="3"/>
       <c r="C782" s="3"/>
@@ -22264,7 +22300,7 @@
       <c r="Y782" s="3"/>
       <c r="Z782" s="3"/>
     </row>
-    <row r="783" ht="19.5" customHeight="1">
+    <row r="783" spans="1:26" ht="19.5" customHeight="1">
       <c r="A783" s="3"/>
       <c r="B783" s="3"/>
       <c r="C783" s="3"/>
@@ -22292,7 +22328,7 @@
       <c r="Y783" s="3"/>
       <c r="Z783" s="3"/>
     </row>
-    <row r="784" ht="19.5" customHeight="1">
+    <row r="784" spans="1:26" ht="19.5" customHeight="1">
       <c r="A784" s="3"/>
       <c r="B784" s="3"/>
       <c r="C784" s="3"/>
@@ -22320,7 +22356,7 @@
       <c r="Y784" s="3"/>
       <c r="Z784" s="3"/>
     </row>
-    <row r="785" ht="19.5" customHeight="1">
+    <row r="785" spans="1:26" ht="19.5" customHeight="1">
       <c r="A785" s="3"/>
       <c r="B785" s="3"/>
       <c r="C785" s="3"/>
@@ -22348,7 +22384,7 @@
       <c r="Y785" s="3"/>
       <c r="Z785" s="3"/>
     </row>
-    <row r="786" ht="19.5" customHeight="1">
+    <row r="786" spans="1:26" ht="19.5" customHeight="1">
       <c r="A786" s="3"/>
       <c r="B786" s="3"/>
       <c r="C786" s="3"/>
@@ -22376,7 +22412,7 @@
       <c r="Y786" s="3"/>
       <c r="Z786" s="3"/>
     </row>
-    <row r="787" ht="19.5" customHeight="1">
+    <row r="787" spans="1:26" ht="19.5" customHeight="1">
       <c r="A787" s="3"/>
       <c r="B787" s="3"/>
       <c r="C787" s="3"/>
@@ -22404,7 +22440,7 @@
       <c r="Y787" s="3"/>
       <c r="Z787" s="3"/>
     </row>
-    <row r="788" ht="19.5" customHeight="1">
+    <row r="788" spans="1:26" ht="19.5" customHeight="1">
       <c r="A788" s="3"/>
       <c r="B788" s="3"/>
       <c r="C788" s="3"/>
@@ -22432,7 +22468,7 @@
       <c r="Y788" s="3"/>
       <c r="Z788" s="3"/>
     </row>
-    <row r="789" ht="19.5" customHeight="1">
+    <row r="789" spans="1:26" ht="19.5" customHeight="1">
       <c r="A789" s="3"/>
       <c r="B789" s="3"/>
       <c r="C789" s="3"/>
@@ -22460,7 +22496,7 @@
       <c r="Y789" s="3"/>
       <c r="Z789" s="3"/>
     </row>
-    <row r="790" ht="19.5" customHeight="1">
+    <row r="790" spans="1:26" ht="19.5" customHeight="1">
       <c r="A790" s="3"/>
       <c r="B790" s="3"/>
       <c r="C790" s="3"/>
@@ -22488,7 +22524,7 @@
       <c r="Y790" s="3"/>
       <c r="Z790" s="3"/>
     </row>
-    <row r="791" ht="19.5" customHeight="1">
+    <row r="791" spans="1:26" ht="19.5" customHeight="1">
       <c r="A791" s="3"/>
       <c r="B791" s="3"/>
       <c r="C791" s="3"/>
@@ -22516,7 +22552,7 @@
       <c r="Y791" s="3"/>
       <c r="Z791" s="3"/>
     </row>
-    <row r="792" ht="19.5" customHeight="1">
+    <row r="792" spans="1:26" ht="19.5" customHeight="1">
       <c r="A792" s="3"/>
       <c r="B792" s="3"/>
       <c r="C792" s="3"/>
@@ -22544,7 +22580,7 @@
       <c r="Y792" s="3"/>
       <c r="Z792" s="3"/>
     </row>
-    <row r="793" ht="19.5" customHeight="1">
+    <row r="793" spans="1:26" ht="19.5" customHeight="1">
       <c r="A793" s="3"/>
       <c r="B793" s="3"/>
       <c r="C793" s="3"/>
@@ -22572,7 +22608,7 @@
       <c r="Y793" s="3"/>
       <c r="Z793" s="3"/>
     </row>
-    <row r="794" ht="19.5" customHeight="1">
+    <row r="794" spans="1:26" ht="19.5" customHeight="1">
       <c r="A794" s="3"/>
       <c r="B794" s="3"/>
       <c r="C794" s="3"/>
@@ -22600,7 +22636,7 @@
       <c r="Y794" s="3"/>
       <c r="Z794" s="3"/>
     </row>
-    <row r="795" ht="19.5" customHeight="1">
+    <row r="795" spans="1:26" ht="19.5" customHeight="1">
       <c r="A795" s="3"/>
       <c r="B795" s="3"/>
       <c r="C795" s="3"/>
@@ -22628,7 +22664,7 @@
       <c r="Y795" s="3"/>
       <c r="Z795" s="3"/>
     </row>
-    <row r="796" ht="19.5" customHeight="1">
+    <row r="796" spans="1:26" ht="19.5" customHeight="1">
       <c r="A796" s="3"/>
       <c r="B796" s="3"/>
       <c r="C796" s="3"/>
@@ -22656,7 +22692,7 @@
       <c r="Y796" s="3"/>
       <c r="Z796" s="3"/>
     </row>
-    <row r="797" ht="19.5" customHeight="1">
+    <row r="797" spans="1:26" ht="19.5" customHeight="1">
       <c r="A797" s="3"/>
       <c r="B797" s="3"/>
       <c r="C797" s="3"/>
@@ -22684,7 +22720,7 @@
       <c r="Y797" s="3"/>
       <c r="Z797" s="3"/>
     </row>
-    <row r="798" ht="19.5" customHeight="1">
+    <row r="798" spans="1:26" ht="19.5" customHeight="1">
       <c r="A798" s="3"/>
       <c r="B798" s="3"/>
       <c r="C798" s="3"/>
@@ -22712,7 +22748,7 @@
       <c r="Y798" s="3"/>
       <c r="Z798" s="3"/>
     </row>
-    <row r="799" ht="19.5" customHeight="1">
+    <row r="799" spans="1:26" ht="19.5" customHeight="1">
       <c r="A799" s="3"/>
       <c r="B799" s="3"/>
       <c r="C799" s="3"/>
@@ -22740,7 +22776,7 @@
       <c r="Y799" s="3"/>
       <c r="Z799" s="3"/>
     </row>
-    <row r="800" ht="19.5" customHeight="1">
+    <row r="800" spans="1:26" ht="19.5" customHeight="1">
       <c r="A800" s="3"/>
       <c r="B800" s="3"/>
       <c r="C800" s="3"/>
@@ -22768,7 +22804,7 @@
       <c r="Y800" s="3"/>
       <c r="Z800" s="3"/>
     </row>
-    <row r="801" ht="19.5" customHeight="1">
+    <row r="801" spans="1:26" ht="19.5" customHeight="1">
       <c r="A801" s="3"/>
       <c r="B801" s="3"/>
       <c r="C801" s="3"/>
@@ -22796,7 +22832,7 @@
       <c r="Y801" s="3"/>
       <c r="Z801" s="3"/>
     </row>
-    <row r="802" ht="19.5" customHeight="1">
+    <row r="802" spans="1:26" ht="19.5" customHeight="1">
       <c r="A802" s="3"/>
       <c r="B802" s="3"/>
       <c r="C802" s="3"/>
@@ -22824,7 +22860,7 @@
       <c r="Y802" s="3"/>
       <c r="Z802" s="3"/>
     </row>
-    <row r="803" ht="19.5" customHeight="1">
+    <row r="803" spans="1:26" ht="19.5" customHeight="1">
       <c r="A803" s="3"/>
       <c r="B803" s="3"/>
       <c r="C803" s="3"/>
@@ -22852,7 +22888,7 @@
       <c r="Y803" s="3"/>
       <c r="Z803" s="3"/>
     </row>
-    <row r="804" ht="19.5" customHeight="1">
+    <row r="804" spans="1:26" ht="19.5" customHeight="1">
       <c r="A804" s="3"/>
       <c r="B804" s="3"/>
       <c r="C804" s="3"/>
@@ -22880,7 +22916,7 @@
       <c r="Y804" s="3"/>
       <c r="Z804" s="3"/>
     </row>
-    <row r="805" ht="19.5" customHeight="1">
+    <row r="805" spans="1:26" ht="19.5" customHeight="1">
       <c r="A805" s="3"/>
       <c r="B805" s="3"/>
       <c r="C805" s="3"/>
@@ -22908,7 +22944,7 @@
       <c r="Y805" s="3"/>
       <c r="Z805" s="3"/>
     </row>
-    <row r="806" ht="19.5" customHeight="1">
+    <row r="806" spans="1:26" ht="19.5" customHeight="1">
       <c r="A806" s="3"/>
       <c r="B806" s="3"/>
       <c r="C806" s="3"/>
@@ -22936,7 +22972,7 @@
       <c r="Y806" s="3"/>
       <c r="Z806" s="3"/>
     </row>
-    <row r="807" ht="19.5" customHeight="1">
+    <row r="807" spans="1:26" ht="19.5" customHeight="1">
       <c r="A807" s="3"/>
       <c r="B807" s="3"/>
       <c r="C807" s="3"/>
@@ -22964,7 +23000,7 @@
       <c r="Y807" s="3"/>
       <c r="Z807" s="3"/>
     </row>
-    <row r="808" ht="19.5" customHeight="1">
+    <row r="808" spans="1:26" ht="19.5" customHeight="1">
       <c r="A808" s="3"/>
       <c r="B808" s="3"/>
       <c r="C808" s="3"/>
@@ -22992,7 +23028,7 @@
       <c r="Y808" s="3"/>
       <c r="Z808" s="3"/>
     </row>
-    <row r="809" ht="19.5" customHeight="1">
+    <row r="809" spans="1:26" ht="19.5" customHeight="1">
       <c r="A809" s="3"/>
       <c r="B809" s="3"/>
       <c r="C809" s="3"/>
@@ -23020,7 +23056,7 @@
       <c r="Y809" s="3"/>
       <c r="Z809" s="3"/>
     </row>
-    <row r="810" ht="19.5" customHeight="1">
+    <row r="810" spans="1:26" ht="19.5" customHeight="1">
       <c r="A810" s="3"/>
       <c r="B810" s="3"/>
       <c r="C810" s="3"/>
@@ -23048,7 +23084,7 @@
       <c r="Y810" s="3"/>
       <c r="Z810" s="3"/>
     </row>
-    <row r="811" ht="19.5" customHeight="1">
+    <row r="811" spans="1:26" ht="19.5" customHeight="1">
       <c r="A811" s="3"/>
       <c r="B811" s="3"/>
       <c r="C811" s="3"/>
@@ -23076,7 +23112,7 @@
       <c r="Y811" s="3"/>
       <c r="Z811" s="3"/>
     </row>
-    <row r="812" ht="19.5" customHeight="1">
+    <row r="812" spans="1:26" ht="19.5" customHeight="1">
       <c r="A812" s="3"/>
       <c r="B812" s="3"/>
       <c r="C812" s="3"/>
@@ -23104,7 +23140,7 @@
       <c r="Y812" s="3"/>
       <c r="Z812" s="3"/>
     </row>
-    <row r="813" ht="19.5" customHeight="1">
+    <row r="813" spans="1:26" ht="19.5" customHeight="1">
       <c r="A813" s="3"/>
       <c r="B813" s="3"/>
       <c r="C813" s="3"/>
@@ -23132,7 +23168,7 @@
       <c r="Y813" s="3"/>
       <c r="Z813" s="3"/>
     </row>
-    <row r="814" ht="19.5" customHeight="1">
+    <row r="814" spans="1:26" ht="19.5" customHeight="1">
       <c r="A814" s="3"/>
       <c r="B814" s="3"/>
       <c r="C814" s="3"/>
@@ -23160,7 +23196,7 @@
       <c r="Y814" s="3"/>
       <c r="Z814" s="3"/>
     </row>
-    <row r="815" ht="19.5" customHeight="1">
+    <row r="815" spans="1:26" ht="19.5" customHeight="1">
       <c r="A815" s="3"/>
       <c r="B815" s="3"/>
       <c r="C815" s="3"/>
@@ -23188,7 +23224,7 @@
       <c r="Y815" s="3"/>
       <c r="Z815" s="3"/>
     </row>
-    <row r="816" ht="19.5" customHeight="1">
+    <row r="816" spans="1:26" ht="19.5" customHeight="1">
       <c r="A816" s="3"/>
       <c r="B816" s="3"/>
       <c r="C816" s="3"/>
@@ -23216,7 +23252,7 @@
       <c r="Y816" s="3"/>
       <c r="Z816" s="3"/>
     </row>
-    <row r="817" ht="19.5" customHeight="1">
+    <row r="817" spans="1:26" ht="19.5" customHeight="1">
       <c r="A817" s="3"/>
       <c r="B817" s="3"/>
       <c r="C817" s="3"/>
@@ -23244,7 +23280,7 @@
       <c r="Y817" s="3"/>
       <c r="Z817" s="3"/>
     </row>
-    <row r="818" ht="19.5" customHeight="1">
+    <row r="818" spans="1:26" ht="19.5" customHeight="1">
       <c r="A818" s="3"/>
       <c r="B818" s="3"/>
       <c r="C818" s="3"/>
@@ -23272,7 +23308,7 @@
       <c r="Y818" s="3"/>
       <c r="Z818" s="3"/>
     </row>
-    <row r="819" ht="19.5" customHeight="1">
+    <row r="819" spans="1:26" ht="19.5" customHeight="1">
       <c r="A819" s="3"/>
       <c r="B819" s="3"/>
       <c r="C819" s="3"/>
@@ -23300,7 +23336,7 @@
       <c r="Y819" s="3"/>
       <c r="Z819" s="3"/>
     </row>
-    <row r="820" ht="19.5" customHeight="1">
+    <row r="820" spans="1:26" ht="19.5" customHeight="1">
       <c r="A820" s="3"/>
       <c r="B820" s="3"/>
       <c r="C820" s="3"/>
@@ -23328,7 +23364,7 @@
       <c r="Y820" s="3"/>
       <c r="Z820" s="3"/>
     </row>
-    <row r="821" ht="19.5" customHeight="1">
+    <row r="821" spans="1:26" ht="19.5" customHeight="1">
       <c r="A821" s="3"/>
       <c r="B821" s="3"/>
       <c r="C821" s="3"/>
@@ -23356,7 +23392,7 @@
       <c r="Y821" s="3"/>
       <c r="Z821" s="3"/>
     </row>
-    <row r="822" ht="19.5" customHeight="1">
+    <row r="822" spans="1:26" ht="19.5" customHeight="1">
       <c r="A822" s="3"/>
       <c r="B822" s="3"/>
       <c r="C822" s="3"/>
@@ -23384,7 +23420,7 @@
       <c r="Y822" s="3"/>
       <c r="Z822" s="3"/>
     </row>
-    <row r="823" ht="19.5" customHeight="1">
+    <row r="823" spans="1:26" ht="19.5" customHeight="1">
       <c r="A823" s="3"/>
       <c r="B823" s="3"/>
       <c r="C823" s="3"/>
@@ -23412,7 +23448,7 @@
       <c r="Y823" s="3"/>
       <c r="Z823" s="3"/>
     </row>
-    <row r="824" ht="19.5" customHeight="1">
+    <row r="824" spans="1:26" ht="19.5" customHeight="1">
       <c r="A824" s="3"/>
       <c r="B824" s="3"/>
       <c r="C824" s="3"/>
@@ -23440,7 +23476,7 @@
       <c r="Y824" s="3"/>
       <c r="Z824" s="3"/>
     </row>
-    <row r="825" ht="19.5" customHeight="1">
+    <row r="825" spans="1:26" ht="19.5" customHeight="1">
       <c r="A825" s="3"/>
       <c r="B825" s="3"/>
       <c r="C825" s="3"/>
@@ -23468,7 +23504,7 @@
       <c r="Y825" s="3"/>
       <c r="Z825" s="3"/>
     </row>
-    <row r="826" ht="19.5" customHeight="1">
+    <row r="826" spans="1:26" ht="19.5" customHeight="1">
       <c r="A826" s="3"/>
       <c r="B826" s="3"/>
       <c r="C826" s="3"/>
@@ -23496,7 +23532,7 @@
       <c r="Y826" s="3"/>
       <c r="Z826" s="3"/>
     </row>
-    <row r="827" ht="19.5" customHeight="1">
+    <row r="827" spans="1:26" ht="19.5" customHeight="1">
       <c r="A827" s="3"/>
       <c r="B827" s="3"/>
       <c r="C827" s="3"/>
@@ -23524,7 +23560,7 @@
       <c r="Y827" s="3"/>
       <c r="Z827" s="3"/>
     </row>
-    <row r="828" ht="19.5" customHeight="1">
+    <row r="828" spans="1:26" ht="19.5" customHeight="1">
       <c r="A828" s="3"/>
       <c r="B828" s="3"/>
       <c r="C828" s="3"/>
@@ -23552,7 +23588,7 @@
       <c r="Y828" s="3"/>
       <c r="Z828" s="3"/>
     </row>
-    <row r="829" ht="19.5" customHeight="1">
+    <row r="829" spans="1:26" ht="19.5" customHeight="1">
       <c r="A829" s="3"/>
       <c r="B829" s="3"/>
       <c r="C829" s="3"/>
@@ -23580,7 +23616,7 @@
       <c r="Y829" s="3"/>
       <c r="Z829" s="3"/>
     </row>
-    <row r="830" ht="19.5" customHeight="1">
+    <row r="830" spans="1:26" ht="19.5" customHeight="1">
       <c r="A830" s="3"/>
       <c r="B830" s="3"/>
       <c r="C830" s="3"/>
@@ -23608,7 +23644,7 @@
       <c r="Y830" s="3"/>
       <c r="Z830" s="3"/>
     </row>
-    <row r="831" ht="19.5" customHeight="1">
+    <row r="831" spans="1:26" ht="19.5" customHeight="1">
       <c r="A831" s="3"/>
       <c r="B831" s="3"/>
       <c r="C831" s="3"/>
@@ -23636,7 +23672,7 @@
       <c r="Y831" s="3"/>
       <c r="Z831" s="3"/>
     </row>
-    <row r="832" ht="19.5" customHeight="1">
+    <row r="832" spans="1:26" ht="19.5" customHeight="1">
       <c r="A832" s="3"/>
       <c r="B832" s="3"/>
       <c r="C832" s="3"/>
@@ -23664,7 +23700,7 @@
       <c r="Y832" s="3"/>
       <c r="Z832" s="3"/>
     </row>
-    <row r="833" ht="19.5" customHeight="1">
+    <row r="833" spans="1:26" ht="19.5" customHeight="1">
       <c r="A833" s="3"/>
       <c r="B833" s="3"/>
       <c r="C833" s="3"/>
@@ -23692,7 +23728,7 @@
       <c r="Y833" s="3"/>
       <c r="Z833" s="3"/>
     </row>
-    <row r="834" ht="19.5" customHeight="1">
+    <row r="834" spans="1:26" ht="19.5" customHeight="1">
       <c r="A834" s="3"/>
       <c r="B834" s="3"/>
       <c r="C834" s="3"/>
@@ -23720,7 +23756,7 @@
       <c r="Y834" s="3"/>
       <c r="Z834" s="3"/>
     </row>
-    <row r="835" ht="19.5" customHeight="1">
+    <row r="835" spans="1:26" ht="19.5" customHeight="1">
       <c r="A835" s="3"/>
       <c r="B835" s="3"/>
       <c r="C835" s="3"/>
@@ -23748,7 +23784,7 @@
       <c r="Y835" s="3"/>
       <c r="Z835" s="3"/>
     </row>
-    <row r="836" ht="19.5" customHeight="1">
+    <row r="836" spans="1:26" ht="19.5" customHeight="1">
       <c r="A836" s="3"/>
       <c r="B836" s="3"/>
       <c r="C836" s="3"/>
@@ -23776,7 +23812,7 @@
       <c r="Y836" s="3"/>
       <c r="Z836" s="3"/>
     </row>
-    <row r="837" ht="19.5" customHeight="1">
+    <row r="837" spans="1:26" ht="19.5" customHeight="1">
       <c r="A837" s="3"/>
       <c r="B837" s="3"/>
       <c r="C837" s="3"/>
@@ -23804,7 +23840,7 @@
       <c r="Y837" s="3"/>
       <c r="Z837" s="3"/>
     </row>
-    <row r="838" ht="19.5" customHeight="1">
+    <row r="838" spans="1:26" ht="19.5" customHeight="1">
       <c r="A838" s="3"/>
       <c r="B838" s="3"/>
       <c r="C838" s="3"/>
@@ -23832,7 +23868,7 @@
       <c r="Y838" s="3"/>
       <c r="Z838" s="3"/>
     </row>
-    <row r="839" ht="19.5" customHeight="1">
+    <row r="839" spans="1:26" ht="19.5" customHeight="1">
       <c r="A839" s="3"/>
       <c r="B839" s="3"/>
       <c r="C839" s="3"/>
@@ -23860,7 +23896,7 @@
       <c r="Y839" s="3"/>
       <c r="Z839" s="3"/>
     </row>
-    <row r="840" ht="19.5" customHeight="1">
+    <row r="840" spans="1:26" ht="19.5" customHeight="1">
       <c r="A840" s="3"/>
       <c r="B840" s="3"/>
       <c r="C840" s="3"/>
@@ -23888,7 +23924,7 @@
       <c r="Y840" s="3"/>
       <c r="Z840" s="3"/>
     </row>
-    <row r="841" ht="19.5" customHeight="1">
+    <row r="841" spans="1:26" ht="19.5" customHeight="1">
       <c r="A841" s="3"/>
       <c r="B841" s="3"/>
       <c r="C841" s="3"/>
@@ -23916,7 +23952,7 @@
       <c r="Y841" s="3"/>
       <c r="Z841" s="3"/>
     </row>
-    <row r="842" ht="19.5" customHeight="1">
+    <row r="842" spans="1:26" ht="19.5" customHeight="1">
       <c r="A842" s="3"/>
       <c r="B842" s="3"/>
       <c r="C842" s="3"/>
@@ -23944,7 +23980,7 @@
       <c r="Y842" s="3"/>
       <c r="Z842" s="3"/>
     </row>
-    <row r="843" ht="19.5" customHeight="1">
+    <row r="843" spans="1:26" ht="19.5" customHeight="1">
       <c r="A843" s="3"/>
       <c r="B843" s="3"/>
       <c r="C843" s="3"/>
@@ -23972,7 +24008,7 @@
       <c r="Y843" s="3"/>
       <c r="Z843" s="3"/>
     </row>
-    <row r="844" ht="19.5" customHeight="1">
+    <row r="844" spans="1:26" ht="19.5" customHeight="1">
       <c r="A844" s="3"/>
       <c r="B844" s="3"/>
       <c r="C844" s="3"/>
@@ -24000,7 +24036,7 @@
       <c r="Y844" s="3"/>
       <c r="Z844" s="3"/>
     </row>
-    <row r="845" ht="19.5" customHeight="1">
+    <row r="845" spans="1:26" ht="19.5" customHeight="1">
       <c r="A845" s="3"/>
       <c r="B845" s="3"/>
       <c r="C845" s="3"/>
@@ -24028,7 +24064,7 @@
       <c r="Y845" s="3"/>
       <c r="Z845" s="3"/>
     </row>
-    <row r="846" ht="19.5" customHeight="1">
+    <row r="846" spans="1:26" ht="19.5" customHeight="1">
       <c r="A846" s="3"/>
       <c r="B846" s="3"/>
       <c r="C846" s="3"/>
@@ -24056,7 +24092,7 @@
       <c r="Y846" s="3"/>
       <c r="Z846" s="3"/>
     </row>
-    <row r="847" ht="19.5" customHeight="1">
+    <row r="847" spans="1:26" ht="19.5" customHeight="1">
       <c r="A847" s="3"/>
       <c r="B847" s="3"/>
       <c r="C847" s="3"/>
@@ -24084,7 +24120,7 @@
       <c r="Y847" s="3"/>
       <c r="Z847" s="3"/>
     </row>
-    <row r="848" ht="19.5" customHeight="1">
+    <row r="848" spans="1:26" ht="19.5" customHeight="1">
       <c r="A848" s="3"/>
       <c r="B848" s="3"/>
       <c r="C848" s="3"/>
@@ -24112,7 +24148,7 @@
       <c r="Y848" s="3"/>
       <c r="Z848" s="3"/>
     </row>
-    <row r="849" ht="19.5" customHeight="1">
+    <row r="849" spans="1:26" ht="19.5" customHeight="1">
       <c r="A849" s="3"/>
       <c r="B849" s="3"/>
       <c r="C849" s="3"/>
@@ -24140,7 +24176,7 @@
       <c r="Y849" s="3"/>
       <c r="Z849" s="3"/>
     </row>
-    <row r="850" ht="19.5" customHeight="1">
+    <row r="850" spans="1:26" ht="19.5" customHeight="1">
       <c r="A850" s="3"/>
       <c r="B850" s="3"/>
       <c r="C850" s="3"/>
@@ -24168,7 +24204,7 @@
       <c r="Y850" s="3"/>
       <c r="Z850" s="3"/>
     </row>
-    <row r="851" ht="19.5" customHeight="1">
+    <row r="851" spans="1:26" ht="19.5" customHeight="1">
       <c r="A851" s="3"/>
       <c r="B851" s="3"/>
       <c r="C851" s="3"/>
@@ -24196,7 +24232,7 @@
       <c r="Y851" s="3"/>
       <c r="Z851" s="3"/>
     </row>
-    <row r="852" ht="19.5" customHeight="1">
+    <row r="852" spans="1:26" ht="19.5" customHeight="1">
       <c r="A852" s="3"/>
       <c r="B852" s="3"/>
       <c r="C852" s="3"/>
@@ -24224,7 +24260,7 @@
       <c r="Y852" s="3"/>
       <c r="Z852" s="3"/>
     </row>
-    <row r="853" ht="19.5" customHeight="1">
+    <row r="853" spans="1:26" ht="19.5" customHeight="1">
       <c r="A853" s="3"/>
       <c r="B853" s="3"/>
       <c r="C853" s="3"/>
@@ -24252,7 +24288,7 @@
       <c r="Y853" s="3"/>
       <c r="Z853" s="3"/>
     </row>
-    <row r="854" ht="19.5" customHeight="1">
+    <row r="854" spans="1:26" ht="19.5" customHeight="1">
       <c r="A854" s="3"/>
       <c r="B854" s="3"/>
       <c r="C854" s="3"/>
@@ -24280,7 +24316,7 @@
       <c r="Y854" s="3"/>
       <c r="Z854" s="3"/>
     </row>
-    <row r="855" ht="19.5" customHeight="1">
+    <row r="855" spans="1:26" ht="19.5" customHeight="1">
       <c r="A855" s="3"/>
       <c r="B855" s="3"/>
       <c r="C855" s="3"/>
@@ -24308,7 +24344,7 @@
       <c r="Y855" s="3"/>
       <c r="Z855" s="3"/>
     </row>
-    <row r="856" ht="19.5" customHeight="1">
+    <row r="856" spans="1:26" ht="19.5" customHeight="1">
       <c r="A856" s="3"/>
       <c r="B856" s="3"/>
       <c r="C856" s="3"/>
@@ -24336,7 +24372,7 @@
       <c r="Y856" s="3"/>
       <c r="Z856" s="3"/>
     </row>
-    <row r="857" ht="19.5" customHeight="1">
+    <row r="857" spans="1:26" ht="19.5" customHeight="1">
       <c r="A857" s="3"/>
       <c r="B857" s="3"/>
       <c r="C857" s="3"/>
@@ -24364,7 +24400,7 @@
       <c r="Y857" s="3"/>
       <c r="Z857" s="3"/>
     </row>
-    <row r="858" ht="19.5" customHeight="1">
+    <row r="858" spans="1:26" ht="19.5" customHeight="1">
       <c r="A858" s="3"/>
       <c r="B858" s="3"/>
       <c r="C858" s="3"/>
@@ -24392,7 +24428,7 @@
       <c r="Y858" s="3"/>
       <c r="Z858" s="3"/>
     </row>
-    <row r="859" ht="19.5" customHeight="1">
+    <row r="859" spans="1:26" ht="19.5" customHeight="1">
       <c r="A859" s="3"/>
       <c r="B859" s="3"/>
       <c r="C859" s="3"/>
@@ -24420,7 +24456,7 @@
       <c r="Y859" s="3"/>
       <c r="Z859" s="3"/>
     </row>
-    <row r="860" ht="19.5" customHeight="1">
+    <row r="860" spans="1:26" ht="19.5" customHeight="1">
       <c r="A860" s="3"/>
       <c r="B860" s="3"/>
       <c r="C860" s="3"/>
@@ -24448,7 +24484,7 @@
       <c r="Y860" s="3"/>
       <c r="Z860" s="3"/>
     </row>
-    <row r="861" ht="19.5" customHeight="1">
+    <row r="861" spans="1:26" ht="19.5" customHeight="1">
       <c r="A861" s="3"/>
       <c r="B861" s="3"/>
       <c r="C861" s="3"/>
@@ -24476,7 +24512,7 @@
       <c r="Y861" s="3"/>
       <c r="Z861" s="3"/>
     </row>
-    <row r="862" ht="19.5" customHeight="1">
+    <row r="862" spans="1:26" ht="19.5" customHeight="1">
       <c r="A862" s="3"/>
       <c r="B862" s="3"/>
       <c r="C862" s="3"/>
@@ -24504,7 +24540,7 @@
       <c r="Y862" s="3"/>
       <c r="Z862" s="3"/>
     </row>
-    <row r="863" ht="19.5" customHeight="1">
+    <row r="863" spans="1:26" ht="19.5" customHeight="1">
       <c r="A863" s="3"/>
       <c r="B863" s="3"/>
       <c r="C863" s="3"/>
@@ -24532,7 +24568,7 @@
       <c r="Y863" s="3"/>
       <c r="Z863" s="3"/>
     </row>
-    <row r="864" ht="19.5" customHeight="1">
+    <row r="864" spans="1:26" ht="19.5" customHeight="1">
       <c r="A864" s="3"/>
       <c r="B864" s="3"/>
       <c r="C864" s="3"/>
@@ -24560,7 +24596,7 @@
       <c r="Y864" s="3"/>
       <c r="Z864" s="3"/>
     </row>
-    <row r="865" ht="19.5" customHeight="1">
+    <row r="865" spans="1:26" ht="19.5" customHeight="1">
       <c r="A865" s="3"/>
       <c r="B865" s="3"/>
       <c r="C865" s="3"/>
@@ -24588,7 +24624,7 @@
       <c r="Y865" s="3"/>
       <c r="Z865" s="3"/>
     </row>
-    <row r="866" ht="19.5" customHeight="1">
+    <row r="866" spans="1:26" ht="19.5" customHeight="1">
       <c r="A866" s="3"/>
       <c r="B866" s="3"/>
       <c r="C866" s="3"/>
@@ -24616,7 +24652,7 @@
       <c r="Y866" s="3"/>
       <c r="Z866" s="3"/>
     </row>
-    <row r="867" ht="19.5" customHeight="1">
+    <row r="867" spans="1:26" ht="19.5" customHeight="1">
       <c r="A867" s="3"/>
       <c r="B867" s="3"/>
       <c r="C867" s="3"/>
@@ -24644,7 +24680,7 @@
       <c r="Y867" s="3"/>
       <c r="Z867" s="3"/>
     </row>
-    <row r="868" ht="19.5" customHeight="1">
+    <row r="868" spans="1:26" ht="19.5" customHeight="1">
       <c r="A868" s="3"/>
       <c r="B868" s="3"/>
       <c r="C868" s="3"/>
@@ -24672,7 +24708,7 @@
       <c r="Y868" s="3"/>
       <c r="Z868" s="3"/>
     </row>
-    <row r="869" ht="19.5" customHeight="1">
+    <row r="869" spans="1:26" ht="19.5" customHeight="1">
       <c r="A869" s="3"/>
       <c r="B869" s="3"/>
       <c r="C869" s="3"/>
@@ -24700,7 +24736,7 @@
       <c r="Y869" s="3"/>
       <c r="Z869" s="3"/>
     </row>
-    <row r="870" ht="19.5" customHeight="1">
+    <row r="870" spans="1:26" ht="19.5" customHeight="1">
       <c r="A870" s="3"/>
       <c r="B870" s="3"/>
       <c r="C870" s="3"/>
@@ -24728,7 +24764,7 @@
       <c r="Y870" s="3"/>
       <c r="Z870" s="3"/>
     </row>
-    <row r="871" ht="19.5" customHeight="1">
+    <row r="871" spans="1:26" ht="19.5" customHeight="1">
       <c r="A871" s="3"/>
       <c r="B871" s="3"/>
       <c r="C871" s="3"/>
@@ -24756,7 +24792,7 @@
       <c r="Y871" s="3"/>
       <c r="Z871" s="3"/>
     </row>
-    <row r="872" ht="19.5" customHeight="1">
+    <row r="872" spans="1:26" ht="19.5" customHeight="1">
       <c r="A872" s="3"/>
       <c r="B872" s="3"/>
       <c r="C872" s="3"/>
@@ -24784,7 +24820,7 @@
       <c r="Y872" s="3"/>
       <c r="Z872" s="3"/>
     </row>
-    <row r="873" ht="19.5" customHeight="1">
+    <row r="873" spans="1:26" ht="19.5" customHeight="1">
       <c r="A873" s="3"/>
       <c r="B873" s="3"/>
       <c r="C873" s="3"/>
@@ -24812,7 +24848,7 @@
       <c r="Y873" s="3"/>
       <c r="Z873" s="3"/>
     </row>
-    <row r="874" ht="19.5" customHeight="1">
+    <row r="874" spans="1:26" ht="19.5" customHeight="1">
       <c r="A874" s="3"/>
       <c r="B874" s="3"/>
       <c r="C874" s="3"/>
@@ -24840,7 +24876,7 @@
       <c r="Y874" s="3"/>
       <c r="Z874" s="3"/>
     </row>
-    <row r="875" ht="19.5" customHeight="1">
+    <row r="875" spans="1:26" ht="19.5" customHeight="1">
       <c r="A875" s="3"/>
       <c r="B875" s="3"/>
       <c r="C875" s="3"/>
@@ -24868,7 +24904,7 @@
       <c r="Y875" s="3"/>
       <c r="Z875" s="3"/>
     </row>
-    <row r="876" ht="19.5" customHeight="1">
+    <row r="876" spans="1:26" ht="19.5" customHeight="1">
       <c r="A876" s="3"/>
       <c r="B876" s="3"/>
       <c r="C876" s="3"/>
@@ -24896,7 +24932,7 @@
       <c r="Y876" s="3"/>
       <c r="Z876" s="3"/>
     </row>
-    <row r="877" ht="19.5" customHeight="1">
+    <row r="877" spans="1:26" ht="19.5" customHeight="1">
       <c r="A877" s="3"/>
       <c r="B877" s="3"/>
       <c r="C877" s="3"/>
@@ -24924,7 +24960,7 @@
       <c r="Y877" s="3"/>
       <c r="Z877" s="3"/>
     </row>
-    <row r="878" ht="19.5" customHeight="1">
+    <row r="878" spans="1:26" ht="19.5" customHeight="1">
       <c r="A878" s="3"/>
       <c r="B878" s="3"/>
       <c r="C878" s="3"/>
@@ -24952,7 +24988,7 @@
       <c r="Y878" s="3"/>
       <c r="Z878" s="3"/>
     </row>
-    <row r="879" ht="19.5" customHeight="1">
+    <row r="879" spans="1:26" ht="19.5" customHeight="1">
       <c r="A879" s="3"/>
       <c r="B879" s="3"/>
       <c r="C879" s="3"/>
@@ -24980,7 +25016,7 @@
       <c r="Y879" s="3"/>
       <c r="Z879" s="3"/>
     </row>
-    <row r="880" ht="19.5" customHeight="1">
+    <row r="880" spans="1:26" ht="19.5" customHeight="1">
       <c r="A880" s="3"/>
       <c r="B880" s="3"/>
       <c r="C880" s="3"/>
@@ -25008,7 +25044,7 @@
       <c r="Y880" s="3"/>
       <c r="Z880" s="3"/>
     </row>
-    <row r="881" ht="19.5" customHeight="1">
+    <row r="881" spans="1:26" ht="19.5" customHeight="1">
       <c r="A881" s="3"/>
       <c r="B881" s="3"/>
       <c r="C881" s="3"/>
@@ -25036,7 +25072,7 @@
       <c r="Y881" s="3"/>
       <c r="Z881" s="3"/>
     </row>
-    <row r="882" ht="19.5" customHeight="1">
+    <row r="882" spans="1:26" ht="19.5" customHeight="1">
       <c r="A882" s="3"/>
       <c r="B882" s="3"/>
       <c r="C882" s="3"/>
@@ -25064,7 +25100,7 @@
       <c r="Y882" s="3"/>
       <c r="Z882" s="3"/>
     </row>
-    <row r="883" ht="19.5" customHeight="1">
+    <row r="883" spans="1:26" ht="19.5" customHeight="1">
       <c r="A883" s="3"/>
       <c r="B883" s="3"/>
       <c r="C883" s="3"/>
@@ -25092,7 +25128,7 @@
       <c r="Y883" s="3"/>
       <c r="Z883" s="3"/>
     </row>
-    <row r="884" ht="19.5" customHeight="1">
+    <row r="884" spans="1:26" ht="19.5" customHeight="1">
       <c r="A884" s="3"/>
       <c r="B884" s="3"/>
       <c r="C884" s="3"/>
@@ -25120,7 +25156,7 @@
       <c r="Y884" s="3"/>
       <c r="Z884" s="3"/>
     </row>
-    <row r="885" ht="19.5" customHeight="1">
+    <row r="885" spans="1:26" ht="19.5" customHeight="1">
       <c r="A885" s="3"/>
       <c r="B885" s="3"/>
       <c r="C885" s="3"/>
@@ -25148,7 +25184,7 @@
       <c r="Y885" s="3"/>
       <c r="Z885" s="3"/>
     </row>
-    <row r="886" ht="19.5" customHeight="1">
+    <row r="886" spans="1:26" ht="19.5" customHeight="1">
       <c r="A886" s="3"/>
       <c r="B886" s="3"/>
       <c r="C886" s="3"/>
@@ -25176,7 +25212,7 @@
       <c r="Y886" s="3"/>
       <c r="Z886" s="3"/>
     </row>
-    <row r="887" ht="19.5" customHeight="1">
+    <row r="887" spans="1:26" ht="19.5" customHeight="1">
       <c r="A887" s="3"/>
       <c r="B887" s="3"/>
       <c r="C887" s="3"/>
@@ -25204,7 +25240,7 @@
       <c r="Y887" s="3"/>
       <c r="Z887" s="3"/>
     </row>
-    <row r="888" ht="19.5" customHeight="1">
+    <row r="888" spans="1:26" ht="19.5" customHeight="1">
       <c r="A888" s="3"/>
       <c r="B888" s="3"/>
       <c r="C888" s="3"/>
@@ -25232,7 +25268,7 @@
       <c r="Y888" s="3"/>
       <c r="Z888" s="3"/>
     </row>
-    <row r="889" ht="19.5" customHeight="1">
+    <row r="889" spans="1:26" ht="19.5" customHeight="1">
       <c r="A889" s="3"/>
       <c r="B889" s="3"/>
       <c r="C889" s="3"/>
@@ -25260,7 +25296,7 @@
       <c r="Y889" s="3"/>
       <c r="Z889" s="3"/>
     </row>
-    <row r="890" ht="19.5" customHeight="1">
+    <row r="890" spans="1:26" ht="19.5" customHeight="1">
       <c r="A890" s="3"/>
       <c r="B890" s="3"/>
       <c r="C890" s="3"/>
@@ -25288,7 +25324,7 @@
       <c r="Y890" s="3"/>
       <c r="Z890" s="3"/>
     </row>
-    <row r="891" ht="19.5" customHeight="1">
+    <row r="891" spans="1:26" ht="19.5" customHeight="1">
       <c r="A891" s="3"/>
       <c r="B891" s="3"/>
       <c r="C891" s="3"/>
@@ -25316,7 +25352,7 @@
       <c r="Y891" s="3"/>
       <c r="Z891" s="3"/>
     </row>
-    <row r="892" ht="19.5" customHeight="1">
+    <row r="892" spans="1:26" ht="19.5" customHeight="1">
       <c r="A892" s="3"/>
       <c r="B892" s="3"/>
       <c r="C892" s="3"/>
@@ -25344,7 +25380,7 @@
       <c r="Y892" s="3"/>
       <c r="Z892" s="3"/>
     </row>
-    <row r="893" ht="19.5" customHeight="1">
+    <row r="893" spans="1:26" ht="19.5" customHeight="1">
       <c r="A893" s="3"/>
       <c r="B893" s="3"/>
       <c r="C893" s="3"/>
@@ -25372,7 +25408,7 @@
       <c r="Y893" s="3"/>
       <c r="Z893" s="3"/>
     </row>
-    <row r="894" ht="19.5" customHeight="1">
+    <row r="894" spans="1:26" ht="19.5" customHeight="1">
       <c r="A894" s="3"/>
       <c r="B894" s="3"/>
       <c r="C894" s="3"/>
@@ -25400,7 +25436,7 @@
       <c r="Y894" s="3"/>
       <c r="Z894" s="3"/>
     </row>
-    <row r="895" ht="19.5" customHeight="1">
+    <row r="895" spans="1:26" ht="19.5" customHeight="1">
       <c r="A895" s="3"/>
       <c r="B895" s="3"/>
       <c r="C895" s="3"/>
@@ -25428,7 +25464,7 @@
       <c r="Y895" s="3"/>
       <c r="Z895" s="3"/>
     </row>
-    <row r="896" ht="19.5" customHeight="1">
+    <row r="896" spans="1:26" ht="19.5" customHeight="1">
       <c r="A896" s="3"/>
       <c r="B896" s="3"/>
       <c r="C896" s="3"/>
@@ -25456,7 +25492,7 @@
       <c r="Y896" s="3"/>
       <c r="Z896" s="3"/>
     </row>
-    <row r="897" ht="19.5" customHeight="1">
+    <row r="897" spans="1:26" ht="19.5" customHeight="1">
       <c r="A897" s="3"/>
       <c r="B897" s="3"/>
       <c r="C897" s="3"/>
@@ -25484,7 +25520,7 @@
       <c r="Y897" s="3"/>
       <c r="Z897" s="3"/>
     </row>
-    <row r="898" ht="19.5" customHeight="1">
+    <row r="898" spans="1:26" ht="19.5" customHeight="1">
       <c r="A898" s="3"/>
       <c r="B898" s="3"/>
       <c r="C898" s="3"/>
@@ -25512,7 +25548,7 @@
       <c r="Y898" s="3"/>
       <c r="Z898" s="3"/>
     </row>
-    <row r="899" ht="19.5" customHeight="1">
+    <row r="899" spans="1:26" ht="19.5" customHeight="1">
       <c r="A899" s="3"/>
       <c r="B899" s="3"/>
       <c r="C899" s="3"/>
@@ -25540,7 +25576,7 @@
       <c r="Y899" s="3"/>
       <c r="Z899" s="3"/>
     </row>
-    <row r="900" ht="19.5" customHeight="1">
+    <row r="900" spans="1:26" ht="19.5" customHeight="1">
       <c r="A900" s="3"/>
       <c r="B900" s="3"/>
       <c r="C900" s="3"/>
@@ -25568,7 +25604,7 @@
       <c r="Y900" s="3"/>
       <c r="Z900" s="3"/>
     </row>
-    <row r="901" ht="19.5" customHeight="1">
+    <row r="901" spans="1:26" ht="19.5" customHeight="1">
       <c r="A901" s="3"/>
       <c r="B901" s="3"/>
       <c r="C901" s="3"/>
@@ -25596,7 +25632,7 @@
       <c r="Y901" s="3"/>
       <c r="Z901" s="3"/>
     </row>
-    <row r="902" ht="19.5" customHeight="1">
+    <row r="902" spans="1:26" ht="19.5" customHeight="1">
       <c r="A902" s="3"/>
       <c r="B902" s="3"/>
       <c r="C902" s="3"/>
@@ -25624,7 +25660,7 @@
       <c r="Y902" s="3"/>
       <c r="Z902" s="3"/>
     </row>
-    <row r="903" ht="19.5" customHeight="1">
+    <row r="903" spans="1:26" ht="19.5" customHeight="1">
       <c r="A903" s="3"/>
       <c r="B903" s="3"/>
       <c r="C903" s="3"/>
@@ -25652,7 +25688,7 @@
       <c r="Y903" s="3"/>
       <c r="Z903" s="3"/>
     </row>
-    <row r="904" ht="19.5" customHeight="1">
+    <row r="904" spans="1:26" ht="19.5" customHeight="1">
       <c r="A904" s="3"/>
       <c r="B904" s="3"/>
       <c r="C904" s="3"/>
@@ -25680,7 +25716,7 @@
       <c r="Y904" s="3"/>
       <c r="Z904" s="3"/>
     </row>
-    <row r="905" ht="19.5" customHeight="1">
+    <row r="905" spans="1:26" ht="19.5" customHeight="1">
       <c r="A905" s="3"/>
       <c r="B905" s="3"/>
       <c r="C905" s="3"/>
@@ -25708,7 +25744,7 @@
       <c r="Y905" s="3"/>
       <c r="Z905" s="3"/>
     </row>
-    <row r="906" ht="19.5" customHeight="1">
+    <row r="906" spans="1:26" ht="19.5" customHeight="1">
       <c r="A906" s="3"/>
       <c r="B906" s="3"/>
       <c r="C906" s="3"/>
@@ -25736,7 +25772,7 @@
       <c r="Y906" s="3"/>
       <c r="Z906" s="3"/>
     </row>
-    <row r="907" ht="19.5" customHeight="1">
+    <row r="907" spans="1:26" ht="19.5" customHeight="1">
       <c r="A907" s="3"/>
       <c r="B907" s="3"/>
       <c r="C907" s="3"/>
@@ -25764,7 +25800,7 @@
       <c r="Y907" s="3"/>
       <c r="Z907" s="3"/>
     </row>
-    <row r="908" ht="19.5" customHeight="1">
+    <row r="908" spans="1:26" ht="19.5" customHeight="1">
       <c r="A908" s="3"/>
       <c r="B908" s="3"/>
       <c r="C908" s="3"/>
@@ -25792,7 +25828,7 @@
       <c r="Y908" s="3"/>
       <c r="Z908" s="3"/>
     </row>
-    <row r="909" ht="19.5" customHeight="1">
+    <row r="909" spans="1:26" ht="19.5" customHeight="1">
       <c r="A909" s="3"/>
       <c r="B909" s="3"/>
       <c r="C909" s="3"/>
@@ -25820,7 +25856,7 @@
       <c r="Y909" s="3"/>
       <c r="Z909" s="3"/>
     </row>
-    <row r="910" ht="19.5" customHeight="1">
+    <row r="910" spans="1:26" ht="19.5" customHeight="1">
       <c r="A910" s="3"/>
       <c r="B910" s="3"/>
       <c r="C910" s="3"/>
@@ -25848,7 +25884,7 @@
       <c r="Y910" s="3"/>
       <c r="Z910" s="3"/>
     </row>
-    <row r="911" ht="19.5" customHeight="1">
+    <row r="911" spans="1:26" ht="19.5" customHeight="1">
       <c r="A911" s="3"/>
       <c r="B911" s="3"/>
       <c r="C911" s="3"/>
@@ -25876,7 +25912,7 @@
       <c r="Y911" s="3"/>
       <c r="Z911" s="3"/>
     </row>
-    <row r="912" ht="19.5" customHeight="1">
+    <row r="912" spans="1:26" ht="19.5" customHeight="1">
       <c r="A912" s="3"/>
       <c r="B912" s="3"/>
       <c r="C912" s="3"/>
@@ -25904,7 +25940,7 @@
       <c r="Y912" s="3"/>
       <c r="Z912" s="3"/>
     </row>
-    <row r="913" ht="19.5" customHeight="1">
+    <row r="913" spans="1:26" ht="19.5" customHeight="1">
       <c r="A913" s="3"/>
       <c r="B913" s="3"/>
       <c r="C913" s="3"/>
@@ -25932,7 +25968,7 @@
       <c r="Y913" s="3"/>
       <c r="Z913" s="3"/>
     </row>
-    <row r="914" ht="19.5" customHeight="1">
+    <row r="914" spans="1:26" ht="19.5" customHeight="1">
       <c r="A914" s="3"/>
       <c r="B914" s="3"/>
       <c r="C914" s="3"/>
@@ -25960,7 +25996,7 @@
       <c r="Y914" s="3"/>
       <c r="Z914" s="3"/>
     </row>
-    <row r="915" ht="19.5" customHeight="1">
+    <row r="915" spans="1:26" ht="19.5" customHeight="1">
       <c r="A915" s="3"/>
       <c r="B915" s="3"/>
       <c r="C915" s="3"/>
@@ -25988,7 +26024,7 @@
       <c r="Y915" s="3"/>
       <c r="Z915" s="3"/>
     </row>
-    <row r="916" ht="19.5" customHeight="1">
+    <row r="916" spans="1:26" ht="19.5" customHeight="1">
       <c r="A916" s="3"/>
       <c r="B916" s="3"/>
       <c r="C916" s="3"/>
@@ -26016,7 +26052,7 @@
       <c r="Y916" s="3"/>
       <c r="Z916" s="3"/>
     </row>
-    <row r="917" ht="19.5" customHeight="1">
+    <row r="917" spans="1:26" ht="19.5" customHeight="1">
       <c r="A917" s="3"/>
       <c r="B917" s="3"/>
       <c r="C917" s="3"/>
@@ -26044,7 +26080,7 @@
       <c r="Y917" s="3"/>
       <c r="Z917" s="3"/>
     </row>
-    <row r="918" ht="19.5" customHeight="1">
+    <row r="918" spans="1:26" ht="19.5" customHeight="1">
       <c r="A918" s="3"/>
       <c r="B918" s="3"/>
       <c r="C918" s="3"/>
@@ -26072,7 +26108,7 @@
       <c r="Y918" s="3"/>
       <c r="Z918" s="3"/>
     </row>
-    <row r="919" ht="19.5" customHeight="1">
+    <row r="919" spans="1:26" ht="19.5" customHeight="1">
       <c r="A919" s="3"/>
       <c r="B919" s="3"/>
       <c r="C919" s="3"/>
@@ -26100,7 +26136,7 @@
       <c r="Y919" s="3"/>
       <c r="Z919" s="3"/>
     </row>
-    <row r="920" ht="19.5" customHeight="1">
+    <row r="920" spans="1:26" ht="19.5" customHeight="1">
       <c r="A920" s="3"/>
       <c r="B920" s="3"/>
       <c r="C920" s="3"/>
@@ -26128,7 +26164,7 @@
       <c r="Y920" s="3"/>
       <c r="Z920" s="3"/>
     </row>
-    <row r="921" ht="19.5" customHeight="1">
+    <row r="921" spans="1:26" ht="19.5" customHeight="1">
       <c r="A921" s="3"/>
       <c r="B921" s="3"/>
       <c r="C921" s="3"/>
@@ -26156,7 +26192,7 @@
       <c r="Y921" s="3"/>
       <c r="Z921" s="3"/>
     </row>
-    <row r="922" ht="19.5" customHeight="1">
+    <row r="922" spans="1:26" ht="19.5" customHeight="1">
       <c r="A922" s="3"/>
       <c r="B922" s="3"/>
       <c r="C922" s="3"/>
@@ -26184,7 +26220,7 @@
       <c r="Y922" s="3"/>
       <c r="Z922" s="3"/>
     </row>
-    <row r="923" ht="19.5" customHeight="1">
+    <row r="923" spans="1:26" ht="19.5" customHeight="1">
       <c r="A923" s="3"/>
       <c r="B923" s="3"/>
       <c r="C923" s="3"/>
@@ -26212,7 +26248,7 @@
       <c r="Y923" s="3"/>
       <c r="Z923" s="3"/>
     </row>
-    <row r="924" ht="19.5" customHeight="1">
+    <row r="924" spans="1:26" ht="19.5" customHeight="1">
       <c r="A924" s="3"/>
       <c r="B924" s="3"/>
       <c r="C924" s="3"/>
@@ -26240,7 +26276,7 @@
       <c r="Y924" s="3"/>
       <c r="Z924" s="3"/>
     </row>
-    <row r="925" ht="19.5" customHeight="1">
+    <row r="925" spans="1:26" ht="19.5" customHeight="1">
       <c r="A925" s="3"/>
       <c r="B925" s="3"/>
       <c r="C925" s="3"/>
@@ -26268,7 +26304,7 @@
       <c r="Y925" s="3"/>
       <c r="Z925" s="3"/>
     </row>
-    <row r="926" ht="19.5" customHeight="1">
+    <row r="926" spans="1:26" ht="19.5" customHeight="1">
       <c r="A926" s="3"/>
       <c r="B926" s="3"/>
       <c r="C926" s="3"/>
@@ -26296,7 +26332,7 @@
       <c r="Y926" s="3"/>
       <c r="Z926" s="3"/>
     </row>
-    <row r="927" ht="19.5" customHeight="1">
+    <row r="927" spans="1:26" ht="19.5" customHeight="1">
       <c r="A927" s="3"/>
       <c r="B927" s="3"/>
       <c r="C927" s="3"/>
@@ -26324,7 +26360,7 @@
       <c r="Y927" s="3"/>
       <c r="Z927" s="3"/>
     </row>
-    <row r="928" ht="19.5" customHeight="1">
+    <row r="928" spans="1:26" ht="19.5" customHeight="1">
       <c r="A928" s="3"/>
       <c r="B928" s="3"/>
       <c r="C928" s="3"/>
@@ -26352,7 +26388,7 @@
       <c r="Y928" s="3"/>
       <c r="Z928" s="3"/>
     </row>
-    <row r="929" ht="19.5" customHeight="1">
+    <row r="929" spans="1:26" ht="19.5" customHeight="1">
       <c r="A929" s="3"/>
       <c r="B929" s="3"/>
       <c r="C929" s="3"/>
@@ -26380,7 +26416,7 @@
       <c r="Y929" s="3"/>
       <c r="Z929" s="3"/>
     </row>
-    <row r="930" ht="19.5" customHeight="1">
+    <row r="930" spans="1:26" ht="19.5" customHeight="1">
       <c r="A930" s="3"/>
       <c r="B930" s="3"/>
       <c r="C930" s="3"/>
@@ -26408,7 +26444,7 @@
       <c r="Y930" s="3"/>
       <c r="Z930" s="3"/>
     </row>
-    <row r="931" ht="19.5" customHeight="1">
+    <row r="931" spans="1:26" ht="19.5" customHeight="1">
       <c r="A931" s="3"/>
       <c r="B931" s="3"/>
       <c r="C931" s="3"/>
@@ -26436,7 +26472,7 @@
       <c r="Y931" s="3"/>
       <c r="Z931" s="3"/>
     </row>
-    <row r="932" ht="19.5" customHeight="1">
+    <row r="932" spans="1:26" ht="19.5" customHeight="1">
       <c r="A932" s="3"/>
       <c r="B932" s="3"/>
       <c r="C932" s="3"/>
@@ -26464,7 +26500,7 @@
       <c r="Y932" s="3"/>
       <c r="Z932" s="3"/>
     </row>
-    <row r="933" ht="19.5" customHeight="1">
+    <row r="933" spans="1:26" ht="19.5" customHeight="1">
       <c r="A933" s="3"/>
       <c r="B933" s="3"/>
       <c r="C933" s="3"/>
@@ -26492,7 +26528,7 @@
       <c r="Y933" s="3"/>
       <c r="Z933" s="3"/>
     </row>
-    <row r="934" ht="19.5" customHeight="1">
+    <row r="934" spans="1:26" ht="19.5" customHeight="1">
       <c r="A934" s="3"/>
       <c r="B934" s="3"/>
       <c r="C934" s="3"/>
@@ -26520,7 +26556,7 @@
       <c r="Y934" s="3"/>
       <c r="Z934" s="3"/>
     </row>
-    <row r="935" ht="19.5" customHeight="1">
+    <row r="935" spans="1:26" ht="19.5" customHeight="1">
       <c r="A935" s="3"/>
       <c r="B935" s="3"/>
       <c r="C935" s="3"/>
@@ -26548,7 +26584,7 @@
       <c r="Y935" s="3"/>
       <c r="Z935" s="3"/>
     </row>
-    <row r="936" ht="19.5" customHeight="1">
+    <row r="936" spans="1:26" ht="19.5" customHeight="1">
       <c r="A936" s="3"/>
       <c r="B936" s="3"/>
       <c r="C936" s="3"/>
@@ -26576,7 +26612,7 @@
       <c r="Y936" s="3"/>
       <c r="Z936" s="3"/>
     </row>
-    <row r="937" ht="19.5" customHeight="1">
+    <row r="937" spans="1:26" ht="19.5" customHeight="1">
       <c r="A937" s="3"/>
       <c r="B937" s="3"/>
       <c r="C937" s="3"/>
@@ -26604,7 +26640,7 @@
       <c r="Y937" s="3"/>
       <c r="Z937" s="3"/>
     </row>
-    <row r="938" ht="19.5" customHeight="1">
+    <row r="938" spans="1:26" ht="19.5" customHeight="1">
       <c r="A938" s="3"/>
       <c r="B938" s="3"/>
       <c r="C938" s="3"/>
@@ -26632,7 +26668,7 @@
       <c r="Y938" s="3"/>
       <c r="Z938" s="3"/>
     </row>
-    <row r="939" ht="19.5" customHeight="1">
+    <row r="939" spans="1:26" ht="19.5" customHeight="1">
       <c r="A939" s="3"/>
       <c r="B939" s="3"/>
       <c r="C939" s="3"/>
@@ -26660,7 +26696,7 @@
       <c r="Y939" s="3"/>
       <c r="Z939" s="3"/>
     </row>
-    <row r="940" ht="19.5" customHeight="1">
+    <row r="940" spans="1:26" ht="19.5" customHeight="1">
       <c r="A940" s="3"/>
       <c r="B940" s="3"/>
       <c r="C940" s="3"/>
@@ -26688,7 +26724,7 @@
       <c r="Y940" s="3"/>
       <c r="Z940" s="3"/>
     </row>
-    <row r="941" ht="19.5" customHeight="1">
+    <row r="941" spans="1:26" ht="19.5" customHeight="1">
       <c r="A941" s="3"/>
       <c r="B941" s="3"/>
       <c r="C941" s="3"/>
@@ -26716,7 +26752,7 @@
       <c r="Y941" s="3"/>
       <c r="Z941" s="3"/>
     </row>
-    <row r="942" ht="19.5" customHeight="1">
+    <row r="942" spans="1:26" ht="19.5" customHeight="1">
       <c r="A942" s="3"/>
       <c r="B942" s="3"/>
       <c r="C942" s="3"/>
@@ -26744,7 +26780,7 @@
       <c r="Y942" s="3"/>
       <c r="Z942" s="3"/>
     </row>
-    <row r="943" ht="19.5" customHeight="1">
+    <row r="943" spans="1:26" ht="19.5" customHeight="1">
       <c r="A943" s="3"/>
       <c r="B943" s="3"/>
       <c r="C943" s="3"/>
@@ -26772,7 +26808,7 @@
       <c r="Y943" s="3"/>
       <c r="Z943" s="3"/>
     </row>
-    <row r="944" ht="19.5" customHeight="1">
+    <row r="944" spans="1:26" ht="19.5" customHeight="1">
       <c r="A944" s="3"/>
       <c r="B944" s="3"/>
       <c r="C944" s="3"/>
@@ -26800,7 +26836,7 @@
       <c r="Y944" s="3"/>
       <c r="Z944" s="3"/>
     </row>
-    <row r="945" ht="19.5" customHeight="1">
+    <row r="945" spans="1:26" ht="19.5" customHeight="1">
       <c r="A945" s="3"/>
       <c r="B945" s="3"/>
       <c r="C945" s="3"/>
@@ -26828,7 +26864,7 @@
       <c r="Y945" s="3"/>
       <c r="Z945" s="3"/>
     </row>
-    <row r="946" ht="19.5" customHeight="1">
+    <row r="946" spans="1:26" ht="19.5" customHeight="1">
       <c r="A946" s="3"/>
       <c r="B946" s="3"/>
       <c r="C946" s="3"/>
@@ -26856,7 +26892,7 @@
       <c r="Y946" s="3"/>
       <c r="Z946" s="3"/>
     </row>
-    <row r="947" ht="19.5" customHeight="1">
+    <row r="947" spans="1:26" ht="19.5" customHeight="1">
       <c r="A947" s="3"/>
       <c r="B947" s="3"/>
       <c r="C947" s="3"/>
@@ -26884,7 +26920,7 @@
       <c r="Y947" s="3"/>
       <c r="Z947" s="3"/>
     </row>
-    <row r="948" ht="19.5" customHeight="1">
+    <row r="948" spans="1:26" ht="19.5" customHeight="1">
       <c r="A948" s="3"/>
       <c r="B948" s="3"/>
       <c r="C948" s="3"/>
@@ -26912,7 +26948,7 @@
       <c r="Y948" s="3"/>
       <c r="Z948" s="3"/>
     </row>
-    <row r="949" ht="19.5" customHeight="1">
+    <row r="949" spans="1:26" ht="19.5" customHeight="1">
       <c r="A949" s="3"/>
       <c r="B949" s="3"/>
       <c r="C949" s="3"/>
@@ -26940,7 +26976,7 @@
       <c r="Y949" s="3"/>
       <c r="Z949" s="3"/>
     </row>
-    <row r="950" ht="19.5" customHeight="1">
+    <row r="950" spans="1:26" ht="19.5" customHeight="1">
       <c r="A950" s="3"/>
       <c r="B950" s="3"/>
       <c r="C950" s="3"/>
@@ -26968,7 +27004,7 @@
       <c r="Y950" s="3"/>
       <c r="Z950" s="3"/>
     </row>
-    <row r="951" ht="19.5" customHeight="1">
+    <row r="951" spans="1:26" ht="19.5" customHeight="1">
       <c r="A951" s="3"/>
       <c r="B951" s="3"/>
       <c r="C951" s="3"/>
@@ -26996,7 +27032,7 @@
       <c r="Y951" s="3"/>
       <c r="Z951" s="3"/>
     </row>
-    <row r="952" ht="19.5" customHeight="1">
+    <row r="952" spans="1:26" ht="19.5" customHeight="1">
       <c r="A952" s="3"/>
       <c r="B952" s="3"/>
       <c r="C952" s="3"/>
@@ -27024,7 +27060,7 @@
       <c r="Y952" s="3"/>
       <c r="Z952" s="3"/>
     </row>
-    <row r="953" ht="19.5" customHeight="1">
+    <row r="953" spans="1:26" ht="19.5" customHeight="1">
       <c r="A953" s="3"/>
       <c r="B953" s="3"/>
       <c r="C953" s="3"/>
@@ -27052,7 +27088,7 @@
       <c r="Y953" s="3"/>
       <c r="Z953" s="3"/>
     </row>
-    <row r="954" ht="19.5" customHeight="1">
+    <row r="954" spans="1:26" ht="19.5" customHeight="1">
       <c r="A954" s="3"/>
       <c r="B954" s="3"/>
       <c r="C954" s="3"/>
@@ -27080,7 +27116,7 @@
       <c r="Y954" s="3"/>
       <c r="Z954" s="3"/>
     </row>
-    <row r="955" ht="19.5" customHeight="1">
+    <row r="955" spans="1:26" ht="19.5" customHeight="1">
       <c r="A955" s="3"/>
       <c r="B955" s="3"/>
       <c r="C955" s="3"/>
@@ -27108,7 +27144,7 @@
       <c r="Y955" s="3"/>
       <c r="Z955" s="3"/>
     </row>
-    <row r="956" ht="19.5" customHeight="1">
+    <row r="956" spans="1:26" ht="19.5" customHeight="1">
       <c r="A956" s="3"/>
       <c r="B956" s="3"/>
       <c r="C956" s="3"/>
@@ -27136,7 +27172,7 @@
       <c r="Y956" s="3"/>
       <c r="Z956" s="3"/>
     </row>
-    <row r="957" ht="19.5" customHeight="1">
+    <row r="957" spans="1:26" ht="19.5" customHeight="1">
       <c r="A957" s="3"/>
       <c r="B957" s="3"/>
       <c r="C957" s="3"/>
@@ -27164,7 +27200,7 @@
       <c r="Y957" s="3"/>
       <c r="Z957" s="3"/>
     </row>
-    <row r="958" ht="19.5" customHeight="1">
+    <row r="958" spans="1:26" ht="19.5" customHeight="1">
       <c r="A958" s="3"/>
       <c r="B958" s="3"/>
       <c r="C958" s="3"/>
@@ -27192,7 +27228,7 @@
       <c r="Y958" s="3"/>
       <c r="Z958" s="3"/>
     </row>
-    <row r="959" ht="19.5" customHeight="1">
+    <row r="959" spans="1:26" ht="19.5" customHeight="1">
       <c r="A959" s="3"/>
       <c r="B959" s="3"/>
       <c r="C959" s="3"/>
@@ -27220,7 +27256,7 @@
       <c r="Y959" s="3"/>
       <c r="Z959" s="3"/>
     </row>
-    <row r="960" ht="19.5" customHeight="1">
+    <row r="960" spans="1:26" ht="19.5" customHeight="1">
       <c r="A960" s="3"/>
       <c r="B960" s="3"/>
       <c r="C960" s="3"/>
@@ -27248,7 +27284,7 @@
       <c r="Y960" s="3"/>
       <c r="Z960" s="3"/>
     </row>
-    <row r="961" ht="19.5" customHeight="1">
+    <row r="961" spans="1:26" ht="19.5" customHeight="1">
       <c r="A961" s="3"/>
       <c r="B961" s="3"/>
       <c r="C961" s="3"/>
@@ -27276,7 +27312,7 @@
       <c r="Y961" s="3"/>
       <c r="Z961" s="3"/>
     </row>
-    <row r="962" ht="19.5" customHeight="1">
+    <row r="962" spans="1:26" ht="19.5" customHeight="1">
       <c r="A962" s="3"/>
       <c r="B962" s="3"/>
       <c r="C962" s="3"/>
@@ -27304,7 +27340,7 @@
       <c r="Y962" s="3"/>
       <c r="Z962" s="3"/>
     </row>
-    <row r="963" ht="19.5" customHeight="1">
+    <row r="963" spans="1:26" ht="19.5" customHeight="1">
       <c r="A963" s="3"/>
       <c r="B963" s="3"/>
       <c r="C963" s="3"/>
@@ -27332,7 +27368,7 @@
       <c r="Y963" s="3"/>
       <c r="Z963" s="3"/>
     </row>
-    <row r="964" ht="19.5" customHeight="1">
+    <row r="964" spans="1:26" ht="19.5" customHeight="1">
       <c r="A964" s="3"/>
       <c r="B964" s="3"/>
       <c r="C964" s="3"/>
@@ -27360,7 +27396,7 @@
       <c r="Y964" s="3"/>
       <c r="Z964" s="3"/>
     </row>
-    <row r="965" ht="19.5" customHeight="1">
+    <row r="965" spans="1:26" ht="19.5" customHeight="1">
       <c r="A965" s="3"/>
       <c r="B965" s="3"/>
       <c r="C965" s="3"/>
@@ -27388,7 +27424,7 @@
       <c r="Y965" s="3"/>
       <c r="Z965" s="3"/>
     </row>
-    <row r="966" ht="19.5" customHeight="1">
+    <row r="966" spans="1:26" ht="19.5" customHeight="1">
       <c r="A966" s="3"/>
       <c r="B966" s="3"/>
       <c r="C966" s="3"/>
@@ -27416,7 +27452,7 @@
       <c r="Y966" s="3"/>
       <c r="Z966" s="3"/>
     </row>
-    <row r="967" ht="19.5" customHeight="1">
+    <row r="967" spans="1:26" ht="19.5" customHeight="1">
       <c r="A967" s="3"/>
       <c r="B967" s="3"/>
       <c r="C967" s="3"/>
@@ -27444,7 +27480,7 @@
       <c r="Y967" s="3"/>
       <c r="Z967" s="3"/>
     </row>
-    <row r="968" ht="19.5" customHeight="1">
+    <row r="968" spans="1:26" ht="19.5" customHeight="1">
       <c r="A968" s="3"/>
       <c r="B968" s="3"/>
       <c r="C968" s="3"/>
@@ -27472,7 +27508,7 @@
       <c r="Y968" s="3"/>
       <c r="Z968" s="3"/>
     </row>
-    <row r="969" ht="19.5" customHeight="1">
+    <row r="969" spans="1:26" ht="19.5" customHeight="1">
       <c r="A969" s="3"/>
       <c r="B969" s="3"/>
       <c r="C969" s="3"/>
@@ -27500,7 +27536,7 @@
       <c r="Y969" s="3"/>
       <c r="Z969" s="3"/>
     </row>
-    <row r="970" ht="19.5" customHeight="1">
+    <row r="970" spans="1:26" ht="19.5" customHeight="1">
       <c r="A970" s="3"/>
       <c r="B970" s="3"/>
       <c r="C970" s="3"/>
@@ -27528,7 +27564,7 @@
       <c r="Y970" s="3"/>
       <c r="Z970" s="3"/>
     </row>
-    <row r="971" ht="19.5" customHeight="1">
+    <row r="971" spans="1:26" ht="19.5" customHeight="1">
       <c r="A971" s="3"/>
       <c r="B971" s="3"/>
       <c r="C971" s="3"/>
@@ -27556,7 +27592,7 @@
       <c r="Y971" s="3"/>
       <c r="Z971" s="3"/>
     </row>
-    <row r="972" ht="19.5" customHeight="1">
+    <row r="972" spans="1:26" ht="19.5" customHeight="1">
       <c r="A972" s="3"/>
       <c r="B972" s="3"/>
       <c r="C972" s="3"/>
@@ -27584,7 +27620,7 @@
       <c r="Y972" s="3"/>
       <c r="Z972" s="3"/>
     </row>
-    <row r="973" ht="19.5" customHeight="1">
+    <row r="973" spans="1:26" ht="19.5" customHeight="1">
       <c r="A973" s="3"/>
       <c r="B973" s="3"/>
       <c r="C973" s="3"/>
@@ -27612,7 +27648,7 @@
       <c r="Y973" s="3"/>
       <c r="Z973" s="3"/>
     </row>
-    <row r="974" ht="19.5" customHeight="1">
+    <row r="974" spans="1:26" ht="19.5" customHeight="1">
       <c r="A974" s="3"/>
       <c r="B974" s="3"/>
       <c r="C974" s="3"/>
@@ -27640,7 +27676,7 @@
       <c r="Y974" s="3"/>
       <c r="Z974" s="3"/>
     </row>
-    <row r="975" ht="19.5" customHeight="1">
+    <row r="975" spans="1:26" ht="19.5" customHeight="1">
       <c r="A975" s="3"/>
       <c r="B975" s="3"/>
       <c r="C975" s="3"/>
@@ -27668,7 +27704,7 @@
       <c r="Y975" s="3"/>
       <c r="Z975" s="3"/>
     </row>
-    <row r="976" ht="19.5" customHeight="1">
+    <row r="976" spans="1:26" ht="19.5" customHeight="1">
       <c r="A976" s="3"/>
       <c r="B976" s="3"/>
       <c r="C976" s="3"/>
@@ -27696,7 +27732,7 @@
       <c r="Y976" s="3"/>
       <c r="Z976" s="3"/>
     </row>
-    <row r="977" ht="19.5" customHeight="1">
+    <row r="977" spans="1:26" ht="19.5" customHeight="1">
       <c r="A977" s="3"/>
       <c r="B977" s="3"/>
       <c r="C977" s="3"/>
@@ -27724,7 +27760,7 @@
       <c r="Y977" s="3"/>
       <c r="Z977" s="3"/>
     </row>
-    <row r="978" ht="19.5" customHeight="1">
+    <row r="978" spans="1:26" ht="19.5" customHeight="1">
       <c r="A978" s="3"/>
       <c r="B978" s="3"/>
       <c r="C978" s="3"/>
@@ -27752,7 +27788,7 @@
       <c r="Y978" s="3"/>
       <c r="Z978" s="3"/>
     </row>
-    <row r="979" ht="19.5" customHeight="1">
+    <row r="979" spans="1:26" ht="19.5" customHeight="1">
       <c r="A979" s="3"/>
       <c r="B979" s="3"/>
       <c r="C979" s="3"/>
@@ -27780,7 +27816,7 @@
       <c r="Y979" s="3"/>
       <c r="Z979" s="3"/>
     </row>
-    <row r="980" ht="19.5" customHeight="1">
+    <row r="980" spans="1:26" ht="19.5" customHeight="1">
       <c r="A980" s="3"/>
       <c r="B980" s="3"/>
       <c r="C980" s="3"/>
@@ -27808,7 +27844,7 @@
       <c r="Y980" s="3"/>
       <c r="Z980" s="3"/>
     </row>
-    <row r="981" ht="19.5" customHeight="1">
+    <row r="981" spans="1:26" ht="19.5" customHeight="1">
       <c r="A981" s="3"/>
       <c r="B981" s="3"/>
       <c r="C981" s="3"/>
@@ -27836,7 +27872,7 @@
       <c r="Y981" s="3"/>
       <c r="Z981" s="3"/>
     </row>
-    <row r="982" ht="19.5" customHeight="1">
+    <row r="982" spans="1:26" ht="19.5" customHeight="1">
       <c r="A982" s="3"/>
       <c r="B982" s="3"/>
       <c r="C982" s="3"/>
@@ -27864,7 +27900,7 @@
       <c r="Y982" s="3"/>
       <c r="Z982" s="3"/>
     </row>
-    <row r="983" ht="19.5" customHeight="1">
+    <row r="983" spans="1:26" ht="19.5" customHeight="1">
       <c r="A983" s="3"/>
       <c r="B983" s="3"/>
       <c r="C983" s="3"/>
@@ -27892,7 +27928,7 @@
       <c r="Y983" s="3"/>
       <c r="Z983" s="3"/>
     </row>
-    <row r="984" ht="19.5" customHeight="1">
+    <row r="984" spans="1:26" ht="19.5" customHeight="1">
       <c r="A984" s="3"/>
       <c r="B984" s="3"/>
       <c r="C984" s="3"/>
@@ -27920,7 +27956,7 @@
       <c r="Y984" s="3"/>
       <c r="Z984" s="3"/>
     </row>
-    <row r="985" ht="19.5" customHeight="1">
+    <row r="985" spans="1:26" ht="19.5" customHeight="1">
       <c r="A985" s="3"/>
       <c r="B985" s="3"/>
       <c r="C985" s="3"/>
@@ -27948,7 +27984,7 @@
       <c r="Y985" s="3"/>
       <c r="Z985" s="3"/>
     </row>
-    <row r="986" ht="19.5" customHeight="1">
+    <row r="986" spans="1:26" ht="19.5" customHeight="1">
       <c r="A986" s="3"/>
       <c r="B986" s="3"/>
       <c r="C986" s="3"/>
@@ -27976,7 +28012,7 @@
       <c r="Y986" s="3"/>
       <c r="Z986" s="3"/>
     </row>
-    <row r="987" ht="19.5" customHeight="1">
+    <row r="987" spans="1:26" ht="19.5" customHeight="1">
       <c r="A987" s="3"/>
       <c r="B987" s="3"/>
       <c r="C987" s="3"/>
@@ -28004,7 +28040,7 @@
       <c r="Y987" s="3"/>
       <c r="Z987" s="3"/>
     </row>
-    <row r="988" ht="19.5" customHeight="1">
+    <row r="988" spans="1:26" ht="19.5" customHeight="1">
       <c r="A988" s="3"/>
       <c r="B988" s="3"/>
       <c r="C988" s="3"/>
@@ -28032,7 +28068,7 @@
       <c r="Y988" s="3"/>
       <c r="Z988" s="3"/>
     </row>
-    <row r="989" ht="19.5" customHeight="1">
+    <row r="989" spans="1:26" ht="19.5" customHeight="1">
       <c r="A989" s="3"/>
       <c r="B989" s="3"/>
       <c r="C989" s="3"/>
@@ -28060,7 +28096,7 @@
       <c r="Y989" s="3"/>
       <c r="Z989" s="3"/>
     </row>
-    <row r="990" ht="19.5" customHeight="1">
+    <row r="990" spans="1:26" ht="19.5" customHeight="1">
       <c r="A990" s="3"/>
       <c r="B990" s="3"/>
       <c r="C990" s="3"/>
@@ -28088,7 +28124,7 @@
       <c r="Y990" s="3"/>
       <c r="Z990" s="3"/>
     </row>
-    <row r="991" ht="19.5" customHeight="1">
+    <row r="991" spans="1:26" ht="19.5" customHeight="1">
       <c r="A991" s="3"/>
       <c r="B991" s="3"/>
       <c r="C991" s="3"/>
@@ -28116,7 +28152,7 @@
       <c r="Y991" s="3"/>
       <c r="Z991" s="3"/>
     </row>
-    <row r="992" ht="19.5" customHeight="1">
+    <row r="992" spans="1:26" ht="19.5" customHeight="1">
       <c r="A992" s="3"/>
       <c r="B992" s="3"/>
       <c r="C992" s="3"/>
@@ -28144,7 +28180,7 @@
       <c r="Y992" s="3"/>
       <c r="Z992" s="3"/>
     </row>
-    <row r="993" ht="19.5" customHeight="1">
+    <row r="993" spans="1:26" ht="19.5" customHeight="1">
       <c r="A993" s="3"/>
       <c r="B993" s="3"/>
       <c r="C993" s="3"/>
@@ -28172,7 +28208,7 @@
       <c r="Y993" s="3"/>
       <c r="Z993" s="3"/>
     </row>
-    <row r="994" ht="19.5" customHeight="1">
+    <row r="994" spans="1:26" ht="19.5" customHeight="1">
       <c r="A994" s="3"/>
       <c r="B994" s="3"/>
       <c r="C994" s="3"/>
@@ -28200,7 +28236,7 @@
       <c r="Y994" s="3"/>
       <c r="Z994" s="3"/>
     </row>
-    <row r="995" ht="19.5" customHeight="1">
+    <row r="995" spans="1:26" ht="19.5" customHeight="1">
       <c r="A995" s="3"/>
       <c r="B995" s="3"/>
       <c r="C995" s="3"/>
@@ -28228,7 +28264,7 @@
       <c r="Y995" s="3"/>
       <c r="Z995" s="3"/>
     </row>
-    <row r="996" ht="19.5" customHeight="1">
+    <row r="996" spans="1:26" ht="19.5" customHeight="1">
       <c r="A996" s="3"/>
       <c r="B996" s="3"/>
       <c r="C996" s="3"/>
@@ -28256,7 +28292,7 @@
       <c r="Y996" s="3"/>
       <c r="Z996" s="3"/>
     </row>
-    <row r="997" ht="19.5" customHeight="1">
+    <row r="997" spans="1:26" ht="19.5" customHeight="1">
       <c r="A997" s="3"/>
       <c r="B997" s="3"/>
       <c r="C997" s="3"/>
@@ -28284,7 +28320,7 @@
       <c r="Y997" s="3"/>
       <c r="Z997" s="3"/>
     </row>
-    <row r="998" ht="19.5" customHeight="1">
+    <row r="998" spans="1:26" ht="19.5" customHeight="1">
       <c r="A998" s="3"/>
       <c r="B998" s="3"/>
       <c r="C998" s="3"/>
@@ -28312,7 +28348,7 @@
       <c r="Y998" s="3"/>
       <c r="Z998" s="3"/>
     </row>
-    <row r="999" ht="19.5" customHeight="1">
+    <row r="999" spans="1:26" ht="19.5" customHeight="1">
       <c r="A999" s="3"/>
       <c r="B999" s="3"/>
       <c r="C999" s="3"/>
@@ -28340,7 +28376,7 @@
       <c r="Y999" s="3"/>
       <c r="Z999" s="3"/>
     </row>
-    <row r="1000" ht="19.5" customHeight="1">
+    <row r="1000" spans="1:26" ht="19.5" customHeight="1">
       <c r="A1000" s="3"/>
       <c r="B1000" s="3"/>
       <c r="C1000" s="3"/>
@@ -28369,12 +28405,11 @@
       <c r="Z1000" s="3"/>
     </row>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="1.0" footer="0.0" header="0.0" left="1.0" right="1.0" top="1.0"/>
-  <pageSetup orientation="portrait"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0" footer="0"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C000000&amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>